--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DE-PARA Tabelas" sheetId="1" state="hidden" r:id="rId1"/>
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1352</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$J$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$J$151</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13814" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13824" uniqueCount="2347">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -6110,18 +6110,12 @@
     <t>ssis_stage_cap.dtsx</t>
   </si>
   <si>
-    <t>CAP - Mvmt Titulo</t>
-  </si>
-  <si>
     <t>VW_CAP_Pagto_Titulo.sql</t>
   </si>
   <si>
     <t>VW_CAP_Titulo_Pgto.sql</t>
   </si>
   <si>
-    <t>CAP - Pgto Titulo</t>
-  </si>
-  <si>
     <t>VW_CAP_Titulo.sql</t>
   </si>
   <si>
@@ -7059,6 +7053,24 @@
   </si>
   <si>
     <t>VL_PEDIDO_COMPRA</t>
+  </si>
+  <si>
+    <t>VW_CAP_Titulo_Referencia.sql</t>
+  </si>
+  <si>
+    <t>dbo.stg_cap_titulo_referencia</t>
+  </si>
+  <si>
+    <t>CAP - Titulo Referência</t>
+  </si>
+  <si>
+    <t>CAP - Titulo Mvmto</t>
+  </si>
+  <si>
+    <t>CAP - Titulo Pgto</t>
+  </si>
+  <si>
+    <t>CAR - Titulo</t>
   </si>
 </sst>
 </file>
@@ -8083,10 +8095,13 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8100,9 +8115,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9767,13 +9779,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L150"/>
+  <dimension ref="A2:L151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I150" sqref="I150"/>
+      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -10454,19 +10466,19 @@
         <v>1789</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="H21" s="42" t="s">
         <v>1790</v>
       </c>
       <c r="I21" s="43" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="J21" s="44" t="s">
         <v>1789</v>
@@ -12044,22 +12056,22 @@
       <c r="B68" s="46"/>
       <c r="C68" s="38"/>
       <c r="D68" s="39" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="H68" s="42" t="s">
         <v>1790</v>
       </c>
       <c r="I68" s="43" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="J68" s="44" t="s">
         <v>1789</v>
@@ -12322,7 +12334,7 @@
         <v>1790</v>
       </c>
       <c r="I76" s="70" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="J76" s="70"/>
       <c r="K76" s="70"/>
@@ -12352,7 +12364,7 @@
         <v>1790</v>
       </c>
       <c r="I77" s="70" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="J77" s="70"/>
       <c r="K77" s="70"/>
@@ -12382,7 +12394,7 @@
         <v>1790</v>
       </c>
       <c r="I78" s="70" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="J78" s="70"/>
       <c r="K78" s="70"/>
@@ -12394,13 +12406,13 @@
       </c>
       <c r="B79" s="46"/>
       <c r="C79" s="115" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="D79" s="66" t="s">
         <v>1789</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="F79" s="65" t="s">
         <v>123</v>
@@ -12412,7 +12424,7 @@
         <v>1790</v>
       </c>
       <c r="I79" s="70" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="J79" s="70"/>
       <c r="K79" s="70"/>
@@ -12442,7 +12454,7 @@
         <v>1790</v>
       </c>
       <c r="I80" s="71" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="J80" s="71"/>
       <c r="K80" s="71"/>
@@ -12706,7 +12718,7 @@
         <v>2025</v>
       </c>
       <c r="I90" s="43" t="s">
-        <v>2026</v>
+        <v>2344</v>
       </c>
       <c r="J90" s="44" t="s">
         <v>1789</v>
@@ -12722,13 +12734,13 @@
       </c>
       <c r="B91" s="143"/>
       <c r="C91" s="38" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D91" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F91" s="40" t="s">
         <v>4</v>
@@ -12740,7 +12752,7 @@
         <v>2025</v>
       </c>
       <c r="I91" s="43" t="s">
-        <v>2029</v>
+        <v>2345</v>
       </c>
       <c r="J91" s="44" t="s">
         <v>1789</v>
@@ -12755,26 +12767,24 @@
         <v>1659</v>
       </c>
       <c r="B92" s="143"/>
-      <c r="C92" s="38" t="s">
-        <v>2030</v>
-      </c>
+      <c r="C92" s="38"/>
       <c r="D92" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>2030</v>
+        <v>2341</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>5</v>
+        <v>2342</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>803</v>
+        <v>2339</v>
       </c>
       <c r="H92" s="42" t="s">
         <v>2025</v>
       </c>
       <c r="I92" s="63" t="s">
-        <v>2031</v>
+        <v>2343</v>
       </c>
       <c r="J92" s="44" t="s">
         <v>1789</v>
@@ -12782,29 +12792,43 @@
       <c r="K92" s="44" t="s">
         <v>1789</v>
       </c>
-      <c r="L92" s="45"/>
+      <c r="L92" s="45" t="s">
+        <v>1974</v>
+      </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="36" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B93" s="143"/>
-      <c r="C93" s="72" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D93" s="73"/>
-      <c r="E93" s="72" t="s">
-        <v>2032</v>
-      </c>
-      <c r="F93" s="91"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="79"/>
-      <c r="K93" s="79"/>
-      <c r="L93" s="45" t="s">
-        <v>2009</v>
-      </c>
+      <c r="C93" s="38" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>803</v>
+      </c>
+      <c r="H93" s="42" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I93" s="63" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J93" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K93" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L93" s="45"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="36" t="s">
@@ -12812,11 +12836,11 @@
       </c>
       <c r="B94" s="143"/>
       <c r="C94" s="72" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="D94" s="73"/>
       <c r="E94" s="72" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="F94" s="91"/>
       <c r="G94" s="92"/>
@@ -12834,14 +12858,14 @@
       </c>
       <c r="B95" s="143"/>
       <c r="C95" s="72" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="D95" s="73"/>
       <c r="E95" s="72" t="s">
-        <v>2034</v>
-      </c>
-      <c r="F95" s="72"/>
-      <c r="G95" s="74"/>
+        <v>2031</v>
+      </c>
+      <c r="F95" s="91"/>
+      <c r="G95" s="92"/>
       <c r="H95" s="75"/>
       <c r="I95" s="75"/>
       <c r="J95" s="79"/>
@@ -12852,81 +12876,69 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="36" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="88"/>
-      <c r="I96" s="93"/>
-      <c r="J96" s="88"/>
-      <c r="K96" s="88"/>
-      <c r="L96" s="45"/>
+        <v>1658</v>
+      </c>
+      <c r="B96" s="143"/>
+      <c r="C96" s="72" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D96" s="73"/>
+      <c r="E96" s="72" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F96" s="72"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="45" t="s">
+        <v>2009</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B97" s="94" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C97" s="38" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D97" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E97" s="40" t="s">
-        <v>2036</v>
-      </c>
-      <c r="F97" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G97" s="41" t="s">
-        <v>805</v>
-      </c>
-      <c r="H97" s="42" t="s">
-        <v>2037</v>
-      </c>
-      <c r="I97" s="43" t="s">
-        <v>2038</v>
-      </c>
-      <c r="J97" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K97" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B97" s="90"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="87"/>
+      <c r="H97" s="88"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="88"/>
+      <c r="K97" s="88"/>
       <c r="L97" s="45"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B98" s="95"/>
+      <c r="B98" s="94" t="s">
+        <v>2033</v>
+      </c>
       <c r="C98" s="38" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="D98" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="F98" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="H98" s="42" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="I98" s="43" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="J98" s="44" t="s">
         <v>1789</v>
@@ -12942,25 +12954,25 @@
       </c>
       <c r="B99" s="95"/>
       <c r="C99" s="38" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="D99" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E99" s="40" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="F99" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H99" s="42" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="I99" s="43" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="J99" s="44" t="s">
         <v>1789</v>
@@ -12976,25 +12988,25 @@
       </c>
       <c r="B100" s="95"/>
       <c r="C100" s="38" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="D100" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="F100" s="40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="H100" s="42" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="I100" s="43" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="J100" s="44" t="s">
         <v>1789</v>
@@ -13008,27 +13020,27 @@
       <c r="A101" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B101" s="96"/>
+      <c r="B101" s="95"/>
       <c r="C101" s="38" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="D101" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="F101" s="40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H101" s="42" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="I101" s="43" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="J101" s="44" t="s">
         <v>1789</v>
@@ -13042,131 +13054,131 @@
       <c r="A102" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B102" s="90"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="87"/>
-      <c r="H102" s="88"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="88"/>
-      <c r="K102" s="88"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="38" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E102" s="40" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>806</v>
+      </c>
+      <c r="H102" s="42" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I102" s="43" t="s">
+        <v>2346</v>
+      </c>
+      <c r="J102" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K102" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L102" s="45"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B103" s="97" t="s">
-        <v>2049</v>
-      </c>
-      <c r="C103" s="38" t="s">
-        <v>2050</v>
-      </c>
-      <c r="D103" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E103" s="40" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F103" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="41" t="s">
-        <v>852</v>
-      </c>
-      <c r="H103" s="42" t="s">
-        <v>2052</v>
-      </c>
-      <c r="I103" s="43" t="s">
-        <v>2053</v>
-      </c>
-      <c r="J103" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K103" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B103" s="90"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="87"/>
+      <c r="H103" s="88"/>
+      <c r="I103" s="89"/>
+      <c r="J103" s="88"/>
+      <c r="K103" s="88"/>
       <c r="L103" s="45"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B104" s="90"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="88"/>
+      <c r="B104" s="97" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="41" t="s">
+        <v>852</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I104" s="43" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J104" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K104" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L104" s="45"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B105" s="143" t="s">
-        <v>950</v>
-      </c>
-      <c r="C105" s="38" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D105" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E105" s="40" t="s">
-        <v>2055</v>
-      </c>
-      <c r="F105" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="41" t="s">
-        <v>809</v>
-      </c>
-      <c r="H105" s="42" t="s">
-        <v>2056</v>
-      </c>
-      <c r="I105" s="43" t="s">
-        <v>2057</v>
-      </c>
-      <c r="J105" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K105" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B105" s="90"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="88"/>
+      <c r="I105" s="89"/>
+      <c r="J105" s="88"/>
+      <c r="K105" s="88"/>
       <c r="L105" s="45"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B106" s="143"/>
+      <c r="B106" s="143" t="s">
+        <v>950</v>
+      </c>
       <c r="C106" s="38" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="D106" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="F106" s="40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H106" s="42" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="I106" s="43" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="J106" s="44" t="s">
         <v>1789</v>
@@ -13182,25 +13194,25 @@
       </c>
       <c r="B107" s="143"/>
       <c r="C107" s="38" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="D107" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E107" s="40" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="F107" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" s="41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H107" s="42" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="I107" s="43" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="J107" s="44" t="s">
         <v>1789</v>
@@ -13214,79 +13226,79 @@
       <c r="A108" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B108" s="90"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="84"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="89"/>
-      <c r="J108" s="88"/>
-      <c r="K108" s="88"/>
+      <c r="B108" s="143"/>
+      <c r="C108" s="38" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D108" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F108" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>808</v>
+      </c>
+      <c r="H108" s="42" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I108" s="43" t="s">
+        <v>2060</v>
+      </c>
+      <c r="J108" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K108" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L108" s="45"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B109" s="143" t="s">
-        <v>956</v>
-      </c>
-      <c r="C109" s="38" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D109" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>2064</v>
-      </c>
-      <c r="F109" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" s="41" t="s">
-        <v>811</v>
-      </c>
-      <c r="H109" s="42" t="s">
-        <v>2065</v>
-      </c>
-      <c r="I109" s="43" t="s">
-        <v>2066</v>
-      </c>
-      <c r="J109" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K109" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B109" s="90"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="89"/>
+      <c r="J109" s="88"/>
+      <c r="K109" s="88"/>
       <c r="L109" s="45"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B110" s="143"/>
+      <c r="B110" s="143" t="s">
+        <v>956</v>
+      </c>
       <c r="C110" s="38" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="D110" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="F110" s="40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H110" s="42" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="I110" s="43" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="J110" s="44" t="s">
         <v>1789</v>
@@ -13300,131 +13312,131 @@
       <c r="A111" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B111" s="90"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="87"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="88"/>
-      <c r="K111" s="88"/>
+      <c r="B111" s="143"/>
+      <c r="C111" s="38" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D111" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F111" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>810</v>
+      </c>
+      <c r="H111" s="42" t="s">
+        <v>2063</v>
+      </c>
+      <c r="I111" s="43" t="s">
+        <v>2066</v>
+      </c>
+      <c r="J111" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K111" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L111" s="45"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B112" s="97" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C112" s="38" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D112" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E112" s="40" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F112" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" s="41" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H112" s="42" t="s">
-        <v>2072</v>
-      </c>
-      <c r="I112" s="43" t="s">
-        <v>2073</v>
-      </c>
-      <c r="J112" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K112" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B112" s="90"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="86"/>
+      <c r="G112" s="87"/>
+      <c r="H112" s="88"/>
+      <c r="I112" s="89"/>
+      <c r="J112" s="88"/>
+      <c r="K112" s="88"/>
       <c r="L112" s="45"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B113" s="90"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="87"/>
-      <c r="H113" s="88"/>
-      <c r="I113" s="89"/>
-      <c r="J113" s="88"/>
-      <c r="K113" s="88"/>
+      <c r="B113" s="97" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E113" s="40" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F113" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H113" s="42" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I113" s="43" t="s">
+        <v>2071</v>
+      </c>
+      <c r="J113" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K113" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L113" s="45"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B114" s="143" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D114" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E114" s="40" t="s">
-        <v>2076</v>
-      </c>
-      <c r="F114" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" s="41" t="s">
-        <v>821</v>
-      </c>
-      <c r="H114" s="42" t="s">
-        <v>2077</v>
-      </c>
-      <c r="I114" s="43" t="s">
-        <v>2078</v>
-      </c>
-      <c r="J114" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K114" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B114" s="90"/>
+      <c r="C114" s="84"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="84"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="87"/>
+      <c r="H114" s="88"/>
+      <c r="I114" s="89"/>
+      <c r="J114" s="88"/>
+      <c r="K114" s="88"/>
       <c r="L114" s="45"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B115" s="143"/>
+      <c r="B115" s="143" t="s">
+        <v>2072</v>
+      </c>
       <c r="C115" s="38" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="D115" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="F115" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="I115" s="43" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="J115" s="44" t="s">
         <v>1789</v>
@@ -13440,25 +13452,25 @@
       </c>
       <c r="B116" s="143"/>
       <c r="C116" s="38" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="D116" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="F116" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="I116" s="43" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="J116" s="44" t="s">
         <v>1789</v>
@@ -13474,25 +13486,25 @@
       </c>
       <c r="B117" s="143"/>
       <c r="C117" s="38" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="D117" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E117" s="40" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="F117" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="I117" s="43" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="J117" s="44" t="s">
         <v>1789</v>
@@ -13506,79 +13518,79 @@
       <c r="A118" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B118" s="90"/>
-      <c r="C118" s="84"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="87"/>
-      <c r="H118" s="88"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="88"/>
-      <c r="K118" s="88"/>
+      <c r="B118" s="143"/>
+      <c r="C118" s="38" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D118" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E118" s="40" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F118" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>824</v>
+      </c>
+      <c r="H118" s="42" t="s">
+        <v>2075</v>
+      </c>
+      <c r="I118" s="43" t="s">
+        <v>2085</v>
+      </c>
+      <c r="J118" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K118" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L118" s="45"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B119" s="143" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C119" s="38" t="s">
-        <v>2089</v>
-      </c>
-      <c r="D119" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E119" s="40" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F119" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" s="41" t="s">
-        <v>816</v>
-      </c>
-      <c r="H119" s="42" t="s">
-        <v>2091</v>
-      </c>
-      <c r="I119" s="43" t="s">
-        <v>2092</v>
-      </c>
-      <c r="J119" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K119" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B119" s="90"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="86"/>
+      <c r="G119" s="87"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="89"/>
+      <c r="J119" s="88"/>
+      <c r="K119" s="88"/>
       <c r="L119" s="45"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B120" s="143"/>
+      <c r="B120" s="143" t="s">
+        <v>2086</v>
+      </c>
       <c r="C120" s="38" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="D120" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="F120" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G120" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H120" s="42" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I120" s="43" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="J120" s="44" t="s">
         <v>1789</v>
@@ -13594,25 +13606,25 @@
       </c>
       <c r="B121" s="143"/>
       <c r="C121" s="38" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="D121" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="F121" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H121" s="42" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="I121" s="43" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="J121" s="44" t="s">
         <v>1789</v>
@@ -13626,119 +13638,125 @@
       <c r="A122" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B122" s="90"/>
-      <c r="C122" s="84"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="84"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="87"/>
-      <c r="H122" s="88"/>
-      <c r="I122" s="89"/>
-      <c r="J122" s="88"/>
-      <c r="K122" s="88"/>
+      <c r="B122" s="143"/>
+      <c r="C122" s="38" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E122" s="40" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F122" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="41" t="s">
+        <v>818</v>
+      </c>
+      <c r="H122" s="42" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I122" s="43" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J122" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K122" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L122" s="45"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B123" s="97" t="s">
-        <v>2099</v>
-      </c>
-      <c r="C123" s="38" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D123" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E123" s="40" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F123" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123" s="41" t="s">
-        <v>825</v>
-      </c>
-      <c r="H123" s="42" t="s">
-        <v>2102</v>
-      </c>
-      <c r="I123" s="43" t="s">
-        <v>2103</v>
-      </c>
-      <c r="J123" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K123" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B123" s="90"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="84"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="87"/>
+      <c r="H123" s="88"/>
+      <c r="I123" s="89"/>
+      <c r="J123" s="88"/>
+      <c r="K123" s="88"/>
       <c r="L123" s="45"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B124" s="90"/>
-      <c r="C124" s="84"/>
-      <c r="D124" s="85"/>
-      <c r="E124" s="84"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="87"/>
-      <c r="H124" s="88"/>
-      <c r="I124" s="89"/>
-      <c r="J124" s="88"/>
-      <c r="K124" s="88"/>
+      <c r="B124" s="97" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F124" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="41" t="s">
+        <v>825</v>
+      </c>
+      <c r="H124" s="42" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I124" s="43" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J124" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K124" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L124" s="45"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="36" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B125" s="142" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C125" s="59" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D125" s="81" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E125" s="59" t="s">
-        <v>2105</v>
-      </c>
-      <c r="F125" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="G125" s="61" t="s">
-        <v>2106</v>
-      </c>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="44"/>
-      <c r="K125" s="44"/>
-      <c r="L125" s="45" t="s">
-        <v>2014</v>
-      </c>
+        <v>1659</v>
+      </c>
+      <c r="B125" s="90"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="84"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="87"/>
+      <c r="H125" s="88"/>
+      <c r="I125" s="89"/>
+      <c r="J125" s="88"/>
+      <c r="K125" s="88"/>
+      <c r="L125" s="45"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B126" s="142"/>
+      <c r="B126" s="144" t="s">
+        <v>2102</v>
+      </c>
       <c r="C126" s="59" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="D126" s="81" t="s">
         <v>1789</v>
       </c>
       <c r="E126" s="59" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="F126" s="60" t="s">
-        <v>1709</v>
+        <v>41</v>
       </c>
       <c r="G126" s="61" t="s">
-        <v>2014</v>
+        <v>2104</v>
       </c>
       <c r="H126" s="62"/>
       <c r="I126" s="62"/>
@@ -13750,81 +13768,75 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="36" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B127" s="90"/>
-      <c r="C127" s="84"/>
-      <c r="D127" s="85"/>
-      <c r="E127" s="84"/>
-      <c r="F127" s="86"/>
-      <c r="G127" s="87"/>
-      <c r="H127" s="88"/>
-      <c r="I127" s="89"/>
-      <c r="J127" s="88"/>
-      <c r="K127" s="88"/>
-      <c r="L127" s="45"/>
+        <v>1658</v>
+      </c>
+      <c r="B127" s="144"/>
+      <c r="C127" s="59" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D127" s="81" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E127" s="59" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F127" s="60" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G127" s="61" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H127" s="62"/>
+      <c r="I127" s="62"/>
+      <c r="J127" s="44"/>
+      <c r="K127" s="44"/>
+      <c r="L127" s="45" t="s">
+        <v>2014</v>
+      </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B128" s="143" t="s">
-        <v>2108</v>
-      </c>
-      <c r="C128" s="38" t="s">
-        <v>2109</v>
-      </c>
-      <c r="D128" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E128" s="40" t="s">
-        <v>2110</v>
-      </c>
-      <c r="F128" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G128" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="H128" s="42" t="s">
-        <v>2111</v>
-      </c>
-      <c r="I128" s="43" t="s">
-        <v>2112</v>
-      </c>
-      <c r="J128" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K128" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B128" s="90"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="84"/>
+      <c r="F128" s="86"/>
+      <c r="G128" s="87"/>
+      <c r="H128" s="88"/>
+      <c r="I128" s="89"/>
+      <c r="J128" s="88"/>
+      <c r="K128" s="88"/>
       <c r="L128" s="45"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B129" s="143"/>
+      <c r="B129" s="143" t="s">
+        <v>2106</v>
+      </c>
       <c r="C129" s="38" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="D129" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="F129" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G129" s="41" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H129" s="42" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="I129" s="43" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="J129" s="44" t="s">
         <v>1789</v>
@@ -13838,79 +13850,79 @@
       <c r="A130" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B130" s="90"/>
-      <c r="C130" s="84"/>
-      <c r="D130" s="85"/>
-      <c r="E130" s="84"/>
-      <c r="F130" s="86"/>
-      <c r="G130" s="87"/>
-      <c r="H130" s="88"/>
-      <c r="I130" s="89"/>
-      <c r="J130" s="88"/>
-      <c r="K130" s="88"/>
+      <c r="B130" s="143"/>
+      <c r="C130" s="38" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D130" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E130" s="40" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F130" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" s="41" t="s">
+        <v>829</v>
+      </c>
+      <c r="H130" s="42" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I130" s="43" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J130" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K130" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L130" s="45"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B131" s="143" t="s">
-        <v>2116</v>
-      </c>
-      <c r="C131" s="38" t="s">
-        <v>2117</v>
-      </c>
-      <c r="D131" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E131" s="40" t="s">
-        <v>2118</v>
-      </c>
-      <c r="F131" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G131" s="41" t="s">
-        <v>826</v>
-      </c>
-      <c r="H131" s="42" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I131" s="43" t="s">
-        <v>2120</v>
-      </c>
-      <c r="J131" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K131" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B131" s="90"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="84"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="87"/>
+      <c r="H131" s="88"/>
+      <c r="I131" s="89"/>
+      <c r="J131" s="88"/>
+      <c r="K131" s="88"/>
       <c r="L131" s="45"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B132" s="143"/>
+      <c r="B132" s="143" t="s">
+        <v>2114</v>
+      </c>
       <c r="C132" s="38" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="D132" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E132" s="40" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="F132" s="40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="I132" s="43" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="J132" s="44" t="s">
         <v>1789</v>
@@ -13926,25 +13938,25 @@
       </c>
       <c r="B133" s="143"/>
       <c r="C133" s="38" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="D133" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="F133" s="40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G133" s="41" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="H133" s="42" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="I133" s="43" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="J133" s="44" t="s">
         <v>1789</v>
@@ -13960,25 +13972,25 @@
       </c>
       <c r="B134" s="143"/>
       <c r="C134" s="38" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="D134" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E134" s="40" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="F134" s="40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I134" s="63" t="s">
-        <v>2129</v>
+        <v>2117</v>
+      </c>
+      <c r="I134" s="43" t="s">
+        <v>2124</v>
       </c>
       <c r="J134" s="44" t="s">
         <v>1789</v>
@@ -13990,113 +14002,113 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="36" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B135" s="98"/>
-      <c r="C135" s="59" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D135" s="81" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B135" s="143"/>
+      <c r="C135" s="38" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D135" s="39" t="s">
         <v>1789</v>
       </c>
-      <c r="E135" s="59" t="s">
-        <v>2131</v>
-      </c>
-      <c r="F135" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="G135" s="100" t="s">
-        <v>831</v>
-      </c>
-      <c r="H135" s="101" t="s">
-        <v>2119</v>
-      </c>
-      <c r="I135" s="101" t="s">
-        <v>2132</v>
-      </c>
-      <c r="J135" s="44"/>
-      <c r="K135" s="44"/>
-      <c r="L135" s="45" t="s">
-        <v>2014</v>
-      </c>
+      <c r="E135" s="40" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F135" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" s="41" t="s">
+        <v>832</v>
+      </c>
+      <c r="H135" s="42" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I135" s="63" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J135" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K135" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L135" s="45"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="36" t="s">
-        <v>1659</v>
-      </c>
-      <c r="B136" s="90"/>
-      <c r="C136" s="84"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="84"/>
-      <c r="F136" s="86"/>
-      <c r="G136" s="87"/>
-      <c r="H136" s="88"/>
-      <c r="I136" s="89"/>
-      <c r="J136" s="88"/>
-      <c r="K136" s="88"/>
-      <c r="L136" s="45"/>
+        <v>1658</v>
+      </c>
+      <c r="B136" s="98"/>
+      <c r="C136" s="59" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D136" s="81" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E136" s="59" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F136" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136" s="100" t="s">
+        <v>831</v>
+      </c>
+      <c r="H136" s="101" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I136" s="101" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J136" s="44"/>
+      <c r="K136" s="44"/>
+      <c r="L136" s="45" t="s">
+        <v>2014</v>
+      </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B137" s="102" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C137" s="38" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D137" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E137" s="40" t="s">
-        <v>2135</v>
-      </c>
-      <c r="F137" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" s="41" t="s">
-        <v>813</v>
-      </c>
-      <c r="H137" s="42" t="s">
-        <v>2136</v>
-      </c>
-      <c r="I137" s="43" t="s">
-        <v>2137</v>
-      </c>
-      <c r="J137" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K137" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B137" s="90"/>
+      <c r="C137" s="84"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="84"/>
+      <c r="F137" s="86"/>
+      <c r="G137" s="87"/>
+      <c r="H137" s="88"/>
+      <c r="I137" s="89"/>
+      <c r="J137" s="88"/>
+      <c r="K137" s="88"/>
       <c r="L137" s="45"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B138" s="58"/>
+      <c r="B138" s="102" t="s">
+        <v>2131</v>
+      </c>
       <c r="C138" s="38" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="D138" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="F138" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G138" s="41" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="I138" s="43" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="J138" s="44" t="s">
         <v>1789</v>
@@ -14110,27 +14122,27 @@
       <c r="A139" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B139" s="103"/>
+      <c r="B139" s="58"/>
       <c r="C139" s="38" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="D139" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E139" s="40" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="F139" s="40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H139" s="42" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="I139" s="43" t="s">
-        <v>2133</v>
+        <v>2138</v>
       </c>
       <c r="J139" s="44" t="s">
         <v>1789</v>
@@ -14144,131 +14156,131 @@
       <c r="A140" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B140" s="90"/>
-      <c r="C140" s="84"/>
-      <c r="D140" s="85"/>
-      <c r="E140" s="84"/>
-      <c r="F140" s="86"/>
-      <c r="G140" s="87"/>
-      <c r="H140" s="88"/>
-      <c r="I140" s="89"/>
-      <c r="J140" s="88"/>
-      <c r="K140" s="88"/>
+      <c r="B140" s="103"/>
+      <c r="C140" s="38" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D140" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E140" s="40" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F140" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="41" t="s">
+        <v>812</v>
+      </c>
+      <c r="H140" s="42" t="s">
+        <v>2134</v>
+      </c>
+      <c r="I140" s="43" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J140" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K140" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L140" s="45"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B141" s="97" t="s">
-        <v>2143</v>
-      </c>
-      <c r="C141" s="38" t="s">
-        <v>2144</v>
-      </c>
-      <c r="D141" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E141" s="40" t="s">
-        <v>2144</v>
-      </c>
-      <c r="F141" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G141" s="41" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H141" s="42" t="s">
-        <v>2145</v>
-      </c>
-      <c r="I141" s="43" t="s">
-        <v>2146</v>
-      </c>
-      <c r="J141" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K141" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B141" s="90"/>
+      <c r="C141" s="84"/>
+      <c r="D141" s="85"/>
+      <c r="E141" s="84"/>
+      <c r="F141" s="86"/>
+      <c r="G141" s="87"/>
+      <c r="H141" s="88"/>
+      <c r="I141" s="89"/>
+      <c r="J141" s="88"/>
+      <c r="K141" s="88"/>
       <c r="L141" s="45"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B142" s="90"/>
-      <c r="C142" s="84"/>
-      <c r="D142" s="85"/>
-      <c r="E142" s="84"/>
-      <c r="F142" s="86"/>
-      <c r="G142" s="87"/>
-      <c r="H142" s="88"/>
-      <c r="I142" s="89"/>
-      <c r="J142" s="88"/>
-      <c r="K142" s="88"/>
+      <c r="B142" s="97" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D142" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E142" s="40" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F142" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" s="41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H142" s="42" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I142" s="43" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J142" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K142" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L142" s="45"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B143" s="143" t="s">
-        <v>2147</v>
-      </c>
-      <c r="C143" s="38" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D143" s="39" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E143" s="40" t="s">
-        <v>2148</v>
-      </c>
-      <c r="F143" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G143" s="41" t="s">
-        <v>2149</v>
-      </c>
-      <c r="H143" s="42" t="s">
-        <v>2150</v>
-      </c>
-      <c r="I143" s="43" t="s">
-        <v>2151</v>
-      </c>
-      <c r="J143" s="44" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K143" s="44" t="s">
-        <v>1789</v>
-      </c>
+      <c r="B143" s="90"/>
+      <c r="C143" s="84"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="84"/>
+      <c r="F143" s="86"/>
+      <c r="G143" s="87"/>
+      <c r="H143" s="88"/>
+      <c r="I143" s="89"/>
+      <c r="J143" s="88"/>
+      <c r="K143" s="88"/>
       <c r="L143" s="45"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B144" s="143"/>
+      <c r="B144" s="143" t="s">
+        <v>2145</v>
+      </c>
       <c r="C144" s="38" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="D144" s="39" t="s">
         <v>1789</v>
       </c>
       <c r="E144" s="40" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="F144" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="H144" s="42" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="I144" s="43" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="J144" s="44" t="s">
         <v>1789</v>
@@ -14282,75 +14294,79 @@
       <c r="A145" s="36" t="s">
         <v>1659</v>
       </c>
-      <c r="B145" s="104"/>
-      <c r="C145" s="105"/>
-      <c r="D145" s="106"/>
-      <c r="E145" s="105"/>
-      <c r="F145" s="107"/>
-      <c r="G145" s="108"/>
-      <c r="H145" s="108"/>
-      <c r="I145" s="89"/>
-      <c r="J145" s="88"/>
-      <c r="K145" s="88"/>
+      <c r="B145" s="143"/>
+      <c r="C145" s="38" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E145" s="40" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F145" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145" s="41" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H145" s="42" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I145" s="43" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J145" s="44" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K145" s="44" t="s">
+        <v>1789</v>
+      </c>
       <c r="L145" s="45"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="36" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B146" s="144" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C146" s="109" t="s">
-        <v>2156</v>
-      </c>
-      <c r="D146" s="110" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E146" s="109" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F146" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="G146" s="111" t="s">
-        <v>894</v>
-      </c>
-      <c r="H146" s="112" t="s">
-        <v>2305</v>
-      </c>
-      <c r="I146" s="113" t="s">
-        <v>2306</v>
-      </c>
-      <c r="J146" s="44"/>
-      <c r="K146" s="44"/>
+        <v>1659</v>
+      </c>
+      <c r="B146" s="104"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="106"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="107"/>
+      <c r="G146" s="108"/>
+      <c r="H146" s="108"/>
+      <c r="I146" s="89"/>
+      <c r="J146" s="88"/>
+      <c r="K146" s="88"/>
       <c r="L146" s="45"/>
     </row>
-    <row r="147" spans="1:12" ht="15" customHeight="1">
+    <row r="147" spans="1:12">
       <c r="A147" s="36" t="s">
         <v>1993</v>
       </c>
-      <c r="B147" s="145"/>
-      <c r="C147" s="65" t="s">
-        <v>2158</v>
-      </c>
-      <c r="D147" s="66" t="s">
+      <c r="B147" s="145" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C147" s="109" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D147" s="110" t="s">
         <v>1789</v>
       </c>
-      <c r="E147" s="65" t="s">
-        <v>2159</v>
-      </c>
-      <c r="F147" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="G147" s="67" t="s">
-        <v>893</v>
-      </c>
-      <c r="H147" s="70" t="s">
-        <v>2305</v>
-      </c>
-      <c r="I147" s="114" t="s">
-        <v>2307</v>
+      <c r="E147" s="109" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F147" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G147" s="111" t="s">
+        <v>894</v>
+      </c>
+      <c r="H147" s="112" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I147" s="113" t="s">
+        <v>2304</v>
       </c>
       <c r="J147" s="44"/>
       <c r="K147" s="44"/>
@@ -14360,27 +14376,27 @@
       <c r="A148" s="36" t="s">
         <v>1993</v>
       </c>
-      <c r="B148" s="145"/>
+      <c r="B148" s="146"/>
       <c r="C148" s="65" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="D148" s="66" t="s">
         <v>1789</v>
       </c>
       <c r="E148" s="65" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="F148" s="65" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G148" s="67" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H148" s="70" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I148" s="114" t="s">
         <v>2305</v>
-      </c>
-      <c r="I148" s="114" t="s">
-        <v>2308</v>
       </c>
       <c r="J148" s="44"/>
       <c r="K148" s="44"/>
@@ -14390,58 +14406,88 @@
       <c r="A149" s="36" t="s">
         <v>1993</v>
       </c>
-      <c r="B149" s="145"/>
+      <c r="B149" s="146"/>
       <c r="C149" s="65" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D149" s="116" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D149" s="66" t="s">
         <v>1789</v>
       </c>
-      <c r="E149" s="115" t="s">
-        <v>2162</v>
-      </c>
-      <c r="F149" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" s="117" t="s">
-        <v>895</v>
-      </c>
-      <c r="H149" s="71" t="s">
-        <v>2305</v>
-      </c>
-      <c r="I149" s="141" t="s">
-        <v>2309</v>
+      <c r="E149" s="65" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F149" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G149" s="67" t="s">
+        <v>892</v>
+      </c>
+      <c r="H149" s="70" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I149" s="114" t="s">
+        <v>2306</v>
       </c>
       <c r="J149" s="44"/>
       <c r="K149" s="44"/>
       <c r="L149" s="45"/>
     </row>
-    <row r="150" spans="1:12">
-      <c r="B150" s="118"/>
-      <c r="C150" s="118"/>
-      <c r="D150" s="106"/>
-      <c r="E150" s="105"/>
-      <c r="F150" s="107"/>
-      <c r="G150" s="108"/>
-      <c r="H150" s="108"/>
-      <c r="I150" s="89"/>
-      <c r="J150" s="88"/>
-      <c r="K150" s="88"/>
+    <row r="150" spans="1:12" ht="15" customHeight="1">
+      <c r="A150" s="36" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B150" s="146"/>
+      <c r="C150" s="65" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D150" s="116" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E150" s="115" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F150" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="117" t="s">
+        <v>895</v>
+      </c>
+      <c r="H150" s="71" t="s">
+        <v>2303</v>
+      </c>
+      <c r="I150" s="141" t="s">
+        <v>2307</v>
+      </c>
+      <c r="J150" s="44"/>
+      <c r="K150" s="44"/>
       <c r="L150" s="45"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="B151" s="118"/>
+      <c r="C151" s="118"/>
+      <c r="D151" s="106"/>
+      <c r="E151" s="105"/>
+      <c r="F151" s="107"/>
+      <c r="G151" s="108"/>
+      <c r="H151" s="108"/>
+      <c r="I151" s="89"/>
+      <c r="J151" s="88"/>
+      <c r="K151" s="88"/>
+      <c r="L151" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B120:B122"/>
     <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B115:B118"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14452,7 +14498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J275" sqref="J275"/>
     </sheetView>
@@ -15424,7 +15470,7 @@
         <v>934</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>454</v>
@@ -15455,7 +15501,7 @@
         <v>934</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>338</v>
@@ -15486,7 +15532,7 @@
         <v>934</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>226</v>
@@ -16454,7 +16500,7 @@
         <v>40</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -20678,13 +20724,13 @@
         <v>1108</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="E196" s="7">
         <v>1</v>
@@ -20696,7 +20742,7 @@
         <v>918</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -20709,13 +20755,13 @@
         <v>1108</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C197" s="7" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D197" s="7" t="s">
         <v>2168</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>2170</v>
       </c>
       <c r="E197" s="7">
         <v>2</v>
@@ -20727,7 +20773,7 @@
         <v>60</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -22504,7 +22550,7 @@
         <v>801</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="E248" s="122">
         <v>17</v>
@@ -22516,19 +22562,19 @@
         <v>918</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="J248" s="7" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="L248" s="7" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="M248" s="10" t="s">
         <v>1658</v>
@@ -23282,7 +23328,7 @@
         <v>454</v>
       </c>
       <c r="K269" s="7" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="L269" s="7" t="s">
         <v>1206</v>
@@ -23337,10 +23383,10 @@
         <v>1107</v>
       </c>
       <c r="B271" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C271" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="D271" s="124" t="s">
         <v>1522</v>
@@ -23378,10 +23424,10 @@
         <v>1107</v>
       </c>
       <c r="B272" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C272" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="D272" s="124" t="s">
         <v>1662</v>
@@ -23419,10 +23465,10 @@
         <v>1107</v>
       </c>
       <c r="B273" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C273" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="D273" s="124" t="s">
         <v>1527</v>
@@ -23452,13 +23498,13 @@
         <v>1107</v>
       </c>
       <c r="B274" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C274" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="D274" s="124" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="E274" s="124">
         <v>4</v>
@@ -23470,7 +23516,7 @@
         <v>918</v>
       </c>
       <c r="H274" s="124" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="I274" s="124"/>
       <c r="J274" s="124"/>
@@ -23485,10 +23531,10 @@
         <v>1107</v>
       </c>
       <c r="B275" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C275" s="124" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="D275" s="124" t="s">
         <v>1529</v>
@@ -27722,13 +27768,13 @@
         <v>1468</v>
       </c>
       <c r="I393" s="7" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="J393" s="7" t="s">
         <v>454</v>
       </c>
       <c r="K393" s="7" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="L393" s="7" t="s">
         <v>1468</v>
@@ -29277,7 +29323,7 @@
         <v>852</v>
       </c>
       <c r="D437" s="7" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="E437" s="24" t="s">
         <v>1754</v>
@@ -29289,7 +29335,7 @@
         <v>140</v>
       </c>
       <c r="H437" s="7" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="I437" s="124"/>
       <c r="J437" s="124"/>
@@ -29310,7 +29356,7 @@
         <v>852</v>
       </c>
       <c r="D438" s="7" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="E438" s="24" t="s">
         <v>1756</v>
@@ -29322,7 +29368,7 @@
         <v>140</v>
       </c>
       <c r="H438" s="7" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="I438" s="124"/>
       <c r="J438" s="124"/>
@@ -29343,7 +29389,7 @@
         <v>852</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="E439" s="24" t="s">
         <v>1757</v>
@@ -29355,7 +29401,7 @@
         <v>140</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="I439" s="124"/>
       <c r="J439" s="124"/>
@@ -29376,9 +29422,9 @@
         <v>852</v>
       </c>
       <c r="D440" s="124" t="s">
-        <v>2340</v>
-      </c>
-      <c r="E440" s="148">
+        <v>2338</v>
+      </c>
+      <c r="E440" s="142">
         <v>46</v>
       </c>
       <c r="F440" s="124" t="s">
@@ -29388,7 +29434,7 @@
         <v>918</v>
       </c>
       <c r="H440" s="124" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="I440" s="124"/>
       <c r="J440" s="124"/>
@@ -33122,7 +33168,7 @@
         <v>40</v>
       </c>
       <c r="H544" s="7" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="I544" s="7" t="s">
         <v>100</v>
@@ -34446,7 +34492,7 @@
         <v>40</v>
       </c>
       <c r="H584" s="7" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="I584" s="7" t="s">
         <v>100</v>
@@ -40057,7 +40103,7 @@
         <v>818</v>
       </c>
       <c r="D743" s="124" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E743" s="124">
         <v>5</v>
@@ -40069,7 +40115,7 @@
         <v>60</v>
       </c>
       <c r="H743" s="124" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="I743" s="124"/>
       <c r="J743" s="124"/>
@@ -44826,7 +44872,7 @@
         <v>822</v>
       </c>
       <c r="D882" s="22" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="E882" s="121">
         <v>75</v>
@@ -44838,7 +44884,7 @@
         <v>918</v>
       </c>
       <c r="H882" s="22" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="I882" s="22"/>
       <c r="J882" s="22"/>
@@ -56753,7 +56799,7 @@
         <v>1028</v>
       </c>
       <c r="C1226" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1226" s="7" t="s">
         <v>364</v>
@@ -56794,7 +56840,7 @@
         <v>1028</v>
       </c>
       <c r="C1227" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1227" s="7" t="s">
         <v>692</v>
@@ -56827,7 +56873,7 @@
         <v>1028</v>
       </c>
       <c r="C1228" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1228" s="7" t="s">
         <v>362</v>
@@ -56842,7 +56888,7 @@
         <v>918</v>
       </c>
       <c r="H1228" s="7" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="I1228" s="7"/>
       <c r="J1228" s="7"/>
@@ -56860,7 +56906,7 @@
         <v>1028</v>
       </c>
       <c r="C1229" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1229" s="7" t="s">
         <v>370</v>
@@ -56893,7 +56939,7 @@
         <v>1028</v>
       </c>
       <c r="C1230" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1230" s="7" t="s">
         <v>371</v>
@@ -56926,7 +56972,7 @@
         <v>1028</v>
       </c>
       <c r="C1231" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1231" s="7" t="s">
         <v>374</v>
@@ -56941,7 +56987,7 @@
         <v>918</v>
       </c>
       <c r="H1231" s="7" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="I1231" s="7"/>
       <c r="J1231" s="7"/>
@@ -56959,7 +57005,7 @@
         <v>1028</v>
       </c>
       <c r="C1232" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1232" s="7" t="s">
         <v>661</v>
@@ -56992,7 +57038,7 @@
         <v>1028</v>
       </c>
       <c r="C1233" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1233" s="7" t="s">
         <v>360</v>
@@ -57007,7 +57053,7 @@
         <v>918</v>
       </c>
       <c r="H1233" s="7" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="I1233" s="7"/>
       <c r="J1233" s="7"/>
@@ -57025,7 +57071,7 @@
         <v>1028</v>
       </c>
       <c r="C1234" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1234" s="7" t="s">
         <v>373</v>
@@ -57040,7 +57086,7 @@
         <v>60</v>
       </c>
       <c r="H1234" s="7" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="I1234" s="7"/>
       <c r="J1234" s="7"/>
@@ -57058,7 +57104,7 @@
         <v>1028</v>
       </c>
       <c r="C1235" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1235" s="7" t="s">
         <v>363</v>
@@ -57073,7 +57119,7 @@
         <v>60</v>
       </c>
       <c r="H1235" s="7" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="I1235" s="7"/>
       <c r="J1235" s="7"/>
@@ -57091,7 +57137,7 @@
         <v>1028</v>
       </c>
       <c r="C1236" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1236" s="7" t="s">
         <v>367</v>
@@ -57106,7 +57152,7 @@
         <v>60</v>
       </c>
       <c r="H1236" s="7" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="I1236" s="7"/>
       <c r="J1236" s="7"/>
@@ -57124,7 +57170,7 @@
         <v>1028</v>
       </c>
       <c r="C1237" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1237" s="7" t="s">
         <v>366</v>
@@ -57139,7 +57185,7 @@
         <v>60</v>
       </c>
       <c r="H1237" s="7" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="I1237" s="7"/>
       <c r="J1237" s="7"/>
@@ -57157,7 +57203,7 @@
         <v>1028</v>
       </c>
       <c r="C1238" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1238" s="7" t="s">
         <v>361</v>
@@ -57172,7 +57218,7 @@
         <v>918</v>
       </c>
       <c r="H1238" s="22" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="I1238" s="7"/>
       <c r="J1238" s="7"/>
@@ -57190,7 +57236,7 @@
         <v>1028</v>
       </c>
       <c r="C1239" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1239" s="7" t="s">
         <v>359</v>
@@ -57205,7 +57251,7 @@
         <v>918</v>
       </c>
       <c r="H1239" s="22" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="I1239" s="7"/>
       <c r="J1239" s="7"/>
@@ -57223,7 +57269,7 @@
         <v>1028</v>
       </c>
       <c r="C1240" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1240" s="7" t="s">
         <v>365</v>
@@ -57256,7 +57302,7 @@
         <v>1028</v>
       </c>
       <c r="C1241" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1241" s="7" t="s">
         <v>358</v>
@@ -57297,7 +57343,7 @@
         <v>1028</v>
       </c>
       <c r="C1242" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1242" s="7" t="s">
         <v>558</v>
@@ -57330,7 +57376,7 @@
         <v>1028</v>
       </c>
       <c r="C1243" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1243" s="7" t="s">
         <v>560</v>
@@ -57371,7 +57417,7 @@
         <v>1028</v>
       </c>
       <c r="C1244" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1244" s="7" t="s">
         <v>559</v>
@@ -57386,7 +57432,7 @@
         <v>918</v>
       </c>
       <c r="H1244" s="22" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="I1244" s="7"/>
       <c r="J1244" s="7"/>
@@ -57404,7 +57450,7 @@
         <v>1028</v>
       </c>
       <c r="C1245" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1245" s="7" t="s">
         <v>550</v>
@@ -57419,7 +57465,7 @@
         <v>60</v>
       </c>
       <c r="H1245" s="22" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="I1245" s="7"/>
       <c r="J1245" s="7"/>
@@ -57437,7 +57483,7 @@
         <v>1028</v>
       </c>
       <c r="C1246" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1246" s="7" t="s">
         <v>548</v>
@@ -57452,7 +57498,7 @@
         <v>60</v>
       </c>
       <c r="H1246" s="22" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="I1246" s="7"/>
       <c r="J1246" s="7"/>
@@ -57470,7 +57516,7 @@
         <v>1028</v>
       </c>
       <c r="C1247" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1247" s="7" t="s">
         <v>549</v>
@@ -57503,7 +57549,7 @@
         <v>1028</v>
       </c>
       <c r="C1248" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1248" s="7" t="s">
         <v>136</v>
@@ -57518,7 +57564,7 @@
         <v>60</v>
       </c>
       <c r="H1248" s="22" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="I1248" s="7"/>
       <c r="J1248" s="7"/>
@@ -57536,7 +57582,7 @@
         <v>1028</v>
       </c>
       <c r="C1249" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1249" s="7" t="s">
         <v>132</v>
@@ -57551,7 +57597,7 @@
         <v>60</v>
       </c>
       <c r="H1249" s="22" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="I1249" s="7"/>
       <c r="J1249" s="7"/>
@@ -57569,7 +57615,7 @@
         <v>1028</v>
       </c>
       <c r="C1250" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1250" s="7" t="s">
         <v>680</v>
@@ -57584,7 +57630,7 @@
         <v>60</v>
       </c>
       <c r="H1250" s="22" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="I1250" s="7"/>
       <c r="J1250" s="7"/>
@@ -57602,7 +57648,7 @@
         <v>1028</v>
       </c>
       <c r="C1251" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1251" s="7" t="s">
         <v>139</v>
@@ -57635,7 +57681,7 @@
         <v>1028</v>
       </c>
       <c r="C1252" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1252" s="7" t="s">
         <v>137</v>
@@ -57650,7 +57696,7 @@
         <v>918</v>
       </c>
       <c r="H1252" s="22" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="I1252" s="7"/>
       <c r="J1252" s="7"/>
@@ -57668,7 +57714,7 @@
         <v>1028</v>
       </c>
       <c r="C1253" s="7" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1253" s="7" t="s">
         <v>464</v>
@@ -57683,7 +57729,7 @@
         <v>918</v>
       </c>
       <c r="H1253" s="7" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="I1253" s="7"/>
       <c r="J1253" s="7"/>
@@ -57701,7 +57747,7 @@
         <v>1029</v>
       </c>
       <c r="C1254" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1254" s="7" t="s">
         <v>362</v>
@@ -57716,7 +57762,7 @@
         <v>918</v>
       </c>
       <c r="H1254" s="7" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="I1254" s="7"/>
       <c r="J1254" s="7"/>
@@ -57734,7 +57780,7 @@
         <v>1029</v>
       </c>
       <c r="C1255" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1255" s="7" t="s">
         <v>361</v>
@@ -57749,7 +57795,7 @@
         <v>918</v>
       </c>
       <c r="H1255" s="7" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="I1255" s="7"/>
       <c r="J1255" s="7"/>
@@ -57767,7 +57813,7 @@
         <v>1029</v>
       </c>
       <c r="C1256" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1256" s="7" t="s">
         <v>374</v>
@@ -57782,7 +57828,7 @@
         <v>918</v>
       </c>
       <c r="H1256" s="7" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="I1256" s="7"/>
       <c r="J1256" s="7"/>
@@ -57800,7 +57846,7 @@
         <v>1029</v>
       </c>
       <c r="C1257" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1257" s="7" t="s">
         <v>137</v>
@@ -57833,7 +57879,7 @@
         <v>1029</v>
       </c>
       <c r="C1258" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1258" s="7" t="s">
         <v>138</v>
@@ -57848,7 +57894,7 @@
         <v>918</v>
       </c>
       <c r="H1258" s="7" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="I1258" s="7"/>
       <c r="J1258" s="7"/>
@@ -57866,7 +57912,7 @@
         <v>1029</v>
       </c>
       <c r="C1259" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1259" s="7" t="s">
         <v>132</v>
@@ -57881,7 +57927,7 @@
         <v>20</v>
       </c>
       <c r="H1259" s="7" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="I1259" s="7"/>
       <c r="J1259" s="7"/>
@@ -57899,7 +57945,7 @@
         <v>1029</v>
       </c>
       <c r="C1260" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1260" s="7" t="s">
         <v>133</v>
@@ -57914,7 +57960,7 @@
         <v>80</v>
       </c>
       <c r="H1260" s="7" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="I1260" s="7"/>
       <c r="J1260" s="7"/>
@@ -57932,7 +57978,7 @@
         <v>1029</v>
       </c>
       <c r="C1261" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1261" s="7" t="s">
         <v>136</v>
@@ -57947,7 +57993,7 @@
         <v>4</v>
       </c>
       <c r="H1261" s="7" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="I1261" s="7"/>
       <c r="J1261" s="7"/>
@@ -57965,7 +58011,7 @@
         <v>1029</v>
       </c>
       <c r="C1262" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1262" s="7" t="s">
         <v>369</v>
@@ -57980,7 +58026,7 @@
         <v>20</v>
       </c>
       <c r="H1262" s="7" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="I1262" s="7"/>
       <c r="J1262" s="7"/>
@@ -57998,7 +58044,7 @@
         <v>1029</v>
       </c>
       <c r="C1263" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1263" s="7" t="s">
         <v>372</v>
@@ -58013,7 +58059,7 @@
         <v>20</v>
       </c>
       <c r="H1263" s="7" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="I1263" s="7"/>
       <c r="J1263" s="7"/>
@@ -58031,7 +58077,7 @@
         <v>1029</v>
       </c>
       <c r="C1264" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1264" s="7" t="s">
         <v>364</v>
@@ -58072,7 +58118,7 @@
         <v>1029</v>
       </c>
       <c r="C1265" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1265" s="7" t="s">
         <v>463</v>
@@ -58087,7 +58133,7 @@
         <v>20</v>
       </c>
       <c r="H1265" s="7" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="I1265" s="7"/>
       <c r="J1265" s="7"/>
@@ -58105,7 +58151,7 @@
         <v>1029</v>
       </c>
       <c r="C1266" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1266" s="7" t="s">
         <v>465</v>
@@ -58120,7 +58166,7 @@
         <v>20</v>
       </c>
       <c r="H1266" s="7" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="I1266" s="7"/>
       <c r="J1266" s="7"/>
@@ -58138,7 +58184,7 @@
         <v>1029</v>
       </c>
       <c r="C1267" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1267" s="7" t="s">
         <v>358</v>
@@ -58171,7 +58217,7 @@
         <v>1029</v>
       </c>
       <c r="C1268" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1268" s="7" t="s">
         <v>140</v>
@@ -58186,7 +58232,7 @@
         <v>918</v>
       </c>
       <c r="H1268" s="7" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="I1268" s="7"/>
       <c r="J1268" s="7"/>
@@ -58204,7 +58250,7 @@
         <v>1029</v>
       </c>
       <c r="C1269" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1269" s="7" t="s">
         <v>134</v>
@@ -58219,7 +58265,7 @@
         <v>918</v>
       </c>
       <c r="H1269" s="7" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="I1269" s="7"/>
       <c r="J1269" s="7"/>
@@ -58237,7 +58283,7 @@
         <v>1029</v>
       </c>
       <c r="C1270" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1270" s="7" t="s">
         <v>135</v>
@@ -58252,7 +58298,7 @@
         <v>918</v>
       </c>
       <c r="H1270" s="7" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="I1270" s="7"/>
       <c r="J1270" s="7"/>
@@ -58270,7 +58316,7 @@
         <v>1029</v>
       </c>
       <c r="C1271" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1271" s="7" t="s">
         <v>368</v>
@@ -58285,7 +58331,7 @@
         <v>30</v>
       </c>
       <c r="H1271" s="7" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="I1271" s="7"/>
       <c r="J1271" s="7"/>
@@ -58303,7 +58349,7 @@
         <v>1029</v>
       </c>
       <c r="C1272" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1272" s="7" t="s">
         <v>561</v>
@@ -58318,7 +58364,7 @@
         <v>40</v>
       </c>
       <c r="H1272" s="7" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="I1272" s="7"/>
       <c r="J1272" s="7"/>
@@ -58336,7 +58382,7 @@
         <v>1029</v>
       </c>
       <c r="C1273" s="7" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D1273" s="7" t="s">
         <v>1545</v>
@@ -58366,13 +58412,13 @@
         <v>1108</v>
       </c>
       <c r="B1274" s="7" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C1274" s="7" t="s">
         <v>2002</v>
       </c>
       <c r="D1274" s="7" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="E1274" s="7">
         <v>1</v>
@@ -58384,7 +58430,7 @@
         <v>10</v>
       </c>
       <c r="H1274" s="7" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="I1274" s="7"/>
       <c r="J1274" s="7"/>
@@ -58398,13 +58444,13 @@
         <v>1108</v>
       </c>
       <c r="B1275" s="7" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C1275" s="7" t="s">
         <v>2002</v>
       </c>
       <c r="D1275" s="7" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="E1275" s="124">
         <v>2</v>
@@ -58416,7 +58462,7 @@
         <v>2</v>
       </c>
       <c r="H1275" s="7" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="I1275" s="124"/>
       <c r="J1275" s="124"/>
@@ -58431,7 +58477,7 @@
         <v>1108</v>
       </c>
       <c r="B1276" s="7" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C1276" s="7" t="s">
         <v>2002</v>
@@ -58446,7 +58492,7 @@
         <v>921</v>
       </c>
       <c r="G1276" s="7" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="H1276" s="7" t="s">
         <v>386</v>
@@ -58464,13 +58510,13 @@
         <v>1108</v>
       </c>
       <c r="B1277" s="7" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C1277" s="7" t="s">
         <v>2002</v>
       </c>
       <c r="D1277" s="7" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="E1277" s="124">
         <v>4</v>
@@ -58479,10 +58525,10 @@
         <v>917</v>
       </c>
       <c r="G1277" s="7" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="H1277" s="7" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="I1277" s="124"/>
       <c r="J1277" s="124"/>
@@ -58497,7 +58543,7 @@
         <v>1108</v>
       </c>
       <c r="B1278" s="7" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C1278" s="7" t="s">
         <v>2002</v>
@@ -58512,7 +58558,7 @@
         <v>917</v>
       </c>
       <c r="G1278" s="7" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="H1278" s="7" t="s">
         <v>1345</v>
@@ -58530,13 +58576,13 @@
         <v>1108</v>
       </c>
       <c r="B1279" s="7" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C1279" s="7" t="s">
         <v>2002</v>
       </c>
       <c r="D1279" s="7" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E1279" s="124">
         <v>6</v>
@@ -58548,7 +58594,7 @@
         <v>20</v>
       </c>
       <c r="H1279" s="7" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="I1279" s="124" t="s">
         <v>1709</v>
@@ -58565,13 +58611,13 @@
         <v>1108</v>
       </c>
       <c r="B1280" s="7" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C1280" s="7" t="s">
         <v>2002</v>
       </c>
       <c r="D1280" s="7" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="E1280" s="124">
         <v>7</v>
@@ -58580,10 +58626,10 @@
         <v>921</v>
       </c>
       <c r="G1280" s="7" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="H1280" s="7" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="I1280" s="124"/>
       <c r="J1280" s="124"/>
@@ -58598,13 +58644,13 @@
         <v>1108</v>
       </c>
       <c r="B1281" s="124" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="C1281" s="124" t="s">
         <v>1999</v>
       </c>
       <c r="D1281" s="124" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="E1281" s="124">
         <v>1</v>
@@ -58631,13 +58677,13 @@
         <v>1108</v>
       </c>
       <c r="B1282" s="124" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="C1282" s="124" t="s">
         <v>1999</v>
       </c>
       <c r="D1282" s="124" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="E1282" s="124">
         <v>2</v>
@@ -58649,7 +58695,7 @@
         <v>60</v>
       </c>
       <c r="H1282" s="124" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="I1282" s="124"/>
       <c r="J1282" s="124"/>
@@ -58664,13 +58710,13 @@
         <v>1108</v>
       </c>
       <c r="B1283" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1283" s="124" t="s">
         <v>896</v>
       </c>
       <c r="D1283" s="124" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="E1283" s="124">
         <v>1</v>
@@ -58682,7 +58728,7 @@
         <v>12</v>
       </c>
       <c r="H1283" s="124" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="I1283" s="124"/>
       <c r="J1283" s="124"/>
@@ -58697,13 +58743,13 @@
         <v>1108</v>
       </c>
       <c r="B1284" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1284" s="124" t="s">
         <v>896</v>
       </c>
       <c r="D1284" s="124" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E1284" s="124">
         <v>2</v>
@@ -58715,7 +58761,7 @@
         <v>40</v>
       </c>
       <c r="H1284" s="124" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="I1284" s="124"/>
       <c r="J1284" s="124"/>
@@ -58730,13 +58776,13 @@
         <v>1108</v>
       </c>
       <c r="B1285" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1285" s="124" t="s">
         <v>896</v>
       </c>
       <c r="D1285" s="124" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E1285" s="124">
         <v>3</v>
@@ -58748,7 +58794,7 @@
         <v>60</v>
       </c>
       <c r="H1285" s="124" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="I1285" s="124"/>
       <c r="J1285" s="124"/>
@@ -58763,7 +58809,7 @@
         <v>1108</v>
       </c>
       <c r="B1286" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1286" s="124" t="s">
         <v>896</v>
@@ -58796,7 +58842,7 @@
         <v>1108</v>
       </c>
       <c r="B1287" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1287" s="124" t="s">
         <v>896</v>
@@ -58829,13 +58875,13 @@
         <v>1108</v>
       </c>
       <c r="B1288" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1288" s="124" t="s">
         <v>896</v>
       </c>
       <c r="D1288" s="124" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E1288" s="124">
         <v>6</v>
@@ -58847,7 +58893,7 @@
         <v>40</v>
       </c>
       <c r="H1288" s="124" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="I1288" s="124"/>
       <c r="J1288" s="124"/>
@@ -58862,7 +58908,7 @@
         <v>1108</v>
       </c>
       <c r="B1289" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1289" s="124" t="s">
         <v>896</v>
@@ -58895,7 +58941,7 @@
         <v>1108</v>
       </c>
       <c r="B1290" s="124" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C1290" s="124" t="s">
         <v>896</v>
@@ -58928,13 +58974,13 @@
         <v>1108</v>
       </c>
       <c r="B1291" s="124" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C1291" s="124" t="s">
         <v>910</v>
       </c>
       <c r="D1291" s="124" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="E1291" s="124">
         <v>1</v>
@@ -58961,13 +59007,13 @@
         <v>1108</v>
       </c>
       <c r="B1292" s="124" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C1292" s="124" t="s">
         <v>910</v>
       </c>
       <c r="D1292" s="124" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="E1292" s="124">
         <v>2</v>
@@ -58979,7 +59025,7 @@
         <v>6</v>
       </c>
       <c r="H1292" s="124" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="I1292" s="124"/>
       <c r="J1292" s="124"/>
@@ -58994,13 +59040,13 @@
         <v>1108</v>
       </c>
       <c r="B1293" s="124" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C1293" s="124" t="s">
         <v>910</v>
       </c>
       <c r="D1293" s="124" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="E1293" s="124">
         <v>3</v>
@@ -59012,7 +59058,7 @@
         <v>918</v>
       </c>
       <c r="H1293" s="124" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="I1293" s="124"/>
       <c r="J1293" s="124"/>
@@ -59027,7 +59073,7 @@
         <v>1108</v>
       </c>
       <c r="B1294" s="124" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C1294" s="124" t="s">
         <v>910</v>
@@ -59060,7 +59106,7 @@
         <v>1108</v>
       </c>
       <c r="B1295" s="124" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C1295" s="124" t="s">
         <v>911</v>
@@ -59078,7 +59124,7 @@
         <v>30</v>
       </c>
       <c r="H1295" s="124" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="I1295" s="124"/>
       <c r="J1295" s="124"/>
@@ -59093,13 +59139,13 @@
         <v>1108</v>
       </c>
       <c r="B1296" s="124" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C1296" s="124" t="s">
         <v>911</v>
       </c>
       <c r="D1296" s="124" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="E1296" s="124">
         <v>2</v>
@@ -59111,7 +59157,7 @@
         <v>90</v>
       </c>
       <c r="H1296" s="124" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="I1296" s="124"/>
       <c r="J1296" s="124"/>
@@ -59126,13 +59172,13 @@
         <v>1108</v>
       </c>
       <c r="B1297" s="124" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="C1297" s="124" t="s">
         <v>911</v>
       </c>
       <c r="D1297" s="127" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="E1297" s="127">
         <v>3</v>
@@ -59144,7 +59190,7 @@
         <v>30</v>
       </c>
       <c r="H1297" s="127" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="I1297" s="127"/>
       <c r="J1297" s="127"/>
@@ -59174,13 +59220,13 @@
         <v>1107</v>
       </c>
       <c r="B1299" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1299" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1299" s="124" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E1299" s="124">
         <v>1</v>
@@ -59192,7 +59238,7 @@
         <v>20</v>
       </c>
       <c r="H1299" s="124" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="I1299" s="124"/>
       <c r="J1299" s="124"/>
@@ -59207,7 +59253,7 @@
         <v>1107</v>
       </c>
       <c r="B1300" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1300" s="124" t="s">
         <v>894</v>
@@ -59240,13 +59286,13 @@
         <v>1107</v>
       </c>
       <c r="B1301" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1301" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1301" s="124" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="E1301" s="124">
         <v>3</v>
@@ -59273,13 +59319,13 @@
         <v>1107</v>
       </c>
       <c r="B1302" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1302" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1302" s="124" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="E1302" s="124">
         <v>4</v>
@@ -59291,7 +59337,7 @@
         <v>2</v>
       </c>
       <c r="H1302" s="124" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="I1302" s="124" t="s">
         <v>1709</v>
@@ -59308,7 +59354,7 @@
         <v>1107</v>
       </c>
       <c r="B1303" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1303" s="124" t="s">
         <v>894</v>
@@ -59349,13 +59395,13 @@
         <v>1107</v>
       </c>
       <c r="B1304" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1304" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1304" s="124" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="E1304" s="124">
         <v>6</v>
@@ -59367,19 +59413,19 @@
         <v>20</v>
       </c>
       <c r="H1304" s="124" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="I1304" s="124" t="s">
         <v>2002</v>
       </c>
       <c r="J1304" s="124" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="K1304" s="124" t="s">
         <v>2002</v>
       </c>
       <c r="L1304" s="124" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="M1304" s="129" t="s">
         <v>1658</v>
@@ -59390,7 +59436,7 @@
         <v>1107</v>
       </c>
       <c r="B1305" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1305" s="124" t="s">
         <v>894</v>
@@ -59423,13 +59469,13 @@
         <v>1107</v>
       </c>
       <c r="B1306" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1306" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1306" s="124" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="E1306" s="124">
         <v>8</v>
@@ -59441,7 +59487,7 @@
         <v>2</v>
       </c>
       <c r="H1306" s="124" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="I1306" s="124" t="s">
         <v>1709</v>
@@ -59458,13 +59504,13 @@
         <v>1107</v>
       </c>
       <c r="B1307" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1307" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1307" s="124" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="E1307" s="124">
         <v>9</v>
@@ -59476,7 +59522,7 @@
         <v>2</v>
       </c>
       <c r="H1307" s="124" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="I1307" s="124" t="s">
         <v>1709</v>
@@ -59493,13 +59539,13 @@
         <v>1107</v>
       </c>
       <c r="B1308" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1308" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1308" s="124" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="E1308" s="124">
         <v>10</v>
@@ -59511,7 +59557,7 @@
         <v>20</v>
       </c>
       <c r="H1308" s="124" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="I1308" s="124" t="s">
         <v>1709</v>
@@ -59528,13 +59574,13 @@
         <v>1107</v>
       </c>
       <c r="B1309" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1309" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1309" s="124" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="E1309" s="124">
         <v>11</v>
@@ -59546,7 +59592,7 @@
         <v>918</v>
       </c>
       <c r="H1309" s="124" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="I1309" s="124"/>
       <c r="J1309" s="124"/>
@@ -59561,13 +59607,13 @@
         <v>1107</v>
       </c>
       <c r="B1310" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1310" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1310" s="124" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="E1310" s="124">
         <v>12</v>
@@ -59594,13 +59640,13 @@
         <v>1107</v>
       </c>
       <c r="B1311" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1311" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1311" s="124" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="E1311" s="124">
         <v>13</v>
@@ -59612,7 +59658,7 @@
         <v>918</v>
       </c>
       <c r="H1311" s="124" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="I1311" s="124"/>
       <c r="J1311" s="124"/>
@@ -59627,7 +59673,7 @@
         <v>1107</v>
       </c>
       <c r="B1312" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1312" s="124" t="s">
         <v>894</v>
@@ -59645,7 +59691,7 @@
         <v>60</v>
       </c>
       <c r="H1312" s="124" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="I1312" s="124"/>
       <c r="J1312" s="124"/>
@@ -59660,7 +59706,7 @@
         <v>1107</v>
       </c>
       <c r="B1313" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1313" s="124" t="s">
         <v>894</v>
@@ -59693,7 +59739,7 @@
         <v>1107</v>
       </c>
       <c r="B1314" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1314" s="124" t="s">
         <v>894</v>
@@ -59726,7 +59772,7 @@
         <v>1107</v>
       </c>
       <c r="B1315" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1315" s="124" t="s">
         <v>894</v>
@@ -59744,19 +59790,19 @@
         <v>30</v>
       </c>
       <c r="H1315" s="124" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="I1315" s="124" t="s">
         <v>911</v>
       </c>
       <c r="J1315" s="124" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="K1315" s="124" t="s">
         <v>911</v>
       </c>
       <c r="L1315" s="124" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="M1315" s="129" t="s">
         <v>1658</v>
@@ -59767,13 +59813,13 @@
         <v>1107</v>
       </c>
       <c r="B1316" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1316" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1316" s="124" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E1316" s="124">
         <v>18</v>
@@ -59785,7 +59831,7 @@
         <v>20</v>
       </c>
       <c r="H1316" s="124" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="I1316" s="124"/>
       <c r="J1316" s="124"/>
@@ -59800,13 +59846,13 @@
         <v>1107</v>
       </c>
       <c r="B1317" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1317" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1317" s="124" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="E1317" s="124">
         <v>19</v>
@@ -59818,7 +59864,7 @@
         <v>40</v>
       </c>
       <c r="H1317" s="124" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="I1317" s="124"/>
       <c r="J1317" s="124"/>
@@ -59833,13 +59879,13 @@
         <v>1107</v>
       </c>
       <c r="B1318" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1318" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1318" s="124" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="E1318" s="124">
         <v>20</v>
@@ -59866,7 +59912,7 @@
         <v>1107</v>
       </c>
       <c r="B1319" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1319" s="124" t="s">
         <v>894</v>
@@ -59899,13 +59945,13 @@
         <v>1107</v>
       </c>
       <c r="B1320" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1320" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1320" s="124" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="E1320" s="124">
         <v>22</v>
@@ -59917,7 +59963,7 @@
         <v>918</v>
       </c>
       <c r="H1320" s="124" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="I1320" s="124"/>
       <c r="J1320" s="124"/>
@@ -59932,13 +59978,13 @@
         <v>1107</v>
       </c>
       <c r="B1321" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1321" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1321" s="124" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E1321" s="124">
         <v>23</v>
@@ -59950,7 +59996,7 @@
         <v>2</v>
       </c>
       <c r="H1321" s="124" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="I1321" s="124"/>
       <c r="J1321" s="124"/>
@@ -59965,7 +60011,7 @@
         <v>1107</v>
       </c>
       <c r="B1322" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1322" s="124" t="s">
         <v>894</v>
@@ -59998,13 +60044,13 @@
         <v>1107</v>
       </c>
       <c r="B1323" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1323" s="124" t="s">
         <v>894</v>
       </c>
       <c r="D1323" s="124" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="E1323" s="124">
         <v>25</v>
@@ -60016,7 +60062,7 @@
         <v>918</v>
       </c>
       <c r="H1323" s="124" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="I1323" s="124"/>
       <c r="J1323" s="124"/>
@@ -60031,7 +60077,7 @@
         <v>1107</v>
       </c>
       <c r="B1324" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1324" s="124" t="s">
         <v>894</v>
@@ -60064,7 +60110,7 @@
         <v>1107</v>
       </c>
       <c r="B1325" s="124" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C1325" s="124" t="s">
         <v>894</v>
@@ -60097,13 +60143,13 @@
         <v>1107</v>
       </c>
       <c r="B1326" s="127" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C1326" s="127" t="s">
         <v>895</v>
       </c>
       <c r="D1326" s="127" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E1326" s="127">
         <v>1</v>
@@ -60115,7 +60161,7 @@
         <v>918</v>
       </c>
       <c r="H1326" s="127" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="I1326" s="127"/>
       <c r="J1326" s="127"/>
@@ -60128,13 +60174,13 @@
         <v>1107</v>
       </c>
       <c r="B1327" s="127" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C1327" s="127" t="s">
         <v>895</v>
       </c>
       <c r="D1327" s="124" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E1327" s="124">
         <v>2</v>
@@ -60146,7 +60192,7 @@
         <v>20</v>
       </c>
       <c r="H1327" s="124" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="I1327" s="124"/>
       <c r="J1327" s="124"/>
@@ -60159,13 +60205,13 @@
         <v>1107</v>
       </c>
       <c r="B1328" s="127" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C1328" s="127" t="s">
         <v>895</v>
       </c>
       <c r="D1328" s="124" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="E1328" s="124">
         <v>3</v>
@@ -60180,7 +60226,7 @@
         <v>1460</v>
       </c>
       <c r="I1328" s="124" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="J1328" s="124"/>
       <c r="K1328" s="125"/>
@@ -60192,13 +60238,13 @@
         <v>1107</v>
       </c>
       <c r="B1329" s="127" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C1329" s="127" t="s">
         <v>895</v>
       </c>
       <c r="D1329" s="124" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="E1329" s="124">
         <v>4</v>
@@ -60210,7 +60256,7 @@
         <v>6</v>
       </c>
       <c r="H1329" s="124" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="I1329" s="124"/>
       <c r="J1329" s="124"/>
@@ -60223,13 +60269,13 @@
         <v>1107</v>
       </c>
       <c r="B1330" s="127" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C1330" s="127" t="s">
         <v>895</v>
       </c>
       <c r="D1330" s="124" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E1330" s="124">
         <v>5</v>
@@ -60241,7 +60287,7 @@
         <v>918</v>
       </c>
       <c r="H1330" s="124" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="I1330" s="124"/>
       <c r="J1330" s="124"/>
@@ -60254,13 +60300,13 @@
         <v>1107</v>
       </c>
       <c r="B1331" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1331" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1331" s="124" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E1331" s="124">
         <v>1</v>
@@ -60272,7 +60318,7 @@
         <v>10</v>
       </c>
       <c r="H1331" s="124" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="I1331" s="124"/>
       <c r="J1331" s="124"/>
@@ -60285,13 +60331,13 @@
         <v>1107</v>
       </c>
       <c r="B1332" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1332" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1332" s="124" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="E1332" s="124">
         <v>2</v>
@@ -60316,7 +60362,7 @@
         <v>1107</v>
       </c>
       <c r="B1333" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1333" s="124" t="s">
         <v>893</v>
@@ -60347,13 +60393,13 @@
         <v>1107</v>
       </c>
       <c r="B1334" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1334" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1334" s="124" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E1334" s="124">
         <v>4</v>
@@ -60365,7 +60411,7 @@
         <v>10</v>
       </c>
       <c r="H1334" s="124" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="I1334" s="124"/>
       <c r="J1334" s="124"/>
@@ -60378,13 +60424,13 @@
         <v>1107</v>
       </c>
       <c r="B1335" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1335" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1335" s="124" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="E1335" s="124">
         <v>5</v>
@@ -60396,7 +60442,7 @@
         <v>20</v>
       </c>
       <c r="H1335" s="124" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="I1335" s="124"/>
       <c r="J1335" s="124"/>
@@ -60409,13 +60455,13 @@
         <v>1107</v>
       </c>
       <c r="B1336" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1336" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1336" s="124" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="E1336" s="124">
         <v>6</v>
@@ -60427,7 +60473,7 @@
         <v>918</v>
       </c>
       <c r="H1336" s="124" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="I1336" s="124"/>
       <c r="J1336" s="124"/>
@@ -60440,13 +60486,13 @@
         <v>1107</v>
       </c>
       <c r="B1337" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1337" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1337" s="124" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="E1337" s="124">
         <v>7</v>
@@ -60458,7 +60504,7 @@
         <v>918</v>
       </c>
       <c r="H1337" s="124" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="I1337" s="124"/>
       <c r="J1337" s="124"/>
@@ -60471,13 +60517,13 @@
         <v>1107</v>
       </c>
       <c r="B1338" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1338" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1338" s="124" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="E1338" s="124">
         <v>8</v>
@@ -60502,7 +60548,7 @@
         <v>1107</v>
       </c>
       <c r="B1339" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1339" s="124" t="s">
         <v>893</v>
@@ -60533,13 +60579,13 @@
         <v>1107</v>
       </c>
       <c r="B1340" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1340" s="124" t="s">
         <v>893</v>
       </c>
       <c r="D1340" s="124" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="E1340" s="124">
         <v>10</v>
@@ -60551,7 +60597,7 @@
         <v>918</v>
       </c>
       <c r="H1340" s="124" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="I1340" s="124"/>
       <c r="J1340" s="124"/>
@@ -60564,7 +60610,7 @@
         <v>1107</v>
       </c>
       <c r="B1341" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1341" s="124" t="s">
         <v>893</v>
@@ -60595,7 +60641,7 @@
         <v>1107</v>
       </c>
       <c r="B1342" s="124" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C1342" s="124" t="s">
         <v>893</v>
@@ -60626,13 +60672,13 @@
         <v>1107</v>
       </c>
       <c r="B1343" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1343" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1343" s="124" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E1343" s="124">
         <v>1</v>
@@ -60644,7 +60690,7 @@
         <v>20</v>
       </c>
       <c r="H1343" s="124" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="I1343" s="124"/>
       <c r="J1343" s="124"/>
@@ -60657,13 +60703,13 @@
         <v>1107</v>
       </c>
       <c r="B1344" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1344" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1344" s="124" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E1344" s="124">
         <v>2</v>
@@ -60688,13 +60734,13 @@
         <v>1107</v>
       </c>
       <c r="B1345" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1345" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1345" s="124" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="E1345" s="124">
         <v>3</v>
@@ -60706,7 +60752,7 @@
         <v>918</v>
       </c>
       <c r="H1345" s="124" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="I1345" s="124"/>
       <c r="J1345" s="124"/>
@@ -60719,13 +60765,13 @@
         <v>1107</v>
       </c>
       <c r="B1346" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1346" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1346" s="124" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="E1346" s="124">
         <v>4</v>
@@ -60737,7 +60783,7 @@
         <v>918</v>
       </c>
       <c r="H1346" s="124" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="I1346" s="124"/>
       <c r="J1346" s="124"/>
@@ -60750,13 +60796,13 @@
         <v>1107</v>
       </c>
       <c r="B1347" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1347" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1347" s="124" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="E1347" s="124">
         <v>5</v>
@@ -60768,7 +60814,7 @@
         <v>918</v>
       </c>
       <c r="H1347" s="124" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="I1347" s="124"/>
       <c r="J1347" s="124"/>
@@ -60781,13 +60827,13 @@
         <v>1107</v>
       </c>
       <c r="B1348" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1348" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1348" s="124" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="E1348" s="124">
         <v>6</v>
@@ -60799,10 +60845,10 @@
         <v>6</v>
       </c>
       <c r="H1348" s="124" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="I1348" s="124" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="J1348" s="124"/>
       <c r="K1348" s="125"/>
@@ -60814,13 +60860,13 @@
         <v>1107</v>
       </c>
       <c r="B1349" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1349" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1349" s="124" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="E1349" s="124">
         <v>7</v>
@@ -60832,7 +60878,7 @@
         <v>918</v>
       </c>
       <c r="H1349" s="124" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="I1349" s="124"/>
       <c r="J1349" s="124"/>
@@ -60845,13 +60891,13 @@
         <v>1107</v>
       </c>
       <c r="B1350" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1350" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1350" s="124" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="E1350" s="124">
         <v>8</v>
@@ -60863,7 +60909,7 @@
         <v>64</v>
       </c>
       <c r="H1350" s="124" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="I1350" s="124"/>
       <c r="J1350" s="124"/>
@@ -60876,13 +60922,13 @@
         <v>1107</v>
       </c>
       <c r="B1351" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1351" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1351" s="124" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="E1351" s="124">
         <v>9</v>
@@ -60894,7 +60940,7 @@
         <v>30</v>
       </c>
       <c r="H1351" s="124" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="I1351" s="124"/>
       <c r="J1351" s="124"/>
@@ -60907,13 +60953,13 @@
         <v>1107</v>
       </c>
       <c r="B1352" s="124" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="C1352" s="124" t="s">
         <v>892</v>
       </c>
       <c r="D1352" s="127" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E1352" s="127">
         <v>10</v>
@@ -60925,7 +60971,7 @@
         <v>918</v>
       </c>
       <c r="H1352" s="127" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="I1352" s="127"/>
       <c r="J1352" s="127"/>
@@ -60960,19 +61006,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>1066</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="H1" s="147" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="H1" s="148" t="s">
         <v>1105</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -61157,11 +61203,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="146"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -61199,41 +61245,41 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C2" t="s">
         <v>2182</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E2" t="s">
         <v>2184</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2185</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>2186</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>2187</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>2188</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2189</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="B3" t="s">
         <v>919</v>
@@ -61242,27 +61288,27 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G3" t="s">
         <v>2193</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>2193</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>2194</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="B4" t="s">
         <v>919</v>
@@ -61271,22 +61317,22 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G4" t="s">
         <v>2193</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>2193</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>2194</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -61300,19 +61346,19 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G5" t="s">
         <v>2193</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>2193</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2194</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2195</v>
       </c>
       <c r="I5" t="s">
         <v>918</v>
@@ -61320,7 +61366,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="B6" t="s">
         <v>917</v>
@@ -61335,13 +61381,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G6" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="H6" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I6" t="s">
         <v>918</v>
@@ -61364,13 +61410,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G7" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="H7" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I7" t="s">
         <v>918</v>
@@ -61378,7 +61424,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="B8" t="s">
         <v>919</v>
@@ -61387,27 +61433,27 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G8" t="s">
         <v>2193</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>2193</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>2194</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="B9" t="s">
         <v>921</v>
@@ -61416,19 +61462,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G9" t="s">
         <v>2193</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>2193</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2194</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2195</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2195</v>
       </c>
       <c r="I9" t="s">
         <v>918</v>
@@ -61436,236 +61482,236 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C12" t="s">
         <v>2181</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>2182</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>2183</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>2184</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>2185</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>2186</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>2187</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>2188</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B13" t="s">
         <v>919</v>
       </c>
       <c r="C13" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H13" t="s">
         <v>2193</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>2193</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>2194</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J13" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="B14" t="s">
         <v>919</v>
       </c>
       <c r="C14" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D14">
         <v>60</v>
       </c>
       <c r="E14" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H14" t="s">
         <v>2193</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>2193</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>2194</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C17" t="s">
         <v>2181</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>2182</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>2183</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>2184</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>2185</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>2186</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>2187</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>2188</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B18" t="s">
         <v>919</v>
       </c>
       <c r="C18" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H18" t="s">
         <v>2193</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>2193</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" t="s">
         <v>2194</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B19" t="s">
         <v>919</v>
       </c>
       <c r="C19" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D19">
         <v>40</v>
       </c>
       <c r="E19" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H19" t="s">
         <v>2193</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>2193</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>2194</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B20" t="s">
         <v>919</v>
       </c>
       <c r="C20" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D20">
         <v>60</v>
       </c>
       <c r="E20" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H20" t="s">
         <v>2193</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>2193</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" t="s">
         <v>2194</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -61676,28 +61722,28 @@
         <v>919</v>
       </c>
       <c r="C21" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H21" t="s">
         <v>2193</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>2193</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>2194</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J21" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -61708,60 +61754,60 @@
         <v>919</v>
       </c>
       <c r="C22" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D22">
         <v>60</v>
       </c>
       <c r="E22" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H22" t="s">
         <v>2193</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>2193</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>2194</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B23" t="s">
         <v>919</v>
       </c>
       <c r="C23" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
       <c r="E23" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H23" t="s">
         <v>2193</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>2193</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J23" t="s">
         <v>2194</v>
-      </c>
-      <c r="H23" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J23" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -61772,7 +61818,7 @@
         <v>920</v>
       </c>
       <c r="C24" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D24">
         <v>17</v>
@@ -61784,13 +61830,13 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H24" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I24" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J24" t="s">
         <v>918</v>
@@ -61804,158 +61850,158 @@
         <v>919</v>
       </c>
       <c r="C25" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D25">
         <v>70</v>
       </c>
       <c r="E25" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H25" t="s">
         <v>2193</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>2193</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J25" t="s">
         <v>2194</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C28" t="s">
         <v>2181</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>2182</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>2183</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>2184</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>2185</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>2186</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>2187</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>2188</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B29" t="s">
         <v>919</v>
       </c>
       <c r="C29" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
       <c r="E29" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H29" t="s">
         <v>2193</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>2193</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>2194</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B30" t="s">
         <v>919</v>
       </c>
       <c r="C30" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H30" t="s">
         <v>2193</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>2193</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J30" t="s">
         <v>2194</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I30" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J30" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B31" t="s">
         <v>921</v>
       </c>
       <c r="C31" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H31" t="s">
         <v>2193</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>2193</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I31" t="s">
-        <v>2195</v>
       </c>
       <c r="J31" t="s">
         <v>918</v>
@@ -61969,65 +62015,65 @@
         <v>919</v>
       </c>
       <c r="C32" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H32" t="s">
         <v>2193</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>2193</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>2194</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I32" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J32" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C35" t="s">
         <v>2181</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>2182</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>2183</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>2184</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>2185</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>2186</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>2187</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>2188</v>
-      </c>
-      <c r="I35" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J35" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -62038,161 +62084,161 @@
         <v>919</v>
       </c>
       <c r="C36" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H36" t="s">
         <v>2193</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>2193</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>2194</v>
-      </c>
-      <c r="H36" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I36" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J36" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B37" t="s">
         <v>919</v>
       </c>
       <c r="C37" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D37">
         <v>90</v>
       </c>
       <c r="E37" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H37" t="s">
         <v>2193</v>
       </c>
-      <c r="F37" t="s">
+      <c r="I37" t="s">
         <v>2193</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
         <v>2194</v>
-      </c>
-      <c r="H37" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I37" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J37" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B38" t="s">
         <v>919</v>
       </c>
       <c r="C38" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D38">
         <v>100</v>
       </c>
       <c r="E38" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H38" t="s">
         <v>2193</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>2193</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>2194</v>
-      </c>
-      <c r="H38" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I38" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J38" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C41" t="s">
         <v>2181</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>2182</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>2183</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>2184</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>2185</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>2186</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>2187</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>2188</v>
-      </c>
-      <c r="I41" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B42" t="s">
         <v>919</v>
       </c>
       <c r="C42" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D42">
         <v>20</v>
       </c>
       <c r="E42" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H42" t="s">
         <v>2193</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>2193</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>2194</v>
-      </c>
-      <c r="H42" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I42" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J42" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -62203,92 +62249,92 @@
         <v>919</v>
       </c>
       <c r="C43" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D43">
         <v>128</v>
       </c>
       <c r="E43" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H43" t="s">
         <v>2193</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>2193</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>2194</v>
-      </c>
-      <c r="H43" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I43" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J43" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B44" t="s">
         <v>919</v>
       </c>
       <c r="C44" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D44">
         <v>60</v>
       </c>
       <c r="E44" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H44" t="s">
         <v>2193</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>2193</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>2194</v>
-      </c>
-      <c r="H44" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I44" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J44" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="B45" t="s">
         <v>919</v>
       </c>
       <c r="C45" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H45" t="s">
         <v>2193</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>2193</v>
       </c>
-      <c r="G45" t="s">
+      <c r="J45" t="s">
         <v>2194</v>
-      </c>
-      <c r="H45" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I45" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J45" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -62299,60 +62345,60 @@
         <v>919</v>
       </c>
       <c r="C46" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D46">
         <v>30</v>
       </c>
       <c r="E46" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H46" t="s">
         <v>2193</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>2193</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
         <v>2194</v>
-      </c>
-      <c r="H46" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I46" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J46" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="B47" t="s">
         <v>919</v>
       </c>
       <c r="C47" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D47">
         <v>20</v>
       </c>
       <c r="E47" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H47" t="s">
         <v>2193</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>2193</v>
       </c>
-      <c r="G47" t="s">
+      <c r="J47" t="s">
         <v>2194</v>
-      </c>
-      <c r="H47" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I47" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J47" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -62363,153 +62409,153 @@
         <v>919</v>
       </c>
       <c r="C48" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D48">
         <v>64</v>
       </c>
       <c r="E48" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H48" t="s">
         <v>2193</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>2193</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>2194</v>
-      </c>
-      <c r="H48" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I48" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J48" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B49" t="s">
         <v>919</v>
       </c>
       <c r="C49" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H49" t="s">
         <v>2193</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
         <v>2193</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>2194</v>
-      </c>
-      <c r="H49" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I49" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J49" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B50" t="s">
         <v>919</v>
       </c>
       <c r="C50" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H50" t="s">
         <v>2193</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>2193</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>2194</v>
-      </c>
-      <c r="H50" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I50" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J50" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B51" t="s">
         <v>919</v>
       </c>
       <c r="C51" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D51">
         <v>20</v>
       </c>
       <c r="E51" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H51" t="s">
         <v>2193</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>2193</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>2194</v>
-      </c>
-      <c r="H51" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I51" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J51" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B52" t="s">
         <v>921</v>
       </c>
       <c r="C52" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D52">
         <v>8</v>
       </c>
       <c r="E52" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H52" t="s">
         <v>2193</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>2193</v>
-      </c>
-      <c r="G52" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H52" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I52" t="s">
-        <v>2195</v>
       </c>
       <c r="J52" t="s">
         <v>918</v>
@@ -62517,31 +62563,31 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B53" t="s">
         <v>921</v>
       </c>
       <c r="C53" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D53">
         <v>8</v>
       </c>
       <c r="E53" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H53" t="s">
         <v>2193</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>2193</v>
-      </c>
-      <c r="G53" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H53" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I53" t="s">
-        <v>2195</v>
       </c>
       <c r="J53" t="s">
         <v>918</v>
@@ -62549,31 +62595,31 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B54" t="s">
         <v>921</v>
       </c>
       <c r="C54" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H54" t="s">
         <v>2193</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>2193</v>
-      </c>
-      <c r="G54" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H54" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I54" t="s">
-        <v>2195</v>
       </c>
       <c r="J54" t="s">
         <v>918</v>
@@ -62587,28 +62633,28 @@
         <v>919</v>
       </c>
       <c r="C55" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D55">
         <v>60</v>
       </c>
       <c r="E55" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H55" t="s">
         <v>2193</v>
       </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
         <v>2193</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>2194</v>
-      </c>
-      <c r="H55" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I55" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J55" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -62619,25 +62665,25 @@
         <v>921</v>
       </c>
       <c r="C56" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="E56" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H56" t="s">
         <v>2193</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>2193</v>
-      </c>
-      <c r="G56" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H56" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I56" t="s">
-        <v>2195</v>
       </c>
       <c r="J56" t="s">
         <v>918</v>
@@ -62651,7 +62697,7 @@
         <v>920</v>
       </c>
       <c r="C57" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D57">
         <v>13</v>
@@ -62663,13 +62709,13 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H57" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I57" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J57" t="s">
         <v>918</v>
@@ -62683,124 +62729,124 @@
         <v>919</v>
       </c>
       <c r="C58" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D58">
         <v>30</v>
       </c>
       <c r="E58" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H58" t="s">
         <v>2193</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>2193</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
         <v>2194</v>
-      </c>
-      <c r="H58" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I58" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J58" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B59" t="s">
         <v>919</v>
       </c>
       <c r="C59" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D59">
         <v>20</v>
       </c>
       <c r="E59" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H59" t="s">
         <v>2193</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>2193</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
         <v>2194</v>
-      </c>
-      <c r="H59" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I59" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J59" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B60" t="s">
         <v>919</v>
       </c>
       <c r="C60" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D60">
         <v>40</v>
       </c>
       <c r="E60" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H60" t="s">
         <v>2193</v>
       </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>2193</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>2194</v>
-      </c>
-      <c r="H60" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I60" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J60" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B61" t="s">
         <v>919</v>
       </c>
       <c r="C61" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H61" t="s">
         <v>2193</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>2193</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>2194</v>
-      </c>
-      <c r="H61" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I61" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J61" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -62811,57 +62857,57 @@
         <v>919</v>
       </c>
       <c r="C62" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D62">
         <v>36</v>
       </c>
       <c r="E62" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H62" t="s">
         <v>2193</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>2193</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>2194</v>
-      </c>
-      <c r="H62" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I62" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J62" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B63" t="s">
         <v>921</v>
       </c>
       <c r="C63" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
       <c r="E63" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H63" t="s">
         <v>2193</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>2193</v>
-      </c>
-      <c r="G63" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H63" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I63" t="s">
-        <v>2195</v>
       </c>
       <c r="J63" t="s">
         <v>918</v>
@@ -62869,34 +62915,34 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B64" t="s">
         <v>919</v>
       </c>
       <c r="C64" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H64" t="s">
         <v>2193</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>2193</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
         <v>2194</v>
-      </c>
-      <c r="H64" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I64" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J64" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -62907,57 +62953,57 @@
         <v>919</v>
       </c>
       <c r="C65" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D65">
         <v>36</v>
       </c>
       <c r="E65" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H65" t="s">
         <v>2193</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>2193</v>
       </c>
-      <c r="G65" t="s">
+      <c r="J65" t="s">
         <v>2194</v>
-      </c>
-      <c r="H65" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I65" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J65" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B66" t="s">
         <v>921</v>
       </c>
       <c r="C66" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D66">
         <v>8</v>
       </c>
       <c r="E66" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H66" t="s">
         <v>2193</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>2193</v>
-      </c>
-      <c r="G66" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H66" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I66" t="s">
-        <v>2195</v>
       </c>
       <c r="J66" t="s">
         <v>918</v>
@@ -62971,28 +63017,28 @@
         <v>919</v>
       </c>
       <c r="C67" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H67" t="s">
         <v>2193</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>2193</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>2194</v>
-      </c>
-      <c r="H67" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I67" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J67" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -63003,25 +63049,25 @@
         <v>921</v>
       </c>
       <c r="C68" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D68">
         <v>8</v>
       </c>
       <c r="E68" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H68" t="s">
         <v>2193</v>
       </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
         <v>2193</v>
-      </c>
-      <c r="G68" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H68" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I68" t="s">
-        <v>2195</v>
       </c>
       <c r="J68" t="s">
         <v>918</v>
@@ -63029,50 +63075,50 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C71" t="s">
         <v>2181</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>2182</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>2183</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>2184</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>2185</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>2186</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
         <v>2187</v>
       </c>
-      <c r="H71" t="s">
+      <c r="J71" t="s">
         <v>2188</v>
-      </c>
-      <c r="I71" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J71" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B72" t="s">
         <v>920</v>
       </c>
       <c r="C72" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D72">
         <v>17</v>
@@ -63084,13 +63130,13 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H72" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I72" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J72" t="s">
         <v>918</v>
@@ -63098,127 +63144,127 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B73" t="s">
         <v>919</v>
       </c>
       <c r="C73" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H73" t="s">
         <v>2193</v>
       </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
         <v>2193</v>
       </c>
-      <c r="G73" t="s">
+      <c r="J73" t="s">
         <v>2194</v>
-      </c>
-      <c r="H73" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I73" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J73" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B74" t="s">
         <v>919</v>
       </c>
       <c r="C74" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D74">
         <v>6</v>
       </c>
       <c r="E74" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H74" t="s">
         <v>2193</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>2193</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J74" t="s">
         <v>2194</v>
-      </c>
-      <c r="H74" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I74" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J74" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B75" t="s">
         <v>919</v>
       </c>
       <c r="C75" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D75">
         <v>6</v>
       </c>
       <c r="E75" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H75" t="s">
         <v>2193</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>2193</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J75" t="s">
         <v>2194</v>
-      </c>
-      <c r="H75" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I75" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J75" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B76" t="s">
         <v>921</v>
       </c>
       <c r="C76" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D76">
         <v>8</v>
       </c>
       <c r="E76" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H76" t="s">
         <v>2193</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>2193</v>
-      </c>
-      <c r="G76" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H76" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I76" t="s">
-        <v>2195</v>
       </c>
       <c r="J76" t="s">
         <v>918</v>
@@ -63226,103 +63272,103 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C79" t="s">
         <v>2181</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>2182</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>2183</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>2184</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>2185</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>2186</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>2187</v>
       </c>
-      <c r="H79" t="s">
+      <c r="J79" t="s">
         <v>2188</v>
-      </c>
-      <c r="I79" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J79" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B80" t="s">
         <v>919</v>
       </c>
       <c r="C80" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D80">
         <v>20</v>
       </c>
       <c r="E80" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H80" t="s">
         <v>2193</v>
       </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>2193</v>
       </c>
-      <c r="G80" t="s">
+      <c r="J80" t="s">
         <v>2194</v>
-      </c>
-      <c r="H80" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I80" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J80" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B81" t="s">
         <v>919</v>
       </c>
       <c r="C81" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D81">
         <v>60</v>
       </c>
       <c r="E81" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H81" t="s">
         <v>2193</v>
       </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
         <v>2193</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>2194</v>
-      </c>
-      <c r="H81" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I81" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J81" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -63333,103 +63379,103 @@
         <v>919</v>
       </c>
       <c r="C82" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D82">
         <v>100</v>
       </c>
       <c r="E82" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H82" t="s">
         <v>2193</v>
       </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
         <v>2193</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" t="s">
         <v>2194</v>
-      </c>
-      <c r="H82" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I82" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J82" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B83" t="s">
         <v>919</v>
       </c>
       <c r="C83" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D83">
         <v>10</v>
       </c>
       <c r="E83" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H83" t="s">
         <v>2193</v>
       </c>
-      <c r="F83" t="s">
+      <c r="I83" t="s">
         <v>2193</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
         <v>2194</v>
-      </c>
-      <c r="H83" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I83" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J83" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B84" t="s">
         <v>919</v>
       </c>
       <c r="C84" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D84">
         <v>20</v>
       </c>
       <c r="E84" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H84" t="s">
         <v>2193</v>
       </c>
-      <c r="F84" t="s">
+      <c r="I84" t="s">
         <v>2193</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>2194</v>
-      </c>
-      <c r="H84" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I84" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J84" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B85" t="s">
         <v>917</v>
       </c>
       <c r="C85" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -63441,13 +63487,13 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H85" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I85" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J85" t="s">
         <v>918</v>
@@ -63455,13 +63501,13 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B86" t="s">
         <v>917</v>
       </c>
       <c r="C86" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -63473,13 +63519,13 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H86" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I86" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J86" t="s">
         <v>918</v>
@@ -63487,34 +63533,34 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B87" t="s">
         <v>919</v>
       </c>
       <c r="C87" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D87">
         <v>20</v>
       </c>
       <c r="E87" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H87" t="s">
         <v>2193</v>
       </c>
-      <c r="F87" t="s">
+      <c r="I87" t="s">
         <v>2193</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" t="s">
         <v>2194</v>
-      </c>
-      <c r="H87" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I87" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J87" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -63525,7 +63571,7 @@
         <v>917</v>
       </c>
       <c r="C88" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -63537,13 +63583,13 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H88" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I88" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J88" t="s">
         <v>918</v>
@@ -63551,31 +63597,31 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B89" t="s">
         <v>921</v>
       </c>
       <c r="C89" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D89">
         <v>8</v>
       </c>
       <c r="E89" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H89" t="s">
         <v>2193</v>
       </c>
-      <c r="F89" t="s">
+      <c r="I89" t="s">
         <v>2193</v>
-      </c>
-      <c r="G89" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H89" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I89" t="s">
-        <v>2195</v>
       </c>
       <c r="J89" t="s">
         <v>918</v>
@@ -63589,7 +63635,7 @@
         <v>917</v>
       </c>
       <c r="C90" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -63601,13 +63647,13 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H90" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I90" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J90" t="s">
         <v>918</v>
@@ -63621,25 +63667,25 @@
         <v>921</v>
       </c>
       <c r="C91" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D91">
         <v>8</v>
       </c>
       <c r="E91" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H91" t="s">
         <v>2193</v>
       </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
         <v>2193</v>
-      </c>
-      <c r="G91" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H91" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I91" t="s">
-        <v>2195</v>
       </c>
       <c r="J91" t="s">
         <v>918</v>
@@ -63647,82 +63693,82 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C94" t="s">
         <v>2181</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>2182</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>2183</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>2184</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>2185</v>
       </c>
-      <c r="F94" t="s">
+      <c r="H94" t="s">
         <v>2186</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>2187</v>
       </c>
-      <c r="H94" t="s">
+      <c r="J94" t="s">
         <v>2188</v>
-      </c>
-      <c r="I94" t="s">
-        <v>2189</v>
-      </c>
-      <c r="J94" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B95" t="s">
         <v>919</v>
       </c>
       <c r="C95" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D95">
         <v>20</v>
       </c>
       <c r="E95" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H95" t="s">
         <v>2193</v>
       </c>
-      <c r="F95" t="s">
+      <c r="I95" t="s">
         <v>2193</v>
       </c>
-      <c r="G95" t="s">
+      <c r="J95" t="s">
         <v>2194</v>
-      </c>
-      <c r="H95" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I95" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J95" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B96" t="s">
         <v>920</v>
       </c>
       <c r="C96" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D96">
         <v>17</v>
@@ -63734,13 +63780,13 @@
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H96" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I96" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J96" t="s">
         <v>918</v>
@@ -63748,31 +63794,31 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B97" t="s">
         <v>921</v>
       </c>
       <c r="C97" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D97">
         <v>8</v>
       </c>
       <c r="E97" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F97" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H97" t="s">
         <v>2193</v>
       </c>
-      <c r="F97" t="s">
+      <c r="I97" t="s">
         <v>2193</v>
-      </c>
-      <c r="G97" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H97" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I97" t="s">
-        <v>2195</v>
       </c>
       <c r="J97" t="s">
         <v>918</v>
@@ -63780,13 +63826,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B98" t="s">
         <v>920</v>
       </c>
       <c r="C98" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D98">
         <v>17</v>
@@ -63798,13 +63844,13 @@
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H98" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I98" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J98" t="s">
         <v>918</v>
@@ -63812,13 +63858,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B99" t="s">
         <v>920</v>
       </c>
       <c r="C99" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D99">
         <v>17</v>
@@ -63830,13 +63876,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H99" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I99" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J99" t="s">
         <v>918</v>
@@ -63844,63 +63890,63 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B100" t="s">
         <v>919</v>
       </c>
       <c r="C100" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D100">
         <v>6</v>
       </c>
       <c r="E100" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H100" t="s">
         <v>2193</v>
       </c>
-      <c r="F100" t="s">
+      <c r="I100" t="s">
         <v>2193</v>
       </c>
-      <c r="G100" t="s">
+      <c r="J100" t="s">
         <v>2194</v>
-      </c>
-      <c r="H100" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I100" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J100" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B101" t="s">
         <v>921</v>
       </c>
       <c r="C101" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D101">
         <v>8</v>
       </c>
       <c r="E101" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H101" t="s">
         <v>2193</v>
       </c>
-      <c r="F101" t="s">
+      <c r="I101" t="s">
         <v>2193</v>
-      </c>
-      <c r="G101" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H101" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I101" t="s">
-        <v>2195</v>
       </c>
       <c r="J101" t="s">
         <v>918</v>
@@ -63908,77 +63954,77 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B102" t="s">
         <v>919</v>
       </c>
       <c r="C102" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D102">
         <v>64</v>
       </c>
       <c r="E102" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F102" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H102" t="s">
         <v>2193</v>
       </c>
-      <c r="F102" t="s">
+      <c r="I102" t="s">
         <v>2193</v>
       </c>
-      <c r="G102" t="s">
+      <c r="J102" t="s">
         <v>2194</v>
-      </c>
-      <c r="H102" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I102" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J102" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B103" t="s">
         <v>919</v>
       </c>
       <c r="C103" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D103">
         <v>30</v>
       </c>
       <c r="E103" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H103" t="s">
         <v>2193</v>
       </c>
-      <c r="F103" t="s">
+      <c r="I103" t="s">
         <v>2193</v>
       </c>
-      <c r="G103" t="s">
+      <c r="J103" t="s">
         <v>2194</v>
-      </c>
-      <c r="H103" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I103" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J103" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B104" t="s">
         <v>920</v>
       </c>
       <c r="C104" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D104">
         <v>17</v>
@@ -63990,13 +64036,13 @@
         <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="H104" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="I104" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J104" t="s">
         <v>918</v>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13847" uniqueCount="2349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13845" uniqueCount="2349">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7083,7 +7083,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7144,6 +7144,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7685,7 +7691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -8111,6 +8117,18 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8432,15 +8450,10 @@
   <autoFilter ref="A1:M1355">
     <filterColumn colId="2">
       <filters>
-        <filter val="stg_orc_interno"/>
+        <filter val="stg_cap_titulo_referencia"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:M1260">
-    <sortCondition ref="A2:A1260"/>
-    <sortCondition ref="B2:B1260"/>
-    <sortCondition ref="C2:C1260"/>
-  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" name="Tipo" dataDxfId="12"/>
     <tableColumn id="2" name="DE - TABLE_NAME" dataDxfId="11"/>
@@ -12623,7 +12636,7 @@
       <c r="A87" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B87" s="146" t="s">
+      <c r="B87" s="150" t="s">
         <v>915</v>
       </c>
       <c r="C87" s="38" t="s">
@@ -12659,7 +12672,7 @@
       <c r="A88" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B88" s="146"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="38" t="s">
         <v>2018</v>
       </c>
@@ -12709,7 +12722,7 @@
       <c r="A90" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B90" s="146" t="s">
+      <c r="B90" s="150" t="s">
         <v>2021</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -12745,7 +12758,7 @@
       <c r="A91" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B91" s="146"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="38" t="s">
         <v>2025</v>
       </c>
@@ -12779,7 +12792,7 @@
       <c r="A92" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B92" s="146"/>
+      <c r="B92" s="150"/>
       <c r="C92" s="38"/>
       <c r="D92" s="39" t="s">
         <v>1788</v>
@@ -12813,7 +12826,7 @@
       <c r="A93" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B93" s="146"/>
+      <c r="B93" s="150"/>
       <c r="C93" s="38" t="s">
         <v>2027</v>
       </c>
@@ -12847,7 +12860,7 @@
       <c r="A94" s="36" t="s">
         <v>1657</v>
       </c>
-      <c r="B94" s="146"/>
+      <c r="B94" s="150"/>
       <c r="C94" s="72" t="s">
         <v>2029</v>
       </c>
@@ -12869,7 +12882,7 @@
       <c r="A95" s="36" t="s">
         <v>1657</v>
       </c>
-      <c r="B95" s="146"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="72" t="s">
         <v>2030</v>
       </c>
@@ -12891,7 +12904,7 @@
       <c r="A96" s="36" t="s">
         <v>1657</v>
       </c>
-      <c r="B96" s="146"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="72" t="s">
         <v>2031</v>
       </c>
@@ -13169,7 +13182,7 @@
       <c r="A106" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B106" s="146" t="s">
+      <c r="B106" s="150" t="s">
         <v>949</v>
       </c>
       <c r="C106" s="38" t="s">
@@ -13205,7 +13218,7 @@
       <c r="A107" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B107" s="146"/>
+      <c r="B107" s="150"/>
       <c r="C107" s="38" t="s">
         <v>2055</v>
       </c>
@@ -13239,7 +13252,7 @@
       <c r="A108" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B108" s="146"/>
+      <c r="B108" s="150"/>
       <c r="C108" s="38" t="s">
         <v>2057</v>
       </c>
@@ -13289,7 +13302,7 @@
       <c r="A110" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B110" s="146" t="s">
+      <c r="B110" s="150" t="s">
         <v>955</v>
       </c>
       <c r="C110" s="38" t="s">
@@ -13325,7 +13338,7 @@
       <c r="A111" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B111" s="146"/>
+      <c r="B111" s="150"/>
       <c r="C111" s="38" t="s">
         <v>2064</v>
       </c>
@@ -13427,7 +13440,7 @@
       <c r="A115" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B115" s="146" t="s">
+      <c r="B115" s="150" t="s">
         <v>2071</v>
       </c>
       <c r="C115" s="38" t="s">
@@ -13463,7 +13476,7 @@
       <c r="A116" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B116" s="146"/>
+      <c r="B116" s="150"/>
       <c r="C116" s="38" t="s">
         <v>2076</v>
       </c>
@@ -13497,7 +13510,7 @@
       <c r="A117" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B117" s="146"/>
+      <c r="B117" s="150"/>
       <c r="C117" s="38" t="s">
         <v>2079</v>
       </c>
@@ -13531,7 +13544,7 @@
       <c r="A118" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B118" s="146"/>
+      <c r="B118" s="150"/>
       <c r="C118" s="38" t="s">
         <v>2082</v>
       </c>
@@ -13581,7 +13594,7 @@
       <c r="A120" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B120" s="146" t="s">
+      <c r="B120" s="150" t="s">
         <v>2085</v>
       </c>
       <c r="C120" s="38" t="s">
@@ -13617,7 +13630,7 @@
       <c r="A121" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B121" s="146"/>
+      <c r="B121" s="150"/>
       <c r="C121" s="38" t="s">
         <v>2090</v>
       </c>
@@ -13651,7 +13664,7 @@
       <c r="A122" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B122" s="146"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="38" t="s">
         <v>2093</v>
       </c>
@@ -13753,7 +13766,7 @@
       <c r="A126" s="36" t="s">
         <v>1657</v>
       </c>
-      <c r="B126" s="145" t="s">
+      <c r="B126" s="149" t="s">
         <v>2101</v>
       </c>
       <c r="C126" s="59" t="s">
@@ -13783,7 +13796,7 @@
       <c r="A127" s="36" t="s">
         <v>1657</v>
       </c>
-      <c r="B127" s="145"/>
+      <c r="B127" s="149"/>
       <c r="C127" s="59" t="s">
         <v>2104</v>
       </c>
@@ -13827,7 +13840,7 @@
       <c r="A129" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B129" s="146" t="s">
+      <c r="B129" s="150" t="s">
         <v>2105</v>
       </c>
       <c r="C129" s="38" t="s">
@@ -13863,7 +13876,7 @@
       <c r="A130" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B130" s="146"/>
+      <c r="B130" s="150"/>
       <c r="C130" s="38" t="s">
         <v>2110</v>
       </c>
@@ -13913,7 +13926,7 @@
       <c r="A132" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B132" s="146" t="s">
+      <c r="B132" s="150" t="s">
         <v>2113</v>
       </c>
       <c r="C132" s="38" t="s">
@@ -13949,7 +13962,7 @@
       <c r="A133" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B133" s="146"/>
+      <c r="B133" s="150"/>
       <c r="C133" s="38" t="s">
         <v>2118</v>
       </c>
@@ -13983,7 +13996,7 @@
       <c r="A134" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B134" s="146"/>
+      <c r="B134" s="150"/>
       <c r="C134" s="38" t="s">
         <v>2121</v>
       </c>
@@ -14017,7 +14030,7 @@
       <c r="A135" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B135" s="146"/>
+      <c r="B135" s="150"/>
       <c r="C135" s="38" t="s">
         <v>2124</v>
       </c>
@@ -14271,7 +14284,7 @@
       <c r="A144" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B144" s="146" t="s">
+      <c r="B144" s="150" t="s">
         <v>2144</v>
       </c>
       <c r="C144" s="38" t="s">
@@ -14307,7 +14320,7 @@
       <c r="A145" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B145" s="146"/>
+      <c r="B145" s="150"/>
       <c r="C145" s="38" t="s">
         <v>2149</v>
       </c>
@@ -14357,7 +14370,7 @@
       <c r="A147" s="36" t="s">
         <v>1992</v>
       </c>
-      <c r="B147" s="147" t="s">
+      <c r="B147" s="151" t="s">
         <v>2152</v>
       </c>
       <c r="C147" s="109" t="s">
@@ -14389,7 +14402,7 @@
       <c r="A148" s="36" t="s">
         <v>1992</v>
       </c>
-      <c r="B148" s="148"/>
+      <c r="B148" s="152"/>
       <c r="C148" s="65" t="s">
         <v>2155</v>
       </c>
@@ -14419,7 +14432,7 @@
       <c r="A149" s="36" t="s">
         <v>1992</v>
       </c>
-      <c r="B149" s="148"/>
+      <c r="B149" s="152"/>
       <c r="C149" s="65" t="s">
         <v>2157</v>
       </c>
@@ -14449,7 +14462,7 @@
       <c r="A150" s="36" t="s">
         <v>1992</v>
       </c>
-      <c r="B150" s="148"/>
+      <c r="B150" s="152"/>
       <c r="C150" s="65" t="s">
         <v>2158</v>
       </c>
@@ -14511,9 +14524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A951" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K956" sqref="K956"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1362" sqref="I1362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18814,7 +18827,7 @@
         <v>386</v>
       </c>
       <c r="E134" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>920</v>
@@ -18845,7 +18858,7 @@
         <v>383</v>
       </c>
       <c r="E135" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>920</v>
@@ -18876,7 +18889,7 @@
         <v>426</v>
       </c>
       <c r="E136" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>918</v>
@@ -18907,7 +18920,7 @@
         <v>652</v>
       </c>
       <c r="E137" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>916</v>
@@ -18931,38 +18944,39 @@
         <v>1107</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E138" s="24" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G138" s="7">
-        <v>18</v>
+        <v>1481</v>
+      </c>
+      <c r="E138" s="145">
+        <v>11</v>
+      </c>
+      <c r="F138" s="145" t="s">
+        <v>918</v>
+      </c>
+      <c r="G138" s="145">
+        <v>6</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K138" s="7" t="s">
-        <v>883</v>
-      </c>
-      <c r="L138" s="7" t="s">
-        <v>1206</v>
-      </c>
+        <v>1481</v>
+      </c>
+      <c r="I138" s="146" t="s">
+        <v>840</v>
+      </c>
+      <c r="J138" s="145" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K138" s="147" t="s">
+        <v>840</v>
+      </c>
+      <c r="L138" s="145" t="s">
+        <v>1481</v>
+      </c>
+      <c r="M138" s="148"/>
     </row>
     <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="6" t="s">
@@ -18975,10 +18989,10 @@
         <v>884</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E139" s="24">
-        <v>2</v>
+        <v>291</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>1711</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>918</v>
@@ -18987,12 +19001,19 @@
         <v>18</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
+        <v>1206</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="K139" s="7" t="s">
-        <v>1657</v>
+        <v>883</v>
+      </c>
+      <c r="L139" s="7" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="140" spans="1:13" hidden="1">
@@ -19006,27 +19027,25 @@
         <v>884</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="E140" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G140" s="7">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>1518</v>
+        <v>1630</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
-      <c r="K140" s="25" t="s">
-        <v>1657</v>
-      </c>
-      <c r="L140" s="7"/>
-      <c r="M140" s="10"/>
+      <c r="K140" s="7" t="s">
+        <v>1657</v>
+      </c>
     </row>
     <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="6" t="s">
@@ -19039,25 +19058,27 @@
         <v>884</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>413</v>
+        <v>166</v>
       </c>
       <c r="E141" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G141" s="7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>1631</v>
+        <v>1518</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
-      <c r="K141" s="7" t="s">
-        <v>1657</v>
-      </c>
+      <c r="K141" s="25" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L141" s="7"/>
+      <c r="M141" s="10"/>
     </row>
     <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="6" t="s">
@@ -19070,10 +19091,10 @@
         <v>884</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>141</v>
+        <v>413</v>
       </c>
       <c r="E142" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>918</v>
@@ -19082,7 +19103,7 @@
         <v>60</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -19101,19 +19122,19 @@
         <v>884</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>529</v>
+        <v>141</v>
       </c>
       <c r="E143" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G143" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
@@ -19132,31 +19153,24 @@
         <v>884</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>235</v>
+        <v>529</v>
       </c>
       <c r="E144" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G144" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J144" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>1633</v>
+      </c>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
       <c r="K144" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="L144" s="6" t="s">
-        <v>1609</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="145" spans="1:13" hidden="1">
@@ -19170,24 +19184,31 @@
         <v>884</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="E145" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G145" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
+        <v>1609</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="K145" s="7" t="s">
-        <v>1657</v>
+        <v>874</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="146" spans="1:13" hidden="1">
@@ -19201,19 +19222,19 @@
         <v>884</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="E146" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G146" s="7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -19232,27 +19253,25 @@
         <v>884</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>1768</v>
+        <v>293</v>
       </c>
       <c r="E147" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G147" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1626</v>
+        <v>1635</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7" t="s">
         <v>1657</v>
       </c>
-      <c r="L147" s="7"/>
-      <c r="M147" s="10"/>
     </row>
     <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="6" t="s">
@@ -19265,10 +19284,10 @@
         <v>884</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E148" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>918</v>
@@ -19277,7 +19296,7 @@
         <v>30</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -19298,10 +19317,10 @@
         <v>884</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>420</v>
+        <v>1769</v>
       </c>
       <c r="E149" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>918</v>
@@ -19310,7 +19329,7 @@
         <v>30</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -19320,7 +19339,7 @@
       <c r="L149" s="7"/>
       <c r="M149" s="10"/>
     </row>
-    <row r="150" spans="1:13" ht="38.25" hidden="1">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="6" t="s">
         <v>1107</v>
       </c>
@@ -19331,23 +19350,21 @@
         <v>884</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>652</v>
+        <v>420</v>
       </c>
       <c r="E150" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G150" s="7">
+        <v>30</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I150" s="8" t="s">
-        <v>1771</v>
-      </c>
+        <v>1628</v>
+      </c>
+      <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7" t="s">
         <v>1657</v>
@@ -19355,7 +19372,7 @@
       <c r="L150" s="7"/>
       <c r="M150" s="10"/>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13" ht="38.25" hidden="1">
       <c r="A151" s="6" t="s">
         <v>1107</v>
       </c>
@@ -19366,25 +19383,29 @@
         <v>884</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>386</v>
+        <v>652</v>
       </c>
       <c r="E151" s="24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>920</v>
+        <v>1770</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="I151" s="7"/>
+        <v>1447</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>1771</v>
+      </c>
       <c r="J151" s="7"/>
       <c r="K151" s="7" t="s">
         <v>1657</v>
       </c>
+      <c r="L151" s="7"/>
+      <c r="M151" s="10"/>
     </row>
     <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="6" t="s">
@@ -19397,10 +19418,10 @@
         <v>884</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E152" s="24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>920</v>
@@ -19409,7 +19430,7 @@
         <v>917</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -19422,25 +19443,25 @@
         <v>1107</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="E153" s="7">
-        <v>1</v>
+        <v>383</v>
+      </c>
+      <c r="E153" s="24">
+        <v>15</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>1450</v>
+        <v>383</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -19459,19 +19480,19 @@
         <v>885</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>349</v>
+        <v>662</v>
       </c>
       <c r="E154" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G154" s="7">
-        <v>140</v>
+        <v>938</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>1636</v>
+        <v>1450</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -19484,25 +19505,25 @@
         <v>1107</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="E155" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G155" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>1304</v>
+        <v>1636</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -19521,19 +19542,19 @@
         <v>886</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="E156" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G156" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1637</v>
+        <v>1304</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -19546,25 +19567,25 @@
         <v>1107</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="E157" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G157" s="7">
+        <v>60</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1461</v>
+        <v>1637</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -19583,19 +19604,19 @@
         <v>887</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="E158" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G158" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1638</v>
+        <v>1461</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -19608,25 +19629,25 @@
         <v>1107</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="E159" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G159" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1441</v>
+        <v>1638</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -19645,19 +19666,19 @@
         <v>888</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="E160" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G160" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1639</v>
+        <v>1441</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -19670,25 +19691,25 @@
         <v>1107</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>1141</v>
+        <v>888</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="E161" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G161" s="7">
+        <v>60</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -19707,19 +19728,19 @@
         <v>1141</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="E162" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G162" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1636</v>
+        <v>1450</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -19732,25 +19753,25 @@
         <v>1107</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>266</v>
+        <v>338</v>
       </c>
       <c r="E163" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G163" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1300</v>
+        <v>1636</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -19769,19 +19790,19 @@
         <v>1142</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="E164" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G164" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1640</v>
+        <v>1300</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
@@ -19794,25 +19815,25 @@
         <v>1107</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>896</v>
+        <v>1142</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="E165" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G165" s="7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1449</v>
+        <v>1640</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -19831,19 +19852,19 @@
         <v>896</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="E166" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G166" s="7">
-        <v>60</v>
-      </c>
-      <c r="H166" s="17" t="s">
-        <v>1643</v>
+        <v>6</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>1449</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
@@ -19856,25 +19877,25 @@
         <v>1107</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="E167" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G167" s="7">
+        <v>60</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>1312</v>
+        <v>1643</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -19893,19 +19914,19 @@
         <v>897</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="E168" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G168" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>1644</v>
+        <v>1312</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
@@ -19924,19 +19945,19 @@
         <v>897</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="E169" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F169" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G169" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>1190</v>
+        <v>1644</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -19949,25 +19970,25 @@
         <v>1107</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>1137</v>
+        <v>897</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="E170" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G170" s="7">
+        <v>6</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -19986,19 +20007,19 @@
         <v>1137</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="E171" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G171" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>1645</v>
+        <v>1201</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -20017,19 +20038,19 @@
         <v>1137</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="E172" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F172" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G172" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>1190</v>
+        <v>1645</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
@@ -20042,25 +20063,25 @@
         <v>1107</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E173" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G173" s="7">
+        <v>6</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>1448</v>
+        <v>1190</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
@@ -20079,19 +20100,19 @@
         <v>1143</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>1124</v>
+        <v>256</v>
       </c>
       <c r="E174" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G174" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>1647</v>
+        <v>1448</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
@@ -20110,19 +20131,19 @@
         <v>1143</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>1190</v>
+        <v>1124</v>
       </c>
       <c r="E175" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G175" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>1190</v>
+        <v>1647</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
@@ -20135,25 +20156,25 @@
         <v>1107</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>900</v>
+        <v>1143</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>252</v>
+        <v>1190</v>
       </c>
       <c r="E176" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G176" s="7">
+        <v>6</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>1310</v>
+        <v>1190</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -20172,19 +20193,19 @@
         <v>900</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="E177" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G177" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>1646</v>
+        <v>1310</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -20203,19 +20224,19 @@
         <v>900</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>1698</v>
+        <v>338</v>
       </c>
       <c r="E178" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F178" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G178" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>1190</v>
+        <v>1646</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -20228,25 +20249,25 @@
         <v>1107</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>1125</v>
+        <v>1023</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>1146</v>
+        <v>900</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>257</v>
+        <v>1698</v>
       </c>
       <c r="E179" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G179" s="7">
-        <v>10</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>1447</v>
+        <v>6</v>
+      </c>
+      <c r="H179" s="17" t="s">
+        <v>1190</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -20265,19 +20286,19 @@
         <v>1146</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>1126</v>
+        <v>257</v>
       </c>
       <c r="E180" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G180" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>1648</v>
+        <v>1447</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -20286,38 +20307,38 @@
       </c>
     </row>
     <row r="181" spans="1:11" hidden="1">
-      <c r="A181" s="16" t="s">
+      <c r="A181" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B181" s="17" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E181" s="17">
-        <v>1</v>
-      </c>
-      <c r="F181" s="17" t="s">
-        <v>916</v>
-      </c>
-      <c r="G181" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="H181" s="17" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17" t="s">
+      <c r="B181" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E181" s="7">
+        <v>2</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="G181" s="7">
+        <v>100</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="182" spans="1:11" hidden="1">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="16" t="s">
         <v>1107</v>
       </c>
       <c r="B182" s="17" t="s">
@@ -20326,24 +20347,24 @@
       <c r="C182" s="17" t="s">
         <v>1695</v>
       </c>
-      <c r="D182" s="7" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E182" s="7">
-        <v>2</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G182" s="7">
-        <v>70</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="7" t="s">
+      <c r="D182" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -20351,26 +20372,26 @@
       <c r="A183" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B183" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>1145</v>
+      <c r="B183" s="17" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>1695</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>251</v>
+        <v>1697</v>
       </c>
       <c r="E183" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G183" s="7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>1452</v>
+        <v>1401</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -20389,19 +20410,19 @@
         <v>1145</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>344</v>
+        <v>251</v>
       </c>
       <c r="E184" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G184" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>1585</v>
+        <v>1452</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -20414,25 +20435,25 @@
         <v>1107</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>905</v>
+        <v>1145</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="E185" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G185" s="7">
+        <v>60</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>1456</v>
+        <v>1585</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -20451,19 +20472,19 @@
         <v>905</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="E186" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G186" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>1649</v>
+        <v>1456</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -20476,19 +20497,25 @@
         <v>1107</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>1149</v>
+        <v>1026</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>1149</v>
+        <v>905</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
+        <v>338</v>
+      </c>
+      <c r="E187" s="7">
+        <v>2</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="G187" s="7">
+        <v>140</v>
+      </c>
       <c r="H187" s="7" t="s">
-        <v>1451</v>
+        <v>1649</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
@@ -20507,13 +20534,13 @@
         <v>1149</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7" t="s">
-        <v>1641</v>
+        <v>1451</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -20532,13 +20559,13 @@
         <v>1149</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -20547,33 +20574,27 @@
       </c>
     </row>
     <row r="190" spans="1:11" hidden="1">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B190" s="17" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C190" s="17" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E190" s="17">
-        <v>1</v>
-      </c>
-      <c r="F190" s="17" t="s">
-        <v>916</v>
-      </c>
-      <c r="G190" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="H190" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I190" s="17"/>
-      <c r="J190" s="17"/>
-      <c r="K190" s="17" t="s">
+      <c r="B190" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -20588,19 +20609,19 @@
         <v>1701</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>1167</v>
+        <v>265</v>
       </c>
       <c r="E191" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F191" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="G191" s="17">
-        <v>40</v>
+        <v>916</v>
+      </c>
+      <c r="G191" s="17" t="s">
+        <v>917</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>1702</v>
+        <v>1301</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -20609,33 +20630,33 @@
       </c>
     </row>
     <row r="192" spans="1:11" hidden="1">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="16" t="s">
         <v>1107</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E192" s="7">
-        <v>1</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="7" t="s">
+      <c r="B192" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E192" s="17">
+        <v>2</v>
+      </c>
+      <c r="F192" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="G192" s="17">
+        <v>40</v>
+      </c>
+      <c r="H192" s="17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -20650,19 +20671,19 @@
         <v>1157</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="E193" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G193" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>1650</v>
+        <v>1192</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -20675,25 +20696,25 @@
         <v>1107</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>1029</v>
+        <v>1156</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>906</v>
+        <v>1157</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="E194" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G194" s="7">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>1445</v>
+        <v>1650</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -20712,19 +20733,19 @@
         <v>906</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="E195" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G195" s="7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>1677</v>
+        <v>1445</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
@@ -20737,25 +20758,25 @@
         <v>1107</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>2166</v>
+        <v>1029</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>2165</v>
+        <v>906</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>2164</v>
+        <v>378</v>
       </c>
       <c r="E196" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G196" s="7">
+        <v>60</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>2164</v>
+        <v>1677</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -20774,19 +20795,19 @@
         <v>2165</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="E197" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G197" s="7">
-        <v>60</v>
+        <v>916</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -20799,25 +20820,25 @@
         <v>1107</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>1030</v>
+        <v>2166</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>1147</v>
+        <v>2165</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>268</v>
+        <v>2167</v>
       </c>
       <c r="E198" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G198" s="7">
+        <v>60</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>1299</v>
+        <v>2167</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -20836,19 +20857,19 @@
         <v>1147</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="E199" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G199" s="7">
-        <v>140</v>
+        <v>916</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>1590</v>
+        <v>1299</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -20861,25 +20882,25 @@
         <v>1107</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>908</v>
+        <v>1147</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="E200" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G200" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>1651</v>
+        <v>1590</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -20898,19 +20919,19 @@
         <v>908</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="E201" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G201" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -20923,25 +20944,25 @@
         <v>1107</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>690</v>
+        <v>338</v>
       </c>
       <c r="E202" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G202" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G202" s="7">
+        <v>60</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>1294</v>
+        <v>1652</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -20960,10 +20981,10 @@
         <v>911</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>157</v>
+        <v>690</v>
       </c>
       <c r="E203" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>916</v>
@@ -20972,14 +20993,10 @@
         <v>917</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>1653</v>
-      </c>
-      <c r="I203" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J203" s="7" t="s">
-        <v>1077</v>
-      </c>
+        <v>1294</v>
+      </c>
+      <c r="I203" s="7"/>
+      <c r="J203" s="7"/>
       <c r="K203" s="7" t="s">
         <v>1657</v>
       </c>
@@ -20995,22 +21012,26 @@
         <v>911</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>474</v>
+        <v>157</v>
       </c>
       <c r="E204" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G204" s="7">
-        <v>70</v>
+        <v>916</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
+        <v>1653</v>
+      </c>
+      <c r="I204" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J204" s="7" t="s">
+        <v>1077</v>
+      </c>
       <c r="K204" s="7" t="s">
         <v>1657</v>
       </c>
@@ -21026,19 +21047,19 @@
         <v>911</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>676</v>
+        <v>474</v>
       </c>
       <c r="E205" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F205" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G205" s="7">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -21047,66 +21068,64 @@
       </c>
     </row>
     <row r="206" spans="1:13" hidden="1">
-      <c r="A206" s="16" t="s">
+      <c r="A206" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B206" s="17" t="s">
+      <c r="B206" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="D206" s="17" t="s">
+      <c r="D206" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E206" s="7">
+        <v>4</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="G206" s="7">
+        <v>6</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I206" s="7"/>
+      <c r="J206" s="7"/>
+      <c r="K206" s="7" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" hidden="1">
+      <c r="A207" s="16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C207" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="D207" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="E206" s="17">
+      <c r="E207" s="17">
         <v>5</v>
       </c>
-      <c r="F206" s="17" t="s">
+      <c r="F207" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="G206" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="H206" s="17" t="s">
+      <c r="G207" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="H207" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="I206" s="17"/>
-      <c r="J206" s="17"/>
-      <c r="K206" s="17" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" hidden="1">
-      <c r="A207" s="6" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E207" s="7">
-        <v>1</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="H207" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
-      <c r="K207" s="7"/>
-      <c r="L207" s="7"/>
-      <c r="M207" s="10" t="s">
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -21121,32 +21140,24 @@
         <v>799</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="E208" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G208" s="7">
-        <v>36</v>
+        <v>916</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I208" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J208" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="K208" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="L208" s="6" t="s">
-        <v>1175</v>
-      </c>
+        <v>1174</v>
+      </c>
+      <c r="I208" s="7"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
+      <c r="L208" s="7"/>
       <c r="M208" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21162,31 +21173,31 @@
         <v>799</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E209" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G209" s="7">
+        <v>36</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I209" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J209" s="7" t="s">
-        <v>1075</v>
+        <v>930</v>
       </c>
       <c r="K209" s="7" t="s">
         <v>838</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="M209" s="10" t="s">
         <v>1657</v>
@@ -21203,10 +21214,10 @@
         <v>799</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="E210" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>916</v>
@@ -21215,12 +21226,20 @@
         <v>917</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I210" s="7"/>
-      <c r="J210" s="7"/>
-      <c r="K210" s="7"/>
-      <c r="L210" s="7"/>
+        <v>1176</v>
+      </c>
+      <c r="I210" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J210" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K210" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="L210" s="6" t="s">
+        <v>1176</v>
+      </c>
       <c r="M210" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21236,10 +21255,10 @@
         <v>799</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="E211" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F211" s="7" t="s">
         <v>916</v>
@@ -21248,7 +21267,7 @@
         <v>917</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>1177</v>
+        <v>1516</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -21269,32 +21288,24 @@
         <v>799</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="E212" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G212" s="7">
-        <v>24</v>
+        <v>916</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I212" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J212" s="7" t="s">
-        <v>1076</v>
-      </c>
-      <c r="K212" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="L212" s="7" t="s">
-        <v>1178</v>
-      </c>
+        <v>1177</v>
+      </c>
+      <c r="I212" s="7"/>
+      <c r="J212" s="7"/>
+      <c r="K212" s="7"/>
+      <c r="L212" s="7"/>
       <c r="M212" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21310,31 +21321,31 @@
         <v>799</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E213" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F213" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G213" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>1148</v>
+        <v>1076</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="M213" s="10" t="s">
         <v>1657</v>
@@ -21351,24 +21362,32 @@
         <v>799</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>779</v>
+        <v>183</v>
       </c>
       <c r="E214" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G214" s="7">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I214" s="7"/>
-      <c r="J214" s="7"/>
-      <c r="K214" s="7"/>
-      <c r="L214" s="7"/>
+        <v>1179</v>
+      </c>
+      <c r="I214" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J214" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K214" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="L214" s="7" t="s">
+        <v>1179</v>
+      </c>
       <c r="M214" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21384,19 +21403,19 @@
         <v>799</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>726</v>
+        <v>779</v>
       </c>
       <c r="E215" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G215" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G215" s="7">
+        <v>80</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -21417,10 +21436,10 @@
         <v>799</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="E216" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>919</v>
@@ -21429,7 +21448,7 @@
         <v>917</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -21450,19 +21469,19 @@
         <v>799</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>308</v>
+        <v>717</v>
       </c>
       <c r="E217" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G217" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>383</v>
+        <v>1182</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -21483,32 +21502,24 @@
         <v>799</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>687</v>
+        <v>308</v>
       </c>
       <c r="E218" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G218" s="7">
-        <v>20</v>
+        <v>920</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I218" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J218" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="K218" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="L218" s="7" t="s">
-        <v>1591</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="I218" s="7"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="7"/>
+      <c r="L218" s="7"/>
       <c r="M218" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21518,30 +21529,38 @@
         <v>1106</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>155</v>
+        <v>687</v>
       </c>
       <c r="E219" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G219" s="7">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-      <c r="K219" s="7"/>
-      <c r="L219" s="7"/>
+        <v>1591</v>
+      </c>
+      <c r="I219" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J219" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="K219" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="L219" s="7" t="s">
+        <v>1591</v>
+      </c>
       <c r="M219" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21557,19 +21576,19 @@
         <v>798</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="E220" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G220" s="7">
+        <v>354</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -21590,32 +21609,24 @@
         <v>798</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="E221" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G221" s="7">
-        <v>24</v>
+        <v>920</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I221" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J221" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K221" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="L221" s="7" t="s">
-        <v>1178</v>
-      </c>
+        <v>1184</v>
+      </c>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="7"/>
+      <c r="L221" s="7"/>
       <c r="M221" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21631,31 +21642,31 @@
         <v>798</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E222" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F222" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G222" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I222" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J222" s="7" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="K222" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="M222" s="10" t="s">
         <v>1657</v>
@@ -21672,10 +21683,10 @@
         <v>798</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="E223" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F223" s="7" t="s">
         <v>918</v>
@@ -21684,19 +21695,19 @@
         <v>18</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="I223" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="L223" s="6" t="s">
-        <v>1175</v>
+        <v>832</v>
+      </c>
+      <c r="L223" s="7" t="s">
+        <v>1179</v>
       </c>
       <c r="M223" s="10" t="s">
         <v>1657</v>
@@ -21713,31 +21724,31 @@
         <v>798</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>687</v>
+        <v>212</v>
       </c>
       <c r="E224" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G224" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>1591</v>
+        <v>1175</v>
       </c>
       <c r="I224" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J224" s="7" t="s">
-        <v>687</v>
+        <v>212</v>
       </c>
       <c r="K224" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="L224" s="7" t="s">
-        <v>1591</v>
+      <c r="L224" s="6" t="s">
+        <v>1175</v>
       </c>
       <c r="M224" s="10" t="s">
         <v>1657</v>
@@ -21754,31 +21765,31 @@
         <v>798</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>184</v>
+        <v>687</v>
       </c>
       <c r="E225" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G225" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G225" s="7">
+        <v>12</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>1176</v>
+        <v>1591</v>
       </c>
       <c r="I225" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J225" s="7" t="s">
-        <v>184</v>
+        <v>687</v>
       </c>
       <c r="K225" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="L225" s="6" t="s">
-        <v>1176</v>
+      <c r="L225" s="7" t="s">
+        <v>1591</v>
       </c>
       <c r="M225" s="10" t="s">
         <v>1657</v>
@@ -21795,24 +21806,32 @@
         <v>798</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="E226" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G226" s="7">
-        <v>90</v>
+        <v>916</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I226" s="7"/>
-      <c r="J226" s="7"/>
-      <c r="K226" s="7"/>
-      <c r="L226" s="7"/>
+        <v>1176</v>
+      </c>
+      <c r="I226" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J226" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K226" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="L226" s="6" t="s">
+        <v>1176</v>
+      </c>
       <c r="M226" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21828,19 +21847,19 @@
         <v>798</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="E227" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G227" s="7">
+        <v>90</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -21861,19 +21880,19 @@
         <v>798</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>763</v>
+        <v>424</v>
       </c>
       <c r="E228" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G228" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -21894,32 +21913,24 @@
         <v>798</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>458</v>
+        <v>763</v>
       </c>
       <c r="E229" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="G229" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I229" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J229" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K229" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="L229" s="7" t="s">
-        <v>1188</v>
-      </c>
+        <v>1187</v>
+      </c>
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
+      <c r="K229" s="7"/>
+      <c r="L229" s="7"/>
       <c r="M229" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21935,10 +21946,10 @@
         <v>798</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="E230" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>916</v>
@@ -21947,12 +21958,20 @@
         <v>917</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="7"/>
-      <c r="L230" s="7"/>
+        <v>1188</v>
+      </c>
+      <c r="I230" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J230" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K230" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="L230" s="7" t="s">
+        <v>1188</v>
+      </c>
       <c r="M230" s="10" t="s">
         <v>1657</v>
       </c>
@@ -21968,10 +21987,10 @@
         <v>798</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>623</v>
+        <v>498</v>
       </c>
       <c r="E231" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>916</v>
@@ -21980,7 +21999,7 @@
         <v>917</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>1189</v>
+        <v>1517</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -21995,37 +22014,31 @@
         <v>1106</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="D232" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E232" s="121" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F232" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="E232" s="7">
+        <v>13</v>
+      </c>
+      <c r="F232" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="G232" s="22"/>
-      <c r="H232" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I232" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="J232" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="K232" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="L232" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="M232" s="131" t="s">
+      <c r="G232" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I232" s="7"/>
+      <c r="J232" s="7"/>
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="10" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -22039,26 +22052,32 @@
       <c r="C233" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D233" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="E233" s="122">
-        <v>2</v>
-      </c>
-      <c r="F233" s="7" t="s">
+      <c r="D233" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E233" s="121" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F233" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="G233" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="H233" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
-      <c r="L233" s="7"/>
-      <c r="M233" s="10" t="s">
+      <c r="G233" s="22"/>
+      <c r="H233" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I233" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="J233" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K233" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="L233" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M233" s="131" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -22073,10 +22092,10 @@
         <v>800</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="E234" s="122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>916</v>
@@ -22085,7 +22104,7 @@
         <v>917</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
@@ -22105,33 +22124,25 @@
       <c r="C235" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D235" s="18" t="s">
-        <v>673</v>
+      <c r="D235" s="7" t="s">
+        <v>528</v>
       </c>
       <c r="E235" s="122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G235" s="7">
-        <v>6</v>
+        <v>916</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I235" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="J235" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K235" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="L235" s="7" t="s">
-        <v>1446</v>
-      </c>
+        <v>1521</v>
+      </c>
+      <c r="I235" s="7"/>
+      <c r="J235" s="7"/>
+      <c r="K235" s="7"/>
+      <c r="L235" s="7"/>
       <c r="M235" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22146,29 +22157,33 @@
       <c r="C236" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D236" s="7" t="s">
-        <v>226</v>
+      <c r="D236" s="18" t="s">
+        <v>673</v>
       </c>
       <c r="E236" s="122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G236" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1190</v>
+        <v>1661</v>
       </c>
       <c r="I236" s="7" t="s">
-        <v>1150</v>
+        <v>841</v>
       </c>
       <c r="J236" s="7" t="s">
-        <v>1150</v>
-      </c>
-      <c r="K236" s="7"/>
-      <c r="L236" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="K236" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="L236" s="7" t="s">
+        <v>1446</v>
+      </c>
       <c r="M236" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22183,23 +22198,27 @@
       <c r="C237" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D237" s="18" t="s">
-        <v>1153</v>
+      <c r="D237" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="E237" s="122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G237" s="7">
+        <v>4</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
+        <v>1190</v>
+      </c>
+      <c r="I237" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J237" s="7" t="s">
+        <v>1150</v>
+      </c>
       <c r="K237" s="7"/>
       <c r="L237" s="7"/>
       <c r="M237" s="10" t="s">
@@ -22217,32 +22236,24 @@
         <v>800</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>275</v>
+        <v>1153</v>
       </c>
       <c r="E238" s="122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G238" s="7">
-        <v>6</v>
+        <v>916</v>
+      </c>
+      <c r="G238" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I238" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="J238" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K238" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="L238" s="7" t="s">
-        <v>1446</v>
-      </c>
+        <v>1191</v>
+      </c>
+      <c r="I238" s="7"/>
+      <c r="J238" s="7"/>
+      <c r="K238" s="7"/>
+      <c r="L238" s="7"/>
       <c r="M238" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22257,32 +22268,32 @@
       <c r="C239" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D239" s="7" t="s">
-        <v>1154</v>
+      <c r="D239" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="E239" s="122">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G239" s="7">
+        <v>6</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>1583</v>
+        <v>1662</v>
       </c>
       <c r="I239" s="7" t="s">
-        <v>1155</v>
+        <v>841</v>
       </c>
       <c r="J239" s="7" t="s">
-        <v>1154</v>
+        <v>275</v>
       </c>
       <c r="K239" s="7" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="L239" s="7" t="s">
-        <v>1583</v>
+        <v>1446</v>
       </c>
       <c r="M239" s="10" t="s">
         <v>1657</v>
@@ -22299,24 +22310,32 @@
         <v>800</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>332</v>
+        <v>1154</v>
       </c>
       <c r="E240" s="122">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G240" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>1193</v>
-      </c>
-      <c r="I240" s="7"/>
-      <c r="J240" s="7"/>
-      <c r="K240" s="7"/>
-      <c r="L240" s="7"/>
+        <v>1583</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J240" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K240" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>1583</v>
+      </c>
       <c r="M240" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22332,19 +22351,19 @@
         <v>800</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>639</v>
+        <v>332</v>
       </c>
       <c r="E241" s="122">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G241" s="7">
-        <v>2</v>
+        <v>920</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -22365,19 +22384,19 @@
         <v>800</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>228</v>
+        <v>639</v>
       </c>
       <c r="E242" s="122">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G242" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
@@ -22398,19 +22417,19 @@
         <v>800</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>677</v>
+        <v>228</v>
       </c>
       <c r="E243" s="122">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G243" s="7">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>1522</v>
+        <v>1195</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -22431,19 +22450,19 @@
         <v>800</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>328</v>
+        <v>677</v>
       </c>
       <c r="E244" s="122">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F244" s="7" t="s">
-        <v>920</v>
-      </c>
-      <c r="G244" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G244" s="7">
+        <v>172</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>408</v>
+        <v>1522</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -22464,19 +22483,19 @@
         <v>800</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>793</v>
+        <v>328</v>
       </c>
       <c r="E245" s="122">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G245" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>1196</v>
+        <v>408</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -22497,19 +22516,19 @@
         <v>800</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>398</v>
+        <v>793</v>
       </c>
       <c r="E246" s="122">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>383</v>
+        <v>1196</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
@@ -22530,19 +22549,19 @@
         <v>800</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>155</v>
+        <v>398</v>
       </c>
       <c r="E247" s="122">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G247" s="7">
-        <v>86</v>
+        <v>920</v>
+      </c>
+      <c r="G247" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>1183</v>
+        <v>383</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
@@ -22563,74 +22582,66 @@
         <v>800</v>
       </c>
       <c r="D248" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E248" s="122">
+        <v>16</v>
+      </c>
+      <c r="F248" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="G248" s="7">
+        <v>86</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I248" s="7"/>
+      <c r="J248" s="7"/>
+      <c r="K248" s="7"/>
+      <c r="L248" s="7"/>
+      <c r="M248" s="10" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" hidden="1">
+      <c r="A249" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="D249" s="7" t="s">
         <v>2164</v>
       </c>
-      <c r="E248" s="122">
+      <c r="E249" s="122">
         <v>17</v>
       </c>
-      <c r="F248" s="7" t="s">
+      <c r="F249" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="G248" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="H248" s="7" t="s">
+      <c r="G249" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="H249" s="7" t="s">
         <v>2164</v>
       </c>
-      <c r="I248" s="7" t="s">
+      <c r="I249" s="7" t="s">
         <v>2165</v>
       </c>
-      <c r="J248" s="7" t="s">
+      <c r="J249" s="7" t="s">
         <v>2164</v>
       </c>
-      <c r="K248" s="7" t="s">
+      <c r="K249" s="7" t="s">
         <v>2165</v>
       </c>
-      <c r="L248" s="7" t="s">
+      <c r="L249" s="7" t="s">
         <v>2164</v>
       </c>
-      <c r="M248" s="10" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" hidden="1">
-      <c r="A249" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="D249" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E249" s="123">
-        <v>1</v>
-      </c>
-      <c r="F249" s="22" t="s">
-        <v>916</v>
-      </c>
-      <c r="G249" s="22" t="s">
-        <v>917</v>
-      </c>
-      <c r="H249" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I249" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="J249" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="K249" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="L249" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="M249" s="131" t="s">
+      <c r="M249" s="10" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -22644,26 +22655,34 @@
       <c r="C250" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="D250" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="E250" s="7">
-        <v>2</v>
-      </c>
-      <c r="F250" s="7" t="s">
+      <c r="D250" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E250" s="123">
+        <v>1</v>
+      </c>
+      <c r="F250" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="G250" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="H250" s="7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I250" s="7"/>
-      <c r="J250" s="7"/>
-      <c r="K250" s="7"/>
-      <c r="L250" s="7"/>
-      <c r="M250" s="10" t="s">
+      <c r="G250" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="H250" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I250" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="J250" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K250" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="L250" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M250" s="131" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -22678,32 +22697,24 @@
         <v>801</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>176</v>
+        <v>528</v>
       </c>
       <c r="E251" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G251" s="7">
-        <v>6</v>
+        <v>916</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I251" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J251" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K251" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="L251" s="6" t="s">
-        <v>1197</v>
-      </c>
+        <v>1521</v>
+      </c>
+      <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
+      <c r="K251" s="7"/>
+      <c r="L251" s="7"/>
       <c r="M251" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22719,24 +22730,32 @@
         <v>801</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>487</v>
+        <v>176</v>
       </c>
       <c r="E252" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F252" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G252" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I252" s="7"/>
-      <c r="J252" s="7"/>
-      <c r="K252" s="7"/>
-      <c r="L252" s="7"/>
+        <v>1197</v>
+      </c>
+      <c r="I252" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J252" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K252" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="L252" s="6" t="s">
+        <v>1197</v>
+      </c>
       <c r="M252" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22752,19 +22771,19 @@
         <v>801</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E253" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F253" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G253" s="7">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>1523</v>
+        <v>1515</v>
       </c>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
@@ -22785,32 +22804,24 @@
         <v>801</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>225</v>
+        <v>488</v>
       </c>
       <c r="E254" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G254" s="7">
+        <v>68</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I254" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J254" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K254" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="L254" s="7" t="s">
-        <v>1198</v>
-      </c>
+        <v>1523</v>
+      </c>
+      <c r="I254" s="7"/>
+      <c r="J254" s="7"/>
+      <c r="K254" s="7"/>
+      <c r="L254" s="7"/>
       <c r="M254" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22826,10 +22837,10 @@
         <v>801</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>1153</v>
+        <v>225</v>
       </c>
       <c r="E255" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F255" s="7" t="s">
         <v>916</v>
@@ -22838,12 +22849,20 @@
         <v>917</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I255" s="7"/>
-      <c r="J255" s="7"/>
-      <c r="K255" s="7"/>
-      <c r="L255" s="7"/>
+        <v>1198</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K255" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="L255" s="7" t="s">
+        <v>1198</v>
+      </c>
       <c r="M255" s="10" t="s">
         <v>1657</v>
       </c>
@@ -22859,19 +22878,19 @@
         <v>801</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>323</v>
+        <v>1153</v>
       </c>
       <c r="E256" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G256" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>405</v>
+        <v>1191</v>
       </c>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
@@ -22892,19 +22911,19 @@
         <v>801</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>769</v>
+        <v>323</v>
       </c>
       <c r="E257" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G257" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>1199</v>
+        <v>405</v>
       </c>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
@@ -22925,19 +22944,19 @@
         <v>801</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>500</v>
+        <v>769</v>
       </c>
       <c r="E258" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="G258" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>1520</v>
+        <v>1199</v>
       </c>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
@@ -22958,19 +22977,19 @@
         <v>801</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="E259" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G259" s="7">
-        <v>18</v>
+        <v>916</v>
+      </c>
+      <c r="G259" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1200</v>
+        <v>1520</v>
       </c>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
@@ -22991,32 +23010,24 @@
         <v>801</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>1138</v>
+        <v>312</v>
       </c>
       <c r="E260" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F260" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="G260" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="G260" s="7">
+        <v>18</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I260" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J260" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K260" s="7" t="s">
-        <v>1137</v>
-      </c>
-      <c r="L260" s="7" t="s">
-        <v>1201</v>
-      </c>
+        <v>1200</v>
+      </c>
+      <c r="I260" s="7"/>
+      <c r="J260" s="7"/>
+      <c r="K260" s="7"/>
+      <c r="L260" s="7"/>
       <c r="M260" s="10" t="s">
         <v>1657</v>
       </c>
@@ -23032,10 +23043,10 @@
         <v>801</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>255</v>
+        <v>1138</v>
       </c>
       <c r="E261" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F261" s="7" t="s">
         <v>916</v>
@@ -23044,7 +23055,7 @@
         <v>917</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1201</v>
+        <v>1692</v>
       </c>
       <c r="I261" s="18" t="s">
         <v>112</v>
@@ -23073,24 +23084,32 @@
         <v>801</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>399</v>
+        <v>255</v>
       </c>
       <c r="E262" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G262" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I262" s="7"/>
-      <c r="J262" s="7"/>
-      <c r="K262" s="7"/>
-      <c r="L262" s="7"/>
+        <v>1201</v>
+      </c>
+      <c r="I262" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J262" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K262" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L262" s="7" t="s">
+        <v>1201</v>
+      </c>
       <c r="M262" s="10" t="s">
         <v>1657</v>
       </c>
@@ -23106,10 +23125,10 @@
         <v>801</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="E263" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>920</v>
@@ -23118,7 +23137,7 @@
         <v>917</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1202</v>
+        <v>383</v>
       </c>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
@@ -23138,33 +23157,25 @@
       <c r="C264" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="D264" s="18" t="s">
-        <v>1164</v>
+      <c r="D264" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="E264" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="G264" s="7" t="s">
         <v>917</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I264" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="J264" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K264" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="L264" s="7" t="s">
-        <v>1446</v>
-      </c>
+        <v>1202</v>
+      </c>
+      <c r="I264" s="7"/>
+      <c r="J264" s="7"/>
+      <c r="K264" s="7"/>
+      <c r="L264" s="7"/>
       <c r="M264" s="10" t="s">
         <v>1657</v>
       </c>
@@ -23179,25 +23190,33 @@
       <c r="C265" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="D265" s="7" t="s">
-        <v>155</v>
+      <c r="D265" s="18" t="s">
+        <v>1164</v>
       </c>
       <c r="E265" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F265" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G265" s="7">
-        <v>86</v>
+        <v>916</v>
+      </c>
+      <c r="G265" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I265" s="7"/>
-      <c r="J265" s="7"/>
-      <c r="K265" s="7"/>
-      <c r="L265" s="7"/>
+        <v>1661</v>
+      </c>
+      <c r="I265" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="J265" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K265" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="L265" s="7" t="s">
+        <v>1446</v>
+      </c>
       <c r="M265" s="10" t="s">
         <v>1657</v>
       </c>
@@ -23213,32 +23232,24 @@
         <v>801</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E266" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F266" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G266" s="7">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I266" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J266" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K266" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="L266" s="6" t="s">
-        <v>1197</v>
-      </c>
+        <v>1183</v>
+      </c>
+      <c r="I266" s="7"/>
+      <c r="J266" s="7"/>
+      <c r="K266" s="7"/>
+      <c r="L266" s="7"/>
       <c r="M266" s="10" t="s">
         <v>1657</v>
       </c>
@@ -23254,24 +23265,32 @@
         <v>801</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>480</v>
+        <v>177</v>
       </c>
       <c r="E267" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F267" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G267" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I267" s="7"/>
-      <c r="J267" s="7"/>
-      <c r="K267" s="7"/>
-      <c r="L267" s="7"/>
+        <v>1204</v>
+      </c>
+      <c r="I267" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J267" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K267" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="L267" s="6" t="s">
+        <v>1197</v>
+      </c>
       <c r="M267" s="10" t="s">
         <v>1657</v>
       </c>
@@ -23287,19 +23306,19 @@
         <v>801</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E268" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G268" s="7">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
@@ -23320,32 +23339,24 @@
         <v>801</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="E269" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F269" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G269" s="7">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I269" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J269" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="K269" s="7" t="s">
-        <v>2161</v>
-      </c>
-      <c r="L269" s="7" t="s">
-        <v>1205</v>
-      </c>
+        <v>1525</v>
+      </c>
+      <c r="I269" s="7"/>
+      <c r="J269" s="7"/>
+      <c r="K269" s="7"/>
+      <c r="L269" s="7"/>
       <c r="M269" s="10" t="s">
         <v>1657</v>
       </c>
@@ -23361,31 +23372,31 @@
         <v>801</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>247</v>
+        <v>454</v>
       </c>
       <c r="E270" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G270" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I270" s="7" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J270" s="7" t="s">
-        <v>285</v>
+        <v>454</v>
       </c>
       <c r="K270" s="7" t="s">
-        <v>883</v>
+        <v>2161</v>
       </c>
       <c r="L270" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M270" s="10" t="s">
         <v>1657</v>
@@ -23395,44 +23406,44 @@
       <c r="A271" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="B271" s="124" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C271" s="124" t="s">
-        <v>2338</v>
-      </c>
-      <c r="D271" s="124" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E271" s="124">
-        <v>1</v>
-      </c>
-      <c r="F271" s="124" t="s">
-        <v>916</v>
-      </c>
-      <c r="G271" s="124" t="s">
-        <v>917</v>
-      </c>
-      <c r="H271" s="124" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I271" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="J271" s="124" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K271" s="124" t="s">
-        <v>802</v>
-      </c>
-      <c r="L271" s="124" t="s">
-        <v>1521</v>
+      <c r="B271" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E271" s="7">
+        <v>22</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="G271" s="7">
+        <v>20</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I271" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J271" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K271" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="L271" s="7" t="s">
+        <v>1206</v>
       </c>
       <c r="M271" s="10" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1">
+    <row r="272" spans="1:13">
       <c r="A272" s="7" t="s">
         <v>1106</v>
       </c>
@@ -23443,37 +23454,37 @@
         <v>2338</v>
       </c>
       <c r="D272" s="124" t="s">
-        <v>1661</v>
+        <v>1521</v>
       </c>
       <c r="E272" s="124">
-        <v>2</v>
-      </c>
-      <c r="F272" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F272" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G272" s="124">
-        <v>6</v>
-      </c>
-      <c r="H272" s="124" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I272" s="7" t="s">
-        <v>841</v>
+        <v>43</v>
+      </c>
+      <c r="H272" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I272" s="124" t="s">
+        <v>802</v>
       </c>
       <c r="J272" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="K272" s="7" t="s">
-        <v>841</v>
+        <v>1183</v>
+      </c>
+      <c r="K272" s="124" t="s">
+        <v>802</v>
       </c>
       <c r="L272" s="7" t="s">
-        <v>1446</v>
+        <v>1183</v>
       </c>
       <c r="M272" s="10" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="273" spans="1:13" hidden="1">
+    <row r="273" spans="1:13">
       <c r="A273" s="7" t="s">
         <v>1106</v>
       </c>
@@ -23506,7 +23517,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="274" spans="1:13" hidden="1">
+    <row r="274" spans="1:13">
       <c r="A274" s="7" t="s">
         <v>1106</v>
       </c>
@@ -23539,7 +23550,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="275" spans="1:13" hidden="1">
+    <row r="275" spans="1:13">
       <c r="A275" s="7" t="s">
         <v>1106</v>
       </c>
@@ -23580,7 +23591,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="276" spans="1:13" hidden="1">
+    <row r="276" spans="1:13">
       <c r="A276" s="7" t="s">
         <v>1106</v>
       </c>
@@ -47239,7 +47250,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="951" spans="1:13">
+    <row r="951" spans="1:13" hidden="1">
       <c r="A951" s="7" t="s">
         <v>1106</v>
       </c>
@@ -47280,7 +47291,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="952" spans="1:13">
+    <row r="952" spans="1:13" hidden="1">
       <c r="A952" s="7" t="s">
         <v>1106</v>
       </c>
@@ -47321,7 +47332,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="953" spans="1:13">
+    <row r="953" spans="1:13" hidden="1">
       <c r="A953" s="7" t="s">
         <v>1106</v>
       </c>
@@ -47358,7 +47369,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="954" spans="1:13">
+    <row r="954" spans="1:13" hidden="1">
       <c r="A954" s="7" t="s">
         <v>1106</v>
       </c>
@@ -47391,7 +47402,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="955" spans="1:13">
+    <row r="955" spans="1:13" hidden="1">
       <c r="A955" s="7" t="s">
         <v>1106</v>
       </c>
@@ -47424,7 +47435,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="956" spans="1:13">
+    <row r="956" spans="1:13" hidden="1">
       <c r="A956" s="7" t="s">
         <v>1106</v>
       </c>
@@ -47465,7 +47476,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="957" spans="1:13">
+    <row r="957" spans="1:13" hidden="1">
       <c r="A957" s="7" t="s">
         <v>1106</v>
       </c>
@@ -61118,19 +61129,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="154" t="s">
         <v>1065</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="H1" s="150" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="H1" s="154" t="s">
         <v>1104</v>
       </c>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -61315,11 +61326,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="149"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
+      <c r="A12" s="153"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14149" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14149" uniqueCount="2375">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7152,6 +7152,9 @@
   </si>
   <si>
     <t>NR_PROGRAMACAO</t>
+  </si>
+  <si>
+    <t>SQ_MOVIMENTO</t>
   </si>
 </sst>
 </file>
@@ -7232,6 +7235,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -8210,6 +8214,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8219,23 +8235,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8540,6 +8544,7 @@
   <autoFilter ref="A1:M1385">
     <filterColumn colId="2">
       <filters>
+        <filter val="stg_cap_titulo_mvmto"/>
         <filter val="stg_car_titulo_mvmto"/>
       </filters>
     </filterColumn>
@@ -13908,7 +13913,7 @@
       <c r="A127" s="36" t="s">
         <v>1657</v>
       </c>
-      <c r="B127" s="152" t="s">
+      <c r="B127" s="156" t="s">
         <v>2099</v>
       </c>
       <c r="C127" s="54" t="s">
@@ -13938,7 +13943,7 @@
       <c r="A128" s="36" t="s">
         <v>1657</v>
       </c>
-      <c r="B128" s="152"/>
+      <c r="B128" s="156"/>
       <c r="C128" s="54" t="s">
         <v>2102</v>
       </c>
@@ -14512,7 +14517,7 @@
       <c r="A148" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B148" s="150" t="s">
+      <c r="B148" s="154" t="s">
         <v>2359</v>
       </c>
       <c r="C148" s="139" t="s">
@@ -14548,7 +14553,7 @@
       <c r="A149" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B149" s="151"/>
+      <c r="B149" s="155"/>
       <c r="C149" s="139" t="s">
         <v>2150</v>
       </c>
@@ -14582,7 +14587,7 @@
       <c r="A150" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B150" s="151"/>
+      <c r="B150" s="155"/>
       <c r="C150" s="60" t="s">
         <v>2152</v>
       </c>
@@ -14616,7 +14621,7 @@
       <c r="A151" s="36" t="s">
         <v>1658</v>
       </c>
-      <c r="B151" s="151"/>
+      <c r="B151" s="155"/>
       <c r="C151" s="60"/>
       <c r="D151" s="47" t="s">
         <v>1788</v>
@@ -14648,7 +14653,7 @@
       <c r="A152" s="36" t="s">
         <v>1990</v>
       </c>
-      <c r="B152" s="151"/>
+      <c r="B152" s="155"/>
       <c r="C152" s="60" t="s">
         <v>2154</v>
       </c>
@@ -14680,7 +14685,7 @@
       <c r="A153" s="36" t="s">
         <v>1990</v>
       </c>
-      <c r="B153" s="151"/>
+      <c r="B153" s="155"/>
       <c r="C153" s="60" t="s">
         <v>2155</v>
       </c>
@@ -14723,17 +14728,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B145:B146"/>
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B91:B97"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B145:B146"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14744,9 +14749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D414" sqref="D409:H414"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H411" sqref="H411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -24421,7 +24426,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1">
+    <row r="295" spans="1:13">
       <c r="A295" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24460,7 +24465,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1">
+    <row r="296" spans="1:13">
       <c r="A296" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24483,7 +24488,7 @@
         <v>917</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>1191</v>
+        <v>2374</v>
       </c>
       <c r="I296" s="7"/>
       <c r="J296" s="7"/>
@@ -24493,7 +24498,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1">
+    <row r="297" spans="1:13">
       <c r="A297" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24526,7 +24531,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1">
+    <row r="298" spans="1:13">
       <c r="A298" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24567,7 +24572,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1">
+    <row r="299" spans="1:13">
       <c r="A299" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24604,7 +24609,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="300" spans="1:13" hidden="1">
+    <row r="300" spans="1:13">
       <c r="A300" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24627,7 +24632,7 @@
         <v>917</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
@@ -24637,7 +24642,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="301" spans="1:13" hidden="1">
+    <row r="301" spans="1:13">
       <c r="A301" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24647,30 +24652,30 @@
       <c r="C301" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D301" s="156" t="s">
+      <c r="D301" s="150" t="s">
         <v>2373</v>
       </c>
-      <c r="E301" s="157">
+      <c r="E301" s="151">
         <v>7</v>
       </c>
-      <c r="F301" s="156" t="s">
+      <c r="F301" s="150" t="s">
         <v>916</v>
       </c>
-      <c r="G301" s="156" t="s">
-        <v>917</v>
-      </c>
-      <c r="H301" s="156" t="s">
+      <c r="G301" s="150" t="s">
+        <v>917</v>
+      </c>
+      <c r="H301" s="150" t="s">
         <v>2373</v>
       </c>
-      <c r="I301" s="156"/>
-      <c r="J301" s="156"/>
-      <c r="K301" s="158"/>
-      <c r="L301" s="156"/>
+      <c r="I301" s="150"/>
+      <c r="J301" s="150"/>
+      <c r="K301" s="152"/>
+      <c r="L301" s="150"/>
       <c r="M301" s="10" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1">
+    <row r="302" spans="1:13">
       <c r="A302" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24711,7 +24716,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="303" spans="1:13" hidden="1">
+    <row r="303" spans="1:13">
       <c r="A303" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24752,7 +24757,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1">
+    <row r="304" spans="1:13">
       <c r="A304" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24785,7 +24790,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1">
+    <row r="305" spans="1:13">
       <c r="A305" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24818,7 +24823,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="306" spans="1:13" hidden="1">
+    <row r="306" spans="1:13">
       <c r="A306" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24851,7 +24856,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="307" spans="1:13" hidden="1">
+    <row r="307" spans="1:13">
       <c r="A307" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24884,7 +24889,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="308" spans="1:13" hidden="1">
+    <row r="308" spans="1:13">
       <c r="A308" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24917,7 +24922,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="309" spans="1:13" hidden="1">
+    <row r="309" spans="1:13">
       <c r="A309" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24950,7 +24955,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="310" spans="1:13" hidden="1">
+    <row r="310" spans="1:13">
       <c r="A310" s="6" t="s">
         <v>1106</v>
       </c>
@@ -24983,7 +24988,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="311" spans="1:13" hidden="1">
+    <row r="311" spans="1:13">
       <c r="A311" s="6" t="s">
         <v>1106</v>
       </c>
@@ -25016,7 +25021,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="312" spans="1:13" hidden="1">
+    <row r="312" spans="1:13">
       <c r="A312" s="6" t="s">
         <v>1106</v>
       </c>
@@ -28450,7 +28455,7 @@
         <v>917</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="I407" s="7"/>
       <c r="J407" s="7"/>
@@ -28470,10 +28475,10 @@
       <c r="C408" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="D408" s="156" t="s">
+      <c r="D408" s="150" t="s">
         <v>1191</v>
       </c>
-      <c r="E408" s="156">
+      <c r="E408" s="150">
         <v>4</v>
       </c>
       <c r="F408" s="7" t="s">
@@ -28482,13 +28487,13 @@
       <c r="G408" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="H408" s="156" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I408" s="156"/>
-      <c r="J408" s="156"/>
-      <c r="K408" s="158"/>
-      <c r="L408" s="156"/>
+      <c r="H408" s="7" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I408" s="150"/>
+      <c r="J408" s="150"/>
+      <c r="K408" s="152"/>
+      <c r="L408" s="150"/>
       <c r="M408" s="10" t="s">
         <v>1657</v>
       </c>
@@ -28503,10 +28508,10 @@
       <c r="C409" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="D409" s="156" t="s">
+      <c r="D409" s="150" t="s">
         <v>2373</v>
       </c>
-      <c r="E409" s="156">
+      <c r="E409" s="150">
         <v>5</v>
       </c>
       <c r="F409" s="7" t="s">
@@ -28515,13 +28520,13 @@
       <c r="G409" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="H409" s="156" t="s">
+      <c r="H409" s="150" t="s">
         <v>2373</v>
       </c>
-      <c r="I409" s="156"/>
-      <c r="J409" s="156"/>
-      <c r="K409" s="158"/>
-      <c r="L409" s="156"/>
+      <c r="I409" s="150"/>
+      <c r="J409" s="150"/>
+      <c r="K409" s="152"/>
+      <c r="L409" s="150"/>
       <c r="M409" s="10" t="s">
         <v>1657</v>
       </c>
@@ -62431,19 +62436,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="158" t="s">
         <v>1065</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="H1" s="155" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="H1" s="158" t="s">
         <v>1104</v>
       </c>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -62628,11 +62633,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14428" uniqueCount="2385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14436" uniqueCount="2385">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7816,7 +7816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -8284,7 +8284,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8296,49 +8299,25 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12872,7 +12851,7 @@
       <c r="A88" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B88" s="159" t="s">
+      <c r="B88" s="164" t="s">
         <v>914</v>
       </c>
       <c r="C88" s="37" t="s">
@@ -12908,7 +12887,7 @@
       <c r="A89" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B89" s="159"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="37" t="s">
         <v>2011</v>
       </c>
@@ -12958,7 +12937,7 @@
       <c r="A91" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B91" s="159" t="s">
+      <c r="B91" s="164" t="s">
         <v>2014</v>
       </c>
       <c r="C91" s="37" t="s">
@@ -12994,7 +12973,7 @@
       <c r="A92" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B92" s="159"/>
+      <c r="B92" s="164"/>
       <c r="C92" s="37" t="s">
         <v>2018</v>
       </c>
@@ -13028,7 +13007,7 @@
       <c r="A93" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B93" s="159"/>
+      <c r="B93" s="164"/>
       <c r="C93" s="37"/>
       <c r="D93" s="38" t="s">
         <v>1783</v>
@@ -13062,7 +13041,7 @@
       <c r="A94" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B94" s="159"/>
+      <c r="B94" s="164"/>
       <c r="C94" s="37" t="s">
         <v>2020</v>
       </c>
@@ -13096,7 +13075,7 @@
       <c r="A95" s="35" t="s">
         <v>1652</v>
       </c>
-      <c r="B95" s="159"/>
+      <c r="B95" s="164"/>
       <c r="C95" s="65" t="s">
         <v>2022</v>
       </c>
@@ -13118,7 +13097,7 @@
       <c r="A96" s="35" t="s">
         <v>1652</v>
       </c>
-      <c r="B96" s="159"/>
+      <c r="B96" s="164"/>
       <c r="C96" s="65" t="s">
         <v>2023</v>
       </c>
@@ -13140,7 +13119,7 @@
       <c r="A97" s="35" t="s">
         <v>1652</v>
       </c>
-      <c r="B97" s="159"/>
+      <c r="B97" s="164"/>
       <c r="C97" s="65" t="s">
         <v>2024</v>
       </c>
@@ -13418,7 +13397,7 @@
       <c r="A107" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B107" s="159" t="s">
+      <c r="B107" s="164" t="s">
         <v>948</v>
       </c>
       <c r="C107" s="37" t="s">
@@ -13454,7 +13433,7 @@
       <c r="A108" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B108" s="159"/>
+      <c r="B108" s="164"/>
       <c r="C108" s="37" t="s">
         <v>2048</v>
       </c>
@@ -13488,7 +13467,7 @@
       <c r="A109" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B109" s="159"/>
+      <c r="B109" s="164"/>
       <c r="C109" s="37" t="s">
         <v>2050</v>
       </c>
@@ -13538,7 +13517,7 @@
       <c r="A111" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B111" s="159" t="s">
+      <c r="B111" s="164" t="s">
         <v>954</v>
       </c>
       <c r="C111" s="37" t="s">
@@ -13574,7 +13553,7 @@
       <c r="A112" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B112" s="159"/>
+      <c r="B112" s="164"/>
       <c r="C112" s="37" t="s">
         <v>2057</v>
       </c>
@@ -13676,7 +13655,7 @@
       <c r="A116" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B116" s="159" t="s">
+      <c r="B116" s="164" t="s">
         <v>2064</v>
       </c>
       <c r="C116" s="37" t="s">
@@ -13712,7 +13691,7 @@
       <c r="A117" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B117" s="159"/>
+      <c r="B117" s="164"/>
       <c r="C117" s="37" t="s">
         <v>2069</v>
       </c>
@@ -13746,7 +13725,7 @@
       <c r="A118" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B118" s="159"/>
+      <c r="B118" s="164"/>
       <c r="C118" s="37" t="s">
         <v>2072</v>
       </c>
@@ -13780,7 +13759,7 @@
       <c r="A119" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B119" s="159"/>
+      <c r="B119" s="164"/>
       <c r="C119" s="37" t="s">
         <v>2075</v>
       </c>
@@ -13830,7 +13809,7 @@
       <c r="A121" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B121" s="159" t="s">
+      <c r="B121" s="164" t="s">
         <v>2078</v>
       </c>
       <c r="C121" s="37" t="s">
@@ -13866,7 +13845,7 @@
       <c r="A122" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B122" s="159"/>
+      <c r="B122" s="164"/>
       <c r="C122" s="37" t="s">
         <v>2083</v>
       </c>
@@ -13900,7 +13879,7 @@
       <c r="A123" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B123" s="159"/>
+      <c r="B123" s="164"/>
       <c r="C123" s="37" t="s">
         <v>2086</v>
       </c>
@@ -14002,7 +13981,7 @@
       <c r="A127" s="35" t="s">
         <v>1652</v>
       </c>
-      <c r="B127" s="162" t="s">
+      <c r="B127" s="163" t="s">
         <v>2094</v>
       </c>
       <c r="C127" s="53" t="s">
@@ -14032,7 +14011,7 @@
       <c r="A128" s="35" t="s">
         <v>1652</v>
       </c>
-      <c r="B128" s="162"/>
+      <c r="B128" s="163"/>
       <c r="C128" s="53" t="s">
         <v>2097</v>
       </c>
@@ -14076,7 +14055,7 @@
       <c r="A130" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B130" s="159" t="s">
+      <c r="B130" s="164" t="s">
         <v>2098</v>
       </c>
       <c r="C130" s="37" t="s">
@@ -14112,7 +14091,7 @@
       <c r="A131" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B131" s="159"/>
+      <c r="B131" s="164"/>
       <c r="C131" s="37" t="s">
         <v>2103</v>
       </c>
@@ -14162,7 +14141,7 @@
       <c r="A133" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B133" s="159" t="s">
+      <c r="B133" s="164" t="s">
         <v>2106</v>
       </c>
       <c r="C133" s="37" t="s">
@@ -14198,7 +14177,7 @@
       <c r="A134" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B134" s="159"/>
+      <c r="B134" s="164"/>
       <c r="C134" s="37" t="s">
         <v>2111</v>
       </c>
@@ -14232,7 +14211,7 @@
       <c r="A135" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B135" s="159"/>
+      <c r="B135" s="164"/>
       <c r="C135" s="37" t="s">
         <v>2114</v>
       </c>
@@ -14266,7 +14245,7 @@
       <c r="A136" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B136" s="159"/>
+      <c r="B136" s="164"/>
       <c r="C136" s="37" t="s">
         <v>2117</v>
       </c>
@@ -14520,7 +14499,7 @@
       <c r="A145" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B145" s="159" t="s">
+      <c r="B145" s="164" t="s">
         <v>2137</v>
       </c>
       <c r="C145" s="37" t="s">
@@ -14556,7 +14535,7 @@
       <c r="A146" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B146" s="159"/>
+      <c r="B146" s="164"/>
       <c r="C146" s="37" t="s">
         <v>2142</v>
       </c>
@@ -14606,7 +14585,7 @@
       <c r="A148" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B148" s="160" t="s">
+      <c r="B148" s="161" t="s">
         <v>2354</v>
       </c>
       <c r="C148" s="134" t="s">
@@ -14642,7 +14621,7 @@
       <c r="A149" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B149" s="161"/>
+      <c r="B149" s="162"/>
       <c r="C149" s="134" t="s">
         <v>2145</v>
       </c>
@@ -14676,7 +14655,7 @@
       <c r="A150" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B150" s="161"/>
+      <c r="B150" s="162"/>
       <c r="C150" s="59" t="s">
         <v>2147</v>
       </c>
@@ -14710,7 +14689,7 @@
       <c r="A151" s="35" t="s">
         <v>1653</v>
       </c>
-      <c r="B151" s="161"/>
+      <c r="B151" s="162"/>
       <c r="C151" s="59"/>
       <c r="D151" s="46" t="s">
         <v>1783</v>
@@ -14742,7 +14721,7 @@
       <c r="A152" s="35" t="s">
         <v>1985</v>
       </c>
-      <c r="B152" s="161"/>
+      <c r="B152" s="162"/>
       <c r="C152" s="59" t="s">
         <v>2149</v>
       </c>
@@ -14774,7 +14753,7 @@
       <c r="A153" s="35" t="s">
         <v>1985</v>
       </c>
-      <c r="B153" s="161"/>
+      <c r="B153" s="162"/>
       <c r="C153" s="59" t="s">
         <v>2150</v>
       </c>
@@ -14817,17 +14796,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B145:B146"/>
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B91:B97"/>
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="B111:B112"/>
     <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B145:B146"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14838,8 +14817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -25949,375 +25928,375 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="335" spans="1:13" s="170" customFormat="1">
-      <c r="A335" s="167" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B335" s="167" t="s">
+    <row r="335" spans="1:13" s="7" customFormat="1">
+      <c r="A335" s="159" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B335" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C335" s="167" t="s">
+      <c r="C335" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D335" s="167" t="s">
+      <c r="D335" s="159" t="s">
         <v>1182</v>
       </c>
-      <c r="E335" s="167">
+      <c r="E335" s="159">
         <v>1</v>
       </c>
-      <c r="F335" s="167" t="s">
-        <v>917</v>
-      </c>
-      <c r="G335" s="167">
+      <c r="F335" s="159" t="s">
+        <v>917</v>
+      </c>
+      <c r="G335" s="159">
         <v>86</v>
       </c>
-      <c r="H335" s="167" t="s">
+      <c r="H335" s="159" t="s">
         <v>1182</v>
       </c>
-      <c r="I335" s="167" t="s">
+      <c r="I335" s="159" t="s">
         <v>801</v>
       </c>
-      <c r="J335" s="167" t="s">
+      <c r="J335" s="159" t="s">
         <v>1182</v>
       </c>
-      <c r="K335" s="168" t="s">
+      <c r="K335" s="167" t="s">
         <v>801</v>
       </c>
-      <c r="L335" s="167" t="s">
+      <c r="L335" s="159" t="s">
         <v>1182</v>
       </c>
-      <c r="M335" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" s="170" customFormat="1">
-      <c r="A336" s="167" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B336" s="167" t="s">
+      <c r="M335" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" s="7" customFormat="1">
+      <c r="A336" s="159" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B336" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C336" s="167" t="s">
+      <c r="C336" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D336" s="167" t="s">
+      <c r="D336" s="159" t="s">
         <v>1175</v>
       </c>
-      <c r="E336" s="167">
+      <c r="E336" s="159">
         <v>3</v>
       </c>
-      <c r="F336" s="167" t="s">
+      <c r="F336" s="159" t="s">
         <v>915</v>
       </c>
-      <c r="G336" s="167" t="s">
-        <v>916</v>
-      </c>
-      <c r="H336" s="167" t="s">
+      <c r="G336" s="159" t="s">
+        <v>916</v>
+      </c>
+      <c r="H336" s="159" t="s">
         <v>1175</v>
       </c>
-      <c r="I336" s="174" t="s">
+      <c r="I336" s="21" t="s">
         <v>837</v>
       </c>
-      <c r="J336" s="174" t="s">
+      <c r="J336" s="21" t="s">
         <v>1175</v>
       </c>
-      <c r="K336" s="175" t="s">
+      <c r="K336" s="22" t="s">
         <v>837</v>
       </c>
-      <c r="L336" s="174" t="s">
+      <c r="L336" s="21" t="s">
         <v>1175</v>
       </c>
-      <c r="M336" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" s="170" customFormat="1">
-      <c r="A337" s="167" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B337" s="167" t="s">
+      <c r="M336" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" s="7" customFormat="1">
+      <c r="A337" s="159" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B337" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C337" s="167" t="s">
+      <c r="C337" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D337" s="167" t="s">
+      <c r="D337" s="159" t="s">
         <v>1656</v>
       </c>
-      <c r="E337" s="167">
+      <c r="E337" s="159">
         <v>4</v>
       </c>
-      <c r="F337" s="167" t="s">
-        <v>917</v>
-      </c>
-      <c r="G337" s="167">
+      <c r="F337" s="159" t="s">
+        <v>917</v>
+      </c>
+      <c r="G337" s="159">
         <v>6</v>
       </c>
-      <c r="H337" s="167" t="s">
+      <c r="H337" s="159" t="s">
         <v>1656</v>
       </c>
-      <c r="I337" s="170" t="s">
+      <c r="I337" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="J337" s="170" t="s">
+      <c r="J337" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K337" s="170" t="s">
+      <c r="K337" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="L337" s="170" t="s">
+      <c r="L337" s="7" t="s">
         <v>1443</v>
       </c>
-      <c r="M337" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" s="170" customFormat="1">
-      <c r="A338" s="167" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B338" s="167" t="s">
+      <c r="M337" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" s="7" customFormat="1">
+      <c r="A338" s="159" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B338" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C338" s="167" t="s">
+      <c r="C338" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D338" s="167" t="s">
+      <c r="D338" s="159" t="s">
         <v>1174</v>
       </c>
-      <c r="E338" s="167">
+      <c r="E338" s="159">
         <v>5</v>
       </c>
-      <c r="F338" s="167" t="s">
-        <v>917</v>
-      </c>
-      <c r="G338" s="167">
+      <c r="F338" s="159" t="s">
+        <v>917</v>
+      </c>
+      <c r="G338" s="159">
         <v>20</v>
       </c>
-      <c r="H338" s="167" t="s">
+      <c r="H338" s="159" t="s">
         <v>1174</v>
       </c>
-      <c r="I338" s="170" t="s">
+      <c r="I338" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J338" s="170" t="s">
+      <c r="J338" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K338" s="170" t="s">
+      <c r="K338" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="L338" s="170" t="s">
+      <c r="L338" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="M338" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" s="170" customFormat="1">
-      <c r="A339" s="171" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B339" s="167" t="s">
+      <c r="M338" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" s="7" customFormat="1">
+      <c r="A339" s="168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B339" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C339" s="167" t="s">
+      <c r="C339" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D339" s="171" t="s">
+      <c r="D339" s="168" t="s">
         <v>1573</v>
       </c>
-      <c r="E339" s="171">
+      <c r="E339" s="168">
         <v>6</v>
       </c>
-      <c r="F339" s="171" t="s">
-        <v>917</v>
-      </c>
-      <c r="G339" s="171">
+      <c r="F339" s="168" t="s">
+        <v>917</v>
+      </c>
+      <c r="G339" s="168">
         <v>20</v>
       </c>
-      <c r="H339" s="167" t="s">
+      <c r="H339" s="159" t="s">
         <v>1573</v>
       </c>
-      <c r="I339" s="171"/>
-      <c r="J339" s="171"/>
-      <c r="K339" s="172"/>
-      <c r="L339" s="171"/>
-      <c r="M339" s="173" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" s="170" customFormat="1">
-      <c r="A340" s="171" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B340" s="167" t="s">
+      <c r="I339" s="168"/>
+      <c r="J339" s="168"/>
+      <c r="K339" s="169"/>
+      <c r="L339" s="168"/>
+      <c r="M339" s="170" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" s="7" customFormat="1">
+      <c r="A340" s="168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B340" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C340" s="167" t="s">
+      <c r="C340" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D340" s="171" t="s">
+      <c r="D340" s="168" t="s">
         <v>2381</v>
       </c>
-      <c r="E340" s="171">
+      <c r="E340" s="168">
         <v>7</v>
       </c>
-      <c r="F340" s="171" t="s">
-        <v>917</v>
-      </c>
-      <c r="G340" s="171">
+      <c r="F340" s="168" t="s">
+        <v>917</v>
+      </c>
+      <c r="G340" s="168">
         <v>20</v>
       </c>
-      <c r="H340" s="167" t="s">
+      <c r="H340" s="159" t="s">
         <v>2381</v>
       </c>
-      <c r="I340" s="171"/>
-      <c r="J340" s="171"/>
-      <c r="K340" s="172"/>
-      <c r="L340" s="171"/>
-      <c r="M340" s="173"/>
-    </row>
-    <row r="341" spans="1:13" s="170" customFormat="1">
-      <c r="A341" s="171" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B341" s="167" t="s">
+      <c r="I340" s="168"/>
+      <c r="J340" s="168"/>
+      <c r="K340" s="169"/>
+      <c r="L340" s="168"/>
+      <c r="M340" s="170"/>
+    </row>
+    <row r="341" spans="1:13" s="7" customFormat="1">
+      <c r="A341" s="168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B341" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C341" s="167" t="s">
+      <c r="C341" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D341" s="171" t="s">
+      <c r="D341" s="168" t="s">
         <v>1558</v>
       </c>
-      <c r="E341" s="171">
+      <c r="E341" s="168">
         <v>8</v>
       </c>
-      <c r="F341" s="171" t="s">
-        <v>917</v>
-      </c>
-      <c r="G341" s="171">
+      <c r="F341" s="168" t="s">
+        <v>917</v>
+      </c>
+      <c r="G341" s="168">
         <v>20</v>
       </c>
-      <c r="H341" s="171" t="s">
+      <c r="H341" s="168" t="s">
         <v>1558</v>
       </c>
-      <c r="I341" s="171"/>
-      <c r="J341" s="171"/>
-      <c r="K341" s="172"/>
-      <c r="L341" s="171"/>
-      <c r="M341" s="173"/>
-    </row>
-    <row r="342" spans="1:13" s="170" customFormat="1">
-      <c r="A342" s="171" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B342" s="167" t="s">
+      <c r="I341" s="168"/>
+      <c r="J341" s="168"/>
+      <c r="K341" s="169"/>
+      <c r="L341" s="168"/>
+      <c r="M341" s="170"/>
+    </row>
+    <row r="342" spans="1:13" s="7" customFormat="1">
+      <c r="A342" s="168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B342" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C342" s="167" t="s">
+      <c r="C342" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D342" s="171" t="s">
+      <c r="D342" s="168" t="s">
         <v>1293</v>
       </c>
-      <c r="E342" s="171">
+      <c r="E342" s="168">
         <v>9</v>
       </c>
-      <c r="F342" s="170" t="s">
+      <c r="F342" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="G342" s="170" t="s">
-        <v>916</v>
-      </c>
-      <c r="H342" s="171" t="s">
+      <c r="G342" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H342" s="168" t="s">
         <v>1293</v>
       </c>
-      <c r="I342" s="170" t="s">
+      <c r="I342" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="J342" s="170" t="s">
+      <c r="J342" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="K342" s="176" t="s">
+      <c r="K342" s="24" t="s">
         <v>910</v>
       </c>
-      <c r="L342" s="170" t="s">
+      <c r="L342" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="M342" s="177" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" s="170" customFormat="1">
-      <c r="A343" s="171" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B343" s="167" t="s">
+      <c r="M342" s="10" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" s="7" customFormat="1">
+      <c r="A343" s="168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B343" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C343" s="167" t="s">
+      <c r="C343" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D343" s="171" t="s">
+      <c r="D343" s="168" t="s">
         <v>2380</v>
       </c>
-      <c r="E343" s="171">
+      <c r="E343" s="168">
         <v>10</v>
       </c>
-      <c r="F343" s="171" t="s">
+      <c r="F343" s="168" t="s">
         <v>915</v>
       </c>
-      <c r="G343" s="171" t="s">
-        <v>916</v>
-      </c>
-      <c r="H343" s="171" t="s">
+      <c r="G343" s="168" t="s">
+        <v>916</v>
+      </c>
+      <c r="H343" s="168" t="s">
         <v>2380</v>
       </c>
-      <c r="I343" s="171"/>
-      <c r="J343" s="171"/>
-      <c r="K343" s="172"/>
-      <c r="L343" s="171"/>
-      <c r="M343" s="173"/>
-    </row>
-    <row r="344" spans="1:13" s="170" customFormat="1">
-      <c r="A344" s="171" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B344" s="167" t="s">
+      <c r="I343" s="168"/>
+      <c r="J343" s="168"/>
+      <c r="K343" s="169"/>
+      <c r="L343" s="168"/>
+      <c r="M343" s="170"/>
+    </row>
+    <row r="344" spans="1:13" s="7" customFormat="1">
+      <c r="A344" s="168" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B344" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="C344" s="167" t="s">
+      <c r="C344" s="159" t="s">
         <v>2379</v>
       </c>
-      <c r="D344" s="171" t="s">
+      <c r="D344" s="168" t="s">
         <v>1205</v>
       </c>
-      <c r="E344" s="171">
+      <c r="E344" s="168">
         <v>11</v>
       </c>
-      <c r="F344" s="170" t="s">
-        <v>917</v>
-      </c>
-      <c r="G344" s="170">
+      <c r="F344" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G344" s="7">
         <v>20</v>
       </c>
-      <c r="H344" s="171" t="s">
+      <c r="H344" s="168" t="s">
         <v>1205</v>
       </c>
-      <c r="I344" s="170" t="s">
+      <c r="I344" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J344" s="170" t="s">
+      <c r="J344" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K344" s="170" t="s">
+      <c r="K344" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="L344" s="170" t="s">
+      <c r="L344" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="M344" s="173"/>
+      <c r="M344" s="170"/>
     </row>
     <row r="345" spans="1:13" s="7" customFormat="1">
       <c r="A345" s="7" t="s">
@@ -29700,242 +29679,258 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="440" spans="1:13" s="170" customFormat="1">
-      <c r="A440" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B440" s="170" t="s">
+    <row r="440" spans="1:13" s="7" customFormat="1">
+      <c r="A440" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B440" s="7" t="s">
         <v>2382</v>
       </c>
-      <c r="C440" s="167" t="s">
+      <c r="C440" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D440" s="170" t="s">
+      <c r="D440" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="E440" s="167">
+      <c r="E440" s="159">
         <v>1</v>
       </c>
-      <c r="F440" s="170" t="s">
-        <v>917</v>
-      </c>
-      <c r="G440" s="170">
+      <c r="F440" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G440" s="7">
         <v>86</v>
       </c>
-      <c r="H440" s="170" t="s">
+      <c r="H440" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="I440" s="170" t="s">
+      <c r="I440" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="J440" s="167" t="s">
+      <c r="J440" s="159" t="s">
         <v>1182</v>
       </c>
-      <c r="K440" s="176" t="s">
+      <c r="K440" s="24" t="s">
         <v>804</v>
       </c>
-      <c r="L440" s="167" t="s">
+      <c r="L440" s="159" t="s">
         <v>1182</v>
       </c>
-      <c r="M440" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" s="170" customFormat="1">
-      <c r="A441" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B441" s="167" t="s">
+      <c r="M440" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" s="7" customFormat="1">
+      <c r="A441" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B441" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="C441" s="167" t="s">
+      <c r="C441" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D441" s="170" t="s">
+      <c r="D441" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="E441" s="167">
+      <c r="E441" s="159">
         <v>2</v>
       </c>
-      <c r="F441" s="170" t="s">
+      <c r="F441" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="G441" s="170" t="s">
-        <v>916</v>
-      </c>
-      <c r="H441" s="170" t="s">
+      <c r="G441" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H441" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="I441" s="167"/>
-      <c r="J441" s="167"/>
-      <c r="K441" s="168"/>
-      <c r="L441" s="167"/>
-      <c r="M441" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" s="170" customFormat="1">
-      <c r="A442" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B442" s="167" t="s">
+      <c r="I441" s="159"/>
+      <c r="J441" s="159"/>
+      <c r="K441" s="167"/>
+      <c r="L441" s="159"/>
+      <c r="M441" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" s="7" customFormat="1">
+      <c r="A442" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B442" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="C442" s="167" t="s">
+      <c r="C442" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D442" s="170" t="s">
+      <c r="D442" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="E442" s="167">
+      <c r="E442" s="159">
         <v>3</v>
       </c>
-      <c r="F442" s="170" t="s">
+      <c r="F442" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="G442" s="170" t="s">
-        <v>916</v>
-      </c>
-      <c r="H442" s="170" t="s">
+      <c r="G442" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H442" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="I442" s="167"/>
-      <c r="J442" s="167"/>
-      <c r="K442" s="168"/>
-      <c r="L442" s="167"/>
-      <c r="M442" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" s="170" customFormat="1">
-      <c r="A443" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B443" s="167" t="s">
+      <c r="I442" s="159"/>
+      <c r="J442" s="159"/>
+      <c r="K442" s="167"/>
+      <c r="L442" s="159"/>
+      <c r="M442" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" s="7" customFormat="1">
+      <c r="A443" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B443" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="C443" s="167" t="s">
+      <c r="C443" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D443" s="170" t="s">
+      <c r="D443" s="7" t="s">
         <v>2368</v>
       </c>
-      <c r="E443" s="167">
+      <c r="E443" s="159">
         <v>4</v>
       </c>
-      <c r="F443" s="170" t="s">
+      <c r="F443" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="G443" s="170" t="s">
-        <v>916</v>
-      </c>
-      <c r="H443" s="170" t="s">
+      <c r="G443" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H443" s="7" t="s">
         <v>2368</v>
       </c>
-      <c r="I443" s="167"/>
-      <c r="J443" s="167"/>
-      <c r="K443" s="168"/>
-      <c r="L443" s="167"/>
-      <c r="M443" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" s="170" customFormat="1">
-      <c r="A444" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B444" s="167" t="s">
+      <c r="I443" s="159"/>
+      <c r="J443" s="159"/>
+      <c r="K443" s="167"/>
+      <c r="L443" s="159"/>
+      <c r="M443" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" s="7" customFormat="1">
+      <c r="A444" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B444" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="C444" s="167" t="s">
+      <c r="C444" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D444" s="170" t="s">
+      <c r="D444" s="7" t="s">
         <v>2383</v>
       </c>
-      <c r="E444" s="167">
+      <c r="E444" s="159">
         <v>5</v>
       </c>
-      <c r="F444" s="170" t="s">
+      <c r="F444" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="G444" s="170" t="s">
-        <v>916</v>
-      </c>
-      <c r="H444" s="170" t="s">
+      <c r="G444" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H444" s="7" t="s">
         <v>2383</v>
       </c>
-      <c r="I444" s="167"/>
-      <c r="J444" s="167"/>
-      <c r="K444" s="168"/>
-      <c r="L444" s="167"/>
-      <c r="M444" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" s="170" customFormat="1">
-      <c r="A445" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B445" s="167" t="s">
+      <c r="I444" s="159"/>
+      <c r="J444" s="159"/>
+      <c r="K444" s="167"/>
+      <c r="L444" s="159"/>
+      <c r="M444" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" s="7" customFormat="1">
+      <c r="A445" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B445" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="C445" s="167" t="s">
+      <c r="C445" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D445" s="170" t="s">
+      <c r="D445" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="E445" s="167">
+      <c r="E445" s="159">
         <v>6</v>
       </c>
-      <c r="F445" s="170" t="s">
-        <v>917</v>
-      </c>
-      <c r="G445" s="167">
+      <c r="F445" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G445" s="159">
         <v>20</v>
       </c>
-      <c r="H445" s="170" t="s">
+      <c r="H445" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="I445" s="167"/>
-      <c r="J445" s="167"/>
-      <c r="K445" s="168"/>
-      <c r="L445" s="167"/>
-      <c r="M445" s="169" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" s="170" customFormat="1">
-      <c r="A446" s="170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B446" s="167" t="s">
+      <c r="I445" s="159" t="s">
+        <v>2153</v>
+      </c>
+      <c r="J445" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K445" s="159" t="s">
+        <v>2153</v>
+      </c>
+      <c r="L445" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M445" s="160" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" s="7" customFormat="1">
+      <c r="A446" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B446" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="C446" s="167" t="s">
+      <c r="C446" s="159" t="s">
         <v>2382</v>
       </c>
-      <c r="D446" s="170" t="s">
+      <c r="D446" s="7" t="s">
         <v>2384</v>
       </c>
-      <c r="E446" s="167">
+      <c r="E446" s="159">
         <v>7</v>
       </c>
-      <c r="F446" s="170" t="s">
+      <c r="F446" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="G446" s="170" t="s">
-        <v>916</v>
-      </c>
-      <c r="H446" s="170" t="s">
+      <c r="G446" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H446" s="7" t="s">
         <v>2384</v>
       </c>
-      <c r="I446" s="167"/>
-      <c r="J446" s="167"/>
-      <c r="K446" s="168"/>
-      <c r="L446" s="167"/>
-      <c r="M446" s="169" t="s">
+      <c r="I446" s="159" t="s">
+        <v>899</v>
+      </c>
+      <c r="J446" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K446" s="159" t="s">
+        <v>899</v>
+      </c>
+      <c r="L446" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M446" s="160" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -29968,7 +29963,7 @@
       <c r="J447" s="7"/>
       <c r="K447" s="24"/>
       <c r="L447" s="7"/>
-      <c r="M447" s="166" t="s">
+      <c r="M447" s="160" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -30009,7 +30004,7 @@
       <c r="L448" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="M448" s="166" t="s">
+      <c r="M448" s="160" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -53441,19 +53436,19 @@
       <c r="C1116" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="D1116" s="165" t="s">
+      <c r="D1116" s="159" t="s">
         <v>2374</v>
       </c>
-      <c r="E1116" s="165">
+      <c r="E1116" s="159">
         <v>35</v>
       </c>
-      <c r="F1116" s="165" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1116" s="165">
+      <c r="F1116" s="159" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1116" s="159">
         <v>94</v>
       </c>
-      <c r="H1116" s="165" t="s">
+      <c r="H1116" s="159" t="s">
         <v>2374</v>
       </c>
       <c r="I1116" s="7" t="s">
@@ -53468,7 +53463,7 @@
       <c r="L1116" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="M1116" s="166" t="s">
+      <c r="M1116" s="160" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -63668,19 +63663,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="166" t="s">
         <v>1064</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="H1" s="164" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="H1" s="166" t="s">
         <v>1103</v>
       </c>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -63865,11 +63860,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="163"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DE-PARA Tabelas" sheetId="1" state="hidden" r:id="rId1"/>
@@ -8348,9 +8348,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8358,6 +8355,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10022,7 +10022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="D84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12899,7 +12899,7 @@
       <c r="A88" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B88" s="171" t="s">
+      <c r="B88" s="174" t="s">
         <v>914</v>
       </c>
       <c r="C88" s="36" t="s">
@@ -12935,7 +12935,7 @@
       <c r="A89" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B89" s="171"/>
+      <c r="B89" s="174"/>
       <c r="C89" s="36" t="s">
         <v>2011</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="A91" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B91" s="171" t="s">
+      <c r="B91" s="174" t="s">
         <v>2014</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -13021,7 +13021,7 @@
       <c r="A92" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B92" s="171"/>
+      <c r="B92" s="174"/>
       <c r="C92" s="36" t="s">
         <v>2018</v>
       </c>
@@ -13055,7 +13055,7 @@
       <c r="A93" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B93" s="171"/>
+      <c r="B93" s="174"/>
       <c r="C93" s="36"/>
       <c r="D93" s="37" t="s">
         <v>1783</v>
@@ -13089,7 +13089,7 @@
       <c r="A94" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B94" s="171"/>
+      <c r="B94" s="174"/>
       <c r="C94" s="36"/>
       <c r="D94" s="37" t="s">
         <v>1783</v>
@@ -13123,7 +13123,7 @@
       <c r="A95" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B95" s="171"/>
+      <c r="B95" s="174"/>
       <c r="C95" s="36"/>
       <c r="D95" s="37" t="s">
         <v>1783</v>
@@ -13157,7 +13157,7 @@
       <c r="A96" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B96" s="171"/>
+      <c r="B96" s="174"/>
       <c r="C96" s="36" t="s">
         <v>2020</v>
       </c>
@@ -13191,7 +13191,7 @@
       <c r="A97" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B97" s="171"/>
+      <c r="B97" s="174"/>
       <c r="C97" s="64" t="s">
         <v>2022</v>
       </c>
@@ -13213,7 +13213,7 @@
       <c r="A98" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B98" s="171"/>
+      <c r="B98" s="174"/>
       <c r="C98" s="64" t="s">
         <v>2023</v>
       </c>
@@ -13235,7 +13235,7 @@
       <c r="A99" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B99" s="171"/>
+      <c r="B99" s="174"/>
       <c r="C99" s="64" t="s">
         <v>2024</v>
       </c>
@@ -13513,7 +13513,7 @@
       <c r="A109" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B109" s="171" t="s">
+      <c r="B109" s="174" t="s">
         <v>948</v>
       </c>
       <c r="C109" s="36" t="s">
@@ -13549,7 +13549,7 @@
       <c r="A110" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B110" s="171"/>
+      <c r="B110" s="174"/>
       <c r="C110" s="36" t="s">
         <v>2048</v>
       </c>
@@ -13583,7 +13583,7 @@
       <c r="A111" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B111" s="171"/>
+      <c r="B111" s="174"/>
       <c r="C111" s="36" t="s">
         <v>2050</v>
       </c>
@@ -13633,7 +13633,7 @@
       <c r="A113" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B113" s="171" t="s">
+      <c r="B113" s="174" t="s">
         <v>954</v>
       </c>
       <c r="C113" s="36" t="s">
@@ -13669,7 +13669,7 @@
       <c r="A114" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B114" s="171"/>
+      <c r="B114" s="174"/>
       <c r="C114" s="36" t="s">
         <v>2057</v>
       </c>
@@ -13771,7 +13771,7 @@
       <c r="A118" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B118" s="171" t="s">
+      <c r="B118" s="174" t="s">
         <v>2064</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -13807,7 +13807,7 @@
       <c r="A119" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B119" s="171"/>
+      <c r="B119" s="174"/>
       <c r="C119" s="36" t="s">
         <v>2069</v>
       </c>
@@ -13841,7 +13841,7 @@
       <c r="A120" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B120" s="171"/>
+      <c r="B120" s="174"/>
       <c r="C120" s="36" t="s">
         <v>2072</v>
       </c>
@@ -13875,7 +13875,7 @@
       <c r="A121" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B121" s="171"/>
+      <c r="B121" s="174"/>
       <c r="C121" s="36" t="s">
         <v>2075</v>
       </c>
@@ -13925,7 +13925,7 @@
       <c r="A123" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B123" s="171" t="s">
+      <c r="B123" s="174" t="s">
         <v>2078</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -13961,7 +13961,7 @@
       <c r="A124" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B124" s="171"/>
+      <c r="B124" s="174"/>
       <c r="C124" s="36" t="s">
         <v>2083</v>
       </c>
@@ -13995,7 +13995,7 @@
       <c r="A125" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B125" s="171"/>
+      <c r="B125" s="174"/>
       <c r="C125" s="36" t="s">
         <v>2086</v>
       </c>
@@ -14097,7 +14097,7 @@
       <c r="A129" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B129" s="174" t="s">
+      <c r="B129" s="173" t="s">
         <v>2094</v>
       </c>
       <c r="C129" s="52" t="s">
@@ -14127,7 +14127,7 @@
       <c r="A130" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B130" s="174"/>
+      <c r="B130" s="173"/>
       <c r="C130" s="52" t="s">
         <v>2097</v>
       </c>
@@ -14171,7 +14171,7 @@
       <c r="A132" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B132" s="171" t="s">
+      <c r="B132" s="174" t="s">
         <v>2098</v>
       </c>
       <c r="C132" s="36" t="s">
@@ -14207,7 +14207,7 @@
       <c r="A133" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B133" s="171"/>
+      <c r="B133" s="174"/>
       <c r="C133" s="36" t="s">
         <v>2103</v>
       </c>
@@ -14257,7 +14257,7 @@
       <c r="A135" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B135" s="171" t="s">
+      <c r="B135" s="174" t="s">
         <v>2106</v>
       </c>
       <c r="C135" s="36" t="s">
@@ -14293,7 +14293,7 @@
       <c r="A136" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B136" s="171"/>
+      <c r="B136" s="174"/>
       <c r="C136" s="36" t="s">
         <v>2111</v>
       </c>
@@ -14327,7 +14327,7 @@
       <c r="A137" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B137" s="171"/>
+      <c r="B137" s="174"/>
       <c r="C137" s="36" t="s">
         <v>2114</v>
       </c>
@@ -14361,7 +14361,7 @@
       <c r="A138" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B138" s="171"/>
+      <c r="B138" s="174"/>
       <c r="C138" s="36" t="s">
         <v>2117</v>
       </c>
@@ -14615,7 +14615,7 @@
       <c r="A147" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B147" s="171" t="s">
+      <c r="B147" s="174" t="s">
         <v>2137</v>
       </c>
       <c r="C147" s="36" t="s">
@@ -14651,7 +14651,7 @@
       <c r="A148" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B148" s="171"/>
+      <c r="B148" s="174"/>
       <c r="C148" s="36" t="s">
         <v>2142</v>
       </c>
@@ -14701,7 +14701,7 @@
       <c r="A150" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B150" s="172" t="s">
+      <c r="B150" s="171" t="s">
         <v>2342</v>
       </c>
       <c r="C150" s="132" t="s">
@@ -14737,7 +14737,7 @@
       <c r="A151" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B151" s="173"/>
+      <c r="B151" s="172"/>
       <c r="C151" s="132" t="s">
         <v>2145</v>
       </c>
@@ -14771,7 +14771,7 @@
       <c r="A152" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B152" s="173"/>
+      <c r="B152" s="172"/>
       <c r="C152" s="58" t="s">
         <v>2147</v>
       </c>
@@ -14805,7 +14805,7 @@
       <c r="A153" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B153" s="173"/>
+      <c r="B153" s="172"/>
       <c r="C153" s="58"/>
       <c r="D153" s="45" t="s">
         <v>1783</v>
@@ -14837,7 +14837,7 @@
       <c r="A154" s="34" t="s">
         <v>1985</v>
       </c>
-      <c r="B154" s="173"/>
+      <c r="B154" s="172"/>
       <c r="C154" s="58" t="s">
         <v>2149</v>
       </c>
@@ -14869,7 +14869,7 @@
       <c r="A155" s="34" t="s">
         <v>1985</v>
       </c>
-      <c r="B155" s="173"/>
+      <c r="B155" s="172"/>
       <c r="C155" s="58" t="s">
         <v>2150</v>
       </c>
@@ -14912,17 +14912,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B147:B148"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B91:B99"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="B113:B114"/>
     <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B147:B148"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14933,9 +14933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1423"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D348" sqref="D348:D359"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G561" sqref="G561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -33981,7 +33981,7 @@
         <v>917</v>
       </c>
       <c r="G555" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H555" s="7" t="s">
         <v>1533</v>
@@ -34014,7 +34014,7 @@
         <v>917</v>
       </c>
       <c r="G556" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H556" s="7" t="s">
         <v>1534</v>
@@ -34047,7 +34047,7 @@
         <v>917</v>
       </c>
       <c r="G557" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H557" s="7" t="s">
         <v>1535</v>
@@ -34080,7 +34080,7 @@
         <v>917</v>
       </c>
       <c r="G558" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H558" s="7" t="s">
         <v>1536</v>
@@ -34113,7 +34113,7 @@
         <v>917</v>
       </c>
       <c r="G559" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H559" s="7" t="s">
         <v>1541</v>
@@ -34146,7 +34146,7 @@
         <v>917</v>
       </c>
       <c r="G560" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H560" s="7" t="s">
         <v>1542</v>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14662" uniqueCount="2410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14662" uniqueCount="2411">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7260,6 +7260,9 @@
   </si>
   <si>
     <t>DT_BAIXA</t>
+  </si>
+  <si>
+    <t>DT_CRIACAO</t>
   </si>
 </sst>
 </file>
@@ -14994,9 +14997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M268" sqref="M268:M275"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A854" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D798" sqref="D798:D861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -44361,10 +44364,10 @@
         <v>822</v>
       </c>
       <c r="D855" s="7" t="s">
-        <v>729</v>
+        <v>787</v>
       </c>
       <c r="E855" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F855" s="7" t="s">
         <v>918</v>
@@ -44373,7 +44376,7 @@
         <v>916</v>
       </c>
       <c r="H855" s="7" t="s">
-        <v>1262</v>
+        <v>1215</v>
       </c>
       <c r="I855" s="7"/>
       <c r="J855" s="7"/>
@@ -44394,10 +44397,10 @@
         <v>822</v>
       </c>
       <c r="D856" s="7" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="E856" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F856" s="7" t="s">
         <v>918</v>
@@ -44406,7 +44409,7 @@
         <v>916</v>
       </c>
       <c r="H856" s="7" t="s">
-        <v>1215</v>
+        <v>1242</v>
       </c>
       <c r="I856" s="7"/>
       <c r="J856" s="7"/>
@@ -44427,10 +44430,10 @@
         <v>822</v>
       </c>
       <c r="D857" s="7" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="E857" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F857" s="7" t="s">
         <v>918</v>
@@ -44439,7 +44442,7 @@
         <v>916</v>
       </c>
       <c r="H857" s="7" t="s">
-        <v>1242</v>
+        <v>795</v>
       </c>
       <c r="I857" s="7"/>
       <c r="J857" s="7"/>
@@ -44460,10 +44463,10 @@
         <v>822</v>
       </c>
       <c r="D858" s="7" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="E858" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F858" s="7" t="s">
         <v>918</v>
@@ -44472,7 +44475,7 @@
         <v>916</v>
       </c>
       <c r="H858" s="7" t="s">
-        <v>795</v>
+        <v>1283</v>
       </c>
       <c r="I858" s="7"/>
       <c r="J858" s="7"/>
@@ -44493,10 +44496,10 @@
         <v>822</v>
       </c>
       <c r="D859" s="7" t="s">
-        <v>700</v>
+        <v>773</v>
       </c>
       <c r="E859" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F859" s="7" t="s">
         <v>918</v>
@@ -44505,7 +44508,7 @@
         <v>916</v>
       </c>
       <c r="H859" s="7" t="s">
-        <v>1283</v>
+        <v>1225</v>
       </c>
       <c r="I859" s="7"/>
       <c r="J859" s="7"/>
@@ -44526,10 +44529,10 @@
         <v>822</v>
       </c>
       <c r="D860" s="7" t="s">
-        <v>773</v>
+        <v>710</v>
       </c>
       <c r="E860" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F860" s="7" t="s">
         <v>918</v>
@@ -44538,7 +44541,7 @@
         <v>916</v>
       </c>
       <c r="H860" s="7" t="s">
-        <v>1225</v>
+        <v>1275</v>
       </c>
       <c r="I860" s="7"/>
       <c r="J860" s="7"/>
@@ -44559,10 +44562,10 @@
         <v>822</v>
       </c>
       <c r="D861" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E861" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F861" s="7" t="s">
         <v>918</v>
@@ -44571,7 +44574,7 @@
         <v>916</v>
       </c>
       <c r="H861" s="7" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="I861" s="7"/>
       <c r="J861" s="7"/>
@@ -44586,30 +44589,38 @@
         <v>1105</v>
       </c>
       <c r="B862" s="7" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="D862" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="E862" s="7">
-        <v>23</v>
+        <v>292</v>
+      </c>
+      <c r="E862" s="22" t="s">
+        <v>1706</v>
       </c>
       <c r="F862" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G862" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H862" s="7" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I862" s="7"/>
-      <c r="J862" s="7"/>
-      <c r="K862" s="23"/>
-      <c r="L862" s="7"/>
+        <v>1175</v>
+      </c>
+      <c r="I862" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J862" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K862" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L862" s="7" t="s">
+        <v>1175</v>
+      </c>
       <c r="M862" s="10" t="s">
         <v>1652</v>
       </c>
@@ -44625,31 +44636,31 @@
         <v>814</v>
       </c>
       <c r="D863" s="7" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="E863" s="22" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="F863" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G863" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G863" s="7">
+        <v>12</v>
       </c>
       <c r="H863" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I863" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J863" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="K863" s="23" t="s">
         <v>837</v>
       </c>
       <c r="L863" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="M863" s="10" t="s">
         <v>1652</v>
@@ -44666,32 +44677,24 @@
         <v>814</v>
       </c>
       <c r="D864" s="7" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
       <c r="E864" s="22" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="F864" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G864" s="7">
-        <v>12</v>
+        <v>915</v>
+      </c>
+      <c r="G864" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H864" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I864" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J864" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K864" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="L864" s="7" t="s">
-        <v>1174</v>
-      </c>
+        <v>1528</v>
+      </c>
+      <c r="I864" s="7"/>
+      <c r="J864" s="7"/>
+      <c r="K864" s="23"/>
+      <c r="L864" s="7"/>
       <c r="M864" s="10" t="s">
         <v>1652</v>
       </c>
@@ -44707,19 +44710,19 @@
         <v>814</v>
       </c>
       <c r="D865" s="7" t="s">
-        <v>502</v>
+        <v>627</v>
       </c>
       <c r="E865" s="22" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="F865" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G865" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G865" s="7">
+        <v>16</v>
       </c>
       <c r="H865" s="7" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I865" s="7"/>
       <c r="J865" s="7"/>
@@ -44740,24 +44743,32 @@
         <v>814</v>
       </c>
       <c r="D866" s="7" t="s">
-        <v>627</v>
+        <v>239</v>
       </c>
       <c r="E866" s="22" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="F866" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G866" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H866" s="7" t="s">
-        <v>1529</v>
-      </c>
-      <c r="I866" s="7"/>
-      <c r="J866" s="7"/>
-      <c r="K866" s="23"/>
-      <c r="L866" s="7"/>
+        <v>1369</v>
+      </c>
+      <c r="I866" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J866" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K866" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="L866" s="7" t="s">
+        <v>1369</v>
+      </c>
       <c r="M866" s="10" t="s">
         <v>1652</v>
       </c>
@@ -44773,31 +44784,31 @@
         <v>814</v>
       </c>
       <c r="D867" s="7" t="s">
-        <v>239</v>
+        <v>623</v>
       </c>
       <c r="E867" s="22" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="F867" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G867" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H867" s="7" t="s">
-        <v>1369</v>
+        <v>1315</v>
       </c>
       <c r="I867" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J867" s="7" t="s">
-        <v>237</v>
+        <v>616</v>
       </c>
       <c r="K867" s="23" t="s">
         <v>875</v>
       </c>
       <c r="L867" s="7" t="s">
-        <v>1369</v>
+        <v>1315</v>
       </c>
       <c r="M867" s="10" t="s">
         <v>1652</v>
@@ -44814,31 +44825,31 @@
         <v>814</v>
       </c>
       <c r="D868" s="7" t="s">
-        <v>623</v>
+        <v>268</v>
       </c>
       <c r="E868" s="22" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="F868" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G868" s="7">
-        <v>12</v>
+        <v>915</v>
+      </c>
+      <c r="G868" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H868" s="7" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="I868" s="7" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="J868" s="7" t="s">
-        <v>616</v>
+        <v>268</v>
       </c>
       <c r="K868" s="23" t="s">
-        <v>875</v>
+        <v>1146</v>
       </c>
       <c r="L868" s="7" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
       <c r="M868" s="10" t="s">
         <v>1652</v>
@@ -44855,32 +44866,24 @@
         <v>814</v>
       </c>
       <c r="D869" s="7" t="s">
-        <v>268</v>
+        <v>391</v>
       </c>
       <c r="E869" s="22" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="F869" s="7" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="G869" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H869" s="7" t="s">
-        <v>1298</v>
-      </c>
-      <c r="I869" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J869" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K869" s="23" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L869" s="7" t="s">
-        <v>1298</v>
-      </c>
+        <v>1404</v>
+      </c>
+      <c r="I869" s="7"/>
+      <c r="J869" s="7"/>
+      <c r="K869" s="23"/>
+      <c r="L869" s="7"/>
       <c r="M869" s="10" t="s">
         <v>1652</v>
       </c>
@@ -44896,10 +44899,10 @@
         <v>814</v>
       </c>
       <c r="D870" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="E870" s="22" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="F870" s="7" t="s">
         <v>919</v>
@@ -44908,7 +44911,7 @@
         <v>916</v>
       </c>
       <c r="H870" s="7" t="s">
-        <v>1404</v>
+        <v>1378</v>
       </c>
       <c r="I870" s="7"/>
       <c r="J870" s="7"/>
@@ -44929,24 +44932,32 @@
         <v>814</v>
       </c>
       <c r="D871" s="7" t="s">
-        <v>440</v>
+        <v>191</v>
       </c>
       <c r="E871" s="22" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="F871" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G871" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G871" s="7">
+        <v>18</v>
       </c>
       <c r="H871" s="7" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I871" s="7"/>
-      <c r="J871" s="7"/>
-      <c r="K871" s="23"/>
-      <c r="L871" s="7"/>
+        <v>1478</v>
+      </c>
+      <c r="I871" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J871" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K871" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="L871" s="7" t="s">
+        <v>1205</v>
+      </c>
       <c r="M871" s="10" t="s">
         <v>1652</v>
       </c>
@@ -44962,10 +44973,10 @@
         <v>814</v>
       </c>
       <c r="D872" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E872" s="22" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="F872" s="7" t="s">
         <v>917</v>
@@ -44974,7 +44985,7 @@
         <v>18</v>
       </c>
       <c r="H872" s="7" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="I872" s="7" t="s">
         <v>100</v>
@@ -45003,31 +45014,31 @@
         <v>814</v>
       </c>
       <c r="D873" s="7" t="s">
-        <v>190</v>
+        <v>514</v>
       </c>
       <c r="E873" s="22" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="F873" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G873" s="7">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H873" s="7" t="s">
-        <v>1480</v>
+        <v>1530</v>
       </c>
       <c r="I873" s="7" t="s">
-        <v>100</v>
+        <v>1004</v>
       </c>
       <c r="J873" s="7" t="s">
-        <v>285</v>
+        <v>518</v>
       </c>
       <c r="K873" s="23" t="s">
-        <v>882</v>
+        <v>824</v>
       </c>
       <c r="L873" s="7" t="s">
-        <v>1205</v>
+        <v>1530</v>
       </c>
       <c r="M873" s="10" t="s">
         <v>1652</v>
@@ -45044,32 +45055,28 @@
         <v>814</v>
       </c>
       <c r="D874" s="7" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E874" s="22" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="F874" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G874" s="7">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H874" s="7" t="s">
-        <v>1530</v>
+        <v>1539</v>
       </c>
       <c r="I874" s="7" t="s">
-        <v>1004</v>
+        <v>1077</v>
       </c>
       <c r="J874" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="K874" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="L874" s="7" t="s">
-        <v>1530</v>
-      </c>
+        <v>1077</v>
+      </c>
+      <c r="K874" s="23"/>
+      <c r="L874" s="7"/>
       <c r="M874" s="10" t="s">
         <v>1652</v>
       </c>
@@ -45085,28 +45092,32 @@
         <v>814</v>
       </c>
       <c r="D875" s="7" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="E875" s="22" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="F875" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G875" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H875" s="7" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="I875" s="7" t="s">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="J875" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K875" s="23"/>
-      <c r="L875" s="7"/>
+        <v>549</v>
+      </c>
+      <c r="K875" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="L875" s="7" t="s">
+        <v>1540</v>
+      </c>
       <c r="M875" s="10" t="s">
         <v>1652</v>
       </c>
@@ -45122,32 +45133,24 @@
         <v>814</v>
       </c>
       <c r="D876" s="7" t="s">
-        <v>549</v>
+        <v>744</v>
       </c>
       <c r="E876" s="22" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="F876" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G876" s="7">
-        <v>18</v>
+        <v>918</v>
+      </c>
+      <c r="G876" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I876" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J876" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="K876" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="L876" s="7" t="s">
-        <v>1540</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="I876" s="7"/>
+      <c r="J876" s="7"/>
+      <c r="K876" s="23"/>
+      <c r="L876" s="7"/>
       <c r="M876" s="10" t="s">
         <v>1652</v>
       </c>
@@ -45163,10 +45166,10 @@
         <v>814</v>
       </c>
       <c r="D877" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E877" s="22" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="F877" s="7" t="s">
         <v>918</v>
@@ -45175,7 +45178,7 @@
         <v>916</v>
       </c>
       <c r="H877" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I877" s="7"/>
       <c r="J877" s="7"/>
@@ -45196,10 +45199,10 @@
         <v>814</v>
       </c>
       <c r="D878" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E878" s="22" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="F878" s="7" t="s">
         <v>918</v>
@@ -45208,7 +45211,7 @@
         <v>916</v>
       </c>
       <c r="H878" s="7" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="I878" s="7"/>
       <c r="J878" s="7"/>
@@ -45229,10 +45232,10 @@
         <v>814</v>
       </c>
       <c r="D879" s="7" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="E879" s="22" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="F879" s="7" t="s">
         <v>918</v>
@@ -45241,7 +45244,7 @@
         <v>916</v>
       </c>
       <c r="H879" s="7" t="s">
-        <v>1240</v>
+        <v>1221</v>
       </c>
       <c r="I879" s="7"/>
       <c r="J879" s="7"/>
@@ -45262,10 +45265,10 @@
         <v>814</v>
       </c>
       <c r="D880" s="7" t="s">
-        <v>777</v>
+        <v>738</v>
       </c>
       <c r="E880" s="22" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F880" s="7" t="s">
         <v>918</v>
@@ -45274,7 +45277,7 @@
         <v>916</v>
       </c>
       <c r="H880" s="7" t="s">
-        <v>1221</v>
+        <v>1256</v>
       </c>
       <c r="I880" s="7"/>
       <c r="J880" s="7"/>
@@ -45295,10 +45298,10 @@
         <v>814</v>
       </c>
       <c r="D881" s="7" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="E881" s="22" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="F881" s="7" t="s">
         <v>918</v>
@@ -45307,7 +45310,7 @@
         <v>916</v>
       </c>
       <c r="H881" s="7" t="s">
-        <v>1256</v>
+        <v>1219</v>
       </c>
       <c r="I881" s="7"/>
       <c r="J881" s="7"/>
@@ -45328,10 +45331,10 @@
         <v>814</v>
       </c>
       <c r="D882" s="7" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="E882" s="22" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="F882" s="7" t="s">
         <v>918</v>
@@ -45340,7 +45343,7 @@
         <v>916</v>
       </c>
       <c r="H882" s="7" t="s">
-        <v>1219</v>
+        <v>1258</v>
       </c>
       <c r="I882" s="7"/>
       <c r="J882" s="7"/>
@@ -45361,10 +45364,10 @@
         <v>814</v>
       </c>
       <c r="D883" s="7" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="E883" s="22" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="F883" s="7" t="s">
         <v>918</v>
@@ -45373,7 +45376,7 @@
         <v>916</v>
       </c>
       <c r="H883" s="7" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="I883" s="7"/>
       <c r="J883" s="7"/>
@@ -45394,10 +45397,10 @@
         <v>814</v>
       </c>
       <c r="D884" s="7" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="E884" s="22" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="F884" s="7" t="s">
         <v>918</v>
@@ -45406,7 +45409,7 @@
         <v>916</v>
       </c>
       <c r="H884" s="7" t="s">
-        <v>1242</v>
+        <v>1216</v>
       </c>
       <c r="I884" s="7"/>
       <c r="J884" s="7"/>
@@ -45427,10 +45430,10 @@
         <v>814</v>
       </c>
       <c r="D885" s="7" t="s">
-        <v>727</v>
+        <v>791</v>
       </c>
       <c r="E885" s="22" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="F885" s="7" t="s">
         <v>918</v>
@@ -45439,7 +45442,7 @@
         <v>916</v>
       </c>
       <c r="H885" s="7" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="I885" s="7"/>
       <c r="J885" s="7"/>
@@ -45460,19 +45463,19 @@
         <v>814</v>
       </c>
       <c r="D886" s="7" t="s">
-        <v>791</v>
+        <v>503</v>
       </c>
       <c r="E886" s="22" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="F886" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G886" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G886" s="7">
+        <v>20</v>
       </c>
       <c r="H886" s="7" t="s">
-        <v>1212</v>
+        <v>1533</v>
       </c>
       <c r="I886" s="7"/>
       <c r="J886" s="7"/>
@@ -45493,10 +45496,10 @@
         <v>814</v>
       </c>
       <c r="D887" s="7" t="s">
-        <v>503</v>
+        <v>628</v>
       </c>
       <c r="E887" s="22" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="F887" s="7" t="s">
         <v>917</v>
@@ -45505,7 +45508,7 @@
         <v>20</v>
       </c>
       <c r="H887" s="7" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="I887" s="7"/>
       <c r="J887" s="7"/>
@@ -45526,10 +45529,10 @@
         <v>814</v>
       </c>
       <c r="D888" s="7" t="s">
-        <v>628</v>
+        <v>506</v>
       </c>
       <c r="E888" s="22" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="F888" s="7" t="s">
         <v>917</v>
@@ -45538,7 +45541,7 @@
         <v>20</v>
       </c>
       <c r="H888" s="7" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="I888" s="7"/>
       <c r="J888" s="7"/>
@@ -45559,10 +45562,10 @@
         <v>814</v>
       </c>
       <c r="D889" s="7" t="s">
-        <v>506</v>
+        <v>630</v>
       </c>
       <c r="E889" s="22" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="F889" s="7" t="s">
         <v>917</v>
@@ -45571,7 +45574,7 @@
         <v>20</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="I889" s="7"/>
       <c r="J889" s="7"/>
@@ -45592,19 +45595,19 @@
         <v>814</v>
       </c>
       <c r="D890" s="7" t="s">
-        <v>630</v>
+        <v>408</v>
       </c>
       <c r="E890" s="22" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="F890" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G890" s="7">
-        <v>20</v>
+        <v>919</v>
+      </c>
+      <c r="G890" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H890" s="7" t="s">
-        <v>1536</v>
+        <v>1401</v>
       </c>
       <c r="I890" s="7"/>
       <c r="J890" s="7"/>
@@ -45625,24 +45628,32 @@
         <v>814</v>
       </c>
       <c r="D891" s="7" t="s">
-        <v>408</v>
+        <v>645</v>
       </c>
       <c r="E891" s="22" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="F891" s="7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G891" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H891" s="7" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I891" s="7"/>
-      <c r="J891" s="7"/>
-      <c r="K891" s="23"/>
-      <c r="L891" s="7"/>
+        <v>1311</v>
+      </c>
+      <c r="I891" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J891" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K891" s="23" t="s">
+        <v>896</v>
+      </c>
+      <c r="L891" s="7" t="s">
+        <v>1311</v>
+      </c>
       <c r="M891" s="10" t="s">
         <v>1652</v>
       </c>
@@ -45658,32 +45669,24 @@
         <v>814</v>
       </c>
       <c r="D892" s="7" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="E892" s="22" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="F892" s="7" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="G892" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H892" s="7" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I892" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J892" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K892" s="23" t="s">
-        <v>896</v>
-      </c>
-      <c r="L892" s="7" t="s">
-        <v>1311</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="I892" s="7"/>
+      <c r="J892" s="7"/>
+      <c r="K892" s="23"/>
+      <c r="L892" s="7"/>
       <c r="M892" s="10" t="s">
         <v>1652</v>
       </c>
@@ -45699,10 +45702,10 @@
         <v>814</v>
       </c>
       <c r="D893" s="7" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="E893" s="22" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="F893" s="7" t="s">
         <v>918</v>
@@ -45711,7 +45714,7 @@
         <v>916</v>
       </c>
       <c r="H893" s="7" t="s">
-        <v>1259</v>
+        <v>1227</v>
       </c>
       <c r="I893" s="7"/>
       <c r="J893" s="7"/>
@@ -45732,10 +45735,10 @@
         <v>814</v>
       </c>
       <c r="D894" s="7" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="E894" s="22" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="F894" s="7" t="s">
         <v>918</v>
@@ -45744,7 +45747,7 @@
         <v>916</v>
       </c>
       <c r="H894" s="7" t="s">
-        <v>1227</v>
+        <v>1277</v>
       </c>
       <c r="I894" s="7"/>
       <c r="J894" s="7"/>
@@ -45765,10 +45768,10 @@
         <v>814</v>
       </c>
       <c r="D895" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="E895" s="22" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="F895" s="7" t="s">
         <v>918</v>
@@ -45777,7 +45780,7 @@
         <v>916</v>
       </c>
       <c r="H895" s="7" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="I895" s="7"/>
       <c r="J895" s="7"/>
@@ -45798,10 +45801,10 @@
         <v>814</v>
       </c>
       <c r="D896" s="7" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="E896" s="22" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="F896" s="7" t="s">
         <v>918</v>
@@ -45810,7 +45813,7 @@
         <v>916</v>
       </c>
       <c r="H896" s="7" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="I896" s="7"/>
       <c r="J896" s="7"/>
@@ -45831,10 +45834,10 @@
         <v>814</v>
       </c>
       <c r="D897" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E897" s="22" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="F897" s="7" t="s">
         <v>918</v>
@@ -45843,7 +45846,7 @@
         <v>916</v>
       </c>
       <c r="H897" s="7" t="s">
-        <v>1262</v>
+        <v>795</v>
       </c>
       <c r="I897" s="7"/>
       <c r="J897" s="7"/>
@@ -45864,10 +45867,10 @@
         <v>814</v>
       </c>
       <c r="D898" s="7" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="E898" s="22" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F898" s="7" t="s">
         <v>918</v>
@@ -45876,7 +45879,7 @@
         <v>916</v>
       </c>
       <c r="H898" s="7" t="s">
-        <v>795</v>
+        <v>1283</v>
       </c>
       <c r="I898" s="7"/>
       <c r="J898" s="7"/>
@@ -45897,10 +45900,10 @@
         <v>814</v>
       </c>
       <c r="D899" s="7" t="s">
-        <v>700</v>
+        <v>773</v>
       </c>
       <c r="E899" s="22" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F899" s="7" t="s">
         <v>918</v>
@@ -45909,7 +45912,7 @@
         <v>916</v>
       </c>
       <c r="H899" s="7" t="s">
-        <v>1283</v>
+        <v>1225</v>
       </c>
       <c r="I899" s="7"/>
       <c r="J899" s="7"/>
@@ -45930,10 +45933,10 @@
         <v>814</v>
       </c>
       <c r="D900" s="7" t="s">
-        <v>773</v>
+        <v>710</v>
       </c>
       <c r="E900" s="22" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="F900" s="7" t="s">
         <v>918</v>
@@ -45942,7 +45945,7 @@
         <v>916</v>
       </c>
       <c r="H900" s="7" t="s">
-        <v>1225</v>
+        <v>1275</v>
       </c>
       <c r="I900" s="7"/>
       <c r="J900" s="7"/>
@@ -45963,10 +45966,10 @@
         <v>814</v>
       </c>
       <c r="D901" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E901" s="22" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="F901" s="7" t="s">
         <v>918</v>
@@ -45975,7 +45978,7 @@
         <v>916</v>
       </c>
       <c r="H901" s="7" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="I901" s="7"/>
       <c r="J901" s="7"/>
@@ -45996,19 +45999,19 @@
         <v>814</v>
       </c>
       <c r="D902" s="7" t="s">
-        <v>704</v>
+        <v>384</v>
       </c>
       <c r="E902" s="22" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F902" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G902" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H902" s="7" t="s">
-        <v>1279</v>
+        <v>1406</v>
       </c>
       <c r="I902" s="7"/>
       <c r="J902" s="7"/>
@@ -46029,24 +46032,32 @@
         <v>814</v>
       </c>
       <c r="D903" s="7" t="s">
-        <v>384</v>
+        <v>686</v>
       </c>
       <c r="E903" s="22" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="F903" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G903" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G903" s="7">
+        <v>20</v>
       </c>
       <c r="H903" s="7" t="s">
-        <v>1406</v>
-      </c>
-      <c r="I903" s="7"/>
-      <c r="J903" s="7"/>
-      <c r="K903" s="23"/>
-      <c r="L903" s="7"/>
+        <v>1586</v>
+      </c>
+      <c r="I903" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J903" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K903" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L903" s="7" t="s">
+        <v>1586</v>
+      </c>
       <c r="M903" s="10" t="s">
         <v>1652</v>
       </c>
@@ -46062,31 +46073,31 @@
         <v>814</v>
       </c>
       <c r="D904" s="7" t="s">
-        <v>686</v>
+        <v>1293</v>
       </c>
       <c r="E904" s="22" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="F904" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G904" s="7">
-        <v>20</v>
+        <v>915</v>
+      </c>
+      <c r="G904" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H904" s="7" t="s">
-        <v>1586</v>
+        <v>1293</v>
       </c>
       <c r="I904" s="7" t="s">
-        <v>1098</v>
+        <v>125</v>
       </c>
       <c r="J904" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="K904" s="23" t="s">
-        <v>837</v>
+        <v>910</v>
       </c>
       <c r="L904" s="7" t="s">
-        <v>1586</v>
+        <v>1293</v>
       </c>
       <c r="M904" s="10" t="s">
         <v>1652</v>
@@ -46103,32 +46114,24 @@
         <v>814</v>
       </c>
       <c r="D905" s="7" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E905" s="22" t="s">
-        <v>1748</v>
+        <v>1524</v>
+      </c>
+      <c r="E905" s="22">
+        <v>44</v>
       </c>
       <c r="F905" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G905" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G905" s="7">
+        <v>30</v>
       </c>
       <c r="H905" s="7" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I905" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J905" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="K905" s="23" t="s">
-        <v>910</v>
-      </c>
-      <c r="L905" s="7" t="s">
-        <v>1293</v>
-      </c>
+        <v>1524</v>
+      </c>
+      <c r="I905" s="7"/>
+      <c r="J905" s="7"/>
+      <c r="K905" s="23"/>
+      <c r="L905" s="7"/>
       <c r="M905" s="10" t="s">
         <v>1652</v>
       </c>
@@ -46138,30 +46141,38 @@
         <v>1105</v>
       </c>
       <c r="B906" s="7" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="C906" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D906" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E906" s="22">
-        <v>44</v>
+        <v>292</v>
+      </c>
+      <c r="E906" s="7">
+        <v>1</v>
       </c>
       <c r="F906" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G906" s="7">
-        <v>30</v>
+        <v>915</v>
+      </c>
+      <c r="G906" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H906" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I906" s="7"/>
-      <c r="J906" s="7"/>
-      <c r="K906" s="23"/>
-      <c r="L906" s="7"/>
+        <v>1175</v>
+      </c>
+      <c r="I906" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J906" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K906" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L906" s="7" t="s">
+        <v>1175</v>
+      </c>
       <c r="M906" s="10" t="s">
         <v>1652</v>
       </c>
@@ -46177,31 +46188,31 @@
         <v>815</v>
       </c>
       <c r="D907" s="7" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="E907" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F907" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G907" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G907" s="7">
+        <v>12</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I907" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J907" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="K907" s="23" t="s">
         <v>837</v>
       </c>
       <c r="L907" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="M907" s="10" t="s">
         <v>1652</v>
@@ -46218,31 +46229,31 @@
         <v>815</v>
       </c>
       <c r="D908" s="7" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
       <c r="E908" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F908" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G908" s="7">
-        <v>12</v>
+        <v>915</v>
+      </c>
+      <c r="G908" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H908" s="7" t="s">
-        <v>1174</v>
+        <v>1528</v>
       </c>
       <c r="I908" s="7" t="s">
-        <v>73</v>
+        <v>1099</v>
       </c>
       <c r="J908" s="7" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
       <c r="K908" s="23" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="L908" s="7" t="s">
-        <v>1174</v>
+        <v>1528</v>
       </c>
       <c r="M908" s="10" t="s">
         <v>1652</v>
@@ -46259,31 +46270,31 @@
         <v>815</v>
       </c>
       <c r="D909" s="7" t="s">
-        <v>502</v>
+        <v>627</v>
       </c>
       <c r="E909" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F909" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G909" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G909" s="7">
+        <v>16</v>
       </c>
       <c r="H909" s="7" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="I909" s="7" t="s">
         <v>1099</v>
       </c>
       <c r="J909" s="7" t="s">
-        <v>502</v>
+        <v>627</v>
       </c>
       <c r="K909" s="23" t="s">
         <v>814</v>
       </c>
       <c r="L909" s="7" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="M909" s="10" t="s">
         <v>1652</v>
@@ -46300,32 +46311,28 @@
         <v>815</v>
       </c>
       <c r="D910" s="7" t="s">
-        <v>627</v>
+        <v>217</v>
       </c>
       <c r="E910" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F910" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G910" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="H910" s="7" t="s">
-        <v>1529</v>
+        <v>1376</v>
       </c>
       <c r="I910" s="7" t="s">
-        <v>1099</v>
+        <v>961</v>
       </c>
       <c r="J910" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="K910" s="23" t="s">
-        <v>814</v>
-      </c>
-      <c r="L910" s="7" t="s">
-        <v>1529</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="K910" s="23"/>
+      <c r="L910" s="7"/>
       <c r="M910" s="10" t="s">
         <v>1652</v>
       </c>
@@ -46341,26 +46348,22 @@
         <v>815</v>
       </c>
       <c r="D911" s="7" t="s">
-        <v>217</v>
+        <v>587</v>
       </c>
       <c r="E911" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F911" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G911" s="7">
-        <v>94</v>
+        <v>918</v>
+      </c>
+      <c r="G911" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H911" s="7" t="s">
-        <v>1376</v>
-      </c>
-      <c r="I911" s="7" t="s">
-        <v>961</v>
-      </c>
-      <c r="J911" s="7" t="s">
-        <v>217</v>
-      </c>
+        <v>1329</v>
+      </c>
+      <c r="I911" s="7"/>
+      <c r="J911" s="7"/>
       <c r="K911" s="23"/>
       <c r="L911" s="7"/>
       <c r="M911" s="10" t="s">
@@ -46378,10 +46381,10 @@
         <v>815</v>
       </c>
       <c r="D912" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E912" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F912" s="7" t="s">
         <v>918</v>
@@ -46390,7 +46393,7 @@
         <v>916</v>
       </c>
       <c r="H912" s="7" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="I912" s="7"/>
       <c r="J912" s="7"/>
@@ -46411,10 +46414,10 @@
         <v>815</v>
       </c>
       <c r="D913" s="7" t="s">
-        <v>584</v>
+        <v>794</v>
       </c>
       <c r="E913" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F913" s="7" t="s">
         <v>918</v>
@@ -46423,7 +46426,7 @@
         <v>916</v>
       </c>
       <c r="H913" s="7" t="s">
-        <v>1332</v>
+        <v>1210</v>
       </c>
       <c r="I913" s="7"/>
       <c r="J913" s="7"/>
@@ -46444,10 +46447,10 @@
         <v>815</v>
       </c>
       <c r="D914" s="7" t="s">
-        <v>794</v>
+        <v>744</v>
       </c>
       <c r="E914" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F914" s="7" t="s">
         <v>918</v>
@@ -46456,7 +46459,7 @@
         <v>916</v>
       </c>
       <c r="H914" s="7" t="s">
-        <v>1210</v>
+        <v>1245</v>
       </c>
       <c r="I914" s="7"/>
       <c r="J914" s="7"/>
@@ -46477,10 +46480,10 @@
         <v>815</v>
       </c>
       <c r="D915" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E915" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F915" s="7" t="s">
         <v>918</v>
@@ -46489,7 +46492,7 @@
         <v>916</v>
       </c>
       <c r="H915" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I915" s="7"/>
       <c r="J915" s="7"/>
@@ -46510,10 +46513,10 @@
         <v>815</v>
       </c>
       <c r="D916" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E916" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F916" s="7" t="s">
         <v>918</v>
@@ -46522,7 +46525,7 @@
         <v>916</v>
       </c>
       <c r="H916" s="7" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="I916" s="7"/>
       <c r="J916" s="7"/>
@@ -46543,10 +46546,10 @@
         <v>815</v>
       </c>
       <c r="D917" s="7" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="E917" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F917" s="7" t="s">
         <v>918</v>
@@ -46555,7 +46558,7 @@
         <v>916</v>
       </c>
       <c r="H917" s="7" t="s">
-        <v>1240</v>
+        <v>1221</v>
       </c>
       <c r="I917" s="7"/>
       <c r="J917" s="7"/>
@@ -46576,10 +46579,10 @@
         <v>815</v>
       </c>
       <c r="D918" s="7" t="s">
-        <v>777</v>
+        <v>738</v>
       </c>
       <c r="E918" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F918" s="7" t="s">
         <v>918</v>
@@ -46588,7 +46591,7 @@
         <v>916</v>
       </c>
       <c r="H918" s="7" t="s">
-        <v>1221</v>
+        <v>1256</v>
       </c>
       <c r="I918" s="7"/>
       <c r="J918" s="7"/>
@@ -46609,10 +46612,10 @@
         <v>815</v>
       </c>
       <c r="D919" s="7" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="E919" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F919" s="7" t="s">
         <v>918</v>
@@ -46621,7 +46624,7 @@
         <v>916</v>
       </c>
       <c r="H919" s="7" t="s">
-        <v>1256</v>
+        <v>1219</v>
       </c>
       <c r="I919" s="7"/>
       <c r="J919" s="7"/>
@@ -46642,10 +46645,10 @@
         <v>815</v>
       </c>
       <c r="D920" s="7" t="s">
-        <v>781</v>
+        <v>730</v>
       </c>
       <c r="E920" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F920" s="7" t="s">
         <v>918</v>
@@ -46654,7 +46657,7 @@
         <v>916</v>
       </c>
       <c r="H920" s="7" t="s">
-        <v>1219</v>
+        <v>1258</v>
       </c>
       <c r="I920" s="7"/>
       <c r="J920" s="7"/>
@@ -46675,10 +46678,10 @@
         <v>815</v>
       </c>
       <c r="D921" s="7" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="E921" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F921" s="7" t="s">
         <v>918</v>
@@ -46687,7 +46690,7 @@
         <v>916</v>
       </c>
       <c r="H921" s="7" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="I921" s="7"/>
       <c r="J921" s="7"/>
@@ -46708,10 +46711,10 @@
         <v>815</v>
       </c>
       <c r="D922" s="7" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="E922" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F922" s="7" t="s">
         <v>918</v>
@@ -46720,7 +46723,7 @@
         <v>916</v>
       </c>
       <c r="H922" s="7" t="s">
-        <v>1242</v>
+        <v>1216</v>
       </c>
       <c r="I922" s="7"/>
       <c r="J922" s="7"/>
@@ -46741,10 +46744,10 @@
         <v>815</v>
       </c>
       <c r="D923" s="7" t="s">
-        <v>727</v>
+        <v>787</v>
       </c>
       <c r="E923" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F923" s="7" t="s">
         <v>918</v>
@@ -46753,7 +46756,7 @@
         <v>916</v>
       </c>
       <c r="H923" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I923" s="7"/>
       <c r="J923" s="7"/>
@@ -46774,24 +46777,32 @@
         <v>815</v>
       </c>
       <c r="D924" s="7" t="s">
-        <v>787</v>
+        <v>512</v>
       </c>
       <c r="E924" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F924" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G924" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G924" s="7">
+        <v>8</v>
       </c>
       <c r="H924" s="7" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I924" s="7"/>
-      <c r="J924" s="7"/>
-      <c r="K924" s="23"/>
-      <c r="L924" s="7"/>
+        <v>1531</v>
+      </c>
+      <c r="I924" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="J924" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K924" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="L924" s="7" t="s">
+        <v>1522</v>
+      </c>
       <c r="M924" s="10" t="s">
         <v>1652</v>
       </c>
@@ -46807,32 +46818,24 @@
         <v>815</v>
       </c>
       <c r="D925" s="7" t="s">
-        <v>512</v>
+        <v>735</v>
       </c>
       <c r="E925" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F925" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G925" s="7">
-        <v>8</v>
+        <v>918</v>
+      </c>
+      <c r="G925" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H925" s="7" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I925" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="J925" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="K925" s="23" t="s">
-        <v>819</v>
-      </c>
-      <c r="L925" s="7" t="s">
-        <v>1522</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="I925" s="7"/>
+      <c r="J925" s="7"/>
+      <c r="K925" s="23"/>
+      <c r="L925" s="7"/>
       <c r="M925" s="10" t="s">
         <v>1652</v>
       </c>
@@ -46848,10 +46851,10 @@
         <v>815</v>
       </c>
       <c r="D926" s="7" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="E926" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F926" s="7" t="s">
         <v>918</v>
@@ -46860,7 +46863,7 @@
         <v>916</v>
       </c>
       <c r="H926" s="7" t="s">
-        <v>1259</v>
+        <v>1227</v>
       </c>
       <c r="I926" s="7"/>
       <c r="J926" s="7"/>
@@ -46881,10 +46884,10 @@
         <v>815</v>
       </c>
       <c r="D927" s="7" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E927" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F927" s="7" t="s">
         <v>918</v>
@@ -46893,7 +46896,7 @@
         <v>916</v>
       </c>
       <c r="H927" s="7" t="s">
-        <v>1227</v>
+        <v>1246</v>
       </c>
       <c r="I927" s="7"/>
       <c r="J927" s="7"/>
@@ -46914,10 +46917,10 @@
         <v>815</v>
       </c>
       <c r="D928" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E928" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F928" s="7" t="s">
         <v>918</v>
@@ -46926,7 +46929,7 @@
         <v>916</v>
       </c>
       <c r="H928" s="7" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="I928" s="7"/>
       <c r="J928" s="7"/>
@@ -46947,10 +46950,10 @@
         <v>815</v>
       </c>
       <c r="D929" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E929" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F929" s="7" t="s">
         <v>918</v>
@@ -46959,7 +46962,7 @@
         <v>916</v>
       </c>
       <c r="H929" s="7" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I929" s="7"/>
       <c r="J929" s="7"/>
@@ -46980,10 +46983,10 @@
         <v>815</v>
       </c>
       <c r="D930" s="7" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="E930" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F930" s="7" t="s">
         <v>918</v>
@@ -46992,7 +46995,7 @@
         <v>916</v>
       </c>
       <c r="H930" s="7" t="s">
-        <v>1247</v>
+        <v>1277</v>
       </c>
       <c r="I930" s="7"/>
       <c r="J930" s="7"/>
@@ -47013,10 +47016,10 @@
         <v>815</v>
       </c>
       <c r="D931" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="E931" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F931" s="7" t="s">
         <v>918</v>
@@ -47025,7 +47028,7 @@
         <v>916</v>
       </c>
       <c r="H931" s="7" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="I931" s="7"/>
       <c r="J931" s="7"/>
@@ -47046,10 +47049,10 @@
         <v>815</v>
       </c>
       <c r="D932" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E932" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F932" s="7" t="s">
         <v>918</v>
@@ -47058,7 +47061,7 @@
         <v>916</v>
       </c>
       <c r="H932" s="7" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="I932" s="7"/>
       <c r="J932" s="7"/>
@@ -47079,10 +47082,10 @@
         <v>815</v>
       </c>
       <c r="D933" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="E933" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F933" s="7" t="s">
         <v>918</v>
@@ -47091,7 +47094,7 @@
         <v>916</v>
       </c>
       <c r="H933" s="7" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="I933" s="7"/>
       <c r="J933" s="7"/>
@@ -47112,10 +47115,10 @@
         <v>815</v>
       </c>
       <c r="D934" s="7" t="s">
-        <v>713</v>
+        <v>776</v>
       </c>
       <c r="E934" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F934" s="7" t="s">
         <v>918</v>
@@ -47124,7 +47127,7 @@
         <v>916</v>
       </c>
       <c r="H934" s="7" t="s">
-        <v>1273</v>
+        <v>1222</v>
       </c>
       <c r="I934" s="7"/>
       <c r="J934" s="7"/>
@@ -47145,10 +47148,10 @@
         <v>815</v>
       </c>
       <c r="D935" s="7" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E935" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F935" s="7" t="s">
         <v>918</v>
@@ -47157,7 +47160,7 @@
         <v>916</v>
       </c>
       <c r="H935" s="7" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="I935" s="7"/>
       <c r="J935" s="7"/>
@@ -47178,10 +47181,10 @@
         <v>815</v>
       </c>
       <c r="D936" s="7" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E936" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F936" s="7" t="s">
         <v>918</v>
@@ -47190,7 +47193,7 @@
         <v>916</v>
       </c>
       <c r="H936" s="7" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="I936" s="7"/>
       <c r="J936" s="7"/>
@@ -47211,10 +47214,10 @@
         <v>815</v>
       </c>
       <c r="D937" s="7" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="E937" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F937" s="7" t="s">
         <v>918</v>
@@ -47223,7 +47226,7 @@
         <v>916</v>
       </c>
       <c r="H937" s="7" t="s">
-        <v>1223</v>
+        <v>1270</v>
       </c>
       <c r="I937" s="7"/>
       <c r="J937" s="7"/>
@@ -47244,10 +47247,10 @@
         <v>815</v>
       </c>
       <c r="D938" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="E938" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F938" s="7" t="s">
         <v>918</v>
@@ -47256,7 +47259,7 @@
         <v>916</v>
       </c>
       <c r="H938" s="7" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="I938" s="7"/>
       <c r="J938" s="7"/>
@@ -47277,10 +47280,10 @@
         <v>815</v>
       </c>
       <c r="D939" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E939" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F939" s="7" t="s">
         <v>918</v>
@@ -47289,7 +47292,7 @@
         <v>916</v>
       </c>
       <c r="H939" s="7" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="I939" s="7"/>
       <c r="J939" s="7"/>
@@ -47310,10 +47313,10 @@
         <v>815</v>
       </c>
       <c r="D940" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E940" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F940" s="7" t="s">
         <v>918</v>
@@ -47322,7 +47325,7 @@
         <v>916</v>
       </c>
       <c r="H940" s="7" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I940" s="7"/>
       <c r="J940" s="7"/>
@@ -47343,10 +47346,10 @@
         <v>815</v>
       </c>
       <c r="D941" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="E941" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F941" s="7" t="s">
         <v>918</v>
@@ -47355,7 +47358,7 @@
         <v>916</v>
       </c>
       <c r="H941" s="7" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="I941" s="7"/>
       <c r="J941" s="7"/>
@@ -47376,19 +47379,19 @@
         <v>815</v>
       </c>
       <c r="D942" s="7" t="s">
-        <v>729</v>
+        <v>494</v>
       </c>
       <c r="E942" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F942" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G942" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H942" s="7" t="s">
-        <v>1262</v>
+        <v>1547</v>
       </c>
       <c r="I942" s="7"/>
       <c r="J942" s="7"/>
@@ -47409,24 +47412,32 @@
         <v>815</v>
       </c>
       <c r="D943" s="7" t="s">
-        <v>494</v>
+        <v>237</v>
       </c>
       <c r="E943" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F943" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G943" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G943" s="7">
+        <v>20</v>
       </c>
       <c r="H943" s="7" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I943" s="7"/>
-      <c r="J943" s="7"/>
-      <c r="K943" s="23"/>
-      <c r="L943" s="7"/>
+        <v>1369</v>
+      </c>
+      <c r="I943" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J943" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K943" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="L943" s="7" t="s">
+        <v>1369</v>
+      </c>
       <c r="M943" s="10" t="s">
         <v>1652</v>
       </c>
@@ -47442,31 +47453,31 @@
         <v>815</v>
       </c>
       <c r="D944" s="7" t="s">
-        <v>237</v>
+        <v>616</v>
       </c>
       <c r="E944" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F944" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G944" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H944" s="7" t="s">
-        <v>1369</v>
+        <v>1315</v>
       </c>
       <c r="I944" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J944" s="7" t="s">
-        <v>237</v>
+        <v>616</v>
       </c>
       <c r="K944" s="23" t="s">
         <v>875</v>
       </c>
       <c r="L944" s="7" t="s">
-        <v>1369</v>
+        <v>1315</v>
       </c>
       <c r="M944" s="10" t="s">
         <v>1652</v>
@@ -47483,32 +47494,24 @@
         <v>815</v>
       </c>
       <c r="D945" s="7" t="s">
-        <v>616</v>
+        <v>734</v>
       </c>
       <c r="E945" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F945" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G945" s="7">
-        <v>12</v>
+        <v>918</v>
+      </c>
+      <c r="G945" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H945" s="7" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I945" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J945" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="K945" s="23" t="s">
-        <v>875</v>
-      </c>
-      <c r="L945" s="7" t="s">
-        <v>1315</v>
-      </c>
+        <v>795</v>
+      </c>
+      <c r="I945" s="7"/>
+      <c r="J945" s="7"/>
+      <c r="K945" s="23"/>
+      <c r="L945" s="7"/>
       <c r="M945" s="10" t="s">
         <v>1652</v>
       </c>
@@ -47524,10 +47527,10 @@
         <v>815</v>
       </c>
       <c r="D946" s="7" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="E946" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F946" s="7" t="s">
         <v>918</v>
@@ -47536,7 +47539,7 @@
         <v>916</v>
       </c>
       <c r="H946" s="7" t="s">
-        <v>795</v>
+        <v>1283</v>
       </c>
       <c r="I946" s="7"/>
       <c r="J946" s="7"/>
@@ -47557,10 +47560,10 @@
         <v>815</v>
       </c>
       <c r="D947" s="7" t="s">
-        <v>700</v>
+        <v>773</v>
       </c>
       <c r="E947" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F947" s="7" t="s">
         <v>918</v>
@@ -47569,7 +47572,7 @@
         <v>916</v>
       </c>
       <c r="H947" s="7" t="s">
-        <v>1283</v>
+        <v>1225</v>
       </c>
       <c r="I947" s="7"/>
       <c r="J947" s="7"/>
@@ -47590,10 +47593,10 @@
         <v>815</v>
       </c>
       <c r="D948" s="7" t="s">
-        <v>773</v>
+        <v>710</v>
       </c>
       <c r="E948" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F948" s="7" t="s">
         <v>918</v>
@@ -47602,7 +47605,7 @@
         <v>916</v>
       </c>
       <c r="H948" s="7" t="s">
-        <v>1225</v>
+        <v>1275</v>
       </c>
       <c r="I948" s="7"/>
       <c r="J948" s="7"/>
@@ -47623,10 +47626,10 @@
         <v>815</v>
       </c>
       <c r="D949" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E949" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F949" s="7" t="s">
         <v>918</v>
@@ -47635,7 +47638,7 @@
         <v>916</v>
       </c>
       <c r="H949" s="7" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="I949" s="7"/>
       <c r="J949" s="7"/>
@@ -47656,19 +47659,19 @@
         <v>815</v>
       </c>
       <c r="D950" s="7" t="s">
-        <v>704</v>
+        <v>384</v>
       </c>
       <c r="E950" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F950" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G950" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H950" s="7" t="s">
-        <v>1279</v>
+        <v>1406</v>
       </c>
       <c r="I950" s="7"/>
       <c r="J950" s="7"/>
@@ -47689,24 +47692,32 @@
         <v>815</v>
       </c>
       <c r="D951" s="7" t="s">
-        <v>384</v>
+        <v>686</v>
       </c>
       <c r="E951" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F951" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G951" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G951" s="7">
+        <v>20</v>
       </c>
       <c r="H951" s="7" t="s">
-        <v>1406</v>
-      </c>
-      <c r="I951" s="7"/>
-      <c r="J951" s="7"/>
-      <c r="K951" s="23"/>
-      <c r="L951" s="7"/>
+        <v>1586</v>
+      </c>
+      <c r="I951" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J951" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K951" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L951" s="7" t="s">
+        <v>1586</v>
+      </c>
       <c r="M951" s="10" t="s">
         <v>1652</v>
       </c>
@@ -47722,32 +47733,24 @@
         <v>815</v>
       </c>
       <c r="D952" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="E952" s="7">
-        <v>46</v>
+        <v>1524</v>
+      </c>
+      <c r="E952" s="22">
+        <v>47</v>
       </c>
       <c r="F952" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G952" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H952" s="7" t="s">
-        <v>1586</v>
-      </c>
-      <c r="I952" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J952" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="K952" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="L952" s="7" t="s">
-        <v>1586</v>
-      </c>
+        <v>1524</v>
+      </c>
+      <c r="I952" s="7"/>
+      <c r="J952" s="7"/>
+      <c r="K952" s="23"/>
+      <c r="L952" s="7"/>
       <c r="M952" s="10" t="s">
         <v>1652</v>
       </c>
@@ -47763,19 +47766,17 @@
         <v>815</v>
       </c>
       <c r="D953" s="7" t="s">
-        <v>1524</v>
+        <v>1282</v>
       </c>
       <c r="E953" s="22">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F953" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G953" s="7">
-        <v>30</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="G953" s="7"/>
       <c r="H953" s="7" t="s">
-        <v>1524</v>
+        <v>1282</v>
       </c>
       <c r="I953" s="7"/>
       <c r="J953" s="7"/>
@@ -47796,17 +47797,17 @@
         <v>815</v>
       </c>
       <c r="D954" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E954" s="22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F954" s="7" t="s">
         <v>918</v>
       </c>
       <c r="G954" s="7"/>
       <c r="H954" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I954" s="7"/>
       <c r="J954" s="7"/>
@@ -47821,28 +47822,38 @@
         <v>1105</v>
       </c>
       <c r="B955" s="7" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C955" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D955" s="7" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E955" s="22">
-        <v>49</v>
+        <v>292</v>
+      </c>
+      <c r="E955" s="7">
+        <v>1</v>
       </c>
       <c r="F955" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G955" s="7"/>
+        <v>915</v>
+      </c>
+      <c r="G955" s="7" t="s">
+        <v>916</v>
+      </c>
       <c r="H955" s="7" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I955" s="7"/>
-      <c r="J955" s="7"/>
-      <c r="K955" s="23"/>
-      <c r="L955" s="7"/>
+        <v>1175</v>
+      </c>
+      <c r="I955" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J955" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K955" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L955" s="7" t="s">
+        <v>1175</v>
+      </c>
       <c r="M955" s="10" t="s">
         <v>1652</v>
       </c>
@@ -47858,31 +47869,31 @@
         <v>816</v>
       </c>
       <c r="D956" s="7" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="E956" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F956" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G956" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G956" s="7">
+        <v>12</v>
       </c>
       <c r="H956" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I956" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J956" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="K956" s="23" t="s">
         <v>837</v>
       </c>
       <c r="L956" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="M956" s="10" t="s">
         <v>1652</v>
@@ -47899,32 +47910,24 @@
         <v>816</v>
       </c>
       <c r="D957" s="7" t="s">
-        <v>212</v>
+        <v>502</v>
       </c>
       <c r="E957" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F957" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G957" s="7">
-        <v>12</v>
+        <v>915</v>
+      </c>
+      <c r="G957" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H957" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I957" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J957" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K957" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="L957" s="7" t="s">
-        <v>1174</v>
-      </c>
+        <v>1673</v>
+      </c>
+      <c r="I957" s="7"/>
+      <c r="J957" s="7"/>
+      <c r="K957" s="23"/>
+      <c r="L957" s="7"/>
       <c r="M957" s="10" t="s">
         <v>1652</v>
       </c>
@@ -47940,19 +47943,19 @@
         <v>816</v>
       </c>
       <c r="D958" s="7" t="s">
-        <v>502</v>
+        <v>627</v>
       </c>
       <c r="E958" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F958" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G958" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G958" s="7">
+        <v>16</v>
       </c>
       <c r="H958" s="7" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="I958" s="7"/>
       <c r="J958" s="7"/>
@@ -47973,24 +47976,32 @@
         <v>816</v>
       </c>
       <c r="D959" s="7" t="s">
-        <v>627</v>
+        <v>258</v>
       </c>
       <c r="E959" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F959" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G959" s="7">
-        <v>16</v>
+        <v>915</v>
+      </c>
+      <c r="G959" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H959" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I959" s="7"/>
-      <c r="J959" s="7"/>
-      <c r="K959" s="23"/>
-      <c r="L959" s="7"/>
+        <v>1453</v>
+      </c>
+      <c r="I959" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J959" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K959" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="L959" s="7" t="s">
+        <v>1453</v>
+      </c>
       <c r="M959" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48006,32 +48017,24 @@
         <v>816</v>
       </c>
       <c r="D960" s="7" t="s">
-        <v>258</v>
+        <v>2164</v>
       </c>
       <c r="E960" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F960" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G960" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G960" s="7">
+        <v>60</v>
       </c>
       <c r="H960" s="7" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I960" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J960" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K960" s="23" t="s">
-        <v>904</v>
-      </c>
-      <c r="L960" s="7" t="s">
-        <v>1453</v>
-      </c>
+        <v>2165</v>
+      </c>
+      <c r="I960" s="7"/>
+      <c r="J960" s="7"/>
+      <c r="K960" s="23"/>
+      <c r="L960" s="7"/>
       <c r="M960" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48047,19 +48050,19 @@
         <v>816</v>
       </c>
       <c r="D961" s="7" t="s">
-        <v>2164</v>
+        <v>156</v>
       </c>
       <c r="E961" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F961" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G961" s="7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H961" s="7" t="s">
-        <v>2165</v>
+        <v>1496</v>
       </c>
       <c r="I961" s="7"/>
       <c r="J961" s="7"/>
@@ -48080,19 +48083,19 @@
         <v>816</v>
       </c>
       <c r="D962" s="7" t="s">
-        <v>156</v>
+        <v>409</v>
       </c>
       <c r="E962" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F962" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G962" s="7">
-        <v>100</v>
+        <v>919</v>
+      </c>
+      <c r="G962" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H962" s="7" t="s">
-        <v>1496</v>
+        <v>409</v>
       </c>
       <c r="I962" s="7"/>
       <c r="J962" s="7"/>
@@ -48113,10 +48116,10 @@
         <v>816</v>
       </c>
       <c r="D963" s="7" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="E963" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F963" s="7" t="s">
         <v>919</v>
@@ -48125,7 +48128,7 @@
         <v>916</v>
       </c>
       <c r="H963" s="7" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="I963" s="7"/>
       <c r="J963" s="7"/>
@@ -48146,24 +48149,32 @@
         <v>816</v>
       </c>
       <c r="D964" s="7" t="s">
-        <v>387</v>
+        <v>230</v>
       </c>
       <c r="E964" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F964" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G964" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G964" s="7">
+        <v>20</v>
       </c>
       <c r="H964" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="I964" s="7"/>
-      <c r="J964" s="7"/>
-      <c r="K964" s="23"/>
-      <c r="L964" s="7"/>
+        <v>1460</v>
+      </c>
+      <c r="I964" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J964" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K964" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="L964" s="7" t="s">
+        <v>1613</v>
+      </c>
       <c r="M964" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48179,10 +48190,10 @@
         <v>816</v>
       </c>
       <c r="D965" s="7" t="s">
-        <v>230</v>
+        <v>686</v>
       </c>
       <c r="E965" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F965" s="7" t="s">
         <v>917</v>
@@ -48191,19 +48202,19 @@
         <v>20</v>
       </c>
       <c r="H965" s="7" t="s">
-        <v>1460</v>
+        <v>1586</v>
       </c>
       <c r="I965" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="J965" s="7" t="s">
-        <v>231</v>
+        <v>686</v>
       </c>
       <c r="K965" s="23" t="s">
-        <v>876</v>
+        <v>837</v>
       </c>
       <c r="L965" s="7" t="s">
-        <v>1613</v>
+        <v>1586</v>
       </c>
       <c r="M965" s="10" t="s">
         <v>1652</v>
@@ -48220,32 +48231,24 @@
         <v>816</v>
       </c>
       <c r="D966" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="E966" s="7">
-        <v>11</v>
+        <v>1524</v>
+      </c>
+      <c r="E966" s="22">
+        <v>12</v>
       </c>
       <c r="F966" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G966" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H966" s="7" t="s">
-        <v>1586</v>
-      </c>
-      <c r="I966" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J966" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="K966" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="L966" s="7" t="s">
-        <v>1586</v>
-      </c>
+        <v>1524</v>
+      </c>
+      <c r="I966" s="7"/>
+      <c r="J966" s="7"/>
+      <c r="K966" s="23"/>
+      <c r="L966" s="7"/>
       <c r="M966" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48255,30 +48258,38 @@
         <v>1105</v>
       </c>
       <c r="B967" s="7" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="C967" s="7" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D967" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E967" s="22">
-        <v>12</v>
+        <v>292</v>
+      </c>
+      <c r="E967" s="7">
+        <v>1</v>
       </c>
       <c r="F967" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G967" s="7">
-        <v>30</v>
+        <v>915</v>
+      </c>
+      <c r="G967" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H967" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I967" s="7"/>
-      <c r="J967" s="7"/>
-      <c r="K967" s="23"/>
-      <c r="L967" s="7"/>
+        <v>1175</v>
+      </c>
+      <c r="I967" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J967" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K967" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L967" s="7" t="s">
+        <v>1175</v>
+      </c>
       <c r="M967" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48294,31 +48305,31 @@
         <v>823</v>
       </c>
       <c r="D968" s="7" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="E968" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F968" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G968" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G968" s="7">
+        <v>6</v>
       </c>
       <c r="H968" s="7" t="s">
-        <v>1175</v>
+        <v>1485</v>
       </c>
       <c r="I968" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J968" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K968" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="L968" s="7" t="s">
-        <v>1175</v>
+        <v>1503</v>
       </c>
       <c r="M968" s="10" t="s">
         <v>1652</v>
@@ -48335,32 +48346,28 @@
         <v>823</v>
       </c>
       <c r="D969" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E969" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F969" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G969" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H969" s="7" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="I969" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="J969" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K969" s="23" t="s">
-        <v>835</v>
-      </c>
-      <c r="L969" s="7" t="s">
-        <v>1503</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K969" s="23"/>
+      <c r="L969" s="7"/>
       <c r="M969" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48376,26 +48383,22 @@
         <v>823</v>
       </c>
       <c r="D970" s="7" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="E970" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F970" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G970" s="7">
-        <v>12</v>
+        <v>919</v>
+      </c>
+      <c r="G970" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H970" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="I970" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J970" s="7" t="s">
-        <v>202</v>
-      </c>
+        <v>1420</v>
+      </c>
+      <c r="I970" s="7"/>
+      <c r="J970" s="7"/>
       <c r="K970" s="23"/>
       <c r="L970" s="7"/>
       <c r="M970" s="10" t="s">
@@ -48413,19 +48416,19 @@
         <v>823</v>
       </c>
       <c r="D971" s="7" t="s">
-        <v>322</v>
+        <v>765</v>
       </c>
       <c r="E971" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F971" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G971" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H971" s="7" t="s">
-        <v>1420</v>
+        <v>1231</v>
       </c>
       <c r="I971" s="7"/>
       <c r="J971" s="7"/>
@@ -48446,24 +48449,32 @@
         <v>823</v>
       </c>
       <c r="D972" s="7" t="s">
-        <v>765</v>
+        <v>671</v>
       </c>
       <c r="E972" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F972" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G972" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H972" s="7" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I972" s="7"/>
-      <c r="J972" s="7"/>
-      <c r="K972" s="23"/>
-      <c r="L972" s="7"/>
+        <v>2324</v>
+      </c>
+      <c r="I972" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J972" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K972" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="L972" s="7" t="s">
+        <v>1297</v>
+      </c>
       <c r="M972" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48479,65 +48490,65 @@
         <v>823</v>
       </c>
       <c r="D973" s="7" t="s">
-        <v>671</v>
+        <v>300</v>
       </c>
       <c r="E973" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F973" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="G973" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H973" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I973" s="7"/>
+      <c r="J973" s="7"/>
+      <c r="K973" s="23"/>
+      <c r="L973" s="7"/>
+      <c r="M973" s="10" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13">
+      <c r="A974" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B974" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C974" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D974" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E974" s="7">
+        <v>1</v>
+      </c>
+      <c r="F974" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="G973" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="H973" s="7" t="s">
-        <v>2324</v>
-      </c>
-      <c r="I973" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J973" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K973" s="23" t="s">
-        <v>881</v>
-      </c>
-      <c r="L973" s="7" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M973" s="10" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="974" spans="1:13">
-      <c r="A974" s="7" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B974" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="C974" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="D974" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E974" s="7">
-        <v>7</v>
-      </c>
-      <c r="F974" s="7" t="s">
-        <v>919</v>
-      </c>
       <c r="G974" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H974" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I974" s="7"/>
-      <c r="J974" s="7"/>
-      <c r="K974" s="23"/>
-      <c r="L974" s="7"/>
+        <v>1175</v>
+      </c>
+      <c r="I974" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J974" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K974" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L974" s="7" t="s">
+        <v>1175</v>
+      </c>
       <c r="M974" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48553,31 +48564,31 @@
         <v>826</v>
       </c>
       <c r="D975" s="7" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="E975" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F975" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G975" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G975" s="7">
+        <v>12</v>
       </c>
       <c r="H975" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I975" s="7" t="s">
         <v>73</v>
       </c>
       <c r="J975" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="K975" s="23" t="s">
         <v>837</v>
       </c>
       <c r="L975" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="M975" s="10" t="s">
         <v>1652</v>
@@ -48594,32 +48605,24 @@
         <v>826</v>
       </c>
       <c r="D976" s="7" t="s">
-        <v>212</v>
+        <v>515</v>
       </c>
       <c r="E976" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F976" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G976" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H976" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I976" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J976" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K976" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="L976" s="7" t="s">
-        <v>1174</v>
-      </c>
+        <v>1553</v>
+      </c>
+      <c r="I976" s="7"/>
+      <c r="J976" s="7"/>
+      <c r="K976" s="23"/>
+      <c r="L976" s="7"/>
       <c r="M976" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48635,10 +48638,10 @@
         <v>826</v>
       </c>
       <c r="D977" s="7" t="s">
-        <v>515</v>
+        <v>213</v>
       </c>
       <c r="E977" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F977" s="7" t="s">
         <v>917</v>
@@ -48647,12 +48650,20 @@
         <v>18</v>
       </c>
       <c r="H977" s="7" t="s">
-        <v>1553</v>
-      </c>
-      <c r="I977" s="7"/>
-      <c r="J977" s="7"/>
-      <c r="K977" s="23"/>
-      <c r="L977" s="7"/>
+        <v>1470</v>
+      </c>
+      <c r="I977" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J977" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K977" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="L977" s="7" t="s">
+        <v>1205</v>
+      </c>
       <c r="M977" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48668,31 +48679,31 @@
         <v>826</v>
       </c>
       <c r="D978" s="7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E978" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F978" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G978" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H978" s="7" t="s">
-        <v>1470</v>
+        <v>1369</v>
       </c>
       <c r="I978" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J978" s="7" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="K978" s="23" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="L978" s="7" t="s">
-        <v>1205</v>
+        <v>1369</v>
       </c>
       <c r="M978" s="10" t="s">
         <v>1652</v>
@@ -48709,31 +48720,31 @@
         <v>826</v>
       </c>
       <c r="D979" s="7" t="s">
-        <v>237</v>
+        <v>623</v>
       </c>
       <c r="E979" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F979" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G979" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H979" s="7" t="s">
-        <v>1369</v>
+        <v>1315</v>
       </c>
       <c r="I979" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J979" s="7" t="s">
-        <v>237</v>
+        <v>1109</v>
       </c>
       <c r="K979" s="23" t="s">
         <v>875</v>
       </c>
       <c r="L979" s="7" t="s">
-        <v>1369</v>
+        <v>1315</v>
       </c>
       <c r="M979" s="10" t="s">
         <v>1652</v>
@@ -48750,31 +48761,31 @@
         <v>826</v>
       </c>
       <c r="D980" s="7" t="s">
-        <v>623</v>
+        <v>196</v>
       </c>
       <c r="E980" s="7">
+        <v>7</v>
+      </c>
+      <c r="F980" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G980" s="7">
         <v>6</v>
       </c>
-      <c r="F980" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G980" s="7">
-        <v>2</v>
-      </c>
       <c r="H980" s="7" t="s">
-        <v>1315</v>
+        <v>1477</v>
       </c>
       <c r="I980" s="7" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="J980" s="7" t="s">
-        <v>1109</v>
+        <v>196</v>
       </c>
       <c r="K980" s="23" t="s">
-        <v>875</v>
+        <v>839</v>
       </c>
       <c r="L980" s="7" t="s">
-        <v>1315</v>
+        <v>1477</v>
       </c>
       <c r="M980" s="10" t="s">
         <v>1652</v>
@@ -48791,32 +48802,24 @@
         <v>826</v>
       </c>
       <c r="D981" s="7" t="s">
-        <v>196</v>
+        <v>779</v>
       </c>
       <c r="E981" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F981" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G981" s="7">
-        <v>6</v>
+        <v>918</v>
+      </c>
+      <c r="G981" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H981" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="I981" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J981" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K981" s="23" t="s">
-        <v>839</v>
-      </c>
-      <c r="L981" s="7" t="s">
-        <v>1477</v>
-      </c>
+        <v>1698</v>
+      </c>
+      <c r="I981" s="7"/>
+      <c r="J981" s="7"/>
+      <c r="K981" s="23"/>
+      <c r="L981" s="7"/>
       <c r="M981" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48832,24 +48835,32 @@
         <v>826</v>
       </c>
       <c r="D982" s="7" t="s">
-        <v>779</v>
+        <v>667</v>
       </c>
       <c r="E982" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F982" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G982" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G982" s="7">
+        <v>6</v>
       </c>
       <c r="H982" s="7" t="s">
-        <v>1698</v>
-      </c>
-      <c r="I982" s="7"/>
-      <c r="J982" s="7"/>
-      <c r="K982" s="23"/>
-      <c r="L982" s="7"/>
+        <v>1299</v>
+      </c>
+      <c r="I982" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J982" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K982" s="23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L982" s="7" t="s">
+        <v>1299</v>
+      </c>
       <c r="M982" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48865,32 +48876,24 @@
         <v>826</v>
       </c>
       <c r="D983" s="7" t="s">
-        <v>667</v>
+        <v>261</v>
       </c>
       <c r="E983" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F983" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G983" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H983" s="7" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I983" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J983" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K983" s="23" t="s">
-        <v>1141</v>
-      </c>
-      <c r="L983" s="7" t="s">
-        <v>1299</v>
-      </c>
+        <v>1454</v>
+      </c>
+      <c r="I983" s="7"/>
+      <c r="J983" s="7"/>
+      <c r="K983" s="23"/>
+      <c r="L983" s="7"/>
       <c r="M983" s="10" t="s">
         <v>1652</v>
       </c>
@@ -48906,21 +48909,23 @@
         <v>826</v>
       </c>
       <c r="D984" s="7" t="s">
-        <v>261</v>
+        <v>438</v>
       </c>
       <c r="E984" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F984" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G984" s="7">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="H984" s="7" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I984" s="7"/>
+        <v>1380</v>
+      </c>
+      <c r="I984" s="7" t="s">
+        <v>1128</v>
+      </c>
       <c r="J984" s="7"/>
       <c r="K984" s="23"/>
       <c r="L984" s="7"/>
@@ -48939,23 +48944,21 @@
         <v>826</v>
       </c>
       <c r="D985" s="7" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="E985" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F985" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G985" s="7">
-        <v>80</v>
+        <v>919</v>
+      </c>
+      <c r="G985" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H985" s="7" t="s">
-        <v>1380</v>
-      </c>
-      <c r="I985" s="7" t="s">
-        <v>1128</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="I985" s="7"/>
       <c r="J985" s="7"/>
       <c r="K985" s="23"/>
       <c r="L985" s="7"/>
@@ -48974,19 +48977,19 @@
         <v>826</v>
       </c>
       <c r="D986" s="7" t="s">
-        <v>394</v>
+        <v>693</v>
       </c>
       <c r="E986" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F986" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G986" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G986" s="7">
+        <v>32</v>
       </c>
       <c r="H986" s="7" t="s">
-        <v>394</v>
+        <v>1290</v>
       </c>
       <c r="I986" s="7"/>
       <c r="J986" s="7"/>
@@ -49007,19 +49010,19 @@
         <v>826</v>
       </c>
       <c r="D987" s="7" t="s">
-        <v>693</v>
+        <v>433</v>
       </c>
       <c r="E987" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F987" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G987" s="7">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="H987" s="7" t="s">
-        <v>1290</v>
+        <v>1391</v>
       </c>
       <c r="I987" s="7"/>
       <c r="J987" s="7"/>
@@ -49040,19 +49043,19 @@
         <v>826</v>
       </c>
       <c r="D988" s="7" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="E988" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F988" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G988" s="7">
-        <v>80</v>
+        <v>919</v>
+      </c>
+      <c r="G988" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H988" s="7" t="s">
-        <v>1391</v>
+        <v>382</v>
       </c>
       <c r="I988" s="7"/>
       <c r="J988" s="7"/>
@@ -49073,24 +49076,32 @@
         <v>826</v>
       </c>
       <c r="D989" s="7" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="E989" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F989" s="7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G989" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H989" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="I989" s="7"/>
-      <c r="J989" s="7"/>
-      <c r="K989" s="23"/>
-      <c r="L989" s="7"/>
+        <v>1445</v>
+      </c>
+      <c r="I989" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J989" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K989" s="23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L989" s="7" t="s">
+        <v>1445</v>
+      </c>
       <c r="M989" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49106,32 +49117,24 @@
         <v>826</v>
       </c>
       <c r="D990" s="7" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="E990" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F990" s="7" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="G990" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H990" s="7" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I990" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J990" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K990" s="23" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L990" s="7" t="s">
-        <v>1445</v>
-      </c>
+        <v>1414</v>
+      </c>
+      <c r="I990" s="7"/>
+      <c r="J990" s="7"/>
+      <c r="K990" s="23"/>
+      <c r="L990" s="7"/>
       <c r="M990" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49147,19 +49150,19 @@
         <v>826</v>
       </c>
       <c r="D991" s="7" t="s">
-        <v>329</v>
+        <v>694</v>
       </c>
       <c r="E991" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F991" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G991" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G991" s="7">
+        <v>32</v>
       </c>
       <c r="H991" s="7" t="s">
-        <v>1414</v>
+        <v>1289</v>
       </c>
       <c r="I991" s="7"/>
       <c r="J991" s="7"/>
@@ -49180,19 +49183,19 @@
         <v>826</v>
       </c>
       <c r="D992" s="7" t="s">
-        <v>694</v>
+        <v>398</v>
       </c>
       <c r="E992" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F992" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G992" s="7">
-        <v>32</v>
+        <v>919</v>
+      </c>
+      <c r="G992" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>1289</v>
+        <v>383</v>
       </c>
       <c r="I992" s="7"/>
       <c r="J992" s="7"/>
@@ -49202,7 +49205,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="993" spans="1:13">
+    <row r="993" spans="1:13" s="7" customFormat="1">
       <c r="A993" s="6" t="s">
         <v>1105</v>
       </c>
@@ -49213,29 +49216,26 @@
         <v>826</v>
       </c>
       <c r="D993" s="7" t="s">
-        <v>398</v>
+        <v>542</v>
       </c>
       <c r="E993" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F993" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G993" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G993" s="7">
+        <v>300</v>
       </c>
       <c r="H993" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I993" s="7"/>
-      <c r="J993" s="7"/>
+        <v>1367</v>
+      </c>
       <c r="K993" s="23"/>
-      <c r="L993" s="7"/>
       <c r="M993" s="10" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="994" spans="1:13" s="7" customFormat="1">
+    <row r="994" spans="1:13">
       <c r="A994" s="6" t="s">
         <v>1105</v>
       </c>
@@ -49246,21 +49246,32 @@
         <v>826</v>
       </c>
       <c r="D994" s="7" t="s">
-        <v>542</v>
+        <v>202</v>
       </c>
       <c r="E994" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F994" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G994" s="7">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="H994" s="7" t="s">
-        <v>1367</v>
-      </c>
-      <c r="K994" s="23"/>
+        <v>1475</v>
+      </c>
+      <c r="I994" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J994" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K994" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="L994" s="7" t="s">
+        <v>1475</v>
+      </c>
       <c r="M994" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49276,31 +49287,31 @@
         <v>826</v>
       </c>
       <c r="D995" s="7" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="E995" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F995" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G995" s="7">
-        <v>12</v>
+        <v>915</v>
+      </c>
+      <c r="G995" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H995" s="7" t="s">
-        <v>1475</v>
+        <v>1447</v>
       </c>
       <c r="I995" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J995" s="7" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="K995" s="23" t="s">
-        <v>860</v>
+        <v>1140</v>
       </c>
       <c r="L995" s="7" t="s">
-        <v>1475</v>
+        <v>1447</v>
       </c>
       <c r="M995" s="10" t="s">
         <v>1652</v>
@@ -49317,32 +49328,24 @@
         <v>826</v>
       </c>
       <c r="D996" s="7" t="s">
-        <v>262</v>
+        <v>738</v>
       </c>
       <c r="E996" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F996" s="7" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="G996" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H996" s="7" t="s">
-        <v>1447</v>
-      </c>
-      <c r="I996" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J996" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K996" s="23" t="s">
-        <v>1140</v>
-      </c>
-      <c r="L996" s="7" t="s">
-        <v>1447</v>
-      </c>
+        <v>1256</v>
+      </c>
+      <c r="I996" s="7"/>
+      <c r="J996" s="7"/>
+      <c r="K996" s="23"/>
+      <c r="L996" s="7"/>
       <c r="M996" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49358,10 +49361,10 @@
         <v>826</v>
       </c>
       <c r="D997" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E997" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F997" s="7" t="s">
         <v>918</v>
@@ -49370,7 +49373,7 @@
         <v>916</v>
       </c>
       <c r="H997" s="7" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="I997" s="7"/>
       <c r="J997" s="7"/>
@@ -49391,10 +49394,10 @@
         <v>826</v>
       </c>
       <c r="D998" s="7" t="s">
-        <v>737</v>
+        <v>781</v>
       </c>
       <c r="E998" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F998" s="7" t="s">
         <v>918</v>
@@ -49403,7 +49406,7 @@
         <v>916</v>
       </c>
       <c r="H998" s="7" t="s">
-        <v>1257</v>
+        <v>1219</v>
       </c>
       <c r="I998" s="7"/>
       <c r="J998" s="7"/>
@@ -49424,19 +49427,19 @@
         <v>826</v>
       </c>
       <c r="D999" s="7" t="s">
-        <v>781</v>
+        <v>429</v>
       </c>
       <c r="E999" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F999" s="7" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="G999" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H999" s="7" t="s">
-        <v>1219</v>
+        <v>1392</v>
       </c>
       <c r="I999" s="7"/>
       <c r="J999" s="7"/>
@@ -49457,24 +49460,32 @@
         <v>826</v>
       </c>
       <c r="D1000" s="7" t="s">
-        <v>429</v>
+        <v>686</v>
       </c>
       <c r="E1000" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1000" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="G1000" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1000" s="7">
+        <v>20</v>
       </c>
       <c r="H1000" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I1000" s="7"/>
-      <c r="J1000" s="7"/>
-      <c r="K1000" s="23"/>
-      <c r="L1000" s="7"/>
+        <v>1699</v>
+      </c>
+      <c r="I1000" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1000" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1000" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="L1000" s="7" t="s">
+        <v>1174</v>
+      </c>
       <c r="M1000" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49490,10 +49501,10 @@
         <v>826</v>
       </c>
       <c r="D1001" s="7" t="s">
-        <v>686</v>
+        <v>1129</v>
       </c>
       <c r="E1001" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1001" s="7" t="s">
         <v>917</v>
@@ -49502,19 +49513,19 @@
         <v>20</v>
       </c>
       <c r="H1001" s="7" t="s">
-        <v>1699</v>
+        <v>1440</v>
       </c>
       <c r="I1001" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="J1001" s="7" t="s">
-        <v>212</v>
+        <v>1129</v>
       </c>
       <c r="K1001" s="23" t="s">
-        <v>837</v>
+        <v>907</v>
       </c>
       <c r="L1001" s="7" t="s">
-        <v>1174</v>
+        <v>1646</v>
       </c>
       <c r="M1001" s="10" t="s">
         <v>1652</v>
@@ -49531,32 +49542,24 @@
         <v>826</v>
       </c>
       <c r="D1002" s="7" t="s">
-        <v>1129</v>
+        <v>796</v>
       </c>
       <c r="E1002" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1002" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1002" s="7">
-        <v>20</v>
+        <v>918</v>
+      </c>
+      <c r="G1002" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1002" s="7" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I1002" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1002" s="7" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K1002" s="23" t="s">
-        <v>907</v>
-      </c>
-      <c r="L1002" s="7" t="s">
-        <v>1646</v>
-      </c>
+        <v>1209</v>
+      </c>
+      <c r="I1002" s="7"/>
+      <c r="J1002" s="7"/>
+      <c r="K1002" s="23"/>
+      <c r="L1002" s="7"/>
       <c r="M1002" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49572,24 +49575,32 @@
         <v>826</v>
       </c>
       <c r="D1003" s="7" t="s">
-        <v>796</v>
+        <v>268</v>
       </c>
       <c r="E1003" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1003" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G1003" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1003" s="7" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I1003" s="7"/>
-      <c r="J1003" s="7"/>
-      <c r="K1003" s="23"/>
-      <c r="L1003" s="7"/>
+        <v>1298</v>
+      </c>
+      <c r="I1003" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1003" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1003" s="23" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L1003" s="7" t="s">
+        <v>1298</v>
+      </c>
       <c r="M1003" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49605,31 +49616,31 @@
         <v>826</v>
       </c>
       <c r="D1004" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E1004" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1004" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1004" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1004" s="7">
+        <v>20</v>
       </c>
       <c r="H1004" s="7" t="s">
-        <v>1298</v>
+        <v>1442</v>
       </c>
       <c r="I1004" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J1004" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K1004" s="23" t="s">
-        <v>1146</v>
+        <v>905</v>
       </c>
       <c r="L1004" s="7" t="s">
-        <v>1298</v>
+        <v>1442</v>
       </c>
       <c r="M1004" s="10" t="s">
         <v>1652</v>
@@ -49646,32 +49657,24 @@
         <v>826</v>
       </c>
       <c r="D1005" s="7" t="s">
-        <v>264</v>
+        <v>790</v>
       </c>
       <c r="E1005" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1005" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1005" s="7">
-        <v>20</v>
+        <v>918</v>
+      </c>
+      <c r="G1005" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1005" s="7" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I1005" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1005" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K1005" s="23" t="s">
-        <v>905</v>
-      </c>
-      <c r="L1005" s="7" t="s">
-        <v>1442</v>
-      </c>
+        <v>1213</v>
+      </c>
+      <c r="I1005" s="7"/>
+      <c r="J1005" s="7"/>
+      <c r="K1005" s="23"/>
+      <c r="L1005" s="7"/>
       <c r="M1005" s="10" t="s">
         <v>1652</v>
       </c>
@@ -49687,19 +49690,19 @@
         <v>826</v>
       </c>
       <c r="D1006" s="7" t="s">
-        <v>790</v>
+        <v>2410</v>
       </c>
       <c r="E1006" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1006" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G1006" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1006" s="7" t="s">
-        <v>1213</v>
+        <v>2410</v>
       </c>
       <c r="I1006" s="7"/>
       <c r="J1006" s="7"/>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="2412">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7263,6 +7263,9 @@
   </si>
   <si>
     <t>DT_CRIACAO</t>
+  </si>
+  <si>
+    <t>DT_ULTIMA_ATUALIZ_NF</t>
   </si>
 </sst>
 </file>
@@ -8418,6 +8421,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8427,20 +8439,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12975,7 +12978,7 @@
       <c r="A88" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B88" s="176" t="s">
+      <c r="B88" s="175" t="s">
         <v>914</v>
       </c>
       <c r="C88" s="36" t="s">
@@ -13011,7 +13014,7 @@
       <c r="A89" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B89" s="176"/>
+      <c r="B89" s="175"/>
       <c r="C89" s="36" t="s">
         <v>2011</v>
       </c>
@@ -13061,7 +13064,7 @@
       <c r="A91" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B91" s="176" t="s">
+      <c r="B91" s="175" t="s">
         <v>2014</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -13097,7 +13100,7 @@
       <c r="A92" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B92" s="176"/>
+      <c r="B92" s="175"/>
       <c r="C92" s="36" t="s">
         <v>2018</v>
       </c>
@@ -13131,7 +13134,7 @@
       <c r="A93" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B93" s="176"/>
+      <c r="B93" s="175"/>
       <c r="C93" s="36"/>
       <c r="D93" s="37" t="s">
         <v>1783</v>
@@ -13165,7 +13168,7 @@
       <c r="A94" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B94" s="176"/>
+      <c r="B94" s="175"/>
       <c r="C94" s="36"/>
       <c r="D94" s="37" t="s">
         <v>1783</v>
@@ -13199,7 +13202,7 @@
       <c r="A95" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B95" s="176"/>
+      <c r="B95" s="175"/>
       <c r="C95" s="36"/>
       <c r="D95" s="37" t="s">
         <v>1783</v>
@@ -13233,7 +13236,7 @@
       <c r="A96" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B96" s="176"/>
+      <c r="B96" s="175"/>
       <c r="C96" s="36" t="s">
         <v>2020</v>
       </c>
@@ -13267,7 +13270,7 @@
       <c r="A97" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B97" s="176"/>
+      <c r="B97" s="175"/>
       <c r="C97" s="64" t="s">
         <v>2022</v>
       </c>
@@ -13289,7 +13292,7 @@
       <c r="A98" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B98" s="176"/>
+      <c r="B98" s="175"/>
       <c r="C98" s="64" t="s">
         <v>2023</v>
       </c>
@@ -13311,7 +13314,7 @@
       <c r="A99" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B99" s="176"/>
+      <c r="B99" s="175"/>
       <c r="C99" s="64" t="s">
         <v>2024</v>
       </c>
@@ -13589,7 +13592,7 @@
       <c r="A109" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B109" s="176" t="s">
+      <c r="B109" s="175" t="s">
         <v>948</v>
       </c>
       <c r="C109" s="36" t="s">
@@ -13625,7 +13628,7 @@
       <c r="A110" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B110" s="176"/>
+      <c r="B110" s="175"/>
       <c r="C110" s="36" t="s">
         <v>2048</v>
       </c>
@@ -13659,7 +13662,7 @@
       <c r="A111" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B111" s="176"/>
+      <c r="B111" s="175"/>
       <c r="C111" s="36" t="s">
         <v>2050</v>
       </c>
@@ -13709,7 +13712,7 @@
       <c r="A113" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B113" s="176" t="s">
+      <c r="B113" s="175" t="s">
         <v>954</v>
       </c>
       <c r="C113" s="36" t="s">
@@ -13745,7 +13748,7 @@
       <c r="A114" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B114" s="176"/>
+      <c r="B114" s="175"/>
       <c r="C114" s="36" t="s">
         <v>2057</v>
       </c>
@@ -13847,7 +13850,7 @@
       <c r="A118" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B118" s="176" t="s">
+      <c r="B118" s="175" t="s">
         <v>2064</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -13883,7 +13886,7 @@
       <c r="A119" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B119" s="176"/>
+      <c r="B119" s="175"/>
       <c r="C119" s="36" t="s">
         <v>2069</v>
       </c>
@@ -13917,7 +13920,7 @@
       <c r="A120" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B120" s="176"/>
+      <c r="B120" s="175"/>
       <c r="C120" s="36" t="s">
         <v>2072</v>
       </c>
@@ -13951,7 +13954,7 @@
       <c r="A121" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B121" s="176"/>
+      <c r="B121" s="175"/>
       <c r="C121" s="36" t="s">
         <v>2075</v>
       </c>
@@ -14001,7 +14004,7 @@
       <c r="A123" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B123" s="176" t="s">
+      <c r="B123" s="175" t="s">
         <v>2078</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -14037,7 +14040,7 @@
       <c r="A124" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B124" s="176"/>
+      <c r="B124" s="175"/>
       <c r="C124" s="36" t="s">
         <v>2083</v>
       </c>
@@ -14071,7 +14074,7 @@
       <c r="A125" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B125" s="176"/>
+      <c r="B125" s="175"/>
       <c r="C125" s="36" t="s">
         <v>2086</v>
       </c>
@@ -14173,7 +14176,7 @@
       <c r="A129" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B129" s="175" t="s">
+      <c r="B129" s="178" t="s">
         <v>2094</v>
       </c>
       <c r="C129" s="52" t="s">
@@ -14203,7 +14206,7 @@
       <c r="A130" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B130" s="175"/>
+      <c r="B130" s="178"/>
       <c r="C130" s="52" t="s">
         <v>2097</v>
       </c>
@@ -14247,7 +14250,7 @@
       <c r="A132" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B132" s="176" t="s">
+      <c r="B132" s="175" t="s">
         <v>2098</v>
       </c>
       <c r="C132" s="36" t="s">
@@ -14283,7 +14286,7 @@
       <c r="A133" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B133" s="176"/>
+      <c r="B133" s="175"/>
       <c r="C133" s="36" t="s">
         <v>2103</v>
       </c>
@@ -14333,7 +14336,7 @@
       <c r="A135" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B135" s="176" t="s">
+      <c r="B135" s="175" t="s">
         <v>2106</v>
       </c>
       <c r="C135" s="36" t="s">
@@ -14369,7 +14372,7 @@
       <c r="A136" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B136" s="176"/>
+      <c r="B136" s="175"/>
       <c r="C136" s="36" t="s">
         <v>2111</v>
       </c>
@@ -14403,7 +14406,7 @@
       <c r="A137" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B137" s="176"/>
+      <c r="B137" s="175"/>
       <c r="C137" s="36" t="s">
         <v>2114</v>
       </c>
@@ -14437,7 +14440,7 @@
       <c r="A138" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B138" s="176"/>
+      <c r="B138" s="175"/>
       <c r="C138" s="36" t="s">
         <v>2117</v>
       </c>
@@ -14691,7 +14694,7 @@
       <c r="A147" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B147" s="176" t="s">
+      <c r="B147" s="175" t="s">
         <v>2137</v>
       </c>
       <c r="C147" s="36" t="s">
@@ -14727,7 +14730,7 @@
       <c r="A148" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B148" s="176"/>
+      <c r="B148" s="175"/>
       <c r="C148" s="36" t="s">
         <v>2142</v>
       </c>
@@ -14777,7 +14780,7 @@
       <c r="A150" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B150" s="173" t="s">
+      <c r="B150" s="176" t="s">
         <v>2342</v>
       </c>
       <c r="C150" s="132" t="s">
@@ -14813,7 +14816,7 @@
       <c r="A151" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B151" s="174"/>
+      <c r="B151" s="177"/>
       <c r="C151" s="132" t="s">
         <v>2145</v>
       </c>
@@ -14847,7 +14850,7 @@
       <c r="A152" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B152" s="174"/>
+      <c r="B152" s="177"/>
       <c r="C152" s="58" t="s">
         <v>2147</v>
       </c>
@@ -14881,7 +14884,7 @@
       <c r="A153" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B153" s="174"/>
+      <c r="B153" s="177"/>
       <c r="C153" s="58"/>
       <c r="D153" s="45" t="s">
         <v>1783</v>
@@ -14913,7 +14916,7 @@
       <c r="A154" s="34" t="s">
         <v>1985</v>
       </c>
-      <c r="B154" s="174"/>
+      <c r="B154" s="177"/>
       <c r="C154" s="58" t="s">
         <v>2149</v>
       </c>
@@ -14945,7 +14948,7 @@
       <c r="A155" s="34" t="s">
         <v>1985</v>
       </c>
-      <c r="B155" s="174"/>
+      <c r="B155" s="177"/>
       <c r="C155" s="58" t="s">
         <v>2150</v>
       </c>
@@ -14988,17 +14991,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B147:B148"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B91:B99"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="B113:B114"/>
     <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B147:B148"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15010,8 +15013,8 @@
   <dimension ref="A1:M1440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G273" sqref="G273"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H485" sqref="H485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -23860,16 +23863,16 @@
       <c r="C272" s="171" t="s">
         <v>2398</v>
       </c>
-      <c r="D272" s="179" t="s">
+      <c r="D272" s="173" t="s">
         <v>1205</v>
       </c>
-      <c r="E272" s="179">
+      <c r="E272" s="173">
         <v>11</v>
       </c>
-      <c r="F272" s="179" t="s">
-        <v>917</v>
-      </c>
-      <c r="G272" s="179">
+      <c r="F272" s="173" t="s">
+        <v>917</v>
+      </c>
+      <c r="G272" s="173">
         <v>18</v>
       </c>
       <c r="H272" s="7" t="s">
@@ -23887,7 +23890,7 @@
       <c r="L272" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="M272" s="180"/>
+      <c r="M272" s="174"/>
     </row>
     <row r="273" spans="1:13" ht="15.75" customHeight="1">
       <c r="A273" s="6" t="s">
@@ -31029,7 +31032,7 @@
         <v>916</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>683</v>
+        <v>2411</v>
       </c>
       <c r="I472" s="7"/>
       <c r="J472" s="7"/>
@@ -64737,19 +64740,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="180" t="s">
         <v>1064</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="H1" s="178" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="H1" s="180" t="s">
         <v>1103</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -64934,11 +64937,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14824" uniqueCount="2418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14824" uniqueCount="2417">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7128,9 +7128,6 @@
   </si>
   <si>
     <t>DT_PREVISTA_RECEBIMENTO</t>
-  </si>
-  <si>
-    <t>CD_STATUS_RECEBIMENTO</t>
   </si>
   <si>
     <t>CD_MOVIMENTO_TRANSACAO</t>
@@ -8454,6 +8451,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8461,9 +8461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13003,7 +13000,7 @@
       <c r="A88" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B88" s="181" t="s">
+      <c r="B88" s="178" t="s">
         <v>914</v>
       </c>
       <c r="C88" s="36" t="s">
@@ -13039,7 +13036,7 @@
       <c r="A89" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B89" s="181"/>
+      <c r="B89" s="178"/>
       <c r="C89" s="36" t="s">
         <v>2005</v>
       </c>
@@ -13089,7 +13086,7 @@
       <c r="A91" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B91" s="181" t="s">
+      <c r="B91" s="178" t="s">
         <v>2008</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -13125,7 +13122,7 @@
       <c r="A92" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B92" s="181"/>
+      <c r="B92" s="178"/>
       <c r="C92" s="36" t="s">
         <v>2012</v>
       </c>
@@ -13159,16 +13156,16 @@
       <c r="A93" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B93" s="181"/>
+      <c r="B93" s="178"/>
       <c r="C93" s="36"/>
       <c r="D93" s="37" t="s">
         <v>1777</v>
       </c>
       <c r="E93" s="38" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F93" s="38" t="s">
         <v>2382</v>
-      </c>
-      <c r="F93" s="38" t="s">
-        <v>2383</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>2361</v>
@@ -13177,7 +13174,7 @@
         <v>2011</v>
       </c>
       <c r="I93" s="56" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="J93" s="42" t="s">
         <v>1777</v>
@@ -13193,7 +13190,7 @@
       <c r="A94" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B94" s="181"/>
+      <c r="B94" s="178"/>
       <c r="C94" s="36"/>
       <c r="D94" s="37" t="s">
         <v>1777</v>
@@ -13227,25 +13224,25 @@
       <c r="A95" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B95" s="181"/>
+      <c r="B95" s="178"/>
       <c r="C95" s="36"/>
       <c r="D95" s="37" t="s">
         <v>1777</v>
       </c>
       <c r="E95" s="38" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F95" s="38" t="s">
         <v>2385</v>
       </c>
-      <c r="F95" s="38" t="s">
-        <v>2386</v>
-      </c>
       <c r="G95" s="39" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="H95" s="40" t="s">
         <v>2011</v>
       </c>
       <c r="I95" s="56" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="J95" s="42" t="s">
         <v>1777</v>
@@ -13261,7 +13258,7 @@
       <c r="A96" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B96" s="181"/>
+      <c r="B96" s="178"/>
       <c r="C96" s="36" t="s">
         <v>2014</v>
       </c>
@@ -13295,7 +13292,7 @@
       <c r="A97" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B97" s="181"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="64" t="s">
         <v>2016</v>
       </c>
@@ -13317,7 +13314,7 @@
       <c r="A98" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B98" s="181"/>
+      <c r="B98" s="178"/>
       <c r="C98" s="64" t="s">
         <v>2017</v>
       </c>
@@ -13339,7 +13336,7 @@
       <c r="A99" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B99" s="181"/>
+      <c r="B99" s="178"/>
       <c r="C99" s="64" t="s">
         <v>2018</v>
       </c>
@@ -13617,7 +13614,7 @@
       <c r="A109" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B109" s="181" t="s">
+      <c r="B109" s="178" t="s">
         <v>948</v>
       </c>
       <c r="C109" s="36" t="s">
@@ -13653,7 +13650,7 @@
       <c r="A110" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B110" s="181"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="36" t="s">
         <v>2042</v>
       </c>
@@ -13687,7 +13684,7 @@
       <c r="A111" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B111" s="181"/>
+      <c r="B111" s="178"/>
       <c r="C111" s="36" t="s">
         <v>2044</v>
       </c>
@@ -13737,7 +13734,7 @@
       <c r="A113" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B113" s="181" t="s">
+      <c r="B113" s="178" t="s">
         <v>954</v>
       </c>
       <c r="C113" s="36" t="s">
@@ -13773,7 +13770,7 @@
       <c r="A114" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B114" s="181"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="36" t="s">
         <v>2051</v>
       </c>
@@ -13875,7 +13872,7 @@
       <c r="A118" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B118" s="181" t="s">
+      <c r="B118" s="178" t="s">
         <v>2058</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -13911,7 +13908,7 @@
       <c r="A119" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B119" s="181"/>
+      <c r="B119" s="178"/>
       <c r="C119" s="36" t="s">
         <v>2063</v>
       </c>
@@ -13945,7 +13942,7 @@
       <c r="A120" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B120" s="181"/>
+      <c r="B120" s="178"/>
       <c r="C120" s="36" t="s">
         <v>2066</v>
       </c>
@@ -13979,7 +13976,7 @@
       <c r="A121" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B121" s="181"/>
+      <c r="B121" s="178"/>
       <c r="C121" s="36" t="s">
         <v>2069</v>
       </c>
@@ -14029,7 +14026,7 @@
       <c r="A123" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B123" s="181" t="s">
+      <c r="B123" s="178" t="s">
         <v>2072</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -14065,7 +14062,7 @@
       <c r="A124" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B124" s="181"/>
+      <c r="B124" s="178"/>
       <c r="C124" s="36" t="s">
         <v>2077</v>
       </c>
@@ -14099,7 +14096,7 @@
       <c r="A125" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B125" s="181"/>
+      <c r="B125" s="178"/>
       <c r="C125" s="36" t="s">
         <v>2080</v>
       </c>
@@ -14201,7 +14198,7 @@
       <c r="A129" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B129" s="180" t="s">
+      <c r="B129" s="181" t="s">
         <v>2088</v>
       </c>
       <c r="C129" s="52" t="s">
@@ -14231,7 +14228,7 @@
       <c r="A130" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B130" s="180"/>
+      <c r="B130" s="181"/>
       <c r="C130" s="52" t="s">
         <v>2091</v>
       </c>
@@ -14275,7 +14272,7 @@
       <c r="A132" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B132" s="181" t="s">
+      <c r="B132" s="178" t="s">
         <v>2092</v>
       </c>
       <c r="C132" s="36" t="s">
@@ -14311,7 +14308,7 @@
       <c r="A133" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B133" s="181"/>
+      <c r="B133" s="178"/>
       <c r="C133" s="36" t="s">
         <v>2097</v>
       </c>
@@ -14361,7 +14358,7 @@
       <c r="A135" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B135" s="181" t="s">
+      <c r="B135" s="178" t="s">
         <v>2100</v>
       </c>
       <c r="C135" s="36" t="s">
@@ -14397,7 +14394,7 @@
       <c r="A136" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B136" s="181"/>
+      <c r="B136" s="178"/>
       <c r="C136" s="36" t="s">
         <v>2105</v>
       </c>
@@ -14431,7 +14428,7 @@
       <c r="A137" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B137" s="181"/>
+      <c r="B137" s="178"/>
       <c r="C137" s="36" t="s">
         <v>2108</v>
       </c>
@@ -14465,7 +14462,7 @@
       <c r="A138" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B138" s="181"/>
+      <c r="B138" s="178"/>
       <c r="C138" s="36" t="s">
         <v>2111</v>
       </c>
@@ -14719,7 +14716,7 @@
       <c r="A147" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B147" s="181" t="s">
+      <c r="B147" s="178" t="s">
         <v>2131</v>
       </c>
       <c r="C147" s="36" t="s">
@@ -14755,7 +14752,7 @@
       <c r="A148" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B148" s="181"/>
+      <c r="B148" s="178"/>
       <c r="C148" s="36" t="s">
         <v>2136</v>
       </c>
@@ -14805,7 +14802,7 @@
       <c r="A150" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B150" s="178" t="s">
+      <c r="B150" s="179" t="s">
         <v>2336</v>
       </c>
       <c r="C150" s="132" t="s">
@@ -14841,7 +14838,7 @@
       <c r="A151" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B151" s="179"/>
+      <c r="B151" s="180"/>
       <c r="C151" s="132" t="s">
         <v>2139</v>
       </c>
@@ -14875,7 +14872,7 @@
       <c r="A152" s="34" t="s">
         <v>1653</v>
       </c>
-      <c r="B152" s="179"/>
+      <c r="B152" s="180"/>
       <c r="C152" s="58" t="s">
         <v>2141</v>
       </c>
@@ -14909,7 +14906,7 @@
       <c r="A153" s="34" t="s">
         <v>1652</v>
       </c>
-      <c r="B153" s="179"/>
+      <c r="B153" s="180"/>
       <c r="C153" s="58"/>
       <c r="D153" s="45" t="s">
         <v>1777</v>
@@ -14941,7 +14938,7 @@
       <c r="A154" s="34" t="s">
         <v>1979</v>
       </c>
-      <c r="B154" s="179"/>
+      <c r="B154" s="180"/>
       <c r="C154" s="58" t="s">
         <v>2143</v>
       </c>
@@ -14973,7 +14970,7 @@
       <c r="A155" s="34" t="s">
         <v>1979</v>
       </c>
-      <c r="B155" s="179"/>
+      <c r="B155" s="180"/>
       <c r="C155" s="58" t="s">
         <v>2144</v>
       </c>
@@ -15016,17 +15013,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B147:B148"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B91:B99"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="B113:B114"/>
     <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B147:B148"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15038,8 +15035,8 @@
   <dimension ref="A1:M1458"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A775" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C842" sqref="C842"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17027,7 +17024,7 @@
         <v>1832</v>
       </c>
       <c r="D62" s="157" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="E62" s="157">
         <v>1</v>
@@ -17039,7 +17036,7 @@
         <v>916</v>
       </c>
       <c r="H62" s="157" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="I62" s="157"/>
       <c r="J62" s="157"/>
@@ -17060,7 +17057,7 @@
         <v>1832</v>
       </c>
       <c r="D63" s="157" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E63" s="157">
         <v>2</v>
@@ -17072,7 +17069,7 @@
         <v>140</v>
       </c>
       <c r="H63" s="157" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="I63" s="157"/>
       <c r="J63" s="157"/>
@@ -17622,10 +17619,10 @@
         <v>1106</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>1314</v>
@@ -17655,13 +17652,13 @@
         <v>1106</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>2401</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>2402</v>
       </c>
       <c r="E82" s="7">
         <v>2</v>
@@ -17673,7 +17670,7 @@
         <v>20</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -18804,7 +18801,7 @@
         <v>20</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="I117" s="157"/>
       <c r="J117" s="157"/>
@@ -19178,7 +19175,7 @@
         <v>2</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="G129" s="7">
         <v>2</v>
@@ -23553,13 +23550,13 @@
         <v>1105</v>
       </c>
       <c r="B262" s="171" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C262" s="171" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D262" s="171" t="s">
         <v>2392</v>
-      </c>
-      <c r="C262" s="171" t="s">
-        <v>2392</v>
-      </c>
-      <c r="D262" s="171" t="s">
-        <v>2393</v>
       </c>
       <c r="E262" s="171">
         <v>1</v>
@@ -23571,7 +23568,7 @@
         <v>6</v>
       </c>
       <c r="H262" s="171" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="I262" s="171"/>
       <c r="J262" s="171"/>
@@ -23586,13 +23583,13 @@
         <v>1105</v>
       </c>
       <c r="B263" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C263" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D263" s="171" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E263" s="171">
         <v>2</v>
@@ -23604,7 +23601,7 @@
         <v>916</v>
       </c>
       <c r="H263" s="171" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="I263" s="171"/>
       <c r="J263" s="171"/>
@@ -23619,10 +23616,10 @@
         <v>1105</v>
       </c>
       <c r="B264" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C264" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D264" s="171" t="s">
         <v>1443</v>
@@ -23652,13 +23649,13 @@
         <v>1105</v>
       </c>
       <c r="B265" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C265" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D265" s="171" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E265" s="171">
         <v>4</v>
@@ -23670,7 +23667,7 @@
         <v>916</v>
       </c>
       <c r="H265" s="171" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="I265" s="171"/>
       <c r="J265" s="171"/>
@@ -23685,13 +23682,13 @@
         <v>1105</v>
       </c>
       <c r="B266" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C266" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D266" s="171" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="E266" s="171">
         <v>5</v>
@@ -23703,7 +23700,7 @@
         <v>916</v>
       </c>
       <c r="H266" s="171" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="I266" s="171"/>
       <c r="J266" s="171"/>
@@ -23718,13 +23715,13 @@
         <v>1105</v>
       </c>
       <c r="B267" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C267" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D267" s="171" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E267" s="171">
         <v>6</v>
@@ -23736,7 +23733,7 @@
         <v>6</v>
       </c>
       <c r="H267" s="171" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="I267" s="171"/>
       <c r="J267" s="171"/>
@@ -23751,13 +23748,13 @@
         <v>1105</v>
       </c>
       <c r="B268" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C268" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D268" s="171" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E268" s="171">
         <v>7</v>
@@ -23769,7 +23766,7 @@
         <v>916</v>
       </c>
       <c r="H268" s="171" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="I268" s="171"/>
       <c r="J268" s="171"/>
@@ -23784,10 +23781,10 @@
         <v>1105</v>
       </c>
       <c r="B269" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C269" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D269" s="171" t="s">
         <v>1182</v>
@@ -23817,13 +23814,13 @@
         <v>1105</v>
       </c>
       <c r="B270" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C270" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="E270" s="7">
         <v>9</v>
@@ -23835,7 +23832,7 @@
         <v>2180</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
@@ -23850,13 +23847,13 @@
         <v>1105</v>
       </c>
       <c r="B271" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C271" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E271" s="7">
         <v>10</v>
@@ -23868,7 +23865,7 @@
         <v>2180</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
@@ -23883,10 +23880,10 @@
         <v>1105</v>
       </c>
       <c r="B272" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C272" s="171" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D272" s="173" t="s">
         <v>1205</v>
@@ -25741,13 +25738,13 @@
         <v>2150</v>
       </c>
       <c r="I323" s="7" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="J323" s="7" t="s">
         <v>1578</v>
       </c>
       <c r="K323" s="7" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="L323" s="7" t="s">
         <v>1578</v>
@@ -27204,10 +27201,10 @@
         <v>1105</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D363" s="7" t="s">
         <v>1182</v>
@@ -27237,10 +27234,10 @@
         <v>1105</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D364" s="7" t="s">
         <v>1175</v>
@@ -27270,10 +27267,10 @@
         <v>1105</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>1174</v>
@@ -27303,13 +27300,13 @@
         <v>1105</v>
       </c>
       <c r="B366" s="7" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D366" s="7" t="s">
         <v>2372</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>2372</v>
-      </c>
-      <c r="D366" s="7" t="s">
-        <v>2373</v>
       </c>
       <c r="E366" s="7">
         <v>4</v>
@@ -27321,7 +27318,7 @@
         <v>20</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="I366" s="7"/>
       <c r="J366" s="7"/>
@@ -27336,13 +27333,13 @@
         <v>1105</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E367" s="7">
         <v>5</v>
@@ -27354,7 +27351,7 @@
         <v>916</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I367" s="7"/>
       <c r="J367" s="7"/>
@@ -27369,13 +27366,13 @@
         <v>1105</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E368" s="7">
         <v>6</v>
@@ -27387,7 +27384,7 @@
         <v>916</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="I368" s="7"/>
       <c r="J368" s="7"/>
@@ -27402,13 +27399,13 @@
         <v>1105</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="E369" s="7">
         <v>7</v>
@@ -27420,7 +27417,7 @@
         <v>916</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I369" s="7"/>
       <c r="J369" s="7"/>
@@ -27435,13 +27432,13 @@
         <v>1105</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E370" s="7">
         <v>8</v>
@@ -27453,7 +27450,7 @@
         <v>916</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="I370" s="7"/>
       <c r="J370" s="7"/>
@@ -27468,13 +27465,13 @@
         <v>1105</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E371" s="7">
         <v>9</v>
@@ -27486,7 +27483,7 @@
         <v>20</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="I371" s="7"/>
       <c r="J371" s="7"/>
@@ -27501,13 +27498,13 @@
         <v>1105</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E372" s="7">
         <v>10</v>
@@ -27519,7 +27516,7 @@
         <v>916</v>
       </c>
       <c r="H372" s="7" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="I372" s="7"/>
       <c r="J372" s="7"/>
@@ -27534,13 +27531,13 @@
         <v>1105</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E373" s="7">
         <v>11</v>
@@ -27552,7 +27549,7 @@
         <v>916</v>
       </c>
       <c r="H373" s="7" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="I373" s="7"/>
       <c r="J373" s="7"/>
@@ -27567,13 +27564,13 @@
         <v>1105</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E374" s="7">
         <v>12</v>
@@ -27585,7 +27582,7 @@
         <v>916</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="I374" s="7"/>
       <c r="J374" s="7"/>
@@ -31053,7 +31050,7 @@
         <v>2364</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>2366</v>
+        <v>1309</v>
       </c>
       <c r="E472" s="157">
         <v>7</v>
@@ -31065,7 +31062,7 @@
         <v>916</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>2366</v>
+        <v>1309</v>
       </c>
       <c r="I472" s="157" t="s">
         <v>899</v>
@@ -31139,7 +31136,7 @@
         <v>916</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="I474" s="7"/>
       <c r="J474" s="7"/>
@@ -32743,7 +32740,7 @@
         <v>850</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E520" s="22">
         <v>47</v>
@@ -32755,7 +32752,7 @@
         <v>30</v>
       </c>
       <c r="H520" s="7" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="I520" s="7"/>
       <c r="J520" s="7"/>
@@ -32772,7 +32769,7 @@
         <v>850</v>
       </c>
       <c r="D521" s="7" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E521" s="22">
         <v>48</v>
@@ -32784,7 +32781,7 @@
         <v>30</v>
       </c>
       <c r="H521" s="7" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="I521" s="7"/>
       <c r="J521" s="7"/>
@@ -37834,7 +37831,7 @@
         <v>1138</v>
       </c>
       <c r="D663" s="171" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E663" s="171">
         <v>25</v>
@@ -37846,7 +37843,7 @@
         <v>916</v>
       </c>
       <c r="H663" s="171" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="I663" s="171"/>
       <c r="J663" s="171"/>
@@ -37867,7 +37864,7 @@
         <v>1138</v>
       </c>
       <c r="D664" s="171" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E664" s="171">
         <v>26</v>
@@ -37879,7 +37876,7 @@
         <v>80</v>
       </c>
       <c r="H664" s="171" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="I664" s="171"/>
       <c r="J664" s="171"/>
@@ -37900,7 +37897,7 @@
         <v>1138</v>
       </c>
       <c r="D665" s="173" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E665" s="173">
         <v>27</v>
@@ -37912,7 +37909,7 @@
         <v>916</v>
       </c>
       <c r="H665" s="173" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="I665" s="173"/>
       <c r="J665" s="173"/>
@@ -43333,13 +43330,13 @@
         <v>1314</v>
       </c>
       <c r="I823" s="7" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="J823" s="7" t="s">
         <v>1314</v>
       </c>
       <c r="K823" s="7" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L823" s="7" t="s">
         <v>1314</v>
@@ -44725,10 +44722,10 @@
         <v>1105</v>
       </c>
       <c r="B864" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C864" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D864" s="173" t="s">
         <v>1376</v>
@@ -44766,10 +44763,10 @@
         <v>1105</v>
       </c>
       <c r="B865" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C865" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D865" s="173" t="s">
         <v>1278</v>
@@ -44799,13 +44796,13 @@
         <v>1105</v>
       </c>
       <c r="B866" s="173" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C866" s="173" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D866" s="173" t="s">
         <v>2415</v>
-      </c>
-      <c r="C866" s="173" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D866" s="173" t="s">
-        <v>2416</v>
       </c>
       <c r="E866" s="173">
         <v>3</v>
@@ -44817,7 +44814,7 @@
         <v>916</v>
       </c>
       <c r="H866" s="173" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="I866" s="173"/>
       <c r="J866" s="173"/>
@@ -44832,13 +44829,13 @@
         <v>1105</v>
       </c>
       <c r="B867" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C867" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D867" s="173" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E867" s="173">
         <v>4</v>
@@ -44850,7 +44847,7 @@
         <v>916</v>
       </c>
       <c r="H867" s="173" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="I867" s="173"/>
       <c r="J867" s="173"/>
@@ -44865,10 +44862,10 @@
         <v>1105</v>
       </c>
       <c r="B868" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C868" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D868" s="173" t="s">
         <v>1174</v>
@@ -44906,10 +44903,10 @@
         <v>1105</v>
       </c>
       <c r="B869" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C869" s="173" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D869" s="173" t="s">
         <v>1586</v>
@@ -50130,7 +50127,7 @@
         <v>826</v>
       </c>
       <c r="D1016" s="7" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E1016" s="7">
         <v>33</v>
@@ -50142,7 +50139,7 @@
         <v>916</v>
       </c>
       <c r="H1016" s="7" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="I1016" s="7"/>
       <c r="J1016" s="7"/>
@@ -52229,7 +52226,7 @@
         <v>916</v>
       </c>
       <c r="H1075" s="7" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="I1075" s="7"/>
       <c r="J1075" s="7"/>
@@ -52262,7 +52259,7 @@
         <v>916</v>
       </c>
       <c r="H1076" s="7" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="I1076" s="7"/>
       <c r="J1076" s="7"/>
@@ -62947,13 +62944,13 @@
         <v>1105</v>
       </c>
       <c r="B1381" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1381" s="177" t="s">
         <v>2407</v>
       </c>
-      <c r="C1381" s="177" t="s">
+      <c r="D1381" s="173" t="s">
         <v>2408</v>
-      </c>
-      <c r="D1381" s="173" t="s">
-        <v>2409</v>
       </c>
       <c r="E1381" s="173">
         <v>1</v>
@@ -62965,7 +62962,7 @@
         <v>94</v>
       </c>
       <c r="H1381" s="173" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="I1381" s="173"/>
       <c r="J1381" s="173"/>
@@ -62980,10 +62977,10 @@
         <v>1105</v>
       </c>
       <c r="B1382" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1382" s="177" t="s">
         <v>2407</v>
-      </c>
-      <c r="C1382" s="177" t="s">
-        <v>2408</v>
       </c>
       <c r="D1382" s="173" t="s">
         <v>1376</v>
@@ -63013,13 +63010,13 @@
         <v>1105</v>
       </c>
       <c r="B1383" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1383" s="177" t="s">
         <v>2407</v>
       </c>
-      <c r="C1383" s="177" t="s">
-        <v>2408</v>
-      </c>
       <c r="D1383" s="173" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E1383" s="173">
         <v>3</v>
@@ -63031,7 +63028,7 @@
         <v>40</v>
       </c>
       <c r="H1383" s="173" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="I1383" s="173"/>
       <c r="J1383" s="173"/>
@@ -63046,13 +63043,13 @@
         <v>1105</v>
       </c>
       <c r="B1384" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1384" s="177" t="s">
         <v>2407</v>
       </c>
-      <c r="C1384" s="177" t="s">
-        <v>2408</v>
-      </c>
       <c r="D1384" s="173" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E1384" s="173">
         <v>4</v>
@@ -63064,7 +63061,7 @@
         <v>40</v>
       </c>
       <c r="H1384" s="173" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="I1384" s="173"/>
       <c r="J1384" s="173"/>
@@ -63079,10 +63076,10 @@
         <v>1105</v>
       </c>
       <c r="B1385" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1385" s="177" t="s">
         <v>2407</v>
-      </c>
-      <c r="C1385" s="177" t="s">
-        <v>2408</v>
       </c>
       <c r="D1385" s="173" t="s">
         <v>1206</v>
@@ -63112,13 +63109,13 @@
         <v>1105</v>
       </c>
       <c r="B1386" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1386" s="177" t="s">
         <v>2407</v>
       </c>
-      <c r="C1386" s="177" t="s">
-        <v>2408</v>
-      </c>
       <c r="D1386" s="173" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E1386" s="173">
         <v>6</v>
@@ -63130,7 +63127,7 @@
         <v>916</v>
       </c>
       <c r="H1386" s="173" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="I1386" s="173"/>
       <c r="J1386" s="173"/>
@@ -63145,13 +63142,13 @@
         <v>1105</v>
       </c>
       <c r="B1387" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1387" s="177" t="s">
         <v>2407</v>
       </c>
-      <c r="C1387" s="177" t="s">
-        <v>2408</v>
-      </c>
       <c r="D1387" s="173" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E1387" s="173">
         <v>7</v>
@@ -63163,7 +63160,7 @@
         <v>916</v>
       </c>
       <c r="H1387" s="173" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="I1387" s="173"/>
       <c r="J1387" s="173"/>
@@ -63178,13 +63175,13 @@
         <v>1105</v>
       </c>
       <c r="B1388" s="177" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1388" s="177" t="s">
         <v>2407</v>
       </c>
-      <c r="C1388" s="177" t="s">
-        <v>2408</v>
-      </c>
       <c r="D1388" s="173" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E1388" s="173">
         <v>8</v>
@@ -63196,7 +63193,7 @@
         <v>916</v>
       </c>
       <c r="H1388" s="173" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="I1388" s="173"/>
       <c r="J1388" s="173"/>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Plan1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1465</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1466</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$J$157</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14884" uniqueCount="2423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14892" uniqueCount="2423">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7305,7 +7305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7408,6 +7408,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7945,7 +7951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -8470,9 +8476,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8482,11 +8485,23 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8787,8 +8802,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:M1465" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M1465">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:M1466" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M1466">
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="13">
@@ -13021,7 +13036,7 @@
       <c r="A88" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B88" s="178" t="s">
+      <c r="B88" s="181" t="s">
         <v>914</v>
       </c>
       <c r="C88" s="36" t="s">
@@ -13057,7 +13072,7 @@
       <c r="A89" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B89" s="178"/>
+      <c r="B89" s="181"/>
       <c r="C89" s="36" t="s">
         <v>2002</v>
       </c>
@@ -13107,7 +13122,7 @@
       <c r="A91" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B91" s="178" t="s">
+      <c r="B91" s="181" t="s">
         <v>2005</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -13143,7 +13158,7 @@
       <c r="A92" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B92" s="178"/>
+      <c r="B92" s="181"/>
       <c r="C92" s="36" t="s">
         <v>2009</v>
       </c>
@@ -13177,7 +13192,7 @@
       <c r="A93" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B93" s="178"/>
+      <c r="B93" s="181"/>
       <c r="C93" s="36"/>
       <c r="D93" s="37" t="s">
         <v>1775</v>
@@ -13211,7 +13226,7 @@
       <c r="A94" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B94" s="178"/>
+      <c r="B94" s="181"/>
       <c r="C94" s="36"/>
       <c r="D94" s="37" t="s">
         <v>1775</v>
@@ -13245,7 +13260,7 @@
       <c r="A95" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B95" s="178"/>
+      <c r="B95" s="181"/>
       <c r="C95" s="36"/>
       <c r="D95" s="37" t="s">
         <v>1775</v>
@@ -13279,7 +13294,7 @@
       <c r="A96" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B96" s="178"/>
+      <c r="B96" s="181"/>
       <c r="C96" s="36" t="s">
         <v>2011</v>
       </c>
@@ -13313,7 +13328,7 @@
       <c r="A97" s="34" t="s">
         <v>1650</v>
       </c>
-      <c r="B97" s="178"/>
+      <c r="B97" s="181"/>
       <c r="C97" s="64" t="s">
         <v>2013</v>
       </c>
@@ -13335,7 +13350,7 @@
       <c r="A98" s="34" t="s">
         <v>1650</v>
       </c>
-      <c r="B98" s="178"/>
+      <c r="B98" s="181"/>
       <c r="C98" s="64" t="s">
         <v>2014</v>
       </c>
@@ -13357,7 +13372,7 @@
       <c r="A99" s="34" t="s">
         <v>1650</v>
       </c>
-      <c r="B99" s="178"/>
+      <c r="B99" s="181"/>
       <c r="C99" s="64" t="s">
         <v>2015</v>
       </c>
@@ -13635,7 +13650,7 @@
       <c r="A109" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B109" s="178" t="s">
+      <c r="B109" s="181" t="s">
         <v>948</v>
       </c>
       <c r="C109" s="36" t="s">
@@ -13671,7 +13686,7 @@
       <c r="A110" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B110" s="178"/>
+      <c r="B110" s="181"/>
       <c r="C110" s="36" t="s">
         <v>2039</v>
       </c>
@@ -13705,7 +13720,7 @@
       <c r="A111" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B111" s="178"/>
+      <c r="B111" s="181"/>
       <c r="C111" s="36" t="s">
         <v>2041</v>
       </c>
@@ -13755,7 +13770,7 @@
       <c r="A113" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B113" s="178" t="s">
+      <c r="B113" s="181" t="s">
         <v>954</v>
       </c>
       <c r="C113" s="36" t="s">
@@ -13791,7 +13806,7 @@
       <c r="A114" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B114" s="178"/>
+      <c r="B114" s="181"/>
       <c r="C114" s="36" t="s">
         <v>2048</v>
       </c>
@@ -13893,7 +13908,7 @@
       <c r="A118" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B118" s="178" t="s">
+      <c r="B118" s="181" t="s">
         <v>2055</v>
       </c>
       <c r="C118" s="36" t="s">
@@ -13929,7 +13944,7 @@
       <c r="A119" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B119" s="178"/>
+      <c r="B119" s="181"/>
       <c r="C119" s="36" t="s">
         <v>2060</v>
       </c>
@@ -13963,7 +13978,7 @@
       <c r="A120" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B120" s="178"/>
+      <c r="B120" s="181"/>
       <c r="C120" s="36" t="s">
         <v>2063</v>
       </c>
@@ -13997,7 +14012,7 @@
       <c r="A121" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B121" s="178"/>
+      <c r="B121" s="181"/>
       <c r="C121" s="36" t="s">
         <v>2066</v>
       </c>
@@ -14047,7 +14062,7 @@
       <c r="A123" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B123" s="178" t="s">
+      <c r="B123" s="181" t="s">
         <v>2069</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -14083,7 +14098,7 @@
       <c r="A124" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B124" s="178"/>
+      <c r="B124" s="181"/>
       <c r="C124" s="36" t="s">
         <v>2074</v>
       </c>
@@ -14117,7 +14132,7 @@
       <c r="A125" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B125" s="178"/>
+      <c r="B125" s="181"/>
       <c r="C125" s="36" t="s">
         <v>2077</v>
       </c>
@@ -14219,7 +14234,7 @@
       <c r="A129" s="34" t="s">
         <v>1650</v>
       </c>
-      <c r="B129" s="181" t="s">
+      <c r="B129" s="180" t="s">
         <v>2085</v>
       </c>
       <c r="C129" s="52" t="s">
@@ -14249,7 +14264,7 @@
       <c r="A130" s="34" t="s">
         <v>1650</v>
       </c>
-      <c r="B130" s="181"/>
+      <c r="B130" s="180"/>
       <c r="C130" s="52" t="s">
         <v>2088</v>
       </c>
@@ -14293,7 +14308,7 @@
       <c r="A132" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B132" s="178" t="s">
+      <c r="B132" s="181" t="s">
         <v>2089</v>
       </c>
       <c r="C132" s="36" t="s">
@@ -14329,7 +14344,7 @@
       <c r="A133" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B133" s="178"/>
+      <c r="B133" s="181"/>
       <c r="C133" s="36" t="s">
         <v>2094</v>
       </c>
@@ -14379,7 +14394,7 @@
       <c r="A135" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B135" s="178" t="s">
+      <c r="B135" s="181" t="s">
         <v>2097</v>
       </c>
       <c r="C135" s="36" t="s">
@@ -14415,7 +14430,7 @@
       <c r="A136" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B136" s="178"/>
+      <c r="B136" s="181"/>
       <c r="C136" s="36" t="s">
         <v>2102</v>
       </c>
@@ -14449,7 +14464,7 @@
       <c r="A137" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B137" s="178"/>
+      <c r="B137" s="181"/>
       <c r="C137" s="36" t="s">
         <v>2105</v>
       </c>
@@ -14483,7 +14498,7 @@
       <c r="A138" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B138" s="178"/>
+      <c r="B138" s="181"/>
       <c r="C138" s="36" t="s">
         <v>2108</v>
       </c>
@@ -14737,7 +14752,7 @@
       <c r="A147" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B147" s="178" t="s">
+      <c r="B147" s="181" t="s">
         <v>2128</v>
       </c>
       <c r="C147" s="36" t="s">
@@ -14773,7 +14788,7 @@
       <c r="A148" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B148" s="178"/>
+      <c r="B148" s="181"/>
       <c r="C148" s="36" t="s">
         <v>2133</v>
       </c>
@@ -14823,7 +14838,7 @@
       <c r="A150" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B150" s="179" t="s">
+      <c r="B150" s="178" t="s">
         <v>2333</v>
       </c>
       <c r="C150" s="132" t="s">
@@ -14859,7 +14874,7 @@
       <c r="A151" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B151" s="180"/>
+      <c r="B151" s="179"/>
       <c r="C151" s="132" t="s">
         <v>2136</v>
       </c>
@@ -14893,7 +14908,7 @@
       <c r="A152" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B152" s="180"/>
+      <c r="B152" s="179"/>
       <c r="C152" s="58" t="s">
         <v>2138</v>
       </c>
@@ -14927,7 +14942,7 @@
       <c r="A153" s="34" t="s">
         <v>1650</v>
       </c>
-      <c r="B153" s="180"/>
+      <c r="B153" s="179"/>
       <c r="C153" s="58"/>
       <c r="D153" s="45" t="s">
         <v>1775</v>
@@ -14959,7 +14974,7 @@
       <c r="A154" s="34" t="s">
         <v>1651</v>
       </c>
-      <c r="B154" s="180"/>
+      <c r="B154" s="179"/>
       <c r="C154" s="58"/>
       <c r="D154" s="45" t="s">
         <v>1775</v>
@@ -14991,7 +15006,7 @@
       <c r="A155" s="34" t="s">
         <v>1976</v>
       </c>
-      <c r="B155" s="180"/>
+      <c r="B155" s="179"/>
       <c r="C155" s="58" t="s">
         <v>2140</v>
       </c>
@@ -15023,7 +15038,7 @@
       <c r="A156" s="34" t="s">
         <v>1976</v>
       </c>
-      <c r="B156" s="180"/>
+      <c r="B156" s="179"/>
       <c r="C156" s="58" t="s">
         <v>2141</v>
       </c>
@@ -15066,17 +15081,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B147:B148"/>
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B91:B99"/>
     <mergeCell ref="B109:B111"/>
     <mergeCell ref="B113:B114"/>
     <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B147:B148"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15085,11 +15100,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1465"/>
+  <dimension ref="A1:M1466"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J383" sqref="J383"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -61076,35 +61091,35 @@
       </c>
     </row>
     <row r="1324" spans="1:13">
-      <c r="A1324" s="14" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1324" s="15" t="s">
-        <v>2324</v>
-      </c>
-      <c r="C1324" s="15" t="s">
-        <v>2325</v>
-      </c>
-      <c r="D1324" s="15" t="s">
-        <v>966</v>
-      </c>
-      <c r="E1324" s="15">
-        <v>1</v>
-      </c>
-      <c r="F1324" s="15" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1324" s="15">
-        <v>60</v>
-      </c>
-      <c r="H1324" s="15" t="s">
-        <v>2189</v>
-      </c>
-      <c r="I1324" s="15"/>
-      <c r="J1324" s="15"/>
-      <c r="K1324" s="152"/>
-      <c r="L1324" s="15"/>
-      <c r="M1324" s="10" t="s">
+      <c r="A1324" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1324" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1324" s="7" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D1324" s="184" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1324" s="184">
+        <v>21</v>
+      </c>
+      <c r="F1324" s="184" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1324" s="184" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1324" s="184" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1324" s="184"/>
+      <c r="J1324" s="184"/>
+      <c r="K1324" s="185"/>
+      <c r="L1324" s="184"/>
+      <c r="M1324" s="186" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -61119,19 +61134,19 @@
         <v>2325</v>
       </c>
       <c r="D1325" s="15" t="s">
-        <v>2192</v>
+        <v>966</v>
       </c>
       <c r="E1325" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1325" s="15" t="s">
         <v>917</v>
       </c>
       <c r="G1325" s="15">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H1325" s="15" t="s">
-        <v>2242</v>
+        <v>2189</v>
       </c>
       <c r="I1325" s="15"/>
       <c r="J1325" s="15"/>
@@ -61152,19 +61167,19 @@
         <v>2325</v>
       </c>
       <c r="D1326" s="15" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="E1326" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1326" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1326" s="15" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1326" s="15">
+        <v>100</v>
       </c>
       <c r="H1326" s="15" t="s">
-        <v>2200</v>
+        <v>2242</v>
       </c>
       <c r="I1326" s="15"/>
       <c r="J1326" s="15"/>
@@ -61185,19 +61200,19 @@
         <v>2325</v>
       </c>
       <c r="D1327" s="15" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E1327" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1327" s="15" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1327" s="15">
-        <v>6</v>
+        <v>919</v>
+      </c>
+      <c r="G1327" s="15" t="s">
+        <v>916</v>
       </c>
       <c r="H1327" s="15" t="s">
-        <v>2326</v>
+        <v>2200</v>
       </c>
       <c r="I1327" s="15"/>
       <c r="J1327" s="15"/>
@@ -61218,19 +61233,19 @@
         <v>2325</v>
       </c>
       <c r="D1328" s="15" t="s">
-        <v>1505</v>
+        <v>2193</v>
       </c>
       <c r="E1328" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1328" s="15" t="s">
         <v>917</v>
       </c>
       <c r="G1328" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1328" s="15" t="s">
-        <v>1505</v>
+        <v>2326</v>
       </c>
       <c r="I1328" s="15"/>
       <c r="J1328" s="15"/>
@@ -61241,34 +61256,34 @@
       </c>
     </row>
     <row r="1329" spans="1:13">
-      <c r="A1329" s="6" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1329" s="7" t="s">
-        <v>2218</v>
-      </c>
-      <c r="C1329" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="D1329" s="7" t="s">
-        <v>2204</v>
-      </c>
-      <c r="E1329" s="7">
-        <v>1</v>
-      </c>
-      <c r="F1329" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1329" s="7">
-        <v>20</v>
-      </c>
-      <c r="H1329" s="7" t="s">
-        <v>2242</v>
-      </c>
-      <c r="I1329" s="7"/>
-      <c r="J1329" s="7"/>
-      <c r="K1329" s="23"/>
-      <c r="L1329" s="7"/>
+      <c r="A1329" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1329" s="15" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C1329" s="15" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D1329" s="15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E1329" s="15">
+        <v>5</v>
+      </c>
+      <c r="F1329" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1329" s="15">
+        <v>2</v>
+      </c>
+      <c r="H1329" s="15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I1329" s="15"/>
+      <c r="J1329" s="15"/>
+      <c r="K1329" s="152"/>
+      <c r="L1329" s="15"/>
       <c r="M1329" s="10" t="s">
         <v>1650</v>
       </c>
@@ -61284,23 +61299,21 @@
         <v>892</v>
       </c>
       <c r="D1330" s="7" t="s">
-        <v>212</v>
+        <v>2204</v>
       </c>
       <c r="E1330" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1330" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1330" s="7">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="H1330" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I1330" s="7" t="s">
-        <v>1701</v>
-      </c>
+        <v>2242</v>
+      </c>
+      <c r="I1330" s="7"/>
       <c r="J1330" s="7"/>
       <c r="K1330" s="23"/>
       <c r="L1330" s="7"/>
@@ -61319,19 +61332,19 @@
         <v>892</v>
       </c>
       <c r="D1331" s="7" t="s">
-        <v>2205</v>
+        <v>212</v>
       </c>
       <c r="E1331" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1331" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1331" s="7">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="H1331" s="7" t="s">
-        <v>2189</v>
+        <v>1174</v>
       </c>
       <c r="I1331" s="7" t="s">
         <v>1701</v>
@@ -61354,19 +61367,19 @@
         <v>892</v>
       </c>
       <c r="D1332" s="7" t="s">
-        <v>2173</v>
+        <v>2205</v>
       </c>
       <c r="E1332" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1332" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1332" s="7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H1332" s="7" t="s">
-        <v>2179</v>
+        <v>2189</v>
       </c>
       <c r="I1332" s="7" t="s">
         <v>1701</v>
@@ -61389,32 +61402,26 @@
         <v>892</v>
       </c>
       <c r="D1333" s="7" t="s">
-        <v>189</v>
+        <v>2173</v>
       </c>
       <c r="E1333" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1333" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1333" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H1333" s="7" t="s">
-        <v>1205</v>
+        <v>2179</v>
       </c>
       <c r="I1333" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="J1333" s="7" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K1333" s="23" t="s">
-        <v>882</v>
-      </c>
-      <c r="L1333" s="7" t="s">
-        <v>1205</v>
-      </c>
+        <v>1701</v>
+      </c>
+      <c r="J1333" s="7"/>
+      <c r="K1333" s="23"/>
+      <c r="L1333" s="7"/>
       <c r="M1333" s="10" t="s">
         <v>1650</v>
       </c>
@@ -61430,31 +61437,31 @@
         <v>892</v>
       </c>
       <c r="D1334" s="7" t="s">
-        <v>2167</v>
+        <v>189</v>
       </c>
       <c r="E1334" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1334" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1334" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1334" s="7" t="s">
-        <v>2178</v>
+        <v>1205</v>
       </c>
       <c r="I1334" s="7" t="s">
-        <v>1985</v>
+        <v>882</v>
       </c>
       <c r="J1334" s="7" t="s">
-        <v>2178</v>
+        <v>1205</v>
       </c>
       <c r="K1334" s="23" t="s">
-        <v>1985</v>
+        <v>882</v>
       </c>
       <c r="L1334" s="7" t="s">
-        <v>2178</v>
+        <v>1205</v>
       </c>
       <c r="M1334" s="10" t="s">
         <v>1650</v>
@@ -61471,24 +61478,32 @@
         <v>892</v>
       </c>
       <c r="D1335" s="7" t="s">
-        <v>489</v>
+        <v>2167</v>
       </c>
       <c r="E1335" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1335" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1335" s="7">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H1335" s="7" t="s">
-        <v>1537</v>
-      </c>
-      <c r="I1335" s="7"/>
-      <c r="J1335" s="7"/>
-      <c r="K1335" s="23"/>
-      <c r="L1335" s="7"/>
+        <v>2178</v>
+      </c>
+      <c r="I1335" s="7" t="s">
+        <v>1985</v>
+      </c>
+      <c r="J1335" s="7" t="s">
+        <v>2178</v>
+      </c>
+      <c r="K1335" s="23" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L1335" s="7" t="s">
+        <v>2178</v>
+      </c>
       <c r="M1335" s="10" t="s">
         <v>1650</v>
       </c>
@@ -61504,23 +61519,21 @@
         <v>892</v>
       </c>
       <c r="D1336" s="7" t="s">
-        <v>2206</v>
+        <v>489</v>
       </c>
       <c r="E1336" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1336" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1336" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="H1336" s="7" t="s">
-        <v>2243</v>
-      </c>
-      <c r="I1336" s="7" t="s">
-        <v>1701</v>
-      </c>
+        <v>1537</v>
+      </c>
+      <c r="I1336" s="7"/>
       <c r="J1336" s="7"/>
       <c r="K1336" s="23"/>
       <c r="L1336" s="7"/>
@@ -61539,10 +61552,10 @@
         <v>892</v>
       </c>
       <c r="D1337" s="7" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E1337" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1337" s="7" t="s">
         <v>917</v>
@@ -61551,7 +61564,7 @@
         <v>2</v>
       </c>
       <c r="H1337" s="7" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="I1337" s="7" t="s">
         <v>1701</v>
@@ -61574,19 +61587,19 @@
         <v>892</v>
       </c>
       <c r="D1338" s="7" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E1338" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1338" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1338" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H1338" s="7" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="I1338" s="7" t="s">
         <v>1701</v>
@@ -61609,21 +61622,23 @@
         <v>892</v>
       </c>
       <c r="D1339" s="7" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E1339" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1339" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1339" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1339" s="7">
+        <v>20</v>
       </c>
       <c r="H1339" s="7" t="s">
-        <v>2246</v>
-      </c>
-      <c r="I1339" s="7"/>
+        <v>2245</v>
+      </c>
+      <c r="I1339" s="7" t="s">
+        <v>1701</v>
+      </c>
       <c r="J1339" s="7"/>
       <c r="K1339" s="23"/>
       <c r="L1339" s="7"/>
@@ -61642,10 +61657,10 @@
         <v>892</v>
       </c>
       <c r="D1340" s="7" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E1340" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1340" s="7" t="s">
         <v>919</v>
@@ -61654,7 +61669,7 @@
         <v>916</v>
       </c>
       <c r="H1340" s="7" t="s">
-        <v>394</v>
+        <v>2246</v>
       </c>
       <c r="I1340" s="7"/>
       <c r="J1340" s="7"/>
@@ -61675,10 +61690,10 @@
         <v>892</v>
       </c>
       <c r="D1341" s="7" t="s">
-        <v>2194</v>
+        <v>2210</v>
       </c>
       <c r="E1341" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1341" s="7" t="s">
         <v>919</v>
@@ -61687,7 +61702,7 @@
         <v>916</v>
       </c>
       <c r="H1341" s="7" t="s">
-        <v>2200</v>
+        <v>394</v>
       </c>
       <c r="I1341" s="7"/>
       <c r="J1341" s="7"/>
@@ -61708,19 +61723,19 @@
         <v>892</v>
       </c>
       <c r="D1342" s="7" t="s">
-        <v>639</v>
+        <v>2194</v>
       </c>
       <c r="E1342" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1342" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1342" s="7">
-        <v>60</v>
+        <v>919</v>
+      </c>
+      <c r="G1342" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1342" s="7" t="s">
-        <v>2247</v>
+        <v>2200</v>
       </c>
       <c r="I1342" s="7"/>
       <c r="J1342" s="7"/>
@@ -61741,19 +61756,19 @@
         <v>892</v>
       </c>
       <c r="D1343" s="7" t="s">
-        <v>327</v>
+        <v>639</v>
       </c>
       <c r="E1343" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1343" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1343" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1343" s="7">
+        <v>60</v>
       </c>
       <c r="H1343" s="7" t="s">
-        <v>407</v>
+        <v>2247</v>
       </c>
       <c r="I1343" s="7"/>
       <c r="J1343" s="7"/>
@@ -61774,19 +61789,19 @@
         <v>892</v>
       </c>
       <c r="D1344" s="7" t="s">
-        <v>606</v>
+        <v>327</v>
       </c>
       <c r="E1344" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1344" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G1344" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1344" s="7" t="s">
-        <v>1342</v>
+        <v>407</v>
       </c>
       <c r="I1344" s="7"/>
       <c r="J1344" s="7"/>
@@ -61807,19 +61822,19 @@
         <v>892</v>
       </c>
       <c r="D1345" s="7" t="s">
-        <v>276</v>
+        <v>606</v>
       </c>
       <c r="E1345" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1345" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1345" s="7">
-        <v>100</v>
+        <v>918</v>
+      </c>
+      <c r="G1345" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1345" s="7" t="s">
-        <v>2299</v>
+        <v>1342</v>
       </c>
       <c r="I1345" s="7"/>
       <c r="J1345" s="7"/>
@@ -61840,19 +61855,19 @@
         <v>892</v>
       </c>
       <c r="D1346" s="7" t="s">
-        <v>2211</v>
+        <v>276</v>
       </c>
       <c r="E1346" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1346" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1346" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H1346" s="7" t="s">
-        <v>2248</v>
+        <v>2299</v>
       </c>
       <c r="I1346" s="7"/>
       <c r="J1346" s="7"/>
@@ -61873,19 +61888,19 @@
         <v>892</v>
       </c>
       <c r="D1347" s="7" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E1347" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1347" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1347" s="7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H1347" s="7" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="I1347" s="7"/>
       <c r="J1347" s="7"/>
@@ -61906,19 +61921,19 @@
         <v>892</v>
       </c>
       <c r="D1348" s="7" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E1348" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1348" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1348" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H1348" s="7" t="s">
-        <v>1502</v>
+        <v>2249</v>
       </c>
       <c r="I1348" s="7"/>
       <c r="J1348" s="7"/>
@@ -61939,19 +61954,19 @@
         <v>892</v>
       </c>
       <c r="D1349" s="7" t="s">
-        <v>153</v>
+        <v>2213</v>
       </c>
       <c r="E1349" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1349" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1349" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="H1349" s="7" t="s">
-        <v>1491</v>
+        <v>1502</v>
       </c>
       <c r="I1349" s="7"/>
       <c r="J1349" s="7"/>
@@ -61972,19 +61987,19 @@
         <v>892</v>
       </c>
       <c r="D1350" s="7" t="s">
-        <v>2214</v>
+        <v>153</v>
       </c>
       <c r="E1350" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1350" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1350" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1350" s="7">
+        <v>36</v>
       </c>
       <c r="H1350" s="7" t="s">
-        <v>2250</v>
+        <v>1491</v>
       </c>
       <c r="I1350" s="7"/>
       <c r="J1350" s="7"/>
@@ -62005,19 +62020,19 @@
         <v>892</v>
       </c>
       <c r="D1351" s="7" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E1351" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1351" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1351" s="7">
-        <v>2</v>
+        <v>919</v>
+      </c>
+      <c r="G1351" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1351" s="7" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="I1351" s="7"/>
       <c r="J1351" s="7"/>
@@ -62038,19 +62053,19 @@
         <v>892</v>
       </c>
       <c r="D1352" s="7" t="s">
-        <v>221</v>
+        <v>2215</v>
       </c>
       <c r="E1352" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1352" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1352" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H1352" s="7" t="s">
-        <v>1465</v>
+        <v>2251</v>
       </c>
       <c r="I1352" s="7"/>
       <c r="J1352" s="7"/>
@@ -62071,19 +62086,19 @@
         <v>892</v>
       </c>
       <c r="D1353" s="7" t="s">
-        <v>2216</v>
+        <v>221</v>
       </c>
       <c r="E1353" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1353" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1353" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1353" s="7">
+        <v>10</v>
       </c>
       <c r="H1353" s="7" t="s">
-        <v>2252</v>
+        <v>1465</v>
       </c>
       <c r="I1353" s="7"/>
       <c r="J1353" s="7"/>
@@ -62104,19 +62119,19 @@
         <v>892</v>
       </c>
       <c r="D1354" s="7" t="s">
-        <v>243</v>
+        <v>2216</v>
       </c>
       <c r="E1354" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1354" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1354" s="7">
-        <v>2</v>
+        <v>919</v>
+      </c>
+      <c r="G1354" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1354" s="7" t="s">
-        <v>1457</v>
+        <v>2252</v>
       </c>
       <c r="I1354" s="7"/>
       <c r="J1354" s="7"/>
@@ -62136,25 +62151,25 @@
       <c r="C1355" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="D1355" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="E1355" s="15">
-        <v>27</v>
-      </c>
-      <c r="F1355" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1355" s="15" t="s">
-        <v>916</v>
+      <c r="D1355" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1355" s="7">
+        <v>26</v>
+      </c>
+      <c r="F1355" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1355" s="7">
+        <v>2</v>
       </c>
       <c r="H1355" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I1355" s="15"/>
-      <c r="J1355" s="15"/>
-      <c r="K1355" s="152"/>
-      <c r="L1355" s="15"/>
+        <v>1457</v>
+      </c>
+      <c r="I1355" s="7"/>
+      <c r="J1355" s="7"/>
+      <c r="K1355" s="23"/>
+      <c r="L1355" s="7"/>
       <c r="M1355" s="10" t="s">
         <v>1650</v>
       </c>
@@ -62164,30 +62179,30 @@
         <v>1105</v>
       </c>
       <c r="B1356" s="7" t="s">
-        <v>2231</v>
+        <v>2218</v>
       </c>
       <c r="C1356" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="D1356" s="7" t="s">
-        <v>2204</v>
-      </c>
-      <c r="E1356" s="7">
-        <v>1</v>
-      </c>
-      <c r="F1356" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1356" s="7">
-        <v>20</v>
+        <v>892</v>
+      </c>
+      <c r="D1356" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1356" s="15">
+        <v>27</v>
+      </c>
+      <c r="F1356" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1356" s="15" t="s">
+        <v>916</v>
       </c>
       <c r="H1356" s="7" t="s">
-        <v>2242</v>
-      </c>
-      <c r="I1356" s="7"/>
-      <c r="J1356" s="7"/>
-      <c r="K1356" s="23"/>
-      <c r="L1356" s="7"/>
+        <v>383</v>
+      </c>
+      <c r="I1356" s="15"/>
+      <c r="J1356" s="15"/>
+      <c r="K1356" s="152"/>
+      <c r="L1356" s="15"/>
       <c r="M1356" s="10" t="s">
         <v>1650</v>
       </c>
@@ -62203,19 +62218,19 @@
         <v>891</v>
       </c>
       <c r="D1357" s="7" t="s">
-        <v>2224</v>
+        <v>2204</v>
       </c>
       <c r="E1357" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1357" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1357" s="7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H1357" s="7" t="s">
-        <v>2189</v>
+        <v>2242</v>
       </c>
       <c r="I1357" s="7"/>
       <c r="J1357" s="7"/>
@@ -62236,19 +62251,19 @@
         <v>891</v>
       </c>
       <c r="D1358" s="7" t="s">
-        <v>217</v>
+        <v>2224</v>
       </c>
       <c r="E1358" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1358" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1358" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H1358" s="7" t="s">
-        <v>1375</v>
+        <v>2189</v>
       </c>
       <c r="I1358" s="7"/>
       <c r="J1358" s="7"/>
@@ -62269,19 +62284,19 @@
         <v>891</v>
       </c>
       <c r="D1359" s="7" t="s">
-        <v>2225</v>
+        <v>217</v>
       </c>
       <c r="E1359" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1359" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1359" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H1359" s="7" t="s">
-        <v>2257</v>
+        <v>1375</v>
       </c>
       <c r="I1359" s="7"/>
       <c r="J1359" s="7"/>
@@ -62302,19 +62317,19 @@
         <v>891</v>
       </c>
       <c r="D1360" s="7" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E1360" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1360" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1360" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H1360" s="7" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="I1360" s="7"/>
       <c r="J1360" s="7"/>
@@ -62335,19 +62350,19 @@
         <v>891</v>
       </c>
       <c r="D1361" s="7" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E1361" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1361" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1361" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1361" s="7">
+        <v>20</v>
       </c>
       <c r="H1361" s="7" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="I1361" s="7"/>
       <c r="J1361" s="7"/>
@@ -62368,10 +62383,10 @@
         <v>891</v>
       </c>
       <c r="D1362" s="7" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E1362" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1362" s="7" t="s">
         <v>915</v>
@@ -62380,7 +62395,7 @@
         <v>916</v>
       </c>
       <c r="H1362" s="7" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="I1362" s="7"/>
       <c r="J1362" s="7"/>
@@ -62401,19 +62416,19 @@
         <v>891</v>
       </c>
       <c r="D1363" s="7" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E1363" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1363" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1363" s="7">
-        <v>20</v>
+        <v>915</v>
+      </c>
+      <c r="G1363" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1363" s="7" t="s">
-        <v>1445</v>
+        <v>2260</v>
       </c>
       <c r="I1363" s="7"/>
       <c r="J1363" s="7"/>
@@ -62434,19 +62449,19 @@
         <v>891</v>
       </c>
       <c r="D1364" s="7" t="s">
-        <v>607</v>
+        <v>2229</v>
       </c>
       <c r="E1364" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1364" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1364" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1364" s="7">
+        <v>20</v>
       </c>
       <c r="H1364" s="7" t="s">
-        <v>1340</v>
+        <v>1445</v>
       </c>
       <c r="I1364" s="7"/>
       <c r="J1364" s="7"/>
@@ -62467,19 +62482,19 @@
         <v>891</v>
       </c>
       <c r="D1365" s="7" t="s">
-        <v>2230</v>
+        <v>607</v>
       </c>
       <c r="E1365" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1365" s="7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G1365" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1365" s="7" t="s">
-        <v>2261</v>
+        <v>1340</v>
       </c>
       <c r="I1365" s="7"/>
       <c r="J1365" s="7"/>
@@ -62500,19 +62515,19 @@
         <v>891</v>
       </c>
       <c r="D1366" s="7" t="s">
-        <v>603</v>
+        <v>2230</v>
       </c>
       <c r="E1366" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1366" s="7" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="G1366" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1366" s="7" t="s">
-        <v>1341</v>
+        <v>2261</v>
       </c>
       <c r="I1366" s="7"/>
       <c r="J1366" s="7"/>
@@ -62532,25 +62547,25 @@
       <c r="C1367" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="D1367" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="E1367" s="15">
-        <v>12</v>
+      <c r="D1367" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1367" s="7">
+        <v>11</v>
       </c>
       <c r="F1367" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1367" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="H1367" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="I1367" s="15"/>
-      <c r="J1367" s="15"/>
-      <c r="K1367" s="152"/>
-      <c r="L1367" s="15"/>
+        <v>915</v>
+      </c>
+      <c r="G1367" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1367" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I1367" s="7"/>
+      <c r="J1367" s="7"/>
+      <c r="K1367" s="23"/>
+      <c r="L1367" s="7"/>
       <c r="M1367" s="10" t="s">
         <v>1650</v>
       </c>
@@ -62560,30 +62575,30 @@
         <v>1105</v>
       </c>
       <c r="B1368" s="7" t="s">
-        <v>2241</v>
+        <v>2231</v>
       </c>
       <c r="C1368" s="7" t="s">
-        <v>890</v>
-      </c>
-      <c r="D1368" s="7" t="s">
-        <v>2204</v>
-      </c>
-      <c r="E1368" s="7">
-        <v>1</v>
+        <v>891</v>
+      </c>
+      <c r="D1368" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1368" s="15">
+        <v>12</v>
       </c>
       <c r="F1368" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1368" s="7">
-        <v>20</v>
-      </c>
-      <c r="H1368" s="7" t="s">
-        <v>2242</v>
-      </c>
-      <c r="I1368" s="7"/>
-      <c r="J1368" s="7"/>
-      <c r="K1368" s="23"/>
-      <c r="L1368" s="7"/>
+        <v>919</v>
+      </c>
+      <c r="G1368" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1368" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1368" s="15"/>
+      <c r="J1368" s="15"/>
+      <c r="K1368" s="152"/>
+      <c r="L1368" s="15"/>
       <c r="M1368" s="10" t="s">
         <v>1650</v>
       </c>
@@ -62599,19 +62614,19 @@
         <v>890</v>
       </c>
       <c r="D1369" s="7" t="s">
-        <v>966</v>
+        <v>2204</v>
       </c>
       <c r="E1369" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1369" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1369" s="7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H1369" s="7" t="s">
-        <v>2189</v>
+        <v>2242</v>
       </c>
       <c r="I1369" s="7"/>
       <c r="J1369" s="7"/>
@@ -62632,19 +62647,19 @@
         <v>890</v>
       </c>
       <c r="D1370" s="7" t="s">
-        <v>2232</v>
+        <v>966</v>
       </c>
       <c r="E1370" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1370" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G1370" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1370" s="7">
+        <v>60</v>
       </c>
       <c r="H1370" s="7" t="s">
-        <v>2317</v>
+        <v>2189</v>
       </c>
       <c r="I1370" s="7"/>
       <c r="J1370" s="7"/>
@@ -62665,19 +62680,19 @@
         <v>890</v>
       </c>
       <c r="D1371" s="7" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E1371" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1371" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G1371" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1371" s="7" t="s">
-        <v>2233</v>
+        <v>2317</v>
       </c>
       <c r="I1371" s="7"/>
       <c r="J1371" s="7"/>
@@ -62698,19 +62713,19 @@
         <v>890</v>
       </c>
       <c r="D1372" s="7" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E1372" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1372" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G1372" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1372" s="7" t="s">
-        <v>2318</v>
+        <v>2233</v>
       </c>
       <c r="I1372" s="7"/>
       <c r="J1372" s="7"/>
@@ -62731,10 +62746,10 @@
         <v>890</v>
       </c>
       <c r="D1373" s="7" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E1373" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1373" s="7" t="s">
         <v>918</v>
@@ -62743,7 +62758,7 @@
         <v>916</v>
       </c>
       <c r="H1373" s="7" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="I1373" s="7"/>
       <c r="J1373" s="7"/>
@@ -62764,23 +62779,21 @@
         <v>890</v>
       </c>
       <c r="D1374" s="7" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E1374" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1374" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1374" s="7">
-        <v>6</v>
+        <v>918</v>
+      </c>
+      <c r="G1374" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1374" s="7" t="s">
-        <v>2262</v>
-      </c>
-      <c r="I1374" s="7" t="s">
-        <v>2254</v>
-      </c>
+        <v>2319</v>
+      </c>
+      <c r="I1374" s="7"/>
       <c r="J1374" s="7"/>
       <c r="K1374" s="23"/>
       <c r="L1374" s="7"/>
@@ -62799,21 +62812,23 @@
         <v>890</v>
       </c>
       <c r="D1375" s="7" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E1375" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1375" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1375" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1375" s="7">
+        <v>6</v>
       </c>
       <c r="H1375" s="7" t="s">
-        <v>2263</v>
-      </c>
-      <c r="I1375" s="7"/>
+        <v>2262</v>
+      </c>
+      <c r="I1375" s="7" t="s">
+        <v>2254</v>
+      </c>
       <c r="J1375" s="7"/>
       <c r="K1375" s="23"/>
       <c r="L1375" s="7"/>
@@ -62832,19 +62847,19 @@
         <v>890</v>
       </c>
       <c r="D1376" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1376" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1376" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1376" s="7">
-        <v>64</v>
+        <v>919</v>
+      </c>
+      <c r="G1376" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1376" s="7" t="s">
-        <v>2320</v>
+        <v>2263</v>
       </c>
       <c r="I1376" s="7"/>
       <c r="J1376" s="7"/>
@@ -62865,19 +62880,19 @@
         <v>890</v>
       </c>
       <c r="D1377" s="7" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E1377" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1377" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1377" s="7">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H1377" s="7" t="s">
-        <v>2299</v>
+        <v>2320</v>
       </c>
       <c r="I1377" s="7"/>
       <c r="J1377" s="7"/>
@@ -62897,25 +62912,25 @@
       <c r="C1378" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="D1378" s="15" t="s">
-        <v>2240</v>
-      </c>
-      <c r="E1378" s="15">
-        <v>11</v>
+      <c r="D1378" s="7" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1378" s="7">
+        <v>10</v>
       </c>
       <c r="F1378" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1378" s="15" t="s">
-        <v>916</v>
-      </c>
-      <c r="H1378" s="15" t="s">
-        <v>2264</v>
-      </c>
-      <c r="I1378" s="15"/>
-      <c r="J1378" s="15"/>
-      <c r="K1378" s="152"/>
-      <c r="L1378" s="15"/>
+        <v>917</v>
+      </c>
+      <c r="G1378" s="7">
+        <v>30</v>
+      </c>
+      <c r="H1378" s="7" t="s">
+        <v>2299</v>
+      </c>
+      <c r="I1378" s="7"/>
+      <c r="J1378" s="7"/>
+      <c r="K1378" s="23"/>
+      <c r="L1378" s="7"/>
       <c r="M1378" s="10" t="s">
         <v>1650</v>
       </c>
@@ -62931,19 +62946,19 @@
         <v>890</v>
       </c>
       <c r="D1379" s="15" t="s">
-        <v>2321</v>
+        <v>2240</v>
       </c>
       <c r="E1379" s="15">
-        <v>12</v>
-      </c>
-      <c r="F1379" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1379" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1379" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="G1379" s="15" t="s">
         <v>916</v>
       </c>
       <c r="H1379" s="15" t="s">
-        <v>2321</v>
+        <v>2264</v>
       </c>
       <c r="I1379" s="15"/>
       <c r="J1379" s="15"/>
@@ -62964,10 +62979,10 @@
         <v>890</v>
       </c>
       <c r="D1380" s="15" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E1380" s="15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1380" s="15" t="s">
         <v>919</v>
@@ -62976,7 +62991,7 @@
         <v>916</v>
       </c>
       <c r="H1380" s="15" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="I1380" s="15"/>
       <c r="J1380" s="15"/>
@@ -62997,10 +63012,10 @@
         <v>890</v>
       </c>
       <c r="D1381" s="15" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E1381" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1381" s="15" t="s">
         <v>919</v>
@@ -63009,7 +63024,7 @@
         <v>916</v>
       </c>
       <c r="H1381" s="15" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="I1381" s="15"/>
       <c r="J1381" s="15"/>
@@ -63023,26 +63038,26 @@
       <c r="A1382" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="B1382" s="15" t="s">
-        <v>2222</v>
-      </c>
-      <c r="C1382" s="15" t="s">
-        <v>893</v>
+      <c r="B1382" s="7" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C1382" s="7" t="s">
+        <v>890</v>
       </c>
       <c r="D1382" s="15" t="s">
-        <v>2219</v>
+        <v>2323</v>
       </c>
       <c r="E1382" s="15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1382" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1382" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1382" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H1382" s="15" t="s">
-        <v>2253</v>
+        <v>2323</v>
       </c>
       <c r="I1382" s="15"/>
       <c r="J1382" s="15"/>
@@ -63062,25 +63077,25 @@
       <c r="C1383" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="D1383" s="7" t="s">
-        <v>2204</v>
-      </c>
-      <c r="E1383" s="7">
-        <v>2</v>
-      </c>
-      <c r="F1383" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1383" s="7">
-        <v>20</v>
-      </c>
-      <c r="H1383" s="7" t="s">
-        <v>2242</v>
-      </c>
-      <c r="I1383" s="7"/>
-      <c r="J1383" s="7"/>
-      <c r="K1383" s="23"/>
-      <c r="L1383" s="7"/>
+      <c r="D1383" s="15" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E1383" s="15">
+        <v>1</v>
+      </c>
+      <c r="F1383" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="G1383" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1383" s="15" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I1383" s="15"/>
+      <c r="J1383" s="15"/>
+      <c r="K1383" s="152"/>
+      <c r="L1383" s="15"/>
       <c r="M1383" s="10" t="s">
         <v>1650</v>
       </c>
@@ -63096,19 +63111,19 @@
         <v>893</v>
       </c>
       <c r="D1384" s="7" t="s">
-        <v>966</v>
+        <v>2204</v>
       </c>
       <c r="E1384" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1384" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1384" s="7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H1384" s="7" t="s">
-        <v>2189</v>
+        <v>2242</v>
       </c>
       <c r="I1384" s="7"/>
       <c r="J1384" s="7"/>
@@ -63129,23 +63144,21 @@
         <v>893</v>
       </c>
       <c r="D1385" s="7" t="s">
-        <v>2183</v>
+        <v>966</v>
       </c>
       <c r="E1385" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1385" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1385" s="7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H1385" s="7" t="s">
-        <v>1455</v>
-      </c>
-      <c r="I1385" s="7" t="s">
-        <v>2254</v>
-      </c>
+        <v>2189</v>
+      </c>
+      <c r="I1385" s="7"/>
       <c r="J1385" s="7"/>
       <c r="K1385" s="23"/>
       <c r="L1385" s="7"/>
@@ -63164,10 +63177,10 @@
         <v>893</v>
       </c>
       <c r="D1386" s="7" t="s">
-        <v>2220</v>
+        <v>2183</v>
       </c>
       <c r="E1386" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1386" s="7" t="s">
         <v>917</v>
@@ -63176,9 +63189,11 @@
         <v>6</v>
       </c>
       <c r="H1386" s="7" t="s">
-        <v>2255</v>
-      </c>
-      <c r="I1386" s="7"/>
+        <v>1455</v>
+      </c>
+      <c r="I1386" s="7" t="s">
+        <v>2254</v>
+      </c>
       <c r="J1386" s="7"/>
       <c r="K1386" s="23"/>
       <c r="L1386" s="7"/>
@@ -63197,19 +63212,19 @@
         <v>893</v>
       </c>
       <c r="D1387" s="7" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E1387" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1387" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1387" s="7">
         <v>6</v>
       </c>
-      <c r="F1387" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1387" s="7" t="s">
-        <v>916</v>
-      </c>
       <c r="H1387" s="7" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="I1387" s="7"/>
       <c r="J1387" s="7"/>
@@ -63223,31 +63238,31 @@
       <c r="A1388" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="B1388" s="177" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C1388" s="177" t="s">
-        <v>2404</v>
-      </c>
-      <c r="D1388" s="173" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E1388" s="173">
-        <v>1</v>
-      </c>
-      <c r="F1388" s="173" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1388" s="173">
-        <v>94</v>
-      </c>
-      <c r="H1388" s="173" t="s">
-        <v>2405</v>
-      </c>
-      <c r="I1388" s="173"/>
-      <c r="J1388" s="173"/>
-      <c r="K1388" s="175"/>
-      <c r="L1388" s="173"/>
+      <c r="B1388" s="15" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1388" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="D1388" s="7" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E1388" s="7">
+        <v>6</v>
+      </c>
+      <c r="F1388" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1388" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1388" s="7" t="s">
+        <v>2256</v>
+      </c>
+      <c r="I1388" s="7"/>
+      <c r="J1388" s="7"/>
+      <c r="K1388" s="23"/>
+      <c r="L1388" s="7"/>
       <c r="M1388" s="10" t="s">
         <v>1650</v>
       </c>
@@ -63263,10 +63278,10 @@
         <v>2404</v>
       </c>
       <c r="D1389" s="173" t="s">
-        <v>1375</v>
+        <v>2405</v>
       </c>
       <c r="E1389" s="173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1389" s="173" t="s">
         <v>917</v>
@@ -63275,7 +63290,7 @@
         <v>94</v>
       </c>
       <c r="H1389" s="173" t="s">
-        <v>1375</v>
+        <v>2405</v>
       </c>
       <c r="I1389" s="173"/>
       <c r="J1389" s="173"/>
@@ -63296,19 +63311,19 @@
         <v>2404</v>
       </c>
       <c r="D1390" s="173" t="s">
-        <v>2406</v>
+        <v>1375</v>
       </c>
       <c r="E1390" s="173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1390" s="173" t="s">
         <v>917</v>
       </c>
       <c r="G1390" s="173">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H1390" s="173" t="s">
-        <v>2406</v>
+        <v>1375</v>
       </c>
       <c r="I1390" s="173"/>
       <c r="J1390" s="173"/>
@@ -63329,10 +63344,10 @@
         <v>2404</v>
       </c>
       <c r="D1391" s="173" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E1391" s="173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1391" s="173" t="s">
         <v>917</v>
@@ -63341,7 +63356,7 @@
         <v>40</v>
       </c>
       <c r="H1391" s="173" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="I1391" s="173"/>
       <c r="J1391" s="173"/>
@@ -63362,19 +63377,19 @@
         <v>2404</v>
       </c>
       <c r="D1392" s="173" t="s">
-        <v>1206</v>
+        <v>2407</v>
       </c>
       <c r="E1392" s="173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1392" s="173" t="s">
         <v>917</v>
       </c>
       <c r="G1392" s="173">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H1392" s="173" t="s">
-        <v>1206</v>
+        <v>2407</v>
       </c>
       <c r="I1392" s="173"/>
       <c r="J1392" s="173"/>
@@ -63395,19 +63410,19 @@
         <v>2404</v>
       </c>
       <c r="D1393" s="173" t="s">
-        <v>2408</v>
+        <v>1206</v>
       </c>
       <c r="E1393" s="173">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1393" s="173" t="s">
-        <v>918</v>
-      </c>
-      <c r="G1393" s="173" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1393" s="173">
+        <v>20</v>
       </c>
       <c r="H1393" s="173" t="s">
-        <v>2408</v>
+        <v>1206</v>
       </c>
       <c r="I1393" s="173"/>
       <c r="J1393" s="173"/>
@@ -63428,10 +63443,10 @@
         <v>2404</v>
       </c>
       <c r="D1394" s="173" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E1394" s="173">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1394" s="173" t="s">
         <v>918</v>
@@ -63440,7 +63455,7 @@
         <v>916</v>
       </c>
       <c r="H1394" s="173" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="I1394" s="173"/>
       <c r="J1394" s="173"/>
@@ -63461,10 +63476,10 @@
         <v>2404</v>
       </c>
       <c r="D1395" s="173" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E1395" s="173">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1395" s="173" t="s">
         <v>918</v>
@@ -63473,7 +63488,7 @@
         <v>916</v>
       </c>
       <c r="H1395" s="173" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="I1395" s="173"/>
       <c r="J1395" s="173"/>
@@ -63484,42 +63499,36 @@
       </c>
     </row>
     <row r="1396" spans="1:13">
-      <c r="A1396" s="13" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1396" s="146" t="s">
-        <v>959</v>
-      </c>
-      <c r="C1396" s="146"/>
-      <c r="D1396" s="146" t="s">
-        <v>662</v>
-      </c>
-      <c r="E1396" s="146">
-        <v>1</v>
-      </c>
-      <c r="F1396" s="146" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1396" s="146">
-        <v>6</v>
-      </c>
-      <c r="H1396" s="7" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1396" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1396" s="146" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1396" s="153" t="s">
-        <v>885</v>
-      </c>
-      <c r="L1396" s="146" t="s">
-        <v>1303</v>
-      </c>
+      <c r="A1396" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1396" s="177" t="s">
+        <v>2403</v>
+      </c>
+      <c r="C1396" s="177" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D1396" s="173" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E1396" s="173">
+        <v>8</v>
+      </c>
+      <c r="F1396" s="173" t="s">
+        <v>918</v>
+      </c>
+      <c r="G1396" s="173" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1396" s="173" t="s">
+        <v>2410</v>
+      </c>
+      <c r="I1396" s="173"/>
+      <c r="J1396" s="173"/>
+      <c r="K1396" s="175"/>
+      <c r="L1396" s="173"/>
       <c r="M1396" s="10" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1397" spans="1:13">
@@ -63531,24 +63540,32 @@
       </c>
       <c r="C1397" s="146"/>
       <c r="D1397" s="146" t="s">
-        <v>465</v>
+        <v>662</v>
       </c>
       <c r="E1397" s="146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1397" s="146" t="s">
         <v>917</v>
       </c>
       <c r="G1397" s="146">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="H1397" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1397" s="146"/>
-      <c r="J1397" s="146"/>
-      <c r="K1397" s="153"/>
-      <c r="L1397" s="146"/>
+      <c r="I1397" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1397" s="146" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1397" s="153" t="s">
+        <v>885</v>
+      </c>
+      <c r="L1397" s="146" t="s">
+        <v>1303</v>
+      </c>
       <c r="M1397" s="10" t="s">
         <v>1651</v>
       </c>
@@ -63562,16 +63579,16 @@
       </c>
       <c r="C1398" s="146"/>
       <c r="D1398" s="146" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="E1398" s="146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1398" s="146" t="s">
         <v>917</v>
       </c>
       <c r="G1398" s="146">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H1398" s="7" t="s">
         <v>1292</v>
@@ -63593,37 +63610,29 @@
       </c>
       <c r="C1399" s="146"/>
       <c r="D1399" s="146" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E1399" s="146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1399" s="146" t="s">
         <v>917</v>
       </c>
       <c r="G1399" s="146">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H1399" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1399" s="146" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1399" s="146" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1399" s="153" t="s">
-        <v>882</v>
-      </c>
-      <c r="L1399" s="146" t="s">
-        <v>1513</v>
-      </c>
+      <c r="I1399" s="146"/>
+      <c r="J1399" s="146"/>
+      <c r="K1399" s="153"/>
+      <c r="L1399" s="146"/>
       <c r="M1399" s="10" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="1400" spans="1:13" ht="38.25">
+    <row r="1400" spans="1:13">
       <c r="A1400" s="13" t="s">
         <v>1105</v>
       </c>
@@ -63632,31 +63641,37 @@
       </c>
       <c r="C1400" s="146"/>
       <c r="D1400" s="146" t="s">
-        <v>641</v>
+        <v>165</v>
       </c>
       <c r="E1400" s="146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1400" s="146" t="s">
-        <v>918</v>
-      </c>
-      <c r="G1400" s="146" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1400" s="146">
+        <v>40</v>
       </c>
       <c r="H1400" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1400" s="147" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J1400" s="146"/>
-      <c r="K1400" s="153"/>
-      <c r="L1400" s="146"/>
+      <c r="I1400" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1400" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1400" s="153" t="s">
+        <v>882</v>
+      </c>
+      <c r="L1400" s="146" t="s">
+        <v>1513</v>
+      </c>
       <c r="M1400" s="10" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="1401" spans="1:13">
+    <row r="1401" spans="1:13" ht="38.25">
       <c r="A1401" s="13" t="s">
         <v>1105</v>
       </c>
@@ -63665,13 +63680,13 @@
       </c>
       <c r="C1401" s="146"/>
       <c r="D1401" s="146" t="s">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="E1401" s="146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1401" s="146" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G1401" s="146" t="s">
         <v>916</v>
@@ -63679,12 +63694,12 @@
       <c r="H1401" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1401" s="148" t="s">
-        <v>1090</v>
-      </c>
-      <c r="J1401" s="148"/>
-      <c r="K1401" s="154"/>
-      <c r="L1401" s="148"/>
+      <c r="I1401" s="147" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J1401" s="146"/>
+      <c r="K1401" s="153"/>
+      <c r="L1401" s="146"/>
       <c r="M1401" s="10" t="s">
         <v>1651</v>
       </c>
@@ -63698,10 +63713,10 @@
       </c>
       <c r="C1402" s="146"/>
       <c r="D1402" s="146" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="E1402" s="146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1402" s="146" t="s">
         <v>919</v>
@@ -63712,7 +63727,9 @@
       <c r="H1402" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1402" s="148"/>
+      <c r="I1402" s="148" t="s">
+        <v>1090</v>
+      </c>
       <c r="J1402" s="148"/>
       <c r="K1402" s="154"/>
       <c r="L1402" s="148"/>
@@ -63729,10 +63746,10 @@
       </c>
       <c r="C1403" s="146"/>
       <c r="D1403" s="146" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="E1403" s="146">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1403" s="146" t="s">
         <v>919</v>
@@ -63760,10 +63777,10 @@
       </c>
       <c r="C1404" s="146"/>
       <c r="D1404" s="146" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="E1404" s="146">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1404" s="146" t="s">
         <v>919</v>
@@ -63791,19 +63808,19 @@
       </c>
       <c r="C1405" s="146"/>
       <c r="D1405" s="146" t="s">
-        <v>691</v>
+        <v>383</v>
       </c>
       <c r="E1405" s="146">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1405" s="146" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1405" s="146">
-        <v>70</v>
+        <v>919</v>
+      </c>
+      <c r="G1405" s="146" t="s">
+        <v>916</v>
       </c>
       <c r="H1405" s="7" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="I1405" s="148"/>
       <c r="J1405" s="148"/>
@@ -63822,19 +63839,19 @@
       </c>
       <c r="C1406" s="146"/>
       <c r="D1406" s="146" t="s">
-        <v>446</v>
+        <v>691</v>
       </c>
       <c r="E1406" s="146">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1406" s="146" t="s">
         <v>917</v>
       </c>
       <c r="G1406" s="146">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H1406" s="7" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I1406" s="148"/>
       <c r="J1406" s="148"/>
@@ -63853,23 +63870,21 @@
       </c>
       <c r="C1407" s="146"/>
       <c r="D1407" s="146" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E1407" s="146">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1407" s="146" t="s">
         <v>917</v>
       </c>
       <c r="G1407" s="146">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H1407" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1407" s="148" t="s">
-        <v>1089</v>
-      </c>
+      <c r="I1407" s="148"/>
       <c r="J1407" s="148"/>
       <c r="K1407" s="154"/>
       <c r="L1407" s="148"/>
@@ -63886,21 +63901,23 @@
       </c>
       <c r="C1408" s="146"/>
       <c r="D1408" s="146" t="s">
-        <v>681</v>
+        <v>456</v>
       </c>
       <c r="E1408" s="146">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1408" s="146" t="s">
         <v>917</v>
       </c>
       <c r="G1408" s="146">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H1408" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1408" s="148"/>
+      <c r="I1408" s="148" t="s">
+        <v>1089</v>
+      </c>
       <c r="J1408" s="148"/>
       <c r="K1408" s="154"/>
       <c r="L1408" s="148"/>
@@ -63909,34 +63926,32 @@
       </c>
     </row>
     <row r="1409" spans="1:13">
-      <c r="A1409" s="19" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1409" s="7" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C1409" s="7"/>
-      <c r="D1409" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="E1409" s="7">
-        <v>1</v>
-      </c>
-      <c r="F1409" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1409" s="7">
-        <v>40</v>
+      <c r="A1409" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1409" s="146" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1409" s="146"/>
+      <c r="D1409" s="146" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1409" s="146">
+        <v>13</v>
+      </c>
+      <c r="F1409" s="146" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1409" s="146">
+        <v>10</v>
       </c>
       <c r="H1409" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1409" s="10" t="s">
-        <v>1133</v>
-      </c>
-      <c r="J1409" s="7"/>
-      <c r="K1409" s="23"/>
-      <c r="L1409" s="7"/>
+      <c r="I1409" s="148"/>
+      <c r="J1409" s="148"/>
+      <c r="K1409" s="154"/>
+      <c r="L1409" s="148"/>
       <c r="M1409" s="10" t="s">
         <v>1651</v>
       </c>
@@ -63950,21 +63965,23 @@
       </c>
       <c r="C1410" s="7"/>
       <c r="D1410" s="7" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="E1410" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1410" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1410" s="7">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H1410" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="I1410" s="10"/>
+      <c r="I1410" s="10" t="s">
+        <v>1133</v>
+      </c>
       <c r="J1410" s="7"/>
       <c r="K1410" s="23"/>
       <c r="L1410" s="7"/>
@@ -63981,16 +63998,16 @@
       </c>
       <c r="C1411" s="7"/>
       <c r="D1411" s="7" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="E1411" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1411" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1411" s="7">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H1411" s="7" t="s">
         <v>1292</v>
@@ -64012,16 +64029,16 @@
       </c>
       <c r="C1412" s="7"/>
       <c r="D1412" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E1412" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1412" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1412" s="7">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H1412" s="7" t="s">
         <v>1292</v>
@@ -64043,16 +64060,16 @@
       </c>
       <c r="C1413" s="7"/>
       <c r="D1413" s="7" t="s">
-        <v>682</v>
+        <v>549</v>
       </c>
       <c r="E1413" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1413" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1413" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H1413" s="7" t="s">
         <v>1292</v>
@@ -64074,16 +64091,16 @@
       </c>
       <c r="C1414" s="7"/>
       <c r="D1414" s="7" t="s">
-        <v>551</v>
+        <v>682</v>
       </c>
       <c r="E1414" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1414" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1414" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1414" s="7">
+        <v>4</v>
       </c>
       <c r="H1414" s="7" t="s">
         <v>1292</v>
@@ -64105,13 +64122,13 @@
       </c>
       <c r="C1415" s="7"/>
       <c r="D1415" s="7" t="s">
-        <v>394</v>
+        <v>551</v>
       </c>
       <c r="E1415" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1415" s="7" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G1415" s="7" t="s">
         <v>916</v>
@@ -64136,10 +64153,10 @@
       </c>
       <c r="C1416" s="7"/>
       <c r="D1416" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E1416" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1416" s="7" t="s">
         <v>919</v>
@@ -64167,10 +64184,10 @@
       </c>
       <c r="C1417" s="7"/>
       <c r="D1417" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E1417" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1417" s="7" t="s">
         <v>919</v>
@@ -64198,16 +64215,16 @@
       </c>
       <c r="C1418" s="7"/>
       <c r="D1418" s="7" t="s">
-        <v>666</v>
+        <v>396</v>
       </c>
       <c r="E1418" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1418" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1418" s="7">
-        <v>2</v>
+        <v>919</v>
+      </c>
+      <c r="G1418" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1418" s="7" t="s">
         <v>1292</v>
@@ -64229,16 +64246,16 @@
       </c>
       <c r="C1419" s="7"/>
       <c r="D1419" s="7" t="s">
-        <v>404</v>
+        <v>666</v>
       </c>
       <c r="E1419" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1419" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1419" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1419" s="7">
+        <v>2</v>
       </c>
       <c r="H1419" s="7" t="s">
         <v>1292</v>
@@ -64260,16 +64277,16 @@
       </c>
       <c r="C1420" s="7"/>
       <c r="D1420" s="7" t="s">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="E1420" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1420" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1420" s="7">
-        <v>94</v>
+        <v>919</v>
+      </c>
+      <c r="G1420" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1420" s="7" t="s">
         <v>1292</v>
@@ -64291,16 +64308,16 @@
       </c>
       <c r="C1421" s="7"/>
       <c r="D1421" s="7" t="s">
-        <v>471</v>
+        <v>290</v>
       </c>
       <c r="E1421" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1421" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1421" s="7">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="H1421" s="7" t="s">
         <v>1292</v>
@@ -64322,10 +64339,10 @@
       </c>
       <c r="C1422" s="7"/>
       <c r="D1422" s="7" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
       <c r="E1422" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1422" s="7" t="s">
         <v>917</v>
@@ -64353,16 +64370,16 @@
       </c>
       <c r="C1423" s="7"/>
       <c r="D1423" s="7" t="s">
-        <v>583</v>
+        <v>340</v>
       </c>
       <c r="E1423" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1423" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G1423" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1423" s="7">
+        <v>60</v>
       </c>
       <c r="H1423" s="7" t="s">
         <v>1292</v>
@@ -64384,10 +64401,10 @@
       </c>
       <c r="C1424" s="7"/>
       <c r="D1424" s="7" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="E1424" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1424" s="7" t="s">
         <v>918</v>
@@ -64415,10 +64432,10 @@
       </c>
       <c r="C1425" s="7"/>
       <c r="D1425" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E1425" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1425" s="7" t="s">
         <v>918</v>
@@ -64446,16 +64463,16 @@
       </c>
       <c r="C1426" s="7"/>
       <c r="D1426" s="7" t="s">
-        <v>172</v>
+        <v>604</v>
       </c>
       <c r="E1426" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1426" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1426" s="7">
-        <v>40</v>
+        <v>918</v>
+      </c>
+      <c r="G1426" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1426" s="7" t="s">
         <v>1292</v>
@@ -64477,16 +64494,16 @@
       </c>
       <c r="C1427" s="7"/>
       <c r="D1427" s="7" t="s">
-        <v>470</v>
+        <v>172</v>
       </c>
       <c r="E1427" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1427" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1427" s="7">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H1427" s="7" t="s">
         <v>1292</v>
@@ -64508,16 +64525,16 @@
       </c>
       <c r="C1428" s="7"/>
       <c r="D1428" s="7" t="s">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="E1428" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1428" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G1428" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1428" s="7">
+        <v>70</v>
       </c>
       <c r="H1428" s="7" t="s">
         <v>1292</v>
@@ -64539,10 +64556,10 @@
       </c>
       <c r="C1429" s="7"/>
       <c r="D1429" s="7" t="s">
-        <v>706</v>
+        <v>580</v>
       </c>
       <c r="E1429" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1429" s="7" t="s">
         <v>918</v>
@@ -64570,13 +64587,13 @@
       </c>
       <c r="C1430" s="7"/>
       <c r="D1430" s="7" t="s">
-        <v>445</v>
+        <v>706</v>
       </c>
       <c r="E1430" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1430" s="7" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="G1430" s="7" t="s">
         <v>916</v>
@@ -64601,16 +64618,16 @@
       </c>
       <c r="C1431" s="7"/>
       <c r="D1431" s="7" t="s">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="E1431" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1431" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1431" s="7">
-        <v>2</v>
+        <v>915</v>
+      </c>
+      <c r="G1431" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1431" s="7" t="s">
         <v>1292</v>
@@ -64632,16 +64649,16 @@
       </c>
       <c r="C1432" s="7"/>
       <c r="D1432" s="7" t="s">
-        <v>689</v>
+        <v>148</v>
       </c>
       <c r="E1432" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1432" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1432" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1432" s="7">
+        <v>2</v>
       </c>
       <c r="H1432" s="7" t="s">
         <v>1292</v>
@@ -64663,16 +64680,16 @@
       </c>
       <c r="C1433" s="7"/>
       <c r="D1433" s="7" t="s">
-        <v>212</v>
+        <v>689</v>
       </c>
       <c r="E1433" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1433" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1433" s="7">
-        <v>12</v>
+        <v>915</v>
+      </c>
+      <c r="G1433" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1433" s="7" t="s">
         <v>1292</v>
@@ -64694,16 +64711,16 @@
       </c>
       <c r="C1434" s="7"/>
       <c r="D1434" s="7" t="s">
-        <v>686</v>
+        <v>212</v>
       </c>
       <c r="E1434" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1434" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1434" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H1434" s="7" t="s">
         <v>1292</v>
@@ -64717,32 +64734,32 @@
       </c>
     </row>
     <row r="1435" spans="1:13">
-      <c r="A1435" s="13" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1435" s="146" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C1435" s="146"/>
-      <c r="D1435" s="146" t="s">
-        <v>421</v>
+      <c r="A1435" s="19" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1435" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1435" s="7"/>
+      <c r="D1435" s="7" t="s">
+        <v>686</v>
       </c>
       <c r="E1435" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F1435" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1435" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H1435" s="7" t="s">
         <v>1292</v>
       </c>
       <c r="I1435" s="10"/>
-      <c r="J1435" s="10"/>
-      <c r="K1435" s="155"/>
-      <c r="L1435" s="11"/>
+      <c r="J1435" s="7"/>
+      <c r="K1435" s="23"/>
+      <c r="L1435" s="7"/>
       <c r="M1435" s="10" t="s">
         <v>1651</v>
       </c>
@@ -64756,16 +64773,16 @@
       </c>
       <c r="C1436" s="146"/>
       <c r="D1436" s="146" t="s">
-        <v>668</v>
+        <v>421</v>
       </c>
       <c r="E1436" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1436" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1436" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H1436" s="7" t="s">
         <v>1292</v>
@@ -64787,16 +64804,16 @@
       </c>
       <c r="C1437" s="146"/>
       <c r="D1437" s="146" t="s">
-        <v>442</v>
+        <v>668</v>
       </c>
       <c r="E1437" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1437" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1437" s="7">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H1437" s="7" t="s">
         <v>1292</v>
@@ -64818,16 +64835,16 @@
       </c>
       <c r="C1438" s="146"/>
       <c r="D1438" s="146" t="s">
-        <v>679</v>
+        <v>442</v>
       </c>
       <c r="E1438" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1438" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1438" s="7">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H1438" s="7" t="s">
         <v>1292</v>
@@ -64849,10 +64866,10 @@
       </c>
       <c r="C1439" s="146"/>
       <c r="D1439" s="146" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E1439" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1439" s="7" t="s">
         <v>917</v>
@@ -64880,16 +64897,16 @@
       </c>
       <c r="C1440" s="146"/>
       <c r="D1440" s="146" t="s">
-        <v>514</v>
+        <v>680</v>
       </c>
       <c r="E1440" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1440" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1440" s="7">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H1440" s="7" t="s">
         <v>1292</v>
@@ -64911,16 +64928,16 @@
       </c>
       <c r="C1441" s="146"/>
       <c r="D1441" s="146" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="E1441" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1441" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1441" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1441" s="7">
+        <v>40</v>
       </c>
       <c r="H1441" s="7" t="s">
         <v>1292</v>
@@ -64942,16 +64959,16 @@
       </c>
       <c r="C1442" s="146"/>
       <c r="D1442" s="146" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="E1442" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1442" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1442" s="7">
-        <v>46</v>
+        <v>915</v>
+      </c>
+      <c r="G1442" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1442" s="7" t="s">
         <v>1292</v>
@@ -64973,16 +64990,16 @@
       </c>
       <c r="C1443" s="146"/>
       <c r="D1443" s="146" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E1443" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1443" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1443" s="7">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H1443" s="7" t="s">
         <v>1292</v>
@@ -65004,16 +65021,16 @@
       </c>
       <c r="C1444" s="146"/>
       <c r="D1444" s="146" t="s">
-        <v>461</v>
+        <v>549</v>
       </c>
       <c r="E1444" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1444" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1444" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1444" s="7">
+        <v>18</v>
       </c>
       <c r="H1444" s="7" t="s">
         <v>1292</v>
@@ -65035,16 +65052,16 @@
       </c>
       <c r="C1445" s="146"/>
       <c r="D1445" s="146" t="s">
-        <v>626</v>
+        <v>461</v>
       </c>
       <c r="E1445" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1445" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1445" s="7">
-        <v>16</v>
+        <v>915</v>
+      </c>
+      <c r="G1445" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1445" s="7" t="s">
         <v>1292</v>
@@ -65066,16 +65083,16 @@
       </c>
       <c r="C1446" s="146"/>
       <c r="D1446" s="146" t="s">
-        <v>460</v>
+        <v>626</v>
       </c>
       <c r="E1446" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1446" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1446" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1446" s="7">
+        <v>16</v>
       </c>
       <c r="H1446" s="7" t="s">
         <v>1292</v>
@@ -65097,16 +65114,16 @@
       </c>
       <c r="C1447" s="146"/>
       <c r="D1447" s="146" t="s">
-        <v>625</v>
+        <v>460</v>
       </c>
       <c r="E1447" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1447" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1447" s="7">
-        <v>6</v>
+        <v>915</v>
+      </c>
+      <c r="G1447" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1447" s="7" t="s">
         <v>1292</v>
@@ -65128,16 +65145,16 @@
       </c>
       <c r="C1448" s="146"/>
       <c r="D1448" s="146" t="s">
-        <v>420</v>
+        <v>625</v>
       </c>
       <c r="E1448" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1448" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1448" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H1448" s="7" t="s">
         <v>1292</v>
@@ -65159,16 +65176,16 @@
       </c>
       <c r="C1449" s="146"/>
       <c r="D1449" s="146" t="s">
-        <v>164</v>
+        <v>420</v>
       </c>
       <c r="E1449" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1449" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1449" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H1449" s="7" t="s">
         <v>1292</v>
@@ -65190,16 +65207,16 @@
       </c>
       <c r="C1450" s="146"/>
       <c r="D1450" s="146" t="s">
-        <v>644</v>
+        <v>164</v>
       </c>
       <c r="E1450" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1450" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1450" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1450" s="7">
+        <v>18</v>
       </c>
       <c r="H1450" s="7" t="s">
         <v>1292</v>
@@ -65221,10 +65238,10 @@
       </c>
       <c r="C1451" s="146"/>
       <c r="D1451" s="146" t="s">
-        <v>474</v>
+        <v>644</v>
       </c>
       <c r="E1451" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1451" s="7" t="s">
         <v>915</v>
@@ -65252,10 +65269,10 @@
       </c>
       <c r="C1452" s="146"/>
       <c r="D1452" s="146" t="s">
-        <v>647</v>
+        <v>474</v>
       </c>
       <c r="E1452" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1452" s="7" t="s">
         <v>915</v>
@@ -65283,10 +65300,10 @@
       </c>
       <c r="C1453" s="146"/>
       <c r="D1453" s="146" t="s">
-        <v>152</v>
+        <v>647</v>
       </c>
       <c r="E1453" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1453" s="7" t="s">
         <v>915</v>
@@ -65314,16 +65331,16 @@
       </c>
       <c r="C1454" s="146"/>
       <c r="D1454" s="146" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E1454" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1454" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1454" s="7">
-        <v>100</v>
+        <v>915</v>
+      </c>
+      <c r="G1454" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1454" s="7" t="s">
         <v>1292</v>
@@ -65345,16 +65362,16 @@
       </c>
       <c r="C1455" s="146"/>
       <c r="D1455" s="146" t="s">
-        <v>415</v>
+        <v>158</v>
       </c>
       <c r="E1455" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1455" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1455" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H1455" s="7" t="s">
         <v>1292</v>
@@ -65376,16 +65393,16 @@
       </c>
       <c r="C1456" s="146"/>
       <c r="D1456" s="146" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="E1456" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1456" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1456" s="7">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="H1456" s="7" t="s">
         <v>1292</v>
@@ -65407,16 +65424,16 @@
       </c>
       <c r="C1457" s="146"/>
       <c r="D1457" s="146" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="E1457" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1457" s="7" t="s">
         <v>917</v>
       </c>
       <c r="G1457" s="7">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="H1457" s="7" t="s">
         <v>1292</v>
@@ -65438,16 +65455,16 @@
       </c>
       <c r="C1458" s="146"/>
       <c r="D1458" s="146" t="s">
-        <v>606</v>
+        <v>472</v>
       </c>
       <c r="E1458" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1458" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="G1458" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1458" s="7">
+        <v>60</v>
       </c>
       <c r="H1458" s="7" t="s">
         <v>1292</v>
@@ -65469,10 +65486,10 @@
       </c>
       <c r="C1459" s="146"/>
       <c r="D1459" s="146" t="s">
-        <v>789</v>
+        <v>606</v>
       </c>
       <c r="E1459" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1459" s="7" t="s">
         <v>918</v>
@@ -65500,10 +65517,10 @@
       </c>
       <c r="C1460" s="146"/>
       <c r="D1460" s="146" t="s">
-        <v>738</v>
+        <v>789</v>
       </c>
       <c r="E1460" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1460" s="7" t="s">
         <v>918</v>
@@ -65531,13 +65548,13 @@
       </c>
       <c r="C1461" s="146"/>
       <c r="D1461" s="146" t="s">
-        <v>444</v>
+        <v>738</v>
       </c>
       <c r="E1461" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1461" s="7" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="G1461" s="7" t="s">
         <v>916</v>
@@ -65562,16 +65579,16 @@
       </c>
       <c r="C1462" s="146"/>
       <c r="D1462" s="146" t="s">
-        <v>685</v>
+        <v>444</v>
       </c>
       <c r="E1462" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1462" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1462" s="7">
-        <v>10</v>
+        <v>915</v>
+      </c>
+      <c r="G1462" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="H1462" s="7" t="s">
         <v>1292</v>
@@ -65593,16 +65610,16 @@
       </c>
       <c r="C1463" s="146"/>
       <c r="D1463" s="146" t="s">
-        <v>390</v>
+        <v>685</v>
       </c>
       <c r="E1463" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1463" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="G1463" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="G1463" s="7">
+        <v>10</v>
       </c>
       <c r="H1463" s="7" t="s">
         <v>1292</v>
@@ -65624,10 +65641,10 @@
       </c>
       <c r="C1464" s="146"/>
       <c r="D1464" s="146" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="E1464" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1464" s="7" t="s">
         <v>919</v>
@@ -65647,29 +65664,60 @@
       </c>
     </row>
     <row r="1465" spans="1:13">
-      <c r="A1465" s="129"/>
-      <c r="B1465" s="125"/>
-      <c r="C1465" s="125"/>
-      <c r="D1465" s="125" t="s">
+      <c r="A1465" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1465" s="146" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1465" s="146"/>
+      <c r="D1465" s="146" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1465" s="7">
+        <v>30</v>
+      </c>
+      <c r="F1465" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1465" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1465" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1465" s="10"/>
+      <c r="J1465" s="10"/>
+      <c r="K1465" s="155"/>
+      <c r="L1465" s="11"/>
+      <c r="M1465" s="10" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:13">
+      <c r="A1466" s="129"/>
+      <c r="B1466" s="125"/>
+      <c r="C1466" s="125"/>
+      <c r="D1466" s="125" t="s">
         <v>966</v>
       </c>
-      <c r="E1465" s="125">
+      <c r="E1466" s="125">
         <v>2</v>
       </c>
-      <c r="F1465" s="125" t="s">
-        <v>917</v>
-      </c>
-      <c r="G1465" s="125">
+      <c r="F1466" s="125" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1466" s="125">
         <v>60</v>
       </c>
-      <c r="H1465" s="125" t="s">
+      <c r="H1466" s="125" t="s">
         <v>1206</v>
       </c>
-      <c r="I1465" s="125"/>
-      <c r="J1465" s="125"/>
-      <c r="K1465" s="127"/>
-      <c r="L1465" s="125"/>
-      <c r="M1465" s="10" t="s">
+      <c r="I1466" s="125"/>
+      <c r="J1466" s="125"/>
+      <c r="K1466" s="127"/>
+      <c r="L1466" s="125"/>
+      <c r="M1466" s="10" t="s">
         <v>1650</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15064" uniqueCount="2381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15092" uniqueCount="2382">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -7173,6 +7173,9 @@
   </si>
   <si>
     <t>DS_TIPO_IMPOSTO</t>
+  </si>
+  <si>
+    <t>CD_CHAVE_PRMARIA</t>
   </si>
 </sst>
 </file>
@@ -8506,7 +8509,8 @@
   <autoFilter ref="A1:M1555">
     <filterColumn colId="2">
       <filters>
-        <filter val="stg_cap_titulo_reversao"/>
+        <filter val="stg_car_remessa_cobranca_eletronica"/>
+        <filter val="stg_car_retorno_cobranca_eletronica"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13047,9 +13051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I386" sqref="I386"/>
+      <selection pane="bottomLeft" activeCell="K424" sqref="K424:L427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -25846,7 +25850,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" hidden="1">
       <c r="A382" s="7" t="s">
         <v>1102</v>
       </c>
@@ -25887,7 +25891,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" hidden="1">
       <c r="A383" s="7" t="s">
         <v>1102</v>
       </c>
@@ -25928,7 +25932,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" hidden="1">
       <c r="A384" s="7" t="s">
         <v>1102</v>
       </c>
@@ -25969,7 +25973,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" hidden="1">
       <c r="A385" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26002,7 +26006,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" hidden="1">
       <c r="A386" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26035,7 +26039,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" hidden="1">
       <c r="A387" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26068,7 +26072,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" hidden="1">
       <c r="A388" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26101,7 +26105,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" hidden="1">
       <c r="A389" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26134,7 +26138,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" hidden="1">
       <c r="A390" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26167,7 +26171,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" hidden="1">
       <c r="A391" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26200,7 +26204,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" hidden="1">
       <c r="A392" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26233,7 +26237,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" hidden="1">
       <c r="A393" s="7" t="s">
         <v>1102</v>
       </c>
@@ -26291,10 +26295,18 @@
       <c r="H394" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="I394" s="7"/>
-      <c r="J394" s="7"/>
-      <c r="K394" s="23"/>
-      <c r="L394" s="7"/>
+      <c r="I394" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="J394" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K394" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="L394" s="7" t="s">
+        <v>1178</v>
+      </c>
       <c r="M394" s="10" t="s">
         <v>1642</v>
       </c>
@@ -26324,10 +26336,18 @@
       <c r="H395" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="I395" s="7"/>
-      <c r="J395" s="7"/>
-      <c r="K395" s="23"/>
-      <c r="L395" s="7"/>
+      <c r="I395" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="J395" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K395" s="23" t="s">
+        <v>834</v>
+      </c>
+      <c r="L395" s="7" t="s">
+        <v>1170</v>
+      </c>
       <c r="M395" s="10" t="s">
         <v>1642</v>
       </c>
@@ -26357,10 +26377,18 @@
       <c r="H396" s="7" t="s">
         <v>1521</v>
       </c>
-      <c r="I396" s="7"/>
-      <c r="J396" s="7"/>
-      <c r="K396" s="23"/>
-      <c r="L396" s="7"/>
+      <c r="I396" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="J396" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K396" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="L396" s="7" t="s">
+        <v>1548</v>
+      </c>
       <c r="M396" s="10" t="s">
         <v>1642</v>
       </c>
@@ -26390,10 +26418,18 @@
       <c r="H397" s="7" t="s">
         <v>1530</v>
       </c>
-      <c r="I397" s="7"/>
-      <c r="J397" s="7"/>
-      <c r="K397" s="23"/>
-      <c r="L397" s="7"/>
+      <c r="I397" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="J397" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K397" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="L397" s="7" t="s">
+        <v>1530</v>
+      </c>
       <c r="M397" s="10" t="s">
         <v>1642</v>
       </c>
@@ -27065,15 +27101,23 @@
       <c r="H416" s="107" t="s">
         <v>1178</v>
       </c>
-      <c r="I416" s="107"/>
-      <c r="J416" s="107"/>
-      <c r="K416" s="108"/>
-      <c r="L416" s="107"/>
+      <c r="I416" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="J416" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K416" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="L416" s="7" t="s">
+        <v>1178</v>
+      </c>
       <c r="M416" s="110" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="417" spans="1:13" hidden="1">
+    <row r="417" spans="1:13">
       <c r="A417" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27114,7 +27158,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="418" spans="1:13" hidden="1">
+    <row r="418" spans="1:13">
       <c r="A418" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27147,7 +27191,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="419" spans="1:13" hidden="1">
+    <row r="419" spans="1:13">
       <c r="A419" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27180,7 +27224,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="420" spans="1:13" hidden="1">
+    <row r="420" spans="1:13">
       <c r="A420" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27203,17 +27247,25 @@
         <v>86</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I420" s="7"/>
-      <c r="J420" s="7"/>
-      <c r="K420" s="7"/>
-      <c r="L420" s="7"/>
+        <v>1178</v>
+      </c>
+      <c r="I420" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="J420" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K420" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="L420" s="7" t="s">
+        <v>1178</v>
+      </c>
       <c r="M420" s="10" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="421" spans="1:13" hidden="1">
+    <row r="421" spans="1:13">
       <c r="A421" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27246,7 +27298,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1">
+    <row r="422" spans="1:13">
       <c r="A422" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27287,7 +27339,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="423" spans="1:13" hidden="1">
+    <row r="423" spans="1:13">
       <c r="A423" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27320,7 +27372,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1">
+    <row r="424" spans="1:13">
       <c r="A424" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27361,7 +27413,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1">
+    <row r="425" spans="1:13">
       <c r="A425" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27394,7 +27446,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="426" spans="1:13" hidden="1">
+    <row r="426" spans="1:13">
       <c r="A426" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27427,7 +27479,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="427" spans="1:13" hidden="1">
+    <row r="427" spans="1:13">
       <c r="A427" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27450,17 +27502,25 @@
         <v>80</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I427" s="7"/>
-      <c r="J427" s="7"/>
-      <c r="K427" s="7"/>
-      <c r="L427" s="7"/>
+        <v>2381</v>
+      </c>
+      <c r="I427" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="J427" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K427" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="L427" s="7" t="s">
+        <v>1178</v>
+      </c>
       <c r="M427" s="10" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="428" spans="1:13" hidden="1">
+    <row r="428" spans="1:13">
       <c r="A428" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27497,7 +27557,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="429" spans="1:13" hidden="1">
+    <row r="429" spans="1:13">
       <c r="A429" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27530,7 +27590,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="430" spans="1:13" hidden="1">
+    <row r="430" spans="1:13">
       <c r="A430" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27567,7 +27627,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="431" spans="1:13" hidden="1">
+    <row r="431" spans="1:13">
       <c r="A431" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27600,7 +27660,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="432" spans="1:13" hidden="1">
+    <row r="432" spans="1:13">
       <c r="A432" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27633,7 +27693,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="433" spans="1:13" hidden="1">
+    <row r="433" spans="1:13">
       <c r="A433" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27666,7 +27726,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="434" spans="1:13" hidden="1">
+    <row r="434" spans="1:13">
       <c r="A434" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27699,7 +27759,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="435" spans="1:13" hidden="1">
+    <row r="435" spans="1:13">
       <c r="A435" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27732,7 +27792,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="436" spans="1:13" hidden="1">
+    <row r="436" spans="1:13">
       <c r="A436" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27765,7 +27825,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="437" spans="1:13" hidden="1">
+    <row r="437" spans="1:13">
       <c r="A437" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27798,7 +27858,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="438" spans="1:13" hidden="1">
+    <row r="438" spans="1:13">
       <c r="A438" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27831,7 +27891,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="439" spans="1:13" hidden="1">
+    <row r="439" spans="1:13">
       <c r="A439" s="7" t="s">
         <v>1102</v>
       </c>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DE-PARA Tabelas" sheetId="1" state="hidden" r:id="rId1"/>
@@ -8159,6 +8159,15 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8173,15 +8182,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8509,7 +8509,7 @@
   <autoFilter ref="A1:M1554">
     <filterColumn colId="2">
       <filters>
-        <filter val="stg_car_titulo"/>
+        <filter val="stg_nfv_cab"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9866,7 +9866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9912,7 +9912,7 @@
       <c r="A3" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="135" t="s">
         <v>1757</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -9932,7 +9932,7 @@
       <c r="A4" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="31" t="s">
         <v>1763</v>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="A5" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B5" s="141"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="31" t="s">
         <v>1765</v>
       </c>
@@ -9970,7 +9970,7 @@
       <c r="A6" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B6" s="141"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="31" t="s">
         <v>1767</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="A7" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B7" s="141"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="31" t="s">
         <v>1769</v>
       </c>
@@ -10008,7 +10008,7 @@
       <c r="A8" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B8" s="141"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="31" t="s">
         <v>2318</v>
       </c>
@@ -10027,7 +10027,7 @@
       <c r="A9" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="31" t="s">
         <v>1771</v>
       </c>
@@ -10046,7 +10046,7 @@
       <c r="A10" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B10" s="141"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="31" t="s">
         <v>1773</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="A11" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B11" s="141"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="31" t="s">
         <v>1775</v>
       </c>
@@ -10084,7 +10084,7 @@
       <c r="A12" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B12" s="141"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="31" t="s">
         <v>1777</v>
       </c>
@@ -10103,7 +10103,7 @@
       <c r="A13" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B13" s="141"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="31" t="s">
         <v>1779</v>
       </c>
@@ -10122,7 +10122,7 @@
       <c r="A14" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B14" s="141"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="31" t="s">
         <v>1781</v>
       </c>
@@ -10141,7 +10141,7 @@
       <c r="A15" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B15" s="141"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="31" t="s">
         <v>1783</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="A16" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="31" t="s">
         <v>1785</v>
       </c>
@@ -10179,7 +10179,7 @@
       <c r="A17" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="31" t="s">
         <v>1787</v>
       </c>
@@ -10198,7 +10198,7 @@
       <c r="A18" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B18" s="141"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="31" t="s">
         <v>1796</v>
       </c>
@@ -10216,7 +10216,7 @@
       <c r="A19" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B19" s="141"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="31" t="s">
         <v>1800</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="A20" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="31" t="s">
         <v>1802</v>
       </c>
@@ -10254,7 +10254,7 @@
       <c r="A21" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B21" s="141"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="31" t="s">
         <v>1804</v>
       </c>
@@ -10273,7 +10273,7 @@
       <c r="A22" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B22" s="141"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="31" t="s">
         <v>2295</v>
       </c>
@@ -10292,7 +10292,7 @@
       <c r="A23" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B23" s="141"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="31" t="s">
         <v>1807</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="A24" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B24" s="141"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="31" t="s">
         <v>1813</v>
       </c>
@@ -10330,7 +10330,7 @@
       <c r="A25" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B25" s="141"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="31" t="s">
         <v>1823</v>
       </c>
@@ -10349,7 +10349,7 @@
       <c r="A26" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B26" s="141"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="31" t="s">
         <v>1825</v>
       </c>
@@ -10368,7 +10368,7 @@
       <c r="A27" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B27" s="141"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="31" t="s">
         <v>1827</v>
       </c>
@@ -10387,7 +10387,7 @@
       <c r="A28" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B28" s="141"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="31" t="s">
         <v>1829</v>
       </c>
@@ -10406,7 +10406,7 @@
       <c r="A29" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B29" s="141"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="31" t="s">
         <v>1831</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="A30" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B30" s="141"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="31" t="s">
         <v>1833</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="A31" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B31" s="141"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="31" t="s">
         <v>1835</v>
       </c>
@@ -10463,7 +10463,7 @@
       <c r="A32" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B32" s="141"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="31" t="s">
         <v>1874</v>
       </c>
@@ -10482,7 +10482,7 @@
       <c r="A33" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B33" s="141"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="31" t="s">
         <v>1875</v>
       </c>
@@ -10501,7 +10501,7 @@
       <c r="A34" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B34" s="141"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="31" t="s">
         <v>2381</v>
       </c>
@@ -10520,7 +10520,7 @@
       <c r="A35" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B35" s="141"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="31" t="s">
         <v>2364</v>
       </c>
@@ -10539,7 +10539,7 @@
       <c r="A36" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B36" s="141"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="31" t="s">
         <v>1882</v>
       </c>
@@ -10558,7 +10558,7 @@
       <c r="A37" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B37" s="141"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="31" t="s">
         <v>1884</v>
       </c>
@@ -10577,7 +10577,7 @@
       <c r="A38" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B38" s="141"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="31" t="s">
         <v>1886</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="A39" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B39" s="141"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="31" t="s">
         <v>1888</v>
       </c>
@@ -10615,7 +10615,7 @@
       <c r="A40" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B40" s="141"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="31" t="s">
         <v>1895</v>
       </c>
@@ -10634,7 +10634,7 @@
       <c r="A41" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B41" s="141"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="31" t="s">
         <v>1897</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="A42" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B42" s="142"/>
+      <c r="B42" s="137"/>
       <c r="C42" s="31" t="s">
         <v>2067</v>
       </c>
@@ -10680,7 +10680,7 @@
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="135" t="s">
         <v>2369</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -10701,7 +10701,7 @@
       <c r="A45" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B45" s="141"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="31" t="s">
         <v>1761</v>
       </c>
@@ -10720,7 +10720,7 @@
       <c r="A46" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B46" s="141"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="31" t="s">
         <v>1789</v>
       </c>
@@ -10739,7 +10739,7 @@
       <c r="A47" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B47" s="141"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="31" t="s">
         <v>1791</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="A48" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B48" s="141"/>
+      <c r="B48" s="136"/>
       <c r="C48" s="31" t="s">
         <v>1792</v>
       </c>
@@ -10777,7 +10777,7 @@
       <c r="A49" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B49" s="141"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="31" t="s">
         <v>2019</v>
       </c>
@@ -10796,7 +10796,7 @@
       <c r="A50" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B50" s="141"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="31" t="s">
         <v>1794</v>
       </c>
@@ -10815,7 +10815,7 @@
       <c r="A51" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B51" s="141"/>
+      <c r="B51" s="136"/>
       <c r="C51" s="31" t="s">
         <v>1799</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="A52" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="136"/>
       <c r="C52" s="31" t="s">
         <v>1809</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="A53" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B53" s="141"/>
+      <c r="B53" s="136"/>
       <c r="C53" s="31" t="s">
         <v>1811</v>
       </c>
@@ -10872,7 +10872,7 @@
       <c r="A54" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B54" s="141"/>
+      <c r="B54" s="136"/>
       <c r="C54" s="31" t="s">
         <v>1815</v>
       </c>
@@ -10891,7 +10891,7 @@
       <c r="A55" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B55" s="141"/>
+      <c r="B55" s="136"/>
       <c r="C55" s="31" t="s">
         <v>1817</v>
       </c>
@@ -10910,7 +10910,7 @@
       <c r="A56" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B56" s="141"/>
+      <c r="B56" s="136"/>
       <c r="C56" s="31" t="s">
         <v>1819</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="A57" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B57" s="141"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="31" t="s">
         <v>1821</v>
       </c>
@@ -10948,7 +10948,7 @@
       <c r="A58" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B58" s="141"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="31" t="s">
         <v>1837</v>
       </c>
@@ -10967,7 +10967,7 @@
       <c r="A59" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B59" s="141"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="31" t="s">
         <v>1839</v>
       </c>
@@ -10986,7 +10986,7 @@
       <c r="A60" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B60" s="141"/>
+      <c r="B60" s="136"/>
       <c r="C60" s="31" t="s">
         <v>1841</v>
       </c>
@@ -11005,7 +11005,7 @@
       <c r="A61" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B61" s="141"/>
+      <c r="B61" s="136"/>
       <c r="C61" s="31" t="s">
         <v>1843</v>
       </c>
@@ -11024,7 +11024,7 @@
       <c r="A62" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B62" s="141"/>
+      <c r="B62" s="136"/>
       <c r="C62" s="31" t="s">
         <v>1845</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="A63" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B63" s="141"/>
+      <c r="B63" s="136"/>
       <c r="C63" s="31" t="s">
         <v>1847</v>
       </c>
@@ -11062,7 +11062,7 @@
       <c r="A64" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B64" s="141"/>
+      <c r="B64" s="136"/>
       <c r="C64" s="31" t="s">
         <v>1849</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="A65" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B65" s="141"/>
+      <c r="B65" s="136"/>
       <c r="C65" s="31" t="s">
         <v>2365</v>
       </c>
@@ -11100,7 +11100,7 @@
       <c r="A66" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B66" s="141"/>
+      <c r="B66" s="136"/>
       <c r="C66" s="31" t="s">
         <v>1852</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="A67" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B67" s="141"/>
+      <c r="B67" s="136"/>
       <c r="C67" s="31" t="s">
         <v>1854</v>
       </c>
@@ -11138,7 +11138,7 @@
       <c r="A68" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B68" s="141"/>
+      <c r="B68" s="136"/>
       <c r="C68" s="31" t="s">
         <v>1856</v>
       </c>
@@ -11157,7 +11157,7 @@
       <c r="A69" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B69" s="141"/>
+      <c r="B69" s="136"/>
       <c r="C69" s="31" t="s">
         <v>1858</v>
       </c>
@@ -11176,7 +11176,7 @@
       <c r="A70" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B70" s="141"/>
+      <c r="B70" s="136"/>
       <c r="C70" s="31" t="s">
         <v>1860</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="A71" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B71" s="141"/>
+      <c r="B71" s="136"/>
       <c r="C71" s="31" t="s">
         <v>1862</v>
       </c>
@@ -11214,7 +11214,7 @@
       <c r="A72" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B72" s="141"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="31" t="s">
         <v>1864</v>
       </c>
@@ -11233,7 +11233,7 @@
       <c r="A73" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B73" s="141"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="31" t="s">
         <v>1866</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="A74" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B74" s="141"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="31" t="s">
         <v>1868</v>
       </c>
@@ -11271,7 +11271,7 @@
       <c r="A75" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B75" s="141"/>
+      <c r="B75" s="136"/>
       <c r="C75" s="31" t="s">
         <v>1870</v>
       </c>
@@ -11290,7 +11290,7 @@
       <c r="A76" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B76" s="141"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="31" t="s">
         <v>1877</v>
       </c>
@@ -11311,7 +11311,7 @@
       <c r="A77" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B77" s="141"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="31" t="s">
         <v>1880</v>
       </c>
@@ -11330,7 +11330,7 @@
       <c r="A78" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B78" s="141"/>
+      <c r="B78" s="136"/>
       <c r="C78" s="31" t="s">
         <v>2338</v>
       </c>
@@ -11351,7 +11351,7 @@
       <c r="A79" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B79" s="142"/>
+      <c r="B79" s="137"/>
       <c r="C79" s="31" t="s">
         <v>1890</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="A84" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B84" s="137" t="s">
+      <c r="B84" s="140" t="s">
         <v>1910</v>
       </c>
       <c r="C84" s="31" t="s">
@@ -11453,7 +11453,7 @@
       <c r="A85" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B85" s="138"/>
+      <c r="B85" s="141"/>
       <c r="C85" s="31" t="s">
         <v>1914</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="A86" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B86" s="138"/>
+      <c r="B86" s="141"/>
       <c r="C86" s="31" t="s">
         <v>2370</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="A87" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B87" s="138"/>
+      <c r="B87" s="141"/>
       <c r="C87" s="31" t="s">
         <v>1911</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="A88" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B88" s="138"/>
+      <c r="B88" s="141"/>
       <c r="C88" s="31" t="s">
         <v>1913</v>
       </c>
@@ -11529,7 +11529,7 @@
       <c r="A89" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B89" s="138"/>
+      <c r="B89" s="141"/>
       <c r="C89" s="31" t="s">
         <v>2237</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="A90" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B90" s="138"/>
+      <c r="B90" s="141"/>
       <c r="C90" s="31" t="s">
         <v>2171</v>
       </c>
@@ -11567,7 +11567,7 @@
       <c r="A91" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B91" s="139"/>
+      <c r="B91" s="142"/>
       <c r="C91" s="31" t="s">
         <v>2239</v>
       </c>
@@ -11781,7 +11781,7 @@
       <c r="A103" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B103" s="140" t="s">
+      <c r="B103" s="135" t="s">
         <v>964</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -11802,7 +11802,7 @@
       <c r="A104" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B104" s="141"/>
+      <c r="B104" s="136"/>
       <c r="C104" s="31" t="s">
         <v>2357</v>
       </c>
@@ -11821,7 +11821,7 @@
       <c r="A105" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B105" s="142"/>
+      <c r="B105" s="137"/>
       <c r="C105" s="31" t="s">
         <v>2359</v>
       </c>
@@ -12087,7 +12087,7 @@
       <c r="A121" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B121" s="137" t="s">
+      <c r="B121" s="140" t="s">
         <v>1950</v>
       </c>
       <c r="C121" s="31" t="s">
@@ -12108,7 +12108,7 @@
       <c r="A122" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B122" s="138"/>
+      <c r="B122" s="141"/>
       <c r="C122" s="31" t="s">
         <v>1954</v>
       </c>
@@ -12127,7 +12127,7 @@
       <c r="A123" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B123" s="138"/>
+      <c r="B123" s="141"/>
       <c r="C123" s="31" t="s">
         <v>1956</v>
       </c>
@@ -12146,7 +12146,7 @@
       <c r="A124" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B124" s="138"/>
+      <c r="B124" s="141"/>
       <c r="C124" s="31" t="s">
         <v>1958</v>
       </c>
@@ -12165,7 +12165,7 @@
       <c r="A125" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B125" s="139"/>
+      <c r="B125" s="142"/>
       <c r="C125" s="31" t="s">
         <v>2292</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="A141" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B141" s="137" t="s">
+      <c r="B141" s="140" t="s">
         <v>1994</v>
       </c>
       <c r="C141" s="31" t="s">
@@ -12458,7 +12458,7 @@
       <c r="A142" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B142" s="138"/>
+      <c r="B142" s="141"/>
       <c r="C142" s="31" t="s">
         <v>1998</v>
       </c>
@@ -12477,7 +12477,7 @@
       <c r="A143" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B143" s="139"/>
+      <c r="B143" s="142"/>
       <c r="C143" s="31" t="s">
         <v>2000</v>
       </c>
@@ -12740,22 +12740,22 @@
       <c r="G158" s="34"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="C160" s="135"/>
-      <c r="D160" s="135"/>
-      <c r="E160" s="135"/>
-      <c r="F160" s="135"/>
+      <c r="C160" s="138"/>
+      <c r="D160" s="138"/>
+      <c r="E160" s="138"/>
+      <c r="F160" s="138"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="C161" s="135"/>
-      <c r="D161" s="135"/>
-      <c r="E161" s="135"/>
-      <c r="F161" s="135"/>
+      <c r="C161" s="138"/>
+      <c r="D161" s="138"/>
+      <c r="E161" s="138"/>
+      <c r="F161" s="138"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="C162" s="136"/>
-      <c r="D162" s="136"/>
-      <c r="E162" s="136"/>
-      <c r="F162" s="136"/>
+      <c r="C162" s="139"/>
+      <c r="D162" s="139"/>
+      <c r="E162" s="139"/>
+      <c r="F162" s="139"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="116" t="s">
@@ -13050,9 +13050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1554"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A440" sqref="A440"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C972" sqref="C972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27927,7 +27927,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" hidden="1">
       <c r="A440" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27960,7 +27960,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" hidden="1">
       <c r="A441" s="7" t="s">
         <v>1102</v>
       </c>
@@ -27993,7 +27993,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" hidden="1">
       <c r="A442" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" hidden="1">
       <c r="A443" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" hidden="1">
       <c r="A444" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" hidden="1">
       <c r="A445" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28145,7 +28145,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" hidden="1">
       <c r="A446" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28186,7 +28186,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" hidden="1">
       <c r="A447" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" hidden="1">
       <c r="A448" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28268,7 +28268,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" hidden="1">
       <c r="A449" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28301,7 +28301,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" hidden="1">
       <c r="A450" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28334,7 +28334,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" hidden="1">
       <c r="A451" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" hidden="1">
       <c r="A452" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" hidden="1">
       <c r="A453" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28441,7 +28441,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="30" customHeight="1">
+    <row r="454" spans="1:13" ht="30" hidden="1" customHeight="1">
       <c r="A454" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" hidden="1">
       <c r="A455" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28507,7 +28507,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" hidden="1">
       <c r="A456" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28548,7 +28548,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" hidden="1">
       <c r="A457" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28589,7 +28589,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" hidden="1">
       <c r="A458" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28622,7 +28622,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" hidden="1">
       <c r="A459" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28655,7 +28655,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" hidden="1">
       <c r="A460" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28688,7 +28688,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" hidden="1">
       <c r="A461" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28721,7 +28721,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" hidden="1">
       <c r="A462" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28754,7 +28754,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" hidden="1">
       <c r="A463" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28787,7 +28787,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" hidden="1">
       <c r="A464" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" hidden="1">
       <c r="A465" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28853,7 +28853,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" hidden="1">
       <c r="A466" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28886,7 +28886,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" hidden="1">
       <c r="A467" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28927,7 +28927,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" hidden="1">
       <c r="A468" s="7" t="s">
         <v>1102</v>
       </c>
@@ -28960,7 +28960,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" hidden="1">
       <c r="A469" s="7" t="s">
         <v>1102</v>
       </c>
@@ -29001,7 +29001,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" hidden="1">
       <c r="A470" s="7" t="s">
         <v>1102</v>
       </c>
@@ -45886,7 +45886,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="953" spans="1:13" hidden="1">
+    <row r="953" spans="1:13">
       <c r="A953" s="7" t="s">
         <v>1102</v>
       </c>
@@ -45927,7 +45927,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="954" spans="1:13" hidden="1">
+    <row r="954" spans="1:13">
       <c r="A954" s="7" t="s">
         <v>1102</v>
       </c>
@@ -45968,7 +45968,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="955" spans="1:13" hidden="1">
+    <row r="955" spans="1:13">
       <c r="A955" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46001,7 +46001,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="956" spans="1:13" hidden="1">
+    <row r="956" spans="1:13">
       <c r="A956" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46034,7 +46034,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="957" spans="1:13" hidden="1">
+    <row r="957" spans="1:13">
       <c r="A957" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46075,7 +46075,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="958" spans="1:13" hidden="1">
+    <row r="958" spans="1:13">
       <c r="A958" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46116,7 +46116,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="959" spans="1:13" hidden="1">
+    <row r="959" spans="1:13">
       <c r="A959" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46157,7 +46157,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="960" spans="1:13" hidden="1">
+    <row r="960" spans="1:13">
       <c r="A960" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46190,7 +46190,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="961" spans="1:13" hidden="1">
+    <row r="961" spans="1:13">
       <c r="A961" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46223,7 +46223,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="962" spans="1:13" hidden="1">
+    <row r="962" spans="1:13">
       <c r="A962" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46264,7 +46264,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="963" spans="1:13" hidden="1">
+    <row r="963" spans="1:13">
       <c r="A963" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46305,7 +46305,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="964" spans="1:13" hidden="1">
+    <row r="964" spans="1:13">
       <c r="A964" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46346,7 +46346,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="965" spans="1:13" hidden="1">
+    <row r="965" spans="1:13">
       <c r="A965" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46383,7 +46383,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="966" spans="1:13" hidden="1">
+    <row r="966" spans="1:13">
       <c r="A966" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46424,7 +46424,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="967" spans="1:13" hidden="1">
+    <row r="967" spans="1:13">
       <c r="A967" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46457,7 +46457,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="968" spans="1:13" hidden="1">
+    <row r="968" spans="1:13">
       <c r="A968" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46490,7 +46490,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="969" spans="1:13" hidden="1">
+    <row r="969" spans="1:13">
       <c r="A969" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46523,7 +46523,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="970" spans="1:13" hidden="1">
+    <row r="970" spans="1:13">
       <c r="A970" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46556,7 +46556,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="971" spans="1:13" hidden="1">
+    <row r="971" spans="1:13">
       <c r="A971" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46589,7 +46589,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="972" spans="1:13" hidden="1">
+    <row r="972" spans="1:13">
       <c r="A972" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46622,7 +46622,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="973" spans="1:13" hidden="1">
+    <row r="973" spans="1:13">
       <c r="A973" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46655,7 +46655,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="974" spans="1:13" hidden="1">
+    <row r="974" spans="1:13">
       <c r="A974" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46688,7 +46688,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="975" spans="1:13" hidden="1">
+    <row r="975" spans="1:13">
       <c r="A975" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46721,7 +46721,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="976" spans="1:13" hidden="1">
+    <row r="976" spans="1:13">
       <c r="A976" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46754,7 +46754,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="977" spans="1:13" hidden="1">
+    <row r="977" spans="1:13">
       <c r="A977" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46787,7 +46787,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="978" spans="1:13" hidden="1">
+    <row r="978" spans="1:13">
       <c r="A978" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46820,7 +46820,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="979" spans="1:13" hidden="1">
+    <row r="979" spans="1:13">
       <c r="A979" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46853,7 +46853,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="980" spans="1:13" hidden="1">
+    <row r="980" spans="1:13">
       <c r="A980" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46886,7 +46886,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="981" spans="1:13" hidden="1">
+    <row r="981" spans="1:13">
       <c r="A981" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46919,7 +46919,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="982" spans="1:13" hidden="1">
+    <row r="982" spans="1:13">
       <c r="A982" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46960,7 +46960,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="983" spans="1:13" hidden="1">
+    <row r="983" spans="1:13">
       <c r="A983" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46993,7 +46993,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="984" spans="1:13" hidden="1">
+    <row r="984" spans="1:13">
       <c r="A984" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47026,7 +47026,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="985" spans="1:13" hidden="1">
+    <row r="985" spans="1:13">
       <c r="A985" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47059,7 +47059,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="986" spans="1:13" hidden="1">
+    <row r="986" spans="1:13">
       <c r="A986" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47092,7 +47092,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="987" spans="1:13" hidden="1">
+    <row r="987" spans="1:13">
       <c r="A987" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47125,7 +47125,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="988" spans="1:13" hidden="1">
+    <row r="988" spans="1:13">
       <c r="A988" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47158,7 +47158,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="989" spans="1:13" hidden="1">
+    <row r="989" spans="1:13">
       <c r="A989" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47191,7 +47191,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="990" spans="1:13" hidden="1">
+    <row r="990" spans="1:13">
       <c r="A990" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47224,7 +47224,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="991" spans="1:13" hidden="1">
+    <row r="991" spans="1:13">
       <c r="A991" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47257,7 +47257,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="992" spans="1:13" hidden="1">
+    <row r="992" spans="1:13">
       <c r="A992" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47290,7 +47290,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="993" spans="1:13" hidden="1">
+    <row r="993" spans="1:13">
       <c r="A993" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47323,7 +47323,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="994" spans="1:13" hidden="1">
+    <row r="994" spans="1:13">
       <c r="A994" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47364,7 +47364,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="995" spans="1:13" hidden="1">
+    <row r="995" spans="1:13">
       <c r="A995" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47405,7 +47405,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="996" spans="1:13" hidden="1">
+    <row r="996" spans="1:13">
       <c r="A996" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47438,7 +47438,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="997" spans="1:13" hidden="1">
+    <row r="997" spans="1:13">
       <c r="A997" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47479,7 +47479,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="998" spans="1:13" hidden="1">
+    <row r="998" spans="1:13">
       <c r="A998" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47520,7 +47520,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="999" spans="1:13" hidden="1">
+    <row r="999" spans="1:13">
       <c r="A999" s="7" t="s">
         <v>1102</v>
       </c>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -17,14 +17,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$F$157</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$458</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18255" uniqueCount="3032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18264" uniqueCount="3032">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -10119,6 +10119,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10164,15 +10173,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10180,30 +10180,6 @@
   <dxfs count="27">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10374,6 +10350,30 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -10729,29 +10729,21 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I457" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A2:I457">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ods_purchase"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="MIS_DW"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I458" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A2:I458">
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Sequence Container" dataDxfId="11"/>
-    <tableColumn id="2" name="EPT" dataDxfId="10"/>
-    <tableColumn id="3" name="Package" dataDxfId="9"/>
-    <tableColumn id="4" name="DTSX Controlador" dataDxfId="8"/>
-    <tableColumn id="5" name="Sequence Container Controlador" dataDxfId="7"/>
-    <tableColumn id="6" name="EPT Controlador" dataDxfId="6"/>
-    <tableColumn id="7" name="Tabelas Geradas" dataDxfId="5"/>
-    <tableColumn id="8" name="Database Destino" dataDxfId="4"/>
-    <tableColumn id="9" name="Observação" dataDxfId="3"/>
+    <tableColumn id="1" name="Sequence Container" dataDxfId="9"/>
+    <tableColumn id="2" name="EPT" dataDxfId="8"/>
+    <tableColumn id="3" name="Package" dataDxfId="7"/>
+    <tableColumn id="4" name="DTSX Controlador" dataDxfId="6"/>
+    <tableColumn id="5" name="Sequence Container Controlador" dataDxfId="5"/>
+    <tableColumn id="6" name="EPT Controlador" dataDxfId="4"/>
+    <tableColumn id="7" name="Tabelas Geradas" dataDxfId="3"/>
+    <tableColumn id="8" name="Database Destino" dataDxfId="2"/>
+    <tableColumn id="9" name="Observação" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12121,7 +12113,7 @@
       <c r="A3" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="139" t="s">
         <v>1757</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -12141,7 +12133,7 @@
       <c r="A4" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B4" s="137"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="31" t="s">
         <v>1763</v>
       </c>
@@ -12160,7 +12152,7 @@
       <c r="A5" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="31" t="s">
         <v>1765</v>
       </c>
@@ -12179,7 +12171,7 @@
       <c r="A6" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B6" s="137"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="31" t="s">
         <v>1767</v>
       </c>
@@ -12198,7 +12190,7 @@
       <c r="A7" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B7" s="137"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="31" t="s">
         <v>1769</v>
       </c>
@@ -12217,7 +12209,7 @@
       <c r="A8" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="31" t="s">
         <v>2294</v>
       </c>
@@ -12236,7 +12228,7 @@
       <c r="A9" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B9" s="137"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="31" t="s">
         <v>1771</v>
       </c>
@@ -12255,7 +12247,7 @@
       <c r="A10" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B10" s="137"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="31" t="s">
         <v>1773</v>
       </c>
@@ -12274,7 +12266,7 @@
       <c r="A11" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B11" s="137"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="31" t="s">
         <v>1775</v>
       </c>
@@ -12293,7 +12285,7 @@
       <c r="A12" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B12" s="137"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="31" t="s">
         <v>1777</v>
       </c>
@@ -12312,7 +12304,7 @@
       <c r="A13" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B13" s="137"/>
+      <c r="B13" s="140"/>
       <c r="C13" s="31" t="s">
         <v>1779</v>
       </c>
@@ -12331,7 +12323,7 @@
       <c r="A14" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="140"/>
       <c r="C14" s="31" t="s">
         <v>1781</v>
       </c>
@@ -12350,7 +12342,7 @@
       <c r="A15" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B15" s="137"/>
+      <c r="B15" s="140"/>
       <c r="C15" s="31" t="s">
         <v>1783</v>
       </c>
@@ -12369,7 +12361,7 @@
       <c r="A16" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B16" s="137"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="31" t="s">
         <v>1785</v>
       </c>
@@ -12388,7 +12380,7 @@
       <c r="A17" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="31" t="s">
         <v>1787</v>
       </c>
@@ -12407,7 +12399,7 @@
       <c r="A18" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B18" s="137"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="31" t="s">
         <v>1796</v>
       </c>
@@ -12425,7 +12417,7 @@
       <c r="A19" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B19" s="137"/>
+      <c r="B19" s="140"/>
       <c r="C19" s="31" t="s">
         <v>1800</v>
       </c>
@@ -12444,7 +12436,7 @@
       <c r="A20" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B20" s="137"/>
+      <c r="B20" s="140"/>
       <c r="C20" s="31" t="s">
         <v>1802</v>
       </c>
@@ -12463,7 +12455,7 @@
       <c r="A21" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B21" s="137"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="31" t="s">
         <v>1804</v>
       </c>
@@ -12482,7 +12474,7 @@
       <c r="A22" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B22" s="137"/>
+      <c r="B22" s="140"/>
       <c r="C22" s="31" t="s">
         <v>2271</v>
       </c>
@@ -12501,7 +12493,7 @@
       <c r="A23" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B23" s="137"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="31" t="s">
         <v>1807</v>
       </c>
@@ -12520,7 +12512,7 @@
       <c r="A24" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B24" s="137"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="31" t="s">
         <v>1813</v>
       </c>
@@ -12539,7 +12531,7 @@
       <c r="A25" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B25" s="137"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="31" t="s">
         <v>1823</v>
       </c>
@@ -12558,7 +12550,7 @@
       <c r="A26" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B26" s="137"/>
+      <c r="B26" s="140"/>
       <c r="C26" s="31" t="s">
         <v>1825</v>
       </c>
@@ -12577,7 +12569,7 @@
       <c r="A27" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B27" s="137"/>
+      <c r="B27" s="140"/>
       <c r="C27" s="31" t="s">
         <v>1827</v>
       </c>
@@ -12596,7 +12588,7 @@
       <c r="A28" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B28" s="137"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="31" t="s">
         <v>1829</v>
       </c>
@@ -12615,7 +12607,7 @@
       <c r="A29" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B29" s="137"/>
+      <c r="B29" s="140"/>
       <c r="C29" s="31" t="s">
         <v>1831</v>
       </c>
@@ -12634,7 +12626,7 @@
       <c r="A30" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B30" s="137"/>
+      <c r="B30" s="140"/>
       <c r="C30" s="31" t="s">
         <v>1833</v>
       </c>
@@ -12653,7 +12645,7 @@
       <c r="A31" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B31" s="137"/>
+      <c r="B31" s="140"/>
       <c r="C31" s="31" t="s">
         <v>1835</v>
       </c>
@@ -12672,7 +12664,7 @@
       <c r="A32" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="31" t="s">
         <v>1874</v>
       </c>
@@ -12691,7 +12683,7 @@
       <c r="A33" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B33" s="137"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="31" t="s">
         <v>1875</v>
       </c>
@@ -12710,7 +12702,7 @@
       <c r="A34" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B34" s="137"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="31" t="s">
         <v>2357</v>
       </c>
@@ -12729,7 +12721,7 @@
       <c r="A35" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B35" s="137"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="31" t="s">
         <v>2340</v>
       </c>
@@ -12748,7 +12740,7 @@
       <c r="A36" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B36" s="137"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="31" t="s">
         <v>1882</v>
       </c>
@@ -12767,7 +12759,7 @@
       <c r="A37" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B37" s="137"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="31" t="s">
         <v>1884</v>
       </c>
@@ -12786,7 +12778,7 @@
       <c r="A38" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B38" s="137"/>
+      <c r="B38" s="140"/>
       <c r="C38" s="31" t="s">
         <v>1886</v>
       </c>
@@ -12805,7 +12797,7 @@
       <c r="A39" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B39" s="137"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="31" t="s">
         <v>1888</v>
       </c>
@@ -12824,7 +12816,7 @@
       <c r="A40" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B40" s="137"/>
+      <c r="B40" s="140"/>
       <c r="C40" s="31" t="s">
         <v>1895</v>
       </c>
@@ -12843,7 +12835,7 @@
       <c r="A41" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B41" s="137"/>
+      <c r="B41" s="140"/>
       <c r="C41" s="31" t="s">
         <v>1897</v>
       </c>
@@ -12862,7 +12854,7 @@
       <c r="A42" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B42" s="138"/>
+      <c r="B42" s="141"/>
       <c r="C42" s="31" t="s">
         <v>2048</v>
       </c>
@@ -12889,7 +12881,7 @@
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="139" t="s">
         <v>2345</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -12910,7 +12902,7 @@
       <c r="A45" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B45" s="137"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="31" t="s">
         <v>1761</v>
       </c>
@@ -12929,7 +12921,7 @@
       <c r="A46" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B46" s="137"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="31" t="s">
         <v>1789</v>
       </c>
@@ -12948,7 +12940,7 @@
       <c r="A47" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B47" s="137"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="31" t="s">
         <v>1791</v>
       </c>
@@ -12967,7 +12959,7 @@
       <c r="A48" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B48" s="137"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="31" t="s">
         <v>1792</v>
       </c>
@@ -12986,7 +12978,7 @@
       <c r="A49" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B49" s="137"/>
+      <c r="B49" s="140"/>
       <c r="C49" s="31" t="s">
         <v>2019</v>
       </c>
@@ -13005,7 +12997,7 @@
       <c r="A50" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B50" s="137"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="31" t="s">
         <v>1794</v>
       </c>
@@ -13024,7 +13016,7 @@
       <c r="A51" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B51" s="137"/>
+      <c r="B51" s="140"/>
       <c r="C51" s="31" t="s">
         <v>1799</v>
       </c>
@@ -13043,7 +13035,7 @@
       <c r="A52" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B52" s="137"/>
+      <c r="B52" s="140"/>
       <c r="C52" s="31" t="s">
         <v>1809</v>
       </c>
@@ -13062,7 +13054,7 @@
       <c r="A53" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B53" s="137"/>
+      <c r="B53" s="140"/>
       <c r="C53" s="31" t="s">
         <v>1811</v>
       </c>
@@ -13081,7 +13073,7 @@
       <c r="A54" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B54" s="137"/>
+      <c r="B54" s="140"/>
       <c r="C54" s="31" t="s">
         <v>1815</v>
       </c>
@@ -13100,7 +13092,7 @@
       <c r="A55" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B55" s="137"/>
+      <c r="B55" s="140"/>
       <c r="C55" s="31" t="s">
         <v>1817</v>
       </c>
@@ -13119,7 +13111,7 @@
       <c r="A56" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B56" s="137"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="31" t="s">
         <v>1819</v>
       </c>
@@ -13138,7 +13130,7 @@
       <c r="A57" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B57" s="137"/>
+      <c r="B57" s="140"/>
       <c r="C57" s="31" t="s">
         <v>1821</v>
       </c>
@@ -13157,7 +13149,7 @@
       <c r="A58" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B58" s="137"/>
+      <c r="B58" s="140"/>
       <c r="C58" s="31" t="s">
         <v>1837</v>
       </c>
@@ -13176,7 +13168,7 @@
       <c r="A59" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B59" s="137"/>
+      <c r="B59" s="140"/>
       <c r="C59" s="31" t="s">
         <v>1839</v>
       </c>
@@ -13195,7 +13187,7 @@
       <c r="A60" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B60" s="137"/>
+      <c r="B60" s="140"/>
       <c r="C60" s="31" t="s">
         <v>1841</v>
       </c>
@@ -13214,7 +13206,7 @@
       <c r="A61" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B61" s="137"/>
+      <c r="B61" s="140"/>
       <c r="C61" s="31" t="s">
         <v>1843</v>
       </c>
@@ -13233,7 +13225,7 @@
       <c r="A62" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B62" s="137"/>
+      <c r="B62" s="140"/>
       <c r="C62" s="31" t="s">
         <v>1845</v>
       </c>
@@ -13252,7 +13244,7 @@
       <c r="A63" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B63" s="137"/>
+      <c r="B63" s="140"/>
       <c r="C63" s="31" t="s">
         <v>1847</v>
       </c>
@@ -13271,7 +13263,7 @@
       <c r="A64" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B64" s="137"/>
+      <c r="B64" s="140"/>
       <c r="C64" s="31" t="s">
         <v>1849</v>
       </c>
@@ -13290,7 +13282,7 @@
       <c r="A65" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B65" s="137"/>
+      <c r="B65" s="140"/>
       <c r="C65" s="31" t="s">
         <v>2341</v>
       </c>
@@ -13309,7 +13301,7 @@
       <c r="A66" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B66" s="137"/>
+      <c r="B66" s="140"/>
       <c r="C66" s="31" t="s">
         <v>1852</v>
       </c>
@@ -13328,7 +13320,7 @@
       <c r="A67" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B67" s="137"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="31" t="s">
         <v>1854</v>
       </c>
@@ -13347,7 +13339,7 @@
       <c r="A68" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B68" s="137"/>
+      <c r="B68" s="140"/>
       <c r="C68" s="31" t="s">
         <v>1856</v>
       </c>
@@ -13366,7 +13358,7 @@
       <c r="A69" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B69" s="137"/>
+      <c r="B69" s="140"/>
       <c r="C69" s="31" t="s">
         <v>1858</v>
       </c>
@@ -13385,7 +13377,7 @@
       <c r="A70" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B70" s="137"/>
+      <c r="B70" s="140"/>
       <c r="C70" s="31" t="s">
         <v>1860</v>
       </c>
@@ -13404,7 +13396,7 @@
       <c r="A71" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B71" s="137"/>
+      <c r="B71" s="140"/>
       <c r="C71" s="31" t="s">
         <v>1862</v>
       </c>
@@ -13423,7 +13415,7 @@
       <c r="A72" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B72" s="137"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="31" t="s">
         <v>1864</v>
       </c>
@@ -13442,7 +13434,7 @@
       <c r="A73" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B73" s="137"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="31" t="s">
         <v>1866</v>
       </c>
@@ -13461,7 +13453,7 @@
       <c r="A74" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B74" s="137"/>
+      <c r="B74" s="140"/>
       <c r="C74" s="31" t="s">
         <v>1868</v>
       </c>
@@ -13480,7 +13472,7 @@
       <c r="A75" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B75" s="137"/>
+      <c r="B75" s="140"/>
       <c r="C75" s="31" t="s">
         <v>1870</v>
       </c>
@@ -13499,7 +13491,7 @@
       <c r="A76" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B76" s="137"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="31" t="s">
         <v>1877</v>
       </c>
@@ -13520,7 +13512,7 @@
       <c r="A77" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B77" s="137"/>
+      <c r="B77" s="140"/>
       <c r="C77" s="31" t="s">
         <v>1880</v>
       </c>
@@ -13539,7 +13531,7 @@
       <c r="A78" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B78" s="137"/>
+      <c r="B78" s="140"/>
       <c r="C78" s="31" t="s">
         <v>2314</v>
       </c>
@@ -13560,7 +13552,7 @@
       <c r="A79" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B79" s="138"/>
+      <c r="B79" s="141"/>
       <c r="C79" s="31" t="s">
         <v>1890</v>
       </c>
@@ -13590,7 +13582,7 @@
       <c r="A81" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B81" s="145" t="s">
+      <c r="B81" s="148" t="s">
         <v>911</v>
       </c>
       <c r="C81" s="31" t="s">
@@ -13611,7 +13603,7 @@
       <c r="A82" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B82" s="146"/>
+      <c r="B82" s="149"/>
       <c r="C82" s="31" t="s">
         <v>1908</v>
       </c>
@@ -13641,7 +13633,7 @@
       <c r="A84" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B84" s="141" t="s">
+      <c r="B84" s="144" t="s">
         <v>1910</v>
       </c>
       <c r="C84" s="31" t="s">
@@ -13662,7 +13654,7 @@
       <c r="A85" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B85" s="142"/>
+      <c r="B85" s="145"/>
       <c r="C85" s="31" t="s">
         <v>1914</v>
       </c>
@@ -13681,7 +13673,7 @@
       <c r="A86" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B86" s="142"/>
+      <c r="B86" s="145"/>
       <c r="C86" s="31" t="s">
         <v>2346</v>
       </c>
@@ -13700,7 +13692,7 @@
       <c r="A87" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B87" s="142"/>
+      <c r="B87" s="145"/>
       <c r="C87" s="31" t="s">
         <v>1911</v>
       </c>
@@ -13719,7 +13711,7 @@
       <c r="A88" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B88" s="142"/>
+      <c r="B88" s="145"/>
       <c r="C88" s="31" t="s">
         <v>1913</v>
       </c>
@@ -13738,7 +13730,7 @@
       <c r="A89" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B89" s="142"/>
+      <c r="B89" s="145"/>
       <c r="C89" s="31" t="s">
         <v>2213</v>
       </c>
@@ -13757,7 +13749,7 @@
       <c r="A90" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B90" s="142"/>
+      <c r="B90" s="145"/>
       <c r="C90" s="31" t="s">
         <v>2147</v>
       </c>
@@ -13776,7 +13768,7 @@
       <c r="A91" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B91" s="143"/>
+      <c r="B91" s="146"/>
       <c r="C91" s="31" t="s">
         <v>2215</v>
       </c>
@@ -13806,7 +13798,7 @@
       <c r="A93" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B93" s="145" t="s">
+      <c r="B93" s="148" t="s">
         <v>1919</v>
       </c>
       <c r="C93" s="31" t="s">
@@ -13827,7 +13819,7 @@
       <c r="A94" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B94" s="147"/>
+      <c r="B94" s="150"/>
       <c r="C94" s="31" t="s">
         <v>1920</v>
       </c>
@@ -13846,7 +13838,7 @@
       <c r="A95" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B95" s="147"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="31" t="s">
         <v>1923</v>
       </c>
@@ -13865,7 +13857,7 @@
       <c r="A96" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B96" s="147"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="31" t="s">
         <v>1925</v>
       </c>
@@ -13884,7 +13876,7 @@
       <c r="A97" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B97" s="147"/>
+      <c r="B97" s="150"/>
       <c r="C97" s="31" t="s">
         <v>1929</v>
       </c>
@@ -13903,7 +13895,7 @@
       <c r="A98" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B98" s="147"/>
+      <c r="B98" s="150"/>
       <c r="C98" s="31" t="s">
         <v>1927</v>
       </c>
@@ -13922,7 +13914,7 @@
       <c r="A99" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B99" s="147"/>
+      <c r="B99" s="150"/>
       <c r="C99" s="31" t="s">
         <v>2259</v>
       </c>
@@ -13941,7 +13933,7 @@
       <c r="A100" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B100" s="147"/>
+      <c r="B100" s="150"/>
       <c r="C100" s="31" t="s">
         <v>2260</v>
       </c>
@@ -13960,7 +13952,7 @@
       <c r="A101" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B101" s="146"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="31" t="s">
         <v>2287</v>
       </c>
@@ -13990,7 +13982,7 @@
       <c r="A103" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B103" s="136" t="s">
+      <c r="B103" s="139" t="s">
         <v>964</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -14011,7 +14003,7 @@
       <c r="A104" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B104" s="137"/>
+      <c r="B104" s="140"/>
       <c r="C104" s="31" t="s">
         <v>2333</v>
       </c>
@@ -14030,7 +14022,7 @@
       <c r="A105" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B105" s="138"/>
+      <c r="B105" s="141"/>
       <c r="C105" s="31" t="s">
         <v>2335</v>
       </c>
@@ -14092,7 +14084,7 @@
       <c r="A109" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B109" s="145" t="s">
+      <c r="B109" s="148" t="s">
         <v>945</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -14113,7 +14105,7 @@
       <c r="A110" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B110" s="147"/>
+      <c r="B110" s="150"/>
       <c r="C110" s="31" t="s">
         <v>1937</v>
       </c>
@@ -14132,7 +14124,7 @@
       <c r="A111" s="30" t="s">
         <v>2301</v>
       </c>
-      <c r="B111" s="147"/>
+      <c r="B111" s="150"/>
       <c r="C111" s="31" t="s">
         <v>2289</v>
       </c>
@@ -14151,7 +14143,7 @@
       <c r="A112" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B112" s="146"/>
+      <c r="B112" s="149"/>
       <c r="C112" s="31" t="s">
         <v>1939</v>
       </c>
@@ -14181,7 +14173,7 @@
       <c r="A114" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B114" s="145" t="s">
+      <c r="B114" s="148" t="s">
         <v>951</v>
       </c>
       <c r="C114" s="31" t="s">
@@ -14202,7 +14194,7 @@
       <c r="A115" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B115" s="146"/>
+      <c r="B115" s="149"/>
       <c r="C115" s="31" t="s">
         <v>1944</v>
       </c>
@@ -14296,7 +14288,7 @@
       <c r="A121" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B121" s="141" t="s">
+      <c r="B121" s="144" t="s">
         <v>1950</v>
       </c>
       <c r="C121" s="31" t="s">
@@ -14317,7 +14309,7 @@
       <c r="A122" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B122" s="142"/>
+      <c r="B122" s="145"/>
       <c r="C122" s="31" t="s">
         <v>1954</v>
       </c>
@@ -14336,7 +14328,7 @@
       <c r="A123" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B123" s="142"/>
+      <c r="B123" s="145"/>
       <c r="C123" s="31" t="s">
         <v>1956</v>
       </c>
@@ -14355,7 +14347,7 @@
       <c r="A124" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B124" s="142"/>
+      <c r="B124" s="145"/>
       <c r="C124" s="31" t="s">
         <v>1958</v>
       </c>
@@ -14374,7 +14366,7 @@
       <c r="A125" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B125" s="143"/>
+      <c r="B125" s="146"/>
       <c r="C125" s="31" t="s">
         <v>2268</v>
       </c>
@@ -14404,7 +14396,7 @@
       <c r="A127" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B127" s="145" t="s">
+      <c r="B127" s="148" t="s">
         <v>1960</v>
       </c>
       <c r="C127" s="31" t="s">
@@ -14425,7 +14417,7 @@
       <c r="A128" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B128" s="147"/>
+      <c r="B128" s="150"/>
       <c r="C128" s="31" t="s">
         <v>1964</v>
       </c>
@@ -14444,7 +14436,7 @@
       <c r="A129" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B129" s="146"/>
+      <c r="B129" s="149"/>
       <c r="C129" s="31" t="s">
         <v>1966</v>
       </c>
@@ -14506,7 +14498,7 @@
       <c r="A133" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B133" s="145" t="s">
+      <c r="B133" s="148" t="s">
         <v>1976</v>
       </c>
       <c r="C133" s="31" t="s">
@@ -14527,7 +14519,7 @@
       <c r="A134" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B134" s="146"/>
+      <c r="B134" s="149"/>
       <c r="C134" s="31" t="s">
         <v>1980</v>
       </c>
@@ -14557,7 +14549,7 @@
       <c r="A136" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B136" s="145" t="s">
+      <c r="B136" s="148" t="s">
         <v>1982</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -14578,7 +14570,7 @@
       <c r="A137" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B137" s="147"/>
+      <c r="B137" s="150"/>
       <c r="C137" s="31" t="s">
         <v>1986</v>
       </c>
@@ -14597,7 +14589,7 @@
       <c r="A138" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B138" s="147"/>
+      <c r="B138" s="150"/>
       <c r="C138" s="31" t="s">
         <v>1988</v>
       </c>
@@ -14616,7 +14608,7 @@
       <c r="A139" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B139" s="146"/>
+      <c r="B139" s="149"/>
       <c r="C139" s="31" t="s">
         <v>1990</v>
       </c>
@@ -14646,7 +14638,7 @@
       <c r="A141" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B141" s="141" t="s">
+      <c r="B141" s="144" t="s">
         <v>1994</v>
       </c>
       <c r="C141" s="31" t="s">
@@ -14667,7 +14659,7 @@
       <c r="A142" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B142" s="142"/>
+      <c r="B142" s="145"/>
       <c r="C142" s="31" t="s">
         <v>1998</v>
       </c>
@@ -14686,7 +14678,7 @@
       <c r="A143" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B143" s="143"/>
+      <c r="B143" s="146"/>
       <c r="C143" s="31" t="s">
         <v>2000</v>
       </c>
@@ -14748,7 +14740,7 @@
       <c r="A147" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B147" s="145" t="s">
+      <c r="B147" s="148" t="s">
         <v>2005</v>
       </c>
       <c r="C147" s="31" t="s">
@@ -14769,7 +14761,7 @@
       <c r="A148" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B148" s="147"/>
+      <c r="B148" s="150"/>
       <c r="C148" s="31" t="s">
         <v>2320</v>
       </c>
@@ -14788,7 +14780,7 @@
       <c r="A149" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B149" s="146"/>
+      <c r="B149" s="149"/>
       <c r="C149" s="31" t="s">
         <v>2010</v>
       </c>
@@ -14949,22 +14941,22 @@
       <c r="G158" s="34"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="C160" s="139"/>
-      <c r="D160" s="139"/>
-      <c r="E160" s="139"/>
-      <c r="F160" s="139"/>
+      <c r="C160" s="142"/>
+      <c r="D160" s="142"/>
+      <c r="E160" s="142"/>
+      <c r="F160" s="142"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="C161" s="139"/>
-      <c r="D161" s="139"/>
-      <c r="E161" s="139"/>
-      <c r="F161" s="139"/>
+      <c r="C161" s="142"/>
+      <c r="D161" s="142"/>
+      <c r="E161" s="142"/>
+      <c r="F161" s="142"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="C162" s="140"/>
-      <c r="D162" s="140"/>
-      <c r="E162" s="140"/>
-      <c r="F162" s="140"/>
+      <c r="C162" s="143"/>
+      <c r="D162" s="143"/>
+      <c r="E162" s="143"/>
+      <c r="F162" s="143"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="116" t="s">
@@ -15140,7 +15132,7 @@
       <c r="A173" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B173" s="144" t="s">
+      <c r="B173" s="147" t="s">
         <v>1972</v>
       </c>
       <c r="C173" s="113" t="s">
@@ -15159,7 +15151,7 @@
       <c r="A174" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B174" s="144"/>
+      <c r="B174" s="147"/>
       <c r="C174" s="113" t="s">
         <v>1975</v>
       </c>
@@ -68977,19 +68969,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="152" t="s">
         <v>1061</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="H1" s="149" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="H1" s="152" t="s">
         <v>1100</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -69174,11 +69166,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="148"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -69196,11 +69188,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D351" sqref="D351"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G298" sqref="G298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69218,42 +69210,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>2897</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="136" t="s">
         <v>2358</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="136" t="s">
         <v>2366</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="136" t="s">
         <v>2367</v>
       </c>
-      <c r="D2" s="151" t="s">
+      <c r="D2" s="136" t="s">
         <v>2363</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="E2" s="137" t="s">
         <v>2369</v>
       </c>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="136" t="s">
         <v>2370</v>
       </c>
-      <c r="G2" s="151" t="s">
+      <c r="G2" s="136" t="s">
         <v>2361</v>
       </c>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="136" t="s">
         <v>2564</v>
       </c>
-      <c r="I2" s="151" t="s">
+      <c r="I2" s="136" t="s">
         <v>2619</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69279,7 +69271,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69305,7 +69297,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69331,7 +69323,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69357,7 +69349,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69383,7 +69375,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69409,7 +69401,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69435,7 +69427,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69461,7 +69453,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69487,7 +69479,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69513,7 +69505,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69539,7 +69531,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69565,7 +69557,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69591,7 +69583,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69617,7 +69609,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69643,7 +69635,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69669,7 +69661,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69695,7 +69687,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69721,7 +69713,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69747,7 +69739,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69773,7 +69765,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69799,7 +69791,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69825,7 +69817,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69851,7 +69843,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1">
+    <row r="26" spans="1:8">
       <c r="A26" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69877,7 +69869,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69903,7 +69895,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69929,7 +69921,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69955,7 +69947,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69981,7 +69973,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70007,7 +69999,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70033,7 +70025,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70059,7 +70051,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70085,7 +70077,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70111,7 +70103,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70137,7 +70129,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70163,7 +70155,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70189,7 +70181,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70215,7 +70207,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70241,7 +70233,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70267,7 +70259,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70293,7 +70285,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70319,7 +70311,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70345,7 +70337,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70371,7 +70363,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70397,7 +70389,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8">
       <c r="A47" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70423,7 +70415,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8">
       <c r="A48" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70449,7 +70441,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70475,7 +70467,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70501,7 +70493,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70527,7 +70519,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70553,7 +70545,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70579,7 +70571,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70605,7 +70597,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70631,7 +70623,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70657,7 +70649,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8">
       <c r="A57" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70683,7 +70675,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70709,7 +70701,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70735,7 +70727,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70761,7 +70753,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70787,7 +70779,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70813,7 +70805,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70839,7 +70831,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70865,7 +70857,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70891,7 +70883,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70917,7 +70909,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70943,7 +70935,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70969,7 +70961,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70995,7 +70987,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71021,7 +71013,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71047,7 +71039,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71073,7 +71065,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71099,7 +71091,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71125,7 +71117,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71151,7 +71143,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71177,7 +71169,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71203,7 +71195,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71229,7 +71221,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71255,7 +71247,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71281,7 +71273,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71307,7 +71299,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71333,7 +71325,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71359,7 +71351,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71385,7 +71377,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71411,7 +71403,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71437,7 +71429,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71463,7 +71455,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71489,7 +71481,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71515,7 +71507,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71541,7 +71533,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71567,7 +71559,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71593,7 +71585,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71619,7 +71611,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71645,7 +71637,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71671,7 +71663,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71697,7 +71689,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71723,7 +71715,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71749,7 +71741,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71775,7 +71767,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71801,7 +71793,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71827,7 +71819,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71853,7 +71845,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71879,7 +71871,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71905,7 +71897,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71931,7 +71923,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71957,7 +71949,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71983,7 +71975,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72009,7 +72001,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72035,7 +72027,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72061,7 +72053,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72087,7 +72079,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72113,7 +72105,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72139,7 +72131,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72165,7 +72157,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72191,7 +72183,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72217,7 +72209,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72243,7 +72235,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72269,7 +72261,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72295,7 +72287,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72321,7 +72313,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72347,7 +72339,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72373,7 +72365,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72399,7 +72391,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72425,7 +72417,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72451,7 +72443,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72477,7 +72469,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72503,7 +72495,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8">
       <c r="A128" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72529,7 +72521,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8">
       <c r="A129" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72555,7 +72547,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8">
       <c r="A130" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72581,7 +72573,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72607,7 +72599,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72633,7 +72625,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72659,7 +72651,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72685,7 +72677,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8">
       <c r="A135" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72711,7 +72703,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72737,7 +72729,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72763,7 +72755,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72789,7 +72781,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72815,7 +72807,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72841,7 +72833,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72867,7 +72859,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72893,7 +72885,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72919,7 +72911,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72945,7 +72937,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72971,7 +72963,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72997,7 +72989,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73023,7 +73015,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73049,7 +73041,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73075,7 +73067,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73101,7 +73093,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73130,7 +73122,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73159,7 +73151,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73188,7 +73180,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73217,7 +73209,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73246,7 +73238,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73275,7 +73267,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73304,7 +73296,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73333,7 +73325,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73362,7 +73354,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73391,7 +73383,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73420,7 +73412,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73449,7 +73441,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73478,7 +73470,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73507,7 +73499,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73536,7 +73528,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73565,7 +73557,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73594,7 +73586,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9">
       <c r="A168" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73623,7 +73615,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9">
       <c r="A169" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73652,7 +73644,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73681,7 +73673,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9">
       <c r="A171" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73710,7 +73702,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9">
       <c r="A172" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73739,7 +73731,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9">
       <c r="A173" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73768,7 +73760,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9">
       <c r="A174" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73797,7 +73789,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9">
       <c r="A175" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73826,7 +73818,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9">
       <c r="A176" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73855,7 +73847,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9">
       <c r="A177" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73884,7 +73876,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73913,7 +73905,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73942,7 +73934,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73971,7 +73963,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74000,7 +73992,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74029,7 +74021,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74058,7 +74050,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74087,7 +74079,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9">
       <c r="A185" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74116,7 +74108,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74142,7 +74134,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9">
       <c r="A187" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74168,7 +74160,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74194,7 +74186,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74220,7 +74212,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9">
       <c r="A190" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74246,7 +74238,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74272,7 +74264,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74298,7 +74290,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74324,7 +74316,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1">
+    <row r="194" spans="1:8">
       <c r="A194" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74350,7 +74342,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1">
+    <row r="195" spans="1:8">
       <c r="A195" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74376,7 +74368,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74402,7 +74394,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74428,7 +74420,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1">
+    <row r="198" spans="1:8">
       <c r="A198" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74454,7 +74446,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1">
+    <row r="199" spans="1:8">
       <c r="A199" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74480,7 +74472,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1">
+    <row r="200" spans="1:8">
       <c r="A200" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74506,7 +74498,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1">
+    <row r="201" spans="1:8">
       <c r="A201" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74532,7 +74524,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1">
+    <row r="202" spans="1:8">
       <c r="A202" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74558,7 +74550,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1">
+    <row r="203" spans="1:8">
       <c r="A203" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74584,7 +74576,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1">
+    <row r="204" spans="1:8">
       <c r="A204" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74610,7 +74602,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1">
+    <row r="205" spans="1:8">
       <c r="A205" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74636,7 +74628,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74662,7 +74654,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1">
+    <row r="207" spans="1:8">
       <c r="A207" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74688,7 +74680,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1">
+    <row r="208" spans="1:8">
       <c r="A208" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74714,7 +74706,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1">
+    <row r="209" spans="1:8">
       <c r="A209" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74740,7 +74732,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1">
+    <row r="210" spans="1:8">
       <c r="A210" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74766,7 +74758,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1">
+    <row r="211" spans="1:8">
       <c r="A211" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74792,7 +74784,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1">
+    <row r="212" spans="1:8">
       <c r="A212" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74818,7 +74810,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1">
+    <row r="213" spans="1:8">
       <c r="A213" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74844,7 +74836,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1">
+    <row r="214" spans="1:8">
       <c r="A214" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74870,7 +74862,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1">
+    <row r="215" spans="1:8">
       <c r="A215" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74896,7 +74888,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1">
+    <row r="216" spans="1:8">
       <c r="A216" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74922,7 +74914,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1">
+    <row r="217" spans="1:8">
       <c r="A217" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74948,7 +74940,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1">
+    <row r="218" spans="1:8">
       <c r="A218" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74974,7 +74966,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1">
+    <row r="219" spans="1:8">
       <c r="A219" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75000,7 +74992,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1">
+    <row r="220" spans="1:8">
       <c r="A220" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75026,7 +75018,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1">
+    <row r="221" spans="1:8">
       <c r="A221" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75052,7 +75044,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1">
+    <row r="222" spans="1:8">
       <c r="A222" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75078,7 +75070,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1">
+    <row r="223" spans="1:8">
       <c r="A223" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75104,7 +75096,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1">
+    <row r="224" spans="1:8">
       <c r="A224" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75130,7 +75122,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75156,7 +75148,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75182,7 +75174,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="A227" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75208,7 +75200,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="A228" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75234,7 +75226,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="A229" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75260,7 +75252,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="A230" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75286,7 +75278,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75312,7 +75304,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75338,7 +75330,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75367,7 +75359,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75396,7 +75388,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75425,7 +75417,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75454,7 +75446,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="A237" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75480,7 +75472,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75506,7 +75498,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75532,7 +75524,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75561,7 +75553,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75587,7 +75579,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75613,7 +75605,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75642,7 +75634,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75668,7 +75660,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9">
       <c r="A245" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75697,7 +75689,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75723,7 +75715,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75749,7 +75741,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1">
+    <row r="248" spans="1:9">
       <c r="A248" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75775,7 +75767,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1">
+    <row r="249" spans="1:9">
       <c r="A249" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75801,7 +75793,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1">
+    <row r="250" spans="1:9">
       <c r="A250" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75827,7 +75819,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9">
       <c r="A251" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75853,7 +75845,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:9">
       <c r="A252" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75879,7 +75871,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1">
+    <row r="253" spans="1:9">
       <c r="A253" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75905,7 +75897,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1">
+    <row r="254" spans="1:9">
       <c r="A254" s="135" t="s">
         <v>2645</v>
       </c>
@@ -75934,7 +75926,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1">
+    <row r="255" spans="1:9">
       <c r="A255" s="135" t="s">
         <v>2645</v>
       </c>
@@ -75963,7 +75955,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1">
+    <row r="256" spans="1:9">
       <c r="A256" s="135" t="s">
         <v>2645</v>
       </c>
@@ -75992,7 +75984,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1">
+    <row r="257" spans="1:9">
       <c r="A257" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76021,7 +76013,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1">
+    <row r="258" spans="1:9">
       <c r="A258" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76050,7 +76042,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1">
+    <row r="259" spans="1:9">
       <c r="A259" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76079,7 +76071,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1">
+    <row r="260" spans="1:9">
       <c r="A260" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76108,7 +76100,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1">
+    <row r="261" spans="1:9">
       <c r="A261" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76137,7 +76129,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1">
+    <row r="262" spans="1:9">
       <c r="A262" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76166,7 +76158,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1">
+    <row r="263" spans="1:9">
       <c r="A263" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76195,7 +76187,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1">
+    <row r="264" spans="1:9">
       <c r="A264" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76224,7 +76216,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1">
+    <row r="265" spans="1:9">
       <c r="A265" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76253,7 +76245,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1">
+    <row r="266" spans="1:9">
       <c r="A266" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76282,7 +76274,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1">
+    <row r="267" spans="1:9">
       <c r="A267" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76311,7 +76303,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1">
+    <row r="268" spans="1:9">
       <c r="A268" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76340,7 +76332,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1">
+    <row r="269" spans="1:9">
       <c r="A269" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76369,7 +76361,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1">
+    <row r="270" spans="1:9">
       <c r="A270" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76398,7 +76390,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1">
+    <row r="271" spans="1:9">
       <c r="A271" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76427,7 +76419,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1">
+    <row r="272" spans="1:9">
       <c r="A272" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76456,7 +76448,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1">
+    <row r="273" spans="1:9">
       <c r="A273" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76485,7 +76477,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1">
+    <row r="274" spans="1:9">
       <c r="A274" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76514,7 +76506,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1">
+    <row r="275" spans="1:9">
       <c r="A275" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76543,7 +76535,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1">
+    <row r="276" spans="1:9">
       <c r="A276" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76572,7 +76564,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1">
+    <row r="277" spans="1:9">
       <c r="A277" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76601,7 +76593,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1">
+    <row r="278" spans="1:9">
       <c r="A278" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76630,7 +76622,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1">
+    <row r="279" spans="1:9">
       <c r="A279" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76659,7 +76651,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1">
+    <row r="280" spans="1:9">
       <c r="A280" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76688,7 +76680,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76717,7 +76709,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1">
+    <row r="282" spans="1:9">
       <c r="A282" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76746,7 +76738,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9">
       <c r="A283" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76775,7 +76767,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1">
+    <row r="284" spans="1:9">
       <c r="A284" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76804,7 +76796,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9">
       <c r="A285" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76833,7 +76825,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1">
+    <row r="286" spans="1:9">
       <c r="A286" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76862,7 +76854,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1">
+    <row r="287" spans="1:9">
       <c r="A287" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76891,7 +76883,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1">
+    <row r="288" spans="1:9">
       <c r="A288" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76920,7 +76912,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1">
+    <row r="289" spans="1:9">
       <c r="A289" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76949,7 +76941,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1">
+    <row r="290" spans="1:9">
       <c r="A290" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76978,7 +76970,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1">
+    <row r="291" spans="1:9">
       <c r="A291" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77007,7 +76999,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1">
+    <row r="292" spans="1:9">
       <c r="A292" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77036,7 +77028,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1">
+    <row r="293" spans="1:9">
       <c r="A293" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77065,7 +77057,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9">
       <c r="A294" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77094,7 +77086,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1">
+    <row r="295" spans="1:9">
       <c r="A295" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77123,7 +77115,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1">
+    <row r="296" spans="1:9">
       <c r="A296" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77152,7 +77144,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1">
+    <row r="297" spans="1:9">
       <c r="A297" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77181,7 +77173,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1">
+    <row r="298" spans="1:9">
       <c r="A298" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77210,7 +77202,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1">
+    <row r="299" spans="1:9">
       <c r="A299" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77239,7 +77231,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1">
+    <row r="300" spans="1:9">
       <c r="A300" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77268,7 +77260,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1">
+    <row r="301" spans="1:9">
       <c r="A301" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77297,7 +77289,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1">
+    <row r="302" spans="1:9">
       <c r="A302" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77326,7 +77318,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1">
+    <row r="303" spans="1:9">
       <c r="A303" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77346,16 +77338,16 @@
         <v>2612</v>
       </c>
       <c r="G303" s="135" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="H303" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I303" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1">
+    <row r="304" spans="1:9">
       <c r="A304" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77375,7 +77367,7 @@
         <v>2612</v>
       </c>
       <c r="G304" s="135" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="H304" s="135" t="s">
         <v>2403</v>
@@ -77384,7 +77376,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1">
+    <row r="305" spans="1:9">
       <c r="A305" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77404,7 +77396,7 @@
         <v>2612</v>
       </c>
       <c r="G305" s="135" t="s">
-        <v>2502</v>
+        <v>2713</v>
       </c>
       <c r="H305" s="135" t="s">
         <v>2403</v>
@@ -77413,7 +77405,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:9">
       <c r="A306" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77433,7 +77425,7 @@
         <v>2612</v>
       </c>
       <c r="G306" s="135" t="s">
-        <v>2714</v>
+        <v>2502</v>
       </c>
       <c r="H306" s="135" t="s">
         <v>2403</v>
@@ -77442,7 +77434,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1">
+    <row r="307" spans="1:9">
       <c r="A307" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77462,7 +77454,7 @@
         <v>2612</v>
       </c>
       <c r="G307" s="135" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="H307" s="135" t="s">
         <v>2403</v>
@@ -77471,7 +77463,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1">
+    <row r="308" spans="1:9">
       <c r="A308" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77491,7 +77483,7 @@
         <v>2612</v>
       </c>
       <c r="G308" s="135" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="H308" s="135" t="s">
         <v>2403</v>
@@ -77500,7 +77492,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1">
+    <row r="309" spans="1:9">
       <c r="A309" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77520,7 +77512,7 @@
         <v>2612</v>
       </c>
       <c r="G309" s="135" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="H309" s="135" t="s">
         <v>2403</v>
@@ -77529,7 +77521,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1">
+    <row r="310" spans="1:9">
       <c r="A310" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77546,19 +77538,19 @@
         <v>2698</v>
       </c>
       <c r="F310" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G310" s="135" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="H310" s="135" t="s">
-        <v>2719</v>
+        <v>2403</v>
       </c>
       <c r="I310" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1">
+    <row r="311" spans="1:9">
       <c r="A311" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77578,7 +77570,7 @@
         <v>2615</v>
       </c>
       <c r="G311" s="135" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="H311" s="135" t="s">
         <v>2719</v>
@@ -77587,7 +77579,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1">
+    <row r="312" spans="1:9">
       <c r="A312" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77607,7 +77599,7 @@
         <v>2615</v>
       </c>
       <c r="G312" s="135" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="H312" s="135" t="s">
         <v>2719</v>
@@ -77616,7 +77608,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1">
+    <row r="313" spans="1:9">
       <c r="A313" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77636,7 +77628,7 @@
         <v>2615</v>
       </c>
       <c r="G313" s="135" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H313" s="135" t="s">
         <v>2719</v>
@@ -77645,7 +77637,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1">
+    <row r="314" spans="1:9">
       <c r="A314" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77665,7 +77657,7 @@
         <v>2615</v>
       </c>
       <c r="G314" s="135" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="H314" s="135" t="s">
         <v>2719</v>
@@ -77674,7 +77666,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1">
+    <row r="315" spans="1:9">
       <c r="A315" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77694,16 +77686,16 @@
         <v>2615</v>
       </c>
       <c r="G315" s="135" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="H315" s="135" t="s">
-        <v>2652</v>
+        <v>2719</v>
       </c>
       <c r="I315" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1">
+    <row r="316" spans="1:9">
       <c r="A316" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77723,16 +77715,16 @@
         <v>2615</v>
       </c>
       <c r="G316" s="135" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="H316" s="135" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="I316" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1">
+    <row r="317" spans="1:9">
       <c r="A317" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77749,19 +77741,19 @@
         <v>2698</v>
       </c>
       <c r="F317" s="135" t="s">
-        <v>2726</v>
+        <v>2615</v>
       </c>
       <c r="G317" s="135" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="H317" s="135" t="s">
-        <v>2403</v>
+        <v>2656</v>
       </c>
       <c r="I317" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1">
+    <row r="318" spans="1:9">
       <c r="A318" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77781,45 +77773,45 @@
         <v>2726</v>
       </c>
       <c r="G318" s="135" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="H318" s="135" t="s">
-        <v>2656</v>
+        <v>2403</v>
       </c>
       <c r="I318" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1">
+    <row r="319" spans="1:9">
       <c r="A319" s="135" t="s">
-        <v>2729</v>
+        <v>2659</v>
       </c>
       <c r="B319" s="135" t="s">
-        <v>2730</v>
+        <v>2375</v>
       </c>
       <c r="C319" s="135" t="s">
-        <v>2731</v>
+        <v>2696</v>
       </c>
       <c r="D319" s="135" t="s">
-        <v>2732</v>
+        <v>2697</v>
       </c>
       <c r="E319" s="135" t="s">
-        <v>2733</v>
+        <v>2698</v>
       </c>
       <c r="F319" s="135" t="s">
-        <v>2609</v>
+        <v>2726</v>
       </c>
       <c r="G319" s="135" t="s">
-        <v>2734</v>
+        <v>2728</v>
       </c>
       <c r="H319" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I319" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1">
+    <row r="320" spans="1:9">
       <c r="A320" s="135" t="s">
         <v>2729</v>
       </c>
@@ -77836,19 +77828,19 @@
         <v>2733</v>
       </c>
       <c r="F320" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G320" s="135" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="H320" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I320" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1">
+    <row r="321" spans="1:9">
       <c r="A321" s="135" t="s">
         <v>2729</v>
       </c>
@@ -77868,36 +77860,36 @@
         <v>2612</v>
       </c>
       <c r="G321" s="135" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="H321" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I321" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1">
+    <row r="322" spans="1:9">
       <c r="A322" s="135" t="s">
         <v>2729</v>
       </c>
       <c r="B322" s="135" t="s">
-        <v>2915</v>
+        <v>2730</v>
       </c>
       <c r="C322" s="135" t="s">
-        <v>2914</v>
+        <v>2731</v>
       </c>
       <c r="D322" s="135" t="s">
-        <v>2916</v>
+        <v>2732</v>
       </c>
       <c r="E322" s="135" t="s">
-        <v>2918</v>
+        <v>2733</v>
       </c>
       <c r="F322" s="135" t="s">
-        <v>2917</v>
+        <v>2612</v>
       </c>
       <c r="G322" s="135" t="s">
-        <v>2919</v>
+        <v>2736</v>
       </c>
       <c r="H322" s="135" t="s">
         <v>2501</v>
@@ -77906,7 +77898,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1">
+    <row r="323" spans="1:9">
       <c r="A323" s="135" t="s">
         <v>2729</v>
       </c>
@@ -77926,7 +77918,7 @@
         <v>2917</v>
       </c>
       <c r="G323" s="135" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="H323" s="135" t="s">
         <v>2501</v>
@@ -77935,7 +77927,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1">
+    <row r="324" spans="1:9">
       <c r="A324" s="135" t="s">
         <v>2729</v>
       </c>
@@ -77955,7 +77947,7 @@
         <v>2917</v>
       </c>
       <c r="G324" s="135" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="H324" s="135" t="s">
         <v>2501</v>
@@ -77964,7 +77956,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1">
+    <row r="325" spans="1:9">
       <c r="A325" s="135" t="s">
         <v>2729</v>
       </c>
@@ -77981,10 +77973,10 @@
         <v>2918</v>
       </c>
       <c r="F325" s="135" t="s">
-        <v>2609</v>
+        <v>2917</v>
       </c>
       <c r="G325" s="135" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="H325" s="135" t="s">
         <v>2501</v>
@@ -77993,7 +77985,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1">
+    <row r="326" spans="1:9">
       <c r="A326" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78013,7 +78005,7 @@
         <v>2609</v>
       </c>
       <c r="G326" s="135" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="H326" s="135" t="s">
         <v>2501</v>
@@ -78022,7 +78014,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:9">
       <c r="A327" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78042,7 +78034,7 @@
         <v>2609</v>
       </c>
       <c r="G327" s="135" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="H327" s="135" t="s">
         <v>2501</v>
@@ -78051,7 +78043,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1">
+    <row r="328" spans="1:9">
       <c r="A328" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78068,10 +78060,10 @@
         <v>2918</v>
       </c>
       <c r="F328" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G328" s="135" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="H328" s="135" t="s">
         <v>2501</v>
@@ -78080,7 +78072,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1">
+    <row r="329" spans="1:9">
       <c r="A329" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78100,7 +78092,7 @@
         <v>2612</v>
       </c>
       <c r="G329" s="135" t="s">
-        <v>2736</v>
+        <v>2925</v>
       </c>
       <c r="H329" s="135" t="s">
         <v>2501</v>
@@ -78109,7 +78101,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1">
+    <row r="330" spans="1:9">
       <c r="A330" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78129,7 +78121,7 @@
         <v>2612</v>
       </c>
       <c r="G330" s="135" t="s">
-        <v>2926</v>
+        <v>2736</v>
       </c>
       <c r="H330" s="135" t="s">
         <v>2501</v>
@@ -78138,7 +78130,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1">
+    <row r="331" spans="1:9">
       <c r="A331" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78158,7 +78150,7 @@
         <v>2612</v>
       </c>
       <c r="G331" s="135" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="H331" s="135" t="s">
         <v>2501</v>
@@ -78167,7 +78159,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1">
+    <row r="332" spans="1:9">
       <c r="A332" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78184,10 +78176,10 @@
         <v>2918</v>
       </c>
       <c r="F332" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G332" s="135" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="H332" s="135" t="s">
         <v>2501</v>
@@ -78196,7 +78188,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1">
+    <row r="333" spans="1:9">
       <c r="A333" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78216,7 +78208,7 @@
         <v>2615</v>
       </c>
       <c r="G333" s="135" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="H333" s="135" t="s">
         <v>2501</v>
@@ -78225,7 +78217,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1">
+    <row r="334" spans="1:9">
       <c r="A334" s="135" t="s">
         <v>2729</v>
       </c>
@@ -78245,7 +78237,7 @@
         <v>2615</v>
       </c>
       <c r="G334" s="135" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="H334" s="135" t="s">
         <v>2501</v>
@@ -78254,33 +78246,36 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1">
+    <row r="335" spans="1:9">
       <c r="A335" s="135" t="s">
-        <v>2737</v>
+        <v>2729</v>
       </c>
       <c r="B335" s="135" t="s">
-        <v>2738</v>
+        <v>2915</v>
       </c>
       <c r="C335" s="135" t="s">
-        <v>2739</v>
+        <v>2914</v>
       </c>
       <c r="D335" s="135" t="s">
-        <v>2740</v>
+        <v>2916</v>
       </c>
       <c r="E335" s="135" t="s">
-        <v>2741</v>
+        <v>2918</v>
       </c>
       <c r="F335" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G335" s="135" t="s">
-        <v>2742</v>
+        <v>2930</v>
       </c>
       <c r="H335" s="135" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" hidden="1">
+      <c r="I335" s="135" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="A336" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78297,42 +78292,42 @@
         <v>2741</v>
       </c>
       <c r="F336" s="135" t="s">
-        <v>2615</v>
+        <v>2609</v>
       </c>
       <c r="G336" s="135" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="H336" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1">
+    <row r="337" spans="1:8">
       <c r="A337" s="135" t="s">
         <v>2737</v>
       </c>
       <c r="B337" s="135" t="s">
-        <v>2744</v>
+        <v>2738</v>
       </c>
       <c r="C337" s="135" t="s">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="D337" s="135" t="s">
-        <v>2746</v>
+        <v>2740</v>
       </c>
       <c r="E337" s="135" t="s">
-        <v>2747</v>
+        <v>2741</v>
       </c>
       <c r="F337" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G337" s="135" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
       <c r="H337" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1">
+    <row r="338" spans="1:8">
       <c r="A338" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78352,13 +78347,13 @@
         <v>2609</v>
       </c>
       <c r="G338" s="135" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="H338" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1">
+    <row r="339" spans="1:8">
       <c r="A339" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78378,13 +78373,13 @@
         <v>2609</v>
       </c>
       <c r="G339" s="135" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="H339" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1">
+    <row r="340" spans="1:8">
       <c r="A340" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78404,13 +78399,13 @@
         <v>2609</v>
       </c>
       <c r="G340" s="135" t="s">
-        <v>2631</v>
+        <v>2750</v>
       </c>
       <c r="H340" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1">
+    <row r="341" spans="1:8">
       <c r="A341" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78430,13 +78425,13 @@
         <v>2609</v>
       </c>
       <c r="G341" s="135" t="s">
-        <v>2751</v>
+        <v>2631</v>
       </c>
       <c r="H341" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1">
+    <row r="342" spans="1:8">
       <c r="A342" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78453,16 +78448,16 @@
         <v>2747</v>
       </c>
       <c r="F342" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G342" s="135" t="s">
-        <v>2634</v>
+        <v>2751</v>
       </c>
       <c r="H342" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1">
+    <row r="343" spans="1:8">
       <c r="A343" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78482,13 +78477,13 @@
         <v>2612</v>
       </c>
       <c r="G343" s="135" t="s">
-        <v>2752</v>
+        <v>2634</v>
       </c>
       <c r="H343" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1">
+    <row r="344" spans="1:8">
       <c r="A344" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78508,13 +78503,13 @@
         <v>2612</v>
       </c>
       <c r="G344" s="135" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="H344" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1">
+    <row r="345" spans="1:8">
       <c r="A345" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78534,13 +78529,13 @@
         <v>2612</v>
       </c>
       <c r="G345" s="135" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H345" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1">
+    <row r="346" spans="1:8">
       <c r="A346" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78557,16 +78552,16 @@
         <v>2747</v>
       </c>
       <c r="F346" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G346" s="135" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="H346" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1">
+    <row r="347" spans="1:8">
       <c r="A347" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78586,13 +78581,13 @@
         <v>2615</v>
       </c>
       <c r="G347" s="135" t="s">
-        <v>2644</v>
+        <v>2755</v>
       </c>
       <c r="H347" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1">
+    <row r="348" spans="1:8">
       <c r="A348" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78612,13 +78607,13 @@
         <v>2615</v>
       </c>
       <c r="G348" s="135" t="s">
-        <v>2756</v>
+        <v>2644</v>
       </c>
       <c r="H348" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1">
+    <row r="349" spans="1:8">
       <c r="A349" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78638,13 +78633,13 @@
         <v>2615</v>
       </c>
       <c r="G349" s="135" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="H349" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1">
+    <row r="350" spans="1:8">
       <c r="A350" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78664,7 +78659,7 @@
         <v>2615</v>
       </c>
       <c r="G350" s="135" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="H350" s="135" t="s">
         <v>2501</v>
@@ -78690,13 +78685,13 @@
         <v>2615</v>
       </c>
       <c r="G351" s="135" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="H351" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1">
+    <row r="352" spans="1:8">
       <c r="A352" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78716,13 +78711,13 @@
         <v>2615</v>
       </c>
       <c r="G352" s="135" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="H352" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1">
+    <row r="353" spans="1:9">
       <c r="A353" s="135" t="s">
         <v>2737</v>
       </c>
@@ -78742,71 +78737,68 @@
         <v>2615</v>
       </c>
       <c r="G353" s="135" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="H353" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1">
+    <row r="354" spans="1:9">
       <c r="A354" s="135" t="s">
-        <v>2762</v>
+        <v>2737</v>
       </c>
       <c r="B354" s="135" t="s">
-        <v>2763</v>
+        <v>2744</v>
       </c>
       <c r="C354" s="135" t="s">
-        <v>2764</v>
+        <v>2745</v>
       </c>
       <c r="D354" s="135" t="s">
-        <v>2765</v>
+        <v>2746</v>
       </c>
       <c r="E354" s="135" t="s">
-        <v>2766</v>
+        <v>2747</v>
       </c>
       <c r="F354" s="135" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="G354" s="135" t="s">
-        <v>2767</v>
+        <v>2761</v>
       </c>
       <c r="H354" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I354" s="135" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" hidden="1">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" s="135" t="s">
         <v>2762</v>
       </c>
       <c r="B355" s="135" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="C355" s="135" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="D355" s="135" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="E355" s="135" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="F355" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G355" s="135" t="s">
-        <v>2500</v>
+        <v>2767</v>
       </c>
       <c r="H355" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I355" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1">
+    <row r="356" spans="1:9">
       <c r="A356" s="135" t="s">
         <v>2762</v>
       </c>
@@ -78826,7 +78818,7 @@
         <v>2609</v>
       </c>
       <c r="G356" s="135" t="s">
-        <v>2772</v>
+        <v>2500</v>
       </c>
       <c r="H356" s="135" t="s">
         <v>2501</v>
@@ -78835,7 +78827,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1">
+    <row r="357" spans="1:9">
       <c r="A357" s="135" t="s">
         <v>2762</v>
       </c>
@@ -78855,7 +78847,7 @@
         <v>2609</v>
       </c>
       <c r="G357" s="135" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="H357" s="135" t="s">
         <v>2501</v>
@@ -78864,7 +78856,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1">
+    <row r="358" spans="1:9">
       <c r="A358" s="135" t="s">
         <v>2762</v>
       </c>
@@ -78884,7 +78876,7 @@
         <v>2609</v>
       </c>
       <c r="G358" s="135" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="H358" s="135" t="s">
         <v>2501</v>
@@ -78893,7 +78885,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1">
+    <row r="359" spans="1:9">
       <c r="A359" s="135" t="s">
         <v>2762</v>
       </c>
@@ -78913,7 +78905,7 @@
         <v>2609</v>
       </c>
       <c r="G359" s="135" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="H359" s="135" t="s">
         <v>2501</v>
@@ -78922,7 +78914,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1">
+    <row r="360" spans="1:9">
       <c r="A360" s="135" t="s">
         <v>2762</v>
       </c>
@@ -78942,7 +78934,7 @@
         <v>2609</v>
       </c>
       <c r="G360" s="135" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="H360" s="135" t="s">
         <v>2501</v>
@@ -78951,7 +78943,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1">
+    <row r="361" spans="1:9">
       <c r="A361" s="135" t="s">
         <v>2762</v>
       </c>
@@ -78971,7 +78963,7 @@
         <v>2609</v>
       </c>
       <c r="G361" s="135" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="H361" s="135" t="s">
         <v>2501</v>
@@ -78980,7 +78972,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1">
+    <row r="362" spans="1:9">
       <c r="A362" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79000,7 +78992,7 @@
         <v>2609</v>
       </c>
       <c r="G362" s="135" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="H362" s="135" t="s">
         <v>2501</v>
@@ -79009,7 +79001,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1">
+    <row r="363" spans="1:9">
       <c r="A363" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79029,7 +79021,7 @@
         <v>2609</v>
       </c>
       <c r="G363" s="135" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="H363" s="135" t="s">
         <v>2501</v>
@@ -79038,7 +79030,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1">
+    <row r="364" spans="1:9">
       <c r="A364" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79058,7 +79050,7 @@
         <v>2609</v>
       </c>
       <c r="G364" s="135" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="H364" s="135" t="s">
         <v>2501</v>
@@ -79067,7 +79059,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1">
+    <row r="365" spans="1:9">
       <c r="A365" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79084,10 +79076,10 @@
         <v>2771</v>
       </c>
       <c r="F365" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G365" s="135" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="H365" s="135" t="s">
         <v>2501</v>
@@ -79096,7 +79088,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1">
+    <row r="366" spans="1:9">
       <c r="A366" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79116,7 +79108,7 @@
         <v>2612</v>
       </c>
       <c r="G366" s="135" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="H366" s="135" t="s">
         <v>2501</v>
@@ -79125,7 +79117,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1">
+    <row r="367" spans="1:9">
       <c r="A367" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79145,7 +79137,7 @@
         <v>2612</v>
       </c>
       <c r="G367" s="135" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="H367" s="135" t="s">
         <v>2501</v>
@@ -79154,7 +79146,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1">
+    <row r="368" spans="1:9">
       <c r="A368" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79174,7 +79166,7 @@
         <v>2612</v>
       </c>
       <c r="G368" s="135" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="H368" s="135" t="s">
         <v>2501</v>
@@ -79183,7 +79175,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1">
+    <row r="369" spans="1:9">
       <c r="A369" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79203,7 +79195,7 @@
         <v>2612</v>
       </c>
       <c r="G369" s="135" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="H369" s="135" t="s">
         <v>2501</v>
@@ -79212,7 +79204,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1">
+    <row r="370" spans="1:9">
       <c r="A370" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79232,7 +79224,7 @@
         <v>2612</v>
       </c>
       <c r="G370" s="135" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="H370" s="135" t="s">
         <v>2501</v>
@@ -79241,7 +79233,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1">
+    <row r="371" spans="1:9">
       <c r="A371" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79261,7 +79253,7 @@
         <v>2612</v>
       </c>
       <c r="G371" s="135" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="H371" s="135" t="s">
         <v>2501</v>
@@ -79270,7 +79262,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1">
+    <row r="372" spans="1:9">
       <c r="A372" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79290,7 +79282,7 @@
         <v>2612</v>
       </c>
       <c r="G372" s="135" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="H372" s="135" t="s">
         <v>2501</v>
@@ -79299,7 +79291,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1">
+    <row r="373" spans="1:9">
       <c r="A373" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79319,7 +79311,7 @@
         <v>2612</v>
       </c>
       <c r="G373" s="135" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="H373" s="135" t="s">
         <v>2501</v>
@@ -79328,7 +79320,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1">
+    <row r="374" spans="1:9">
       <c r="A374" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79348,7 +79340,7 @@
         <v>2612</v>
       </c>
       <c r="G374" s="135" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="H374" s="135" t="s">
         <v>2501</v>
@@ -79357,7 +79349,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1">
+    <row r="375" spans="1:9">
       <c r="A375" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79377,7 +79369,7 @@
         <v>2612</v>
       </c>
       <c r="G375" s="135" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="H375" s="135" t="s">
         <v>2501</v>
@@ -79386,7 +79378,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1">
+    <row r="376" spans="1:9">
       <c r="A376" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79406,7 +79398,7 @@
         <v>2612</v>
       </c>
       <c r="G376" s="135" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="H376" s="135" t="s">
         <v>2501</v>
@@ -79415,7 +79407,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1">
+    <row r="377" spans="1:9">
       <c r="A377" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79435,7 +79427,7 @@
         <v>2612</v>
       </c>
       <c r="G377" s="135" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="H377" s="135" t="s">
         <v>2501</v>
@@ -79444,7 +79436,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1">
+    <row r="378" spans="1:9">
       <c r="A378" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79464,16 +79456,16 @@
         <v>2612</v>
       </c>
       <c r="G378" s="135" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="H378" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I378" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1">
+    <row r="379" spans="1:9">
       <c r="A379" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79493,7 +79485,7 @@
         <v>2612</v>
       </c>
       <c r="G379" s="135" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="H379" s="135" t="s">
         <v>2403</v>
@@ -79502,7 +79494,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1">
+    <row r="380" spans="1:9">
       <c r="A380" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79522,16 +79514,16 @@
         <v>2612</v>
       </c>
       <c r="G380" s="135" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="H380" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I380" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1">
+    <row r="381" spans="1:9">
       <c r="A381" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79551,7 +79543,7 @@
         <v>2612</v>
       </c>
       <c r="G381" s="135" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="H381" s="135" t="s">
         <v>2501</v>
@@ -79560,7 +79552,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1">
+    <row r="382" spans="1:9">
       <c r="A382" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79577,10 +79569,10 @@
         <v>2771</v>
       </c>
       <c r="F382" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G382" s="135" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="H382" s="135" t="s">
         <v>2501</v>
@@ -79589,7 +79581,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1">
+    <row r="383" spans="1:9">
       <c r="A383" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79609,7 +79601,7 @@
         <v>2615</v>
       </c>
       <c r="G383" s="135" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="H383" s="135" t="s">
         <v>2501</v>
@@ -79618,7 +79610,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1">
+    <row r="384" spans="1:9">
       <c r="A384" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79638,7 +79630,7 @@
         <v>2615</v>
       </c>
       <c r="G384" s="135" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="H384" s="135" t="s">
         <v>2501</v>
@@ -79647,7 +79639,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1">
+    <row r="385" spans="1:9">
       <c r="A385" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79667,7 +79659,7 @@
         <v>2615</v>
       </c>
       <c r="G385" s="135" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="H385" s="135" t="s">
         <v>2501</v>
@@ -79676,7 +79668,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1">
+    <row r="386" spans="1:9">
       <c r="A386" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79696,7 +79688,7 @@
         <v>2615</v>
       </c>
       <c r="G386" s="135" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="H386" s="135" t="s">
         <v>2501</v>
@@ -79705,7 +79697,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1">
+    <row r="387" spans="1:9">
       <c r="A387" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79725,7 +79717,7 @@
         <v>2615</v>
       </c>
       <c r="G387" s="135" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="H387" s="135" t="s">
         <v>2501</v>
@@ -79734,7 +79726,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1">
+    <row r="388" spans="1:9">
       <c r="A388" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79754,7 +79746,7 @@
         <v>2615</v>
       </c>
       <c r="G388" s="135" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="H388" s="135" t="s">
         <v>2501</v>
@@ -79763,7 +79755,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1">
+    <row r="389" spans="1:9">
       <c r="A389" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79783,7 +79775,7 @@
         <v>2615</v>
       </c>
       <c r="G389" s="135" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="H389" s="135" t="s">
         <v>2501</v>
@@ -79792,7 +79784,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1">
+    <row r="390" spans="1:9">
       <c r="A390" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79812,7 +79804,7 @@
         <v>2615</v>
       </c>
       <c r="G390" s="135" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="H390" s="135" t="s">
         <v>2501</v>
@@ -79821,7 +79813,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1">
+    <row r="391" spans="1:9">
       <c r="A391" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79841,7 +79833,7 @@
         <v>2615</v>
       </c>
       <c r="G391" s="135" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="H391" s="135" t="s">
         <v>2501</v>
@@ -79850,7 +79842,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1">
+    <row r="392" spans="1:9">
       <c r="A392" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79870,7 +79862,7 @@
         <v>2615</v>
       </c>
       <c r="G392" s="135" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="H392" s="135" t="s">
         <v>2501</v>
@@ -79879,7 +79871,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1">
+    <row r="393" spans="1:9">
       <c r="A393" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79899,7 +79891,7 @@
         <v>2615</v>
       </c>
       <c r="G393" s="135" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="H393" s="135" t="s">
         <v>2501</v>
@@ -79908,7 +79900,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1">
+    <row r="394" spans="1:9">
       <c r="A394" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79928,7 +79920,7 @@
         <v>2615</v>
       </c>
       <c r="G394" s="135" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="H394" s="135" t="s">
         <v>2501</v>
@@ -79937,7 +79929,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1">
+    <row r="395" spans="1:9">
       <c r="A395" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79957,7 +79949,7 @@
         <v>2615</v>
       </c>
       <c r="G395" s="135" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="H395" s="135" t="s">
         <v>2501</v>
@@ -79966,7 +79958,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1">
+    <row r="396" spans="1:9">
       <c r="A396" s="135" t="s">
         <v>2762</v>
       </c>
@@ -79986,7 +79978,7 @@
         <v>2615</v>
       </c>
       <c r="G396" s="135" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="H396" s="135" t="s">
         <v>2501</v>
@@ -79995,7 +79987,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1">
+    <row r="397" spans="1:9">
       <c r="A397" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80015,7 +80007,7 @@
         <v>2615</v>
       </c>
       <c r="G397" s="135" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="H397" s="135" t="s">
         <v>2501</v>
@@ -80024,7 +80016,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1">
+    <row r="398" spans="1:9">
       <c r="A398" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80044,7 +80036,7 @@
         <v>2615</v>
       </c>
       <c r="G398" s="135" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="H398" s="135" t="s">
         <v>2501</v>
@@ -80053,7 +80045,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1">
+    <row r="399" spans="1:9">
       <c r="A399" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80073,7 +80065,7 @@
         <v>2615</v>
       </c>
       <c r="G399" s="135" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="H399" s="135" t="s">
         <v>2501</v>
@@ -80082,36 +80074,36 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1">
+    <row r="400" spans="1:9">
       <c r="A400" s="135" t="s">
         <v>2762</v>
       </c>
       <c r="B400" s="135" t="s">
-        <v>2816</v>
+        <v>2768</v>
       </c>
       <c r="C400" s="135" t="s">
-        <v>2817</v>
+        <v>2769</v>
       </c>
       <c r="D400" s="135" t="s">
-        <v>2818</v>
+        <v>2770</v>
       </c>
       <c r="E400" s="135" t="s">
-        <v>2819</v>
+        <v>2771</v>
       </c>
       <c r="F400" s="135" t="s">
-        <v>2820</v>
+        <v>2615</v>
       </c>
       <c r="G400" s="135" t="s">
-        <v>2821</v>
+        <v>2815</v>
       </c>
       <c r="H400" s="135" t="s">
-        <v>2822</v>
+        <v>2501</v>
       </c>
       <c r="I400" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1">
+    <row r="401" spans="1:9">
       <c r="A401" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80131,7 +80123,7 @@
         <v>2820</v>
       </c>
       <c r="G401" s="135" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="H401" s="135" t="s">
         <v>2822</v>
@@ -80140,7 +80132,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1">
+    <row r="402" spans="1:9">
       <c r="A402" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80160,7 +80152,7 @@
         <v>2820</v>
       </c>
       <c r="G402" s="135" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="H402" s="135" t="s">
         <v>2822</v>
@@ -80169,7 +80161,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1">
+    <row r="403" spans="1:9">
       <c r="A403" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80189,7 +80181,7 @@
         <v>2820</v>
       </c>
       <c r="G403" s="135" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="H403" s="135" t="s">
         <v>2822</v>
@@ -80198,7 +80190,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1">
+    <row r="404" spans="1:9">
       <c r="A404" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80218,7 +80210,7 @@
         <v>2820</v>
       </c>
       <c r="G404" s="135" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="H404" s="135" t="s">
         <v>2822</v>
@@ -80227,7 +80219,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1">
+    <row r="405" spans="1:9">
       <c r="A405" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80244,10 +80236,10 @@
         <v>2819</v>
       </c>
       <c r="F405" s="135" t="s">
-        <v>2827</v>
+        <v>2820</v>
       </c>
       <c r="G405" s="135" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="H405" s="135" t="s">
         <v>2822</v>
@@ -80256,7 +80248,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1">
+    <row r="406" spans="1:9">
       <c r="A406" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80273,10 +80265,10 @@
         <v>2819</v>
       </c>
       <c r="F406" s="135" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="G406" s="135" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="H406" s="135" t="s">
         <v>2822</v>
@@ -80285,7 +80277,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1">
+    <row r="407" spans="1:9">
       <c r="A407" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80302,10 +80294,10 @@
         <v>2819</v>
       </c>
       <c r="F407" s="135" t="s">
-        <v>2612</v>
+        <v>2829</v>
       </c>
       <c r="G407" s="135" t="s">
-        <v>2807</v>
+        <v>2830</v>
       </c>
       <c r="H407" s="135" t="s">
         <v>2822</v>
@@ -80314,7 +80306,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1">
+    <row r="408" spans="1:9">
       <c r="A408" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80334,7 +80326,7 @@
         <v>2612</v>
       </c>
       <c r="G408" s="135" t="s">
-        <v>2831</v>
+        <v>2807</v>
       </c>
       <c r="H408" s="135" t="s">
         <v>2822</v>
@@ -80343,7 +80335,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1">
+    <row r="409" spans="1:9">
       <c r="A409" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80363,7 +80355,7 @@
         <v>2612</v>
       </c>
       <c r="G409" s="135" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="H409" s="135" t="s">
         <v>2822</v>
@@ -80372,7 +80364,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1">
+    <row r="410" spans="1:9">
       <c r="A410" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80392,7 +80384,7 @@
         <v>2612</v>
       </c>
       <c r="G410" s="135" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="H410" s="135" t="s">
         <v>2822</v>
@@ -80401,7 +80393,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1">
+    <row r="411" spans="1:9">
       <c r="A411" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80421,7 +80413,7 @@
         <v>2612</v>
       </c>
       <c r="G411" s="135" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="H411" s="135" t="s">
         <v>2822</v>
@@ -80430,7 +80422,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1">
+    <row r="412" spans="1:9">
       <c r="A412" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80450,7 +80442,7 @@
         <v>2612</v>
       </c>
       <c r="G412" s="135" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="H412" s="135" t="s">
         <v>2822</v>
@@ -80459,7 +80451,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1">
+    <row r="413" spans="1:9">
       <c r="A413" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80479,7 +80471,7 @@
         <v>2612</v>
       </c>
       <c r="G413" s="135" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="H413" s="135" t="s">
         <v>2822</v>
@@ -80488,7 +80480,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1">
+    <row r="414" spans="1:9">
       <c r="A414" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80508,7 +80500,7 @@
         <v>2612</v>
       </c>
       <c r="G414" s="135" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="H414" s="135" t="s">
         <v>2822</v>
@@ -80517,7 +80509,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1">
+    <row r="415" spans="1:9">
       <c r="A415" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80537,7 +80529,7 @@
         <v>2612</v>
       </c>
       <c r="G415" s="135" t="s">
-        <v>2810</v>
+        <v>2837</v>
       </c>
       <c r="H415" s="135" t="s">
         <v>2822</v>
@@ -80546,7 +80538,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1">
+    <row r="416" spans="1:9">
       <c r="A416" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80566,7 +80558,7 @@
         <v>2612</v>
       </c>
       <c r="G416" s="135" t="s">
-        <v>2838</v>
+        <v>2810</v>
       </c>
       <c r="H416" s="135" t="s">
         <v>2822</v>
@@ -80575,7 +80567,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1">
+    <row r="417" spans="1:9">
       <c r="A417" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80595,7 +80587,7 @@
         <v>2612</v>
       </c>
       <c r="G417" s="135" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="H417" s="135" t="s">
         <v>2822</v>
@@ -80604,7 +80596,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1">
+    <row r="418" spans="1:9">
       <c r="A418" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80624,7 +80616,7 @@
         <v>2612</v>
       </c>
       <c r="G418" s="135" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="H418" s="135" t="s">
         <v>2822</v>
@@ -80633,7 +80625,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1">
+    <row r="419" spans="1:9">
       <c r="A419" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80653,7 +80645,7 @@
         <v>2612</v>
       </c>
       <c r="G419" s="135" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="H419" s="135" t="s">
         <v>2822</v>
@@ -80662,7 +80654,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1">
+    <row r="420" spans="1:9">
       <c r="A420" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80682,7 +80674,7 @@
         <v>2612</v>
       </c>
       <c r="G420" s="135" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="H420" s="135" t="s">
         <v>2822</v>
@@ -80691,7 +80683,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1">
+    <row r="421" spans="1:9">
       <c r="A421" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80711,7 +80703,7 @@
         <v>2612</v>
       </c>
       <c r="G421" s="135" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="H421" s="135" t="s">
         <v>2822</v>
@@ -80720,7 +80712,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1">
+    <row r="422" spans="1:9">
       <c r="A422" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80740,7 +80732,7 @@
         <v>2612</v>
       </c>
       <c r="G422" s="135" t="s">
-        <v>2808</v>
+        <v>2843</v>
       </c>
       <c r="H422" s="135" t="s">
         <v>2822</v>
@@ -80749,7 +80741,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1">
+    <row r="423" spans="1:9">
       <c r="A423" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80769,7 +80761,7 @@
         <v>2612</v>
       </c>
       <c r="G423" s="135" t="s">
-        <v>2844</v>
+        <v>2808</v>
       </c>
       <c r="H423" s="135" t="s">
         <v>2822</v>
@@ -80778,7 +80770,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1">
+    <row r="424" spans="1:9">
       <c r="A424" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80798,7 +80790,7 @@
         <v>2612</v>
       </c>
       <c r="G424" s="135" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="H424" s="135" t="s">
         <v>2822</v>
@@ -80807,7 +80799,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1">
+    <row r="425" spans="1:9">
       <c r="A425" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80827,7 +80819,7 @@
         <v>2612</v>
       </c>
       <c r="G425" s="135" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="H425" s="135" t="s">
         <v>2822</v>
@@ -80836,7 +80828,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1">
+    <row r="426" spans="1:9">
       <c r="A426" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80856,7 +80848,7 @@
         <v>2612</v>
       </c>
       <c r="G426" s="135" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="H426" s="135" t="s">
         <v>2822</v>
@@ -80865,36 +80857,36 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1">
+    <row r="427" spans="1:9">
       <c r="A427" s="135" t="s">
         <v>2762</v>
       </c>
       <c r="B427" s="135" t="s">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="C427" s="135" t="s">
-        <v>2849</v>
+        <v>2817</v>
       </c>
       <c r="D427" s="135" t="s">
-        <v>2850</v>
+        <v>2818</v>
       </c>
       <c r="E427" s="135" t="s">
-        <v>2610</v>
+        <v>2819</v>
       </c>
       <c r="F427" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G427" s="135" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="H427" s="135" t="s">
-        <v>2501</v>
+        <v>2822</v>
       </c>
       <c r="I427" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1">
+    <row r="428" spans="1:9">
       <c r="A428" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80911,10 +80903,10 @@
         <v>2610</v>
       </c>
       <c r="F428" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G428" s="135" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="H428" s="135" t="s">
         <v>2501</v>
@@ -80923,7 +80915,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1">
+    <row r="429" spans="1:9">
       <c r="A429" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80943,7 +80935,7 @@
         <v>2612</v>
       </c>
       <c r="G429" s="135" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="H429" s="135" t="s">
         <v>2501</v>
@@ -80952,7 +80944,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1">
+    <row r="430" spans="1:9">
       <c r="A430" s="135" t="s">
         <v>2762</v>
       </c>
@@ -80972,7 +80964,7 @@
         <v>2612</v>
       </c>
       <c r="G430" s="135" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="H430" s="135" t="s">
         <v>2501</v>
@@ -80981,36 +80973,36 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1">
+    <row r="431" spans="1:9">
       <c r="A431" s="135" t="s">
-        <v>2855</v>
+        <v>2762</v>
       </c>
       <c r="B431" s="135" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="C431" s="135" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="D431" s="135" t="s">
-        <v>2858</v>
+        <v>2850</v>
       </c>
       <c r="E431" s="135" t="s">
-        <v>2860</v>
+        <v>2610</v>
       </c>
       <c r="F431" s="135" t="s">
-        <v>2861</v>
+        <v>2612</v>
       </c>
       <c r="G431" s="135" t="s">
-        <v>2859</v>
+        <v>2854</v>
       </c>
       <c r="H431" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I431" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1">
+    <row r="432" spans="1:9">
       <c r="A432" s="135" t="s">
         <v>2855</v>
       </c>
@@ -81030,7 +81022,7 @@
         <v>2861</v>
       </c>
       <c r="G432" s="135" t="s">
-        <v>2866</v>
+        <v>2859</v>
       </c>
       <c r="H432" s="135" t="s">
         <v>2403</v>
@@ -81039,7 +81031,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1">
+    <row r="433" spans="1:9">
       <c r="A433" s="135" t="s">
         <v>2855</v>
       </c>
@@ -81053,13 +81045,13 @@
         <v>2858</v>
       </c>
       <c r="E433" s="135" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="F433" s="135" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="G433" s="135" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="H433" s="135" t="s">
         <v>2403</v>
@@ -81068,7 +81060,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1">
+    <row r="434" spans="1:9">
       <c r="A434" s="135" t="s">
         <v>2855</v>
       </c>
@@ -81088,16 +81080,16 @@
         <v>2863</v>
       </c>
       <c r="G434" s="135" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="H434" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I434" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1">
+    <row r="435" spans="1:9">
       <c r="A435" s="135" t="s">
         <v>2855</v>
       </c>
@@ -81111,22 +81103,22 @@
         <v>2858</v>
       </c>
       <c r="E435" s="135" t="s">
-        <v>2867</v>
+        <v>2862</v>
       </c>
       <c r="F435" s="135" t="s">
-        <v>2868</v>
+        <v>2863</v>
       </c>
       <c r="G435" s="135" t="s">
-        <v>2859</v>
+        <v>2865</v>
       </c>
       <c r="H435" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I435" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1">
+    <row r="436" spans="1:9">
       <c r="A436" s="135" t="s">
         <v>2855</v>
       </c>
@@ -81146,7 +81138,7 @@
         <v>2868</v>
       </c>
       <c r="G436" s="135" t="s">
-        <v>2866</v>
+        <v>2859</v>
       </c>
       <c r="H436" s="135" t="s">
         <v>2403</v>
@@ -81155,7 +81147,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1">
+    <row r="437" spans="1:9">
       <c r="A437" s="135" t="s">
         <v>2855</v>
       </c>
@@ -81169,13 +81161,13 @@
         <v>2858</v>
       </c>
       <c r="E437" s="135" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="F437" s="135" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="G437" s="135" t="s">
-        <v>2859</v>
+        <v>2866</v>
       </c>
       <c r="H437" s="135" t="s">
         <v>2403</v>
@@ -81184,27 +81176,27 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1">
+    <row r="438" spans="1:9">
       <c r="A438" s="135" t="s">
-        <v>2871</v>
+        <v>2855</v>
       </c>
       <c r="B438" s="135" t="s">
-        <v>2872</v>
+        <v>2856</v>
       </c>
       <c r="C438" s="135" t="s">
-        <v>2873</v>
+        <v>2857</v>
       </c>
       <c r="D438" s="135" t="s">
-        <v>2874</v>
+        <v>2858</v>
       </c>
       <c r="E438" s="135" t="s">
-        <v>2876</v>
+        <v>2869</v>
       </c>
       <c r="F438" s="135" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="G438" s="135" t="s">
-        <v>2875</v>
+        <v>2859</v>
       </c>
       <c r="H438" s="135" t="s">
         <v>2403</v>
@@ -81213,7 +81205,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1">
+    <row r="439" spans="1:9">
       <c r="A439" s="135" t="s">
         <v>2871</v>
       </c>
@@ -81233,16 +81225,16 @@
         <v>2868</v>
       </c>
       <c r="G439" s="135" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="H439" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I439" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1">
+    <row r="440" spans="1:9">
       <c r="A440" s="135" t="s">
         <v>2871</v>
       </c>
@@ -81256,22 +81248,22 @@
         <v>2874</v>
       </c>
       <c r="E440" s="135" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="F440" s="135" t="s">
-        <v>2878</v>
+        <v>2868</v>
       </c>
       <c r="G440" s="135" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="H440" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I440" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1">
+    <row r="441" spans="1:9">
       <c r="A441" s="135" t="s">
         <v>2871</v>
       </c>
@@ -81291,45 +81283,45 @@
         <v>2878</v>
       </c>
       <c r="G441" s="135" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="H441" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I441" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1">
+    <row r="442" spans="1:9">
       <c r="A442" s="135" t="s">
-        <v>2882</v>
+        <v>2871</v>
       </c>
       <c r="B442" s="135" t="s">
-        <v>2883</v>
+        <v>2872</v>
       </c>
       <c r="C442" s="135" t="s">
-        <v>2884</v>
+        <v>2873</v>
       </c>
       <c r="D442" s="135" t="s">
-        <v>2885</v>
+        <v>2874</v>
       </c>
       <c r="E442" s="135" t="s">
-        <v>2886</v>
+        <v>2877</v>
       </c>
       <c r="F442" s="135" t="s">
-        <v>2609</v>
+        <v>2878</v>
       </c>
       <c r="G442" s="135" t="s">
-        <v>2633</v>
+        <v>2881</v>
       </c>
       <c r="H442" s="135" t="s">
-        <v>2501</v>
+        <v>2652</v>
       </c>
       <c r="I442" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1">
+    <row r="443" spans="1:9">
       <c r="A443" s="135" t="s">
         <v>2882</v>
       </c>
@@ -81349,7 +81341,7 @@
         <v>2609</v>
       </c>
       <c r="G443" s="135" t="s">
-        <v>2887</v>
+        <v>2633</v>
       </c>
       <c r="H443" s="135" t="s">
         <v>2501</v>
@@ -81358,7 +81350,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1">
+    <row r="444" spans="1:9">
       <c r="A444" s="135" t="s">
         <v>2882</v>
       </c>
@@ -81378,16 +81370,16 @@
         <v>2609</v>
       </c>
       <c r="G444" s="135" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="H444" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I444" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1">
+    <row r="445" spans="1:9">
       <c r="A445" s="135" t="s">
         <v>2882</v>
       </c>
@@ -81404,10 +81396,10 @@
         <v>2886</v>
       </c>
       <c r="F445" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G445" s="135" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="H445" s="135" t="s">
         <v>2656</v>
@@ -81416,27 +81408,27 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1">
+    <row r="446" spans="1:9">
       <c r="A446" s="135" t="s">
         <v>2882</v>
       </c>
       <c r="B446" s="135" t="s">
-        <v>2890</v>
+        <v>2883</v>
       </c>
       <c r="C446" s="135" t="s">
-        <v>2891</v>
+        <v>2884</v>
       </c>
       <c r="D446" s="135" t="s">
-        <v>2892</v>
+        <v>2885</v>
       </c>
       <c r="E446" s="135" t="s">
-        <v>2893</v>
+        <v>2886</v>
       </c>
       <c r="F446" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G446" s="135" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="H446" s="135" t="s">
         <v>2656</v>
@@ -81445,7 +81437,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1">
+    <row r="447" spans="1:9">
       <c r="A447" s="135" t="s">
         <v>2882</v>
       </c>
@@ -81462,10 +81454,10 @@
         <v>2893</v>
       </c>
       <c r="F447" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G447" s="135" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="H447" s="135" t="s">
         <v>2656</v>
@@ -81474,7 +81466,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1">
+    <row r="448" spans="1:9">
       <c r="A448" s="135" t="s">
         <v>2882</v>
       </c>
@@ -81494,7 +81486,7 @@
         <v>2612</v>
       </c>
       <c r="G448" s="135" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="H448" s="135" t="s">
         <v>2656</v>
@@ -81503,27 +81495,36 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="449" spans="4:9" hidden="1">
+    <row r="449" spans="1:9">
+      <c r="A449" s="135" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B449" s="135" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C449" s="135" t="s">
+        <v>2891</v>
+      </c>
       <c r="D449" s="135" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="E449" s="135" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="F449" s="135" t="s">
-        <v>2900</v>
+        <v>2612</v>
       </c>
       <c r="G449" s="135" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="H449" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I449" s="135" t="s">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="450" spans="4:9" hidden="1">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
       <c r="D450" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81531,19 +81532,19 @@
         <v>2899</v>
       </c>
       <c r="F450" s="135" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="G450" s="135" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="H450" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I450" s="135" t="s">
         <v>2902</v>
       </c>
     </row>
-    <row r="451" spans="4:9" hidden="1">
+    <row r="451" spans="1:9">
       <c r="D451" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81551,19 +81552,19 @@
         <v>2899</v>
       </c>
       <c r="F451" s="135" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="G451" s="135" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="H451" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I451" s="135" t="s">
         <v>2902</v>
       </c>
     </row>
-    <row r="452" spans="4:9" hidden="1">
+    <row r="452" spans="1:9">
       <c r="D452" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81574,16 +81575,16 @@
         <v>2905</v>
       </c>
       <c r="G452" s="135" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="H452" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I452" s="135" t="s">
         <v>2902</v>
       </c>
     </row>
-    <row r="453" spans="4:9" hidden="1">
+    <row r="453" spans="1:9">
       <c r="D453" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81594,16 +81595,16 @@
         <v>2905</v>
       </c>
       <c r="G453" s="135" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="H453" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I453" s="135" t="s">
         <v>2902</v>
       </c>
     </row>
-    <row r="454" spans="4:9" hidden="1">
+    <row r="454" spans="1:9">
       <c r="D454" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81614,7 +81615,7 @@
         <v>2905</v>
       </c>
       <c r="G454" s="135" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="H454" s="135" t="s">
         <v>2652</v>
@@ -81623,7 +81624,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="455" spans="4:9" hidden="1">
+    <row r="455" spans="1:9">
       <c r="D455" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81634,7 +81635,7 @@
         <v>2905</v>
       </c>
       <c r="G455" s="135" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="H455" s="135" t="s">
         <v>2652</v>
@@ -81643,7 +81644,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="456" spans="4:9" hidden="1">
+    <row r="456" spans="1:9">
       <c r="D456" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81654,7 +81655,7 @@
         <v>2905</v>
       </c>
       <c r="G456" s="135" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="H456" s="135" t="s">
         <v>2652</v>
@@ -81663,7 +81664,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="457" spans="4:9" hidden="1">
+    <row r="457" spans="1:9">
       <c r="D457" s="135" t="s">
         <v>2898</v>
       </c>
@@ -81671,15 +81672,35 @@
         <v>2899</v>
       </c>
       <c r="F457" s="135" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G457" s="135" t="s">
+        <v>2911</v>
+      </c>
+      <c r="H457" s="135" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I457" s="135" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="D458" s="135" t="s">
+        <v>2898</v>
+      </c>
+      <c r="E458" s="135" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F458" s="135" t="s">
         <v>2912</v>
       </c>
-      <c r="G457" s="135" t="s">
+      <c r="G458" s="135" t="s">
         <v>2913</v>
       </c>
-      <c r="H457" s="135" t="s">
+      <c r="H458" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I457" s="135" t="s">
+      <c r="I458" s="135" t="s">
         <v>2902</v>
       </c>
     </row>
@@ -81710,10 +81731,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="138" t="s">
         <v>2972</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="138" t="s">
         <v>2973</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$F$157</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$465</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$475</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18301" uniqueCount="3049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18335" uniqueCount="3050">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9131,9 +9131,6 @@
     <t>fin.ods_fornecedor_contato</t>
   </si>
   <si>
-    <t>Juros</t>
-  </si>
-  <si>
     <t>fin.aux_unineg_documento_titulo</t>
   </si>
   <si>
@@ -9152,34 +9149,40 @@
     <t>fin.stg_sige_transacao</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Imposto</t>
-  </si>
-  <si>
-    <t>Mora e Multa</t>
-  </si>
-  <si>
-    <t>Despesas</t>
-  </si>
-  <si>
-    <t>Pagto.Maior</t>
-  </si>
-  <si>
-    <t>Descontos</t>
-  </si>
-  <si>
-    <t>Encargos</t>
-  </si>
-  <si>
     <t>fin.aux_titulo_receber_instancia</t>
   </si>
   <si>
     <t>fin.dim_titulo_modulo</t>
   </si>
   <si>
-    <t>mis_ods.ln.ods_car_titulo</t>
+    <t>ods_campanha</t>
+  </si>
+  <si>
+    <t>ods_fat_type</t>
+  </si>
+  <si>
+    <t>ods_midia</t>
+  </si>
+  <si>
+    <t>ods_vendedor</t>
+  </si>
+  <si>
+    <t>yn_beneficio</t>
+  </si>
+  <si>
+    <t>com.ods_beneficio_icms_uf</t>
+  </si>
+  <si>
+    <t>nr_nbm</t>
+  </si>
+  <si>
+    <t>com.ods_beneficio_icms_nbm</t>
+  </si>
+  <si>
+    <t>ods_sige_historico_estoque</t>
+  </si>
+  <si>
+    <t>ods_estoque_loja</t>
   </si>
 </sst>
 </file>
@@ -10186,6 +10189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10231,7 +10235,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10788,18 +10791,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I465" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A2:I465">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="ln.ods_car_titulo"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="MIS_ODS"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I475" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A2:I475">
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="Sequence Container" dataDxfId="9"/>
@@ -12180,7 +12175,7 @@
       <c r="A3" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>1757</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -12200,7 +12195,7 @@
       <c r="A4" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B4" s="140"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="31" t="s">
         <v>1763</v>
       </c>
@@ -12219,7 +12214,7 @@
       <c r="A5" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B5" s="140"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="31" t="s">
         <v>1765</v>
       </c>
@@ -12238,7 +12233,7 @@
       <c r="A6" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B6" s="140"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="31" t="s">
         <v>1767</v>
       </c>
@@ -12257,7 +12252,7 @@
       <c r="A7" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B7" s="140"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="31" t="s">
         <v>1769</v>
       </c>
@@ -12276,7 +12271,7 @@
       <c r="A8" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B8" s="140"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="31" t="s">
         <v>2294</v>
       </c>
@@ -12295,7 +12290,7 @@
       <c r="A9" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B9" s="140"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="31" t="s">
         <v>1771</v>
       </c>
@@ -12314,7 +12309,7 @@
       <c r="A10" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B10" s="140"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="31" t="s">
         <v>1773</v>
       </c>
@@ -12333,7 +12328,7 @@
       <c r="A11" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B11" s="140"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="31" t="s">
         <v>1775</v>
       </c>
@@ -12352,7 +12347,7 @@
       <c r="A12" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B12" s="140"/>
+      <c r="B12" s="141"/>
       <c r="C12" s="31" t="s">
         <v>1777</v>
       </c>
@@ -12371,7 +12366,7 @@
       <c r="A13" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B13" s="140"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="31" t="s">
         <v>1779</v>
       </c>
@@ -12390,7 +12385,7 @@
       <c r="A14" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B14" s="140"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="31" t="s">
         <v>1781</v>
       </c>
@@ -12409,7 +12404,7 @@
       <c r="A15" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B15" s="140"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="31" t="s">
         <v>1783</v>
       </c>
@@ -12428,7 +12423,7 @@
       <c r="A16" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B16" s="140"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="31" t="s">
         <v>1785</v>
       </c>
@@ -12447,7 +12442,7 @@
       <c r="A17" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B17" s="140"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="31" t="s">
         <v>1787</v>
       </c>
@@ -12466,7 +12461,7 @@
       <c r="A18" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B18" s="140"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="31" t="s">
         <v>1796</v>
       </c>
@@ -12484,7 +12479,7 @@
       <c r="A19" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B19" s="140"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="31" t="s">
         <v>1800</v>
       </c>
@@ -12503,7 +12498,7 @@
       <c r="A20" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B20" s="140"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="31" t="s">
         <v>1802</v>
       </c>
@@ -12522,7 +12517,7 @@
       <c r="A21" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B21" s="140"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="31" t="s">
         <v>1804</v>
       </c>
@@ -12541,7 +12536,7 @@
       <c r="A22" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B22" s="140"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="31" t="s">
         <v>2271</v>
       </c>
@@ -12560,7 +12555,7 @@
       <c r="A23" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B23" s="140"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="31" t="s">
         <v>1807</v>
       </c>
@@ -12579,7 +12574,7 @@
       <c r="A24" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B24" s="140"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="31" t="s">
         <v>1813</v>
       </c>
@@ -12598,7 +12593,7 @@
       <c r="A25" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B25" s="140"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="31" t="s">
         <v>1823</v>
       </c>
@@ -12617,7 +12612,7 @@
       <c r="A26" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B26" s="140"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="31" t="s">
         <v>1825</v>
       </c>
@@ -12636,7 +12631,7 @@
       <c r="A27" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B27" s="140"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="31" t="s">
         <v>1827</v>
       </c>
@@ -12655,7 +12650,7 @@
       <c r="A28" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B28" s="140"/>
+      <c r="B28" s="141"/>
       <c r="C28" s="31" t="s">
         <v>1829</v>
       </c>
@@ -12674,7 +12669,7 @@
       <c r="A29" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B29" s="140"/>
+      <c r="B29" s="141"/>
       <c r="C29" s="31" t="s">
         <v>1831</v>
       </c>
@@ -12693,7 +12688,7 @@
       <c r="A30" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B30" s="140"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="31" t="s">
         <v>1833</v>
       </c>
@@ -12712,7 +12707,7 @@
       <c r="A31" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B31" s="140"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="31" t="s">
         <v>1835</v>
       </c>
@@ -12731,7 +12726,7 @@
       <c r="A32" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B32" s="140"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="31" t="s">
         <v>1874</v>
       </c>
@@ -12750,7 +12745,7 @@
       <c r="A33" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B33" s="140"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="31" t="s">
         <v>1875</v>
       </c>
@@ -12769,7 +12764,7 @@
       <c r="A34" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B34" s="140"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="31" t="s">
         <v>2357</v>
       </c>
@@ -12788,7 +12783,7 @@
       <c r="A35" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B35" s="140"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="31" t="s">
         <v>2340</v>
       </c>
@@ -12807,7 +12802,7 @@
       <c r="A36" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B36" s="140"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="31" t="s">
         <v>1882</v>
       </c>
@@ -12826,7 +12821,7 @@
       <c r="A37" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B37" s="140"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="31" t="s">
         <v>1884</v>
       </c>
@@ -12845,7 +12840,7 @@
       <c r="A38" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B38" s="140"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="31" t="s">
         <v>1886</v>
       </c>
@@ -12864,7 +12859,7 @@
       <c r="A39" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B39" s="140"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="31" t="s">
         <v>1888</v>
       </c>
@@ -12883,7 +12878,7 @@
       <c r="A40" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B40" s="140"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="31" t="s">
         <v>1895</v>
       </c>
@@ -12902,7 +12897,7 @@
       <c r="A41" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B41" s="140"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="31" t="s">
         <v>1897</v>
       </c>
@@ -12921,7 +12916,7 @@
       <c r="A42" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B42" s="141"/>
+      <c r="B42" s="142"/>
       <c r="C42" s="31" t="s">
         <v>2048</v>
       </c>
@@ -12948,7 +12943,7 @@
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="B44" s="139" t="s">
+      <c r="B44" s="140" t="s">
         <v>2345</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -12969,7 +12964,7 @@
       <c r="A45" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B45" s="140"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="31" t="s">
         <v>1761</v>
       </c>
@@ -12988,7 +12983,7 @@
       <c r="A46" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B46" s="140"/>
+      <c r="B46" s="141"/>
       <c r="C46" s="31" t="s">
         <v>1789</v>
       </c>
@@ -13007,7 +13002,7 @@
       <c r="A47" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B47" s="140"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="31" t="s">
         <v>1791</v>
       </c>
@@ -13026,7 +13021,7 @@
       <c r="A48" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B48" s="140"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="31" t="s">
         <v>1792</v>
       </c>
@@ -13045,7 +13040,7 @@
       <c r="A49" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B49" s="140"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="31" t="s">
         <v>2019</v>
       </c>
@@ -13064,7 +13059,7 @@
       <c r="A50" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B50" s="140"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="31" t="s">
         <v>1794</v>
       </c>
@@ -13083,7 +13078,7 @@
       <c r="A51" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B51" s="140"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="31" t="s">
         <v>1799</v>
       </c>
@@ -13102,7 +13097,7 @@
       <c r="A52" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B52" s="140"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="31" t="s">
         <v>1809</v>
       </c>
@@ -13121,7 +13116,7 @@
       <c r="A53" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B53" s="140"/>
+      <c r="B53" s="141"/>
       <c r="C53" s="31" t="s">
         <v>1811</v>
       </c>
@@ -13140,7 +13135,7 @@
       <c r="A54" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B54" s="140"/>
+      <c r="B54" s="141"/>
       <c r="C54" s="31" t="s">
         <v>1815</v>
       </c>
@@ -13159,7 +13154,7 @@
       <c r="A55" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B55" s="140"/>
+      <c r="B55" s="141"/>
       <c r="C55" s="31" t="s">
         <v>1817</v>
       </c>
@@ -13178,7 +13173,7 @@
       <c r="A56" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B56" s="140"/>
+      <c r="B56" s="141"/>
       <c r="C56" s="31" t="s">
         <v>1819</v>
       </c>
@@ -13197,7 +13192,7 @@
       <c r="A57" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B57" s="140"/>
+      <c r="B57" s="141"/>
       <c r="C57" s="31" t="s">
         <v>1821</v>
       </c>
@@ -13216,7 +13211,7 @@
       <c r="A58" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B58" s="140"/>
+      <c r="B58" s="141"/>
       <c r="C58" s="31" t="s">
         <v>1837</v>
       </c>
@@ -13235,7 +13230,7 @@
       <c r="A59" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B59" s="140"/>
+      <c r="B59" s="141"/>
       <c r="C59" s="31" t="s">
         <v>1839</v>
       </c>
@@ -13254,7 +13249,7 @@
       <c r="A60" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B60" s="140"/>
+      <c r="B60" s="141"/>
       <c r="C60" s="31" t="s">
         <v>1841</v>
       </c>
@@ -13273,7 +13268,7 @@
       <c r="A61" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B61" s="140"/>
+      <c r="B61" s="141"/>
       <c r="C61" s="31" t="s">
         <v>1843</v>
       </c>
@@ -13292,7 +13287,7 @@
       <c r="A62" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B62" s="140"/>
+      <c r="B62" s="141"/>
       <c r="C62" s="31" t="s">
         <v>1845</v>
       </c>
@@ -13311,7 +13306,7 @@
       <c r="A63" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B63" s="140"/>
+      <c r="B63" s="141"/>
       <c r="C63" s="31" t="s">
         <v>1847</v>
       </c>
@@ -13330,7 +13325,7 @@
       <c r="A64" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B64" s="140"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="31" t="s">
         <v>1849</v>
       </c>
@@ -13349,7 +13344,7 @@
       <c r="A65" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B65" s="140"/>
+      <c r="B65" s="141"/>
       <c r="C65" s="31" t="s">
         <v>2341</v>
       </c>
@@ -13368,7 +13363,7 @@
       <c r="A66" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B66" s="140"/>
+      <c r="B66" s="141"/>
       <c r="C66" s="31" t="s">
         <v>1852</v>
       </c>
@@ -13387,7 +13382,7 @@
       <c r="A67" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B67" s="140"/>
+      <c r="B67" s="141"/>
       <c r="C67" s="31" t="s">
         <v>1854</v>
       </c>
@@ -13406,7 +13401,7 @@
       <c r="A68" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B68" s="140"/>
+      <c r="B68" s="141"/>
       <c r="C68" s="31" t="s">
         <v>1856</v>
       </c>
@@ -13425,7 +13420,7 @@
       <c r="A69" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B69" s="140"/>
+      <c r="B69" s="141"/>
       <c r="C69" s="31" t="s">
         <v>1858</v>
       </c>
@@ -13444,7 +13439,7 @@
       <c r="A70" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B70" s="140"/>
+      <c r="B70" s="141"/>
       <c r="C70" s="31" t="s">
         <v>1860</v>
       </c>
@@ -13463,7 +13458,7 @@
       <c r="A71" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B71" s="140"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="31" t="s">
         <v>1862</v>
       </c>
@@ -13482,7 +13477,7 @@
       <c r="A72" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B72" s="140"/>
+      <c r="B72" s="141"/>
       <c r="C72" s="31" t="s">
         <v>1864</v>
       </c>
@@ -13501,7 +13496,7 @@
       <c r="A73" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B73" s="140"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="31" t="s">
         <v>1866</v>
       </c>
@@ -13520,7 +13515,7 @@
       <c r="A74" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B74" s="140"/>
+      <c r="B74" s="141"/>
       <c r="C74" s="31" t="s">
         <v>1868</v>
       </c>
@@ -13539,7 +13534,7 @@
       <c r="A75" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B75" s="140"/>
+      <c r="B75" s="141"/>
       <c r="C75" s="31" t="s">
         <v>1870</v>
       </c>
@@ -13558,7 +13553,7 @@
       <c r="A76" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B76" s="140"/>
+      <c r="B76" s="141"/>
       <c r="C76" s="31" t="s">
         <v>1877</v>
       </c>
@@ -13579,7 +13574,7 @@
       <c r="A77" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B77" s="140"/>
+      <c r="B77" s="141"/>
       <c r="C77" s="31" t="s">
         <v>1880</v>
       </c>
@@ -13598,7 +13593,7 @@
       <c r="A78" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B78" s="140"/>
+      <c r="B78" s="141"/>
       <c r="C78" s="31" t="s">
         <v>2314</v>
       </c>
@@ -13619,7 +13614,7 @@
       <c r="A79" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B79" s="141"/>
+      <c r="B79" s="142"/>
       <c r="C79" s="31" t="s">
         <v>1890</v>
       </c>
@@ -13649,7 +13644,7 @@
       <c r="A81" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B81" s="148" t="s">
+      <c r="B81" s="149" t="s">
         <v>911</v>
       </c>
       <c r="C81" s="31" t="s">
@@ -13670,7 +13665,7 @@
       <c r="A82" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B82" s="149"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="31" t="s">
         <v>1908</v>
       </c>
@@ -13700,7 +13695,7 @@
       <c r="A84" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B84" s="144" t="s">
+      <c r="B84" s="145" t="s">
         <v>1910</v>
       </c>
       <c r="C84" s="31" t="s">
@@ -13721,7 +13716,7 @@
       <c r="A85" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B85" s="145"/>
+      <c r="B85" s="146"/>
       <c r="C85" s="31" t="s">
         <v>1914</v>
       </c>
@@ -13740,7 +13735,7 @@
       <c r="A86" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B86" s="145"/>
+      <c r="B86" s="146"/>
       <c r="C86" s="31" t="s">
         <v>2346</v>
       </c>
@@ -13759,7 +13754,7 @@
       <c r="A87" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B87" s="145"/>
+      <c r="B87" s="146"/>
       <c r="C87" s="31" t="s">
         <v>1911</v>
       </c>
@@ -13778,7 +13773,7 @@
       <c r="A88" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B88" s="145"/>
+      <c r="B88" s="146"/>
       <c r="C88" s="31" t="s">
         <v>1913</v>
       </c>
@@ -13797,7 +13792,7 @@
       <c r="A89" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B89" s="145"/>
+      <c r="B89" s="146"/>
       <c r="C89" s="31" t="s">
         <v>2213</v>
       </c>
@@ -13816,7 +13811,7 @@
       <c r="A90" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B90" s="145"/>
+      <c r="B90" s="146"/>
       <c r="C90" s="31" t="s">
         <v>2147</v>
       </c>
@@ -13835,7 +13830,7 @@
       <c r="A91" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B91" s="146"/>
+      <c r="B91" s="147"/>
       <c r="C91" s="31" t="s">
         <v>2215</v>
       </c>
@@ -13865,7 +13860,7 @@
       <c r="A93" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B93" s="148" t="s">
+      <c r="B93" s="149" t="s">
         <v>1919</v>
       </c>
       <c r="C93" s="31" t="s">
@@ -13886,7 +13881,7 @@
       <c r="A94" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B94" s="150"/>
+      <c r="B94" s="151"/>
       <c r="C94" s="31" t="s">
         <v>1920</v>
       </c>
@@ -13905,7 +13900,7 @@
       <c r="A95" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B95" s="150"/>
+      <c r="B95" s="151"/>
       <c r="C95" s="31" t="s">
         <v>1923</v>
       </c>
@@ -13924,7 +13919,7 @@
       <c r="A96" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B96" s="150"/>
+      <c r="B96" s="151"/>
       <c r="C96" s="31" t="s">
         <v>1925</v>
       </c>
@@ -13943,7 +13938,7 @@
       <c r="A97" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B97" s="150"/>
+      <c r="B97" s="151"/>
       <c r="C97" s="31" t="s">
         <v>1929</v>
       </c>
@@ -13962,7 +13957,7 @@
       <c r="A98" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B98" s="150"/>
+      <c r="B98" s="151"/>
       <c r="C98" s="31" t="s">
         <v>1927</v>
       </c>
@@ -13981,7 +13976,7 @@
       <c r="A99" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B99" s="150"/>
+      <c r="B99" s="151"/>
       <c r="C99" s="31" t="s">
         <v>2259</v>
       </c>
@@ -14000,7 +13995,7 @@
       <c r="A100" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B100" s="150"/>
+      <c r="B100" s="151"/>
       <c r="C100" s="31" t="s">
         <v>2260</v>
       </c>
@@ -14019,7 +14014,7 @@
       <c r="A101" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B101" s="149"/>
+      <c r="B101" s="150"/>
       <c r="C101" s="31" t="s">
         <v>2287</v>
       </c>
@@ -14049,7 +14044,7 @@
       <c r="A103" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B103" s="139" t="s">
+      <c r="B103" s="140" t="s">
         <v>964</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -14070,7 +14065,7 @@
       <c r="A104" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B104" s="140"/>
+      <c r="B104" s="141"/>
       <c r="C104" s="31" t="s">
         <v>2333</v>
       </c>
@@ -14089,7 +14084,7 @@
       <c r="A105" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B105" s="141"/>
+      <c r="B105" s="142"/>
       <c r="C105" s="31" t="s">
         <v>2335</v>
       </c>
@@ -14151,7 +14146,7 @@
       <c r="A109" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B109" s="148" t="s">
+      <c r="B109" s="149" t="s">
         <v>945</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -14172,7 +14167,7 @@
       <c r="A110" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B110" s="150"/>
+      <c r="B110" s="151"/>
       <c r="C110" s="31" t="s">
         <v>1937</v>
       </c>
@@ -14191,7 +14186,7 @@
       <c r="A111" s="30" t="s">
         <v>2301</v>
       </c>
-      <c r="B111" s="150"/>
+      <c r="B111" s="151"/>
       <c r="C111" s="31" t="s">
         <v>2289</v>
       </c>
@@ -14210,7 +14205,7 @@
       <c r="A112" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B112" s="149"/>
+      <c r="B112" s="150"/>
       <c r="C112" s="31" t="s">
         <v>1939</v>
       </c>
@@ -14240,7 +14235,7 @@
       <c r="A114" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B114" s="148" t="s">
+      <c r="B114" s="149" t="s">
         <v>951</v>
       </c>
       <c r="C114" s="31" t="s">
@@ -14261,7 +14256,7 @@
       <c r="A115" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B115" s="149"/>
+      <c r="B115" s="150"/>
       <c r="C115" s="31" t="s">
         <v>1944</v>
       </c>
@@ -14355,7 +14350,7 @@
       <c r="A121" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B121" s="144" t="s">
+      <c r="B121" s="145" t="s">
         <v>1950</v>
       </c>
       <c r="C121" s="31" t="s">
@@ -14376,7 +14371,7 @@
       <c r="A122" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B122" s="145"/>
+      <c r="B122" s="146"/>
       <c r="C122" s="31" t="s">
         <v>1954</v>
       </c>
@@ -14395,7 +14390,7 @@
       <c r="A123" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B123" s="145"/>
+      <c r="B123" s="146"/>
       <c r="C123" s="31" t="s">
         <v>1956</v>
       </c>
@@ -14414,7 +14409,7 @@
       <c r="A124" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B124" s="145"/>
+      <c r="B124" s="146"/>
       <c r="C124" s="31" t="s">
         <v>1958</v>
       </c>
@@ -14433,7 +14428,7 @@
       <c r="A125" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B125" s="146"/>
+      <c r="B125" s="147"/>
       <c r="C125" s="31" t="s">
         <v>2268</v>
       </c>
@@ -14463,7 +14458,7 @@
       <c r="A127" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B127" s="148" t="s">
+      <c r="B127" s="149" t="s">
         <v>1960</v>
       </c>
       <c r="C127" s="31" t="s">
@@ -14484,7 +14479,7 @@
       <c r="A128" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B128" s="150"/>
+      <c r="B128" s="151"/>
       <c r="C128" s="31" t="s">
         <v>1964</v>
       </c>
@@ -14503,7 +14498,7 @@
       <c r="A129" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B129" s="149"/>
+      <c r="B129" s="150"/>
       <c r="C129" s="31" t="s">
         <v>1966</v>
       </c>
@@ -14565,7 +14560,7 @@
       <c r="A133" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B133" s="148" t="s">
+      <c r="B133" s="149" t="s">
         <v>1976</v>
       </c>
       <c r="C133" s="31" t="s">
@@ -14586,7 +14581,7 @@
       <c r="A134" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B134" s="149"/>
+      <c r="B134" s="150"/>
       <c r="C134" s="31" t="s">
         <v>1980</v>
       </c>
@@ -14616,7 +14611,7 @@
       <c r="A136" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B136" s="148" t="s">
+      <c r="B136" s="149" t="s">
         <v>1982</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -14637,7 +14632,7 @@
       <c r="A137" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B137" s="150"/>
+      <c r="B137" s="151"/>
       <c r="C137" s="31" t="s">
         <v>1986</v>
       </c>
@@ -14656,7 +14651,7 @@
       <c r="A138" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B138" s="150"/>
+      <c r="B138" s="151"/>
       <c r="C138" s="31" t="s">
         <v>1988</v>
       </c>
@@ -14675,7 +14670,7 @@
       <c r="A139" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B139" s="149"/>
+      <c r="B139" s="150"/>
       <c r="C139" s="31" t="s">
         <v>1990</v>
       </c>
@@ -14705,7 +14700,7 @@
       <c r="A141" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B141" s="144" t="s">
+      <c r="B141" s="145" t="s">
         <v>1994</v>
       </c>
       <c r="C141" s="31" t="s">
@@ -14726,7 +14721,7 @@
       <c r="A142" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B142" s="145"/>
+      <c r="B142" s="146"/>
       <c r="C142" s="31" t="s">
         <v>1998</v>
       </c>
@@ -14745,7 +14740,7 @@
       <c r="A143" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B143" s="146"/>
+      <c r="B143" s="147"/>
       <c r="C143" s="31" t="s">
         <v>2000</v>
       </c>
@@ -14807,7 +14802,7 @@
       <c r="A147" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B147" s="148" t="s">
+      <c r="B147" s="149" t="s">
         <v>2005</v>
       </c>
       <c r="C147" s="31" t="s">
@@ -14828,7 +14823,7 @@
       <c r="A148" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B148" s="150"/>
+      <c r="B148" s="151"/>
       <c r="C148" s="31" t="s">
         <v>2320</v>
       </c>
@@ -14847,7 +14842,7 @@
       <c r="A149" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B149" s="149"/>
+      <c r="B149" s="150"/>
       <c r="C149" s="31" t="s">
         <v>2010</v>
       </c>
@@ -15008,22 +15003,22 @@
       <c r="G158" s="34"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="C160" s="142"/>
-      <c r="D160" s="142"/>
-      <c r="E160" s="142"/>
-      <c r="F160" s="142"/>
+      <c r="C160" s="143"/>
+      <c r="D160" s="143"/>
+      <c r="E160" s="143"/>
+      <c r="F160" s="143"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="C161" s="142"/>
-      <c r="D161" s="142"/>
-      <c r="E161" s="142"/>
-      <c r="F161" s="142"/>
+      <c r="C161" s="143"/>
+      <c r="D161" s="143"/>
+      <c r="E161" s="143"/>
+      <c r="F161" s="143"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="C162" s="143"/>
-      <c r="D162" s="143"/>
-      <c r="E162" s="143"/>
-      <c r="F162" s="143"/>
+      <c r="C162" s="144"/>
+      <c r="D162" s="144"/>
+      <c r="E162" s="144"/>
+      <c r="F162" s="144"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="116" t="s">
@@ -15199,7 +15194,7 @@
       <c r="A173" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B173" s="147" t="s">
+      <c r="B173" s="148" t="s">
         <v>1972</v>
       </c>
       <c r="C173" s="113" t="s">
@@ -15218,7 +15213,7 @@
       <c r="A174" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B174" s="147"/>
+      <c r="B174" s="148"/>
       <c r="C174" s="113" t="s">
         <v>1975</v>
       </c>
@@ -69036,19 +69031,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>1061</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="H1" s="152" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="H1" s="153" t="s">
         <v>1100</v>
       </c>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -69233,11 +69228,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="151"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -69255,11 +69250,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D481" sqref="D481"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69277,13 +69272,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>2896</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="I1" s="135" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -69315,7 +69310,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69341,7 +69336,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69367,7 +69362,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69393,7 +69388,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69419,7 +69414,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69445,7 +69440,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69471,7 +69466,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69497,7 +69492,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69523,7 +69518,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69549,7 +69544,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69575,7 +69570,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69601,7 +69596,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69627,7 +69622,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69653,7 +69648,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69679,7 +69674,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69705,7 +69700,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69731,7 +69726,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69757,7 +69752,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69783,7 +69778,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69809,7 +69804,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69835,7 +69830,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69861,7 +69856,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69887,7 +69882,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69913,7 +69908,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1">
+    <row r="26" spans="1:8">
       <c r="A26" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69939,7 +69934,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69965,7 +69960,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69991,7 +69986,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70017,7 +70012,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70043,7 +70038,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70069,7 +70064,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70095,7 +70090,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70121,7 +70116,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70147,7 +70142,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70173,7 +70168,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70199,7 +70194,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70225,7 +70220,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70251,7 +70246,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70277,7 +70272,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70303,7 +70298,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70329,7 +70324,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70355,7 +70350,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70381,7 +70376,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70407,7 +70402,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70433,7 +70428,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70459,7 +70454,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8">
       <c r="A47" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70485,7 +70480,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8">
       <c r="A48" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70511,7 +70506,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70537,7 +70532,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70563,7 +70558,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70589,7 +70584,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70615,7 +70610,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70641,7 +70636,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70667,7 +70662,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70693,7 +70688,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70719,7 +70714,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8">
       <c r="A57" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70745,7 +70740,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70771,7 +70766,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70797,7 +70792,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70823,7 +70818,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70849,7 +70844,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70875,7 +70870,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70901,7 +70896,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70927,7 +70922,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70953,7 +70948,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70979,7 +70974,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71005,7 +71000,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71031,7 +71026,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71057,7 +71052,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71083,7 +71078,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71109,7 +71104,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71135,7 +71130,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71161,7 +71156,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71187,7 +71182,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71213,7 +71208,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71239,7 +71234,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71265,7 +71260,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71291,7 +71286,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71317,7 +71312,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71343,7 +71338,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71369,7 +71364,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71395,7 +71390,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71421,7 +71416,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71447,7 +71442,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71473,7 +71468,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71525,7 +71520,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71551,7 +71546,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71577,7 +71572,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71603,7 +71598,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71629,7 +71624,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71655,7 +71650,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71681,7 +71676,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71707,7 +71702,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71733,7 +71728,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71759,7 +71754,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71785,7 +71780,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71811,7 +71806,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71837,7 +71832,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71863,7 +71858,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71889,7 +71884,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71915,7 +71910,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71941,7 +71936,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71967,7 +71962,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71993,7 +71988,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72019,7 +72014,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72045,7 +72040,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72071,7 +72066,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72097,7 +72092,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72123,7 +72118,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72149,7 +72144,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72175,7 +72170,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72201,7 +72196,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72227,7 +72222,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72253,7 +72248,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72279,7 +72274,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72305,7 +72300,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72331,7 +72326,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72357,7 +72352,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72383,7 +72378,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72409,7 +72404,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72435,7 +72430,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72461,7 +72456,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72487,7 +72482,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72513,7 +72508,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72539,7 +72534,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72565,7 +72560,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8">
       <c r="A128" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72591,7 +72586,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8">
       <c r="A129" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72617,7 +72612,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8">
       <c r="A130" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72643,7 +72638,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72669,7 +72664,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72695,7 +72690,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72721,7 +72716,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72747,7 +72742,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8">
       <c r="A135" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72773,7 +72768,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72799,7 +72794,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72825,7 +72820,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72851,7 +72846,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72877,7 +72872,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72903,7 +72898,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72929,7 +72924,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72955,7 +72950,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72981,7 +72976,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73007,7 +73002,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73033,7 +73028,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73059,7 +73054,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73085,7 +73080,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73111,7 +73106,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73137,7 +73132,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73163,7 +73158,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73192,7 +73187,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73221,7 +73216,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73250,7 +73245,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73279,7 +73274,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73308,7 +73303,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73337,7 +73332,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73366,7 +73361,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73395,7 +73390,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73424,7 +73419,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73453,7 +73448,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73482,7 +73477,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73511,7 +73506,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73540,7 +73535,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73569,7 +73564,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73598,7 +73593,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73627,7 +73622,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73656,7 +73651,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9">
       <c r="A168" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73685,7 +73680,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9">
       <c r="A169" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73714,7 +73709,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73743,7 +73738,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9">
       <c r="A171" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73772,7 +73767,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9">
       <c r="A172" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73801,7 +73796,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9">
       <c r="A173" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73830,7 +73825,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9">
       <c r="A174" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73859,7 +73854,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9">
       <c r="A175" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73888,7 +73883,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9">
       <c r="A176" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73917,7 +73912,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9">
       <c r="A177" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73946,7 +73941,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73975,7 +73970,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74004,7 +73999,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74033,7 +74028,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74062,7 +74057,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74091,7 +74086,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74120,7 +74115,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74149,7 +74144,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9">
       <c r="A185" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74178,7 +74173,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74204,7 +74199,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9">
       <c r="A187" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74230,7 +74225,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74256,7 +74251,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74282,7 +74277,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9">
       <c r="A190" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74308,7 +74303,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74334,7 +74329,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74360,7 +74355,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74386,7 +74381,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1">
+    <row r="194" spans="1:8">
       <c r="A194" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74412,7 +74407,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1">
+    <row r="195" spans="1:8">
       <c r="A195" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74438,7 +74433,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74464,7 +74459,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74490,7 +74485,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1">
+    <row r="198" spans="1:8">
       <c r="A198" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74516,7 +74511,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1">
+    <row r="199" spans="1:8">
       <c r="A199" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74542,7 +74537,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1">
+    <row r="200" spans="1:8">
       <c r="A200" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74568,7 +74563,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1">
+    <row r="201" spans="1:8">
       <c r="A201" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74594,7 +74589,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1">
+    <row r="202" spans="1:8">
       <c r="A202" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74620,7 +74615,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1">
+    <row r="203" spans="1:8">
       <c r="A203" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74646,7 +74641,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1">
+    <row r="204" spans="1:8">
       <c r="A204" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74672,7 +74667,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1">
+    <row r="205" spans="1:8">
       <c r="A205" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74698,7 +74693,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74724,7 +74719,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1">
+    <row r="207" spans="1:8">
       <c r="A207" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74750,7 +74745,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1">
+    <row r="208" spans="1:8">
       <c r="A208" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74776,7 +74771,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1">
+    <row r="209" spans="1:8">
       <c r="A209" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74802,7 +74797,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1">
+    <row r="210" spans="1:8">
       <c r="A210" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74828,7 +74823,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1">
+    <row r="211" spans="1:8">
       <c r="A211" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74854,7 +74849,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1">
+    <row r="212" spans="1:8">
       <c r="A212" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74880,7 +74875,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1">
+    <row r="213" spans="1:8">
       <c r="A213" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74906,7 +74901,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1">
+    <row r="214" spans="1:8">
       <c r="A214" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74932,7 +74927,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1">
+    <row r="215" spans="1:8">
       <c r="A215" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74958,7 +74953,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1">
+    <row r="216" spans="1:8">
       <c r="A216" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74984,7 +74979,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1">
+    <row r="217" spans="1:8">
       <c r="A217" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75010,7 +75005,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1">
+    <row r="218" spans="1:8">
       <c r="A218" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75036,7 +75031,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1">
+    <row r="219" spans="1:8">
       <c r="A219" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75062,7 +75057,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1">
+    <row r="220" spans="1:8">
       <c r="A220" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75088,7 +75083,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1">
+    <row r="221" spans="1:8">
       <c r="A221" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75114,7 +75109,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1">
+    <row r="222" spans="1:8">
       <c r="A222" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75140,7 +75135,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1">
+    <row r="223" spans="1:8">
       <c r="A223" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75166,7 +75161,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1">
+    <row r="224" spans="1:8">
       <c r="A224" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75192,7 +75187,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75218,7 +75213,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75244,7 +75239,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="A227" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75270,7 +75265,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="A228" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75296,7 +75291,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="A229" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75322,7 +75317,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="A230" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75348,7 +75343,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75374,7 +75369,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75400,7 +75395,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75429,7 +75424,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75458,7 +75453,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75487,7 +75482,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75516,7 +75511,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="A237" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75542,7 +75537,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75568,7 +75563,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75594,7 +75589,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75623,7 +75618,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75649,7 +75644,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75675,7 +75670,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75704,7 +75699,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75730,7 +75725,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9">
       <c r="A245" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75759,7 +75754,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75785,7 +75780,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75811,7 +75806,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1">
+    <row r="248" spans="1:9">
       <c r="A248" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75837,7 +75832,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1">
+    <row r="249" spans="1:9">
       <c r="A249" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75863,7 +75858,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1">
+    <row r="250" spans="1:9">
       <c r="A250" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75889,7 +75884,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9">
       <c r="A251" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75915,7 +75910,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:9">
       <c r="A252" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75941,7 +75936,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1">
+    <row r="253" spans="1:9">
       <c r="A253" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75967,7 +75962,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1">
+    <row r="254" spans="1:9">
       <c r="A254" s="135" t="s">
         <v>2645</v>
       </c>
@@ -75996,7 +75991,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1">
+    <row r="255" spans="1:9">
       <c r="A255" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76025,7 +76020,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1">
+    <row r="256" spans="1:9">
       <c r="A256" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76054,7 +76049,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1">
+    <row r="257" spans="1:9">
       <c r="A257" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76083,7 +76078,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1">
+    <row r="258" spans="1:9">
       <c r="A258" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76112,7 +76107,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1">
+    <row r="259" spans="1:9">
       <c r="A259" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76141,7 +76136,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1">
+    <row r="260" spans="1:9">
       <c r="A260" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76170,7 +76165,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1">
+    <row r="261" spans="1:9">
       <c r="A261" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76199,7 +76194,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1">
+    <row r="262" spans="1:9">
       <c r="A262" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76228,7 +76223,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1">
+    <row r="263" spans="1:9">
       <c r="A263" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76257,7 +76252,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1">
+    <row r="264" spans="1:9">
       <c r="A264" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76286,7 +76281,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1">
+    <row r="265" spans="1:9">
       <c r="A265" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76315,7 +76310,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1">
+    <row r="266" spans="1:9">
       <c r="A266" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76344,7 +76339,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1">
+    <row r="267" spans="1:9">
       <c r="A267" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76373,7 +76368,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1">
+    <row r="268" spans="1:9">
       <c r="A268" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76402,7 +76397,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1">
+    <row r="269" spans="1:9">
       <c r="A269" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76431,7 +76426,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1">
+    <row r="270" spans="1:9">
       <c r="A270" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76460,7 +76455,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1">
+    <row r="271" spans="1:9">
       <c r="A271" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76489,7 +76484,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1">
+    <row r="272" spans="1:9">
       <c r="A272" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76518,7 +76513,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1">
+    <row r="273" spans="1:9">
       <c r="A273" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76547,7 +76542,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1">
+    <row r="274" spans="1:9">
       <c r="A274" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76576,7 +76571,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1">
+    <row r="275" spans="1:9">
       <c r="A275" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76605,7 +76600,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1">
+    <row r="276" spans="1:9">
       <c r="A276" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76634,7 +76629,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1">
+    <row r="277" spans="1:9">
       <c r="A277" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76663,7 +76658,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1">
+    <row r="278" spans="1:9">
       <c r="A278" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76692,7 +76687,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1">
+    <row r="279" spans="1:9">
       <c r="A279" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76721,7 +76716,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1">
+    <row r="280" spans="1:9">
       <c r="A280" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76750,7 +76745,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76779,7 +76774,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1">
+    <row r="282" spans="1:9">
       <c r="A282" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76808,7 +76803,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9">
       <c r="A283" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76837,7 +76832,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1">
+    <row r="284" spans="1:9">
       <c r="A284" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76866,7 +76861,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9">
       <c r="A285" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76895,7 +76890,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1">
+    <row r="286" spans="1:9">
       <c r="A286" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76924,7 +76919,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1">
+    <row r="287" spans="1:9">
       <c r="A287" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76953,7 +76948,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1">
+    <row r="288" spans="1:9">
       <c r="A288" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76982,7 +76977,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1">
+    <row r="289" spans="1:9">
       <c r="A289" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77011,7 +77006,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1">
+    <row r="290" spans="1:9">
       <c r="A290" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77040,7 +77035,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1">
+    <row r="291" spans="1:9">
       <c r="A291" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77069,7 +77064,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1">
+    <row r="292" spans="1:9">
       <c r="A292" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77098,7 +77093,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1">
+    <row r="293" spans="1:9">
       <c r="A293" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77127,7 +77122,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9">
       <c r="A294" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77156,7 +77151,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1">
+    <row r="295" spans="1:9">
       <c r="A295" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77185,7 +77180,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1">
+    <row r="296" spans="1:9">
       <c r="A296" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77214,7 +77209,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1">
+    <row r="297" spans="1:9">
       <c r="A297" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77243,7 +77238,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1">
+    <row r="298" spans="1:9">
       <c r="A298" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77272,7 +77267,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1">
+    <row r="299" spans="1:9">
       <c r="A299" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77301,7 +77296,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1">
+    <row r="300" spans="1:9">
       <c r="A300" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77330,7 +77325,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1">
+    <row r="301" spans="1:9">
       <c r="A301" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77359,7 +77354,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1">
+    <row r="302" spans="1:9">
       <c r="A302" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77388,7 +77383,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1">
+    <row r="303" spans="1:9">
       <c r="A303" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77417,7 +77412,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1">
+    <row r="304" spans="1:9">
       <c r="A304" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77446,7 +77441,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1">
+    <row r="305" spans="1:9">
       <c r="A305" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77475,7 +77470,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:9">
       <c r="A306" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77504,7 +77499,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1">
+    <row r="307" spans="1:9">
       <c r="A307" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77533,7 +77528,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1">
+    <row r="308" spans="1:9">
       <c r="A308" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77562,7 +77557,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1">
+    <row r="309" spans="1:9">
       <c r="A309" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77591,7 +77586,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1">
+    <row r="310" spans="1:9">
       <c r="A310" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77620,7 +77615,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1">
+    <row r="311" spans="1:9">
       <c r="A311" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77649,7 +77644,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1">
+    <row r="312" spans="1:9">
       <c r="A312" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77678,7 +77673,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1">
+    <row r="313" spans="1:9">
       <c r="A313" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77707,7 +77702,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1">
+    <row r="314" spans="1:9">
       <c r="A314" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77736,7 +77731,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1">
+    <row r="315" spans="1:9">
       <c r="A315" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77765,7 +77760,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1">
+    <row r="316" spans="1:9">
       <c r="A316" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77794,7 +77789,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1">
+    <row r="317" spans="1:9">
       <c r="A317" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77823,7 +77818,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1">
+    <row r="318" spans="1:9">
       <c r="A318" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77852,7 +77847,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1">
+    <row r="319" spans="1:9">
       <c r="A319" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77881,7 +77876,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1">
+    <row r="320" spans="1:9">
       <c r="A320" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77910,7 +77905,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1">
+    <row r="321" spans="1:9">
       <c r="A321" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77939,7 +77934,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1">
+    <row r="322" spans="1:9">
       <c r="A322" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77968,7 +77963,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1">
+    <row r="323" spans="1:9">
       <c r="A323" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77997,7 +77992,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1">
+    <row r="324" spans="1:9">
       <c r="A324" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78026,7 +78021,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1">
+    <row r="325" spans="1:9">
       <c r="A325" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78055,7 +78050,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1">
+    <row r="326" spans="1:9">
       <c r="A326" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78084,7 +78079,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:9">
       <c r="A327" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78113,7 +78108,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1">
+    <row r="328" spans="1:9">
       <c r="A328" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78142,7 +78137,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1">
+    <row r="329" spans="1:9">
       <c r="A329" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78171,7 +78166,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1">
+    <row r="330" spans="1:9">
       <c r="A330" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78200,7 +78195,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1">
+    <row r="331" spans="1:9">
       <c r="A331" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78229,7 +78224,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1">
+    <row r="332" spans="1:9">
       <c r="A332" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78258,7 +78253,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1">
+    <row r="333" spans="1:9">
       <c r="A333" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78287,7 +78282,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1">
+    <row r="334" spans="1:9">
       <c r="A334" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78316,7 +78311,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1">
+    <row r="335" spans="1:9">
       <c r="A335" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78345,7 +78340,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1">
+    <row r="336" spans="1:9">
       <c r="A336" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78371,7 +78366,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1">
+    <row r="337" spans="1:8">
       <c r="A337" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78397,7 +78392,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1">
+    <row r="338" spans="1:8">
       <c r="A338" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78423,7 +78418,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1">
+    <row r="339" spans="1:8">
       <c r="A339" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78449,7 +78444,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1">
+    <row r="340" spans="1:8">
       <c r="A340" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78475,7 +78470,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1">
+    <row r="341" spans="1:8">
       <c r="A341" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78501,7 +78496,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1">
+    <row r="342" spans="1:8">
       <c r="A342" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78527,7 +78522,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1">
+    <row r="343" spans="1:8">
       <c r="A343" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78553,7 +78548,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1">
+    <row r="344" spans="1:8">
       <c r="A344" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78579,7 +78574,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1">
+    <row r="345" spans="1:8">
       <c r="A345" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78605,7 +78600,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1">
+    <row r="346" spans="1:8">
       <c r="A346" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78631,7 +78626,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1">
+    <row r="347" spans="1:8">
       <c r="A347" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78657,7 +78652,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1">
+    <row r="348" spans="1:8">
       <c r="A348" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78683,7 +78678,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1">
+    <row r="349" spans="1:8">
       <c r="A349" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78709,7 +78704,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1">
+    <row r="350" spans="1:8">
       <c r="A350" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78735,7 +78730,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1">
+    <row r="351" spans="1:8">
       <c r="A351" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78761,7 +78756,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1">
+    <row r="352" spans="1:8">
       <c r="A352" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78787,7 +78782,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1">
+    <row r="353" spans="1:9">
       <c r="A353" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78813,7 +78808,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1">
+    <row r="354" spans="1:9">
       <c r="A354" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78839,7 +78834,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1">
+    <row r="355" spans="1:9">
       <c r="A355" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78868,7 +78863,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1">
+    <row r="356" spans="1:9">
       <c r="A356" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78897,7 +78892,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1">
+    <row r="357" spans="1:9">
       <c r="A357" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78926,7 +78921,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1">
+    <row r="358" spans="1:9">
       <c r="A358" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78955,7 +78950,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1">
+    <row r="359" spans="1:9">
       <c r="A359" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78984,7 +78979,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1">
+    <row r="360" spans="1:9">
       <c r="A360" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79013,7 +79008,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1">
+    <row r="361" spans="1:9">
       <c r="A361" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79042,7 +79037,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1">
+    <row r="362" spans="1:9">
       <c r="A362" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79071,7 +79066,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1">
+    <row r="363" spans="1:9">
       <c r="A363" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79100,7 +79095,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1">
+    <row r="364" spans="1:9">
       <c r="A364" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79129,7 +79124,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1">
+    <row r="365" spans="1:9">
       <c r="A365" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79158,7 +79153,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1">
+    <row r="366" spans="1:9">
       <c r="A366" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79187,7 +79182,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1">
+    <row r="367" spans="1:9">
       <c r="A367" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79216,7 +79211,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1">
+    <row r="368" spans="1:9">
       <c r="A368" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79245,7 +79240,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1">
+    <row r="369" spans="1:9">
       <c r="A369" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79274,7 +79269,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1">
+    <row r="370" spans="1:9">
       <c r="A370" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79303,7 +79298,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1">
+    <row r="371" spans="1:9">
       <c r="A371" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79332,7 +79327,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1">
+    <row r="372" spans="1:9">
       <c r="A372" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79361,7 +79356,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1">
+    <row r="373" spans="1:9">
       <c r="A373" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79390,7 +79385,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1">
+    <row r="374" spans="1:9">
       <c r="A374" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79419,7 +79414,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1">
+    <row r="375" spans="1:9">
       <c r="A375" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79448,7 +79443,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1">
+    <row r="376" spans="1:9">
       <c r="A376" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79477,7 +79472,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1">
+    <row r="377" spans="1:9">
       <c r="A377" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79506,7 +79501,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1">
+    <row r="378" spans="1:9">
       <c r="A378" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79535,7 +79530,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1">
+    <row r="379" spans="1:9">
       <c r="A379" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79564,7 +79559,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1">
+    <row r="380" spans="1:9">
       <c r="A380" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79593,7 +79588,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1">
+    <row r="381" spans="1:9">
       <c r="A381" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79622,7 +79617,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1">
+    <row r="382" spans="1:9">
       <c r="A382" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79651,7 +79646,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1">
+    <row r="383" spans="1:9">
       <c r="A383" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79680,7 +79675,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1">
+    <row r="384" spans="1:9">
       <c r="A384" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79709,7 +79704,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1">
+    <row r="385" spans="1:9">
       <c r="A385" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79738,7 +79733,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1">
+    <row r="386" spans="1:9">
       <c r="A386" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79767,7 +79762,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1">
+    <row r="387" spans="1:9">
       <c r="A387" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79796,7 +79791,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1">
+    <row r="388" spans="1:9">
       <c r="A388" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79825,7 +79820,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1">
+    <row r="389" spans="1:9">
       <c r="A389" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79854,7 +79849,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1">
+    <row r="390" spans="1:9">
       <c r="A390" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79883,7 +79878,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1">
+    <row r="391" spans="1:9">
       <c r="A391" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79912,7 +79907,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1">
+    <row r="392" spans="1:9">
       <c r="A392" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79941,7 +79936,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1">
+    <row r="393" spans="1:9">
       <c r="A393" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79970,7 +79965,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1">
+    <row r="394" spans="1:9">
       <c r="A394" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79999,7 +79994,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1">
+    <row r="395" spans="1:9">
       <c r="A395" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80028,7 +80023,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1">
+    <row r="396" spans="1:9">
       <c r="A396" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80057,7 +80052,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1">
+    <row r="397" spans="1:9">
       <c r="A397" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80086,7 +80081,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1">
+    <row r="398" spans="1:9">
       <c r="A398" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80115,7 +80110,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1">
+    <row r="399" spans="1:9">
       <c r="A399" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80144,7 +80139,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1">
+    <row r="400" spans="1:9">
       <c r="A400" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80173,7 +80168,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1">
+    <row r="401" spans="1:9">
       <c r="A401" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80202,7 +80197,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1">
+    <row r="402" spans="1:9">
       <c r="A402" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80231,7 +80226,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1">
+    <row r="403" spans="1:9">
       <c r="A403" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80260,7 +80255,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1">
+    <row r="404" spans="1:9">
       <c r="A404" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80289,7 +80284,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1">
+    <row r="405" spans="1:9">
       <c r="A405" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80318,7 +80313,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1">
+    <row r="406" spans="1:9">
       <c r="A406" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80347,7 +80342,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1">
+    <row r="407" spans="1:9">
       <c r="A407" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80376,7 +80371,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1">
+    <row r="408" spans="1:9">
       <c r="A408" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80405,7 +80400,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1">
+    <row r="409" spans="1:9">
       <c r="A409" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80434,7 +80429,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1">
+    <row r="410" spans="1:9">
       <c r="A410" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80463,7 +80458,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1">
+    <row r="411" spans="1:9">
       <c r="A411" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80492,7 +80487,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1">
+    <row r="412" spans="1:9">
       <c r="A412" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80521,7 +80516,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1">
+    <row r="413" spans="1:9">
       <c r="A413" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80550,7 +80545,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1">
+    <row r="414" spans="1:9">
       <c r="A414" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80579,7 +80574,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1">
+    <row r="415" spans="1:9">
       <c r="A415" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80608,7 +80603,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1">
+    <row r="416" spans="1:9">
       <c r="A416" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80637,7 +80632,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1">
+    <row r="417" spans="1:9">
       <c r="A417" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80666,7 +80661,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1">
+    <row r="418" spans="1:9">
       <c r="A418" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80695,7 +80690,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1">
+    <row r="419" spans="1:9">
       <c r="A419" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80724,7 +80719,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1">
+    <row r="420" spans="1:9">
       <c r="A420" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80753,7 +80748,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1">
+    <row r="421" spans="1:9">
       <c r="A421" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80782,7 +80777,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1">
+    <row r="422" spans="1:9">
       <c r="A422" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80811,7 +80806,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1">
+    <row r="423" spans="1:9">
       <c r="A423" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80840,7 +80835,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1">
+    <row r="424" spans="1:9">
       <c r="A424" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80869,7 +80864,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1">
+    <row r="425" spans="1:9">
       <c r="A425" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80898,7 +80893,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1">
+    <row r="426" spans="1:9">
       <c r="A426" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80927,7 +80922,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1">
+    <row r="427" spans="1:9">
       <c r="A427" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80956,7 +80951,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1">
+    <row r="428" spans="1:9">
       <c r="A428" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80985,7 +80980,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1">
+    <row r="429" spans="1:9">
       <c r="A429" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81014,7 +81009,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1">
+    <row r="430" spans="1:9">
       <c r="A430" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81043,7 +81038,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1">
+    <row r="431" spans="1:9">
       <c r="A431" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81072,7 +81067,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1">
+    <row r="432" spans="1:9">
       <c r="A432" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81101,7 +81096,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1">
+    <row r="433" spans="1:9">
       <c r="A433" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81130,7 +81125,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1">
+    <row r="434" spans="1:9">
       <c r="A434" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81159,7 +81154,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1">
+    <row r="435" spans="1:9">
       <c r="A435" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81188,7 +81183,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1">
+    <row r="436" spans="1:9">
       <c r="A436" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81217,7 +81212,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1">
+    <row r="437" spans="1:9">
       <c r="A437" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81246,7 +81241,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1">
+    <row r="438" spans="1:9">
       <c r="A438" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81275,7 +81270,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1">
+    <row r="439" spans="1:9">
       <c r="A439" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81304,7 +81299,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1">
+    <row r="440" spans="1:9">
       <c r="A440" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81333,7 +81328,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1">
+    <row r="441" spans="1:9">
       <c r="A441" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81362,7 +81357,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1">
+    <row r="442" spans="1:9">
       <c r="A442" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81391,7 +81386,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1">
+    <row r="443" spans="1:9">
       <c r="A443" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81420,7 +81415,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1">
+    <row r="444" spans="1:9">
       <c r="A444" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81449,7 +81444,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1">
+    <row r="445" spans="1:9">
       <c r="A445" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81478,7 +81473,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1">
+    <row r="446" spans="1:9">
       <c r="A446" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81507,7 +81502,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1">
+    <row r="447" spans="1:9">
       <c r="A447" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81536,7 +81531,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1">
+    <row r="448" spans="1:9">
       <c r="A448" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81565,7 +81560,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1">
+    <row r="449" spans="1:9">
       <c r="A449" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81594,7 +81589,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1">
+    <row r="450" spans="1:9">
       <c r="D450" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81614,7 +81609,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1">
+    <row r="451" spans="1:9">
       <c r="D451" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81634,7 +81629,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1">
+    <row r="452" spans="1:9">
       <c r="D452" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81654,7 +81649,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1">
+    <row r="453" spans="1:9">
       <c r="D453" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81674,7 +81669,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1">
+    <row r="454" spans="1:9">
       <c r="D454" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81694,7 +81689,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1">
+    <row r="455" spans="1:9">
       <c r="D455" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81714,7 +81709,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1">
+    <row r="456" spans="1:9">
       <c r="D456" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81734,7 +81729,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1">
+    <row r="457" spans="1:9">
       <c r="D457" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81754,7 +81749,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1">
+    <row r="458" spans="1:9">
       <c r="D458" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81774,137 +81769,327 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1">
-      <c r="A459" s="154"/>
-      <c r="B459" s="154"/>
-      <c r="C459" s="154"/>
-      <c r="D459" s="154"/>
-      <c r="E459" s="154"/>
-      <c r="F459" s="154" t="s">
+    <row r="459" spans="1:9">
+      <c r="A459" s="139"/>
+      <c r="B459" s="139"/>
+      <c r="C459" s="139"/>
+      <c r="D459" s="139"/>
+      <c r="E459" s="139"/>
+      <c r="F459" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G459" s="154" t="s">
-        <v>3033</v>
+      <c r="G459" s="139" t="s">
+        <v>3032</v>
       </c>
       <c r="H459" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I459" s="154" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" hidden="1">
-      <c r="A460" s="154"/>
-      <c r="B460" s="154"/>
-      <c r="C460" s="154"/>
-      <c r="D460" s="154"/>
-      <c r="E460" s="154"/>
-      <c r="F460" s="154" t="s">
+      <c r="I459" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" s="139"/>
+      <c r="B460" s="139"/>
+      <c r="C460" s="139"/>
+      <c r="D460" s="139"/>
+      <c r="E460" s="139"/>
+      <c r="F460" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G460" s="154" t="s">
-        <v>3034</v>
+      <c r="G460" s="139" t="s">
+        <v>3033</v>
       </c>
       <c r="H460" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I460" s="154" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" hidden="1">
-      <c r="A461" s="154"/>
-      <c r="B461" s="154"/>
-      <c r="C461" s="154"/>
-      <c r="D461" s="154"/>
-      <c r="E461" s="154"/>
-      <c r="F461" s="154" t="s">
+      <c r="I460" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" s="139"/>
+      <c r="B461" s="139"/>
+      <c r="C461" s="139"/>
+      <c r="D461" s="139"/>
+      <c r="E461" s="139"/>
+      <c r="F461" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G461" s="154" t="s">
-        <v>3035</v>
+      <c r="G461" s="139" t="s">
+        <v>3034</v>
       </c>
       <c r="H461" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I461" s="154" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" hidden="1">
-      <c r="A462" s="154"/>
-      <c r="B462" s="154"/>
-      <c r="C462" s="154"/>
-      <c r="D462" s="154"/>
-      <c r="E462" s="154"/>
-      <c r="F462" s="154" t="s">
+      <c r="I461" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" s="139"/>
+      <c r="B462" s="139"/>
+      <c r="C462" s="139"/>
+      <c r="D462" s="139"/>
+      <c r="E462" s="139"/>
+      <c r="F462" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G462" s="154" t="s">
-        <v>3036</v>
+      <c r="G462" s="139" t="s">
+        <v>3035</v>
       </c>
       <c r="H462" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I462" s="154" t="s">
+      <c r="I462" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" s="139"/>
+      <c r="B463" s="139"/>
+      <c r="C463" s="139"/>
+      <c r="D463" s="139"/>
+      <c r="E463" s="139"/>
+      <c r="F463" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G463" s="139" t="s">
         <v>3037</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" hidden="1">
-      <c r="A463" s="154"/>
-      <c r="B463" s="154"/>
-      <c r="C463" s="154"/>
-      <c r="D463" s="154"/>
-      <c r="E463" s="154"/>
-      <c r="F463" s="154" t="s">
+      <c r="H463" s="139" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I463" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" s="139"/>
+      <c r="B464" s="139"/>
+      <c r="C464" s="139"/>
+      <c r="D464" s="139"/>
+      <c r="E464" s="139"/>
+      <c r="F464" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G463" s="154" t="s">
+      <c r="G464" s="139" t="s">
         <v>3038</v>
       </c>
-      <c r="H463" s="154" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I463" s="154" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" hidden="1">
-      <c r="A464" s="154"/>
-      <c r="B464" s="154"/>
-      <c r="C464" s="154"/>
-      <c r="D464" s="154"/>
-      <c r="E464" s="154"/>
-      <c r="F464" s="154" t="s">
+      <c r="H464" s="139" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I464" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" s="139"/>
+      <c r="B465" s="139"/>
+      <c r="C465" s="139"/>
+      <c r="D465" s="139"/>
+      <c r="E465" s="139"/>
+      <c r="F465" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G464" s="154" t="s">
-        <v>3046</v>
-      </c>
-      <c r="H464" s="154" t="s">
-        <v>2656</v>
-      </c>
-      <c r="I464" s="154" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9" hidden="1">
-      <c r="A465" s="154"/>
-      <c r="B465" s="154"/>
-      <c r="C465" s="154"/>
-      <c r="D465" s="154"/>
-      <c r="E465" s="154"/>
-      <c r="F465" s="154" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G465" s="154" t="s">
-        <v>3047</v>
+      <c r="G465" s="139" t="s">
+        <v>3039</v>
       </c>
       <c r="H465" s="135" t="s">
         <v>2718</v>
       </c>
-      <c r="I465" s="154" t="s">
-        <v>3037</v>
+      <c r="I465" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" s="139"/>
+      <c r="B466" s="139"/>
+      <c r="C466" s="139"/>
+      <c r="D466" s="139"/>
+      <c r="E466" s="139"/>
+      <c r="F466" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G466" s="139" t="s">
+        <v>3040</v>
+      </c>
+      <c r="H466" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I466" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" s="139"/>
+      <c r="B467" s="139"/>
+      <c r="C467" s="139"/>
+      <c r="D467" s="139"/>
+      <c r="E467" s="139"/>
+      <c r="F467" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G467" s="139" t="s">
+        <v>2792</v>
+      </c>
+      <c r="H467" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I467" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" s="139"/>
+      <c r="B468" s="139"/>
+      <c r="C468" s="139"/>
+      <c r="D468" s="139"/>
+      <c r="E468" s="139"/>
+      <c r="F468" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G468" s="139" t="s">
+        <v>3041</v>
+      </c>
+      <c r="H468" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I468" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" s="139"/>
+      <c r="B469" s="139"/>
+      <c r="C469" s="139"/>
+      <c r="D469" s="139"/>
+      <c r="E469" s="139"/>
+      <c r="F469" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G469" s="139" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H469" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I469" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" s="139"/>
+      <c r="B470" s="139"/>
+      <c r="C470" s="139"/>
+      <c r="D470" s="139"/>
+      <c r="E470" s="139"/>
+      <c r="F470" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G470" s="139" t="s">
+        <v>3042</v>
+      </c>
+      <c r="H470" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I470" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" s="139"/>
+      <c r="B471" s="139"/>
+      <c r="C471" s="139"/>
+      <c r="D471" s="139"/>
+      <c r="E471" s="139"/>
+      <c r="F471" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G471" s="139" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H471" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I471" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" s="139"/>
+      <c r="B472" s="139"/>
+      <c r="C472" s="139"/>
+      <c r="D472" s="139"/>
+      <c r="E472" s="139"/>
+      <c r="F472" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G472" s="139" t="s">
+        <v>3043</v>
+      </c>
+      <c r="H472" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I472" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" s="139"/>
+      <c r="B473" s="139"/>
+      <c r="C473" s="139"/>
+      <c r="D473" s="139"/>
+      <c r="E473" s="139"/>
+      <c r="F473" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G473" s="139" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H473" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I473" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" s="139"/>
+      <c r="B474" s="139"/>
+      <c r="C474" s="139"/>
+      <c r="D474" s="139"/>
+      <c r="E474" s="139"/>
+      <c r="F474" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G474" s="139" t="s">
+        <v>3047</v>
+      </c>
+      <c r="H474" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I474" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" s="139"/>
+      <c r="B475" s="139"/>
+      <c r="C475" s="139"/>
+      <c r="D475" s="139"/>
+      <c r="E475" s="139"/>
+      <c r="F475" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G475" s="139" t="s">
+        <v>3048</v>
+      </c>
+      <c r="H475" s="139" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I475" s="139" t="s">
+        <v>3036</v>
       </c>
     </row>
   </sheetData>
@@ -82312,250 +82497,1566 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:F32"/>
+  <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6">
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2">
+        <v>1019090</v>
+      </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3039</v>
-      </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE("('",C2,"','",D2,"'),")</f>
-        <v>('1','Principal'),</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("('",B2,"','",C2,"'),")</f>
+        <v>('1019090','0'),</v>
+      </c>
+      <c r="I2">
+        <v>2142</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE("'",I2,"',")</f>
+        <v>'2142',</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>1021010</v>
+      </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3040</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F9" si="0">CONCATENATE("('",C3,"','",D3,"'),")</f>
-        <v>('2','Imposto'),</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE("('",B3,"','",C3,"'),")</f>
+        <v>('1021010','0'),</v>
+      </c>
+      <c r="I3">
+        <v>3990</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K50" si="1">CONCATENATE("'",I3,"',")</f>
+        <v>'3990',</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>1021090</v>
+      </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3041</v>
-      </c>
-      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>('3','Mora e Multa'),</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
+        <v>('1021090','0'),</v>
+      </c>
+      <c r="I4">
+        <v>68176</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>'68176',</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>1029011</v>
+      </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3042</v>
-      </c>
-      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>('4','Despesas'),</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
+        <v>('1029011','0'),</v>
+      </c>
+      <c r="I5">
+        <v>68345</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>'68345',</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>1029019</v>
+      </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3043</v>
-      </c>
-      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>('5','Pagto.Maior'),</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
+        <v>('1029019','0'),</v>
+      </c>
+      <c r="I6">
+        <v>68528</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>'68528',</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>1029090</v>
+      </c>
       <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3044</v>
-      </c>
-      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>('6','Descontos'),</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
+        <v>('1029090','0'),</v>
+      </c>
+      <c r="I7">
+        <v>100118</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>'100118',</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>1031000</v>
+      </c>
       <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3045</v>
-      </c>
-      <c r="F8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>('7','Encargos'),</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
+        <v>('1031000','0'),</v>
+      </c>
+      <c r="I8">
+        <v>101090</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>'101090',</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>1039100</v>
+      </c>
       <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3032</v>
-      </c>
-      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>('8','Juros'),</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="F10" t="str">
-        <f t="shared" ref="F3:F32" si="1">CONCATENATE("('",B10,"','",C10,"','",D10,"'),")</f>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="F11" t="str">
+        <v>('1039100','0'),</v>
+      </c>
+      <c r="I9">
+        <v>119344</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="F12" t="str">
+        <v>'119344',</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>1039200</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>('1039200','0'),</v>
+      </c>
+      <c r="I10">
+        <v>129441</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="F13" t="str">
+        <v>'129441',</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>1041011</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>('1041011','0'),</v>
+      </c>
+      <c r="I11">
+        <v>185308</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="F14" t="str">
+        <v>'185308',</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>1041019</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>('1041019','0'),</v>
+      </c>
+      <c r="I12">
+        <v>209457</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="F15" t="str">
+        <v>'209457',</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13">
+        <v>1041090</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>('1041090','0'),</v>
+      </c>
+      <c r="I13">
+        <v>240043</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="F16" t="str">
+        <v>'240043',</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14">
+        <v>1042010</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>('1042010','0'),</v>
+      </c>
+      <c r="I14">
+        <v>299027</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="str">
+        <v>'299027',</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>1042090</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>('1042090','0'),</v>
+      </c>
+      <c r="I15">
+        <v>299029</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" t="str">
+        <v>'299029',</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>1051110</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>('1051110','0'),</v>
+      </c>
+      <c r="I16">
+        <v>302336</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="str">
+        <v>'302336',</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>1051190</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>('1051190','0'),</v>
+      </c>
+      <c r="I17">
+        <v>1586993</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" t="str">
+        <v>'1586993',</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>1051200</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>('1051200','0'),</v>
+      </c>
+      <c r="I18">
+        <v>1596623</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" t="str">
+        <v>'1596623',</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>1051900</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>('1051900','0'),</v>
+      </c>
+      <c r="I19">
+        <v>1599736</v>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" t="str">
+        <v>'1599736',</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>1059400</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>('1059400','0'),</v>
+      </c>
+      <c r="I20">
+        <v>1632310</v>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" t="str">
+        <v>'1632310',</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>1059900</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>('1059900','0'),</v>
+      </c>
+      <c r="I21">
+        <v>1639634</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" t="str">
+        <v>'1639634',</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22">
+        <v>1061100</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>('1061100','0'),</v>
+      </c>
+      <c r="I22">
+        <v>1664664</v>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" t="str">
+        <v>'1664664',</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23">
+        <v>1061200</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>('1061200','0'),</v>
+      </c>
+      <c r="I23">
+        <v>1679027</v>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" t="str">
+        <v>'1679027',</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24">
+        <v>1061900</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>('1061900','0'),</v>
+      </c>
+      <c r="I24">
+        <v>1693383</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" t="str">
+        <v>'1693383',</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25">
+        <v>1062000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>('1062000','0'),</v>
+      </c>
+      <c r="I25">
+        <v>1723749</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" t="str">
+        <v>'1723749',</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26">
+        <v>1063100</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>('1063100','0'),</v>
+      </c>
+      <c r="I26">
+        <v>1723752</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" t="str">
+        <v>'1723752',</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27">
+        <v>1063200</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>('1063200','0'),</v>
+      </c>
+      <c r="I27">
+        <v>1723753</v>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" t="str">
+        <v>'1723753',</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28">
+        <v>1063910</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>('1063910','0'),</v>
+      </c>
+      <c r="I28">
+        <v>1723760</v>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" t="str">
+        <v>'1723760',</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29">
+        <v>1063990</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>('1063990','0'),</v>
+      </c>
+      <c r="I29">
+        <v>1730498</v>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" t="str">
+        <v>'1730498',</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30">
+        <v>1069000</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>('1069000','0'),</v>
+      </c>
+      <c r="I30">
+        <v>1736243</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="1"/>
-        <v>('','',''),</v>
+        <v>'1736243',</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31">
+        <v>2011000</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>('2011000','0'),</v>
+      </c>
+      <c r="I31">
+        <v>1736552</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>'1736552',</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32">
+        <v>2012010</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>('2012010','0'),</v>
+      </c>
+      <c r="I32">
+        <v>1764245</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>'1764245',</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33">
+        <v>2012020</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>('2012020','0'),</v>
+      </c>
+      <c r="I33">
+        <v>1806090</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>'1806090',</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34">
+        <v>2012090</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>('2012090','0'),</v>
+      </c>
+      <c r="I34">
+        <v>1924913</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>'1924913',</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35">
+        <v>2013000</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>('2013000','0'),</v>
+      </c>
+      <c r="I35">
+        <v>1947044</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>'1947044',</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36">
+        <v>2021000</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>('2021000','0'),</v>
+      </c>
+      <c r="I36">
+        <v>1956801</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>'1956801',</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37">
+        <v>2022010</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>('2022010','0'),</v>
+      </c>
+      <c r="I37">
+        <v>2171481</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>'2171481',</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38">
+        <v>2022020</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>('2022020','0'),</v>
+      </c>
+      <c r="I38">
+        <v>2413365</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>'2413365',</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39">
+        <v>2022090</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>('2022090','0'),</v>
+      </c>
+      <c r="I39">
+        <v>2881357</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>'2881357',</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40">
+        <v>2023000</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>('2023000','0'),</v>
+      </c>
+      <c r="I40">
+        <v>2961097</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v>'2961097',</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41">
+        <v>2031100</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>('2031100','0'),</v>
+      </c>
+      <c r="I41">
+        <v>2989740</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>'2989740',</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42">
+        <v>2031200</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>('2031200','0'),</v>
+      </c>
+      <c r="I42">
+        <v>13422335</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422335',</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43">
+        <v>2031900</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>('2031900','0'),</v>
+      </c>
+      <c r="I43">
+        <v>13422339</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422339',</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44">
+        <v>2032100</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>('2032100','0'),</v>
+      </c>
+      <c r="I44">
+        <v>13422352</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422352',</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45">
+        <v>2032200</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>('2032200','0'),</v>
+      </c>
+      <c r="I45">
+        <v>13422389</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422389',</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46">
+        <v>2032900</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>('2032900','0'),</v>
+      </c>
+      <c r="I46">
+        <v>13422393</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422393',</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47">
+        <v>2041000</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>('2041000','0'),</v>
+      </c>
+      <c r="I47">
+        <v>13422400</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422400',</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48">
+        <v>2042100</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>('2042100','0'),</v>
+      </c>
+      <c r="I48">
+        <v>13422401</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422401',</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49">
+        <v>2042200</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>('2042200','0'),</v>
+      </c>
+      <c r="I49">
+        <v>13422425</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422425',</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50">
+        <v>2042300</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>('2042300','0'),</v>
+      </c>
+      <c r="I50">
+        <v>13422427</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="1"/>
+        <v>'13422427',</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51">
+        <v>2043000</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>('2043000','0'),</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52">
+        <v>2044100</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>('2044100','0'),</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53">
+        <v>2044200</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>('2044200','0'),</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54">
+        <v>2044300</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>('2044300','0'),</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55">
+        <v>2045000</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>('2045000','0'),</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56">
+        <v>2050000</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>('2050000','0'),</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57">
+        <v>2061000</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>('2061000','0'),</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58">
+        <v>2062100</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>('2062100','0'),</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59">
+        <v>2062200</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>('2062200','0'),</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60">
+        <v>2062910</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>('2062910','0'),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61">
+        <v>2062990</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>('2062990','0'),</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62">
+        <v>2063000</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>('2063000','0'),</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63">
+        <v>2064100</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>('2064100','0'),</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64">
+        <v>2064900</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>('2064900','0'),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65">
+        <v>2068000</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>('2068000','0'),</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66">
+        <v>2069000</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>('2069000','0'),</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67">
+        <v>2071100</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E101" si="2">CONCATENATE("('",B67,"','",C67,"'),")</f>
+        <v>('2071100','0'),</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68">
+        <v>2071200</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>('2071200','0'),</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69">
+        <v>2071300</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>('2071300','0'),</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70">
+        <v>2071400</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>('2071400','0'),</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71">
+        <v>2072400</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>('2072400','0'),</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72">
+        <v>2072500</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>('2072500','0'),</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73">
+        <v>2072600</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>('2072600','0'),</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74">
+        <v>2072700</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>('2072700','0'),</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75">
+        <v>2073200</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>('2073200','0'),</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76">
+        <v>2073300</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>('2073300','0'),</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77">
+        <v>2073400</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>('2073400','0'),</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <v>2073500</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>('2073500','0'),</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79">
+        <v>2073600</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>('2073600','0'),</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80">
+        <v>2081000</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>('2081000','0'),</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81">
+        <v>2083000</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>('2083000','0'),</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82">
+        <v>2084000</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>('2084000','0'),</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83">
+        <v>2085000</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>('2085000','0'),</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>2089000</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>('2089000','0'),</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85">
+        <v>2090011</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v>('2090011','0'),</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86">
+        <v>2090019</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
+        <v>('2090019','0'),</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87">
+        <v>2090021</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
+        <v>('2090021','0'),</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88">
+        <v>2090029</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
+        <v>('2090029','0'),</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89">
+        <v>2090090</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
+        <v>('2090090','0'),</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90">
+        <v>2101100</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
+        <v>('2101100','0'),</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91">
+        <v>2101200</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
+        <v>('2101200','0'),</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92">
+        <v>2101900</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
+        <v>('2101900','0'),</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93">
+        <v>2102000</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
+        <v>('2102000','0'),</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94">
+        <v>2109100</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
+        <v>('2109100','0'),</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95">
+        <v>2109200</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
+        <v>('2109200','0'),</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96">
+        <v>2109300</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
+        <v>('2109300','0'),</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97">
+        <v>2109900</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
+        <v>('2109900','0'),</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98">
+        <v>3011010</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
+        <v>('3011010','0'),</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99">
+        <v>3011090</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
+        <v>('3011090','0'),</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100">
+        <v>3019110</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
+        <v>('3019110','0'),</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101">
+        <v>3019190</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>('3019190','0'),</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$F$157</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$475</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$493</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18335" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18417" uniqueCount="3081">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9167,15 +9167,9 @@
     <t>ods_vendedor</t>
   </si>
   <si>
-    <t>yn_beneficio</t>
-  </si>
-  <si>
     <t>com.ods_beneficio_icms_uf</t>
   </si>
   <si>
-    <t>nr_nbm</t>
-  </si>
-  <si>
     <t>com.ods_beneficio_icms_nbm</t>
   </si>
   <si>
@@ -9183,6 +9177,105 @@
   </si>
   <si>
     <t>ods_estoque_loja</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Garantia Estendida\Garantia_Estendida\ssis_controlador_garantia_estendida.dtsx</t>
+  </si>
+  <si>
+    <t>(SC) Controlador Garantia Estendida</t>
+  </si>
+  <si>
+    <t>(EPT) ST Garantia LN</t>
+  </si>
+  <si>
+    <t>stg_sige_garantia_estendida</t>
+  </si>
+  <si>
+    <t>(EPT) ST Garantia WEB</t>
+  </si>
+  <si>
+    <t>stg_itens_elegiveis</t>
+  </si>
+  <si>
+    <t>(EPT) ODS Garantia</t>
+  </si>
+  <si>
+    <t>ods_plano_garantech</t>
+  </si>
+  <si>
+    <t>stg_plano_garantec</t>
+  </si>
+  <si>
+    <t>ods_plano_garantech_faturamento</t>
+  </si>
+  <si>
+    <t>ods_garantia_estendida</t>
+  </si>
+  <si>
+    <t>aux_ods_garantia_estendida</t>
+  </si>
+  <si>
+    <t>dump_ods_garantia_estendida</t>
+  </si>
+  <si>
+    <t>(EPT) ODS Rel Garantia</t>
+  </si>
+  <si>
+    <t>dim_plano_garantech</t>
+  </si>
+  <si>
+    <t>(EPT) DW Garantia</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio</t>
+  </si>
+  <si>
+    <t>ds_unidade_negocio</t>
+  </si>
+  <si>
+    <t>B2C PF</t>
+  </si>
+  <si>
+    <t>B2B PF</t>
+  </si>
+  <si>
+    <t>CSW</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>B2C Extra</t>
+  </si>
+  <si>
+    <t>B2B Extra</t>
+  </si>
+  <si>
+    <t>Atacado</t>
+  </si>
+  <si>
+    <t>B2C Casas Bahia</t>
+  </si>
+  <si>
+    <t>AOC</t>
+  </si>
+  <si>
+    <t>B2B Casas Bahia</t>
+  </si>
+  <si>
+    <t>Laselva</t>
+  </si>
+  <si>
+    <t>Barateiro</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>Ddiscount</t>
+  </si>
+  <si>
+    <t>dim.dim_produto</t>
   </si>
 </sst>
 </file>
@@ -9789,7 +9882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -10235,6 +10328,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10791,10 +10885,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I475" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A2:I475">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I493" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A2:I493">
     <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="MIS_SHARED_DIMENSION"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="Sequence Container" dataDxfId="9"/>
@@ -69250,11 +69348,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F494" sqref="F494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69278,7 +69376,7 @@
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
       <c r="I1" s="135" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -69310,7 +69408,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69336,7 +69434,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69362,7 +69460,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69388,7 +69486,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69414,7 +69512,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69440,7 +69538,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69466,7 +69564,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69492,7 +69590,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69518,7 +69616,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69544,7 +69642,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69570,7 +69668,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69596,7 +69694,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69622,7 +69720,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69648,7 +69746,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69674,7 +69772,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69700,7 +69798,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69726,7 +69824,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69752,7 +69850,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69778,7 +69876,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69804,7 +69902,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69830,7 +69928,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69856,7 +69954,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69882,7 +69980,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69908,7 +70006,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69934,7 +70032,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69960,7 +70058,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69986,7 +70084,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70012,7 +70110,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70038,7 +70136,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70064,7 +70162,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70090,7 +70188,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70116,7 +70214,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70142,7 +70240,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70168,7 +70266,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70194,7 +70292,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70220,7 +70318,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70246,7 +70344,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70272,7 +70370,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70298,7 +70396,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70324,7 +70422,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70350,7 +70448,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70376,7 +70474,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70402,7 +70500,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70428,7 +70526,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70454,7 +70552,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70480,7 +70578,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70506,7 +70604,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70532,7 +70630,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70558,7 +70656,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70584,7 +70682,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70610,7 +70708,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70636,7 +70734,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70662,7 +70760,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70688,7 +70786,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70714,7 +70812,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70740,7 +70838,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70766,7 +70864,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70792,7 +70890,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70818,7 +70916,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70844,7 +70942,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70870,7 +70968,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70896,7 +70994,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70922,7 +71020,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70948,7 +71046,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70974,7 +71072,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71000,7 +71098,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71026,7 +71124,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71052,7 +71150,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71078,7 +71176,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71104,7 +71202,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71130,7 +71228,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71156,7 +71254,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71182,7 +71280,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71208,7 +71306,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71234,7 +71332,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71260,7 +71358,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71286,7 +71384,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71312,7 +71410,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71338,7 +71436,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71364,7 +71462,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71390,7 +71488,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71416,7 +71514,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71442,7 +71540,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71468,7 +71566,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71494,7 +71592,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71520,7 +71618,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71546,7 +71644,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71572,7 +71670,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71598,7 +71696,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71624,7 +71722,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71650,7 +71748,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71676,7 +71774,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71702,7 +71800,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71728,7 +71826,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71754,7 +71852,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71780,7 +71878,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71806,7 +71904,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71832,7 +71930,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71858,7 +71956,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71884,7 +71982,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71910,7 +72008,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71936,7 +72034,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71962,7 +72060,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71988,7 +72086,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72014,7 +72112,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72040,7 +72138,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72066,7 +72164,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72092,7 +72190,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72118,7 +72216,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72144,7 +72242,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72170,7 +72268,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72196,7 +72294,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72222,7 +72320,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72248,7 +72346,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72274,7 +72372,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72300,7 +72398,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72326,7 +72424,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72352,7 +72450,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72378,7 +72476,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72404,7 +72502,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72430,7 +72528,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72456,7 +72554,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72482,7 +72580,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72508,7 +72606,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72534,7 +72632,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72560,7 +72658,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72586,7 +72684,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72612,7 +72710,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72638,7 +72736,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72664,7 +72762,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72690,7 +72788,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72716,7 +72814,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72742,7 +72840,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72768,7 +72866,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72794,7 +72892,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72820,7 +72918,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72846,7 +72944,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72872,7 +72970,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72898,7 +72996,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72924,7 +73022,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72950,7 +73048,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72976,7 +73074,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73002,7 +73100,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73028,7 +73126,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73054,7 +73152,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73080,7 +73178,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73106,7 +73204,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73132,7 +73230,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73158,7 +73256,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73187,7 +73285,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73216,7 +73314,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73245,7 +73343,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73274,7 +73372,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73303,7 +73401,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73332,7 +73430,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73361,7 +73459,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73390,7 +73488,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73419,7 +73517,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73448,7 +73546,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73477,7 +73575,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73506,7 +73604,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73535,7 +73633,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73564,7 +73662,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73593,7 +73691,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73622,7 +73720,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73651,7 +73749,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73680,7 +73778,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73709,7 +73807,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73738,7 +73836,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73767,7 +73865,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73796,7 +73894,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73825,7 +73923,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73854,7 +73952,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73883,7 +73981,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73912,7 +74010,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73941,7 +74039,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73970,7 +74068,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73999,7 +74097,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74028,7 +74126,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74057,7 +74155,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74086,7 +74184,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74115,7 +74213,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74144,7 +74242,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74173,7 +74271,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74199,7 +74297,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74225,7 +74323,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74329,7 +74427,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74355,7 +74453,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74459,7 +74557,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74693,7 +74791,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74719,7 +74817,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74745,7 +74843,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74771,7 +74869,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" hidden="1">
       <c r="A209" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74823,7 +74921,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74849,7 +74947,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" hidden="1">
       <c r="A212" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74875,7 +74973,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74901,7 +74999,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74927,7 +75025,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" hidden="1">
       <c r="A215" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74953,7 +75051,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" s="135" t="s">
         <v>2554</v>
       </c>
@@ -74979,7 +75077,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75005,7 +75103,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75031,7 +75129,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75057,7 +75155,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75083,7 +75181,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" hidden="1">
       <c r="A221" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75109,7 +75207,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" hidden="1">
       <c r="A222" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75135,7 +75233,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75161,7 +75259,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75187,7 +75285,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75213,7 +75311,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75239,7 +75337,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75265,7 +75363,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75291,7 +75389,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75317,7 +75415,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75343,7 +75441,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75369,7 +75467,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75395,7 +75493,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75424,7 +75522,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75453,7 +75551,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75482,7 +75580,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75511,7 +75609,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75537,7 +75635,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75563,7 +75661,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75589,7 +75687,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75618,7 +75716,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75644,7 +75742,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75670,7 +75768,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75699,7 +75797,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75725,7 +75823,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75754,7 +75852,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75780,7 +75878,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75806,7 +75904,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75832,7 +75930,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75858,7 +75956,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75884,7 +75982,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1">
       <c r="A251" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75910,7 +76008,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75936,7 +76034,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1">
       <c r="A253" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75962,7 +76060,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="135" t="s">
         <v>2645</v>
       </c>
@@ -75991,7 +76089,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" hidden="1">
       <c r="A255" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76020,7 +76118,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76049,7 +76147,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" hidden="1">
       <c r="A257" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76078,7 +76176,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76107,7 +76205,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76136,7 +76234,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1">
       <c r="A260" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76165,7 +76263,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1">
       <c r="A261" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76194,7 +76292,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1">
       <c r="A262" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76223,7 +76321,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76252,7 +76350,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76281,7 +76379,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1">
       <c r="A265" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76310,7 +76408,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1">
       <c r="A266" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76339,7 +76437,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1">
       <c r="A267" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76368,7 +76466,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76397,7 +76495,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76426,7 +76524,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76455,7 +76553,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1">
       <c r="A271" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76484,7 +76582,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1">
       <c r="A272" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76513,7 +76611,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1">
       <c r="A273" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76542,7 +76640,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76571,7 +76669,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1">
       <c r="A275" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76600,7 +76698,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1">
       <c r="A276" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76629,7 +76727,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76658,7 +76756,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76687,7 +76785,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76716,7 +76814,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1">
       <c r="A280" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76745,7 +76843,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76774,7 +76872,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1">
       <c r="A282" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76803,7 +76901,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76832,7 +76930,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1">
       <c r="A284" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76861,7 +76959,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76890,7 +76988,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76919,7 +77017,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" hidden="1">
       <c r="A287" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76948,7 +77046,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" hidden="1">
       <c r="A288" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76977,7 +77075,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" hidden="1">
       <c r="A289" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77006,7 +77104,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" hidden="1">
       <c r="A290" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77035,7 +77133,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77064,7 +77162,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1">
       <c r="A292" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77093,7 +77191,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1">
       <c r="A293" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77122,7 +77220,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1">
       <c r="A294" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77151,7 +77249,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" hidden="1">
       <c r="A295" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77180,7 +77278,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" hidden="1">
       <c r="A296" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77209,7 +77307,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" hidden="1">
       <c r="A297" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77238,7 +77336,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" hidden="1">
       <c r="A298" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77267,7 +77365,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" hidden="1">
       <c r="A299" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77296,7 +77394,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" hidden="1">
       <c r="A300" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77325,7 +77423,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" hidden="1">
       <c r="A301" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77354,7 +77452,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" hidden="1">
       <c r="A302" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77383,7 +77481,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" hidden="1">
       <c r="A303" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77412,7 +77510,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" hidden="1">
       <c r="A304" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77441,7 +77539,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" hidden="1">
       <c r="A305" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77470,7 +77568,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1">
       <c r="A306" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77499,7 +77597,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1">
       <c r="A307" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77528,7 +77626,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" hidden="1">
       <c r="A308" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77557,7 +77655,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" hidden="1">
       <c r="A309" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77586,7 +77684,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" hidden="1">
       <c r="A310" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77615,7 +77713,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" hidden="1">
       <c r="A311" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77644,7 +77742,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" hidden="1">
       <c r="A312" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77673,7 +77771,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1">
       <c r="A313" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77702,7 +77800,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1">
       <c r="A314" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77731,7 +77829,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" hidden="1">
       <c r="A315" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77760,7 +77858,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" hidden="1">
       <c r="A316" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77789,7 +77887,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" hidden="1">
       <c r="A317" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77818,7 +77916,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" hidden="1">
       <c r="A318" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77847,7 +77945,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" hidden="1">
       <c r="A319" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77876,7 +77974,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1">
       <c r="A320" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77905,7 +78003,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1">
       <c r="A321" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77934,7 +78032,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" hidden="1">
       <c r="A322" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77963,7 +78061,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" hidden="1">
       <c r="A323" s="135" t="s">
         <v>2728</v>
       </c>
@@ -77992,7 +78090,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" hidden="1">
       <c r="A324" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78021,7 +78119,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" hidden="1">
       <c r="A325" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78050,7 +78148,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" hidden="1">
       <c r="A326" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78079,7 +78177,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" hidden="1">
       <c r="A327" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78108,7 +78206,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" hidden="1">
       <c r="A328" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78137,7 +78235,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" hidden="1">
       <c r="A329" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78166,7 +78264,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" hidden="1">
       <c r="A330" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78195,7 +78293,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" hidden="1">
       <c r="A331" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78224,7 +78322,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" hidden="1">
       <c r="A332" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78253,7 +78351,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" hidden="1">
       <c r="A333" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78282,7 +78380,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" hidden="1">
       <c r="A334" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78311,7 +78409,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" hidden="1">
       <c r="A335" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78340,7 +78438,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" hidden="1">
       <c r="A336" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78366,7 +78464,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" hidden="1">
       <c r="A337" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78392,7 +78490,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" hidden="1">
       <c r="A338" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78418,7 +78516,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" hidden="1">
       <c r="A339" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78444,7 +78542,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" hidden="1">
       <c r="A340" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78470,7 +78568,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" hidden="1">
       <c r="A341" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78496,7 +78594,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" hidden="1">
       <c r="A342" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78522,7 +78620,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" hidden="1">
       <c r="A343" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78548,7 +78646,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" hidden="1">
       <c r="A344" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78574,7 +78672,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" hidden="1">
       <c r="A345" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78600,7 +78698,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" hidden="1">
       <c r="A346" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78626,7 +78724,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" hidden="1">
       <c r="A347" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78652,7 +78750,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" hidden="1">
       <c r="A348" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78678,7 +78776,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" hidden="1">
       <c r="A349" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78704,7 +78802,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" hidden="1">
       <c r="A350" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78730,7 +78828,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" hidden="1">
       <c r="A351" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78756,7 +78854,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" hidden="1">
       <c r="A352" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78782,7 +78880,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" hidden="1">
       <c r="A353" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78808,7 +78906,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" hidden="1">
       <c r="A354" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78834,7 +78932,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" hidden="1">
       <c r="A355" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78863,7 +78961,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" hidden="1">
       <c r="A356" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78892,7 +78990,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" hidden="1">
       <c r="A357" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78921,7 +79019,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" hidden="1">
       <c r="A358" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78950,7 +79048,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" hidden="1">
       <c r="A359" s="135" t="s">
         <v>2761</v>
       </c>
@@ -78979,7 +79077,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" hidden="1">
       <c r="A360" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79008,7 +79106,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" hidden="1">
       <c r="A361" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79037,7 +79135,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" hidden="1">
       <c r="A362" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79066,7 +79164,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" hidden="1">
       <c r="A363" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79095,7 +79193,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" hidden="1">
       <c r="A364" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79124,7 +79222,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" hidden="1">
       <c r="A365" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79153,7 +79251,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" hidden="1">
       <c r="A366" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79182,7 +79280,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" hidden="1">
       <c r="A367" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79211,7 +79309,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" hidden="1">
       <c r="A368" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79240,7 +79338,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" hidden="1">
       <c r="A369" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79269,7 +79367,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" hidden="1">
       <c r="A370" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79298,7 +79396,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" hidden="1">
       <c r="A371" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79327,7 +79425,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" hidden="1">
       <c r="A372" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79356,7 +79454,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" hidden="1">
       <c r="A373" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79385,7 +79483,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" hidden="1">
       <c r="A374" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79414,7 +79512,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" hidden="1">
       <c r="A375" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79443,7 +79541,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" hidden="1">
       <c r="A376" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79472,7 +79570,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" hidden="1">
       <c r="A377" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79501,7 +79599,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" hidden="1">
       <c r="A378" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79530,7 +79628,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" hidden="1">
       <c r="A379" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79559,7 +79657,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" hidden="1">
       <c r="A380" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79588,7 +79686,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" hidden="1">
       <c r="A381" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79617,7 +79715,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" hidden="1">
       <c r="A382" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79646,7 +79744,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" hidden="1">
       <c r="A383" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79675,7 +79773,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" hidden="1">
       <c r="A384" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79704,7 +79802,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" hidden="1">
       <c r="A385" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79733,7 +79831,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" hidden="1">
       <c r="A386" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79762,7 +79860,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" hidden="1">
       <c r="A387" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79791,7 +79889,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" hidden="1">
       <c r="A388" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79820,7 +79918,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" hidden="1">
       <c r="A389" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79849,7 +79947,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" hidden="1">
       <c r="A390" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79878,7 +79976,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" hidden="1">
       <c r="A391" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79907,7 +80005,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" hidden="1">
       <c r="A392" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79936,7 +80034,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" hidden="1">
       <c r="A393" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79965,7 +80063,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" hidden="1">
       <c r="A394" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79994,7 +80092,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" hidden="1">
       <c r="A395" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80023,7 +80121,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" hidden="1">
       <c r="A396" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80052,7 +80150,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" hidden="1">
       <c r="A397" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80081,7 +80179,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" hidden="1">
       <c r="A398" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80110,7 +80208,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" hidden="1">
       <c r="A399" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80139,7 +80237,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" hidden="1">
       <c r="A400" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80168,7 +80266,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" hidden="1">
       <c r="A401" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80197,7 +80295,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" hidden="1">
       <c r="A402" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80226,7 +80324,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" hidden="1">
       <c r="A403" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80255,7 +80353,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" hidden="1">
       <c r="A404" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80284,7 +80382,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" hidden="1">
       <c r="A405" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80313,7 +80411,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" hidden="1">
       <c r="A406" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80342,7 +80440,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" hidden="1">
       <c r="A407" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80371,7 +80469,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" hidden="1">
       <c r="A408" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80400,7 +80498,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" hidden="1">
       <c r="A409" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80429,7 +80527,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" hidden="1">
       <c r="A410" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80458,7 +80556,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" hidden="1">
       <c r="A411" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80487,7 +80585,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" hidden="1">
       <c r="A412" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80516,7 +80614,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" hidden="1">
       <c r="A413" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80545,7 +80643,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" hidden="1">
       <c r="A414" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80574,7 +80672,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" hidden="1">
       <c r="A415" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80603,7 +80701,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" hidden="1">
       <c r="A416" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80632,7 +80730,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" hidden="1">
       <c r="A417" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80661,7 +80759,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" hidden="1">
       <c r="A418" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80690,7 +80788,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" hidden="1">
       <c r="A419" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80719,7 +80817,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" hidden="1">
       <c r="A420" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80748,7 +80846,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" hidden="1">
       <c r="A421" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80777,7 +80875,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" hidden="1">
       <c r="A422" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80806,7 +80904,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" hidden="1">
       <c r="A423" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80835,7 +80933,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" hidden="1">
       <c r="A424" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80864,7 +80962,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" hidden="1">
       <c r="A425" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80893,7 +80991,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" hidden="1">
       <c r="A426" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80922,7 +81020,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" hidden="1">
       <c r="A427" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80951,7 +81049,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" hidden="1">
       <c r="A428" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80980,7 +81078,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" hidden="1">
       <c r="A429" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81009,7 +81107,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" hidden="1">
       <c r="A430" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81038,7 +81136,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" hidden="1">
       <c r="A431" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81067,7 +81165,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" hidden="1">
       <c r="A432" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81096,7 +81194,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" hidden="1">
       <c r="A433" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81125,7 +81223,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" hidden="1">
       <c r="A434" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81154,7 +81252,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" hidden="1">
       <c r="A435" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81183,7 +81281,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" hidden="1">
       <c r="A436" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81212,7 +81310,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" hidden="1">
       <c r="A437" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81241,7 +81339,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" hidden="1">
       <c r="A438" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81270,7 +81368,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" hidden="1">
       <c r="A439" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81299,7 +81397,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" hidden="1">
       <c r="A440" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81328,7 +81426,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" hidden="1">
       <c r="A441" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81357,7 +81455,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" hidden="1">
       <c r="A442" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81386,7 +81484,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" hidden="1">
       <c r="A443" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81415,7 +81513,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" hidden="1">
       <c r="A444" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81444,7 +81542,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" hidden="1">
       <c r="A445" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81473,7 +81571,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" hidden="1">
       <c r="A446" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81502,7 +81600,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" hidden="1">
       <c r="A447" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81531,7 +81629,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" hidden="1">
       <c r="A448" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81560,7 +81658,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" hidden="1">
       <c r="A449" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81589,7 +81687,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" hidden="1">
       <c r="D450" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81609,7 +81707,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" hidden="1">
       <c r="D451" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81629,7 +81727,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" hidden="1">
       <c r="D452" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81649,7 +81747,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" hidden="1">
       <c r="D453" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81669,7 +81767,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" hidden="1">
       <c r="D454" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81689,7 +81787,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" hidden="1">
       <c r="D455" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81709,7 +81807,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" hidden="1">
       <c r="D456" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81729,7 +81827,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" hidden="1">
       <c r="D457" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81749,7 +81847,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" hidden="1">
       <c r="D458" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81769,311 +81867,303 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
-      <c r="A459" s="139"/>
-      <c r="B459" s="139"/>
-      <c r="C459" s="139"/>
-      <c r="D459" s="139"/>
-      <c r="E459" s="139"/>
-      <c r="F459" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G459" s="139" t="s">
-        <v>3032</v>
-      </c>
-      <c r="H459" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I459" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9">
-      <c r="A460" s="139"/>
-      <c r="B460" s="139"/>
-      <c r="C460" s="139"/>
-      <c r="D460" s="139"/>
-      <c r="E460" s="139"/>
-      <c r="F460" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G460" s="139" t="s">
-        <v>3033</v>
-      </c>
-      <c r="H460" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I460" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9">
-      <c r="A461" s="139"/>
-      <c r="B461" s="139"/>
-      <c r="C461" s="139"/>
-      <c r="D461" s="139"/>
-      <c r="E461" s="139"/>
-      <c r="F461" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G461" s="139" t="s">
-        <v>3034</v>
-      </c>
-      <c r="H461" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I461" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9">
-      <c r="A462" s="139"/>
-      <c r="B462" s="139"/>
-      <c r="C462" s="139"/>
-      <c r="D462" s="139"/>
-      <c r="E462" s="139"/>
-      <c r="F462" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G462" s="139" t="s">
-        <v>3035</v>
-      </c>
-      <c r="H462" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I462" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9">
-      <c r="A463" s="139"/>
-      <c r="B463" s="139"/>
-      <c r="C463" s="139"/>
-      <c r="D463" s="139"/>
-      <c r="E463" s="139"/>
-      <c r="F463" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G463" s="139" t="s">
-        <v>3037</v>
-      </c>
-      <c r="H463" s="139" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I463" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9">
-      <c r="A464" s="139"/>
-      <c r="B464" s="139"/>
-      <c r="C464" s="139"/>
-      <c r="D464" s="139"/>
-      <c r="E464" s="139"/>
-      <c r="F464" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G464" s="139" t="s">
-        <v>3038</v>
-      </c>
-      <c r="H464" s="139" t="s">
-        <v>2656</v>
-      </c>
-      <c r="I464" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="465" spans="1:9">
-      <c r="A465" s="139"/>
-      <c r="B465" s="139"/>
-      <c r="C465" s="139"/>
-      <c r="D465" s="139"/>
-      <c r="E465" s="139"/>
-      <c r="F465" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G465" s="139" t="s">
-        <v>3039</v>
-      </c>
-      <c r="H465" s="135" t="s">
-        <v>2718</v>
-      </c>
-      <c r="I465" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9">
-      <c r="A466" s="139"/>
-      <c r="B466" s="139"/>
-      <c r="C466" s="139"/>
-      <c r="D466" s="139"/>
-      <c r="E466" s="139"/>
-      <c r="F466" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G466" s="139" t="s">
-        <v>3040</v>
-      </c>
-      <c r="H466" s="139" t="s">
+    <row r="459" spans="1:9" hidden="1">
+      <c r="A459" s="155"/>
+      <c r="B459" s="155"/>
+      <c r="C459" s="155"/>
+      <c r="D459" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E459" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F459" s="155" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G459" s="155" t="s">
+        <v>3051</v>
+      </c>
+      <c r="H459" s="155" t="s">
         <v>2501</v>
       </c>
-      <c r="I466" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="467" spans="1:9">
-      <c r="A467" s="139"/>
-      <c r="B467" s="139"/>
-      <c r="C467" s="139"/>
-      <c r="D467" s="139"/>
-      <c r="E467" s="139"/>
-      <c r="F467" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G467" s="139" t="s">
-        <v>2792</v>
-      </c>
-      <c r="H467" s="139" t="s">
+      <c r="I459" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" hidden="1">
+      <c r="A460" s="155"/>
+      <c r="B460" s="155"/>
+      <c r="C460" s="155"/>
+      <c r="D460" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E460" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F460" s="155" t="s">
+        <v>3052</v>
+      </c>
+      <c r="G460" s="155" t="s">
+        <v>3053</v>
+      </c>
+      <c r="H460" s="155" t="s">
         <v>2501</v>
       </c>
-      <c r="I467" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="468" spans="1:9">
-      <c r="A468" s="139"/>
-      <c r="B468" s="139"/>
-      <c r="C468" s="139"/>
-      <c r="D468" s="139"/>
-      <c r="E468" s="139"/>
-      <c r="F468" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G468" s="139" t="s">
-        <v>3041</v>
-      </c>
-      <c r="H468" s="139" t="s">
+      <c r="I460" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" hidden="1">
+      <c r="A461" s="155"/>
+      <c r="B461" s="155"/>
+      <c r="C461" s="155"/>
+      <c r="D461" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E461" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F461" s="155" t="s">
+        <v>3052</v>
+      </c>
+      <c r="G461" s="155" t="s">
+        <v>3056</v>
+      </c>
+      <c r="H461" s="155" t="s">
         <v>2501</v>
       </c>
-      <c r="I468" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9">
-      <c r="A469" s="139"/>
-      <c r="B469" s="139"/>
-      <c r="C469" s="139"/>
-      <c r="D469" s="139"/>
-      <c r="E469" s="139"/>
-      <c r="F469" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G469" s="139" t="s">
-        <v>2790</v>
-      </c>
-      <c r="H469" s="139" t="s">
+      <c r="I461" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" hidden="1">
+      <c r="A462" s="155"/>
+      <c r="B462" s="155"/>
+      <c r="C462" s="155"/>
+      <c r="D462" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E462" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F462" s="155" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G462" s="155" t="s">
+        <v>3055</v>
+      </c>
+      <c r="H462" s="155" t="s">
         <v>2501</v>
       </c>
-      <c r="I469" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9">
-      <c r="A470" s="139"/>
-      <c r="B470" s="139"/>
-      <c r="C470" s="139"/>
-      <c r="D470" s="139"/>
-      <c r="E470" s="139"/>
-      <c r="F470" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G470" s="139" t="s">
-        <v>3042</v>
-      </c>
-      <c r="H470" s="139" t="s">
+      <c r="I462" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" hidden="1">
+      <c r="A463" s="155"/>
+      <c r="B463" s="155"/>
+      <c r="C463" s="155"/>
+      <c r="D463" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E463" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F463" s="155" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G463" s="155" t="s">
+        <v>3057</v>
+      </c>
+      <c r="H463" s="155" t="s">
         <v>2501</v>
       </c>
-      <c r="I470" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9">
-      <c r="A471" s="139"/>
-      <c r="B471" s="139"/>
-      <c r="C471" s="139"/>
-      <c r="D471" s="139"/>
-      <c r="E471" s="139"/>
-      <c r="F471" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G471" s="139" t="s">
-        <v>2791</v>
-      </c>
-      <c r="H471" s="139" t="s">
+      <c r="I463" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" hidden="1">
+      <c r="A464" s="155"/>
+      <c r="B464" s="155"/>
+      <c r="C464" s="155"/>
+      <c r="D464" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E464" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F464" s="155" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G464" s="155" t="s">
+        <v>3058</v>
+      </c>
+      <c r="H464" s="155" t="s">
         <v>2501</v>
       </c>
-      <c r="I471" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="472" spans="1:9">
-      <c r="A472" s="139"/>
-      <c r="B472" s="139"/>
-      <c r="C472" s="139"/>
-      <c r="D472" s="139"/>
-      <c r="E472" s="139"/>
-      <c r="F472" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G472" s="139" t="s">
-        <v>3043</v>
-      </c>
-      <c r="H472" s="139" t="s">
+      <c r="I464" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" hidden="1">
+      <c r="A465" s="155"/>
+      <c r="B465" s="155"/>
+      <c r="C465" s="155"/>
+      <c r="D465" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E465" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F465" s="155" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G465" s="155" t="s">
+        <v>3059</v>
+      </c>
+      <c r="H465" s="155" t="s">
         <v>2501</v>
       </c>
-      <c r="I472" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="473" spans="1:9">
-      <c r="A473" s="139"/>
-      <c r="B473" s="139"/>
-      <c r="C473" s="139"/>
-      <c r="D473" s="139"/>
-      <c r="E473" s="139"/>
-      <c r="F473" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G473" s="139" t="s">
-        <v>3045</v>
-      </c>
-      <c r="H473" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I473" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="474" spans="1:9">
-      <c r="A474" s="139"/>
-      <c r="B474" s="139"/>
-      <c r="C474" s="139"/>
-      <c r="D474" s="139"/>
-      <c r="E474" s="139"/>
-      <c r="F474" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G474" s="139" t="s">
-        <v>3047</v>
-      </c>
-      <c r="H474" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I474" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="475" spans="1:9">
+      <c r="I465" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" hidden="1">
+      <c r="A466" s="155"/>
+      <c r="B466" s="155"/>
+      <c r="C466" s="155"/>
+      <c r="D466" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E466" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F466" s="155" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G466" s="155" t="s">
+        <v>3060</v>
+      </c>
+      <c r="H466" s="155" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I466" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" hidden="1">
+      <c r="A467" s="155"/>
+      <c r="B467" s="155"/>
+      <c r="C467" s="155"/>
+      <c r="D467" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E467" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F467" s="155" t="s">
+        <v>3061</v>
+      </c>
+      <c r="G467" s="155" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H467" s="155" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I467" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" hidden="1">
+      <c r="A468" s="155"/>
+      <c r="B468" s="155"/>
+      <c r="C468" s="155"/>
+      <c r="D468" s="155" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E468" s="155" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F468" s="155" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G468" s="155" t="s">
+        <v>3062</v>
+      </c>
+      <c r="H468" s="155" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I468" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" hidden="1">
+      <c r="A469" s="155"/>
+      <c r="B469" s="155"/>
+      <c r="C469" s="155"/>
+      <c r="D469" s="155"/>
+      <c r="E469" s="155"/>
+      <c r="F469" s="155"/>
+      <c r="G469" s="155"/>
+      <c r="H469" s="155"/>
+      <c r="I469" s="155"/>
+    </row>
+    <row r="470" spans="1:9" hidden="1">
+      <c r="A470" s="155"/>
+      <c r="B470" s="155"/>
+      <c r="C470" s="155"/>
+      <c r="D470" s="155"/>
+      <c r="E470" s="155"/>
+      <c r="F470" s="155"/>
+      <c r="G470" s="155"/>
+      <c r="H470" s="155"/>
+      <c r="I470" s="155"/>
+    </row>
+    <row r="471" spans="1:9" hidden="1">
+      <c r="A471" s="155"/>
+      <c r="B471" s="155"/>
+      <c r="C471" s="155"/>
+      <c r="D471" s="155"/>
+      <c r="E471" s="155"/>
+      <c r="F471" s="155"/>
+      <c r="G471" s="155"/>
+      <c r="H471" s="155"/>
+      <c r="I471" s="155"/>
+    </row>
+    <row r="472" spans="1:9" hidden="1">
+      <c r="A472" s="155"/>
+      <c r="B472" s="155"/>
+      <c r="C472" s="155"/>
+      <c r="D472" s="155"/>
+      <c r="E472" s="155"/>
+      <c r="F472" s="155"/>
+      <c r="G472" s="155"/>
+      <c r="H472" s="155"/>
+      <c r="I472" s="155"/>
+    </row>
+    <row r="473" spans="1:9" hidden="1">
+      <c r="A473" s="155"/>
+      <c r="B473" s="155"/>
+      <c r="C473" s="155"/>
+      <c r="D473" s="155"/>
+      <c r="E473" s="155"/>
+      <c r="F473" s="155"/>
+      <c r="G473" s="155"/>
+      <c r="H473" s="155"/>
+      <c r="I473" s="155"/>
+    </row>
+    <row r="474" spans="1:9" hidden="1">
+      <c r="A474" s="155"/>
+      <c r="B474" s="155"/>
+      <c r="C474" s="155"/>
+      <c r="D474" s="155"/>
+      <c r="E474" s="155"/>
+      <c r="F474" s="155"/>
+      <c r="G474" s="155"/>
+      <c r="H474" s="155"/>
+      <c r="I474" s="155"/>
+    </row>
+    <row r="475" spans="1:9" hidden="1">
       <c r="A475" s="139"/>
       <c r="B475" s="139"/>
       <c r="C475" s="139"/>
@@ -82083,12 +82173,354 @@
         <v>1692</v>
       </c>
       <c r="G475" s="139" t="s">
-        <v>3048</v>
-      </c>
-      <c r="H475" s="139" t="s">
+        <v>3032</v>
+      </c>
+      <c r="H475" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I475" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" hidden="1">
+      <c r="A476" s="139"/>
+      <c r="B476" s="139"/>
+      <c r="C476" s="139"/>
+      <c r="D476" s="139"/>
+      <c r="E476" s="139"/>
+      <c r="F476" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G476" s="139" t="s">
+        <v>3033</v>
+      </c>
+      <c r="H476" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I476" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" hidden="1">
+      <c r="A477" s="139"/>
+      <c r="B477" s="139"/>
+      <c r="C477" s="139"/>
+      <c r="D477" s="139"/>
+      <c r="E477" s="139"/>
+      <c r="F477" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G477" s="139" t="s">
+        <v>3034</v>
+      </c>
+      <c r="H477" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I477" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" hidden="1">
+      <c r="A478" s="139"/>
+      <c r="B478" s="139"/>
+      <c r="C478" s="139"/>
+      <c r="D478" s="139"/>
+      <c r="E478" s="139"/>
+      <c r="F478" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G478" s="139" t="s">
+        <v>3035</v>
+      </c>
+      <c r="H478" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I478" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" hidden="1">
+      <c r="A479" s="139"/>
+      <c r="B479" s="139"/>
+      <c r="C479" s="139"/>
+      <c r="D479" s="139"/>
+      <c r="E479" s="139"/>
+      <c r="F479" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G479" s="139" t="s">
+        <v>3037</v>
+      </c>
+      <c r="H479" s="139" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I479" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" hidden="1">
+      <c r="A480" s="139"/>
+      <c r="B480" s="139"/>
+      <c r="C480" s="139"/>
+      <c r="D480" s="139"/>
+      <c r="E480" s="139"/>
+      <c r="F480" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G480" s="139" t="s">
+        <v>3038</v>
+      </c>
+      <c r="H480" s="139" t="s">
         <v>2656</v>
       </c>
-      <c r="I475" s="139" t="s">
+      <c r="I480" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" hidden="1">
+      <c r="A481" s="139"/>
+      <c r="B481" s="139"/>
+      <c r="C481" s="139"/>
+      <c r="D481" s="139"/>
+      <c r="E481" s="139"/>
+      <c r="F481" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G481" s="139" t="s">
+        <v>3039</v>
+      </c>
+      <c r="H481" s="135" t="s">
+        <v>2718</v>
+      </c>
+      <c r="I481" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" hidden="1">
+      <c r="A482" s="139"/>
+      <c r="B482" s="139"/>
+      <c r="C482" s="139"/>
+      <c r="D482" s="139"/>
+      <c r="E482" s="139"/>
+      <c r="F482" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G482" s="139" t="s">
+        <v>3040</v>
+      </c>
+      <c r="H482" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I482" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" hidden="1">
+      <c r="A483" s="139"/>
+      <c r="B483" s="139"/>
+      <c r="C483" s="139"/>
+      <c r="D483" s="139"/>
+      <c r="E483" s="139"/>
+      <c r="F483" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G483" s="139" t="s">
+        <v>2792</v>
+      </c>
+      <c r="H483" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I483" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" hidden="1">
+      <c r="A484" s="139"/>
+      <c r="B484" s="139"/>
+      <c r="C484" s="139"/>
+      <c r="D484" s="139"/>
+      <c r="E484" s="139"/>
+      <c r="F484" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G484" s="139" t="s">
+        <v>3041</v>
+      </c>
+      <c r="H484" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I484" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" hidden="1">
+      <c r="A485" s="139"/>
+      <c r="B485" s="139"/>
+      <c r="C485" s="139"/>
+      <c r="D485" s="139"/>
+      <c r="E485" s="139"/>
+      <c r="F485" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G485" s="139" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H485" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I485" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" hidden="1">
+      <c r="A486" s="139"/>
+      <c r="B486" s="139"/>
+      <c r="C486" s="139"/>
+      <c r="D486" s="139"/>
+      <c r="E486" s="139"/>
+      <c r="F486" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G486" s="139" t="s">
+        <v>3042</v>
+      </c>
+      <c r="H486" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I486" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" hidden="1">
+      <c r="A487" s="139"/>
+      <c r="B487" s="139"/>
+      <c r="C487" s="139"/>
+      <c r="D487" s="139"/>
+      <c r="E487" s="139"/>
+      <c r="F487" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G487" s="139" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H487" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I487" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" hidden="1">
+      <c r="A488" s="139"/>
+      <c r="B488" s="139"/>
+      <c r="C488" s="139"/>
+      <c r="D488" s="139"/>
+      <c r="E488" s="139"/>
+      <c r="F488" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G488" s="139" t="s">
+        <v>3043</v>
+      </c>
+      <c r="H488" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I488" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" hidden="1">
+      <c r="A489" s="139"/>
+      <c r="B489" s="139"/>
+      <c r="C489" s="139"/>
+      <c r="D489" s="139"/>
+      <c r="E489" s="139"/>
+      <c r="F489" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G489" s="139" t="s">
+        <v>3044</v>
+      </c>
+      <c r="H489" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I489" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" hidden="1">
+      <c r="A490" s="139"/>
+      <c r="B490" s="139"/>
+      <c r="C490" s="139"/>
+      <c r="D490" s="139"/>
+      <c r="E490" s="139"/>
+      <c r="F490" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G490" s="139" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H490" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I490" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" hidden="1">
+      <c r="A491" s="139"/>
+      <c r="B491" s="139"/>
+      <c r="C491" s="139"/>
+      <c r="D491" s="139"/>
+      <c r="E491" s="139"/>
+      <c r="F491" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G491" s="139" t="s">
+        <v>3046</v>
+      </c>
+      <c r="H491" s="139" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I491" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" hidden="1">
+      <c r="A492" s="139"/>
+      <c r="B492" s="139"/>
+      <c r="C492" s="139"/>
+      <c r="D492" s="139"/>
+      <c r="E492" s="139"/>
+      <c r="F492" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G492" s="139" t="s">
+        <v>3047</v>
+      </c>
+      <c r="H492" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I492" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" s="139"/>
+      <c r="B493" s="139"/>
+      <c r="C493" s="139"/>
+      <c r="D493" s="139"/>
+      <c r="E493" s="139"/>
+      <c r="F493" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G493" s="139" t="s">
+        <v>3080</v>
+      </c>
+      <c r="H493" s="135" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I493" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
@@ -82109,7 +82541,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -82497,10 +82929,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:K101"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -82510,22 +82942,22 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" t="s">
-        <v>3046</v>
+        <v>3064</v>
       </c>
       <c r="C1" t="s">
-        <v>3044</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="2" spans="2:11">
       <c r="B2">
-        <v>1019090</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3066</v>
       </c>
       <c r="E2" t="str">
         <f>CONCATENATE("('",B2,"','",C2,"'),")</f>
-        <v>('1019090','0'),</v>
+        <v>('1','B2C PF'),</v>
       </c>
       <c r="I2">
         <v>2142</v>
@@ -82537,33 +82969,33 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3">
-        <v>1021010</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3067</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">CONCATENATE("('",B3,"','",C3,"'),")</f>
-        <v>('1021010','0'),</v>
+        <f t="shared" ref="E3:E15" si="0">CONCATENATE("('",B3,"','",C3,"'),")</f>
+        <v>('2','B2B PF'),</v>
       </c>
       <c r="I3">
         <v>3990</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K50" si="1">CONCATENATE("'",I3,"',")</f>
+        <f t="shared" ref="K3:K15" si="1">CONCATENATE("'",I3,"',")</f>
         <v>'3990',</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4">
-        <v>1021090</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3068</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>('1021090','0'),</v>
+        <v>('3','CSW'),</v>
       </c>
       <c r="I4">
         <v>68176</v>
@@ -82575,14 +83007,14 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5">
-        <v>1029011</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3069</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>('1029011','0'),</v>
+        <v>('4','HP'),</v>
       </c>
       <c r="I5">
         <v>68345</v>
@@ -82594,14 +83026,14 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6">
-        <v>1029019</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3070</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>('1029019','0'),</v>
+        <v>('5','B2C Extra'),</v>
       </c>
       <c r="I6">
         <v>68528</v>
@@ -82613,14 +83045,14 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7">
-        <v>1029090</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3071</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>('1029090','0'),</v>
+        <v>('6','B2B Extra'),</v>
       </c>
       <c r="I7">
         <v>100118</v>
@@ -82632,14 +83064,14 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8">
-        <v>1031000</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3072</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>('1031000','0'),</v>
+        <v>('7','Atacado'),</v>
       </c>
       <c r="I8">
         <v>101090</v>
@@ -82651,14 +83083,14 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9">
-        <v>1039100</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3073</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>('1039100','0'),</v>
+        <v>('8','B2C Casas Bahia'),</v>
       </c>
       <c r="I9">
         <v>119344</v>
@@ -82670,14 +83102,14 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10">
-        <v>1039200</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3074</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>('1039200','0'),</v>
+        <v>('9','AOC'),</v>
       </c>
       <c r="I10">
         <v>129441</v>
@@ -82689,14 +83121,14 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11">
-        <v>1041011</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3075</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>('1041011','0'),</v>
+        <v>('11','B2B Casas Bahia'),</v>
       </c>
       <c r="I11">
         <v>185308</v>
@@ -82708,14 +83140,14 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12">
-        <v>1041019</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3076</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>('1041019','0'),</v>
+        <v>('12','Laselva'),</v>
       </c>
       <c r="I12">
         <v>209457</v>
@@ -82727,14 +83159,14 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13">
-        <v>1041090</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3077</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>('1041090','0'),</v>
+        <v>('13','Barateiro'),</v>
       </c>
       <c r="I13">
         <v>240043</v>
@@ -82746,14 +83178,14 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14">
-        <v>1042010</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3078</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>('1042010','0'),</v>
+        <v>('14','Fuji'),</v>
       </c>
       <c r="I14">
         <v>299027</v>
@@ -82765,14 +83197,14 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15">
-        <v>1042090</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3079</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>('1042090','0'),</v>
+        <v>('15','Ddiscount'),</v>
       </c>
       <c r="I15">
         <v>299029</v>
@@ -82780,1283 +83212,6 @@
       <c r="K15" t="str">
         <f t="shared" si="1"/>
         <v>'299029',</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16">
-        <v>1051110</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>('1051110','0'),</v>
-      </c>
-      <c r="I16">
-        <v>302336</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>'302336',</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17">
-        <v>1051190</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>('1051190','0'),</v>
-      </c>
-      <c r="I17">
-        <v>1586993</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>'1586993',</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18">
-        <v>1051200</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>('1051200','0'),</v>
-      </c>
-      <c r="I18">
-        <v>1596623</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>'1596623',</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19">
-        <v>1051900</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>('1051900','0'),</v>
-      </c>
-      <c r="I19">
-        <v>1599736</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>'1599736',</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20">
-        <v>1059400</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>('1059400','0'),</v>
-      </c>
-      <c r="I20">
-        <v>1632310</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>'1632310',</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21">
-        <v>1059900</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>('1059900','0'),</v>
-      </c>
-      <c r="I21">
-        <v>1639634</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v>'1639634',</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22">
-        <v>1061100</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>('1061100','0'),</v>
-      </c>
-      <c r="I22">
-        <v>1664664</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>'1664664',</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23">
-        <v>1061200</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>('1061200','0'),</v>
-      </c>
-      <c r="I23">
-        <v>1679027</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>'1679027',</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24">
-        <v>1061900</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>('1061900','0'),</v>
-      </c>
-      <c r="I24">
-        <v>1693383</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v>'1693383',</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25">
-        <v>1062000</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>('1062000','0'),</v>
-      </c>
-      <c r="I25">
-        <v>1723749</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v>'1723749',</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26">
-        <v>1063100</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>('1063100','0'),</v>
-      </c>
-      <c r="I26">
-        <v>1723752</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v>'1723752',</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27">
-        <v>1063200</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>('1063200','0'),</v>
-      </c>
-      <c r="I27">
-        <v>1723753</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v>'1723753',</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28">
-        <v>1063910</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>('1063910','0'),</v>
-      </c>
-      <c r="I28">
-        <v>1723760</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
-        <v>'1723760',</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29">
-        <v>1063990</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>('1063990','0'),</v>
-      </c>
-      <c r="I29">
-        <v>1730498</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v>'1730498',</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30">
-        <v>1069000</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>('1069000','0'),</v>
-      </c>
-      <c r="I30">
-        <v>1736243</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v>'1736243',</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31">
-        <v>2011000</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>('2011000','0'),</v>
-      </c>
-      <c r="I31">
-        <v>1736552</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="1"/>
-        <v>'1736552',</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32">
-        <v>2012010</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>('2012010','0'),</v>
-      </c>
-      <c r="I32">
-        <v>1764245</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v>'1764245',</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33">
-        <v>2012020</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>('2012020','0'),</v>
-      </c>
-      <c r="I33">
-        <v>1806090</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="1"/>
-        <v>'1806090',</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34">
-        <v>2012090</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>('2012090','0'),</v>
-      </c>
-      <c r="I34">
-        <v>1924913</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="1"/>
-        <v>'1924913',</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35">
-        <v>2013000</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>('2013000','0'),</v>
-      </c>
-      <c r="I35">
-        <v>1947044</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
-        <v>'1947044',</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36">
-        <v>2021000</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>('2021000','0'),</v>
-      </c>
-      <c r="I36">
-        <v>1956801</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="1"/>
-        <v>'1956801',</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37">
-        <v>2022010</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>('2022010','0'),</v>
-      </c>
-      <c r="I37">
-        <v>2171481</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="1"/>
-        <v>'2171481',</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38">
-        <v>2022020</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>('2022020','0'),</v>
-      </c>
-      <c r="I38">
-        <v>2413365</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="1"/>
-        <v>'2413365',</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39">
-        <v>2022090</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>('2022090','0'),</v>
-      </c>
-      <c r="I39">
-        <v>2881357</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="1"/>
-        <v>'2881357',</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40">
-        <v>2023000</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>('2023000','0'),</v>
-      </c>
-      <c r="I40">
-        <v>2961097</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="1"/>
-        <v>'2961097',</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41">
-        <v>2031100</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>('2031100','0'),</v>
-      </c>
-      <c r="I41">
-        <v>2989740</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="1"/>
-        <v>'2989740',</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42">
-        <v>2031200</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>('2031200','0'),</v>
-      </c>
-      <c r="I42">
-        <v>13422335</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422335',</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43">
-        <v>2031900</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>('2031900','0'),</v>
-      </c>
-      <c r="I43">
-        <v>13422339</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422339',</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44">
-        <v>2032100</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>('2032100','0'),</v>
-      </c>
-      <c r="I44">
-        <v>13422352</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422352',</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45">
-        <v>2032200</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>('2032200','0'),</v>
-      </c>
-      <c r="I45">
-        <v>13422389</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422389',</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46">
-        <v>2032900</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>('2032900','0'),</v>
-      </c>
-      <c r="I46">
-        <v>13422393</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422393',</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47">
-        <v>2041000</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>('2041000','0'),</v>
-      </c>
-      <c r="I47">
-        <v>13422400</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422400',</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48">
-        <v>2042100</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>('2042100','0'),</v>
-      </c>
-      <c r="I48">
-        <v>13422401</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422401',</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49">
-        <v>2042200</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>('2042200','0'),</v>
-      </c>
-      <c r="I49">
-        <v>13422425</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422425',</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50">
-        <v>2042300</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>('2042300','0'),</v>
-      </c>
-      <c r="I50">
-        <v>13422427</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="1"/>
-        <v>'13422427',</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51">
-        <v>2043000</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>('2043000','0'),</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52">
-        <v>2044100</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>('2044100','0'),</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53">
-        <v>2044200</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>('2044200','0'),</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54">
-        <v>2044300</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>('2044300','0'),</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55">
-        <v>2045000</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>('2045000','0'),</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56">
-        <v>2050000</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>('2050000','0'),</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57">
-        <v>2061000</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>('2061000','0'),</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58">
-        <v>2062100</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>('2062100','0'),</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59">
-        <v>2062200</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>('2062200','0'),</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60">
-        <v>2062910</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>('2062910','0'),</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61">
-        <v>2062990</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>('2062990','0'),</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62">
-        <v>2063000</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>('2063000','0'),</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63">
-        <v>2064100</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>('2064100','0'),</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64">
-        <v>2064900</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>('2064900','0'),</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65">
-        <v>2068000</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>('2068000','0'),</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66">
-        <v>2069000</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>('2069000','0'),</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67">
-        <v>2071100</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E101" si="2">CONCATENATE("('",B67,"','",C67,"'),")</f>
-        <v>('2071100','0'),</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68">
-        <v>2071200</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="2"/>
-        <v>('2071200','0'),</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69">
-        <v>2071300</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="2"/>
-        <v>('2071300','0'),</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70">
-        <v>2071400</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="2"/>
-        <v>('2071400','0'),</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71">
-        <v>2072400</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="2"/>
-        <v>('2072400','0'),</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72">
-        <v>2072500</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="2"/>
-        <v>('2072500','0'),</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73">
-        <v>2072600</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="2"/>
-        <v>('2072600','0'),</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74">
-        <v>2072700</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="2"/>
-        <v>('2072700','0'),</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75">
-        <v>2073200</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="2"/>
-        <v>('2073200','0'),</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76">
-        <v>2073300</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="2"/>
-        <v>('2073300','0'),</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77">
-        <v>2073400</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="2"/>
-        <v>('2073400','0'),</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78">
-        <v>2073500</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="2"/>
-        <v>('2073500','0'),</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79">
-        <v>2073600</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="2"/>
-        <v>('2073600','0'),</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80">
-        <v>2081000</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="2"/>
-        <v>('2081000','0'),</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81">
-        <v>2083000</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="2"/>
-        <v>('2083000','0'),</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82">
-        <v>2084000</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="2"/>
-        <v>('2084000','0'),</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83">
-        <v>2085000</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="2"/>
-        <v>('2085000','0'),</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84">
-        <v>2089000</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="2"/>
-        <v>('2089000','0'),</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85">
-        <v>2090011</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="2"/>
-        <v>('2090011','0'),</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86">
-        <v>2090019</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="2"/>
-        <v>('2090019','0'),</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87">
-        <v>2090021</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="2"/>
-        <v>('2090021','0'),</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88">
-        <v>2090029</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="2"/>
-        <v>('2090029','0'),</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89">
-        <v>2090090</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="2"/>
-        <v>('2090090','0'),</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90">
-        <v>2101100</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="2"/>
-        <v>('2101100','0'),</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91">
-        <v>2101200</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="2"/>
-        <v>('2101200','0'),</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92">
-        <v>2101900</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="2"/>
-        <v>('2101900','0'),</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93">
-        <v>2102000</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="2"/>
-        <v>('2102000','0'),</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94">
-        <v>2109100</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="2"/>
-        <v>('2109100','0'),</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95">
-        <v>2109200</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="2"/>
-        <v>('2109200','0'),</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96">
-        <v>2109300</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="2"/>
-        <v>('2109300','0'),</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97">
-        <v>2109900</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="2"/>
-        <v>('2109900','0'),</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98">
-        <v>3011010</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="2"/>
-        <v>('3011010','0'),</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99">
-        <v>3011090</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="2"/>
-        <v>('3011090','0'),</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100">
-        <v>3019110</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="2"/>
-        <v>('3019110','0'),</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101">
-        <v>3019190</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="2"/>
-        <v>('3019190','0'),</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DE-PARA Tabelas" sheetId="1" state="hidden" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Dicionario" sheetId="3" r:id="rId4"/>
     <sheet name="Processo de Carga" sheetId="6" r:id="rId5"/>
     <sheet name="Cubos" sheetId="7" r:id="rId6"/>
-    <sheet name="Plan1" sheetId="8" r:id="rId7"/>
+    <sheet name="Controle criação Views e CIA 1" sheetId="9" r:id="rId7"/>
+    <sheet name="Plan1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18417" uniqueCount="3081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18597" uniqueCount="3125">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9276,6 +9277,138 @@
   </si>
   <si>
     <t>dim.dim_produto</t>
+  </si>
+  <si>
+    <t>JUVENTUS</t>
+  </si>
+  <si>
+    <t>CRICIUMA</t>
+  </si>
+  <si>
+    <t>VW_NFR_Cab</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>VW_NFR_Det</t>
+  </si>
+  <si>
+    <t>VW_NFR_Rascunho_Cab</t>
+  </si>
+  <si>
+    <t>VW_NFR_Rascunho_Det</t>
+  </si>
+  <si>
+    <t>não tem CIA</t>
+  </si>
+  <si>
+    <t>VW_NFR_Ultimo_Recebimento</t>
+  </si>
+  <si>
+    <t>VW_CAP_Conciliacao_CAP_CAR</t>
+  </si>
+  <si>
+    <t>VW_CAP_Titulo</t>
+  </si>
+  <si>
+    <t>VW_CAP_Titulo_Lancamento</t>
+  </si>
+  <si>
+    <t>VW_CAP_Titulo_Mvmt</t>
+  </si>
+  <si>
+    <t>VW_CAP_Titulo_Pgto</t>
+  </si>
+  <si>
+    <t>VW_CAP_Titulo_Referencia</t>
+  </si>
+  <si>
+    <t>VW_CAP_Titulo_Reversao</t>
+  </si>
+  <si>
+    <t>VW_CAR_Pedido_Venda</t>
+  </si>
+  <si>
+    <t>VW_CAR_Remessa</t>
+  </si>
+  <si>
+    <t>VW_CAR_Remessa_Cobr_Eletr</t>
+  </si>
+  <si>
+    <t>VW_CAR_Remessa_Cobranca_Eletronica</t>
+  </si>
+  <si>
+    <t>ARQUIVO SQL</t>
+  </si>
+  <si>
+    <t>VW_CAR_Retorno_Cobr_Eletr</t>
+  </si>
+  <si>
+    <t>VW_CAR_Retorno_Cobranca_Eletronica</t>
+  </si>
+  <si>
+    <t>VW_CAR_Titulo</t>
+  </si>
+  <si>
+    <t>VW_CAR_Titulo_Mvmt</t>
+  </si>
+  <si>
+    <t>VW_CAR_Titulo_Parcelamento</t>
+  </si>
+  <si>
+    <t>VW_CAR_Titulo_Remessa</t>
+  </si>
+  <si>
+    <t>VW_CAR_VPC</t>
+  </si>
+  <si>
+    <t>VW_EST_Estoque</t>
+  </si>
+  <si>
+    <t>VW_DOM_Condicao_Pagamento</t>
+  </si>
+  <si>
+    <t>VW_DOM_Filial</t>
+  </si>
+  <si>
+    <t>não tem view</t>
+  </si>
+  <si>
+    <t>VW_EST_Crossdocking</t>
+  </si>
+  <si>
+    <t>VW_EST_Referencia</t>
+  </si>
+  <si>
+    <t>VW_EST_Fechamento_Estoque</t>
+  </si>
+  <si>
+    <t>VW_NFV_Cab</t>
+  </si>
+  <si>
+    <t>VW_NFV_Det</t>
+  </si>
+  <si>
+    <t>VW_NFV_Eletronica</t>
+  </si>
+  <si>
+    <t>VW_PEC_Cab</t>
+  </si>
+  <si>
+    <t>VW_PEC_Det</t>
+  </si>
+  <si>
+    <t>VW_SKU_CMV</t>
+  </si>
+  <si>
+    <t>VW_SKU_Condicao_Pagamento</t>
+  </si>
+  <si>
+    <t>VW_SKU</t>
   </si>
 </sst>
 </file>
@@ -9882,7 +10015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -10283,6 +10416,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10328,12 +10465,26 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="32">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -10830,28 +10981,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:M1554" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:M1554" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:M1554">
     <filterColumn colId="2">
       <filters>
-        <filter val="stg_nfv_cab"/>
+        <filter val="stg_nfr_rascunho_cab"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Tipo" dataDxfId="24"/>
-    <tableColumn id="2" name="DE - TABLE_NAME" dataDxfId="23"/>
-    <tableColumn id="3" name="PARA - TABLE_NAME" dataDxfId="22"/>
-    <tableColumn id="4" name="DE - COLUMN_NAME " dataDxfId="21"/>
-    <tableColumn id="5" name="ORDINAL_POSITION" dataDxfId="20"/>
-    <tableColumn id="6" name="DATA_TYPE" dataDxfId="19"/>
-    <tableColumn id="7" name="CHARACTER_OCTET_LENGTH" dataDxfId="18"/>
-    <tableColumn id="8" name="PARA - COLUMN_NAME" dataDxfId="17"/>
-    <tableColumn id="9" name="DE:Tabela Dominio" dataDxfId="16"/>
-    <tableColumn id="10" name="DE:Campo Dominio" dataDxfId="15"/>
-    <tableColumn id="14" name="PARA:Tabela Dominio2" dataDxfId="14"/>
-    <tableColumn id="15" name="PARA:Campo Dominio3" dataDxfId="13"/>
-    <tableColumn id="11" name="IN_ATIVA" dataDxfId="12"/>
+    <tableColumn id="1" name="Tipo" dataDxfId="29"/>
+    <tableColumn id="2" name="DE - TABLE_NAME" dataDxfId="28"/>
+    <tableColumn id="3" name="PARA - TABLE_NAME" dataDxfId="27"/>
+    <tableColumn id="4" name="DE - COLUMN_NAME " dataDxfId="26"/>
+    <tableColumn id="5" name="ORDINAL_POSITION" dataDxfId="25"/>
+    <tableColumn id="6" name="DATA_TYPE" dataDxfId="24"/>
+    <tableColumn id="7" name="CHARACTER_OCTET_LENGTH" dataDxfId="23"/>
+    <tableColumn id="8" name="PARA - COLUMN_NAME" dataDxfId="22"/>
+    <tableColumn id="9" name="DE:Tabela Dominio" dataDxfId="21"/>
+    <tableColumn id="10" name="DE:Campo Dominio" dataDxfId="20"/>
+    <tableColumn id="14" name="PARA:Tabela Dominio2" dataDxfId="19"/>
+    <tableColumn id="15" name="PARA:Campo Dominio3" dataDxfId="18"/>
+    <tableColumn id="11" name="IN_ATIVA" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10885,7 +11036,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I493" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I493" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:I493">
     <filterColumn colId="6"/>
     <filterColumn colId="7">
@@ -10895,28 +11046,42 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Sequence Container" dataDxfId="9"/>
-    <tableColumn id="2" name="EPT" dataDxfId="8"/>
-    <tableColumn id="3" name="Package" dataDxfId="7"/>
-    <tableColumn id="4" name="DTSX Controlador" dataDxfId="6"/>
-    <tableColumn id="5" name="Sequence Container Controlador" dataDxfId="5"/>
-    <tableColumn id="6" name="EPT Controlador" dataDxfId="4"/>
-    <tableColumn id="7" name="Tabelas Geradas" dataDxfId="3"/>
-    <tableColumn id="8" name="Database Destino" dataDxfId="2"/>
-    <tableColumn id="9" name="Observação" dataDxfId="1"/>
+    <tableColumn id="1" name="Sequence Container" dataDxfId="14"/>
+    <tableColumn id="2" name="EPT" dataDxfId="13"/>
+    <tableColumn id="3" name="Package" dataDxfId="12"/>
+    <tableColumn id="4" name="DTSX Controlador" dataDxfId="11"/>
+    <tableColumn id="5" name="Sequence Container Controlador" dataDxfId="10"/>
+    <tableColumn id="6" name="EPT Controlador" dataDxfId="9"/>
+    <tableColumn id="7" name="Tabelas Geradas" dataDxfId="8"/>
+    <tableColumn id="8" name="Database Destino" dataDxfId="7"/>
+    <tableColumn id="9" name="Observação" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:B46" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="A1:B46" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:B46"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Databases"/>
     <tableColumn id="2" name="Cubes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:E36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E36"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ARQUIVO SQL"/>
+    <tableColumn id="2" name="JUVENTUS" dataDxfId="4"/>
+    <tableColumn id="3" name="CRICIUMA" dataDxfId="3"/>
+    <tableColumn id="4" name="GitHub" dataDxfId="2"/>
+    <tableColumn id="5" name="VIEW"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -12273,7 +12438,7 @@
       <c r="A3" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="142" t="s">
         <v>1757</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -12293,7 +12458,7 @@
       <c r="A4" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="31" t="s">
         <v>1763</v>
       </c>
@@ -12312,7 +12477,7 @@
       <c r="A5" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B5" s="141"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="31" t="s">
         <v>1765</v>
       </c>
@@ -12331,7 +12496,7 @@
       <c r="A6" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B6" s="141"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="31" t="s">
         <v>1767</v>
       </c>
@@ -12350,7 +12515,7 @@
       <c r="A7" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B7" s="141"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="31" t="s">
         <v>1769</v>
       </c>
@@ -12369,7 +12534,7 @@
       <c r="A8" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B8" s="141"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="31" t="s">
         <v>2294</v>
       </c>
@@ -12388,7 +12553,7 @@
       <c r="A9" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="31" t="s">
         <v>1771</v>
       </c>
@@ -12407,7 +12572,7 @@
       <c r="A10" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="31" t="s">
         <v>1773</v>
       </c>
@@ -12426,7 +12591,7 @@
       <c r="A11" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B11" s="141"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="31" t="s">
         <v>1775</v>
       </c>
@@ -12445,7 +12610,7 @@
       <c r="A12" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B12" s="141"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="31" t="s">
         <v>1777</v>
       </c>
@@ -12464,7 +12629,7 @@
       <c r="A13" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B13" s="141"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="31" t="s">
         <v>1779</v>
       </c>
@@ -12483,7 +12648,7 @@
       <c r="A14" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B14" s="141"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="31" t="s">
         <v>1781</v>
       </c>
@@ -12502,7 +12667,7 @@
       <c r="A15" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B15" s="141"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="31" t="s">
         <v>1783</v>
       </c>
@@ -12521,7 +12686,7 @@
       <c r="A16" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="31" t="s">
         <v>1785</v>
       </c>
@@ -12540,7 +12705,7 @@
       <c r="A17" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="31" t="s">
         <v>1787</v>
       </c>
@@ -12559,7 +12724,7 @@
       <c r="A18" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B18" s="141"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="31" t="s">
         <v>1796</v>
       </c>
@@ -12577,7 +12742,7 @@
       <c r="A19" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B19" s="141"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="31" t="s">
         <v>1800</v>
       </c>
@@ -12596,7 +12761,7 @@
       <c r="A20" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="31" t="s">
         <v>1802</v>
       </c>
@@ -12615,7 +12780,7 @@
       <c r="A21" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B21" s="141"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="31" t="s">
         <v>1804</v>
       </c>
@@ -12634,7 +12799,7 @@
       <c r="A22" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B22" s="141"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="31" t="s">
         <v>2271</v>
       </c>
@@ -12653,7 +12818,7 @@
       <c r="A23" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B23" s="141"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="31" t="s">
         <v>1807</v>
       </c>
@@ -12672,7 +12837,7 @@
       <c r="A24" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B24" s="141"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="31" t="s">
         <v>1813</v>
       </c>
@@ -12691,7 +12856,7 @@
       <c r="A25" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B25" s="141"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="31" t="s">
         <v>1823</v>
       </c>
@@ -12710,7 +12875,7 @@
       <c r="A26" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B26" s="141"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="31" t="s">
         <v>1825</v>
       </c>
@@ -12729,7 +12894,7 @@
       <c r="A27" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B27" s="141"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="31" t="s">
         <v>1827</v>
       </c>
@@ -12748,7 +12913,7 @@
       <c r="A28" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B28" s="141"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="31" t="s">
         <v>1829</v>
       </c>
@@ -12767,7 +12932,7 @@
       <c r="A29" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B29" s="141"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="31" t="s">
         <v>1831</v>
       </c>
@@ -12786,7 +12951,7 @@
       <c r="A30" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B30" s="141"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="31" t="s">
         <v>1833</v>
       </c>
@@ -12805,7 +12970,7 @@
       <c r="A31" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B31" s="141"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="31" t="s">
         <v>1835</v>
       </c>
@@ -12824,7 +12989,7 @@
       <c r="A32" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B32" s="141"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="31" t="s">
         <v>1874</v>
       </c>
@@ -12843,7 +13008,7 @@
       <c r="A33" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B33" s="141"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="31" t="s">
         <v>1875</v>
       </c>
@@ -12862,7 +13027,7 @@
       <c r="A34" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B34" s="141"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="31" t="s">
         <v>2357</v>
       </c>
@@ -12881,7 +13046,7 @@
       <c r="A35" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B35" s="141"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="31" t="s">
         <v>2340</v>
       </c>
@@ -12900,7 +13065,7 @@
       <c r="A36" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B36" s="141"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="31" t="s">
         <v>1882</v>
       </c>
@@ -12919,7 +13084,7 @@
       <c r="A37" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B37" s="141"/>
+      <c r="B37" s="143"/>
       <c r="C37" s="31" t="s">
         <v>1884</v>
       </c>
@@ -12938,7 +13103,7 @@
       <c r="A38" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B38" s="141"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="31" t="s">
         <v>1886</v>
       </c>
@@ -12957,7 +13122,7 @@
       <c r="A39" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B39" s="141"/>
+      <c r="B39" s="143"/>
       <c r="C39" s="31" t="s">
         <v>1888</v>
       </c>
@@ -12976,7 +13141,7 @@
       <c r="A40" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B40" s="141"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="31" t="s">
         <v>1895</v>
       </c>
@@ -12995,7 +13160,7 @@
       <c r="A41" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B41" s="141"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="31" t="s">
         <v>1897</v>
       </c>
@@ -13014,7 +13179,7 @@
       <c r="A42" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B42" s="142"/>
+      <c r="B42" s="144"/>
       <c r="C42" s="31" t="s">
         <v>2048</v>
       </c>
@@ -13041,7 +13206,7 @@
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="142" t="s">
         <v>2345</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -13062,7 +13227,7 @@
       <c r="A45" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B45" s="141"/>
+      <c r="B45" s="143"/>
       <c r="C45" s="31" t="s">
         <v>1761</v>
       </c>
@@ -13081,7 +13246,7 @@
       <c r="A46" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B46" s="141"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="31" t="s">
         <v>1789</v>
       </c>
@@ -13100,7 +13265,7 @@
       <c r="A47" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B47" s="141"/>
+      <c r="B47" s="143"/>
       <c r="C47" s="31" t="s">
         <v>1791</v>
       </c>
@@ -13119,7 +13284,7 @@
       <c r="A48" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B48" s="141"/>
+      <c r="B48" s="143"/>
       <c r="C48" s="31" t="s">
         <v>1792</v>
       </c>
@@ -13138,7 +13303,7 @@
       <c r="A49" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B49" s="141"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="31" t="s">
         <v>2019</v>
       </c>
@@ -13157,7 +13322,7 @@
       <c r="A50" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B50" s="141"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="31" t="s">
         <v>1794</v>
       </c>
@@ -13176,7 +13341,7 @@
       <c r="A51" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B51" s="141"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="31" t="s">
         <v>1799</v>
       </c>
@@ -13195,7 +13360,7 @@
       <c r="A52" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="31" t="s">
         <v>1809</v>
       </c>
@@ -13214,7 +13379,7 @@
       <c r="A53" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B53" s="141"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="31" t="s">
         <v>1811</v>
       </c>
@@ -13233,7 +13398,7 @@
       <c r="A54" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B54" s="141"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="31" t="s">
         <v>1815</v>
       </c>
@@ -13252,7 +13417,7 @@
       <c r="A55" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B55" s="141"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="31" t="s">
         <v>1817</v>
       </c>
@@ -13271,7 +13436,7 @@
       <c r="A56" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B56" s="141"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="31" t="s">
         <v>1819</v>
       </c>
@@ -13290,7 +13455,7 @@
       <c r="A57" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B57" s="141"/>
+      <c r="B57" s="143"/>
       <c r="C57" s="31" t="s">
         <v>1821</v>
       </c>
@@ -13309,7 +13474,7 @@
       <c r="A58" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B58" s="141"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="31" t="s">
         <v>1837</v>
       </c>
@@ -13328,7 +13493,7 @@
       <c r="A59" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B59" s="141"/>
+      <c r="B59" s="143"/>
       <c r="C59" s="31" t="s">
         <v>1839</v>
       </c>
@@ -13347,7 +13512,7 @@
       <c r="A60" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B60" s="141"/>
+      <c r="B60" s="143"/>
       <c r="C60" s="31" t="s">
         <v>1841</v>
       </c>
@@ -13366,7 +13531,7 @@
       <c r="A61" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B61" s="141"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="31" t="s">
         <v>1843</v>
       </c>
@@ -13385,7 +13550,7 @@
       <c r="A62" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B62" s="141"/>
+      <c r="B62" s="143"/>
       <c r="C62" s="31" t="s">
         <v>1845</v>
       </c>
@@ -13404,7 +13569,7 @@
       <c r="A63" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B63" s="141"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="31" t="s">
         <v>1847</v>
       </c>
@@ -13423,7 +13588,7 @@
       <c r="A64" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B64" s="141"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="31" t="s">
         <v>1849</v>
       </c>
@@ -13442,7 +13607,7 @@
       <c r="A65" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B65" s="141"/>
+      <c r="B65" s="143"/>
       <c r="C65" s="31" t="s">
         <v>2341</v>
       </c>
@@ -13461,7 +13626,7 @@
       <c r="A66" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B66" s="141"/>
+      <c r="B66" s="143"/>
       <c r="C66" s="31" t="s">
         <v>1852</v>
       </c>
@@ -13480,7 +13645,7 @@
       <c r="A67" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B67" s="141"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="31" t="s">
         <v>1854</v>
       </c>
@@ -13499,7 +13664,7 @@
       <c r="A68" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B68" s="141"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="31" t="s">
         <v>1856</v>
       </c>
@@ -13518,7 +13683,7 @@
       <c r="A69" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B69" s="141"/>
+      <c r="B69" s="143"/>
       <c r="C69" s="31" t="s">
         <v>1858</v>
       </c>
@@ -13537,7 +13702,7 @@
       <c r="A70" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B70" s="141"/>
+      <c r="B70" s="143"/>
       <c r="C70" s="31" t="s">
         <v>1860</v>
       </c>
@@ -13556,7 +13721,7 @@
       <c r="A71" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B71" s="141"/>
+      <c r="B71" s="143"/>
       <c r="C71" s="31" t="s">
         <v>1862</v>
       </c>
@@ -13575,7 +13740,7 @@
       <c r="A72" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B72" s="141"/>
+      <c r="B72" s="143"/>
       <c r="C72" s="31" t="s">
         <v>1864</v>
       </c>
@@ -13594,7 +13759,7 @@
       <c r="A73" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B73" s="141"/>
+      <c r="B73" s="143"/>
       <c r="C73" s="31" t="s">
         <v>1866</v>
       </c>
@@ -13613,7 +13778,7 @@
       <c r="A74" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B74" s="141"/>
+      <c r="B74" s="143"/>
       <c r="C74" s="31" t="s">
         <v>1868</v>
       </c>
@@ -13632,7 +13797,7 @@
       <c r="A75" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B75" s="141"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="31" t="s">
         <v>1870</v>
       </c>
@@ -13651,7 +13816,7 @@
       <c r="A76" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B76" s="141"/>
+      <c r="B76" s="143"/>
       <c r="C76" s="31" t="s">
         <v>1877</v>
       </c>
@@ -13672,7 +13837,7 @@
       <c r="A77" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B77" s="141"/>
+      <c r="B77" s="143"/>
       <c r="C77" s="31" t="s">
         <v>1880</v>
       </c>
@@ -13691,7 +13856,7 @@
       <c r="A78" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B78" s="141"/>
+      <c r="B78" s="143"/>
       <c r="C78" s="31" t="s">
         <v>2314</v>
       </c>
@@ -13712,7 +13877,7 @@
       <c r="A79" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B79" s="142"/>
+      <c r="B79" s="144"/>
       <c r="C79" s="31" t="s">
         <v>1890</v>
       </c>
@@ -13742,7 +13907,7 @@
       <c r="A81" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B81" s="149" t="s">
+      <c r="B81" s="151" t="s">
         <v>911</v>
       </c>
       <c r="C81" s="31" t="s">
@@ -13763,7 +13928,7 @@
       <c r="A82" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B82" s="150"/>
+      <c r="B82" s="152"/>
       <c r="C82" s="31" t="s">
         <v>1908</v>
       </c>
@@ -13793,7 +13958,7 @@
       <c r="A84" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B84" s="145" t="s">
+      <c r="B84" s="147" t="s">
         <v>1910</v>
       </c>
       <c r="C84" s="31" t="s">
@@ -13814,7 +13979,7 @@
       <c r="A85" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B85" s="146"/>
+      <c r="B85" s="148"/>
       <c r="C85" s="31" t="s">
         <v>1914</v>
       </c>
@@ -13833,7 +13998,7 @@
       <c r="A86" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B86" s="146"/>
+      <c r="B86" s="148"/>
       <c r="C86" s="31" t="s">
         <v>2346</v>
       </c>
@@ -13852,7 +14017,7 @@
       <c r="A87" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B87" s="146"/>
+      <c r="B87" s="148"/>
       <c r="C87" s="31" t="s">
         <v>1911</v>
       </c>
@@ -13871,7 +14036,7 @@
       <c r="A88" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B88" s="146"/>
+      <c r="B88" s="148"/>
       <c r="C88" s="31" t="s">
         <v>1913</v>
       </c>
@@ -13890,7 +14055,7 @@
       <c r="A89" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B89" s="146"/>
+      <c r="B89" s="148"/>
       <c r="C89" s="31" t="s">
         <v>2213</v>
       </c>
@@ -13909,7 +14074,7 @@
       <c r="A90" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B90" s="146"/>
+      <c r="B90" s="148"/>
       <c r="C90" s="31" t="s">
         <v>2147</v>
       </c>
@@ -13928,7 +14093,7 @@
       <c r="A91" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B91" s="147"/>
+      <c r="B91" s="149"/>
       <c r="C91" s="31" t="s">
         <v>2215</v>
       </c>
@@ -13958,7 +14123,7 @@
       <c r="A93" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B93" s="149" t="s">
+      <c r="B93" s="151" t="s">
         <v>1919</v>
       </c>
       <c r="C93" s="31" t="s">
@@ -13979,7 +14144,7 @@
       <c r="A94" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B94" s="151"/>
+      <c r="B94" s="153"/>
       <c r="C94" s="31" t="s">
         <v>1920</v>
       </c>
@@ -13998,7 +14163,7 @@
       <c r="A95" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B95" s="151"/>
+      <c r="B95" s="153"/>
       <c r="C95" s="31" t="s">
         <v>1923</v>
       </c>
@@ -14017,7 +14182,7 @@
       <c r="A96" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B96" s="151"/>
+      <c r="B96" s="153"/>
       <c r="C96" s="31" t="s">
         <v>1925</v>
       </c>
@@ -14036,7 +14201,7 @@
       <c r="A97" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B97" s="151"/>
+      <c r="B97" s="153"/>
       <c r="C97" s="31" t="s">
         <v>1929</v>
       </c>
@@ -14055,7 +14220,7 @@
       <c r="A98" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B98" s="151"/>
+      <c r="B98" s="153"/>
       <c r="C98" s="31" t="s">
         <v>1927</v>
       </c>
@@ -14074,7 +14239,7 @@
       <c r="A99" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B99" s="151"/>
+      <c r="B99" s="153"/>
       <c r="C99" s="31" t="s">
         <v>2259</v>
       </c>
@@ -14093,7 +14258,7 @@
       <c r="A100" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B100" s="151"/>
+      <c r="B100" s="153"/>
       <c r="C100" s="31" t="s">
         <v>2260</v>
       </c>
@@ -14112,7 +14277,7 @@
       <c r="A101" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B101" s="150"/>
+      <c r="B101" s="152"/>
       <c r="C101" s="31" t="s">
         <v>2287</v>
       </c>
@@ -14142,7 +14307,7 @@
       <c r="A103" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B103" s="140" t="s">
+      <c r="B103" s="142" t="s">
         <v>964</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -14163,7 +14328,7 @@
       <c r="A104" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B104" s="141"/>
+      <c r="B104" s="143"/>
       <c r="C104" s="31" t="s">
         <v>2333</v>
       </c>
@@ -14182,7 +14347,7 @@
       <c r="A105" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B105" s="142"/>
+      <c r="B105" s="144"/>
       <c r="C105" s="31" t="s">
         <v>2335</v>
       </c>
@@ -14244,7 +14409,7 @@
       <c r="A109" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B109" s="149" t="s">
+      <c r="B109" s="151" t="s">
         <v>945</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -14265,7 +14430,7 @@
       <c r="A110" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B110" s="151"/>
+      <c r="B110" s="153"/>
       <c r="C110" s="31" t="s">
         <v>1937</v>
       </c>
@@ -14284,7 +14449,7 @@
       <c r="A111" s="30" t="s">
         <v>2301</v>
       </c>
-      <c r="B111" s="151"/>
+      <c r="B111" s="153"/>
       <c r="C111" s="31" t="s">
         <v>2289</v>
       </c>
@@ -14303,7 +14468,7 @@
       <c r="A112" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B112" s="150"/>
+      <c r="B112" s="152"/>
       <c r="C112" s="31" t="s">
         <v>1939</v>
       </c>
@@ -14333,7 +14498,7 @@
       <c r="A114" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B114" s="149" t="s">
+      <c r="B114" s="151" t="s">
         <v>951</v>
       </c>
       <c r="C114" s="31" t="s">
@@ -14354,7 +14519,7 @@
       <c r="A115" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B115" s="150"/>
+      <c r="B115" s="152"/>
       <c r="C115" s="31" t="s">
         <v>1944</v>
       </c>
@@ -14448,7 +14613,7 @@
       <c r="A121" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B121" s="145" t="s">
+      <c r="B121" s="147" t="s">
         <v>1950</v>
       </c>
       <c r="C121" s="31" t="s">
@@ -14469,7 +14634,7 @@
       <c r="A122" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B122" s="146"/>
+      <c r="B122" s="148"/>
       <c r="C122" s="31" t="s">
         <v>1954</v>
       </c>
@@ -14488,7 +14653,7 @@
       <c r="A123" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B123" s="146"/>
+      <c r="B123" s="148"/>
       <c r="C123" s="31" t="s">
         <v>1956</v>
       </c>
@@ -14507,7 +14672,7 @@
       <c r="A124" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B124" s="146"/>
+      <c r="B124" s="148"/>
       <c r="C124" s="31" t="s">
         <v>1958</v>
       </c>
@@ -14526,7 +14691,7 @@
       <c r="A125" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B125" s="147"/>
+      <c r="B125" s="149"/>
       <c r="C125" s="31" t="s">
         <v>2268</v>
       </c>
@@ -14556,7 +14721,7 @@
       <c r="A127" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B127" s="149" t="s">
+      <c r="B127" s="151" t="s">
         <v>1960</v>
       </c>
       <c r="C127" s="31" t="s">
@@ -14577,7 +14742,7 @@
       <c r="A128" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B128" s="151"/>
+      <c r="B128" s="153"/>
       <c r="C128" s="31" t="s">
         <v>1964</v>
       </c>
@@ -14596,7 +14761,7 @@
       <c r="A129" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B129" s="150"/>
+      <c r="B129" s="152"/>
       <c r="C129" s="31" t="s">
         <v>1966</v>
       </c>
@@ -14658,7 +14823,7 @@
       <c r="A133" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B133" s="149" t="s">
+      <c r="B133" s="151" t="s">
         <v>1976</v>
       </c>
       <c r="C133" s="31" t="s">
@@ -14679,7 +14844,7 @@
       <c r="A134" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B134" s="150"/>
+      <c r="B134" s="152"/>
       <c r="C134" s="31" t="s">
         <v>1980</v>
       </c>
@@ -14709,7 +14874,7 @@
       <c r="A136" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B136" s="149" t="s">
+      <c r="B136" s="151" t="s">
         <v>1982</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -14730,7 +14895,7 @@
       <c r="A137" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B137" s="151"/>
+      <c r="B137" s="153"/>
       <c r="C137" s="31" t="s">
         <v>1986</v>
       </c>
@@ -14749,7 +14914,7 @@
       <c r="A138" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B138" s="151"/>
+      <c r="B138" s="153"/>
       <c r="C138" s="31" t="s">
         <v>1988</v>
       </c>
@@ -14768,7 +14933,7 @@
       <c r="A139" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B139" s="150"/>
+      <c r="B139" s="152"/>
       <c r="C139" s="31" t="s">
         <v>1990</v>
       </c>
@@ -14798,7 +14963,7 @@
       <c r="A141" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B141" s="145" t="s">
+      <c r="B141" s="147" t="s">
         <v>1994</v>
       </c>
       <c r="C141" s="31" t="s">
@@ -14819,7 +14984,7 @@
       <c r="A142" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B142" s="146"/>
+      <c r="B142" s="148"/>
       <c r="C142" s="31" t="s">
         <v>1998</v>
       </c>
@@ -14838,7 +15003,7 @@
       <c r="A143" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B143" s="147"/>
+      <c r="B143" s="149"/>
       <c r="C143" s="31" t="s">
         <v>2000</v>
       </c>
@@ -14900,7 +15065,7 @@
       <c r="A147" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B147" s="149" t="s">
+      <c r="B147" s="151" t="s">
         <v>2005</v>
       </c>
       <c r="C147" s="31" t="s">
@@ -14921,7 +15086,7 @@
       <c r="A148" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B148" s="151"/>
+      <c r="B148" s="153"/>
       <c r="C148" s="31" t="s">
         <v>2320</v>
       </c>
@@ -14940,7 +15105,7 @@
       <c r="A149" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B149" s="150"/>
+      <c r="B149" s="152"/>
       <c r="C149" s="31" t="s">
         <v>2010</v>
       </c>
@@ -15101,22 +15266,22 @@
       <c r="G158" s="34"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="C160" s="143"/>
-      <c r="D160" s="143"/>
-      <c r="E160" s="143"/>
-      <c r="F160" s="143"/>
+      <c r="C160" s="145"/>
+      <c r="D160" s="145"/>
+      <c r="E160" s="145"/>
+      <c r="F160" s="145"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="C161" s="143"/>
-      <c r="D161" s="143"/>
-      <c r="E161" s="143"/>
-      <c r="F161" s="143"/>
+      <c r="C161" s="145"/>
+      <c r="D161" s="145"/>
+      <c r="E161" s="145"/>
+      <c r="F161" s="145"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="C162" s="144"/>
-      <c r="D162" s="144"/>
-      <c r="E162" s="144"/>
-      <c r="F162" s="144"/>
+      <c r="C162" s="146"/>
+      <c r="D162" s="146"/>
+      <c r="E162" s="146"/>
+      <c r="F162" s="146"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="116" t="s">
@@ -15292,7 +15457,7 @@
       <c r="A173" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B173" s="148" t="s">
+      <c r="B173" s="150" t="s">
         <v>1972</v>
       </c>
       <c r="C173" s="113" t="s">
@@ -15311,7 +15476,7 @@
       <c r="A174" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B174" s="148"/>
+      <c r="B174" s="150"/>
       <c r="C174" s="113" t="s">
         <v>1975</v>
       </c>
@@ -15411,9 +15576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1554"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1563" sqref="B1563"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A898" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I906" sqref="I906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45813,7 +45978,7 @@
       <c r="L882" s="7"/>
       <c r="M882" s="10"/>
     </row>
-    <row r="883" spans="1:13" hidden="1">
+    <row r="883" spans="1:13">
       <c r="A883" s="7" t="s">
         <v>1102</v>
       </c>
@@ -45846,7 +46011,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="884" spans="1:13" hidden="1">
+    <row r="884" spans="1:13">
       <c r="A884" s="7" t="s">
         <v>1102</v>
       </c>
@@ -45887,7 +46052,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="885" spans="1:13" hidden="1">
+    <row r="885" spans="1:13">
       <c r="A885" s="7" t="s">
         <v>1102</v>
       </c>
@@ -45928,7 +46093,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="886" spans="1:13" hidden="1">
+    <row r="886" spans="1:13">
       <c r="A886" s="7" t="s">
         <v>1102</v>
       </c>
@@ -45969,7 +46134,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="887" spans="1:13" hidden="1">
+    <row r="887" spans="1:13">
       <c r="A887" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46010,7 +46175,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="888" spans="1:13" hidden="1">
+    <row r="888" spans="1:13">
       <c r="A888" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46051,7 +46216,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="889" spans="1:13" hidden="1">
+    <row r="889" spans="1:13">
       <c r="A889" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46084,7 +46249,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="890" spans="1:13" hidden="1">
+    <row r="890" spans="1:13">
       <c r="A890" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46117,7 +46282,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="891" spans="1:13" hidden="1">
+    <row r="891" spans="1:13">
       <c r="A891" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46150,7 +46315,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="892" spans="1:13" hidden="1">
+    <row r="892" spans="1:13">
       <c r="A892" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46183,7 +46348,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="893" spans="1:13" hidden="1">
+    <row r="893" spans="1:13">
       <c r="A893" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46216,7 +46381,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="894" spans="1:13" hidden="1">
+    <row r="894" spans="1:13">
       <c r="A894" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46249,7 +46414,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="895" spans="1:13" hidden="1">
+    <row r="895" spans="1:13">
       <c r="A895" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46282,7 +46447,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="896" spans="1:13" hidden="1">
+    <row r="896" spans="1:13">
       <c r="A896" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46315,7 +46480,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="897" spans="1:13" hidden="1">
+    <row r="897" spans="1:13">
       <c r="A897" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46348,7 +46513,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="898" spans="1:13" hidden="1">
+    <row r="898" spans="1:13">
       <c r="A898" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46381,7 +46546,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="899" spans="1:13" hidden="1">
+    <row r="899" spans="1:13">
       <c r="A899" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46414,7 +46579,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="900" spans="1:13" hidden="1">
+    <row r="900" spans="1:13">
       <c r="A900" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46447,7 +46612,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="901" spans="1:13" hidden="1">
+    <row r="901" spans="1:13">
       <c r="A901" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46480,7 +46645,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="902" spans="1:13" hidden="1">
+    <row r="902" spans="1:13">
       <c r="A902" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46513,7 +46678,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="903" spans="1:13" hidden="1">
+    <row r="903" spans="1:13">
       <c r="A903" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46546,7 +46711,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="904" spans="1:13" hidden="1">
+    <row r="904" spans="1:13">
       <c r="A904" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46579,7 +46744,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="905" spans="1:13" hidden="1">
+    <row r="905" spans="1:13">
       <c r="A905" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46612,7 +46777,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="906" spans="1:13" hidden="1">
+    <row r="906" spans="1:13">
       <c r="A906" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46653,7 +46818,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="907" spans="1:13" hidden="1">
+    <row r="907" spans="1:13">
       <c r="A907" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46686,7 +46851,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="908" spans="1:13" hidden="1">
+    <row r="908" spans="1:13">
       <c r="A908" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46719,7 +46884,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="909" spans="1:13" hidden="1">
+    <row r="909" spans="1:13">
       <c r="A909" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46752,7 +46917,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="910" spans="1:13" hidden="1">
+    <row r="910" spans="1:13">
       <c r="A910" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46785,7 +46950,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="911" spans="1:13" hidden="1">
+    <row r="911" spans="1:13">
       <c r="A911" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46818,7 +46983,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="912" spans="1:13" hidden="1">
+    <row r="912" spans="1:13">
       <c r="A912" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46851,7 +47016,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="913" spans="1:13" hidden="1">
+    <row r="913" spans="1:13">
       <c r="A913" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46884,7 +47049,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="914" spans="1:13" hidden="1">
+    <row r="914" spans="1:13">
       <c r="A914" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46919,7 +47084,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="915" spans="1:13" hidden="1">
+    <row r="915" spans="1:13">
       <c r="A915" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46954,7 +47119,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="916" spans="1:13" hidden="1">
+    <row r="916" spans="1:13">
       <c r="A916" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46995,7 +47160,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="917" spans="1:13" hidden="1">
+    <row r="917" spans="1:13">
       <c r="A917" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47036,7 +47201,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="918" spans="1:13" hidden="1">
+    <row r="918" spans="1:13">
       <c r="A918" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47069,7 +47234,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="919" spans="1:13" hidden="1">
+    <row r="919" spans="1:13">
       <c r="A919" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47102,7 +47267,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="920" spans="1:13" hidden="1">
+    <row r="920" spans="1:13">
       <c r="A920" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47135,7 +47300,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="921" spans="1:13" hidden="1">
+    <row r="921" spans="1:13">
       <c r="A921" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47168,7 +47333,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="922" spans="1:13" hidden="1">
+    <row r="922" spans="1:13">
       <c r="A922" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47201,7 +47366,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="923" spans="1:13" hidden="1">
+    <row r="923" spans="1:13">
       <c r="A923" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47234,7 +47399,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="924" spans="1:13" hidden="1">
+    <row r="924" spans="1:13">
       <c r="A924" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48247,7 +48412,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="953" spans="1:13">
+    <row r="953" spans="1:13" hidden="1">
       <c r="A953" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48288,7 +48453,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="954" spans="1:13">
+    <row r="954" spans="1:13" hidden="1">
       <c r="A954" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48329,7 +48494,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="955" spans="1:13">
+    <row r="955" spans="1:13" hidden="1">
       <c r="A955" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48362,7 +48527,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="956" spans="1:13">
+    <row r="956" spans="1:13" hidden="1">
       <c r="A956" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48395,7 +48560,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="957" spans="1:13">
+    <row r="957" spans="1:13" hidden="1">
       <c r="A957" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48436,7 +48601,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="958" spans="1:13">
+    <row r="958" spans="1:13" hidden="1">
       <c r="A958" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48477,7 +48642,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="959" spans="1:13">
+    <row r="959" spans="1:13" hidden="1">
       <c r="A959" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48518,7 +48683,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="960" spans="1:13">
+    <row r="960" spans="1:13" hidden="1">
       <c r="A960" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48551,7 +48716,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="961" spans="1:13">
+    <row r="961" spans="1:13" hidden="1">
       <c r="A961" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48584,7 +48749,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="962" spans="1:13">
+    <row r="962" spans="1:13" hidden="1">
       <c r="A962" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48625,7 +48790,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="963" spans="1:13">
+    <row r="963" spans="1:13" hidden="1">
       <c r="A963" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48666,7 +48831,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="964" spans="1:13">
+    <row r="964" spans="1:13" hidden="1">
       <c r="A964" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48707,7 +48872,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="965" spans="1:13">
+    <row r="965" spans="1:13" hidden="1">
       <c r="A965" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48744,7 +48909,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="966" spans="1:13">
+    <row r="966" spans="1:13" hidden="1">
       <c r="A966" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48785,7 +48950,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="967" spans="1:13">
+    <row r="967" spans="1:13" hidden="1">
       <c r="A967" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48818,7 +48983,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="968" spans="1:13">
+    <row r="968" spans="1:13" hidden="1">
       <c r="A968" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48851,7 +49016,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="969" spans="1:13">
+    <row r="969" spans="1:13" hidden="1">
       <c r="A969" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48884,7 +49049,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="970" spans="1:13">
+    <row r="970" spans="1:13" hidden="1">
       <c r="A970" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48917,7 +49082,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="971" spans="1:13">
+    <row r="971" spans="1:13" hidden="1">
       <c r="A971" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48950,7 +49115,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="972" spans="1:13">
+    <row r="972" spans="1:13" hidden="1">
       <c r="A972" s="7" t="s">
         <v>1102</v>
       </c>
@@ -48983,7 +49148,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="973" spans="1:13">
+    <row r="973" spans="1:13" hidden="1">
       <c r="A973" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49016,7 +49181,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="974" spans="1:13">
+    <row r="974" spans="1:13" hidden="1">
       <c r="A974" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49049,7 +49214,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="975" spans="1:13">
+    <row r="975" spans="1:13" hidden="1">
       <c r="A975" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49082,7 +49247,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="976" spans="1:13">
+    <row r="976" spans="1:13" hidden="1">
       <c r="A976" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49115,7 +49280,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="977" spans="1:13">
+    <row r="977" spans="1:13" hidden="1">
       <c r="A977" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49148,7 +49313,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="978" spans="1:13">
+    <row r="978" spans="1:13" hidden="1">
       <c r="A978" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49181,7 +49346,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="979" spans="1:13">
+    <row r="979" spans="1:13" hidden="1">
       <c r="A979" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49214,7 +49379,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="980" spans="1:13">
+    <row r="980" spans="1:13" hidden="1">
       <c r="A980" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49247,7 +49412,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="981" spans="1:13">
+    <row r="981" spans="1:13" hidden="1">
       <c r="A981" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49280,7 +49445,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="982" spans="1:13">
+    <row r="982" spans="1:13" hidden="1">
       <c r="A982" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49321,7 +49486,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="983" spans="1:13">
+    <row r="983" spans="1:13" hidden="1">
       <c r="A983" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49354,7 +49519,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="984" spans="1:13">
+    <row r="984" spans="1:13" hidden="1">
       <c r="A984" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49387,7 +49552,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="985" spans="1:13">
+    <row r="985" spans="1:13" hidden="1">
       <c r="A985" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49420,7 +49585,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="986" spans="1:13">
+    <row r="986" spans="1:13" hidden="1">
       <c r="A986" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49453,7 +49618,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="987" spans="1:13">
+    <row r="987" spans="1:13" hidden="1">
       <c r="A987" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49486,7 +49651,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="988" spans="1:13">
+    <row r="988" spans="1:13" hidden="1">
       <c r="A988" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49519,7 +49684,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="989" spans="1:13">
+    <row r="989" spans="1:13" hidden="1">
       <c r="A989" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49552,7 +49717,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="990" spans="1:13">
+    <row r="990" spans="1:13" hidden="1">
       <c r="A990" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49585,7 +49750,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="991" spans="1:13">
+    <row r="991" spans="1:13" hidden="1">
       <c r="A991" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49618,7 +49783,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="992" spans="1:13">
+    <row r="992" spans="1:13" hidden="1">
       <c r="A992" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49651,7 +49816,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="993" spans="1:13">
+    <row r="993" spans="1:13" hidden="1">
       <c r="A993" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49684,7 +49849,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="994" spans="1:13">
+    <row r="994" spans="1:13" hidden="1">
       <c r="A994" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49725,7 +49890,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="995" spans="1:13">
+    <row r="995" spans="1:13" hidden="1">
       <c r="A995" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49766,7 +49931,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="996" spans="1:13">
+    <row r="996" spans="1:13" hidden="1">
       <c r="A996" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49799,7 +49964,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="997" spans="1:13">
+    <row r="997" spans="1:13" hidden="1">
       <c r="A997" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49840,7 +50005,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="998" spans="1:13">
+    <row r="998" spans="1:13" hidden="1">
       <c r="A998" s="7" t="s">
         <v>1102</v>
       </c>
@@ -49881,7 +50046,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="999" spans="1:13">
+    <row r="999" spans="1:13" hidden="1">
       <c r="A999" s="7" t="s">
         <v>1102</v>
       </c>
@@ -69129,19 +69294,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="155" t="s">
         <v>1061</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="H1" s="153" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="H1" s="155" t="s">
         <v>1100</v>
       </c>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -69326,11 +69491,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="152"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -69350,9 +69515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F494" sqref="F494"/>
+      <selection pane="bottomLeft" activeCell="G507" sqref="G507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69370,11 +69535,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>2896</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
       <c r="I1" s="135" t="s">
         <v>3047</v>
       </c>
@@ -81868,22 +82033,22 @@
       </c>
     </row>
     <row r="459" spans="1:9" hidden="1">
-      <c r="A459" s="155"/>
-      <c r="B459" s="155"/>
-      <c r="C459" s="155"/>
-      <c r="D459" s="155" t="s">
+      <c r="A459" s="141"/>
+      <c r="B459" s="141"/>
+      <c r="C459" s="141"/>
+      <c r="D459" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E459" s="155" t="s">
+      <c r="E459" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F459" s="155" t="s">
+      <c r="F459" s="141" t="s">
         <v>3050</v>
       </c>
-      <c r="G459" s="155" t="s">
+      <c r="G459" s="141" t="s">
         <v>3051</v>
       </c>
-      <c r="H459" s="155" t="s">
+      <c r="H459" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I459" s="135" t="s">
@@ -81891,22 +82056,22 @@
       </c>
     </row>
     <row r="460" spans="1:9" hidden="1">
-      <c r="A460" s="155"/>
-      <c r="B460" s="155"/>
-      <c r="C460" s="155"/>
-      <c r="D460" s="155" t="s">
+      <c r="A460" s="141"/>
+      <c r="B460" s="141"/>
+      <c r="C460" s="141"/>
+      <c r="D460" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E460" s="155" t="s">
+      <c r="E460" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F460" s="155" t="s">
+      <c r="F460" s="141" t="s">
         <v>3052</v>
       </c>
-      <c r="G460" s="155" t="s">
+      <c r="G460" s="141" t="s">
         <v>3053</v>
       </c>
-      <c r="H460" s="155" t="s">
+      <c r="H460" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I460" s="135" t="s">
@@ -81914,22 +82079,22 @@
       </c>
     </row>
     <row r="461" spans="1:9" hidden="1">
-      <c r="A461" s="155"/>
-      <c r="B461" s="155"/>
-      <c r="C461" s="155"/>
-      <c r="D461" s="155" t="s">
+      <c r="A461" s="141"/>
+      <c r="B461" s="141"/>
+      <c r="C461" s="141"/>
+      <c r="D461" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E461" s="155" t="s">
+      <c r="E461" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F461" s="155" t="s">
+      <c r="F461" s="141" t="s">
         <v>3052</v>
       </c>
-      <c r="G461" s="155" t="s">
+      <c r="G461" s="141" t="s">
         <v>3056</v>
       </c>
-      <c r="H461" s="155" t="s">
+      <c r="H461" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I461" s="135" t="s">
@@ -81937,22 +82102,22 @@
       </c>
     </row>
     <row r="462" spans="1:9" hidden="1">
-      <c r="A462" s="155"/>
-      <c r="B462" s="155"/>
-      <c r="C462" s="155"/>
-      <c r="D462" s="155" t="s">
+      <c r="A462" s="141"/>
+      <c r="B462" s="141"/>
+      <c r="C462" s="141"/>
+      <c r="D462" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E462" s="155" t="s">
+      <c r="E462" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F462" s="155" t="s">
+      <c r="F462" s="141" t="s">
         <v>3054</v>
       </c>
-      <c r="G462" s="155" t="s">
+      <c r="G462" s="141" t="s">
         <v>3055</v>
       </c>
-      <c r="H462" s="155" t="s">
+      <c r="H462" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I462" s="135" t="s">
@@ -81960,22 +82125,22 @@
       </c>
     </row>
     <row r="463" spans="1:9" hidden="1">
-      <c r="A463" s="155"/>
-      <c r="B463" s="155"/>
-      <c r="C463" s="155"/>
-      <c r="D463" s="155" t="s">
+      <c r="A463" s="141"/>
+      <c r="B463" s="141"/>
+      <c r="C463" s="141"/>
+      <c r="D463" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E463" s="155" t="s">
+      <c r="E463" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F463" s="155" t="s">
+      <c r="F463" s="141" t="s">
         <v>3054</v>
       </c>
-      <c r="G463" s="155" t="s">
+      <c r="G463" s="141" t="s">
         <v>3057</v>
       </c>
-      <c r="H463" s="155" t="s">
+      <c r="H463" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I463" s="135" t="s">
@@ -81983,22 +82148,22 @@
       </c>
     </row>
     <row r="464" spans="1:9" hidden="1">
-      <c r="A464" s="155"/>
-      <c r="B464" s="155"/>
-      <c r="C464" s="155"/>
-      <c r="D464" s="155" t="s">
+      <c r="A464" s="141"/>
+      <c r="B464" s="141"/>
+      <c r="C464" s="141"/>
+      <c r="D464" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E464" s="155" t="s">
+      <c r="E464" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F464" s="155" t="s">
+      <c r="F464" s="141" t="s">
         <v>3054</v>
       </c>
-      <c r="G464" s="155" t="s">
+      <c r="G464" s="141" t="s">
         <v>3058</v>
       </c>
-      <c r="H464" s="155" t="s">
+      <c r="H464" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I464" s="135" t="s">
@@ -82006,22 +82171,22 @@
       </c>
     </row>
     <row r="465" spans="1:9" hidden="1">
-      <c r="A465" s="155"/>
-      <c r="B465" s="155"/>
-      <c r="C465" s="155"/>
-      <c r="D465" s="155" t="s">
+      <c r="A465" s="141"/>
+      <c r="B465" s="141"/>
+      <c r="C465" s="141"/>
+      <c r="D465" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E465" s="155" t="s">
+      <c r="E465" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F465" s="155" t="s">
+      <c r="F465" s="141" t="s">
         <v>3054</v>
       </c>
-      <c r="G465" s="155" t="s">
+      <c r="G465" s="141" t="s">
         <v>3059</v>
       </c>
-      <c r="H465" s="155" t="s">
+      <c r="H465" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I465" s="135" t="s">
@@ -82029,22 +82194,22 @@
       </c>
     </row>
     <row r="466" spans="1:9" hidden="1">
-      <c r="A466" s="155"/>
-      <c r="B466" s="155"/>
-      <c r="C466" s="155"/>
-      <c r="D466" s="155" t="s">
+      <c r="A466" s="141"/>
+      <c r="B466" s="141"/>
+      <c r="C466" s="141"/>
+      <c r="D466" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E466" s="155" t="s">
+      <c r="E466" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F466" s="155" t="s">
+      <c r="F466" s="141" t="s">
         <v>3054</v>
       </c>
-      <c r="G466" s="155" t="s">
+      <c r="G466" s="141" t="s">
         <v>3060</v>
       </c>
-      <c r="H466" s="155" t="s">
+      <c r="H466" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I466" s="135" t="s">
@@ -82052,22 +82217,22 @@
       </c>
     </row>
     <row r="467" spans="1:9" hidden="1">
-      <c r="A467" s="155"/>
-      <c r="B467" s="155"/>
-      <c r="C467" s="155"/>
-      <c r="D467" s="155" t="s">
+      <c r="A467" s="141"/>
+      <c r="B467" s="141"/>
+      <c r="C467" s="141"/>
+      <c r="D467" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E467" s="155" t="s">
+      <c r="E467" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F467" s="155" t="s">
+      <c r="F467" s="141" t="s">
         <v>3061</v>
       </c>
-      <c r="G467" s="155" t="s">
+      <c r="G467" s="141" t="s">
         <v>2846</v>
       </c>
-      <c r="H467" s="155" t="s">
+      <c r="H467" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I467" s="135" t="s">
@@ -82075,22 +82240,22 @@
       </c>
     </row>
     <row r="468" spans="1:9" hidden="1">
-      <c r="A468" s="155"/>
-      <c r="B468" s="155"/>
-      <c r="C468" s="155"/>
-      <c r="D468" s="155" t="s">
+      <c r="A468" s="141"/>
+      <c r="B468" s="141"/>
+      <c r="C468" s="141"/>
+      <c r="D468" s="141" t="s">
         <v>3048</v>
       </c>
-      <c r="E468" s="155" t="s">
+      <c r="E468" s="141" t="s">
         <v>3049</v>
       </c>
-      <c r="F468" s="155" t="s">
+      <c r="F468" s="141" t="s">
         <v>3063</v>
       </c>
-      <c r="G468" s="155" t="s">
+      <c r="G468" s="141" t="s">
         <v>3062</v>
       </c>
-      <c r="H468" s="155" t="s">
+      <c r="H468" s="141" t="s">
         <v>2501</v>
       </c>
       <c r="I468" s="135" t="s">
@@ -82098,70 +82263,70 @@
       </c>
     </row>
     <row r="469" spans="1:9" hidden="1">
-      <c r="A469" s="155"/>
-      <c r="B469" s="155"/>
-      <c r="C469" s="155"/>
-      <c r="D469" s="155"/>
-      <c r="E469" s="155"/>
-      <c r="F469" s="155"/>
-      <c r="G469" s="155"/>
-      <c r="H469" s="155"/>
-      <c r="I469" s="155"/>
+      <c r="A469" s="141"/>
+      <c r="B469" s="141"/>
+      <c r="C469" s="141"/>
+      <c r="D469" s="141"/>
+      <c r="E469" s="141"/>
+      <c r="F469" s="141"/>
+      <c r="G469" s="141"/>
+      <c r="H469" s="141"/>
+      <c r="I469" s="141"/>
     </row>
     <row r="470" spans="1:9" hidden="1">
-      <c r="A470" s="155"/>
-      <c r="B470" s="155"/>
-      <c r="C470" s="155"/>
-      <c r="D470" s="155"/>
-      <c r="E470" s="155"/>
-      <c r="F470" s="155"/>
-      <c r="G470" s="155"/>
-      <c r="H470" s="155"/>
-      <c r="I470" s="155"/>
+      <c r="A470" s="141"/>
+      <c r="B470" s="141"/>
+      <c r="C470" s="141"/>
+      <c r="D470" s="141"/>
+      <c r="E470" s="141"/>
+      <c r="F470" s="141"/>
+      <c r="G470" s="141"/>
+      <c r="H470" s="141"/>
+      <c r="I470" s="141"/>
     </row>
     <row r="471" spans="1:9" hidden="1">
-      <c r="A471" s="155"/>
-      <c r="B471" s="155"/>
-      <c r="C471" s="155"/>
-      <c r="D471" s="155"/>
-      <c r="E471" s="155"/>
-      <c r="F471" s="155"/>
-      <c r="G471" s="155"/>
-      <c r="H471" s="155"/>
-      <c r="I471" s="155"/>
+      <c r="A471" s="141"/>
+      <c r="B471" s="141"/>
+      <c r="C471" s="141"/>
+      <c r="D471" s="141"/>
+      <c r="E471" s="141"/>
+      <c r="F471" s="141"/>
+      <c r="G471" s="141"/>
+      <c r="H471" s="141"/>
+      <c r="I471" s="141"/>
     </row>
     <row r="472" spans="1:9" hidden="1">
-      <c r="A472" s="155"/>
-      <c r="B472" s="155"/>
-      <c r="C472" s="155"/>
-      <c r="D472" s="155"/>
-      <c r="E472" s="155"/>
-      <c r="F472" s="155"/>
-      <c r="G472" s="155"/>
-      <c r="H472" s="155"/>
-      <c r="I472" s="155"/>
+      <c r="A472" s="141"/>
+      <c r="B472" s="141"/>
+      <c r="C472" s="141"/>
+      <c r="D472" s="141"/>
+      <c r="E472" s="141"/>
+      <c r="F472" s="141"/>
+      <c r="G472" s="141"/>
+      <c r="H472" s="141"/>
+      <c r="I472" s="141"/>
     </row>
     <row r="473" spans="1:9" hidden="1">
-      <c r="A473" s="155"/>
-      <c r="B473" s="155"/>
-      <c r="C473" s="155"/>
-      <c r="D473" s="155"/>
-      <c r="E473" s="155"/>
-      <c r="F473" s="155"/>
-      <c r="G473" s="155"/>
-      <c r="H473" s="155"/>
-      <c r="I473" s="155"/>
+      <c r="A473" s="141"/>
+      <c r="B473" s="141"/>
+      <c r="C473" s="141"/>
+      <c r="D473" s="141"/>
+      <c r="E473" s="141"/>
+      <c r="F473" s="141"/>
+      <c r="G473" s="141"/>
+      <c r="H473" s="141"/>
+      <c r="I473" s="141"/>
     </row>
     <row r="474" spans="1:9" hidden="1">
-      <c r="A474" s="155"/>
-      <c r="B474" s="155"/>
-      <c r="C474" s="155"/>
-      <c r="D474" s="155"/>
-      <c r="E474" s="155"/>
-      <c r="F474" s="155"/>
-      <c r="G474" s="155"/>
-      <c r="H474" s="155"/>
-      <c r="I474" s="155"/>
+      <c r="A474" s="141"/>
+      <c r="B474" s="141"/>
+      <c r="C474" s="141"/>
+      <c r="D474" s="141"/>
+      <c r="E474" s="141"/>
+      <c r="F474" s="141"/>
+      <c r="G474" s="141"/>
+      <c r="H474" s="141"/>
+      <c r="I474" s="141"/>
     </row>
     <row r="475" spans="1:9" hidden="1">
       <c r="A475" s="139"/>
@@ -82540,8 +82705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -82928,6 +83093,642 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" style="140" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="140" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B1" s="140" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D4" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B5" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B6" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B7" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C7" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B8" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B9" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D9" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B10" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B11" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D11" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B12" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D12" s="140" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B13" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C13" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D13" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B14" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C14" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D14" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B15" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D15" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B16" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C16" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B17" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D17" s="140" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B18" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D18" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B19" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D19" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B20" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D20" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B21" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D21" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B22" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D22" s="140" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B23" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D23" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B24" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D24" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B25" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D25" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B26" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D26" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B27" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D27" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B28" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D28" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B29" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D29" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B30" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C30" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D30" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B31" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D31" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B32" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C32" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D32" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B33" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C33" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D33" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B34" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C34" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D34" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B35" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C35" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D35" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B36" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C36" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D36" s="140" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:K15"/>
   <sheetViews>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6210" tabRatio="539" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DE-PARA Tabelas" sheetId="1" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18597" uniqueCount="3125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18621" uniqueCount="3132">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9409,6 +9409,27 @@
   </si>
   <si>
     <t>VW_SKU</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Relatorio Follow LN\Relatorio Follow\ssis_controlador_follow.dtsx</t>
+  </si>
+  <si>
+    <t>(SC) Relatorio Follow</t>
+  </si>
+  <si>
+    <t>(EPT) STG</t>
+  </si>
+  <si>
+    <t>com.stg_follow_rascunho</t>
+  </si>
+  <si>
+    <t>com.stg_follow_compra</t>
+  </si>
+  <si>
+    <t>com.stg_follow_kit_sige</t>
+  </si>
+  <si>
+    <t>ods_follow</t>
   </si>
 </sst>
 </file>
@@ -10985,7 +11006,7 @@
   <autoFilter ref="A1:M1554">
     <filterColumn colId="2">
       <filters>
-        <filter val="stg_nfr_rascunho_cab"/>
+        <filter val="stg_pec_cab"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11039,11 +11060,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I493" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:I493">
     <filterColumn colId="6"/>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="MIS_SHARED_DIMENSION"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="Sequence Container" dataDxfId="14"/>
@@ -11072,13 +11089,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:E36" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="A1:E36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:E36"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ARQUIVO SQL"/>
-    <tableColumn id="2" name="JUVENTUS" dataDxfId="4"/>
-    <tableColumn id="3" name="CRICIUMA" dataDxfId="3"/>
-    <tableColumn id="4" name="GitHub" dataDxfId="2"/>
+    <tableColumn id="2" name="JUVENTUS" dataDxfId="2"/>
+    <tableColumn id="3" name="CRICIUMA" dataDxfId="1"/>
+    <tableColumn id="4" name="GitHub" dataDxfId="0"/>
     <tableColumn id="5" name="VIEW"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -15576,9 +15593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A898" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I906" sqref="I906"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1073" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1092" sqref="K1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -45978,7 +45995,7 @@
       <c r="L882" s="7"/>
       <c r="M882" s="10"/>
     </row>
-    <row r="883" spans="1:13">
+    <row r="883" spans="1:13" hidden="1">
       <c r="A883" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46011,7 +46028,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="884" spans="1:13">
+    <row r="884" spans="1:13" hidden="1">
       <c r="A884" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46052,7 +46069,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="885" spans="1:13">
+    <row r="885" spans="1:13" hidden="1">
       <c r="A885" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46093,7 +46110,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="886" spans="1:13">
+    <row r="886" spans="1:13" hidden="1">
       <c r="A886" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46134,7 +46151,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="887" spans="1:13">
+    <row r="887" spans="1:13" hidden="1">
       <c r="A887" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46175,7 +46192,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="888" spans="1:13">
+    <row r="888" spans="1:13" hidden="1">
       <c r="A888" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46216,7 +46233,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="889" spans="1:13">
+    <row r="889" spans="1:13" hidden="1">
       <c r="A889" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46249,7 +46266,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="890" spans="1:13">
+    <row r="890" spans="1:13" hidden="1">
       <c r="A890" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46282,7 +46299,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="891" spans="1:13">
+    <row r="891" spans="1:13" hidden="1">
       <c r="A891" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46315,7 +46332,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="892" spans="1:13">
+    <row r="892" spans="1:13" hidden="1">
       <c r="A892" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46348,7 +46365,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="893" spans="1:13">
+    <row r="893" spans="1:13" hidden="1">
       <c r="A893" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46381,7 +46398,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="894" spans="1:13">
+    <row r="894" spans="1:13" hidden="1">
       <c r="A894" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46414,7 +46431,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="895" spans="1:13">
+    <row r="895" spans="1:13" hidden="1">
       <c r="A895" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46447,7 +46464,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="896" spans="1:13">
+    <row r="896" spans="1:13" hidden="1">
       <c r="A896" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46480,7 +46497,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="897" spans="1:13">
+    <row r="897" spans="1:13" hidden="1">
       <c r="A897" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46513,7 +46530,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="898" spans="1:13">
+    <row r="898" spans="1:13" hidden="1">
       <c r="A898" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46546,7 +46563,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="899" spans="1:13">
+    <row r="899" spans="1:13" hidden="1">
       <c r="A899" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46579,7 +46596,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="900" spans="1:13">
+    <row r="900" spans="1:13" hidden="1">
       <c r="A900" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46612,7 +46629,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="901" spans="1:13">
+    <row r="901" spans="1:13" hidden="1">
       <c r="A901" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46645,7 +46662,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="902" spans="1:13">
+    <row r="902" spans="1:13" hidden="1">
       <c r="A902" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46678,7 +46695,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="903" spans="1:13">
+    <row r="903" spans="1:13" hidden="1">
       <c r="A903" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46711,7 +46728,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="904" spans="1:13">
+    <row r="904" spans="1:13" hidden="1">
       <c r="A904" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46744,7 +46761,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="905" spans="1:13">
+    <row r="905" spans="1:13" hidden="1">
       <c r="A905" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46777,7 +46794,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="906" spans="1:13">
+    <row r="906" spans="1:13" hidden="1">
       <c r="A906" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46818,7 +46835,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="907" spans="1:13">
+    <row r="907" spans="1:13" hidden="1">
       <c r="A907" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46851,7 +46868,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="908" spans="1:13">
+    <row r="908" spans="1:13" hidden="1">
       <c r="A908" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46884,7 +46901,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="909" spans="1:13">
+    <row r="909" spans="1:13" hidden="1">
       <c r="A909" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46917,7 +46934,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="910" spans="1:13">
+    <row r="910" spans="1:13" hidden="1">
       <c r="A910" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46950,7 +46967,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="911" spans="1:13">
+    <row r="911" spans="1:13" hidden="1">
       <c r="A911" s="7" t="s">
         <v>1102</v>
       </c>
@@ -46983,7 +47000,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="912" spans="1:13">
+    <row r="912" spans="1:13" hidden="1">
       <c r="A912" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47016,7 +47033,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="913" spans="1:13">
+    <row r="913" spans="1:13" hidden="1">
       <c r="A913" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47049,7 +47066,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="914" spans="1:13">
+    <row r="914" spans="1:13" hidden="1">
       <c r="A914" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47084,7 +47101,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="915" spans="1:13">
+    <row r="915" spans="1:13" hidden="1">
       <c r="A915" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47119,7 +47136,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="916" spans="1:13">
+    <row r="916" spans="1:13" hidden="1">
       <c r="A916" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47160,7 +47177,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="917" spans="1:13">
+    <row r="917" spans="1:13" hidden="1">
       <c r="A917" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47201,7 +47218,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="918" spans="1:13">
+    <row r="918" spans="1:13" hidden="1">
       <c r="A918" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47234,7 +47251,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="919" spans="1:13">
+    <row r="919" spans="1:13" hidden="1">
       <c r="A919" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47267,7 +47284,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="920" spans="1:13">
+    <row r="920" spans="1:13" hidden="1">
       <c r="A920" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47300,7 +47317,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="921" spans="1:13">
+    <row r="921" spans="1:13" hidden="1">
       <c r="A921" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47333,7 +47350,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="922" spans="1:13">
+    <row r="922" spans="1:13" hidden="1">
       <c r="A922" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47366,7 +47383,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="923" spans="1:13">
+    <row r="923" spans="1:13" hidden="1">
       <c r="A923" s="7" t="s">
         <v>1102</v>
       </c>
@@ -47399,7 +47416,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="924" spans="1:13">
+    <row r="924" spans="1:13" hidden="1">
       <c r="A924" s="7" t="s">
         <v>1102</v>
       </c>
@@ -52624,7 +52641,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1073" spans="1:13" hidden="1">
+    <row r="1073" spans="1:13">
       <c r="A1073" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52665,7 +52682,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1074" spans="1:13" hidden="1">
+    <row r="1074" spans="1:13">
       <c r="A1074" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52706,7 +52723,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1075" spans="1:13" hidden="1">
+    <row r="1075" spans="1:13">
       <c r="A1075" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52739,7 +52756,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1076" spans="1:13" hidden="1">
+    <row r="1076" spans="1:13">
       <c r="A1076" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52780,7 +52797,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1077" spans="1:13" hidden="1">
+    <row r="1077" spans="1:13">
       <c r="A1077" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52821,7 +52838,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1078" spans="1:13" hidden="1">
+    <row r="1078" spans="1:13">
       <c r="A1078" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52862,7 +52879,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1079" spans="1:13" hidden="1">
+    <row r="1079" spans="1:13">
       <c r="A1079" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52895,7 +52912,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1080" spans="1:13" hidden="1">
+    <row r="1080" spans="1:13">
       <c r="A1080" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52936,7 +52953,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1081" spans="1:13" hidden="1">
+    <row r="1081" spans="1:13">
       <c r="A1081" s="6" t="s">
         <v>1102</v>
       </c>
@@ -52969,7 +52986,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1082" spans="1:13" hidden="1">
+    <row r="1082" spans="1:13">
       <c r="A1082" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53004,7 +53021,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1083" spans="1:13" hidden="1">
+    <row r="1083" spans="1:13">
       <c r="A1083" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53037,7 +53054,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1084" spans="1:13" hidden="1">
+    <row r="1084" spans="1:13">
       <c r="A1084" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53070,7 +53087,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1085" spans="1:13" hidden="1">
+    <row r="1085" spans="1:13">
       <c r="A1085" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53103,7 +53120,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1086" spans="1:13" hidden="1">
+    <row r="1086" spans="1:13">
       <c r="A1086" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53136,7 +53153,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1087" spans="1:13" hidden="1">
+    <row r="1087" spans="1:13">
       <c r="A1087" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53177,7 +53194,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1088" spans="1:13" hidden="1">
+    <row r="1088" spans="1:13">
       <c r="A1088" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53210,7 +53227,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1089" spans="1:13" hidden="1">
+    <row r="1089" spans="1:13">
       <c r="A1089" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53243,7 +53260,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1090" spans="1:13" hidden="1">
+    <row r="1090" spans="1:13">
       <c r="A1090" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53276,7 +53293,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1091" spans="1:13" s="7" customFormat="1" hidden="1">
+    <row r="1091" spans="1:13" s="7" customFormat="1">
       <c r="A1091" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53306,7 +53323,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1092" spans="1:13" hidden="1">
+    <row r="1092" spans="1:13">
       <c r="A1092" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53347,7 +53364,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1093" spans="1:13" hidden="1">
+    <row r="1093" spans="1:13">
       <c r="A1093" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53380,7 +53397,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1094" spans="1:13" hidden="1">
+    <row r="1094" spans="1:13">
       <c r="A1094" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53413,7 +53430,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1095" spans="1:13" hidden="1">
+    <row r="1095" spans="1:13">
       <c r="A1095" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53446,7 +53463,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1096" spans="1:13" hidden="1">
+    <row r="1096" spans="1:13">
       <c r="A1096" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53479,7 +53496,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1097" spans="1:13" hidden="1">
+    <row r="1097" spans="1:13">
       <c r="A1097" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53520,7 +53537,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1098" spans="1:13" hidden="1">
+    <row r="1098" spans="1:13">
       <c r="A1098" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53561,7 +53578,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1099" spans="1:13" hidden="1">
+    <row r="1099" spans="1:13">
       <c r="A1099" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53594,7 +53611,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1100" spans="1:13" hidden="1">
+    <row r="1100" spans="1:13">
       <c r="A1100" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53635,7 +53652,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1101" spans="1:13" hidden="1">
+    <row r="1101" spans="1:13">
       <c r="A1101" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53676,7 +53693,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1102" spans="1:13" hidden="1">
+    <row r="1102" spans="1:13">
       <c r="A1102" s="6" t="s">
         <v>1102</v>
       </c>
@@ -53709,7 +53726,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="1103" spans="1:13" hidden="1">
+    <row r="1103" spans="1:13">
       <c r="A1103" s="6" t="s">
         <v>1102</v>
       </c>
@@ -69515,9 +69532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I493"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G507" sqref="G507"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D469" sqref="D469:E472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69573,7 +69590,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69599,7 +69616,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69625,7 +69642,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69651,7 +69668,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69677,7 +69694,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69703,7 +69720,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69729,7 +69746,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69755,7 +69772,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69781,7 +69798,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69807,7 +69824,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69833,7 +69850,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69859,7 +69876,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69885,7 +69902,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69911,7 +69928,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69937,7 +69954,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69963,7 +69980,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69989,7 +70006,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70015,7 +70032,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70041,7 +70058,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70067,7 +70084,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70093,7 +70110,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70119,7 +70136,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70145,7 +70162,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70171,7 +70188,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1">
+    <row r="26" spans="1:8">
       <c r="A26" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70197,7 +70214,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70223,7 +70240,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70249,7 +70266,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70275,7 +70292,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70301,7 +70318,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70327,7 +70344,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70353,7 +70370,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70379,7 +70396,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70405,7 +70422,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70431,7 +70448,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70457,7 +70474,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70483,7 +70500,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70509,7 +70526,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70535,7 +70552,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70561,7 +70578,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70587,7 +70604,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70613,7 +70630,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70639,7 +70656,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70665,7 +70682,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70691,7 +70708,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70717,7 +70734,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8">
       <c r="A47" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70743,7 +70760,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8">
       <c r="A48" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70769,7 +70786,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70795,7 +70812,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70821,7 +70838,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70847,7 +70864,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70873,7 +70890,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70899,7 +70916,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70925,7 +70942,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70951,7 +70968,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70977,7 +70994,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8">
       <c r="A57" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71003,7 +71020,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71029,7 +71046,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71055,7 +71072,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71081,7 +71098,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71107,7 +71124,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71133,7 +71150,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71159,7 +71176,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71185,7 +71202,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71211,7 +71228,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71237,7 +71254,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71263,7 +71280,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71289,7 +71306,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71315,7 +71332,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71341,7 +71358,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71367,7 +71384,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71393,7 +71410,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71419,7 +71436,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71445,7 +71462,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71471,7 +71488,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71497,7 +71514,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71523,7 +71540,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71549,7 +71566,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71575,7 +71592,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71601,7 +71618,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71627,7 +71644,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71653,7 +71670,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71679,7 +71696,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71705,7 +71722,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71731,7 +71748,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71757,7 +71774,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71783,7 +71800,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71809,7 +71826,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71835,7 +71852,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71861,7 +71878,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71887,7 +71904,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71913,7 +71930,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71939,7 +71956,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71965,7 +71982,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71991,7 +72008,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72017,7 +72034,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72043,7 +72060,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72069,7 +72086,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72095,7 +72112,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72121,7 +72138,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72147,7 +72164,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72173,7 +72190,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72199,7 +72216,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72225,7 +72242,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72251,7 +72268,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72277,7 +72294,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72303,7 +72320,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72329,7 +72346,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72355,7 +72372,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72381,7 +72398,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72407,7 +72424,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72433,7 +72450,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72459,7 +72476,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72485,7 +72502,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72511,7 +72528,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72537,7 +72554,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72563,7 +72580,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72589,7 +72606,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72615,7 +72632,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72641,7 +72658,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72667,7 +72684,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72693,7 +72710,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72719,7 +72736,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72745,7 +72762,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72771,7 +72788,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72797,7 +72814,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72823,7 +72840,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8">
       <c r="A128" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72849,7 +72866,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8">
       <c r="A129" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72875,7 +72892,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8">
       <c r="A130" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72901,7 +72918,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72927,7 +72944,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72953,7 +72970,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72979,7 +72996,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73005,7 +73022,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8">
       <c r="A135" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73031,7 +73048,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73057,7 +73074,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73083,7 +73100,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73109,7 +73126,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73135,7 +73152,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73161,7 +73178,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73187,7 +73204,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73213,7 +73230,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73239,7 +73256,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73265,7 +73282,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73291,7 +73308,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73317,7 +73334,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73343,7 +73360,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73369,7 +73386,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73395,7 +73412,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73421,7 +73438,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73450,7 +73467,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73479,7 +73496,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73508,7 +73525,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73537,7 +73554,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73566,7 +73583,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73595,7 +73612,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73624,7 +73641,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73653,7 +73670,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73682,7 +73699,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73711,7 +73728,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73740,7 +73757,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73769,7 +73786,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73798,7 +73815,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73827,7 +73844,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73856,7 +73873,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73885,7 +73902,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73914,7 +73931,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9">
       <c r="A168" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73943,7 +73960,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9">
       <c r="A169" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73972,7 +73989,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74001,7 +74018,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9">
       <c r="A171" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74030,7 +74047,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9">
       <c r="A172" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74059,7 +74076,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9">
       <c r="A173" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74088,7 +74105,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9">
       <c r="A174" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74117,7 +74134,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9">
       <c r="A175" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74146,7 +74163,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9">
       <c r="A176" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74175,7 +74192,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9">
       <c r="A177" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74204,7 +74221,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74233,7 +74250,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74262,7 +74279,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74291,7 +74308,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74320,7 +74337,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74349,7 +74366,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74378,7 +74395,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74407,7 +74424,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9">
       <c r="A185" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74436,7 +74453,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74462,7 +74479,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9">
       <c r="A187" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74488,7 +74505,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74592,7 +74609,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74618,7 +74635,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74722,7 +74739,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74956,7 +74973,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74982,7 +74999,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1">
+    <row r="207" spans="1:8">
       <c r="A207" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75008,7 +75025,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1">
+    <row r="208" spans="1:8">
       <c r="A208" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75034,7 +75051,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1">
+    <row r="209" spans="1:8">
       <c r="A209" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75086,7 +75103,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1">
+    <row r="211" spans="1:8">
       <c r="A211" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75112,7 +75129,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1">
+    <row r="212" spans="1:8">
       <c r="A212" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75138,7 +75155,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1">
+    <row r="213" spans="1:8">
       <c r="A213" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75164,7 +75181,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1">
+    <row r="214" spans="1:8">
       <c r="A214" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75190,7 +75207,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1">
+    <row r="215" spans="1:8">
       <c r="A215" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75216,7 +75233,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1">
+    <row r="216" spans="1:8">
       <c r="A216" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75242,7 +75259,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1">
+    <row r="217" spans="1:8">
       <c r="A217" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75268,7 +75285,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1">
+    <row r="218" spans="1:8">
       <c r="A218" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75294,7 +75311,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1">
+    <row r="219" spans="1:8">
       <c r="A219" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75320,7 +75337,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1">
+    <row r="220" spans="1:8">
       <c r="A220" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75346,7 +75363,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1">
+    <row r="221" spans="1:8">
       <c r="A221" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75372,7 +75389,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1">
+    <row r="222" spans="1:8">
       <c r="A222" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75398,7 +75415,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1">
+    <row r="223" spans="1:8">
       <c r="A223" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75424,7 +75441,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1">
+    <row r="224" spans="1:8">
       <c r="A224" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75450,7 +75467,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75476,7 +75493,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75502,7 +75519,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="A227" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75528,7 +75545,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="A228" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75554,7 +75571,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="A229" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75580,7 +75597,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="A230" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75606,7 +75623,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75632,7 +75649,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75658,7 +75675,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75687,7 +75704,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75716,7 +75733,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75745,7 +75762,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75774,7 +75791,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="A237" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75800,7 +75817,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75826,7 +75843,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75852,7 +75869,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75881,7 +75898,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75907,7 +75924,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75933,7 +75950,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75962,7 +75979,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" s="135" t="s">
         <v>2626</v>
       </c>
@@ -75988,7 +76005,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9">
       <c r="A245" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76017,7 +76034,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76043,7 +76060,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76069,7 +76086,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1">
+    <row r="248" spans="1:9">
       <c r="A248" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76095,7 +76112,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1">
+    <row r="249" spans="1:9">
       <c r="A249" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76121,7 +76138,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1">
+    <row r="250" spans="1:9">
       <c r="A250" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76147,7 +76164,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9">
       <c r="A251" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76173,7 +76190,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:9">
       <c r="A252" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76199,7 +76216,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1">
+    <row r="253" spans="1:9">
       <c r="A253" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76225,7 +76242,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1">
+    <row r="254" spans="1:9">
       <c r="A254" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76254,7 +76271,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1">
+    <row r="255" spans="1:9">
       <c r="A255" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76283,7 +76300,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1">
+    <row r="256" spans="1:9">
       <c r="A256" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76312,7 +76329,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1">
+    <row r="257" spans="1:9">
       <c r="A257" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76341,7 +76358,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1">
+    <row r="258" spans="1:9">
       <c r="A258" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76370,7 +76387,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1">
+    <row r="259" spans="1:9">
       <c r="A259" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76399,7 +76416,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1">
+    <row r="260" spans="1:9">
       <c r="A260" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76428,7 +76445,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1">
+    <row r="261" spans="1:9">
       <c r="A261" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76457,7 +76474,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1">
+    <row r="262" spans="1:9">
       <c r="A262" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76486,7 +76503,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1">
+    <row r="263" spans="1:9">
       <c r="A263" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76515,7 +76532,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1">
+    <row r="264" spans="1:9">
       <c r="A264" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76544,7 +76561,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1">
+    <row r="265" spans="1:9">
       <c r="A265" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76573,7 +76590,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1">
+    <row r="266" spans="1:9">
       <c r="A266" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76602,7 +76619,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1">
+    <row r="267" spans="1:9">
       <c r="A267" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76631,7 +76648,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1">
+    <row r="268" spans="1:9">
       <c r="A268" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76660,7 +76677,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1">
+    <row r="269" spans="1:9">
       <c r="A269" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76689,7 +76706,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1">
+    <row r="270" spans="1:9">
       <c r="A270" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76718,7 +76735,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1">
+    <row r="271" spans="1:9">
       <c r="A271" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76747,7 +76764,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1">
+    <row r="272" spans="1:9">
       <c r="A272" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76776,7 +76793,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1">
+    <row r="273" spans="1:9">
       <c r="A273" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76805,7 +76822,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1">
+    <row r="274" spans="1:9">
       <c r="A274" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76834,7 +76851,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1">
+    <row r="275" spans="1:9">
       <c r="A275" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76863,7 +76880,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1">
+    <row r="276" spans="1:9">
       <c r="A276" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76892,7 +76909,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1">
+    <row r="277" spans="1:9">
       <c r="A277" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76921,7 +76938,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1">
+    <row r="278" spans="1:9">
       <c r="A278" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76950,7 +76967,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1">
+    <row r="279" spans="1:9">
       <c r="A279" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76979,7 +76996,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1">
+    <row r="280" spans="1:9">
       <c r="A280" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77008,7 +77025,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77037,7 +77054,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1">
+    <row r="282" spans="1:9">
       <c r="A282" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77066,7 +77083,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9">
       <c r="A283" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77095,7 +77112,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1">
+    <row r="284" spans="1:9">
       <c r="A284" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77124,7 +77141,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9">
       <c r="A285" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77153,7 +77170,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1">
+    <row r="286" spans="1:9">
       <c r="A286" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77182,7 +77199,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1">
+    <row r="287" spans="1:9">
       <c r="A287" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77211,7 +77228,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1">
+    <row r="288" spans="1:9">
       <c r="A288" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77240,7 +77257,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1">
+    <row r="289" spans="1:9">
       <c r="A289" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77269,7 +77286,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1">
+    <row r="290" spans="1:9">
       <c r="A290" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77298,7 +77315,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1">
+    <row r="291" spans="1:9">
       <c r="A291" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77327,7 +77344,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1">
+    <row r="292" spans="1:9">
       <c r="A292" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77356,7 +77373,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1">
+    <row r="293" spans="1:9">
       <c r="A293" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77385,7 +77402,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9">
       <c r="A294" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77414,7 +77431,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1">
+    <row r="295" spans="1:9">
       <c r="A295" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77443,7 +77460,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1">
+    <row r="296" spans="1:9">
       <c r="A296" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77472,7 +77489,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1">
+    <row r="297" spans="1:9">
       <c r="A297" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77501,7 +77518,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1">
+    <row r="298" spans="1:9">
       <c r="A298" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77530,7 +77547,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1">
+    <row r="299" spans="1:9">
       <c r="A299" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77559,7 +77576,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1">
+    <row r="300" spans="1:9">
       <c r="A300" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77588,7 +77605,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1">
+    <row r="301" spans="1:9">
       <c r="A301" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77617,7 +77634,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1">
+    <row r="302" spans="1:9">
       <c r="A302" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77646,7 +77663,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1">
+    <row r="303" spans="1:9">
       <c r="A303" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77675,7 +77692,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1">
+    <row r="304" spans="1:9">
       <c r="A304" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77704,7 +77721,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1">
+    <row r="305" spans="1:9">
       <c r="A305" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77733,7 +77750,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:9">
       <c r="A306" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77762,7 +77779,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1">
+    <row r="307" spans="1:9">
       <c r="A307" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77791,7 +77808,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1">
+    <row r="308" spans="1:9">
       <c r="A308" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77820,7 +77837,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1">
+    <row r="309" spans="1:9">
       <c r="A309" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77849,7 +77866,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1">
+    <row r="310" spans="1:9">
       <c r="A310" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77878,7 +77895,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1">
+    <row r="311" spans="1:9">
       <c r="A311" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77907,7 +77924,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1">
+    <row r="312" spans="1:9">
       <c r="A312" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77936,7 +77953,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1">
+    <row r="313" spans="1:9">
       <c r="A313" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77965,7 +77982,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1">
+    <row r="314" spans="1:9">
       <c r="A314" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77994,7 +78011,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1">
+    <row r="315" spans="1:9">
       <c r="A315" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78023,7 +78040,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1">
+    <row r="316" spans="1:9">
       <c r="A316" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78052,7 +78069,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1">
+    <row r="317" spans="1:9">
       <c r="A317" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78081,7 +78098,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1">
+    <row r="318" spans="1:9">
       <c r="A318" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78110,7 +78127,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1">
+    <row r="319" spans="1:9">
       <c r="A319" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78139,7 +78156,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1">
+    <row r="320" spans="1:9">
       <c r="A320" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78168,7 +78185,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1">
+    <row r="321" spans="1:9">
       <c r="A321" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78197,7 +78214,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1">
+    <row r="322" spans="1:9">
       <c r="A322" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78226,7 +78243,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1">
+    <row r="323" spans="1:9">
       <c r="A323" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78255,7 +78272,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1">
+    <row r="324" spans="1:9">
       <c r="A324" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78284,7 +78301,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1">
+    <row r="325" spans="1:9">
       <c r="A325" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78313,7 +78330,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1">
+    <row r="326" spans="1:9">
       <c r="A326" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78342,7 +78359,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:9">
       <c r="A327" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78371,7 +78388,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1">
+    <row r="328" spans="1:9">
       <c r="A328" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78400,7 +78417,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1">
+    <row r="329" spans="1:9">
       <c r="A329" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78429,7 +78446,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1">
+    <row r="330" spans="1:9">
       <c r="A330" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78458,7 +78475,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1">
+    <row r="331" spans="1:9">
       <c r="A331" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78487,7 +78504,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1">
+    <row r="332" spans="1:9">
       <c r="A332" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78516,7 +78533,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1">
+    <row r="333" spans="1:9">
       <c r="A333" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78545,7 +78562,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1">
+    <row r="334" spans="1:9">
       <c r="A334" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78574,7 +78591,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1">
+    <row r="335" spans="1:9">
       <c r="A335" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78603,7 +78620,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1">
+    <row r="336" spans="1:9">
       <c r="A336" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78629,7 +78646,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1">
+    <row r="337" spans="1:8">
       <c r="A337" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78655,7 +78672,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1">
+    <row r="338" spans="1:8">
       <c r="A338" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78681,7 +78698,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1">
+    <row r="339" spans="1:8">
       <c r="A339" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78707,7 +78724,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1">
+    <row r="340" spans="1:8">
       <c r="A340" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78733,7 +78750,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1">
+    <row r="341" spans="1:8">
       <c r="A341" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78759,7 +78776,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1">
+    <row r="342" spans="1:8">
       <c r="A342" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78785,7 +78802,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1">
+    <row r="343" spans="1:8">
       <c r="A343" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78811,7 +78828,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1">
+    <row r="344" spans="1:8">
       <c r="A344" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78837,7 +78854,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1">
+    <row r="345" spans="1:8">
       <c r="A345" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78863,7 +78880,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1">
+    <row r="346" spans="1:8">
       <c r="A346" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78889,7 +78906,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1">
+    <row r="347" spans="1:8">
       <c r="A347" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78915,7 +78932,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1">
+    <row r="348" spans="1:8">
       <c r="A348" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78941,7 +78958,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1">
+    <row r="349" spans="1:8">
       <c r="A349" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78967,7 +78984,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1">
+    <row r="350" spans="1:8">
       <c r="A350" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78993,7 +79010,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1">
+    <row r="351" spans="1:8">
       <c r="A351" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79019,7 +79036,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1">
+    <row r="352" spans="1:8">
       <c r="A352" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79045,7 +79062,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1">
+    <row r="353" spans="1:9">
       <c r="A353" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79071,7 +79088,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1">
+    <row r="354" spans="1:9">
       <c r="A354" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79097,7 +79114,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1">
+    <row r="355" spans="1:9">
       <c r="A355" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79126,7 +79143,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1">
+    <row r="356" spans="1:9">
       <c r="A356" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79155,7 +79172,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1">
+    <row r="357" spans="1:9">
       <c r="A357" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79184,7 +79201,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1">
+    <row r="358" spans="1:9">
       <c r="A358" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79213,7 +79230,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1">
+    <row r="359" spans="1:9">
       <c r="A359" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79242,7 +79259,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1">
+    <row r="360" spans="1:9">
       <c r="A360" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79271,7 +79288,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1">
+    <row r="361" spans="1:9">
       <c r="A361" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79300,7 +79317,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1">
+    <row r="362" spans="1:9">
       <c r="A362" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79329,7 +79346,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1">
+    <row r="363" spans="1:9">
       <c r="A363" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79358,7 +79375,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1">
+    <row r="364" spans="1:9">
       <c r="A364" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79387,7 +79404,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1">
+    <row r="365" spans="1:9">
       <c r="A365" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79416,7 +79433,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1">
+    <row r="366" spans="1:9">
       <c r="A366" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79445,7 +79462,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1">
+    <row r="367" spans="1:9">
       <c r="A367" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79474,7 +79491,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1">
+    <row r="368" spans="1:9">
       <c r="A368" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79503,7 +79520,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1">
+    <row r="369" spans="1:9">
       <c r="A369" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79532,7 +79549,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1">
+    <row r="370" spans="1:9">
       <c r="A370" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79561,7 +79578,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1">
+    <row r="371" spans="1:9">
       <c r="A371" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79590,7 +79607,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1">
+    <row r="372" spans="1:9">
       <c r="A372" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79619,7 +79636,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1">
+    <row r="373" spans="1:9">
       <c r="A373" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79648,7 +79665,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1">
+    <row r="374" spans="1:9">
       <c r="A374" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79677,7 +79694,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1">
+    <row r="375" spans="1:9">
       <c r="A375" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79706,7 +79723,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1">
+    <row r="376" spans="1:9">
       <c r="A376" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79735,7 +79752,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1">
+    <row r="377" spans="1:9">
       <c r="A377" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79764,7 +79781,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1">
+    <row r="378" spans="1:9">
       <c r="A378" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79793,7 +79810,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1">
+    <row r="379" spans="1:9">
       <c r="A379" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79822,7 +79839,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1">
+    <row r="380" spans="1:9">
       <c r="A380" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79851,7 +79868,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1">
+    <row r="381" spans="1:9">
       <c r="A381" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79880,7 +79897,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1">
+    <row r="382" spans="1:9">
       <c r="A382" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79909,7 +79926,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1">
+    <row r="383" spans="1:9">
       <c r="A383" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79938,7 +79955,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1">
+    <row r="384" spans="1:9">
       <c r="A384" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79967,7 +79984,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1">
+    <row r="385" spans="1:9">
       <c r="A385" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79996,7 +80013,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1">
+    <row r="386" spans="1:9">
       <c r="A386" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80025,7 +80042,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1">
+    <row r="387" spans="1:9">
       <c r="A387" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80054,7 +80071,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1">
+    <row r="388" spans="1:9">
       <c r="A388" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80083,7 +80100,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1">
+    <row r="389" spans="1:9">
       <c r="A389" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80112,7 +80129,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1">
+    <row r="390" spans="1:9">
       <c r="A390" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80141,7 +80158,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1">
+    <row r="391" spans="1:9">
       <c r="A391" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80170,7 +80187,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1">
+    <row r="392" spans="1:9">
       <c r="A392" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80199,7 +80216,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1">
+    <row r="393" spans="1:9">
       <c r="A393" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80228,7 +80245,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1">
+    <row r="394" spans="1:9">
       <c r="A394" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80257,7 +80274,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1">
+    <row r="395" spans="1:9">
       <c r="A395" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80286,7 +80303,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1">
+    <row r="396" spans="1:9">
       <c r="A396" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80315,7 +80332,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1">
+    <row r="397" spans="1:9">
       <c r="A397" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80344,7 +80361,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1">
+    <row r="398" spans="1:9">
       <c r="A398" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80373,7 +80390,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1">
+    <row r="399" spans="1:9">
       <c r="A399" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80402,7 +80419,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1">
+    <row r="400" spans="1:9">
       <c r="A400" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80431,7 +80448,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1">
+    <row r="401" spans="1:9">
       <c r="A401" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80460,7 +80477,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1">
+    <row r="402" spans="1:9">
       <c r="A402" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80489,7 +80506,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1">
+    <row r="403" spans="1:9">
       <c r="A403" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80518,7 +80535,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1">
+    <row r="404" spans="1:9">
       <c r="A404" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80547,7 +80564,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1">
+    <row r="405" spans="1:9">
       <c r="A405" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80576,7 +80593,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1">
+    <row r="406" spans="1:9">
       <c r="A406" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80605,7 +80622,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1">
+    <row r="407" spans="1:9">
       <c r="A407" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80634,7 +80651,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1">
+    <row r="408" spans="1:9">
       <c r="A408" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80663,7 +80680,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1">
+    <row r="409" spans="1:9">
       <c r="A409" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80692,7 +80709,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1">
+    <row r="410" spans="1:9">
       <c r="A410" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80721,7 +80738,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1">
+    <row r="411" spans="1:9">
       <c r="A411" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80750,7 +80767,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1">
+    <row r="412" spans="1:9">
       <c r="A412" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80779,7 +80796,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1">
+    <row r="413" spans="1:9">
       <c r="A413" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80808,7 +80825,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1">
+    <row r="414" spans="1:9">
       <c r="A414" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80837,7 +80854,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1">
+    <row r="415" spans="1:9">
       <c r="A415" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80866,7 +80883,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1">
+    <row r="416" spans="1:9">
       <c r="A416" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80895,7 +80912,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1">
+    <row r="417" spans="1:9">
       <c r="A417" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80924,7 +80941,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1">
+    <row r="418" spans="1:9">
       <c r="A418" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80953,7 +80970,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1">
+    <row r="419" spans="1:9">
       <c r="A419" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80982,7 +80999,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1">
+    <row r="420" spans="1:9">
       <c r="A420" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81011,7 +81028,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1">
+    <row r="421" spans="1:9">
       <c r="A421" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81040,7 +81057,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1">
+    <row r="422" spans="1:9">
       <c r="A422" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81069,7 +81086,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1">
+    <row r="423" spans="1:9">
       <c r="A423" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81098,7 +81115,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1">
+    <row r="424" spans="1:9">
       <c r="A424" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81127,7 +81144,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1">
+    <row r="425" spans="1:9">
       <c r="A425" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81156,7 +81173,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1">
+    <row r="426" spans="1:9">
       <c r="A426" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81185,7 +81202,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1">
+    <row r="427" spans="1:9">
       <c r="A427" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81214,7 +81231,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1">
+    <row r="428" spans="1:9">
       <c r="A428" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81243,7 +81260,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1">
+    <row r="429" spans="1:9">
       <c r="A429" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81272,7 +81289,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1">
+    <row r="430" spans="1:9">
       <c r="A430" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81301,7 +81318,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1">
+    <row r="431" spans="1:9">
       <c r="A431" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81330,7 +81347,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1">
+    <row r="432" spans="1:9">
       <c r="A432" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81359,7 +81376,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1">
+    <row r="433" spans="1:9">
       <c r="A433" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81388,7 +81405,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1">
+    <row r="434" spans="1:9">
       <c r="A434" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81417,7 +81434,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1">
+    <row r="435" spans="1:9">
       <c r="A435" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81446,7 +81463,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1">
+    <row r="436" spans="1:9">
       <c r="A436" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81475,7 +81492,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1">
+    <row r="437" spans="1:9">
       <c r="A437" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81504,7 +81521,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1">
+    <row r="438" spans="1:9">
       <c r="A438" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81533,7 +81550,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1">
+    <row r="439" spans="1:9">
       <c r="A439" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81562,7 +81579,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1">
+    <row r="440" spans="1:9">
       <c r="A440" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81591,7 +81608,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1">
+    <row r="441" spans="1:9">
       <c r="A441" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81620,7 +81637,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1">
+    <row r="442" spans="1:9">
       <c r="A442" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81649,7 +81666,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1">
+    <row r="443" spans="1:9">
       <c r="A443" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81678,7 +81695,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1">
+    <row r="444" spans="1:9">
       <c r="A444" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81707,7 +81724,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1">
+    <row r="445" spans="1:9">
       <c r="A445" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81736,7 +81753,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1">
+    <row r="446" spans="1:9">
       <c r="A446" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81765,7 +81782,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1">
+    <row r="447" spans="1:9">
       <c r="A447" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81794,7 +81811,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1">
+    <row r="448" spans="1:9">
       <c r="A448" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81823,7 +81840,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1">
+    <row r="449" spans="1:9">
       <c r="A449" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81852,7 +81869,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1">
+    <row r="450" spans="1:9">
       <c r="D450" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81872,7 +81889,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1">
+    <row r="451" spans="1:9">
       <c r="D451" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81892,7 +81909,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1">
+    <row r="452" spans="1:9">
       <c r="D452" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81912,7 +81929,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1">
+    <row r="453" spans="1:9">
       <c r="D453" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81932,7 +81949,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1">
+    <row r="454" spans="1:9">
       <c r="D454" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81952,7 +81969,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1">
+    <row r="455" spans="1:9">
       <c r="D455" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81972,7 +81989,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1">
+    <row r="456" spans="1:9">
       <c r="D456" s="135" t="s">
         <v>2897</v>
       </c>
@@ -81992,7 +82009,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1">
+    <row r="457" spans="1:9">
       <c r="D457" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82012,7 +82029,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1">
+    <row r="458" spans="1:9">
       <c r="D458" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82032,7 +82049,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1">
+    <row r="459" spans="1:9">
       <c r="A459" s="141"/>
       <c r="B459" s="141"/>
       <c r="C459" s="141"/>
@@ -82055,7 +82072,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1">
+    <row r="460" spans="1:9">
       <c r="A460" s="141"/>
       <c r="B460" s="141"/>
       <c r="C460" s="141"/>
@@ -82078,7 +82095,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1">
+    <row r="461" spans="1:9">
       <c r="A461" s="141"/>
       <c r="B461" s="141"/>
       <c r="C461" s="141"/>
@@ -82101,7 +82118,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1">
+    <row r="462" spans="1:9">
       <c r="A462" s="141"/>
       <c r="B462" s="141"/>
       <c r="C462" s="141"/>
@@ -82124,7 +82141,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1">
+    <row r="463" spans="1:9">
       <c r="A463" s="141"/>
       <c r="B463" s="141"/>
       <c r="C463" s="141"/>
@@ -82147,7 +82164,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1">
+    <row r="464" spans="1:9">
       <c r="A464" s="141"/>
       <c r="B464" s="141"/>
       <c r="C464" s="141"/>
@@ -82170,7 +82187,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1">
+    <row r="465" spans="1:9">
       <c r="A465" s="141"/>
       <c r="B465" s="141"/>
       <c r="C465" s="141"/>
@@ -82193,7 +82210,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1">
+    <row r="466" spans="1:9">
       <c r="A466" s="141"/>
       <c r="B466" s="141"/>
       <c r="C466" s="141"/>
@@ -82216,7 +82233,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1">
+    <row r="467" spans="1:9">
       <c r="A467" s="141"/>
       <c r="B467" s="141"/>
       <c r="C467" s="141"/>
@@ -82239,7 +82256,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1">
+    <row r="468" spans="1:9">
       <c r="A468" s="141"/>
       <c r="B468" s="141"/>
       <c r="C468" s="141"/>
@@ -82262,51 +82279,99 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1">
+    <row r="469" spans="1:9">
       <c r="A469" s="141"/>
       <c r="B469" s="141"/>
       <c r="C469" s="141"/>
-      <c r="D469" s="141"/>
-      <c r="E469" s="141"/>
-      <c r="F469" s="141"/>
-      <c r="G469" s="141"/>
-      <c r="H469" s="141"/>
-      <c r="I469" s="141"/>
-    </row>
-    <row r="470" spans="1:9" hidden="1">
+      <c r="D469" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E469" s="141" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F469" s="141" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G469" s="141" t="s">
+        <v>3128</v>
+      </c>
+      <c r="H469" s="141" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I469" s="141" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
       <c r="A470" s="141"/>
       <c r="B470" s="141"/>
       <c r="C470" s="141"/>
-      <c r="D470" s="141"/>
-      <c r="E470" s="141"/>
-      <c r="F470" s="141"/>
-      <c r="G470" s="141"/>
-      <c r="H470" s="141"/>
-      <c r="I470" s="141"/>
-    </row>
-    <row r="471" spans="1:9" hidden="1">
+      <c r="D470" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E470" s="141" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F470" s="141" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G470" s="141" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H470" s="141" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I470" s="141" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
       <c r="A471" s="141"/>
       <c r="B471" s="141"/>
       <c r="C471" s="141"/>
-      <c r="D471" s="141"/>
-      <c r="E471" s="141"/>
-      <c r="F471" s="141"/>
-      <c r="G471" s="141"/>
-      <c r="H471" s="141"/>
-      <c r="I471" s="141"/>
-    </row>
-    <row r="472" spans="1:9" hidden="1">
+      <c r="D471" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E471" s="141" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F471" s="141" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G471" s="141" t="s">
+        <v>3130</v>
+      </c>
+      <c r="H471" s="141" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I471" s="141" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
       <c r="A472" s="141"/>
       <c r="B472" s="141"/>
       <c r="C472" s="141"/>
-      <c r="D472" s="141"/>
-      <c r="E472" s="141"/>
-      <c r="F472" s="141"/>
-      <c r="G472" s="141"/>
-      <c r="H472" s="141"/>
-      <c r="I472" s="141"/>
-    </row>
-    <row r="473" spans="1:9" hidden="1">
+      <c r="D472" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E472" s="141" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F472" s="141" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G472" s="141" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H472" s="141" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I472" s="141" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
       <c r="A473" s="141"/>
       <c r="B473" s="141"/>
       <c r="C473" s="141"/>
@@ -82317,7 +82382,7 @@
       <c r="H473" s="141"/>
       <c r="I473" s="141"/>
     </row>
-    <row r="474" spans="1:9" hidden="1">
+    <row r="474" spans="1:9">
       <c r="A474" s="141"/>
       <c r="B474" s="141"/>
       <c r="C474" s="141"/>
@@ -82328,7 +82393,7 @@
       <c r="H474" s="141"/>
       <c r="I474" s="141"/>
     </row>
-    <row r="475" spans="1:9" hidden="1">
+    <row r="475" spans="1:9">
       <c r="A475" s="139"/>
       <c r="B475" s="139"/>
       <c r="C475" s="139"/>
@@ -82347,7 +82412,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1">
+    <row r="476" spans="1:9">
       <c r="A476" s="139"/>
       <c r="B476" s="139"/>
       <c r="C476" s="139"/>
@@ -82366,7 +82431,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1">
+    <row r="477" spans="1:9">
       <c r="A477" s="139"/>
       <c r="B477" s="139"/>
       <c r="C477" s="139"/>
@@ -82385,7 +82450,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1">
+    <row r="478" spans="1:9">
       <c r="A478" s="139"/>
       <c r="B478" s="139"/>
       <c r="C478" s="139"/>
@@ -82404,7 +82469,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1">
+    <row r="479" spans="1:9">
       <c r="A479" s="139"/>
       <c r="B479" s="139"/>
       <c r="C479" s="139"/>
@@ -82423,7 +82488,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1">
+    <row r="480" spans="1:9">
       <c r="A480" s="139"/>
       <c r="B480" s="139"/>
       <c r="C480" s="139"/>
@@ -82442,7 +82507,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1">
+    <row r="481" spans="1:9">
       <c r="A481" s="139"/>
       <c r="B481" s="139"/>
       <c r="C481" s="139"/>
@@ -82461,7 +82526,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1">
+    <row r="482" spans="1:9">
       <c r="A482" s="139"/>
       <c r="B482" s="139"/>
       <c r="C482" s="139"/>
@@ -82480,7 +82545,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1">
+    <row r="483" spans="1:9">
       <c r="A483" s="139"/>
       <c r="B483" s="139"/>
       <c r="C483" s="139"/>
@@ -82499,7 +82564,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1">
+    <row r="484" spans="1:9">
       <c r="A484" s="139"/>
       <c r="B484" s="139"/>
       <c r="C484" s="139"/>
@@ -82518,7 +82583,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1">
+    <row r="485" spans="1:9">
       <c r="A485" s="139"/>
       <c r="B485" s="139"/>
       <c r="C485" s="139"/>
@@ -82537,7 +82602,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1">
+    <row r="486" spans="1:9">
       <c r="A486" s="139"/>
       <c r="B486" s="139"/>
       <c r="C486" s="139"/>
@@ -82556,7 +82621,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1">
+    <row r="487" spans="1:9">
       <c r="A487" s="139"/>
       <c r="B487" s="139"/>
       <c r="C487" s="139"/>
@@ -82575,7 +82640,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1">
+    <row r="488" spans="1:9">
       <c r="A488" s="139"/>
       <c r="B488" s="139"/>
       <c r="C488" s="139"/>
@@ -82594,7 +82659,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1">
+    <row r="489" spans="1:9">
       <c r="A489" s="139"/>
       <c r="B489" s="139"/>
       <c r="C489" s="139"/>
@@ -82613,7 +82678,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1">
+    <row r="490" spans="1:9">
       <c r="A490" s="139"/>
       <c r="B490" s="139"/>
       <c r="C490" s="139"/>
@@ -82632,7 +82697,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1">
+    <row r="491" spans="1:9">
       <c r="A491" s="139"/>
       <c r="B491" s="139"/>
       <c r="C491" s="139"/>
@@ -82651,7 +82716,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1">
+    <row r="492" spans="1:9">
       <c r="A492" s="139"/>
       <c r="B492" s="139"/>
       <c r="C492" s="139"/>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$F$157</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$493</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$524</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18621" uniqueCount="3132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18789" uniqueCount="3163">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9430,6 +9430,99 @@
   </si>
   <si>
     <t>ods_follow</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Relatorio Follow LN\ssis_controlador_follow.dtsx</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Devolucao_LN\ssis_controlador_devolucao.dtsx</t>
+  </si>
+  <si>
+    <t>(SC) Controlador Devolução</t>
+  </si>
+  <si>
+    <t>(EPT) STG Dev Sac</t>
+  </si>
+  <si>
+    <t>stg_sige_devolucao_nr</t>
+  </si>
+  <si>
+    <t>stg_sige_devolucao_cab</t>
+  </si>
+  <si>
+    <t>stg_sige_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>(EPT) STG Índ Devol</t>
+  </si>
+  <si>
+    <t>stg_relatorio_indice_devolucao</t>
+  </si>
+  <si>
+    <t>ods_relatorio_indice_devolucao</t>
+  </si>
+  <si>
+    <t>ods_devolucao_categoria</t>
+  </si>
+  <si>
+    <t>(EPT) ODS Dev Sac</t>
+  </si>
+  <si>
+    <t>ods_transportadora</t>
+  </si>
+  <si>
+    <t>ods_devolucao_motivo</t>
+  </si>
+  <si>
+    <t>ods_devolucao_processo</t>
+  </si>
+  <si>
+    <t>ods_devolucao_nr</t>
+  </si>
+  <si>
+    <t>aux_ods_devolucao_nr</t>
+  </si>
+  <si>
+    <t>dump_ods_devolucao_nr</t>
+  </si>
+  <si>
+    <t>ods_devolucao_cab</t>
+  </si>
+  <si>
+    <t>aux_ods_devolucao_cab</t>
+  </si>
+  <si>
+    <t>ods_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>aux_ods_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>dump_ods_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>(EPT) DW Dev Sac</t>
+  </si>
+  <si>
+    <t>dim_devolucao_processo</t>
+  </si>
+  <si>
+    <t>dim_devolucao_motivo</t>
+  </si>
+  <si>
+    <t>dim_devolucao_categoria</t>
+  </si>
+  <si>
+    <t>dim_transportadora</t>
+  </si>
+  <si>
+    <t>aux_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>ods_relatorio_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>aux_ods_relatorio_devolucao_instancia</t>
   </si>
 </sst>
 </file>
@@ -11057,8 +11150,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I493" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:I493">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I524" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:I524">
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
   </autoFilter>
@@ -69530,11 +69623,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I493"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D469" sqref="D469:E472"/>
+      <pane ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D473" sqref="D473:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -82372,385 +82465,957 @@
       </c>
     </row>
     <row r="473" spans="1:9">
-      <c r="A473" s="141"/>
-      <c r="B473" s="141"/>
-      <c r="C473" s="141"/>
-      <c r="D473" s="141"/>
-      <c r="E473" s="141"/>
-      <c r="F473" s="141"/>
-      <c r="G473" s="141"/>
-      <c r="H473" s="141"/>
-      <c r="I473" s="141"/>
+      <c r="D473" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E473" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F473" s="135" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G473" s="135" t="s">
+        <v>3136</v>
+      </c>
+      <c r="H473" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I473" s="135" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="474" spans="1:9">
-      <c r="A474" s="141"/>
-      <c r="B474" s="141"/>
-      <c r="C474" s="141"/>
-      <c r="D474" s="141"/>
-      <c r="E474" s="141"/>
-      <c r="F474" s="141"/>
-      <c r="G474" s="141"/>
-      <c r="H474" s="141"/>
-      <c r="I474" s="141"/>
+      <c r="D474" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E474" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F474" s="135" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G474" s="135" t="s">
+        <v>3137</v>
+      </c>
+      <c r="H474" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I474" s="135" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="475" spans="1:9">
-      <c r="A475" s="139"/>
-      <c r="B475" s="139"/>
-      <c r="C475" s="139"/>
-      <c r="D475" s="139"/>
-      <c r="E475" s="139"/>
-      <c r="F475" s="139" t="s">
+      <c r="D475" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E475" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F475" s="135" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G475" s="135" t="s">
+        <v>3138</v>
+      </c>
+      <c r="H475" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I475" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="D476" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E476" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F476" s="135" t="s">
+        <v>3139</v>
+      </c>
+      <c r="G476" s="135" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H476" s="135" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I476" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="D477" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E477" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F477" s="135" t="s">
+        <v>3139</v>
+      </c>
+      <c r="G477" s="135" t="s">
+        <v>3141</v>
+      </c>
+      <c r="H477" s="135" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I477" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="D478" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E478" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F478" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G478" s="135" t="s">
+        <v>3142</v>
+      </c>
+      <c r="H478" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I478" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="D479" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E479" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F479" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G479" s="135" t="s">
+        <v>3144</v>
+      </c>
+      <c r="H479" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I479" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="D480" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E480" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F480" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G480" s="135" t="s">
+        <v>3145</v>
+      </c>
+      <c r="H480" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I480" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="481" spans="4:9">
+      <c r="D481" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E481" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F481" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G481" s="135" t="s">
+        <v>3146</v>
+      </c>
+      <c r="H481" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I481" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="482" spans="4:9">
+      <c r="D482" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E482" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F482" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G482" s="135" t="s">
+        <v>3147</v>
+      </c>
+      <c r="H482" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I482" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="483" spans="4:9">
+      <c r="D483" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E483" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F483" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G483" s="135" t="s">
+        <v>3148</v>
+      </c>
+      <c r="H483" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I483" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="484" spans="4:9">
+      <c r="D484" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E484" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F484" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G484" s="135" t="s">
+        <v>3149</v>
+      </c>
+      <c r="H484" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I484" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="485" spans="4:9">
+      <c r="D485" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E485" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F485" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G485" s="135" t="s">
+        <v>3150</v>
+      </c>
+      <c r="H485" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I485" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="486" spans="4:9">
+      <c r="D486" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E486" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F486" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G486" s="135" t="s">
+        <v>3151</v>
+      </c>
+      <c r="H486" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I486" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="487" spans="4:9">
+      <c r="D487" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E487" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F487" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G487" s="135" t="s">
+        <v>3152</v>
+      </c>
+      <c r="H487" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I487" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="488" spans="4:9">
+      <c r="D488" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E488" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F488" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G488" s="135" t="s">
+        <v>3153</v>
+      </c>
+      <c r="H488" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I488" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="489" spans="4:9">
+      <c r="D489" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E489" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F489" s="135" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G489" s="135" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H489" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I489" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="490" spans="4:9">
+      <c r="D490" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E490" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F490" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G490" s="135" t="s">
+        <v>3156</v>
+      </c>
+      <c r="H490" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I490" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="491" spans="4:9">
+      <c r="D491" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E491" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F491" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G491" s="135" t="s">
+        <v>3157</v>
+      </c>
+      <c r="H491" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I491" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="492" spans="4:9">
+      <c r="D492" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E492" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F492" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G492" s="135" t="s">
+        <v>3158</v>
+      </c>
+      <c r="H492" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I492" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="493" spans="4:9">
+      <c r="D493" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E493" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F493" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G493" s="135" t="s">
+        <v>3159</v>
+      </c>
+      <c r="H493" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I493" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="494" spans="4:9">
+      <c r="D494" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E494" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F494" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G494" s="135" t="s">
+        <v>3160</v>
+      </c>
+      <c r="H494" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I494" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="495" spans="4:9">
+      <c r="D495" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E495" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F495" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G495" s="135" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H495" s="135" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I495" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="496" spans="4:9">
+      <c r="D496" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E496" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F496" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G496" s="135" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H496" s="135" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I496" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" s="141"/>
+      <c r="B500" s="141"/>
+      <c r="C500" s="141"/>
+      <c r="D500" s="141"/>
+      <c r="E500" s="141"/>
+      <c r="F500" s="141"/>
+      <c r="G500" s="141"/>
+      <c r="H500" s="141"/>
+      <c r="I500" s="141"/>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" s="141"/>
+      <c r="B501" s="141"/>
+      <c r="C501" s="141"/>
+      <c r="D501" s="141"/>
+      <c r="E501" s="141"/>
+      <c r="F501" s="141"/>
+      <c r="G501" s="141"/>
+      <c r="H501" s="141"/>
+      <c r="I501" s="141"/>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" s="139"/>
+      <c r="B502" s="139"/>
+      <c r="C502" s="139"/>
+      <c r="D502" s="139"/>
+      <c r="E502" s="139"/>
+      <c r="F502" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G475" s="139" t="s">
+      <c r="G502" s="139" t="s">
         <v>3032</v>
       </c>
-      <c r="H475" s="135" t="s">
+      <c r="H502" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I475" s="139" t="s">
+      <c r="I502" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
-      <c r="A476" s="139"/>
-      <c r="B476" s="139"/>
-      <c r="C476" s="139"/>
-      <c r="D476" s="139"/>
-      <c r="E476" s="139"/>
-      <c r="F476" s="139" t="s">
+    <row r="503" spans="1:9">
+      <c r="A503" s="139"/>
+      <c r="B503" s="139"/>
+      <c r="C503" s="139"/>
+      <c r="D503" s="139"/>
+      <c r="E503" s="139"/>
+      <c r="F503" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G476" s="139" t="s">
+      <c r="G503" s="139" t="s">
         <v>3033</v>
       </c>
-      <c r="H476" s="135" t="s">
+      <c r="H503" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I476" s="139" t="s">
+      <c r="I503" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
-      <c r="A477" s="139"/>
-      <c r="B477" s="139"/>
-      <c r="C477" s="139"/>
-      <c r="D477" s="139"/>
-      <c r="E477" s="139"/>
-      <c r="F477" s="139" t="s">
+    <row r="504" spans="1:9">
+      <c r="A504" s="139"/>
+      <c r="B504" s="139"/>
+      <c r="C504" s="139"/>
+      <c r="D504" s="139"/>
+      <c r="E504" s="139"/>
+      <c r="F504" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G477" s="139" t="s">
+      <c r="G504" s="139" t="s">
         <v>3034</v>
       </c>
-      <c r="H477" s="135" t="s">
+      <c r="H504" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I477" s="139" t="s">
+      <c r="I504" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
-      <c r="A478" s="139"/>
-      <c r="B478" s="139"/>
-      <c r="C478" s="139"/>
-      <c r="D478" s="139"/>
-      <c r="E478" s="139"/>
-      <c r="F478" s="139" t="s">
+    <row r="505" spans="1:9">
+      <c r="A505" s="139"/>
+      <c r="B505" s="139"/>
+      <c r="C505" s="139"/>
+      <c r="D505" s="139"/>
+      <c r="E505" s="139"/>
+      <c r="F505" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G478" s="139" t="s">
+      <c r="G505" s="139" t="s">
         <v>3035</v>
       </c>
-      <c r="H478" s="135" t="s">
+      <c r="H505" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I478" s="139" t="s">
+      <c r="I505" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
-      <c r="A479" s="139"/>
-      <c r="B479" s="139"/>
-      <c r="C479" s="139"/>
-      <c r="D479" s="139"/>
-      <c r="E479" s="139"/>
-      <c r="F479" s="139" t="s">
+    <row r="506" spans="1:9">
+      <c r="A506" s="139"/>
+      <c r="B506" s="139"/>
+      <c r="C506" s="139"/>
+      <c r="D506" s="139"/>
+      <c r="E506" s="139"/>
+      <c r="F506" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G479" s="139" t="s">
+      <c r="G506" s="139" t="s">
         <v>3037</v>
       </c>
-      <c r="H479" s="139" t="s">
+      <c r="H506" s="139" t="s">
         <v>2652</v>
       </c>
-      <c r="I479" s="139" t="s">
+      <c r="I506" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
-      <c r="A480" s="139"/>
-      <c r="B480" s="139"/>
-      <c r="C480" s="139"/>
-      <c r="D480" s="139"/>
-      <c r="E480" s="139"/>
-      <c r="F480" s="139" t="s">
+    <row r="507" spans="1:9">
+      <c r="A507" s="139"/>
+      <c r="B507" s="139"/>
+      <c r="C507" s="139"/>
+      <c r="D507" s="139"/>
+      <c r="E507" s="139"/>
+      <c r="F507" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G480" s="139" t="s">
+      <c r="G507" s="139" t="s">
         <v>3038</v>
       </c>
-      <c r="H480" s="139" t="s">
+      <c r="H507" s="139" t="s">
         <v>2656</v>
       </c>
-      <c r="I480" s="139" t="s">
+      <c r="I507" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
-      <c r="A481" s="139"/>
-      <c r="B481" s="139"/>
-      <c r="C481" s="139"/>
-      <c r="D481" s="139"/>
-      <c r="E481" s="139"/>
-      <c r="F481" s="139" t="s">
+    <row r="508" spans="1:9">
+      <c r="A508" s="139"/>
+      <c r="B508" s="139"/>
+      <c r="C508" s="139"/>
+      <c r="D508" s="139"/>
+      <c r="E508" s="139"/>
+      <c r="F508" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G481" s="139" t="s">
+      <c r="G508" s="139" t="s">
         <v>3039</v>
       </c>
-      <c r="H481" s="135" t="s">
+      <c r="H508" s="135" t="s">
         <v>2718</v>
       </c>
-      <c r="I481" s="139" t="s">
+      <c r="I508" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
-      <c r="A482" s="139"/>
-      <c r="B482" s="139"/>
-      <c r="C482" s="139"/>
-      <c r="D482" s="139"/>
-      <c r="E482" s="139"/>
-      <c r="F482" s="139" t="s">
+    <row r="509" spans="1:9">
+      <c r="A509" s="139"/>
+      <c r="B509" s="139"/>
+      <c r="C509" s="139"/>
+      <c r="D509" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E509" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F509" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G509" s="139" t="s">
+        <v>3128</v>
+      </c>
+      <c r="H509" s="141" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I509" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" s="139"/>
+      <c r="B510" s="139"/>
+      <c r="C510" s="139"/>
+      <c r="D510" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E510" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F510" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G510" s="139" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H510" s="141" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I510" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" s="139"/>
+      <c r="B511" s="139"/>
+      <c r="C511" s="139"/>
+      <c r="D511" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E511" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F511" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G511" s="139" t="s">
+        <v>3130</v>
+      </c>
+      <c r="H511" s="141" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I511" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" s="139"/>
+      <c r="B512" s="139"/>
+      <c r="C512" s="139"/>
+      <c r="D512" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E512" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F512" s="139" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G512" s="139" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H512" s="141" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I512" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" s="139"/>
+      <c r="B513" s="139"/>
+      <c r="C513" s="139"/>
+      <c r="D513" s="139"/>
+      <c r="E513" s="139"/>
+      <c r="F513" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G482" s="139" t="s">
+      <c r="G513" s="139" t="s">
         <v>3040</v>
       </c>
-      <c r="H482" s="139" t="s">
+      <c r="H513" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I482" s="139" t="s">
+      <c r="I513" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
-      <c r="A483" s="139"/>
-      <c r="B483" s="139"/>
-      <c r="C483" s="139"/>
-      <c r="D483" s="139"/>
-      <c r="E483" s="139"/>
-      <c r="F483" s="139" t="s">
+    <row r="514" spans="1:9">
+      <c r="A514" s="139"/>
+      <c r="B514" s="139"/>
+      <c r="C514" s="139"/>
+      <c r="D514" s="139"/>
+      <c r="E514" s="139"/>
+      <c r="F514" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G483" s="139" t="s">
+      <c r="G514" s="139" t="s">
         <v>2792</v>
       </c>
-      <c r="H483" s="139" t="s">
+      <c r="H514" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I483" s="139" t="s">
+      <c r="I514" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
-      <c r="A484" s="139"/>
-      <c r="B484" s="139"/>
-      <c r="C484" s="139"/>
-      <c r="D484" s="139"/>
-      <c r="E484" s="139"/>
-      <c r="F484" s="139" t="s">
+    <row r="515" spans="1:9">
+      <c r="A515" s="139"/>
+      <c r="B515" s="139"/>
+      <c r="C515" s="139"/>
+      <c r="D515" s="139"/>
+      <c r="E515" s="139"/>
+      <c r="F515" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G484" s="139" t="s">
+      <c r="G515" s="139" t="s">
         <v>3041</v>
       </c>
-      <c r="H484" s="139" t="s">
+      <c r="H515" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I484" s="139" t="s">
+      <c r="I515" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
-      <c r="A485" s="139"/>
-      <c r="B485" s="139"/>
-      <c r="C485" s="139"/>
-      <c r="D485" s="139"/>
-      <c r="E485" s="139"/>
-      <c r="F485" s="139" t="s">
+    <row r="516" spans="1:9">
+      <c r="A516" s="139"/>
+      <c r="B516" s="139"/>
+      <c r="C516" s="139"/>
+      <c r="D516" s="139"/>
+      <c r="E516" s="139"/>
+      <c r="F516" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G485" s="139" t="s">
+      <c r="G516" s="139" t="s">
         <v>2790</v>
       </c>
-      <c r="H485" s="139" t="s">
+      <c r="H516" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I485" s="139" t="s">
+      <c r="I516" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
-      <c r="A486" s="139"/>
-      <c r="B486" s="139"/>
-      <c r="C486" s="139"/>
-      <c r="D486" s="139"/>
-      <c r="E486" s="139"/>
-      <c r="F486" s="139" t="s">
+    <row r="517" spans="1:9">
+      <c r="A517" s="139"/>
+      <c r="B517" s="139"/>
+      <c r="C517" s="139"/>
+      <c r="D517" s="139"/>
+      <c r="E517" s="139"/>
+      <c r="F517" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G486" s="139" t="s">
+      <c r="G517" s="139" t="s">
         <v>3042</v>
       </c>
-      <c r="H486" s="139" t="s">
+      <c r="H517" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I486" s="139" t="s">
+      <c r="I517" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
-      <c r="A487" s="139"/>
-      <c r="B487" s="139"/>
-      <c r="C487" s="139"/>
-      <c r="D487" s="139"/>
-      <c r="E487" s="139"/>
-      <c r="F487" s="139" t="s">
+    <row r="518" spans="1:9">
+      <c r="A518" s="139"/>
+      <c r="B518" s="139"/>
+      <c r="C518" s="139"/>
+      <c r="D518" s="139"/>
+      <c r="E518" s="139"/>
+      <c r="F518" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G487" s="139" t="s">
+      <c r="G518" s="139" t="s">
         <v>2791</v>
       </c>
-      <c r="H487" s="139" t="s">
+      <c r="H518" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I487" s="139" t="s">
+      <c r="I518" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
-      <c r="A488" s="139"/>
-      <c r="B488" s="139"/>
-      <c r="C488" s="139"/>
-      <c r="D488" s="139"/>
-      <c r="E488" s="139"/>
-      <c r="F488" s="139" t="s">
+    <row r="519" spans="1:9">
+      <c r="A519" s="139"/>
+      <c r="B519" s="139"/>
+      <c r="C519" s="139"/>
+      <c r="D519" s="139"/>
+      <c r="E519" s="139"/>
+      <c r="F519" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G488" s="139" t="s">
+      <c r="G519" s="139" t="s">
         <v>3043</v>
       </c>
-      <c r="H488" s="139" t="s">
+      <c r="H519" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I488" s="139" t="s">
+      <c r="I519" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
-      <c r="A489" s="139"/>
-      <c r="B489" s="139"/>
-      <c r="C489" s="139"/>
-      <c r="D489" s="139"/>
-      <c r="E489" s="139"/>
-      <c r="F489" s="139" t="s">
+    <row r="520" spans="1:9">
+      <c r="A520" s="139"/>
+      <c r="B520" s="139"/>
+      <c r="C520" s="139"/>
+      <c r="D520" s="139"/>
+      <c r="E520" s="139"/>
+      <c r="F520" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G489" s="139" t="s">
+      <c r="G520" s="139" t="s">
         <v>3044</v>
       </c>
-      <c r="H489" s="135" t="s">
+      <c r="H520" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I489" s="139" t="s">
+      <c r="I520" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
-      <c r="A490" s="139"/>
-      <c r="B490" s="139"/>
-      <c r="C490" s="139"/>
-      <c r="D490" s="139"/>
-      <c r="E490" s="139"/>
-      <c r="F490" s="139" t="s">
+    <row r="521" spans="1:9">
+      <c r="A521" s="139"/>
+      <c r="B521" s="139"/>
+      <c r="C521" s="139"/>
+      <c r="D521" s="139"/>
+      <c r="E521" s="139"/>
+      <c r="F521" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G490" s="139" t="s">
+      <c r="G521" s="139" t="s">
         <v>3045</v>
       </c>
-      <c r="H490" s="135" t="s">
+      <c r="H521" s="135" t="s">
         <v>2403</v>
       </c>
-      <c r="I490" s="139" t="s">
+      <c r="I521" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
-      <c r="A491" s="139"/>
-      <c r="B491" s="139"/>
-      <c r="C491" s="139"/>
-      <c r="D491" s="139"/>
-      <c r="E491" s="139"/>
-      <c r="F491" s="139" t="s">
+    <row r="522" spans="1:9">
+      <c r="A522" s="139"/>
+      <c r="B522" s="139"/>
+      <c r="C522" s="139"/>
+      <c r="D522" s="139"/>
+      <c r="E522" s="139"/>
+      <c r="F522" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G491" s="139" t="s">
+      <c r="G522" s="139" t="s">
         <v>3046</v>
       </c>
-      <c r="H491" s="139" t="s">
+      <c r="H522" s="139" t="s">
         <v>2656</v>
       </c>
-      <c r="I491" s="139" t="s">
+      <c r="I522" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
-      <c r="A492" s="139"/>
-      <c r="B492" s="139"/>
-      <c r="C492" s="139"/>
-      <c r="D492" s="139"/>
-      <c r="E492" s="139"/>
-      <c r="F492" s="139" t="s">
+    <row r="523" spans="1:9">
+      <c r="A523" s="139"/>
+      <c r="B523" s="139"/>
+      <c r="C523" s="139"/>
+      <c r="D523" s="139"/>
+      <c r="E523" s="139"/>
+      <c r="F523" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G492" s="139" t="s">
+      <c r="G523" s="139" t="s">
         <v>3047</v>
       </c>
-      <c r="H492" s="139" t="s">
+      <c r="H523" s="139" t="s">
         <v>2501</v>
       </c>
-      <c r="I492" s="139" t="s">
+      <c r="I523" s="139" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
-      <c r="A493" s="139"/>
-      <c r="B493" s="139"/>
-      <c r="C493" s="139"/>
-      <c r="D493" s="139"/>
-      <c r="E493" s="139"/>
-      <c r="F493" s="139" t="s">
+    <row r="524" spans="1:9">
+      <c r="A524" s="139"/>
+      <c r="B524" s="139"/>
+      <c r="C524" s="139"/>
+      <c r="D524" s="139"/>
+      <c r="E524" s="139"/>
+      <c r="F524" s="139" t="s">
         <v>1692</v>
       </c>
-      <c r="G493" s="139" t="s">
+      <c r="G524" s="139" t="s">
         <v>3080</v>
       </c>
-      <c r="H493" s="135" t="s">
+      <c r="H524" s="135" t="s">
         <v>2493</v>
       </c>
-      <c r="I493" s="139" t="s">
+      <c r="I524" s="139" t="s">
         <v>3036</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$F$157</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$524</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$540</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18789" uniqueCount="3163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18885" uniqueCount="3185">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9523,6 +9523,72 @@
   </si>
   <si>
     <t>aux_ods_relatorio_devolucao_instancia</t>
+  </si>
+  <si>
+    <t>W\Operacional\Ruptura Vitrine\Ruptura Vitrine\ssis_controlador_ruptura_vitrine.dtsx</t>
+  </si>
+  <si>
+    <t>(SC) Controlador Ruptura Vitrine</t>
+  </si>
+  <si>
+    <t>stg_corp_sku</t>
+  </si>
+  <si>
+    <t>stg_corp_product</t>
+  </si>
+  <si>
+    <t>stg_corp_categoria</t>
+  </si>
+  <si>
+    <t>stg_corp_kit</t>
+  </si>
+  <si>
+    <t>stg_loja_sku</t>
+  </si>
+  <si>
+    <t>stg_loja_product</t>
+  </si>
+  <si>
+    <t>stg_product_vitrine_departamento</t>
+  </si>
+  <si>
+    <t>(EPT) ODS Ruptura</t>
+  </si>
+  <si>
+    <t>(EPT) STG Ruptura</t>
+  </si>
+  <si>
+    <t>aux_ods_ruptura_posicao_estoque_today</t>
+  </si>
+  <si>
+    <t>aux_ods_ruptura_status_produto_loja_today</t>
+  </si>
+  <si>
+    <t>tmp_ods_ruptura_status_produto_loja</t>
+  </si>
+  <si>
+    <t>(EPT) DW Ruptura</t>
+  </si>
+  <si>
+    <t>dim_product_loja</t>
+  </si>
+  <si>
+    <t>aux_dim_product_loja</t>
+  </si>
+  <si>
+    <t>fact_ruptura_vitrine</t>
+  </si>
+  <si>
+    <t>aux_fact_ruptura_vitrine</t>
+  </si>
+  <si>
+    <t>(EPT) Manutenção Ruptura</t>
+  </si>
+  <si>
+    <t>ods_ruptura_posicao_estoque</t>
+  </si>
+  <si>
+    <t>ods_ruptura_status_produto_loja</t>
   </si>
 </sst>
 </file>
@@ -11150,8 +11216,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I524" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:I524">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I540" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:I540">
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
   </autoFilter>
@@ -69623,11 +69689,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I524"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D473" sqref="D473:D496"/>
+      <pane ySplit="2" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F514" sqref="F514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -82465,79 +82531,91 @@
       </c>
     </row>
     <row r="473" spans="1:9">
-      <c r="D473" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E473" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F473" s="135" t="s">
-        <v>3135</v>
-      </c>
-      <c r="G473" s="135" t="s">
-        <v>3136</v>
-      </c>
-      <c r="H473" s="135" t="s">
-        <v>2501</v>
+      <c r="A473" s="139"/>
+      <c r="B473" s="139"/>
+      <c r="C473" s="139"/>
+      <c r="D473" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E473" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F473" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G473" s="139" t="s">
+        <v>3128</v>
+      </c>
+      <c r="H473" s="141" t="s">
+        <v>2652</v>
       </c>
       <c r="I473" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="474" spans="1:9">
-      <c r="D474" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E474" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F474" s="135" t="s">
-        <v>3135</v>
-      </c>
-      <c r="G474" s="135" t="s">
-        <v>3137</v>
-      </c>
-      <c r="H474" s="135" t="s">
-        <v>2501</v>
+      <c r="A474" s="139"/>
+      <c r="B474" s="139"/>
+      <c r="C474" s="139"/>
+      <c r="D474" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E474" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F474" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G474" s="139" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H474" s="141" t="s">
+        <v>2652</v>
       </c>
       <c r="I474" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="475" spans="1:9">
-      <c r="D475" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E475" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F475" s="135" t="s">
-        <v>3135</v>
-      </c>
-      <c r="G475" s="135" t="s">
-        <v>3138</v>
-      </c>
-      <c r="H475" s="135" t="s">
-        <v>2501</v>
+      <c r="A475" s="139"/>
+      <c r="B475" s="139"/>
+      <c r="C475" s="139"/>
+      <c r="D475" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E475" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F475" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G475" s="139" t="s">
+        <v>3130</v>
+      </c>
+      <c r="H475" s="141" t="s">
+        <v>2652</v>
       </c>
       <c r="I475" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="476" spans="1:9">
-      <c r="D476" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E476" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F476" s="135" t="s">
-        <v>3139</v>
-      </c>
-      <c r="G476" s="135" t="s">
-        <v>3140</v>
-      </c>
-      <c r="H476" s="135" t="s">
+      <c r="A476" s="139"/>
+      <c r="B476" s="139"/>
+      <c r="C476" s="139"/>
+      <c r="D476" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E476" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F476" s="139" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G476" s="139" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H476" s="141" t="s">
         <v>2656</v>
       </c>
       <c r="I476" s="135" t="s">
@@ -82552,13 +82630,13 @@
         <v>3134</v>
       </c>
       <c r="F477" s="135" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="G477" s="135" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="H477" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I477" s="135" t="s">
         <v>2901</v>
@@ -82572,10 +82650,10 @@
         <v>3134</v>
       </c>
       <c r="F478" s="135" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
       <c r="G478" s="135" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
       <c r="H478" s="135" t="s">
         <v>2501</v>
@@ -82592,10 +82670,10 @@
         <v>3134</v>
       </c>
       <c r="F479" s="135" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
       <c r="G479" s="135" t="s">
-        <v>3144</v>
+        <v>3138</v>
       </c>
       <c r="H479" s="135" t="s">
         <v>2501</v>
@@ -82612,13 +82690,13 @@
         <v>3134</v>
       </c>
       <c r="F480" s="135" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="G480" s="135" t="s">
-        <v>3145</v>
+        <v>3140</v>
       </c>
       <c r="H480" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I480" s="135" t="s">
         <v>2901</v>
@@ -82632,13 +82710,13 @@
         <v>3134</v>
       </c>
       <c r="F481" s="135" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="G481" s="135" t="s">
-        <v>3146</v>
+        <v>3141</v>
       </c>
       <c r="H481" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I481" s="135" t="s">
         <v>2901</v>
@@ -82655,7 +82733,7 @@
         <v>3143</v>
       </c>
       <c r="G482" s="135" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="H482" s="135" t="s">
         <v>2501</v>
@@ -82675,7 +82753,7 @@
         <v>3143</v>
       </c>
       <c r="G483" s="135" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="H483" s="135" t="s">
         <v>2501</v>
@@ -82695,7 +82773,7 @@
         <v>3143</v>
       </c>
       <c r="G484" s="135" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="H484" s="135" t="s">
         <v>2501</v>
@@ -82715,7 +82793,7 @@
         <v>3143</v>
       </c>
       <c r="G485" s="135" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="H485" s="135" t="s">
         <v>2501</v>
@@ -82735,7 +82813,7 @@
         <v>3143</v>
       </c>
       <c r="G486" s="135" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="H486" s="135" t="s">
         <v>2501</v>
@@ -82755,7 +82833,7 @@
         <v>3143</v>
       </c>
       <c r="G487" s="135" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="H487" s="135" t="s">
         <v>2501</v>
@@ -82775,7 +82853,7 @@
         <v>3143</v>
       </c>
       <c r="G488" s="135" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="H488" s="135" t="s">
         <v>2501</v>
@@ -82795,7 +82873,7 @@
         <v>3143</v>
       </c>
       <c r="G489" s="135" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="H489" s="135" t="s">
         <v>2501</v>
@@ -82812,10 +82890,10 @@
         <v>3134</v>
       </c>
       <c r="F490" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G490" s="135" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="H490" s="135" t="s">
         <v>2501</v>
@@ -82832,10 +82910,10 @@
         <v>3134</v>
       </c>
       <c r="F491" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G491" s="135" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="H491" s="135" t="s">
         <v>2501</v>
@@ -82852,10 +82930,10 @@
         <v>3134</v>
       </c>
       <c r="F492" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G492" s="135" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="H492" s="135" t="s">
         <v>2501</v>
@@ -82872,10 +82950,10 @@
         <v>3134</v>
       </c>
       <c r="F493" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G493" s="135" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="H493" s="135" t="s">
         <v>2501</v>
@@ -82895,7 +82973,7 @@
         <v>3155</v>
       </c>
       <c r="G494" s="135" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="H494" s="135" t="s">
         <v>2501</v>
@@ -82915,10 +82993,10 @@
         <v>3155</v>
       </c>
       <c r="G495" s="135" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="H495" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I495" s="135" t="s">
         <v>2901</v>
@@ -82935,432 +83013,500 @@
         <v>3155</v>
       </c>
       <c r="G496" s="135" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="H496" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I496" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
+    <row r="497" spans="1:9">
+      <c r="D497" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E497" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F497" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G497" s="135" t="s">
+        <v>3159</v>
+      </c>
+      <c r="H497" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I497" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="D498" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E498" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F498" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G498" s="135" t="s">
+        <v>3160</v>
+      </c>
+      <c r="H498" s="135" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I498" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="D499" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E499" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F499" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G499" s="135" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H499" s="135" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I499" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
     <row r="500" spans="1:9">
-      <c r="A500" s="141"/>
-      <c r="B500" s="141"/>
-      <c r="C500" s="141"/>
-      <c r="D500" s="141"/>
-      <c r="E500" s="141"/>
-      <c r="F500" s="141"/>
-      <c r="G500" s="141"/>
-      <c r="H500" s="141"/>
-      <c r="I500" s="141"/>
+      <c r="D500" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E500" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F500" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G500" s="135" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H500" s="135" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I500" s="135" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="501" spans="1:9">
       <c r="A501" s="141"/>
       <c r="B501" s="141"/>
       <c r="C501" s="141"/>
-      <c r="D501" s="141"/>
-      <c r="E501" s="141"/>
-      <c r="F501" s="141"/>
-      <c r="G501" s="141"/>
-      <c r="H501" s="141"/>
-      <c r="I501" s="141"/>
+      <c r="D501" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E501" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F501" s="141" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G501" s="141" t="s">
+        <v>3165</v>
+      </c>
+      <c r="H501" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I501" s="135" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="502" spans="1:9">
-      <c r="A502" s="139"/>
-      <c r="B502" s="139"/>
-      <c r="C502" s="139"/>
-      <c r="D502" s="139"/>
-      <c r="E502" s="139"/>
-      <c r="F502" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G502" s="139" t="s">
-        <v>3032</v>
-      </c>
-      <c r="H502" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I502" s="139" t="s">
-        <v>3036</v>
+      <c r="A502" s="141"/>
+      <c r="B502" s="141"/>
+      <c r="C502" s="141"/>
+      <c r="D502" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E502" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F502" s="141" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G502" s="141" t="s">
+        <v>3166</v>
+      </c>
+      <c r="H502" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I502" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="503" spans="1:9">
-      <c r="A503" s="139"/>
-      <c r="B503" s="139"/>
-      <c r="C503" s="139"/>
-      <c r="D503" s="139"/>
-      <c r="E503" s="139"/>
-      <c r="F503" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G503" s="139" t="s">
-        <v>3033</v>
-      </c>
-      <c r="H503" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I503" s="139" t="s">
-        <v>3036</v>
+      <c r="A503" s="141"/>
+      <c r="B503" s="141"/>
+      <c r="C503" s="141"/>
+      <c r="D503" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E503" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F503" s="141" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G503" s="141" t="s">
+        <v>3167</v>
+      </c>
+      <c r="H503" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I503" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="504" spans="1:9">
-      <c r="A504" s="139"/>
-      <c r="B504" s="139"/>
-      <c r="C504" s="139"/>
-      <c r="D504" s="139"/>
-      <c r="E504" s="139"/>
-      <c r="F504" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G504" s="139" t="s">
-        <v>3034</v>
-      </c>
-      <c r="H504" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I504" s="139" t="s">
-        <v>3036</v>
+      <c r="A504" s="141"/>
+      <c r="B504" s="141"/>
+      <c r="C504" s="141"/>
+      <c r="D504" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E504" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F504" s="141" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G504" s="141" t="s">
+        <v>3168</v>
+      </c>
+      <c r="H504" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I504" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="505" spans="1:9">
-      <c r="A505" s="139"/>
-      <c r="B505" s="139"/>
-      <c r="C505" s="139"/>
-      <c r="D505" s="139"/>
-      <c r="E505" s="139"/>
-      <c r="F505" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G505" s="139" t="s">
-        <v>3035</v>
-      </c>
-      <c r="H505" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I505" s="139" t="s">
-        <v>3036</v>
+      <c r="A505" s="141"/>
+      <c r="B505" s="141"/>
+      <c r="C505" s="141"/>
+      <c r="D505" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E505" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F505" s="141" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G505" s="141" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H505" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I505" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="506" spans="1:9">
-      <c r="A506" s="139"/>
-      <c r="B506" s="139"/>
-      <c r="C506" s="139"/>
-      <c r="D506" s="139"/>
-      <c r="E506" s="139"/>
-      <c r="F506" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G506" s="139" t="s">
-        <v>3037</v>
-      </c>
-      <c r="H506" s="139" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I506" s="139" t="s">
-        <v>3036</v>
+      <c r="A506" s="141"/>
+      <c r="B506" s="141"/>
+      <c r="C506" s="141"/>
+      <c r="D506" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E506" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F506" s="141" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G506" s="141" t="s">
+        <v>3170</v>
+      </c>
+      <c r="H506" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I506" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="507" spans="1:9">
-      <c r="A507" s="139"/>
-      <c r="B507" s="139"/>
-      <c r="C507" s="139"/>
-      <c r="D507" s="139"/>
-      <c r="E507" s="139"/>
-      <c r="F507" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G507" s="139" t="s">
-        <v>3038</v>
-      </c>
-      <c r="H507" s="139" t="s">
-        <v>2656</v>
-      </c>
-      <c r="I507" s="139" t="s">
-        <v>3036</v>
+      <c r="A507" s="141"/>
+      <c r="B507" s="141"/>
+      <c r="C507" s="141"/>
+      <c r="D507" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E507" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F507" s="141" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G507" s="141" t="s">
+        <v>3171</v>
+      </c>
+      <c r="H507" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I507" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="508" spans="1:9">
-      <c r="A508" s="139"/>
-      <c r="B508" s="139"/>
-      <c r="C508" s="139"/>
-      <c r="D508" s="139"/>
-      <c r="E508" s="139"/>
-      <c r="F508" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G508" s="139" t="s">
-        <v>3039</v>
-      </c>
-      <c r="H508" s="135" t="s">
-        <v>2718</v>
-      </c>
-      <c r="I508" s="139" t="s">
-        <v>3036</v>
+      <c r="A508" s="141"/>
+      <c r="B508" s="141"/>
+      <c r="C508" s="141"/>
+      <c r="D508" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E508" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F508" s="141" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G508" s="141" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H508" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I508" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="509" spans="1:9">
-      <c r="A509" s="139"/>
-      <c r="B509" s="139"/>
-      <c r="C509" s="139"/>
-      <c r="D509" s="139" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E509" s="139" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F509" s="139" t="s">
-        <v>3127</v>
-      </c>
-      <c r="G509" s="139" t="s">
-        <v>3128</v>
+      <c r="A509" s="141"/>
+      <c r="B509" s="141"/>
+      <c r="C509" s="141"/>
+      <c r="D509" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E509" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F509" s="141" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G509" s="141" t="s">
+        <v>3175</v>
       </c>
       <c r="H509" s="141" t="s">
-        <v>2652</v>
+        <v>2501</v>
       </c>
       <c r="I509" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="510" spans="1:9">
-      <c r="A510" s="139"/>
-      <c r="B510" s="139"/>
-      <c r="C510" s="139"/>
-      <c r="D510" s="139" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E510" s="139" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F510" s="139" t="s">
-        <v>3127</v>
-      </c>
-      <c r="G510" s="139" t="s">
-        <v>3129</v>
-      </c>
-      <c r="H510" s="141" t="s">
-        <v>2652</v>
+      <c r="A510" s="141"/>
+      <c r="B510" s="141"/>
+      <c r="C510" s="141"/>
+      <c r="D510" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E510" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F510" s="141" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G510" s="141" t="s">
+        <v>3176</v>
+      </c>
+      <c r="H510" s="135" t="s">
+        <v>2656</v>
       </c>
       <c r="I510" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="511" spans="1:9">
-      <c r="A511" s="139"/>
-      <c r="B511" s="139"/>
-      <c r="C511" s="139"/>
-      <c r="D511" s="139" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E511" s="139" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F511" s="139" t="s">
-        <v>3127</v>
-      </c>
-      <c r="G511" s="139" t="s">
-        <v>3130</v>
+      <c r="A511" s="141"/>
+      <c r="B511" s="141"/>
+      <c r="C511" s="141"/>
+      <c r="D511" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E511" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F511" s="141" t="s">
+        <v>3177</v>
+      </c>
+      <c r="G511" s="141" t="s">
+        <v>3178</v>
       </c>
       <c r="H511" s="141" t="s">
-        <v>2652</v>
+        <v>2501</v>
       </c>
       <c r="I511" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="512" spans="1:9">
-      <c r="A512" s="139"/>
-      <c r="B512" s="139"/>
-      <c r="C512" s="139"/>
-      <c r="D512" s="139" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E512" s="139" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F512" s="139" t="s">
-        <v>2612</v>
-      </c>
-      <c r="G512" s="139" t="s">
-        <v>3131</v>
+      <c r="A512" s="141"/>
+      <c r="B512" s="141"/>
+      <c r="C512" s="141"/>
+      <c r="D512" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E512" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F512" s="141" t="s">
+        <v>3177</v>
+      </c>
+      <c r="G512" s="141" t="s">
+        <v>3179</v>
       </c>
       <c r="H512" s="141" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I512" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="513" spans="1:9">
-      <c r="A513" s="139"/>
-      <c r="B513" s="139"/>
-      <c r="C513" s="139"/>
-      <c r="D513" s="139"/>
-      <c r="E513" s="139"/>
-      <c r="F513" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G513" s="139" t="s">
-        <v>3040</v>
-      </c>
-      <c r="H513" s="139" t="s">
+      <c r="A513" s="141"/>
+      <c r="B513" s="141"/>
+      <c r="C513" s="141"/>
+      <c r="D513" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E513" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F513" s="141" t="s">
+        <v>3177</v>
+      </c>
+      <c r="G513" s="141" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H513" s="141" t="s">
         <v>2501</v>
       </c>
-      <c r="I513" s="139" t="s">
-        <v>3036</v>
+      <c r="I513" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="514" spans="1:9">
-      <c r="A514" s="139"/>
-      <c r="B514" s="139"/>
-      <c r="C514" s="139"/>
-      <c r="D514" s="139"/>
-      <c r="E514" s="139"/>
-      <c r="F514" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G514" s="139" t="s">
-        <v>2792</v>
-      </c>
-      <c r="H514" s="139" t="s">
+      <c r="D514" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E514" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F514" s="141" t="s">
+        <v>3177</v>
+      </c>
+      <c r="G514" s="135" t="s">
+        <v>3181</v>
+      </c>
+      <c r="H514" s="141" t="s">
         <v>2501</v>
       </c>
-      <c r="I514" s="139" t="s">
-        <v>3036</v>
+      <c r="I514" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="515" spans="1:9">
-      <c r="A515" s="139"/>
-      <c r="B515" s="139"/>
-      <c r="C515" s="139"/>
-      <c r="D515" s="139"/>
-      <c r="E515" s="139"/>
-      <c r="F515" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G515" s="139" t="s">
-        <v>3041</v>
-      </c>
-      <c r="H515" s="139" t="s">
+      <c r="D515" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E515" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F515" s="135" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G515" s="135" t="s">
+        <v>3183</v>
+      </c>
+      <c r="H515" s="141" t="s">
         <v>2501</v>
       </c>
-      <c r="I515" s="139" t="s">
-        <v>3036</v>
+      <c r="I515" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="516" spans="1:9">
-      <c r="A516" s="139"/>
-      <c r="B516" s="139"/>
-      <c r="C516" s="139"/>
-      <c r="D516" s="139"/>
-      <c r="E516" s="139"/>
-      <c r="F516" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G516" s="139" t="s">
-        <v>2790</v>
-      </c>
-      <c r="H516" s="139" t="s">
+      <c r="A516" s="141"/>
+      <c r="B516" s="141"/>
+      <c r="C516" s="141"/>
+      <c r="D516" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E516" s="141" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F516" s="135" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G516" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="H516" s="141" t="s">
         <v>2501</v>
       </c>
-      <c r="I516" s="139" t="s">
-        <v>3036</v>
+      <c r="I516" s="135" t="s">
+        <v>2901</v>
       </c>
     </row>
     <row r="517" spans="1:9">
-      <c r="A517" s="139"/>
-      <c r="B517" s="139"/>
-      <c r="C517" s="139"/>
-      <c r="D517" s="139"/>
-      <c r="E517" s="139"/>
-      <c r="F517" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G517" s="139" t="s">
-        <v>3042</v>
-      </c>
-      <c r="H517" s="139" t="s">
-        <v>2501</v>
-      </c>
-      <c r="I517" s="139" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A517" s="141"/>
+      <c r="B517" s="141"/>
+      <c r="C517" s="141"/>
+      <c r="D517" s="141"/>
+      <c r="E517" s="141"/>
+      <c r="F517" s="141"/>
+      <c r="G517" s="141"/>
+      <c r="H517" s="141"/>
+      <c r="I517" s="141"/>
     </row>
     <row r="518" spans="1:9">
-      <c r="A518" s="139"/>
-      <c r="B518" s="139"/>
-      <c r="C518" s="139"/>
-      <c r="D518" s="139"/>
-      <c r="E518" s="139"/>
-      <c r="F518" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G518" s="139" t="s">
-        <v>2791</v>
-      </c>
-      <c r="H518" s="139" t="s">
-        <v>2501</v>
-      </c>
-      <c r="I518" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9">
-      <c r="A519" s="139"/>
-      <c r="B519" s="139"/>
-      <c r="C519" s="139"/>
-      <c r="D519" s="139"/>
-      <c r="E519" s="139"/>
-      <c r="F519" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G519" s="139" t="s">
-        <v>3043</v>
-      </c>
-      <c r="H519" s="139" t="s">
-        <v>2501</v>
-      </c>
-      <c r="I519" s="139" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A518" s="141"/>
+      <c r="B518" s="141"/>
+      <c r="C518" s="141"/>
+      <c r="D518" s="141"/>
+      <c r="E518" s="141"/>
+      <c r="F518" s="141"/>
+      <c r="G518" s="141"/>
+      <c r="H518" s="141"/>
+      <c r="I518" s="141"/>
     </row>
     <row r="520" spans="1:9">
-      <c r="A520" s="139"/>
-      <c r="B520" s="139"/>
-      <c r="C520" s="139"/>
-      <c r="D520" s="139"/>
-      <c r="E520" s="139"/>
-      <c r="F520" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G520" s="139" t="s">
-        <v>3044</v>
-      </c>
-      <c r="H520" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I520" s="139" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A520" s="141"/>
+      <c r="B520" s="141"/>
+      <c r="C520" s="141"/>
+      <c r="D520" s="141"/>
+      <c r="E520" s="141"/>
+      <c r="F520" s="141"/>
+      <c r="G520" s="141"/>
+      <c r="H520" s="141"/>
+      <c r="I520" s="141"/>
     </row>
     <row r="521" spans="1:9">
-      <c r="A521" s="139"/>
-      <c r="B521" s="139"/>
-      <c r="C521" s="139"/>
-      <c r="D521" s="139"/>
-      <c r="E521" s="139"/>
-      <c r="F521" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G521" s="139" t="s">
-        <v>3045</v>
-      </c>
-      <c r="H521" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I521" s="139" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A521" s="141"/>
+      <c r="B521" s="141"/>
+      <c r="C521" s="141"/>
+      <c r="D521" s="141"/>
+      <c r="E521" s="141"/>
+      <c r="F521" s="141"/>
+      <c r="G521" s="141"/>
+      <c r="H521" s="141"/>
+      <c r="I521" s="141"/>
     </row>
     <row r="522" spans="1:9">
       <c r="A522" s="139"/>
@@ -83372,10 +83518,10 @@
         <v>1692</v>
       </c>
       <c r="G522" s="139" t="s">
-        <v>3046</v>
-      </c>
-      <c r="H522" s="139" t="s">
-        <v>2656</v>
+        <v>3032</v>
+      </c>
+      <c r="H522" s="135" t="s">
+        <v>2403</v>
       </c>
       <c r="I522" s="139" t="s">
         <v>3036</v>
@@ -83391,10 +83537,10 @@
         <v>1692</v>
       </c>
       <c r="G523" s="139" t="s">
-        <v>3047</v>
-      </c>
-      <c r="H523" s="139" t="s">
-        <v>2501</v>
+        <v>3033</v>
+      </c>
+      <c r="H523" s="135" t="s">
+        <v>2403</v>
       </c>
       <c r="I523" s="139" t="s">
         <v>3036</v>
@@ -83410,12 +83556,316 @@
         <v>1692</v>
       </c>
       <c r="G524" s="139" t="s">
+        <v>3034</v>
+      </c>
+      <c r="H524" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I524" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" s="139"/>
+      <c r="B525" s="139"/>
+      <c r="C525" s="139"/>
+      <c r="D525" s="139"/>
+      <c r="E525" s="139"/>
+      <c r="F525" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G525" s="139" t="s">
+        <v>3035</v>
+      </c>
+      <c r="H525" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I525" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" s="139"/>
+      <c r="B526" s="139"/>
+      <c r="C526" s="139"/>
+      <c r="D526" s="139"/>
+      <c r="E526" s="139"/>
+      <c r="F526" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G526" s="139" t="s">
+        <v>3037</v>
+      </c>
+      <c r="H526" s="139" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I526" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" s="139"/>
+      <c r="B527" s="139"/>
+      <c r="C527" s="139"/>
+      <c r="D527" s="139"/>
+      <c r="E527" s="139"/>
+      <c r="F527" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G527" s="139" t="s">
+        <v>3038</v>
+      </c>
+      <c r="H527" s="139" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I527" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" s="139"/>
+      <c r="B528" s="139"/>
+      <c r="C528" s="139"/>
+      <c r="D528" s="139"/>
+      <c r="E528" s="139"/>
+      <c r="F528" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G528" s="139" t="s">
+        <v>3039</v>
+      </c>
+      <c r="H528" s="135" t="s">
+        <v>2718</v>
+      </c>
+      <c r="I528" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" s="139"/>
+      <c r="B529" s="139"/>
+      <c r="C529" s="139"/>
+      <c r="D529" s="139"/>
+      <c r="E529" s="139"/>
+      <c r="F529" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G529" s="139" t="s">
+        <v>3040</v>
+      </c>
+      <c r="H529" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I529" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" s="139"/>
+      <c r="B530" s="139"/>
+      <c r="C530" s="139"/>
+      <c r="D530" s="139"/>
+      <c r="E530" s="139"/>
+      <c r="F530" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G530" s="139" t="s">
+        <v>2792</v>
+      </c>
+      <c r="H530" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I530" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" s="139"/>
+      <c r="B531" s="139"/>
+      <c r="C531" s="139"/>
+      <c r="D531" s="139"/>
+      <c r="E531" s="139"/>
+      <c r="F531" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G531" s="139" t="s">
+        <v>3041</v>
+      </c>
+      <c r="H531" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I531" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" s="139"/>
+      <c r="B532" s="139"/>
+      <c r="C532" s="139"/>
+      <c r="D532" s="139"/>
+      <c r="E532" s="139"/>
+      <c r="F532" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G532" s="139" t="s">
+        <v>2790</v>
+      </c>
+      <c r="H532" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I532" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" s="139"/>
+      <c r="B533" s="139"/>
+      <c r="C533" s="139"/>
+      <c r="D533" s="139"/>
+      <c r="E533" s="139"/>
+      <c r="F533" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G533" s="139" t="s">
+        <v>3042</v>
+      </c>
+      <c r="H533" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I533" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" s="139"/>
+      <c r="B534" s="139"/>
+      <c r="C534" s="139"/>
+      <c r="D534" s="139"/>
+      <c r="E534" s="139"/>
+      <c r="F534" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G534" s="139" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H534" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I534" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" s="139"/>
+      <c r="B535" s="139"/>
+      <c r="C535" s="139"/>
+      <c r="D535" s="139"/>
+      <c r="E535" s="139"/>
+      <c r="F535" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G535" s="139" t="s">
+        <v>3043</v>
+      </c>
+      <c r="H535" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I535" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" s="139"/>
+      <c r="B536" s="139"/>
+      <c r="C536" s="139"/>
+      <c r="D536" s="139"/>
+      <c r="E536" s="139"/>
+      <c r="F536" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G536" s="139" t="s">
+        <v>3044</v>
+      </c>
+      <c r="H536" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I536" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" s="139"/>
+      <c r="B537" s="139"/>
+      <c r="C537" s="139"/>
+      <c r="D537" s="139"/>
+      <c r="E537" s="139"/>
+      <c r="F537" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G537" s="139" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H537" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I537" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" s="139"/>
+      <c r="B538" s="139"/>
+      <c r="C538" s="139"/>
+      <c r="D538" s="139"/>
+      <c r="E538" s="139"/>
+      <c r="F538" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G538" s="139" t="s">
+        <v>3046</v>
+      </c>
+      <c r="H538" s="139" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I538" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" s="139"/>
+      <c r="B539" s="139"/>
+      <c r="C539" s="139"/>
+      <c r="D539" s="139"/>
+      <c r="E539" s="139"/>
+      <c r="F539" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G539" s="139" t="s">
+        <v>3047</v>
+      </c>
+      <c r="H539" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I539" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" s="139"/>
+      <c r="B540" s="139"/>
+      <c r="C540" s="139"/>
+      <c r="D540" s="139"/>
+      <c r="E540" s="139"/>
+      <c r="F540" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G540" s="139" t="s">
         <v>3080</v>
       </c>
-      <c r="H524" s="135" t="s">
+      <c r="H540" s="135" t="s">
         <v>2493</v>
       </c>
-      <c r="I524" s="139" t="s">
+      <c r="I540" s="139" t="s">
         <v>3036</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -9525,9 +9525,6 @@
     <t>aux_ods_relatorio_devolucao_instancia</t>
   </si>
   <si>
-    <t>W\Operacional\Ruptura Vitrine\Ruptura Vitrine\ssis_controlador_ruptura_vitrine.dtsx</t>
-  </si>
-  <si>
     <t>(SC) Controlador Ruptura Vitrine</t>
   </si>
   <si>
@@ -9589,6 +9586,9 @@
   </si>
   <si>
     <t>ods_ruptura_status_produto_loja</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Ruptura Vitrine\Ruptura Vitrine\ssis_controlador_ruptura_vitrine.dtsx</t>
   </si>
 </sst>
 </file>
@@ -10195,7 +10195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -10645,6 +10645,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11218,8 +11219,11 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I540" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:I540">
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="W\Operacional\Ruptura Vitrine\Ruptura Vitrine\ssis_controlador_ruptura_vitrine.dtsx"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="Sequence Container" dataDxfId="14"/>
@@ -69692,8 +69696,8 @@
   <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F514" sqref="F514"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F512" sqref="F512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69749,7 +69753,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69775,7 +69779,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69801,7 +69805,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69827,7 +69831,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69853,7 +69857,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69879,7 +69883,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69905,7 +69909,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69931,7 +69935,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69957,7 +69961,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69983,7 +69987,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70009,7 +70013,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70035,7 +70039,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70061,7 +70065,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70087,7 +70091,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70113,7 +70117,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70139,7 +70143,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70165,7 +70169,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70191,7 +70195,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70217,7 +70221,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70243,7 +70247,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70269,7 +70273,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70295,7 +70299,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70321,7 +70325,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70347,7 +70351,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70373,7 +70377,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70399,7 +70403,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70425,7 +70429,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70451,7 +70455,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70477,7 +70481,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70503,7 +70507,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70529,7 +70533,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70555,7 +70559,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70581,7 +70585,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70607,7 +70611,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70633,7 +70637,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70659,7 +70663,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70685,7 +70689,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70711,7 +70715,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70737,7 +70741,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70763,7 +70767,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70789,7 +70793,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70815,7 +70819,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70841,7 +70845,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70867,7 +70871,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70893,7 +70897,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70919,7 +70923,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70945,7 +70949,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70971,7 +70975,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70997,7 +71001,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71023,7 +71027,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71049,7 +71053,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71075,7 +71079,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71101,7 +71105,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71127,7 +71131,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71153,7 +71157,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71179,7 +71183,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71205,7 +71209,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71231,7 +71235,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71257,7 +71261,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71283,7 +71287,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71309,7 +71313,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71335,7 +71339,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71361,7 +71365,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71387,7 +71391,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71413,7 +71417,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71439,7 +71443,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71465,7 +71469,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71491,7 +71495,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71517,7 +71521,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71543,7 +71547,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71569,7 +71573,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71595,7 +71599,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71621,7 +71625,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71647,7 +71651,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71673,7 +71677,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71699,7 +71703,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71725,7 +71729,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71751,7 +71755,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71777,7 +71781,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71803,7 +71807,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71829,7 +71833,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71855,7 +71859,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71881,7 +71885,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71907,7 +71911,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71933,7 +71937,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71959,7 +71963,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71985,7 +71989,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72011,7 +72015,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72037,7 +72041,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72063,7 +72067,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72089,7 +72093,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72115,7 +72119,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72141,7 +72145,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72167,7 +72171,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72193,7 +72197,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72219,7 +72223,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72245,7 +72249,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72271,7 +72275,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72297,7 +72301,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72323,7 +72327,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72349,7 +72353,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72375,7 +72379,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72401,7 +72405,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72427,7 +72431,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72453,7 +72457,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72479,7 +72483,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72505,7 +72509,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72531,7 +72535,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72557,7 +72561,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72583,7 +72587,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72609,7 +72613,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72635,7 +72639,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72661,7 +72665,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72687,7 +72691,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72713,7 +72717,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72739,7 +72743,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72765,7 +72769,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72791,7 +72795,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72817,7 +72821,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72843,7 +72847,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72869,7 +72873,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72895,7 +72899,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72921,7 +72925,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72947,7 +72951,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72973,7 +72977,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72999,7 +73003,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73025,7 +73029,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73051,7 +73055,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73077,7 +73081,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73103,7 +73107,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73129,7 +73133,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73155,7 +73159,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73181,7 +73185,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73207,7 +73211,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73233,7 +73237,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73259,7 +73263,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73285,7 +73289,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73311,7 +73315,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73337,7 +73341,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73363,7 +73367,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73389,7 +73393,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73415,7 +73419,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73441,7 +73445,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73467,7 +73471,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73493,7 +73497,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73519,7 +73523,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73545,7 +73549,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73571,7 +73575,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73597,7 +73601,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73626,7 +73630,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73655,7 +73659,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73684,7 +73688,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73713,7 +73717,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73742,7 +73746,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73771,7 +73775,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73800,7 +73804,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73829,7 +73833,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73858,7 +73862,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73887,7 +73891,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73916,7 +73920,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73945,7 +73949,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73974,7 +73978,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74003,7 +74007,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74032,7 +74036,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74061,7 +74065,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74090,7 +74094,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74119,7 +74123,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74148,7 +74152,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74177,7 +74181,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74206,7 +74210,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74235,7 +74239,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74264,7 +74268,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74293,7 +74297,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74322,7 +74326,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74351,7 +74355,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74380,7 +74384,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74409,7 +74413,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74438,7 +74442,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74467,7 +74471,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74496,7 +74500,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74525,7 +74529,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74554,7 +74558,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74583,7 +74587,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74612,7 +74616,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74638,7 +74642,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74664,7 +74668,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74690,7 +74694,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74716,7 +74720,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74742,7 +74746,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74768,7 +74772,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74794,7 +74798,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74820,7 +74824,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74846,7 +74850,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74872,7 +74876,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74898,7 +74902,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74924,7 +74928,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74950,7 +74954,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74976,7 +74980,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" hidden="1">
       <c r="A200" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75002,7 +75006,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" hidden="1">
       <c r="A201" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75028,7 +75032,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75054,7 +75058,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75080,7 +75084,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75106,7 +75110,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75132,7 +75136,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75158,7 +75162,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75184,7 +75188,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75210,7 +75214,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" hidden="1">
       <c r="A209" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75236,7 +75240,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" hidden="1">
       <c r="A210" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75262,7 +75266,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75288,7 +75292,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" hidden="1">
       <c r="A212" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75314,7 +75318,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75340,7 +75344,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75366,7 +75370,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" hidden="1">
       <c r="A215" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75392,7 +75396,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75418,7 +75422,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75444,7 +75448,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75470,7 +75474,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75496,7 +75500,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75522,7 +75526,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" hidden="1">
       <c r="A221" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75548,7 +75552,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" hidden="1">
       <c r="A222" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75574,7 +75578,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75600,7 +75604,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75626,7 +75630,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75652,7 +75656,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75678,7 +75682,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75704,7 +75708,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75730,7 +75734,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75756,7 +75760,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75782,7 +75786,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75808,7 +75812,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75834,7 +75838,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75863,7 +75867,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75892,7 +75896,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75921,7 +75925,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75950,7 +75954,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="135" t="s">
         <v>2617</v>
       </c>
@@ -75976,7 +75980,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="135" t="s">
         <v>2617</v>
       </c>
@@ -76002,7 +76006,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76028,7 +76032,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76057,7 +76061,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76083,7 +76087,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76109,7 +76113,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76138,7 +76142,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76164,7 +76168,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76193,7 +76197,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76219,7 +76223,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76245,7 +76249,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76271,7 +76275,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76297,7 +76301,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76323,7 +76327,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1">
       <c r="A251" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76349,7 +76353,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76375,7 +76379,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1">
       <c r="A253" s="135" t="s">
         <v>2626</v>
       </c>
@@ -76401,7 +76405,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76430,7 +76434,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" hidden="1">
       <c r="A255" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76459,7 +76463,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256" s="135" t="s">
         <v>2645</v>
       </c>
@@ -76488,7 +76492,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" hidden="1">
       <c r="A257" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76517,7 +76521,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76546,7 +76550,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76575,7 +76579,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1">
       <c r="A260" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76604,7 +76608,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1">
       <c r="A261" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76633,7 +76637,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1">
       <c r="A262" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76662,7 +76666,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76691,7 +76695,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76720,7 +76724,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1">
       <c r="A265" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76749,7 +76753,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1">
       <c r="A266" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76778,7 +76782,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1">
       <c r="A267" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76807,7 +76811,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76836,7 +76840,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76865,7 +76869,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76894,7 +76898,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1">
       <c r="A271" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76923,7 +76927,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1">
       <c r="A272" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76952,7 +76956,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1">
       <c r="A273" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76981,7 +76985,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77010,7 +77014,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1">
       <c r="A275" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77039,7 +77043,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1">
       <c r="A276" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77068,7 +77072,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77097,7 +77101,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77126,7 +77130,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77155,7 +77159,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1">
       <c r="A280" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77184,7 +77188,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77213,7 +77217,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1">
       <c r="A282" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77242,7 +77246,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77271,7 +77275,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1">
       <c r="A284" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77300,7 +77304,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77329,7 +77333,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77358,7 +77362,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" hidden="1">
       <c r="A287" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77387,7 +77391,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" hidden="1">
       <c r="A288" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77416,7 +77420,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" hidden="1">
       <c r="A289" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77445,7 +77449,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" hidden="1">
       <c r="A290" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77474,7 +77478,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77503,7 +77507,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1">
       <c r="A292" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77532,7 +77536,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1">
       <c r="A293" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77561,7 +77565,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1">
       <c r="A294" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77590,7 +77594,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" hidden="1">
       <c r="A295" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77619,7 +77623,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" hidden="1">
       <c r="A296" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77648,7 +77652,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" hidden="1">
       <c r="A297" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77677,7 +77681,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" hidden="1">
       <c r="A298" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77706,7 +77710,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" hidden="1">
       <c r="A299" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77735,7 +77739,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" hidden="1">
       <c r="A300" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77764,7 +77768,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" hidden="1">
       <c r="A301" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77793,7 +77797,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" hidden="1">
       <c r="A302" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77822,7 +77826,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" hidden="1">
       <c r="A303" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77851,7 +77855,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" hidden="1">
       <c r="A304" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77880,7 +77884,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" hidden="1">
       <c r="A305" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77909,7 +77913,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1">
       <c r="A306" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77938,7 +77942,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1">
       <c r="A307" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77967,7 +77971,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" hidden="1">
       <c r="A308" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77996,7 +78000,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" hidden="1">
       <c r="A309" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78025,7 +78029,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" hidden="1">
       <c r="A310" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78054,7 +78058,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" hidden="1">
       <c r="A311" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78083,7 +78087,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" hidden="1">
       <c r="A312" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78112,7 +78116,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1">
       <c r="A313" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78141,7 +78145,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1">
       <c r="A314" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78170,7 +78174,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" hidden="1">
       <c r="A315" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78199,7 +78203,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" hidden="1">
       <c r="A316" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78228,7 +78232,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" hidden="1">
       <c r="A317" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78257,7 +78261,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" hidden="1">
       <c r="A318" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78286,7 +78290,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" hidden="1">
       <c r="A319" s="135" t="s">
         <v>2659</v>
       </c>
@@ -78315,7 +78319,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1">
       <c r="A320" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78344,7 +78348,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1">
       <c r="A321" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78373,7 +78377,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" hidden="1">
       <c r="A322" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78402,7 +78406,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" hidden="1">
       <c r="A323" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78431,7 +78435,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" hidden="1">
       <c r="A324" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78460,7 +78464,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" hidden="1">
       <c r="A325" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78489,7 +78493,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" hidden="1">
       <c r="A326" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78518,7 +78522,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" hidden="1">
       <c r="A327" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78547,7 +78551,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" hidden="1">
       <c r="A328" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78576,7 +78580,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" hidden="1">
       <c r="A329" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78605,7 +78609,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" hidden="1">
       <c r="A330" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78634,7 +78638,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" hidden="1">
       <c r="A331" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78663,7 +78667,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" hidden="1">
       <c r="A332" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78692,7 +78696,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" hidden="1">
       <c r="A333" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78721,7 +78725,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" hidden="1">
       <c r="A334" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78750,7 +78754,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" hidden="1">
       <c r="A335" s="135" t="s">
         <v>2728</v>
       </c>
@@ -78779,7 +78783,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" hidden="1">
       <c r="A336" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78805,7 +78809,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" hidden="1">
       <c r="A337" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78831,7 +78835,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" hidden="1">
       <c r="A338" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78857,7 +78861,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" hidden="1">
       <c r="A339" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78883,7 +78887,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" hidden="1">
       <c r="A340" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78909,7 +78913,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" hidden="1">
       <c r="A341" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78935,7 +78939,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" hidden="1">
       <c r="A342" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78961,7 +78965,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" hidden="1">
       <c r="A343" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78987,7 +78991,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" hidden="1">
       <c r="A344" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79013,7 +79017,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" hidden="1">
       <c r="A345" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79039,7 +79043,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" hidden="1">
       <c r="A346" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79065,7 +79069,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" hidden="1">
       <c r="A347" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79091,7 +79095,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" hidden="1">
       <c r="A348" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79117,7 +79121,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" hidden="1">
       <c r="A349" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79143,7 +79147,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" hidden="1">
       <c r="A350" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79169,7 +79173,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" hidden="1">
       <c r="A351" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79195,7 +79199,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" hidden="1">
       <c r="A352" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79221,7 +79225,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" hidden="1">
       <c r="A353" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79247,7 +79251,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" hidden="1">
       <c r="A354" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79273,7 +79277,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" hidden="1">
       <c r="A355" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79302,7 +79306,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" hidden="1">
       <c r="A356" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79331,7 +79335,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" hidden="1">
       <c r="A357" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79360,7 +79364,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" hidden="1">
       <c r="A358" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79389,7 +79393,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" hidden="1">
       <c r="A359" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79418,7 +79422,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" hidden="1">
       <c r="A360" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79447,7 +79451,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" hidden="1">
       <c r="A361" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79476,7 +79480,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" hidden="1">
       <c r="A362" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79505,7 +79509,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" hidden="1">
       <c r="A363" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79534,7 +79538,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" hidden="1">
       <c r="A364" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79563,7 +79567,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" hidden="1">
       <c r="A365" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79592,7 +79596,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" hidden="1">
       <c r="A366" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79621,7 +79625,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" hidden="1">
       <c r="A367" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79650,7 +79654,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" hidden="1">
       <c r="A368" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79679,7 +79683,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" hidden="1">
       <c r="A369" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79708,7 +79712,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" hidden="1">
       <c r="A370" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79737,7 +79741,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" hidden="1">
       <c r="A371" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79766,7 +79770,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" hidden="1">
       <c r="A372" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79795,7 +79799,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" hidden="1">
       <c r="A373" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79824,7 +79828,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" hidden="1">
       <c r="A374" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79853,7 +79857,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" hidden="1">
       <c r="A375" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79882,7 +79886,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" hidden="1">
       <c r="A376" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79911,7 +79915,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" hidden="1">
       <c r="A377" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79940,7 +79944,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" hidden="1">
       <c r="A378" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79969,7 +79973,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" hidden="1">
       <c r="A379" s="135" t="s">
         <v>2761</v>
       </c>
@@ -79998,7 +80002,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" hidden="1">
       <c r="A380" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80027,7 +80031,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" hidden="1">
       <c r="A381" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80056,7 +80060,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" hidden="1">
       <c r="A382" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80085,7 +80089,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" hidden="1">
       <c r="A383" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80114,7 +80118,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" hidden="1">
       <c r="A384" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80143,7 +80147,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" hidden="1">
       <c r="A385" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80172,7 +80176,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" hidden="1">
       <c r="A386" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80201,7 +80205,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" hidden="1">
       <c r="A387" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80230,7 +80234,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" hidden="1">
       <c r="A388" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80259,7 +80263,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" hidden="1">
       <c r="A389" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80288,7 +80292,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" hidden="1">
       <c r="A390" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80317,7 +80321,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" hidden="1">
       <c r="A391" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80346,7 +80350,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" hidden="1">
       <c r="A392" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80375,7 +80379,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" hidden="1">
       <c r="A393" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80404,7 +80408,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" hidden="1">
       <c r="A394" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80433,7 +80437,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" hidden="1">
       <c r="A395" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80462,7 +80466,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" hidden="1">
       <c r="A396" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80491,7 +80495,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" hidden="1">
       <c r="A397" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80520,7 +80524,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" hidden="1">
       <c r="A398" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80549,7 +80553,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" hidden="1">
       <c r="A399" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80578,7 +80582,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" hidden="1">
       <c r="A400" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80607,7 +80611,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" hidden="1">
       <c r="A401" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80636,7 +80640,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" hidden="1">
       <c r="A402" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80665,7 +80669,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" hidden="1">
       <c r="A403" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80694,7 +80698,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" hidden="1">
       <c r="A404" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80723,7 +80727,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" hidden="1">
       <c r="A405" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80752,7 +80756,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" hidden="1">
       <c r="A406" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80781,7 +80785,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" hidden="1">
       <c r="A407" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80810,7 +80814,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" hidden="1">
       <c r="A408" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80839,7 +80843,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" hidden="1">
       <c r="A409" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80868,7 +80872,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" hidden="1">
       <c r="A410" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80897,7 +80901,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" hidden="1">
       <c r="A411" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80926,7 +80930,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" hidden="1">
       <c r="A412" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80955,7 +80959,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" hidden="1">
       <c r="A413" s="135" t="s">
         <v>2761</v>
       </c>
@@ -80984,7 +80988,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" hidden="1">
       <c r="A414" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81013,7 +81017,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" hidden="1">
       <c r="A415" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81042,7 +81046,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" hidden="1">
       <c r="A416" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81071,7 +81075,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" hidden="1">
       <c r="A417" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81100,7 +81104,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" hidden="1">
       <c r="A418" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81129,7 +81133,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" hidden="1">
       <c r="A419" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81158,7 +81162,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" hidden="1">
       <c r="A420" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81187,7 +81191,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" hidden="1">
       <c r="A421" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81216,7 +81220,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" hidden="1">
       <c r="A422" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81245,7 +81249,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" hidden="1">
       <c r="A423" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81274,7 +81278,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" hidden="1">
       <c r="A424" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81303,7 +81307,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" hidden="1">
       <c r="A425" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81332,7 +81336,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" hidden="1">
       <c r="A426" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81361,7 +81365,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" hidden="1">
       <c r="A427" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81390,7 +81394,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" hidden="1">
       <c r="A428" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81419,7 +81423,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" hidden="1">
       <c r="A429" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81448,7 +81452,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" hidden="1">
       <c r="A430" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81477,7 +81481,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" hidden="1">
       <c r="A431" s="135" t="s">
         <v>2761</v>
       </c>
@@ -81506,7 +81510,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" hidden="1">
       <c r="A432" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81535,7 +81539,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" hidden="1">
       <c r="A433" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81564,7 +81568,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" hidden="1">
       <c r="A434" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81593,7 +81597,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" hidden="1">
       <c r="A435" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81622,7 +81626,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" hidden="1">
       <c r="A436" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81651,7 +81655,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" hidden="1">
       <c r="A437" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81680,7 +81684,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" hidden="1">
       <c r="A438" s="135" t="s">
         <v>2854</v>
       </c>
@@ -81709,7 +81713,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" hidden="1">
       <c r="A439" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81738,7 +81742,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" hidden="1">
       <c r="A440" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81767,7 +81771,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" hidden="1">
       <c r="A441" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81796,7 +81800,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" hidden="1">
       <c r="A442" s="135" t="s">
         <v>2870</v>
       </c>
@@ -81825,7 +81829,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" hidden="1">
       <c r="A443" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81854,7 +81858,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" hidden="1">
       <c r="A444" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81883,7 +81887,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" hidden="1">
       <c r="A445" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81912,7 +81916,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" hidden="1">
       <c r="A446" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81941,7 +81945,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" hidden="1">
       <c r="A447" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81970,7 +81974,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" hidden="1">
       <c r="A448" s="135" t="s">
         <v>2881</v>
       </c>
@@ -81999,7 +82003,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" hidden="1">
       <c r="A449" s="135" t="s">
         <v>2881</v>
       </c>
@@ -82028,7 +82032,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" hidden="1">
       <c r="D450" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82048,7 +82052,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" hidden="1">
       <c r="D451" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82068,7 +82072,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" hidden="1">
       <c r="D452" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82088,7 +82092,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" hidden="1">
       <c r="D453" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82108,7 +82112,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" hidden="1">
       <c r="D454" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82128,7 +82132,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" hidden="1">
       <c r="D455" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82148,7 +82152,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" hidden="1">
       <c r="D456" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82168,7 +82172,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" hidden="1">
       <c r="D457" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82188,7 +82192,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" hidden="1">
       <c r="D458" s="135" t="s">
         <v>2897</v>
       </c>
@@ -82208,7 +82212,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" hidden="1">
       <c r="A459" s="141"/>
       <c r="B459" s="141"/>
       <c r="C459" s="141"/>
@@ -82231,7 +82235,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" hidden="1">
       <c r="A460" s="141"/>
       <c r="B460" s="141"/>
       <c r="C460" s="141"/>
@@ -82254,7 +82258,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" hidden="1">
       <c r="A461" s="141"/>
       <c r="B461" s="141"/>
       <c r="C461" s="141"/>
@@ -82277,7 +82281,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" hidden="1">
       <c r="A462" s="141"/>
       <c r="B462" s="141"/>
       <c r="C462" s="141"/>
@@ -82300,7 +82304,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" hidden="1">
       <c r="A463" s="141"/>
       <c r="B463" s="141"/>
       <c r="C463" s="141"/>
@@ -82323,7 +82327,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" hidden="1">
       <c r="A464" s="141"/>
       <c r="B464" s="141"/>
       <c r="C464" s="141"/>
@@ -82346,7 +82350,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" hidden="1">
       <c r="A465" s="141"/>
       <c r="B465" s="141"/>
       <c r="C465" s="141"/>
@@ -82369,7 +82373,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" hidden="1">
       <c r="A466" s="141"/>
       <c r="B466" s="141"/>
       <c r="C466" s="141"/>
@@ -82392,7 +82396,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" hidden="1">
       <c r="A467" s="141"/>
       <c r="B467" s="141"/>
       <c r="C467" s="141"/>
@@ -82415,7 +82419,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" hidden="1">
       <c r="A468" s="141"/>
       <c r="B468" s="141"/>
       <c r="C468" s="141"/>
@@ -82438,7 +82442,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" hidden="1">
       <c r="A469" s="141"/>
       <c r="B469" s="141"/>
       <c r="C469" s="141"/>
@@ -82461,7 +82465,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" hidden="1">
       <c r="A470" s="141"/>
       <c r="B470" s="141"/>
       <c r="C470" s="141"/>
@@ -82484,7 +82488,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" hidden="1">
       <c r="A471" s="141"/>
       <c r="B471" s="141"/>
       <c r="C471" s="141"/>
@@ -82507,7 +82511,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" hidden="1">
       <c r="A472" s="141"/>
       <c r="B472" s="141"/>
       <c r="C472" s="141"/>
@@ -82530,7 +82534,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" hidden="1">
       <c r="A473" s="139"/>
       <c r="B473" s="139"/>
       <c r="C473" s="139"/>
@@ -82553,7 +82557,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" hidden="1">
       <c r="A474" s="139"/>
       <c r="B474" s="139"/>
       <c r="C474" s="139"/>
@@ -82576,7 +82580,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" hidden="1">
       <c r="A475" s="139"/>
       <c r="B475" s="139"/>
       <c r="C475" s="139"/>
@@ -82599,7 +82603,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" hidden="1">
       <c r="A476" s="139"/>
       <c r="B476" s="139"/>
       <c r="C476" s="139"/>
@@ -82622,7 +82626,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" hidden="1">
       <c r="D477" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82642,7 +82646,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" hidden="1">
       <c r="D478" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82662,7 +82666,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" hidden="1">
       <c r="D479" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82682,7 +82686,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" hidden="1">
       <c r="D480" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82702,7 +82706,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="481" spans="4:9">
+    <row r="481" spans="4:9" hidden="1">
       <c r="D481" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82722,7 +82726,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="482" spans="4:9">
+    <row r="482" spans="4:9" hidden="1">
       <c r="D482" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82742,7 +82746,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="483" spans="4:9">
+    <row r="483" spans="4:9" hidden="1">
       <c r="D483" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82762,7 +82766,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="484" spans="4:9">
+    <row r="484" spans="4:9" hidden="1">
       <c r="D484" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82782,7 +82786,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="485" spans="4:9">
+    <row r="485" spans="4:9" hidden="1">
       <c r="D485" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82802,7 +82806,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="486" spans="4:9">
+    <row r="486" spans="4:9" hidden="1">
       <c r="D486" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82822,7 +82826,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="487" spans="4:9">
+    <row r="487" spans="4:9" hidden="1">
       <c r="D487" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82842,7 +82846,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="488" spans="4:9">
+    <row r="488" spans="4:9" hidden="1">
       <c r="D488" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82862,7 +82866,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="489" spans="4:9">
+    <row r="489" spans="4:9" hidden="1">
       <c r="D489" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82882,7 +82886,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="490" spans="4:9">
+    <row r="490" spans="4:9" hidden="1">
       <c r="D490" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82902,7 +82906,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="491" spans="4:9">
+    <row r="491" spans="4:9" hidden="1">
       <c r="D491" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82922,7 +82926,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="492" spans="4:9">
+    <row r="492" spans="4:9" hidden="1">
       <c r="D492" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82942,7 +82946,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="493" spans="4:9">
+    <row r="493" spans="4:9" hidden="1">
       <c r="D493" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82962,7 +82966,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="494" spans="4:9">
+    <row r="494" spans="4:9" hidden="1">
       <c r="D494" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82982,7 +82986,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="495" spans="4:9">
+    <row r="495" spans="4:9" hidden="1">
       <c r="D495" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83002,7 +83006,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="496" spans="4:9">
+    <row r="496" spans="4:9" hidden="1">
       <c r="D496" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83022,7 +83026,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" hidden="1">
       <c r="D497" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83042,7 +83046,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" hidden="1">
       <c r="D498" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83062,7 +83066,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" hidden="1">
       <c r="D499" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83082,7 +83086,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" hidden="1">
       <c r="D500" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83107,16 +83111,16 @@
       <c r="B501" s="141"/>
       <c r="C501" s="141"/>
       <c r="D501" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E501" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E501" s="141" t="s">
+      <c r="F501" s="141" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G501" s="157" t="s">
         <v>3164</v>
-      </c>
-      <c r="F501" s="141" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G501" s="141" t="s">
-        <v>3165</v>
       </c>
       <c r="H501" s="141" t="s">
         <v>2501</v>
@@ -83130,16 +83134,16 @@
       <c r="B502" s="141"/>
       <c r="C502" s="141"/>
       <c r="D502" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E502" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E502" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F502" s="141" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G502" s="141" t="s">
-        <v>3166</v>
+        <v>3172</v>
+      </c>
+      <c r="G502" s="157" t="s">
+        <v>3165</v>
       </c>
       <c r="H502" s="141" t="s">
         <v>2501</v>
@@ -83153,16 +83157,16 @@
       <c r="B503" s="141"/>
       <c r="C503" s="141"/>
       <c r="D503" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E503" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E503" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F503" s="141" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G503" s="141" t="s">
-        <v>3167</v>
+        <v>3172</v>
+      </c>
+      <c r="G503" s="157" t="s">
+        <v>3166</v>
       </c>
       <c r="H503" s="141" t="s">
         <v>2501</v>
@@ -83176,16 +83180,16 @@
       <c r="B504" s="141"/>
       <c r="C504" s="141"/>
       <c r="D504" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E504" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E504" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F504" s="141" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G504" s="141" t="s">
-        <v>3168</v>
+        <v>3172</v>
+      </c>
+      <c r="G504" s="157" t="s">
+        <v>3167</v>
       </c>
       <c r="H504" s="141" t="s">
         <v>2501</v>
@@ -83199,16 +83203,16 @@
       <c r="B505" s="141"/>
       <c r="C505" s="141"/>
       <c r="D505" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E505" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E505" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F505" s="141" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G505" s="141" t="s">
-        <v>3169</v>
+        <v>3172</v>
+      </c>
+      <c r="G505" s="157" t="s">
+        <v>3168</v>
       </c>
       <c r="H505" s="141" t="s">
         <v>2501</v>
@@ -83222,16 +83226,16 @@
       <c r="B506" s="141"/>
       <c r="C506" s="141"/>
       <c r="D506" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E506" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E506" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F506" s="141" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G506" s="141" t="s">
-        <v>3170</v>
+        <v>3172</v>
+      </c>
+      <c r="G506" s="157" t="s">
+        <v>3169</v>
       </c>
       <c r="H506" s="141" t="s">
         <v>2501</v>
@@ -83245,16 +83249,16 @@
       <c r="B507" s="141"/>
       <c r="C507" s="141"/>
       <c r="D507" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E507" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E507" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F507" s="141" t="s">
-        <v>3173</v>
-      </c>
-      <c r="G507" s="141" t="s">
-        <v>3171</v>
+        <v>3172</v>
+      </c>
+      <c r="G507" s="157" t="s">
+        <v>3170</v>
       </c>
       <c r="H507" s="141" t="s">
         <v>2501</v>
@@ -83268,16 +83272,16 @@
       <c r="B508" s="141"/>
       <c r="C508" s="141"/>
       <c r="D508" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E508" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E508" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F508" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G508" s="141" t="s">
-        <v>3174</v>
+        <v>3171</v>
+      </c>
+      <c r="G508" s="157" t="s">
+        <v>3173</v>
       </c>
       <c r="H508" s="141" t="s">
         <v>2501</v>
@@ -83291,16 +83295,16 @@
       <c r="B509" s="141"/>
       <c r="C509" s="141"/>
       <c r="D509" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E509" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E509" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F509" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G509" s="141" t="s">
-        <v>3175</v>
+        <v>3171</v>
+      </c>
+      <c r="G509" s="157" t="s">
+        <v>3174</v>
       </c>
       <c r="H509" s="141" t="s">
         <v>2501</v>
@@ -83314,16 +83318,16 @@
       <c r="B510" s="141"/>
       <c r="C510" s="141"/>
       <c r="D510" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E510" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E510" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F510" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G510" s="141" t="s">
-        <v>3176</v>
+        <v>3171</v>
+      </c>
+      <c r="G510" s="157" t="s">
+        <v>3175</v>
       </c>
       <c r="H510" s="135" t="s">
         <v>2656</v>
@@ -83337,16 +83341,16 @@
       <c r="B511" s="141"/>
       <c r="C511" s="141"/>
       <c r="D511" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E511" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E511" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F511" s="141" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G511" s="157" t="s">
         <v>3177</v>
-      </c>
-      <c r="G511" s="141" t="s">
-        <v>3178</v>
       </c>
       <c r="H511" s="141" t="s">
         <v>2501</v>
@@ -83360,16 +83364,16 @@
       <c r="B512" s="141"/>
       <c r="C512" s="141"/>
       <c r="D512" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E512" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E512" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F512" s="141" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="G512" s="141" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="H512" s="141" t="s">
         <v>2501</v>
@@ -83383,16 +83387,16 @@
       <c r="B513" s="141"/>
       <c r="C513" s="141"/>
       <c r="D513" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E513" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E513" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F513" s="141" t="s">
-        <v>3177</v>
-      </c>
-      <c r="G513" s="141" t="s">
-        <v>3180</v>
+        <v>3176</v>
+      </c>
+      <c r="G513" s="157" t="s">
+        <v>3179</v>
       </c>
       <c r="H513" s="141" t="s">
         <v>2501</v>
@@ -83403,16 +83407,16 @@
     </row>
     <row r="514" spans="1:9">
       <c r="D514" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E514" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E514" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F514" s="141" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="G514" s="135" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="H514" s="141" t="s">
         <v>2501</v>
@@ -83423,16 +83427,16 @@
     </row>
     <row r="515" spans="1:9">
       <c r="D515" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E515" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E515" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F515" s="135" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G515" s="157" t="s">
         <v>3182</v>
-      </c>
-      <c r="G515" s="135" t="s">
-        <v>3183</v>
       </c>
       <c r="H515" s="141" t="s">
         <v>2501</v>
@@ -83446,16 +83450,16 @@
       <c r="B516" s="141"/>
       <c r="C516" s="141"/>
       <c r="D516" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E516" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="E516" s="141" t="s">
-        <v>3164</v>
-      </c>
       <c r="F516" s="135" t="s">
-        <v>3182</v>
-      </c>
-      <c r="G516" s="141" t="s">
-        <v>3184</v>
+        <v>3181</v>
+      </c>
+      <c r="G516" s="157" t="s">
+        <v>3183</v>
       </c>
       <c r="H516" s="141" t="s">
         <v>2501</v>
@@ -83464,7 +83468,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="517" spans="1:9">
+    <row r="517" spans="1:9" hidden="1">
       <c r="A517" s="141"/>
       <c r="B517" s="141"/>
       <c r="C517" s="141"/>
@@ -83475,7 +83479,7 @@
       <c r="H517" s="141"/>
       <c r="I517" s="141"/>
     </row>
-    <row r="518" spans="1:9">
+    <row r="518" spans="1:9" hidden="1">
       <c r="A518" s="141"/>
       <c r="B518" s="141"/>
       <c r="C518" s="141"/>
@@ -83486,7 +83490,8 @@
       <c r="H518" s="141"/>
       <c r="I518" s="141"/>
     </row>
-    <row r="520" spans="1:9">
+    <row r="519" spans="1:9" hidden="1"/>
+    <row r="520" spans="1:9" hidden="1">
       <c r="A520" s="141"/>
       <c r="B520" s="141"/>
       <c r="C520" s="141"/>
@@ -83497,7 +83502,7 @@
       <c r="H520" s="141"/>
       <c r="I520" s="141"/>
     </row>
-    <row r="521" spans="1:9">
+    <row r="521" spans="1:9" hidden="1">
       <c r="A521" s="141"/>
       <c r="B521" s="141"/>
       <c r="C521" s="141"/>
@@ -83508,7 +83513,7 @@
       <c r="H521" s="141"/>
       <c r="I521" s="141"/>
     </row>
-    <row r="522" spans="1:9">
+    <row r="522" spans="1:9" hidden="1">
       <c r="A522" s="139"/>
       <c r="B522" s="139"/>
       <c r="C522" s="139"/>
@@ -83527,7 +83532,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="523" spans="1:9">
+    <row r="523" spans="1:9" hidden="1">
       <c r="A523" s="139"/>
       <c r="B523" s="139"/>
       <c r="C523" s="139"/>
@@ -83546,7 +83551,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="524" spans="1:9">
+    <row r="524" spans="1:9" hidden="1">
       <c r="A524" s="139"/>
       <c r="B524" s="139"/>
       <c r="C524" s="139"/>
@@ -83565,7 +83570,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
+    <row r="525" spans="1:9" hidden="1">
       <c r="A525" s="139"/>
       <c r="B525" s="139"/>
       <c r="C525" s="139"/>
@@ -83584,7 +83589,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="526" spans="1:9">
+    <row r="526" spans="1:9" hidden="1">
       <c r="A526" s="139"/>
       <c r="B526" s="139"/>
       <c r="C526" s="139"/>
@@ -83603,7 +83608,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="527" spans="1:9">
+    <row r="527" spans="1:9" hidden="1">
       <c r="A527" s="139"/>
       <c r="B527" s="139"/>
       <c r="C527" s="139"/>
@@ -83622,7 +83627,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="528" spans="1:9">
+    <row r="528" spans="1:9" hidden="1">
       <c r="A528" s="139"/>
       <c r="B528" s="139"/>
       <c r="C528" s="139"/>
@@ -83641,7 +83646,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" hidden="1">
       <c r="A529" s="139"/>
       <c r="B529" s="139"/>
       <c r="C529" s="139"/>
@@ -83660,7 +83665,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="530" spans="1:9">
+    <row r="530" spans="1:9" hidden="1">
       <c r="A530" s="139"/>
       <c r="B530" s="139"/>
       <c r="C530" s="139"/>
@@ -83679,7 +83684,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="531" spans="1:9">
+    <row r="531" spans="1:9" hidden="1">
       <c r="A531" s="139"/>
       <c r="B531" s="139"/>
       <c r="C531" s="139"/>
@@ -83698,7 +83703,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="532" spans="1:9">
+    <row r="532" spans="1:9" hidden="1">
       <c r="A532" s="139"/>
       <c r="B532" s="139"/>
       <c r="C532" s="139"/>
@@ -83717,7 +83722,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="533" spans="1:9">
+    <row r="533" spans="1:9" hidden="1">
       <c r="A533" s="139"/>
       <c r="B533" s="139"/>
       <c r="C533" s="139"/>
@@ -83736,7 +83741,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="534" spans="1:9">
+    <row r="534" spans="1:9" hidden="1">
       <c r="A534" s="139"/>
       <c r="B534" s="139"/>
       <c r="C534" s="139"/>
@@ -83755,7 +83760,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="535" spans="1:9">
+    <row r="535" spans="1:9" hidden="1">
       <c r="A535" s="139"/>
       <c r="B535" s="139"/>
       <c r="C535" s="139"/>
@@ -83774,7 +83779,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="536" spans="1:9">
+    <row r="536" spans="1:9" hidden="1">
       <c r="A536" s="139"/>
       <c r="B536" s="139"/>
       <c r="C536" s="139"/>
@@ -83793,7 +83798,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="537" spans="1:9">
+    <row r="537" spans="1:9" hidden="1">
       <c r="A537" s="139"/>
       <c r="B537" s="139"/>
       <c r="C537" s="139"/>
@@ -83812,7 +83817,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="538" spans="1:9">
+    <row r="538" spans="1:9" hidden="1">
       <c r="A538" s="139"/>
       <c r="B538" s="139"/>
       <c r="C538" s="139"/>
@@ -83831,7 +83836,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="539" spans="1:9">
+    <row r="539" spans="1:9" hidden="1">
       <c r="A539" s="139"/>
       <c r="B539" s="139"/>
       <c r="C539" s="139"/>
@@ -83850,7 +83855,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="540" spans="1:9">
+    <row r="540" spans="1:9" hidden="1">
       <c r="A540" s="139"/>
       <c r="B540" s="139"/>
       <c r="C540" s="139"/>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -9726,6 +9726,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9739,6 +9740,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10195,7 +10197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -10645,7 +10647,8 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11219,9 +11222,15 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I540" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A2:I540">
-    <filterColumn colId="3">
+    <filterColumn colId="3"/>
+    <filterColumn colId="6">
       <filters>
-        <filter val="W\Operacional\Ruptura Vitrine\Ruptura Vitrine\ssis_controlador_ruptura_vitrine.dtsx"/>
+        <filter val="ln.ods_cap_titulo_pgto"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="MIS_ODS"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -69695,9 +69704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F512" sqref="F512"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -72353,7 +72362,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -83106,7 +83115,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" hidden="1">
       <c r="A501" s="141"/>
       <c r="B501" s="141"/>
       <c r="C501" s="141"/>
@@ -83129,7 +83138,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
+    <row r="502" spans="1:9" hidden="1">
       <c r="A502" s="141"/>
       <c r="B502" s="141"/>
       <c r="C502" s="141"/>
@@ -83152,7 +83161,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
+    <row r="503" spans="1:9" hidden="1">
       <c r="A503" s="141"/>
       <c r="B503" s="141"/>
       <c r="C503" s="141"/>
@@ -83175,7 +83184,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="1:9" hidden="1">
       <c r="A504" s="141"/>
       <c r="B504" s="141"/>
       <c r="C504" s="141"/>
@@ -83198,7 +83207,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="1:9" hidden="1">
       <c r="A505" s="141"/>
       <c r="B505" s="141"/>
       <c r="C505" s="141"/>
@@ -83221,7 +83230,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="1:9" hidden="1">
       <c r="A506" s="141"/>
       <c r="B506" s="141"/>
       <c r="C506" s="141"/>
@@ -83244,7 +83253,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="1:9" hidden="1">
       <c r="A507" s="141"/>
       <c r="B507" s="141"/>
       <c r="C507" s="141"/>
@@ -83267,7 +83276,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="1:9" hidden="1">
       <c r="A508" s="141"/>
       <c r="B508" s="141"/>
       <c r="C508" s="141"/>
@@ -83290,7 +83299,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="1:9" hidden="1">
       <c r="A509" s="141"/>
       <c r="B509" s="141"/>
       <c r="C509" s="141"/>
@@ -83313,7 +83322,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="1:9" hidden="1">
       <c r="A510" s="141"/>
       <c r="B510" s="141"/>
       <c r="C510" s="141"/>
@@ -83336,7 +83345,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="1:9" hidden="1">
       <c r="A511" s="141"/>
       <c r="B511" s="141"/>
       <c r="C511" s="141"/>
@@ -83359,7 +83368,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="1:9" hidden="1">
       <c r="A512" s="141"/>
       <c r="B512" s="141"/>
       <c r="C512" s="141"/>
@@ -83372,7 +83381,7 @@
       <c r="F512" s="141" t="s">
         <v>3176</v>
       </c>
-      <c r="G512" s="141" t="s">
+      <c r="G512" s="157" t="s">
         <v>3178</v>
       </c>
       <c r="H512" s="141" t="s">
@@ -83382,7 +83391,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="513" spans="1:9">
+    <row r="513" spans="1:9" hidden="1">
       <c r="A513" s="141"/>
       <c r="B513" s="141"/>
       <c r="C513" s="141"/>
@@ -83405,7 +83414,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="514" spans="1:9">
+    <row r="514" spans="1:9" hidden="1">
       <c r="D514" s="141" t="s">
         <v>3184</v>
       </c>
@@ -83415,7 +83424,7 @@
       <c r="F514" s="141" t="s">
         <v>3176</v>
       </c>
-      <c r="G514" s="135" t="s">
+      <c r="G514" s="158" t="s">
         <v>3180</v>
       </c>
       <c r="H514" s="141" t="s">
@@ -83425,7 +83434,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="515" spans="1:9">
+    <row r="515" spans="1:9" hidden="1">
       <c r="D515" s="141" t="s">
         <v>3184</v>
       </c>
@@ -83445,7 +83454,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="516" spans="1:9">
+    <row r="516" spans="1:9" hidden="1">
       <c r="A516" s="141"/>
       <c r="B516" s="141"/>
       <c r="C516" s="141"/>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$F$157</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$540</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$549</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18885" uniqueCount="3185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18942" uniqueCount="3193">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9589,13 +9589,37 @@
   </si>
   <si>
     <t>W:\Operacional\Ruptura Vitrine\Ruptura Vitrine\ssis_controlador_ruptura_vitrine.dtsx</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_modulo</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_transacao</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_remessa</t>
+  </si>
+  <si>
+    <t>aux_ods_sige_titulo</t>
+  </si>
+  <si>
+    <t>fin.aux_ods_sige_titulo_pagamento</t>
+  </si>
+  <si>
+    <t>fin.aux.ods_terceiro_banco</t>
+  </si>
+  <si>
+    <t>erp.dump_parceiro_negocio</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_complemento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9741,6 +9765,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10197,7 +10227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -10602,6 +10632,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10647,8 +10679,8 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11220,19 +11252,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I540" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:I540">
-    <filterColumn colId="3"/>
-    <filterColumn colId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I549" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:I549">
+    <filterColumn colId="3">
       <filters>
-        <filter val="ln.ods_cap_titulo_pgto"/>
+        <filter val="W:\Operacional\Contas a Pagar_LN\Contas a Pagar_LN\ssis_controlador_cap.dtsx"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="MIS_ODS"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="Sequence Container" dataDxfId="14"/>
@@ -12627,7 +12655,7 @@
       <c r="A3" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="144" t="s">
         <v>1757</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -12647,7 +12675,7 @@
       <c r="A4" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B4" s="143"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="31" t="s">
         <v>1763</v>
       </c>
@@ -12666,7 +12694,7 @@
       <c r="A5" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B5" s="143"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="31" t="s">
         <v>1765</v>
       </c>
@@ -12685,7 +12713,7 @@
       <c r="A6" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B6" s="143"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="31" t="s">
         <v>1767</v>
       </c>
@@ -12704,7 +12732,7 @@
       <c r="A7" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B7" s="143"/>
+      <c r="B7" s="145"/>
       <c r="C7" s="31" t="s">
         <v>1769</v>
       </c>
@@ -12723,7 +12751,7 @@
       <c r="A8" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="31" t="s">
         <v>2294</v>
       </c>
@@ -12742,7 +12770,7 @@
       <c r="A9" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B9" s="143"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="31" t="s">
         <v>1771</v>
       </c>
@@ -12761,7 +12789,7 @@
       <c r="A10" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B10" s="143"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="31" t="s">
         <v>1773</v>
       </c>
@@ -12780,7 +12808,7 @@
       <c r="A11" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B11" s="143"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="31" t="s">
         <v>1775</v>
       </c>
@@ -12799,7 +12827,7 @@
       <c r="A12" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B12" s="143"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="31" t="s">
         <v>1777</v>
       </c>
@@ -12818,7 +12846,7 @@
       <c r="A13" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B13" s="143"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="31" t="s">
         <v>1779</v>
       </c>
@@ -12837,7 +12865,7 @@
       <c r="A14" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B14" s="143"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="31" t="s">
         <v>1781</v>
       </c>
@@ -12856,7 +12884,7 @@
       <c r="A15" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B15" s="143"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="31" t="s">
         <v>1783</v>
       </c>
@@ -12875,7 +12903,7 @@
       <c r="A16" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B16" s="143"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="31" t="s">
         <v>1785</v>
       </c>
@@ -12894,7 +12922,7 @@
       <c r="A17" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B17" s="143"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="31" t="s">
         <v>1787</v>
       </c>
@@ -12913,7 +12941,7 @@
       <c r="A18" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B18" s="143"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="31" t="s">
         <v>1796</v>
       </c>
@@ -12931,7 +12959,7 @@
       <c r="A19" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B19" s="143"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="31" t="s">
         <v>1800</v>
       </c>
@@ -12950,7 +12978,7 @@
       <c r="A20" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B20" s="143"/>
+      <c r="B20" s="145"/>
       <c r="C20" s="31" t="s">
         <v>1802</v>
       </c>
@@ -12969,7 +12997,7 @@
       <c r="A21" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="145"/>
       <c r="C21" s="31" t="s">
         <v>1804</v>
       </c>
@@ -12988,7 +13016,7 @@
       <c r="A22" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B22" s="143"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="31" t="s">
         <v>2271</v>
       </c>
@@ -13007,7 +13035,7 @@
       <c r="A23" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B23" s="143"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="31" t="s">
         <v>1807</v>
       </c>
@@ -13026,7 +13054,7 @@
       <c r="A24" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B24" s="143"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="31" t="s">
         <v>1813</v>
       </c>
@@ -13045,7 +13073,7 @@
       <c r="A25" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B25" s="143"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="31" t="s">
         <v>1823</v>
       </c>
@@ -13064,7 +13092,7 @@
       <c r="A26" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B26" s="143"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="31" t="s">
         <v>1825</v>
       </c>
@@ -13083,7 +13111,7 @@
       <c r="A27" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B27" s="143"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="31" t="s">
         <v>1827</v>
       </c>
@@ -13102,7 +13130,7 @@
       <c r="A28" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B28" s="143"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="31" t="s">
         <v>1829</v>
       </c>
@@ -13121,7 +13149,7 @@
       <c r="A29" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B29" s="143"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="31" t="s">
         <v>1831</v>
       </c>
@@ -13140,7 +13168,7 @@
       <c r="A30" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B30" s="143"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="31" t="s">
         <v>1833</v>
       </c>
@@ -13159,7 +13187,7 @@
       <c r="A31" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B31" s="143"/>
+      <c r="B31" s="145"/>
       <c r="C31" s="31" t="s">
         <v>1835</v>
       </c>
@@ -13178,7 +13206,7 @@
       <c r="A32" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B32" s="143"/>
+      <c r="B32" s="145"/>
       <c r="C32" s="31" t="s">
         <v>1874</v>
       </c>
@@ -13197,7 +13225,7 @@
       <c r="A33" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B33" s="143"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="31" t="s">
         <v>1875</v>
       </c>
@@ -13216,7 +13244,7 @@
       <c r="A34" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B34" s="143"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="31" t="s">
         <v>2357</v>
       </c>
@@ -13235,7 +13263,7 @@
       <c r="A35" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B35" s="143"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="31" t="s">
         <v>2340</v>
       </c>
@@ -13254,7 +13282,7 @@
       <c r="A36" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B36" s="143"/>
+      <c r="B36" s="145"/>
       <c r="C36" s="31" t="s">
         <v>1882</v>
       </c>
@@ -13273,7 +13301,7 @@
       <c r="A37" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B37" s="143"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="31" t="s">
         <v>1884</v>
       </c>
@@ -13292,7 +13320,7 @@
       <c r="A38" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B38" s="143"/>
+      <c r="B38" s="145"/>
       <c r="C38" s="31" t="s">
         <v>1886</v>
       </c>
@@ -13311,7 +13339,7 @@
       <c r="A39" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B39" s="143"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="31" t="s">
         <v>1888</v>
       </c>
@@ -13330,7 +13358,7 @@
       <c r="A40" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B40" s="143"/>
+      <c r="B40" s="145"/>
       <c r="C40" s="31" t="s">
         <v>1895</v>
       </c>
@@ -13349,7 +13377,7 @@
       <c r="A41" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B41" s="143"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="31" t="s">
         <v>1897</v>
       </c>
@@ -13368,7 +13396,7 @@
       <c r="A42" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B42" s="144"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="31" t="s">
         <v>2048</v>
       </c>
@@ -13395,7 +13423,7 @@
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="144" t="s">
         <v>2345</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -13416,7 +13444,7 @@
       <c r="A45" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B45" s="143"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="31" t="s">
         <v>1761</v>
       </c>
@@ -13435,7 +13463,7 @@
       <c r="A46" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B46" s="143"/>
+      <c r="B46" s="145"/>
       <c r="C46" s="31" t="s">
         <v>1789</v>
       </c>
@@ -13454,7 +13482,7 @@
       <c r="A47" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B47" s="143"/>
+      <c r="B47" s="145"/>
       <c r="C47" s="31" t="s">
         <v>1791</v>
       </c>
@@ -13473,7 +13501,7 @@
       <c r="A48" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B48" s="143"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="31" t="s">
         <v>1792</v>
       </c>
@@ -13492,7 +13520,7 @@
       <c r="A49" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B49" s="143"/>
+      <c r="B49" s="145"/>
       <c r="C49" s="31" t="s">
         <v>2019</v>
       </c>
@@ -13511,7 +13539,7 @@
       <c r="A50" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B50" s="143"/>
+      <c r="B50" s="145"/>
       <c r="C50" s="31" t="s">
         <v>1794</v>
       </c>
@@ -13530,7 +13558,7 @@
       <c r="A51" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B51" s="143"/>
+      <c r="B51" s="145"/>
       <c r="C51" s="31" t="s">
         <v>1799</v>
       </c>
@@ -13549,7 +13577,7 @@
       <c r="A52" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B52" s="143"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="31" t="s">
         <v>1809</v>
       </c>
@@ -13568,7 +13596,7 @@
       <c r="A53" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B53" s="143"/>
+      <c r="B53" s="145"/>
       <c r="C53" s="31" t="s">
         <v>1811</v>
       </c>
@@ -13587,7 +13615,7 @@
       <c r="A54" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B54" s="143"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="31" t="s">
         <v>1815</v>
       </c>
@@ -13606,7 +13634,7 @@
       <c r="A55" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B55" s="143"/>
+      <c r="B55" s="145"/>
       <c r="C55" s="31" t="s">
         <v>1817</v>
       </c>
@@ -13625,7 +13653,7 @@
       <c r="A56" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B56" s="143"/>
+      <c r="B56" s="145"/>
       <c r="C56" s="31" t="s">
         <v>1819</v>
       </c>
@@ -13644,7 +13672,7 @@
       <c r="A57" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B57" s="143"/>
+      <c r="B57" s="145"/>
       <c r="C57" s="31" t="s">
         <v>1821</v>
       </c>
@@ -13663,7 +13691,7 @@
       <c r="A58" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B58" s="143"/>
+      <c r="B58" s="145"/>
       <c r="C58" s="31" t="s">
         <v>1837</v>
       </c>
@@ -13682,7 +13710,7 @@
       <c r="A59" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B59" s="143"/>
+      <c r="B59" s="145"/>
       <c r="C59" s="31" t="s">
         <v>1839</v>
       </c>
@@ -13701,7 +13729,7 @@
       <c r="A60" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B60" s="143"/>
+      <c r="B60" s="145"/>
       <c r="C60" s="31" t="s">
         <v>1841</v>
       </c>
@@ -13720,7 +13748,7 @@
       <c r="A61" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B61" s="143"/>
+      <c r="B61" s="145"/>
       <c r="C61" s="31" t="s">
         <v>1843</v>
       </c>
@@ -13739,7 +13767,7 @@
       <c r="A62" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="145"/>
       <c r="C62" s="31" t="s">
         <v>1845</v>
       </c>
@@ -13758,7 +13786,7 @@
       <c r="A63" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B63" s="143"/>
+      <c r="B63" s="145"/>
       <c r="C63" s="31" t="s">
         <v>1847</v>
       </c>
@@ -13777,7 +13805,7 @@
       <c r="A64" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B64" s="143"/>
+      <c r="B64" s="145"/>
       <c r="C64" s="31" t="s">
         <v>1849</v>
       </c>
@@ -13796,7 +13824,7 @@
       <c r="A65" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B65" s="143"/>
+      <c r="B65" s="145"/>
       <c r="C65" s="31" t="s">
         <v>2341</v>
       </c>
@@ -13815,7 +13843,7 @@
       <c r="A66" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B66" s="143"/>
+      <c r="B66" s="145"/>
       <c r="C66" s="31" t="s">
         <v>1852</v>
       </c>
@@ -13834,7 +13862,7 @@
       <c r="A67" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B67" s="143"/>
+      <c r="B67" s="145"/>
       <c r="C67" s="31" t="s">
         <v>1854</v>
       </c>
@@ -13853,7 +13881,7 @@
       <c r="A68" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B68" s="143"/>
+      <c r="B68" s="145"/>
       <c r="C68" s="31" t="s">
         <v>1856</v>
       </c>
@@ -13872,7 +13900,7 @@
       <c r="A69" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B69" s="143"/>
+      <c r="B69" s="145"/>
       <c r="C69" s="31" t="s">
         <v>1858</v>
       </c>
@@ -13891,7 +13919,7 @@
       <c r="A70" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B70" s="143"/>
+      <c r="B70" s="145"/>
       <c r="C70" s="31" t="s">
         <v>1860</v>
       </c>
@@ -13910,7 +13938,7 @@
       <c r="A71" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B71" s="143"/>
+      <c r="B71" s="145"/>
       <c r="C71" s="31" t="s">
         <v>1862</v>
       </c>
@@ -13929,7 +13957,7 @@
       <c r="A72" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B72" s="143"/>
+      <c r="B72" s="145"/>
       <c r="C72" s="31" t="s">
         <v>1864</v>
       </c>
@@ -13948,7 +13976,7 @@
       <c r="A73" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B73" s="143"/>
+      <c r="B73" s="145"/>
       <c r="C73" s="31" t="s">
         <v>1866</v>
       </c>
@@ -13967,7 +13995,7 @@
       <c r="A74" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B74" s="143"/>
+      <c r="B74" s="145"/>
       <c r="C74" s="31" t="s">
         <v>1868</v>
       </c>
@@ -13986,7 +14014,7 @@
       <c r="A75" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B75" s="143"/>
+      <c r="B75" s="145"/>
       <c r="C75" s="31" t="s">
         <v>1870</v>
       </c>
@@ -14005,7 +14033,7 @@
       <c r="A76" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B76" s="143"/>
+      <c r="B76" s="145"/>
       <c r="C76" s="31" t="s">
         <v>1877</v>
       </c>
@@ -14026,7 +14054,7 @@
       <c r="A77" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B77" s="143"/>
+      <c r="B77" s="145"/>
       <c r="C77" s="31" t="s">
         <v>1880</v>
       </c>
@@ -14045,7 +14073,7 @@
       <c r="A78" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B78" s="143"/>
+      <c r="B78" s="145"/>
       <c r="C78" s="31" t="s">
         <v>2314</v>
       </c>
@@ -14066,7 +14094,7 @@
       <c r="A79" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B79" s="144"/>
+      <c r="B79" s="146"/>
       <c r="C79" s="31" t="s">
         <v>1890</v>
       </c>
@@ -14096,7 +14124,7 @@
       <c r="A81" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B81" s="151" t="s">
+      <c r="B81" s="153" t="s">
         <v>911</v>
       </c>
       <c r="C81" s="31" t="s">
@@ -14117,7 +14145,7 @@
       <c r="A82" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B82" s="152"/>
+      <c r="B82" s="154"/>
       <c r="C82" s="31" t="s">
         <v>1908</v>
       </c>
@@ -14147,7 +14175,7 @@
       <c r="A84" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B84" s="147" t="s">
+      <c r="B84" s="149" t="s">
         <v>1910</v>
       </c>
       <c r="C84" s="31" t="s">
@@ -14168,7 +14196,7 @@
       <c r="A85" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B85" s="148"/>
+      <c r="B85" s="150"/>
       <c r="C85" s="31" t="s">
         <v>1914</v>
       </c>
@@ -14187,7 +14215,7 @@
       <c r="A86" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B86" s="148"/>
+      <c r="B86" s="150"/>
       <c r="C86" s="31" t="s">
         <v>2346</v>
       </c>
@@ -14206,7 +14234,7 @@
       <c r="A87" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B87" s="148"/>
+      <c r="B87" s="150"/>
       <c r="C87" s="31" t="s">
         <v>1911</v>
       </c>
@@ -14225,7 +14253,7 @@
       <c r="A88" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B88" s="148"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="31" t="s">
         <v>1913</v>
       </c>
@@ -14244,7 +14272,7 @@
       <c r="A89" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B89" s="148"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="31" t="s">
         <v>2213</v>
       </c>
@@ -14263,7 +14291,7 @@
       <c r="A90" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B90" s="148"/>
+      <c r="B90" s="150"/>
       <c r="C90" s="31" t="s">
         <v>2147</v>
       </c>
@@ -14282,7 +14310,7 @@
       <c r="A91" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B91" s="149"/>
+      <c r="B91" s="151"/>
       <c r="C91" s="31" t="s">
         <v>2215</v>
       </c>
@@ -14312,7 +14340,7 @@
       <c r="A93" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B93" s="151" t="s">
+      <c r="B93" s="153" t="s">
         <v>1919</v>
       </c>
       <c r="C93" s="31" t="s">
@@ -14333,7 +14361,7 @@
       <c r="A94" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B94" s="153"/>
+      <c r="B94" s="155"/>
       <c r="C94" s="31" t="s">
         <v>1920</v>
       </c>
@@ -14352,7 +14380,7 @@
       <c r="A95" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B95" s="153"/>
+      <c r="B95" s="155"/>
       <c r="C95" s="31" t="s">
         <v>1923</v>
       </c>
@@ -14371,7 +14399,7 @@
       <c r="A96" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B96" s="153"/>
+      <c r="B96" s="155"/>
       <c r="C96" s="31" t="s">
         <v>1925</v>
       </c>
@@ -14390,7 +14418,7 @@
       <c r="A97" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B97" s="153"/>
+      <c r="B97" s="155"/>
       <c r="C97" s="31" t="s">
         <v>1929</v>
       </c>
@@ -14409,7 +14437,7 @@
       <c r="A98" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B98" s="153"/>
+      <c r="B98" s="155"/>
       <c r="C98" s="31" t="s">
         <v>1927</v>
       </c>
@@ -14428,7 +14456,7 @@
       <c r="A99" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B99" s="153"/>
+      <c r="B99" s="155"/>
       <c r="C99" s="31" t="s">
         <v>2259</v>
       </c>
@@ -14447,7 +14475,7 @@
       <c r="A100" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B100" s="153"/>
+      <c r="B100" s="155"/>
       <c r="C100" s="31" t="s">
         <v>2260</v>
       </c>
@@ -14466,7 +14494,7 @@
       <c r="A101" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B101" s="152"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="31" t="s">
         <v>2287</v>
       </c>
@@ -14496,7 +14524,7 @@
       <c r="A103" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B103" s="142" t="s">
+      <c r="B103" s="144" t="s">
         <v>964</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -14517,7 +14545,7 @@
       <c r="A104" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B104" s="143"/>
+      <c r="B104" s="145"/>
       <c r="C104" s="31" t="s">
         <v>2333</v>
       </c>
@@ -14536,7 +14564,7 @@
       <c r="A105" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B105" s="144"/>
+      <c r="B105" s="146"/>
       <c r="C105" s="31" t="s">
         <v>2335</v>
       </c>
@@ -14598,7 +14626,7 @@
       <c r="A109" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B109" s="151" t="s">
+      <c r="B109" s="153" t="s">
         <v>945</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -14619,7 +14647,7 @@
       <c r="A110" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B110" s="153"/>
+      <c r="B110" s="155"/>
       <c r="C110" s="31" t="s">
         <v>1937</v>
       </c>
@@ -14638,7 +14666,7 @@
       <c r="A111" s="30" t="s">
         <v>2301</v>
       </c>
-      <c r="B111" s="153"/>
+      <c r="B111" s="155"/>
       <c r="C111" s="31" t="s">
         <v>2289</v>
       </c>
@@ -14657,7 +14685,7 @@
       <c r="A112" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B112" s="152"/>
+      <c r="B112" s="154"/>
       <c r="C112" s="31" t="s">
         <v>1939</v>
       </c>
@@ -14687,7 +14715,7 @@
       <c r="A114" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B114" s="151" t="s">
+      <c r="B114" s="153" t="s">
         <v>951</v>
       </c>
       <c r="C114" s="31" t="s">
@@ -14708,7 +14736,7 @@
       <c r="A115" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B115" s="152"/>
+      <c r="B115" s="154"/>
       <c r="C115" s="31" t="s">
         <v>1944</v>
       </c>
@@ -14802,7 +14830,7 @@
       <c r="A121" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B121" s="147" t="s">
+      <c r="B121" s="149" t="s">
         <v>1950</v>
       </c>
       <c r="C121" s="31" t="s">
@@ -14823,7 +14851,7 @@
       <c r="A122" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B122" s="148"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="31" t="s">
         <v>1954</v>
       </c>
@@ -14842,7 +14870,7 @@
       <c r="A123" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B123" s="148"/>
+      <c r="B123" s="150"/>
       <c r="C123" s="31" t="s">
         <v>1956</v>
       </c>
@@ -14861,7 +14889,7 @@
       <c r="A124" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B124" s="148"/>
+      <c r="B124" s="150"/>
       <c r="C124" s="31" t="s">
         <v>1958</v>
       </c>
@@ -14880,7 +14908,7 @@
       <c r="A125" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B125" s="149"/>
+      <c r="B125" s="151"/>
       <c r="C125" s="31" t="s">
         <v>2268</v>
       </c>
@@ -14910,7 +14938,7 @@
       <c r="A127" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B127" s="151" t="s">
+      <c r="B127" s="153" t="s">
         <v>1960</v>
       </c>
       <c r="C127" s="31" t="s">
@@ -14931,7 +14959,7 @@
       <c r="A128" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B128" s="153"/>
+      <c r="B128" s="155"/>
       <c r="C128" s="31" t="s">
         <v>1964</v>
       </c>
@@ -14950,7 +14978,7 @@
       <c r="A129" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B129" s="152"/>
+      <c r="B129" s="154"/>
       <c r="C129" s="31" t="s">
         <v>1966</v>
       </c>
@@ -15012,7 +15040,7 @@
       <c r="A133" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B133" s="151" t="s">
+      <c r="B133" s="153" t="s">
         <v>1976</v>
       </c>
       <c r="C133" s="31" t="s">
@@ -15033,7 +15061,7 @@
       <c r="A134" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B134" s="152"/>
+      <c r="B134" s="154"/>
       <c r="C134" s="31" t="s">
         <v>1980</v>
       </c>
@@ -15063,7 +15091,7 @@
       <c r="A136" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B136" s="151" t="s">
+      <c r="B136" s="153" t="s">
         <v>1982</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -15084,7 +15112,7 @@
       <c r="A137" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B137" s="153"/>
+      <c r="B137" s="155"/>
       <c r="C137" s="31" t="s">
         <v>1986</v>
       </c>
@@ -15103,7 +15131,7 @@
       <c r="A138" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B138" s="153"/>
+      <c r="B138" s="155"/>
       <c r="C138" s="31" t="s">
         <v>1988</v>
       </c>
@@ -15122,7 +15150,7 @@
       <c r="A139" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B139" s="152"/>
+      <c r="B139" s="154"/>
       <c r="C139" s="31" t="s">
         <v>1990</v>
       </c>
@@ -15152,7 +15180,7 @@
       <c r="A141" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B141" s="147" t="s">
+      <c r="B141" s="149" t="s">
         <v>1994</v>
       </c>
       <c r="C141" s="31" t="s">
@@ -15173,7 +15201,7 @@
       <c r="A142" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B142" s="148"/>
+      <c r="B142" s="150"/>
       <c r="C142" s="31" t="s">
         <v>1998</v>
       </c>
@@ -15192,7 +15220,7 @@
       <c r="A143" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B143" s="149"/>
+      <c r="B143" s="151"/>
       <c r="C143" s="31" t="s">
         <v>2000</v>
       </c>
@@ -15254,7 +15282,7 @@
       <c r="A147" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B147" s="151" t="s">
+      <c r="B147" s="153" t="s">
         <v>2005</v>
       </c>
       <c r="C147" s="31" t="s">
@@ -15275,7 +15303,7 @@
       <c r="A148" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B148" s="153"/>
+      <c r="B148" s="155"/>
       <c r="C148" s="31" t="s">
         <v>2320</v>
       </c>
@@ -15294,7 +15322,7 @@
       <c r="A149" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B149" s="152"/>
+      <c r="B149" s="154"/>
       <c r="C149" s="31" t="s">
         <v>2010</v>
       </c>
@@ -15455,22 +15483,22 @@
       <c r="G158" s="34"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="C160" s="145"/>
-      <c r="D160" s="145"/>
-      <c r="E160" s="145"/>
-      <c r="F160" s="145"/>
+      <c r="C160" s="147"/>
+      <c r="D160" s="147"/>
+      <c r="E160" s="147"/>
+      <c r="F160" s="147"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="C161" s="145"/>
-      <c r="D161" s="145"/>
-      <c r="E161" s="145"/>
-      <c r="F161" s="145"/>
+      <c r="C161" s="147"/>
+      <c r="D161" s="147"/>
+      <c r="E161" s="147"/>
+      <c r="F161" s="147"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="C162" s="146"/>
-      <c r="D162" s="146"/>
-      <c r="E162" s="146"/>
-      <c r="F162" s="146"/>
+      <c r="C162" s="148"/>
+      <c r="D162" s="148"/>
+      <c r="E162" s="148"/>
+      <c r="F162" s="148"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="116" t="s">
@@ -15646,7 +15674,7 @@
       <c r="A173" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B173" s="150" t="s">
+      <c r="B173" s="152" t="s">
         <v>1972</v>
       </c>
       <c r="C173" s="113" t="s">
@@ -15665,7 +15693,7 @@
       <c r="A174" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B174" s="150"/>
+      <c r="B174" s="152"/>
       <c r="C174" s="113" t="s">
         <v>1975</v>
       </c>
@@ -69483,19 +69511,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="157" t="s">
         <v>1061</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="H1" s="155" t="s">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="H1" s="157" t="s">
         <v>1100</v>
       </c>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -69680,11 +69708,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -69702,11 +69730,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I540"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G288" sqref="G288:I288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69724,11 +69752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="158" t="s">
         <v>2896</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
       <c r="I1" s="135" t="s">
         <v>3047</v>
       </c>
@@ -72362,7 +72390,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -76501,7 +76529,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1">
+    <row r="257" spans="1:9">
       <c r="A257" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76530,7 +76558,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1">
+    <row r="258" spans="1:9">
       <c r="A258" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76559,7 +76587,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1">
+    <row r="259" spans="1:9">
       <c r="A259" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76588,7 +76616,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1">
+    <row r="260" spans="1:9">
       <c r="A260" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76617,7 +76645,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1">
+    <row r="261" spans="1:9">
       <c r="A261" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76646,7 +76674,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1">
+    <row r="262" spans="1:9">
       <c r="A262" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76675,7 +76703,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1">
+    <row r="263" spans="1:9">
       <c r="A263" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76704,7 +76732,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1">
+    <row r="264" spans="1:9">
       <c r="A264" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76733,7 +76761,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1">
+    <row r="265" spans="1:9">
       <c r="A265" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76762,7 +76790,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1">
+    <row r="266" spans="1:9">
       <c r="A266" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76791,7 +76819,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1">
+    <row r="267" spans="1:9">
       <c r="A267" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76820,7 +76848,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1">
+    <row r="268" spans="1:9">
       <c r="A268" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76849,7 +76877,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1">
+    <row r="269" spans="1:9">
       <c r="A269" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76878,7 +76906,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1">
+    <row r="270" spans="1:9">
       <c r="A270" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76907,7 +76935,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1">
+    <row r="271" spans="1:9">
       <c r="A271" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76936,7 +76964,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1">
+    <row r="272" spans="1:9">
       <c r="A272" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76965,7 +76993,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1">
+    <row r="273" spans="1:9">
       <c r="A273" s="135" t="s">
         <v>2659</v>
       </c>
@@ -76994,7 +77022,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1">
+    <row r="274" spans="1:9">
       <c r="A274" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77014,16 +77042,16 @@
         <v>2612</v>
       </c>
       <c r="G274" s="135" t="s">
-        <v>2678</v>
+        <v>3189</v>
       </c>
       <c r="H274" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I274" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1">
+    <row r="275" spans="1:9">
       <c r="A275" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77043,16 +77071,16 @@
         <v>2612</v>
       </c>
       <c r="G275" s="135" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="H275" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I275" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1">
+    <row r="276" spans="1:9">
       <c r="A276" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77072,16 +77100,16 @@
         <v>2612</v>
       </c>
       <c r="G276" s="135" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="H276" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I276" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1">
+    <row r="277" spans="1:9">
       <c r="A277" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77100,17 +77128,17 @@
       <c r="F277" s="135" t="s">
         <v>2612</v>
       </c>
-      <c r="G277" s="135" t="s">
-        <v>2681</v>
+      <c r="G277" s="159" t="s">
+        <v>3188</v>
       </c>
       <c r="H277" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I277" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1">
+    <row r="278" spans="1:9">
       <c r="A278" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77130,16 +77158,16 @@
         <v>2612</v>
       </c>
       <c r="G278" s="135" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="H278" s="135" t="s">
-        <v>2656</v>
+        <v>2403</v>
       </c>
       <c r="I278" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1">
+    <row r="279" spans="1:9">
       <c r="A279" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77159,16 +77187,16 @@
         <v>2612</v>
       </c>
       <c r="G279" s="135" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="H279" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I279" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1">
+    <row r="280" spans="1:9">
       <c r="A280" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77188,16 +77216,16 @@
         <v>2612</v>
       </c>
       <c r="G280" s="135" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="H280" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I280" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77217,16 +77245,16 @@
         <v>2612</v>
       </c>
       <c r="G281" s="135" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="H281" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I281" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1">
+    <row r="282" spans="1:9">
       <c r="A282" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77246,16 +77274,16 @@
         <v>2612</v>
       </c>
       <c r="G282" s="135" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="H282" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I282" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9">
       <c r="A283" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77272,19 +77300,19 @@
         <v>2610</v>
       </c>
       <c r="F283" s="135" t="s">
-        <v>2687</v>
+        <v>2612</v>
       </c>
       <c r="G283" s="135" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="H283" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I283" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1">
+    <row r="284" spans="1:9">
       <c r="A284" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77301,19 +77329,19 @@
         <v>2610</v>
       </c>
       <c r="F284" s="135" t="s">
-        <v>2687</v>
+        <v>2612</v>
       </c>
       <c r="G284" s="135" t="s">
-        <v>2689</v>
+        <v>3190</v>
       </c>
       <c r="H284" s="135" t="s">
-        <v>2501</v>
+        <v>2652</v>
       </c>
       <c r="I284" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9">
       <c r="A285" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77330,19 +77358,19 @@
         <v>2610</v>
       </c>
       <c r="F285" s="135" t="s">
-        <v>2687</v>
+        <v>2612</v>
       </c>
       <c r="G285" s="135" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
       <c r="H285" s="135" t="s">
-        <v>2656</v>
+        <v>2403</v>
       </c>
       <c r="I285" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1">
+    <row r="286" spans="1:9">
       <c r="A286" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77359,19 +77387,19 @@
         <v>2610</v>
       </c>
       <c r="F286" s="135" t="s">
-        <v>2687</v>
-      </c>
-      <c r="G286" s="135" t="s">
-        <v>2691</v>
+        <v>2612</v>
+      </c>
+      <c r="G286" s="159" t="s">
+        <v>3191</v>
       </c>
       <c r="H286" s="135" t="s">
-        <v>2656</v>
+        <v>2403</v>
       </c>
       <c r="I286" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1">
+    <row r="287" spans="1:9">
       <c r="A287" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77390,17 +77418,17 @@
       <c r="F287" s="135" t="s">
         <v>2687</v>
       </c>
-      <c r="G287" s="135" t="s">
-        <v>2692</v>
+      <c r="G287" s="159" t="s">
+        <v>3192</v>
       </c>
       <c r="H287" s="135" t="s">
-        <v>2656</v>
+        <v>2403</v>
       </c>
       <c r="I287" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1">
+    <row r="288" spans="1:9">
       <c r="A288" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77420,16 +77448,16 @@
         <v>2687</v>
       </c>
       <c r="G288" s="135" t="s">
-        <v>2693</v>
+        <v>2688</v>
       </c>
       <c r="H288" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I288" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1">
+    <row r="289" spans="1:9">
       <c r="A289" s="135" t="s">
         <v>2659</v>
       </c>
@@ -77449,7 +77477,7 @@
         <v>2687</v>
       </c>
       <c r="G289" s="135" t="s">
-        <v>2694</v>
+        <v>2689</v>
       </c>
       <c r="H289" s="135" t="s">
         <v>2501</v>
@@ -77458,146 +77486,146 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1">
+    <row r="290" spans="1:9">
       <c r="A290" s="135" t="s">
         <v>2659</v>
       </c>
       <c r="B290" s="135" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C290" s="135" t="s">
-        <v>2695</v>
+        <v>2660</v>
       </c>
       <c r="D290" s="135" t="s">
-        <v>2696</v>
+        <v>2661</v>
       </c>
       <c r="E290" s="135" t="s">
-        <v>2697</v>
+        <v>2610</v>
       </c>
       <c r="F290" s="135" t="s">
-        <v>2609</v>
+        <v>2687</v>
       </c>
       <c r="G290" s="135" t="s">
-        <v>2698</v>
+        <v>2690</v>
       </c>
       <c r="H290" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I290" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1">
+    <row r="291" spans="1:9">
       <c r="A291" s="135" t="s">
         <v>2659</v>
       </c>
       <c r="B291" s="135" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C291" s="135" t="s">
-        <v>2695</v>
+        <v>2660</v>
       </c>
       <c r="D291" s="135" t="s">
-        <v>2696</v>
+        <v>2661</v>
       </c>
       <c r="E291" s="135" t="s">
-        <v>2697</v>
+        <v>2610</v>
       </c>
       <c r="F291" s="135" t="s">
-        <v>2609</v>
+        <v>2687</v>
       </c>
       <c r="G291" s="135" t="s">
-        <v>2699</v>
+        <v>2691</v>
       </c>
       <c r="H291" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I291" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1">
+    <row r="292" spans="1:9">
       <c r="A292" s="135" t="s">
         <v>2659</v>
       </c>
       <c r="B292" s="135" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C292" s="135" t="s">
-        <v>2695</v>
+        <v>2660</v>
       </c>
       <c r="D292" s="135" t="s">
-        <v>2696</v>
+        <v>2661</v>
       </c>
       <c r="E292" s="135" t="s">
-        <v>2697</v>
+        <v>2610</v>
       </c>
       <c r="F292" s="135" t="s">
-        <v>2609</v>
+        <v>2687</v>
       </c>
       <c r="G292" s="135" t="s">
-        <v>2700</v>
+        <v>2692</v>
       </c>
       <c r="H292" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I292" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1">
+    <row r="293" spans="1:9">
       <c r="A293" s="135" t="s">
         <v>2659</v>
       </c>
       <c r="B293" s="135" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C293" s="135" t="s">
-        <v>2695</v>
+        <v>2660</v>
       </c>
       <c r="D293" s="135" t="s">
-        <v>2696</v>
+        <v>2661</v>
       </c>
       <c r="E293" s="135" t="s">
-        <v>2697</v>
+        <v>2610</v>
       </c>
       <c r="F293" s="135" t="s">
-        <v>2609</v>
+        <v>2687</v>
       </c>
       <c r="G293" s="135" t="s">
-        <v>2701</v>
+        <v>2693</v>
       </c>
       <c r="H293" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I293" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9">
       <c r="A294" s="135" t="s">
         <v>2659</v>
       </c>
       <c r="B294" s="135" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C294" s="135" t="s">
-        <v>2695</v>
+        <v>2660</v>
       </c>
       <c r="D294" s="135" t="s">
-        <v>2696</v>
+        <v>2661</v>
       </c>
       <c r="E294" s="135" t="s">
-        <v>2697</v>
+        <v>2610</v>
       </c>
       <c r="F294" s="135" t="s">
-        <v>2609</v>
+        <v>2687</v>
       </c>
       <c r="G294" s="135" t="s">
-        <v>2702</v>
+        <v>2694</v>
       </c>
       <c r="H294" s="135" t="s">
-        <v>2652</v>
+        <v>2501</v>
       </c>
       <c r="I294" s="135" t="s">
         <v>2618</v>
@@ -77623,7 +77651,7 @@
         <v>2609</v>
       </c>
       <c r="G295" s="135" t="s">
-        <v>2703</v>
+        <v>2698</v>
       </c>
       <c r="H295" s="135" t="s">
         <v>2652</v>
@@ -77652,7 +77680,7 @@
         <v>2609</v>
       </c>
       <c r="G296" s="135" t="s">
-        <v>2704</v>
+        <v>2699</v>
       </c>
       <c r="H296" s="135" t="s">
         <v>2652</v>
@@ -77681,7 +77709,7 @@
         <v>2609</v>
       </c>
       <c r="G297" s="135" t="s">
-        <v>2705</v>
+        <v>2700</v>
       </c>
       <c r="H297" s="135" t="s">
         <v>2652</v>
@@ -77707,13 +77735,13 @@
         <v>2697</v>
       </c>
       <c r="F298" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G298" s="135" t="s">
-        <v>2706</v>
+        <v>2701</v>
       </c>
       <c r="H298" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I298" s="135" t="s">
         <v>2618</v>
@@ -77736,13 +77764,13 @@
         <v>2697</v>
       </c>
       <c r="F299" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G299" s="135" t="s">
-        <v>2707</v>
+        <v>2702</v>
       </c>
       <c r="H299" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I299" s="135" t="s">
         <v>2618</v>
@@ -77765,10 +77793,10 @@
         <v>2697</v>
       </c>
       <c r="F300" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G300" s="135" t="s">
-        <v>2709</v>
+        <v>2703</v>
       </c>
       <c r="H300" s="135" t="s">
         <v>2652</v>
@@ -77794,13 +77822,13 @@
         <v>2697</v>
       </c>
       <c r="F301" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G301" s="135" t="s">
-        <v>2708</v>
+        <v>2704</v>
       </c>
       <c r="H301" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I301" s="135" t="s">
         <v>2618</v>
@@ -77823,10 +77851,10 @@
         <v>2697</v>
       </c>
       <c r="F302" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G302" s="135" t="s">
-        <v>2710</v>
+        <v>2705</v>
       </c>
       <c r="H302" s="135" t="s">
         <v>2652</v>
@@ -77855,10 +77883,10 @@
         <v>2612</v>
       </c>
       <c r="G303" s="135" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
       <c r="H303" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I303" s="135" t="s">
         <v>2618</v>
@@ -77884,7 +77912,7 @@
         <v>2612</v>
       </c>
       <c r="G304" s="135" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
       <c r="H304" s="135" t="s">
         <v>2403</v>
@@ -77913,10 +77941,10 @@
         <v>2612</v>
       </c>
       <c r="G305" s="135" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="H305" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I305" s="135" t="s">
         <v>2618</v>
@@ -77942,7 +77970,7 @@
         <v>2612</v>
       </c>
       <c r="G306" s="135" t="s">
-        <v>2502</v>
+        <v>2708</v>
       </c>
       <c r="H306" s="135" t="s">
         <v>2403</v>
@@ -77971,10 +77999,10 @@
         <v>2612</v>
       </c>
       <c r="G307" s="135" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="H307" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I307" s="135" t="s">
         <v>2618</v>
@@ -78000,10 +78028,10 @@
         <v>2612</v>
       </c>
       <c r="G308" s="135" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
       <c r="H308" s="135" t="s">
-        <v>2403</v>
+        <v>2652</v>
       </c>
       <c r="I308" s="135" t="s">
         <v>2618</v>
@@ -78029,7 +78057,7 @@
         <v>2612</v>
       </c>
       <c r="G309" s="135" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
       <c r="H309" s="135" t="s">
         <v>2403</v>
@@ -78058,7 +78086,7 @@
         <v>2612</v>
       </c>
       <c r="G310" s="135" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="H310" s="135" t="s">
         <v>2403</v>
@@ -78084,13 +78112,13 @@
         <v>2697</v>
       </c>
       <c r="F311" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G311" s="135" t="s">
-        <v>2717</v>
+        <v>2502</v>
       </c>
       <c r="H311" s="135" t="s">
-        <v>2718</v>
+        <v>2403</v>
       </c>
       <c r="I311" s="135" t="s">
         <v>2618</v>
@@ -78113,13 +78141,13 @@
         <v>2697</v>
       </c>
       <c r="F312" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G312" s="135" t="s">
-        <v>2719</v>
+        <v>2713</v>
       </c>
       <c r="H312" s="135" t="s">
-        <v>2718</v>
+        <v>2403</v>
       </c>
       <c r="I312" s="135" t="s">
         <v>2618</v>
@@ -78142,13 +78170,13 @@
         <v>2697</v>
       </c>
       <c r="F313" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G313" s="135" t="s">
-        <v>2720</v>
+        <v>2714</v>
       </c>
       <c r="H313" s="135" t="s">
-        <v>2718</v>
+        <v>2403</v>
       </c>
       <c r="I313" s="135" t="s">
         <v>2618</v>
@@ -78171,13 +78199,13 @@
         <v>2697</v>
       </c>
       <c r="F314" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G314" s="135" t="s">
-        <v>2721</v>
+        <v>2715</v>
       </c>
       <c r="H314" s="135" t="s">
-        <v>2718</v>
+        <v>2403</v>
       </c>
       <c r="I314" s="135" t="s">
         <v>2618</v>
@@ -78200,13 +78228,13 @@
         <v>2697</v>
       </c>
       <c r="F315" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G315" s="135" t="s">
-        <v>2722</v>
+        <v>2716</v>
       </c>
       <c r="H315" s="135" t="s">
-        <v>2718</v>
+        <v>2403</v>
       </c>
       <c r="I315" s="135" t="s">
         <v>2618</v>
@@ -78232,10 +78260,10 @@
         <v>2615</v>
       </c>
       <c r="G316" s="135" t="s">
-        <v>2723</v>
+        <v>2717</v>
       </c>
       <c r="H316" s="135" t="s">
-        <v>2652</v>
+        <v>2718</v>
       </c>
       <c r="I316" s="135" t="s">
         <v>2618</v>
@@ -78261,10 +78289,10 @@
         <v>2615</v>
       </c>
       <c r="G317" s="135" t="s">
-        <v>2724</v>
+        <v>2719</v>
       </c>
       <c r="H317" s="135" t="s">
-        <v>2656</v>
+        <v>2718</v>
       </c>
       <c r="I317" s="135" t="s">
         <v>2618</v>
@@ -78287,13 +78315,13 @@
         <v>2697</v>
       </c>
       <c r="F318" s="135" t="s">
-        <v>2725</v>
+        <v>2615</v>
       </c>
       <c r="G318" s="135" t="s">
-        <v>2726</v>
+        <v>2720</v>
       </c>
       <c r="H318" s="135" t="s">
-        <v>2403</v>
+        <v>2718</v>
       </c>
       <c r="I318" s="135" t="s">
         <v>2618</v>
@@ -78316,13 +78344,13 @@
         <v>2697</v>
       </c>
       <c r="F319" s="135" t="s">
-        <v>2725</v>
+        <v>2615</v>
       </c>
       <c r="G319" s="135" t="s">
-        <v>2727</v>
+        <v>2721</v>
       </c>
       <c r="H319" s="135" t="s">
-        <v>2656</v>
+        <v>2718</v>
       </c>
       <c r="I319" s="135" t="s">
         <v>2618</v>
@@ -78330,28 +78358,28 @@
     </row>
     <row r="320" spans="1:9" hidden="1">
       <c r="A320" s="135" t="s">
-        <v>2728</v>
+        <v>2659</v>
       </c>
       <c r="B320" s="135" t="s">
-        <v>2729</v>
+        <v>2375</v>
       </c>
       <c r="C320" s="135" t="s">
-        <v>2730</v>
+        <v>2695</v>
       </c>
       <c r="D320" s="135" t="s">
-        <v>2731</v>
+        <v>2696</v>
       </c>
       <c r="E320" s="135" t="s">
-        <v>2732</v>
+        <v>2697</v>
       </c>
       <c r="F320" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G320" s="135" t="s">
-        <v>2733</v>
+        <v>2722</v>
       </c>
       <c r="H320" s="135" t="s">
-        <v>2501</v>
+        <v>2718</v>
       </c>
       <c r="I320" s="135" t="s">
         <v>2618</v>
@@ -78359,28 +78387,28 @@
     </row>
     <row r="321" spans="1:9" hidden="1">
       <c r="A321" s="135" t="s">
-        <v>2728</v>
+        <v>2659</v>
       </c>
       <c r="B321" s="135" t="s">
-        <v>2729</v>
+        <v>2375</v>
       </c>
       <c r="C321" s="135" t="s">
-        <v>2730</v>
+        <v>2695</v>
       </c>
       <c r="D321" s="135" t="s">
-        <v>2731</v>
+        <v>2696</v>
       </c>
       <c r="E321" s="135" t="s">
-        <v>2732</v>
+        <v>2697</v>
       </c>
       <c r="F321" s="135" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="G321" s="135" t="s">
-        <v>2734</v>
+        <v>2723</v>
       </c>
       <c r="H321" s="135" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="I321" s="135" t="s">
         <v>2618</v>
@@ -78388,28 +78416,28 @@
     </row>
     <row r="322" spans="1:9" hidden="1">
       <c r="A322" s="135" t="s">
-        <v>2728</v>
+        <v>2659</v>
       </c>
       <c r="B322" s="135" t="s">
-        <v>2729</v>
+        <v>2375</v>
       </c>
       <c r="C322" s="135" t="s">
-        <v>2730</v>
+        <v>2695</v>
       </c>
       <c r="D322" s="135" t="s">
-        <v>2731</v>
+        <v>2696</v>
       </c>
       <c r="E322" s="135" t="s">
-        <v>2732</v>
+        <v>2697</v>
       </c>
       <c r="F322" s="135" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="G322" s="135" t="s">
-        <v>2735</v>
+        <v>2724</v>
       </c>
       <c r="H322" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I322" s="135" t="s">
         <v>2618</v>
@@ -78417,28 +78445,28 @@
     </row>
     <row r="323" spans="1:9" hidden="1">
       <c r="A323" s="135" t="s">
-        <v>2728</v>
+        <v>2659</v>
       </c>
       <c r="B323" s="135" t="s">
-        <v>2914</v>
+        <v>2375</v>
       </c>
       <c r="C323" s="135" t="s">
-        <v>2913</v>
+        <v>2695</v>
       </c>
       <c r="D323" s="135" t="s">
-        <v>2915</v>
+        <v>2696</v>
       </c>
       <c r="E323" s="135" t="s">
-        <v>2917</v>
+        <v>2697</v>
       </c>
       <c r="F323" s="135" t="s">
-        <v>2916</v>
+        <v>2725</v>
       </c>
       <c r="G323" s="135" t="s">
-        <v>2918</v>
+        <v>2726</v>
       </c>
       <c r="H323" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I323" s="135" t="s">
         <v>2618</v>
@@ -78446,28 +78474,28 @@
     </row>
     <row r="324" spans="1:9" hidden="1">
       <c r="A324" s="135" t="s">
-        <v>2728</v>
+        <v>2659</v>
       </c>
       <c r="B324" s="135" t="s">
-        <v>2914</v>
+        <v>2375</v>
       </c>
       <c r="C324" s="135" t="s">
-        <v>2913</v>
+        <v>2695</v>
       </c>
       <c r="D324" s="135" t="s">
-        <v>2915</v>
+        <v>2696</v>
       </c>
       <c r="E324" s="135" t="s">
-        <v>2917</v>
+        <v>2697</v>
       </c>
       <c r="F324" s="135" t="s">
-        <v>2916</v>
+        <v>2725</v>
       </c>
       <c r="G324" s="135" t="s">
-        <v>2919</v>
+        <v>2727</v>
       </c>
       <c r="H324" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I324" s="135" t="s">
         <v>2618</v>
@@ -78478,22 +78506,22 @@
         <v>2728</v>
       </c>
       <c r="B325" s="135" t="s">
-        <v>2914</v>
+        <v>2729</v>
       </c>
       <c r="C325" s="135" t="s">
-        <v>2913</v>
+        <v>2730</v>
       </c>
       <c r="D325" s="135" t="s">
-        <v>2915</v>
+        <v>2731</v>
       </c>
       <c r="E325" s="135" t="s">
-        <v>2917</v>
+        <v>2732</v>
       </c>
       <c r="F325" s="135" t="s">
-        <v>2916</v>
+        <v>2609</v>
       </c>
       <c r="G325" s="135" t="s">
-        <v>2920</v>
+        <v>2733</v>
       </c>
       <c r="H325" s="135" t="s">
         <v>2501</v>
@@ -78507,25 +78535,25 @@
         <v>2728</v>
       </c>
       <c r="B326" s="135" t="s">
-        <v>2914</v>
+        <v>2729</v>
       </c>
       <c r="C326" s="135" t="s">
-        <v>2913</v>
+        <v>2730</v>
       </c>
       <c r="D326" s="135" t="s">
-        <v>2915</v>
+        <v>2731</v>
       </c>
       <c r="E326" s="135" t="s">
-        <v>2917</v>
+        <v>2732</v>
       </c>
       <c r="F326" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G326" s="135" t="s">
-        <v>2921</v>
+        <v>2734</v>
       </c>
       <c r="H326" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I326" s="135" t="s">
         <v>2618</v>
@@ -78536,22 +78564,22 @@
         <v>2728</v>
       </c>
       <c r="B327" s="135" t="s">
-        <v>2914</v>
+        <v>2729</v>
       </c>
       <c r="C327" s="135" t="s">
-        <v>2913</v>
+        <v>2730</v>
       </c>
       <c r="D327" s="135" t="s">
-        <v>2915</v>
+        <v>2731</v>
       </c>
       <c r="E327" s="135" t="s">
-        <v>2917</v>
+        <v>2732</v>
       </c>
       <c r="F327" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G327" s="135" t="s">
-        <v>2922</v>
+        <v>2735</v>
       </c>
       <c r="H327" s="135" t="s">
         <v>2501</v>
@@ -78577,10 +78605,10 @@
         <v>2917</v>
       </c>
       <c r="F328" s="135" t="s">
-        <v>2609</v>
+        <v>2916</v>
       </c>
       <c r="G328" s="135" t="s">
-        <v>2923</v>
+        <v>2918</v>
       </c>
       <c r="H328" s="135" t="s">
         <v>2501</v>
@@ -78606,10 +78634,10 @@
         <v>2917</v>
       </c>
       <c r="F329" s="135" t="s">
-        <v>2612</v>
+        <v>2916</v>
       </c>
       <c r="G329" s="135" t="s">
-        <v>2924</v>
+        <v>2919</v>
       </c>
       <c r="H329" s="135" t="s">
         <v>2501</v>
@@ -78635,10 +78663,10 @@
         <v>2917</v>
       </c>
       <c r="F330" s="135" t="s">
-        <v>2612</v>
+        <v>2916</v>
       </c>
       <c r="G330" s="135" t="s">
-        <v>2735</v>
+        <v>2920</v>
       </c>
       <c r="H330" s="135" t="s">
         <v>2501</v>
@@ -78664,10 +78692,10 @@
         <v>2917</v>
       </c>
       <c r="F331" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G331" s="135" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="H331" s="135" t="s">
         <v>2501</v>
@@ -78693,10 +78721,10 @@
         <v>2917</v>
       </c>
       <c r="F332" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G332" s="135" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="H332" s="135" t="s">
         <v>2501</v>
@@ -78722,10 +78750,10 @@
         <v>2917</v>
       </c>
       <c r="F333" s="135" t="s">
-        <v>2615</v>
+        <v>2609</v>
       </c>
       <c r="G333" s="135" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="H333" s="135" t="s">
         <v>2501</v>
@@ -78751,10 +78779,10 @@
         <v>2917</v>
       </c>
       <c r="F334" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G334" s="135" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="H334" s="135" t="s">
         <v>2501</v>
@@ -78780,10 +78808,10 @@
         <v>2917</v>
       </c>
       <c r="F335" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G335" s="135" t="s">
-        <v>2929</v>
+        <v>2735</v>
       </c>
       <c r="H335" s="135" t="s">
         <v>2501</v>
@@ -78794,187 +78822,202 @@
     </row>
     <row r="336" spans="1:9" hidden="1">
       <c r="A336" s="135" t="s">
-        <v>2736</v>
+        <v>2728</v>
       </c>
       <c r="B336" s="135" t="s">
-        <v>2737</v>
+        <v>2914</v>
       </c>
       <c r="C336" s="135" t="s">
-        <v>2738</v>
+        <v>2913</v>
       </c>
       <c r="D336" s="135" t="s">
-        <v>2739</v>
+        <v>2915</v>
       </c>
       <c r="E336" s="135" t="s">
-        <v>2740</v>
+        <v>2917</v>
       </c>
       <c r="F336" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G336" s="135" t="s">
-        <v>2741</v>
+        <v>2925</v>
       </c>
       <c r="H336" s="135" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" hidden="1">
+      <c r="I336" s="135" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" hidden="1">
       <c r="A337" s="135" t="s">
-        <v>2736</v>
+        <v>2728</v>
       </c>
       <c r="B337" s="135" t="s">
-        <v>2737</v>
+        <v>2914</v>
       </c>
       <c r="C337" s="135" t="s">
-        <v>2738</v>
+        <v>2913</v>
       </c>
       <c r="D337" s="135" t="s">
-        <v>2739</v>
+        <v>2915</v>
       </c>
       <c r="E337" s="135" t="s">
-        <v>2740</v>
+        <v>2917</v>
       </c>
       <c r="F337" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G337" s="135" t="s">
-        <v>2742</v>
+        <v>2926</v>
       </c>
       <c r="H337" s="135" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" hidden="1">
+      <c r="I337" s="135" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" hidden="1">
       <c r="A338" s="135" t="s">
-        <v>2736</v>
+        <v>2728</v>
       </c>
       <c r="B338" s="135" t="s">
-        <v>2743</v>
+        <v>2914</v>
       </c>
       <c r="C338" s="135" t="s">
-        <v>2744</v>
+        <v>2913</v>
       </c>
       <c r="D338" s="135" t="s">
-        <v>2745</v>
+        <v>2915</v>
       </c>
       <c r="E338" s="135" t="s">
-        <v>2746</v>
+        <v>2917</v>
       </c>
       <c r="F338" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G338" s="135" t="s">
-        <v>2747</v>
+        <v>2927</v>
       </c>
       <c r="H338" s="135" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" hidden="1">
+      <c r="I338" s="135" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" hidden="1">
       <c r="A339" s="135" t="s">
-        <v>2736</v>
+        <v>2728</v>
       </c>
       <c r="B339" s="135" t="s">
-        <v>2743</v>
+        <v>2914</v>
       </c>
       <c r="C339" s="135" t="s">
-        <v>2744</v>
+        <v>2913</v>
       </c>
       <c r="D339" s="135" t="s">
-        <v>2745</v>
+        <v>2915</v>
       </c>
       <c r="E339" s="135" t="s">
-        <v>2746</v>
+        <v>2917</v>
       </c>
       <c r="F339" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G339" s="135" t="s">
-        <v>2748</v>
+        <v>2928</v>
       </c>
       <c r="H339" s="135" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" hidden="1">
+      <c r="I339" s="135" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" hidden="1">
       <c r="A340" s="135" t="s">
-        <v>2736</v>
+        <v>2728</v>
       </c>
       <c r="B340" s="135" t="s">
-        <v>2743</v>
+        <v>2914</v>
       </c>
       <c r="C340" s="135" t="s">
-        <v>2744</v>
+        <v>2913</v>
       </c>
       <c r="D340" s="135" t="s">
-        <v>2745</v>
+        <v>2915</v>
       </c>
       <c r="E340" s="135" t="s">
-        <v>2746</v>
+        <v>2917</v>
       </c>
       <c r="F340" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G340" s="135" t="s">
-        <v>2749</v>
+        <v>2929</v>
       </c>
       <c r="H340" s="135" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" hidden="1">
+      <c r="I340" s="135" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" hidden="1">
       <c r="A341" s="135" t="s">
         <v>2736</v>
       </c>
       <c r="B341" s="135" t="s">
-        <v>2743</v>
+        <v>2737</v>
       </c>
       <c r="C341" s="135" t="s">
-        <v>2744</v>
+        <v>2738</v>
       </c>
       <c r="D341" s="135" t="s">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="E341" s="135" t="s">
-        <v>2746</v>
+        <v>2740</v>
       </c>
       <c r="F341" s="135" t="s">
         <v>2609</v>
       </c>
       <c r="G341" s="135" t="s">
-        <v>2631</v>
+        <v>2741</v>
       </c>
       <c r="H341" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1">
+    <row r="342" spans="1:9" hidden="1">
       <c r="A342" s="135" t="s">
         <v>2736</v>
       </c>
       <c r="B342" s="135" t="s">
-        <v>2743</v>
+        <v>2737</v>
       </c>
       <c r="C342" s="135" t="s">
-        <v>2744</v>
+        <v>2738</v>
       </c>
       <c r="D342" s="135" t="s">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="E342" s="135" t="s">
-        <v>2746</v>
+        <v>2740</v>
       </c>
       <c r="F342" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G342" s="135" t="s">
-        <v>2750</v>
+        <v>2742</v>
       </c>
       <c r="H342" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1">
+    <row r="343" spans="1:9" hidden="1">
       <c r="A343" s="135" t="s">
         <v>2736</v>
       </c>
@@ -78991,16 +79034,16 @@
         <v>2746</v>
       </c>
       <c r="F343" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G343" s="135" t="s">
-        <v>2634</v>
+        <v>2747</v>
       </c>
       <c r="H343" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1">
+    <row r="344" spans="1:9" hidden="1">
       <c r="A344" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79017,16 +79060,16 @@
         <v>2746</v>
       </c>
       <c r="F344" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G344" s="135" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="H344" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1">
+    <row r="345" spans="1:9" hidden="1">
       <c r="A345" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79043,16 +79086,16 @@
         <v>2746</v>
       </c>
       <c r="F345" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G345" s="135" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="H345" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1">
+    <row r="346" spans="1:9" hidden="1">
       <c r="A346" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79069,16 +79112,16 @@
         <v>2746</v>
       </c>
       <c r="F346" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G346" s="135" t="s">
-        <v>2753</v>
+        <v>2631</v>
       </c>
       <c r="H346" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1">
+    <row r="347" spans="1:9" hidden="1">
       <c r="A347" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79095,16 +79138,16 @@
         <v>2746</v>
       </c>
       <c r="F347" s="135" t="s">
-        <v>2615</v>
+        <v>2609</v>
       </c>
       <c r="G347" s="135" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="H347" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1">
+    <row r="348" spans="1:9" hidden="1">
       <c r="A348" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79121,16 +79164,16 @@
         <v>2746</v>
       </c>
       <c r="F348" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G348" s="135" t="s">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="H348" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1">
+    <row r="349" spans="1:9" hidden="1">
       <c r="A349" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79147,16 +79190,16 @@
         <v>2746</v>
       </c>
       <c r="F349" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G349" s="135" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
       <c r="H349" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1">
+    <row r="350" spans="1:9" hidden="1">
       <c r="A350" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79173,16 +79216,16 @@
         <v>2746</v>
       </c>
       <c r="F350" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G350" s="135" t="s">
-        <v>2756</v>
+        <v>2752</v>
       </c>
       <c r="H350" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1">
+    <row r="351" spans="1:9" hidden="1">
       <c r="A351" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79199,16 +79242,16 @@
         <v>2746</v>
       </c>
       <c r="F351" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G351" s="135" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
       <c r="H351" s="135" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1">
+    <row r="352" spans="1:9" hidden="1">
       <c r="A352" s="135" t="s">
         <v>2736</v>
       </c>
@@ -79228,7 +79271,7 @@
         <v>2615</v>
       </c>
       <c r="G352" s="135" t="s">
-        <v>2758</v>
+        <v>2754</v>
       </c>
       <c r="H352" s="135" t="s">
         <v>2501</v>
@@ -79254,7 +79297,7 @@
         <v>2615</v>
       </c>
       <c r="G353" s="135" t="s">
-        <v>2759</v>
+        <v>2644</v>
       </c>
       <c r="H353" s="135" t="s">
         <v>2501</v>
@@ -79280,7 +79323,7 @@
         <v>2615</v>
       </c>
       <c r="G354" s="135" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="H354" s="135" t="s">
         <v>2501</v>
@@ -79288,147 +79331,132 @@
     </row>
     <row r="355" spans="1:9" hidden="1">
       <c r="A355" s="135" t="s">
-        <v>2761</v>
+        <v>2736</v>
       </c>
       <c r="B355" s="135" t="s">
-        <v>2762</v>
+        <v>2743</v>
       </c>
       <c r="C355" s="135" t="s">
-        <v>2763</v>
+        <v>2744</v>
       </c>
       <c r="D355" s="135" t="s">
-        <v>2764</v>
+        <v>2745</v>
       </c>
       <c r="E355" s="135" t="s">
-        <v>2765</v>
+        <v>2746</v>
       </c>
       <c r="F355" s="135" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="G355" s="135" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="H355" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I355" s="135" t="s">
-        <v>2618</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="356" spans="1:9" hidden="1">
       <c r="A356" s="135" t="s">
-        <v>2761</v>
+        <v>2736</v>
       </c>
       <c r="B356" s="135" t="s">
-        <v>2767</v>
+        <v>2743</v>
       </c>
       <c r="C356" s="135" t="s">
-        <v>2768</v>
+        <v>2744</v>
       </c>
       <c r="D356" s="135" t="s">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="E356" s="135" t="s">
-        <v>2770</v>
+        <v>2746</v>
       </c>
       <c r="F356" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G356" s="135" t="s">
-        <v>2500</v>
+        <v>2757</v>
       </c>
       <c r="H356" s="135" t="s">
         <v>2501</v>
       </c>
-      <c r="I356" s="135" t="s">
-        <v>2618</v>
-      </c>
     </row>
     <row r="357" spans="1:9" hidden="1">
       <c r="A357" s="135" t="s">
-        <v>2761</v>
+        <v>2736</v>
       </c>
       <c r="B357" s="135" t="s">
-        <v>2767</v>
+        <v>2743</v>
       </c>
       <c r="C357" s="135" t="s">
-        <v>2768</v>
+        <v>2744</v>
       </c>
       <c r="D357" s="135" t="s">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="E357" s="135" t="s">
-        <v>2770</v>
+        <v>2746</v>
       </c>
       <c r="F357" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G357" s="135" t="s">
-        <v>2771</v>
+        <v>2758</v>
       </c>
       <c r="H357" s="135" t="s">
         <v>2501</v>
       </c>
-      <c r="I357" s="135" t="s">
-        <v>2618</v>
-      </c>
     </row>
     <row r="358" spans="1:9" hidden="1">
       <c r="A358" s="135" t="s">
-        <v>2761</v>
+        <v>2736</v>
       </c>
       <c r="B358" s="135" t="s">
-        <v>2767</v>
+        <v>2743</v>
       </c>
       <c r="C358" s="135" t="s">
-        <v>2768</v>
+        <v>2744</v>
       </c>
       <c r="D358" s="135" t="s">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="E358" s="135" t="s">
-        <v>2770</v>
+        <v>2746</v>
       </c>
       <c r="F358" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G358" s="135" t="s">
-        <v>2772</v>
+        <v>2759</v>
       </c>
       <c r="H358" s="135" t="s">
         <v>2501</v>
       </c>
-      <c r="I358" s="135" t="s">
-        <v>2618</v>
-      </c>
     </row>
     <row r="359" spans="1:9" hidden="1">
       <c r="A359" s="135" t="s">
-        <v>2761</v>
+        <v>2736</v>
       </c>
       <c r="B359" s="135" t="s">
-        <v>2767</v>
+        <v>2743</v>
       </c>
       <c r="C359" s="135" t="s">
-        <v>2768</v>
+        <v>2744</v>
       </c>
       <c r="D359" s="135" t="s">
-        <v>2769</v>
+        <v>2745</v>
       </c>
       <c r="E359" s="135" t="s">
-        <v>2770</v>
+        <v>2746</v>
       </c>
       <c r="F359" s="135" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="G359" s="135" t="s">
-        <v>2773</v>
+        <v>2760</v>
       </c>
       <c r="H359" s="135" t="s">
         <v>2501</v>
-      </c>
-      <c r="I359" s="135" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="360" spans="1:9" hidden="1">
@@ -79436,25 +79464,25 @@
         <v>2761</v>
       </c>
       <c r="B360" s="135" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="C360" s="135" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="D360" s="135" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="E360" s="135" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="F360" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G360" s="135" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="H360" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I360" s="135" t="s">
         <v>2618</v>
@@ -79480,7 +79508,7 @@
         <v>2609</v>
       </c>
       <c r="G361" s="135" t="s">
-        <v>2775</v>
+        <v>2500</v>
       </c>
       <c r="H361" s="135" t="s">
         <v>2501</v>
@@ -79509,7 +79537,7 @@
         <v>2609</v>
       </c>
       <c r="G362" s="135" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="H362" s="135" t="s">
         <v>2501</v>
@@ -79538,7 +79566,7 @@
         <v>2609</v>
       </c>
       <c r="G363" s="135" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="H363" s="135" t="s">
         <v>2501</v>
@@ -79567,7 +79595,7 @@
         <v>2609</v>
       </c>
       <c r="G364" s="135" t="s">
-        <v>2778</v>
+        <v>2773</v>
       </c>
       <c r="H364" s="135" t="s">
         <v>2501</v>
@@ -79596,7 +79624,7 @@
         <v>2609</v>
       </c>
       <c r="G365" s="135" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="H365" s="135" t="s">
         <v>2501</v>
@@ -79622,10 +79650,10 @@
         <v>2770</v>
       </c>
       <c r="F366" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G366" s="135" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="H366" s="135" t="s">
         <v>2501</v>
@@ -79651,10 +79679,10 @@
         <v>2770</v>
       </c>
       <c r="F367" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G367" s="135" t="s">
-        <v>2781</v>
+        <v>2776</v>
       </c>
       <c r="H367" s="135" t="s">
         <v>2501</v>
@@ -79680,10 +79708,10 @@
         <v>2770</v>
       </c>
       <c r="F368" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G368" s="135" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="H368" s="135" t="s">
         <v>2501</v>
@@ -79709,10 +79737,10 @@
         <v>2770</v>
       </c>
       <c r="F369" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G369" s="135" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
       <c r="H369" s="135" t="s">
         <v>2501</v>
@@ -79738,10 +79766,10 @@
         <v>2770</v>
       </c>
       <c r="F370" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G370" s="135" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="H370" s="135" t="s">
         <v>2501</v>
@@ -79770,7 +79798,7 @@
         <v>2612</v>
       </c>
       <c r="G371" s="135" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="H371" s="135" t="s">
         <v>2501</v>
@@ -79799,7 +79827,7 @@
         <v>2612</v>
       </c>
       <c r="G372" s="135" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="H372" s="135" t="s">
         <v>2501</v>
@@ -79828,7 +79856,7 @@
         <v>2612</v>
       </c>
       <c r="G373" s="135" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="H373" s="135" t="s">
         <v>2501</v>
@@ -79857,7 +79885,7 @@
         <v>2612</v>
       </c>
       <c r="G374" s="135" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="H374" s="135" t="s">
         <v>2501</v>
@@ -79886,7 +79914,7 @@
         <v>2612</v>
       </c>
       <c r="G375" s="135" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="H375" s="135" t="s">
         <v>2501</v>
@@ -79915,7 +79943,7 @@
         <v>2612</v>
       </c>
       <c r="G376" s="135" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="H376" s="135" t="s">
         <v>2501</v>
@@ -79944,7 +79972,7 @@
         <v>2612</v>
       </c>
       <c r="G377" s="135" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="H377" s="135" t="s">
         <v>2501</v>
@@ -79973,7 +80001,7 @@
         <v>2612</v>
       </c>
       <c r="G378" s="135" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="H378" s="135" t="s">
         <v>2501</v>
@@ -80002,10 +80030,10 @@
         <v>2612</v>
       </c>
       <c r="G379" s="135" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="H379" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I379" s="135" t="s">
         <v>2618</v>
@@ -80031,10 +80059,10 @@
         <v>2612</v>
       </c>
       <c r="G380" s="135" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="H380" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I380" s="135" t="s">
         <v>2618</v>
@@ -80060,7 +80088,7 @@
         <v>2612</v>
       </c>
       <c r="G381" s="135" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="H381" s="135" t="s">
         <v>2501</v>
@@ -80089,7 +80117,7 @@
         <v>2612</v>
       </c>
       <c r="G382" s="135" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="H382" s="135" t="s">
         <v>2501</v>
@@ -80115,10 +80143,10 @@
         <v>2770</v>
       </c>
       <c r="F383" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G383" s="135" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="H383" s="135" t="s">
         <v>2501</v>
@@ -80144,13 +80172,13 @@
         <v>2770</v>
       </c>
       <c r="F384" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G384" s="135" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="H384" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I384" s="135" t="s">
         <v>2618</v>
@@ -80173,13 +80201,13 @@
         <v>2770</v>
       </c>
       <c r="F385" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G385" s="135" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="H385" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I385" s="135" t="s">
         <v>2618</v>
@@ -80202,10 +80230,10 @@
         <v>2770</v>
       </c>
       <c r="F386" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G386" s="135" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
       <c r="H386" s="135" t="s">
         <v>2501</v>
@@ -80231,10 +80259,10 @@
         <v>2770</v>
       </c>
       <c r="F387" s="135" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="G387" s="135" t="s">
-        <v>2801</v>
+        <v>2796</v>
       </c>
       <c r="H387" s="135" t="s">
         <v>2501</v>
@@ -80263,7 +80291,7 @@
         <v>2615</v>
       </c>
       <c r="G388" s="135" t="s">
-        <v>2802</v>
+        <v>2797</v>
       </c>
       <c r="H388" s="135" t="s">
         <v>2501</v>
@@ -80292,7 +80320,7 @@
         <v>2615</v>
       </c>
       <c r="G389" s="135" t="s">
-        <v>2803</v>
+        <v>2798</v>
       </c>
       <c r="H389" s="135" t="s">
         <v>2501</v>
@@ -80321,7 +80349,7 @@
         <v>2615</v>
       </c>
       <c r="G390" s="135" t="s">
-        <v>2804</v>
+        <v>2799</v>
       </c>
       <c r="H390" s="135" t="s">
         <v>2501</v>
@@ -80350,7 +80378,7 @@
         <v>2615</v>
       </c>
       <c r="G391" s="135" t="s">
-        <v>2805</v>
+        <v>2800</v>
       </c>
       <c r="H391" s="135" t="s">
         <v>2501</v>
@@ -80379,7 +80407,7 @@
         <v>2615</v>
       </c>
       <c r="G392" s="135" t="s">
-        <v>2806</v>
+        <v>2801</v>
       </c>
       <c r="H392" s="135" t="s">
         <v>2501</v>
@@ -80408,7 +80436,7 @@
         <v>2615</v>
       </c>
       <c r="G393" s="135" t="s">
-        <v>2807</v>
+        <v>2802</v>
       </c>
       <c r="H393" s="135" t="s">
         <v>2501</v>
@@ -80437,7 +80465,7 @@
         <v>2615</v>
       </c>
       <c r="G394" s="135" t="s">
-        <v>2808</v>
+        <v>2803</v>
       </c>
       <c r="H394" s="135" t="s">
         <v>2501</v>
@@ -80466,7 +80494,7 @@
         <v>2615</v>
       </c>
       <c r="G395" s="135" t="s">
-        <v>2809</v>
+        <v>2804</v>
       </c>
       <c r="H395" s="135" t="s">
         <v>2501</v>
@@ -80495,7 +80523,7 @@
         <v>2615</v>
       </c>
       <c r="G396" s="135" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
       <c r="H396" s="135" t="s">
         <v>2501</v>
@@ -80524,7 +80552,7 @@
         <v>2615</v>
       </c>
       <c r="G397" s="135" t="s">
-        <v>2811</v>
+        <v>2806</v>
       </c>
       <c r="H397" s="135" t="s">
         <v>2501</v>
@@ -80553,7 +80581,7 @@
         <v>2615</v>
       </c>
       <c r="G398" s="135" t="s">
-        <v>2812</v>
+        <v>2807</v>
       </c>
       <c r="H398" s="135" t="s">
         <v>2501</v>
@@ -80582,7 +80610,7 @@
         <v>2615</v>
       </c>
       <c r="G399" s="135" t="s">
-        <v>2813</v>
+        <v>2808</v>
       </c>
       <c r="H399" s="135" t="s">
         <v>2501</v>
@@ -80611,7 +80639,7 @@
         <v>2615</v>
       </c>
       <c r="G400" s="135" t="s">
-        <v>2814</v>
+        <v>2809</v>
       </c>
       <c r="H400" s="135" t="s">
         <v>2501</v>
@@ -80625,25 +80653,25 @@
         <v>2761</v>
       </c>
       <c r="B401" s="135" t="s">
-        <v>2815</v>
+        <v>2767</v>
       </c>
       <c r="C401" s="135" t="s">
-        <v>2816</v>
+        <v>2768</v>
       </c>
       <c r="D401" s="135" t="s">
-        <v>2817</v>
+        <v>2769</v>
       </c>
       <c r="E401" s="135" t="s">
-        <v>2818</v>
+        <v>2770</v>
       </c>
       <c r="F401" s="135" t="s">
-        <v>2819</v>
+        <v>2615</v>
       </c>
       <c r="G401" s="135" t="s">
-        <v>2820</v>
+        <v>2810</v>
       </c>
       <c r="H401" s="135" t="s">
-        <v>2821</v>
+        <v>2501</v>
       </c>
       <c r="I401" s="135" t="s">
         <v>2618</v>
@@ -80654,25 +80682,25 @@
         <v>2761</v>
       </c>
       <c r="B402" s="135" t="s">
-        <v>2815</v>
+        <v>2767</v>
       </c>
       <c r="C402" s="135" t="s">
-        <v>2816</v>
+        <v>2768</v>
       </c>
       <c r="D402" s="135" t="s">
-        <v>2817</v>
+        <v>2769</v>
       </c>
       <c r="E402" s="135" t="s">
-        <v>2818</v>
+        <v>2770</v>
       </c>
       <c r="F402" s="135" t="s">
-        <v>2819</v>
+        <v>2615</v>
       </c>
       <c r="G402" s="135" t="s">
-        <v>2822</v>
+        <v>2811</v>
       </c>
       <c r="H402" s="135" t="s">
-        <v>2821</v>
+        <v>2501</v>
       </c>
       <c r="I402" s="135" t="s">
         <v>2618</v>
@@ -80683,25 +80711,25 @@
         <v>2761</v>
       </c>
       <c r="B403" s="135" t="s">
-        <v>2815</v>
+        <v>2767</v>
       </c>
       <c r="C403" s="135" t="s">
-        <v>2816</v>
+        <v>2768</v>
       </c>
       <c r="D403" s="135" t="s">
-        <v>2817</v>
+        <v>2769</v>
       </c>
       <c r="E403" s="135" t="s">
-        <v>2818</v>
+        <v>2770</v>
       </c>
       <c r="F403" s="135" t="s">
-        <v>2819</v>
+        <v>2615</v>
       </c>
       <c r="G403" s="135" t="s">
-        <v>2823</v>
+        <v>2812</v>
       </c>
       <c r="H403" s="135" t="s">
-        <v>2821</v>
+        <v>2501</v>
       </c>
       <c r="I403" s="135" t="s">
         <v>2618</v>
@@ -80712,25 +80740,25 @@
         <v>2761</v>
       </c>
       <c r="B404" s="135" t="s">
-        <v>2815</v>
+        <v>2767</v>
       </c>
       <c r="C404" s="135" t="s">
-        <v>2816</v>
+        <v>2768</v>
       </c>
       <c r="D404" s="135" t="s">
-        <v>2817</v>
+        <v>2769</v>
       </c>
       <c r="E404" s="135" t="s">
-        <v>2818</v>
+        <v>2770</v>
       </c>
       <c r="F404" s="135" t="s">
-        <v>2819</v>
+        <v>2615</v>
       </c>
       <c r="G404" s="135" t="s">
-        <v>2824</v>
+        <v>2813</v>
       </c>
       <c r="H404" s="135" t="s">
-        <v>2821</v>
+        <v>2501</v>
       </c>
       <c r="I404" s="135" t="s">
         <v>2618</v>
@@ -80741,25 +80769,25 @@
         <v>2761</v>
       </c>
       <c r="B405" s="135" t="s">
-        <v>2815</v>
+        <v>2767</v>
       </c>
       <c r="C405" s="135" t="s">
-        <v>2816</v>
+        <v>2768</v>
       </c>
       <c r="D405" s="135" t="s">
-        <v>2817</v>
+        <v>2769</v>
       </c>
       <c r="E405" s="135" t="s">
-        <v>2818</v>
+        <v>2770</v>
       </c>
       <c r="F405" s="135" t="s">
-        <v>2819</v>
+        <v>2615</v>
       </c>
       <c r="G405" s="135" t="s">
-        <v>2825</v>
+        <v>2814</v>
       </c>
       <c r="H405" s="135" t="s">
-        <v>2821</v>
+        <v>2501</v>
       </c>
       <c r="I405" s="135" t="s">
         <v>2618</v>
@@ -80782,10 +80810,10 @@
         <v>2818</v>
       </c>
       <c r="F406" s="135" t="s">
-        <v>2826</v>
+        <v>2819</v>
       </c>
       <c r="G406" s="135" t="s">
-        <v>2827</v>
+        <v>2820</v>
       </c>
       <c r="H406" s="135" t="s">
         <v>2821</v>
@@ -80811,10 +80839,10 @@
         <v>2818</v>
       </c>
       <c r="F407" s="135" t="s">
-        <v>2828</v>
+        <v>2819</v>
       </c>
       <c r="G407" s="135" t="s">
-        <v>2829</v>
+        <v>2822</v>
       </c>
       <c r="H407" s="135" t="s">
         <v>2821</v>
@@ -80840,10 +80868,10 @@
         <v>2818</v>
       </c>
       <c r="F408" s="135" t="s">
-        <v>2612</v>
+        <v>2819</v>
       </c>
       <c r="G408" s="135" t="s">
-        <v>2806</v>
+        <v>2823</v>
       </c>
       <c r="H408" s="135" t="s">
         <v>2821</v>
@@ -80869,10 +80897,10 @@
         <v>2818</v>
       </c>
       <c r="F409" s="135" t="s">
-        <v>2612</v>
+        <v>2819</v>
       </c>
       <c r="G409" s="135" t="s">
-        <v>2830</v>
+        <v>2824</v>
       </c>
       <c r="H409" s="135" t="s">
         <v>2821</v>
@@ -80898,10 +80926,10 @@
         <v>2818</v>
       </c>
       <c r="F410" s="135" t="s">
-        <v>2612</v>
+        <v>2819</v>
       </c>
       <c r="G410" s="135" t="s">
-        <v>2831</v>
+        <v>2825</v>
       </c>
       <c r="H410" s="135" t="s">
         <v>2821</v>
@@ -80927,10 +80955,10 @@
         <v>2818</v>
       </c>
       <c r="F411" s="135" t="s">
-        <v>2612</v>
+        <v>2826</v>
       </c>
       <c r="G411" s="135" t="s">
-        <v>2832</v>
+        <v>2827</v>
       </c>
       <c r="H411" s="135" t="s">
         <v>2821</v>
@@ -80956,10 +80984,10 @@
         <v>2818</v>
       </c>
       <c r="F412" s="135" t="s">
-        <v>2612</v>
+        <v>2828</v>
       </c>
       <c r="G412" s="135" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="H412" s="135" t="s">
         <v>2821</v>
@@ -80988,7 +81016,7 @@
         <v>2612</v>
       </c>
       <c r="G413" s="135" t="s">
-        <v>2834</v>
+        <v>2806</v>
       </c>
       <c r="H413" s="135" t="s">
         <v>2821</v>
@@ -81017,7 +81045,7 @@
         <v>2612</v>
       </c>
       <c r="G414" s="135" t="s">
-        <v>2835</v>
+        <v>2830</v>
       </c>
       <c r="H414" s="135" t="s">
         <v>2821</v>
@@ -81046,7 +81074,7 @@
         <v>2612</v>
       </c>
       <c r="G415" s="135" t="s">
-        <v>2836</v>
+        <v>2831</v>
       </c>
       <c r="H415" s="135" t="s">
         <v>2821</v>
@@ -81075,7 +81103,7 @@
         <v>2612</v>
       </c>
       <c r="G416" s="135" t="s">
-        <v>2809</v>
+        <v>2832</v>
       </c>
       <c r="H416" s="135" t="s">
         <v>2821</v>
@@ -81104,7 +81132,7 @@
         <v>2612</v>
       </c>
       <c r="G417" s="135" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="H417" s="135" t="s">
         <v>2821</v>
@@ -81133,7 +81161,7 @@
         <v>2612</v>
       </c>
       <c r="G418" s="135" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="H418" s="135" t="s">
         <v>2821</v>
@@ -81162,7 +81190,7 @@
         <v>2612</v>
       </c>
       <c r="G419" s="135" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="H419" s="135" t="s">
         <v>2821</v>
@@ -81191,7 +81219,7 @@
         <v>2612</v>
       </c>
       <c r="G420" s="135" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="H420" s="135" t="s">
         <v>2821</v>
@@ -81220,7 +81248,7 @@
         <v>2612</v>
       </c>
       <c r="G421" s="135" t="s">
-        <v>2841</v>
+        <v>2809</v>
       </c>
       <c r="H421" s="135" t="s">
         <v>2821</v>
@@ -81249,7 +81277,7 @@
         <v>2612</v>
       </c>
       <c r="G422" s="135" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
       <c r="H422" s="135" t="s">
         <v>2821</v>
@@ -81278,7 +81306,7 @@
         <v>2612</v>
       </c>
       <c r="G423" s="135" t="s">
-        <v>2807</v>
+        <v>2838</v>
       </c>
       <c r="H423" s="135" t="s">
         <v>2821</v>
@@ -81307,7 +81335,7 @@
         <v>2612</v>
       </c>
       <c r="G424" s="135" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="H424" s="135" t="s">
         <v>2821</v>
@@ -81336,7 +81364,7 @@
         <v>2612</v>
       </c>
       <c r="G425" s="135" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
       <c r="H425" s="135" t="s">
         <v>2821</v>
@@ -81365,7 +81393,7 @@
         <v>2612</v>
       </c>
       <c r="G426" s="135" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="H426" s="135" t="s">
         <v>2821</v>
@@ -81394,7 +81422,7 @@
         <v>2612</v>
       </c>
       <c r="G427" s="135" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="H427" s="135" t="s">
         <v>2821</v>
@@ -81408,25 +81436,25 @@
         <v>2761</v>
       </c>
       <c r="B428" s="135" t="s">
-        <v>2847</v>
+        <v>2815</v>
       </c>
       <c r="C428" s="135" t="s">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="D428" s="135" t="s">
-        <v>2849</v>
+        <v>2817</v>
       </c>
       <c r="E428" s="135" t="s">
-        <v>2610</v>
+        <v>2818</v>
       </c>
       <c r="F428" s="135" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="G428" s="135" t="s">
-        <v>2850</v>
+        <v>2807</v>
       </c>
       <c r="H428" s="135" t="s">
-        <v>2501</v>
+        <v>2821</v>
       </c>
       <c r="I428" s="135" t="s">
         <v>2618</v>
@@ -81437,25 +81465,25 @@
         <v>2761</v>
       </c>
       <c r="B429" s="135" t="s">
-        <v>2847</v>
+        <v>2815</v>
       </c>
       <c r="C429" s="135" t="s">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="D429" s="135" t="s">
-        <v>2849</v>
+        <v>2817</v>
       </c>
       <c r="E429" s="135" t="s">
-        <v>2610</v>
+        <v>2818</v>
       </c>
       <c r="F429" s="135" t="s">
         <v>2612</v>
       </c>
       <c r="G429" s="135" t="s">
-        <v>2851</v>
+        <v>2843</v>
       </c>
       <c r="H429" s="135" t="s">
-        <v>2501</v>
+        <v>2821</v>
       </c>
       <c r="I429" s="135" t="s">
         <v>2618</v>
@@ -81466,25 +81494,25 @@
         <v>2761</v>
       </c>
       <c r="B430" s="135" t="s">
-        <v>2847</v>
+        <v>2815</v>
       </c>
       <c r="C430" s="135" t="s">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="D430" s="135" t="s">
-        <v>2849</v>
+        <v>2817</v>
       </c>
       <c r="E430" s="135" t="s">
-        <v>2610</v>
+        <v>2818</v>
       </c>
       <c r="F430" s="135" t="s">
         <v>2612</v>
       </c>
       <c r="G430" s="135" t="s">
-        <v>2852</v>
+        <v>2844</v>
       </c>
       <c r="H430" s="135" t="s">
-        <v>2501</v>
+        <v>2821</v>
       </c>
       <c r="I430" s="135" t="s">
         <v>2618</v>
@@ -81495,25 +81523,25 @@
         <v>2761</v>
       </c>
       <c r="B431" s="135" t="s">
-        <v>2847</v>
+        <v>2815</v>
       </c>
       <c r="C431" s="135" t="s">
-        <v>2848</v>
+        <v>2816</v>
       </c>
       <c r="D431" s="135" t="s">
-        <v>2849</v>
+        <v>2817</v>
       </c>
       <c r="E431" s="135" t="s">
-        <v>2610</v>
+        <v>2818</v>
       </c>
       <c r="F431" s="135" t="s">
         <v>2612</v>
       </c>
       <c r="G431" s="135" t="s">
-        <v>2853</v>
+        <v>2845</v>
       </c>
       <c r="H431" s="135" t="s">
-        <v>2501</v>
+        <v>2821</v>
       </c>
       <c r="I431" s="135" t="s">
         <v>2618</v>
@@ -81521,28 +81549,28 @@
     </row>
     <row r="432" spans="1:9" hidden="1">
       <c r="A432" s="135" t="s">
-        <v>2854</v>
+        <v>2761</v>
       </c>
       <c r="B432" s="135" t="s">
-        <v>2855</v>
+        <v>2815</v>
       </c>
       <c r="C432" s="135" t="s">
-        <v>2856</v>
+        <v>2816</v>
       </c>
       <c r="D432" s="135" t="s">
-        <v>2857</v>
+        <v>2817</v>
       </c>
       <c r="E432" s="135" t="s">
-        <v>2859</v>
+        <v>2818</v>
       </c>
       <c r="F432" s="135" t="s">
-        <v>2860</v>
+        <v>2612</v>
       </c>
       <c r="G432" s="135" t="s">
-        <v>2858</v>
+        <v>2846</v>
       </c>
       <c r="H432" s="135" t="s">
-        <v>2403</v>
+        <v>2821</v>
       </c>
       <c r="I432" s="135" t="s">
         <v>2618</v>
@@ -81550,28 +81578,28 @@
     </row>
     <row r="433" spans="1:9" hidden="1">
       <c r="A433" s="135" t="s">
-        <v>2854</v>
+        <v>2761</v>
       </c>
       <c r="B433" s="135" t="s">
-        <v>2855</v>
+        <v>2847</v>
       </c>
       <c r="C433" s="135" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="D433" s="135" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="E433" s="135" t="s">
-        <v>2859</v>
+        <v>2610</v>
       </c>
       <c r="F433" s="135" t="s">
-        <v>2860</v>
+        <v>2609</v>
       </c>
       <c r="G433" s="135" t="s">
-        <v>2865</v>
+        <v>2850</v>
       </c>
       <c r="H433" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I433" s="135" t="s">
         <v>2618</v>
@@ -81579,28 +81607,28 @@
     </row>
     <row r="434" spans="1:9" hidden="1">
       <c r="A434" s="135" t="s">
-        <v>2854</v>
+        <v>2761</v>
       </c>
       <c r="B434" s="135" t="s">
-        <v>2855</v>
+        <v>2847</v>
       </c>
       <c r="C434" s="135" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="D434" s="135" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="E434" s="135" t="s">
-        <v>2861</v>
+        <v>2610</v>
       </c>
       <c r="F434" s="135" t="s">
-        <v>2862</v>
+        <v>2612</v>
       </c>
       <c r="G434" s="135" t="s">
-        <v>2863</v>
+        <v>2851</v>
       </c>
       <c r="H434" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I434" s="135" t="s">
         <v>2618</v>
@@ -81608,28 +81636,28 @@
     </row>
     <row r="435" spans="1:9" hidden="1">
       <c r="A435" s="135" t="s">
-        <v>2854</v>
+        <v>2761</v>
       </c>
       <c r="B435" s="135" t="s">
-        <v>2855</v>
+        <v>2847</v>
       </c>
       <c r="C435" s="135" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="D435" s="135" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="E435" s="135" t="s">
-        <v>2861</v>
+        <v>2610</v>
       </c>
       <c r="F435" s="135" t="s">
-        <v>2862</v>
+        <v>2612</v>
       </c>
       <c r="G435" s="135" t="s">
-        <v>2864</v>
+        <v>2852</v>
       </c>
       <c r="H435" s="135" t="s">
-        <v>2652</v>
+        <v>2501</v>
       </c>
       <c r="I435" s="135" t="s">
         <v>2618</v>
@@ -81637,28 +81665,28 @@
     </row>
     <row r="436" spans="1:9" hidden="1">
       <c r="A436" s="135" t="s">
-        <v>2854</v>
+        <v>2761</v>
       </c>
       <c r="B436" s="135" t="s">
-        <v>2855</v>
+        <v>2847</v>
       </c>
       <c r="C436" s="135" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="D436" s="135" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="E436" s="135" t="s">
-        <v>2866</v>
+        <v>2610</v>
       </c>
       <c r="F436" s="135" t="s">
-        <v>2867</v>
+        <v>2612</v>
       </c>
       <c r="G436" s="135" t="s">
-        <v>2858</v>
+        <v>2853</v>
       </c>
       <c r="H436" s="135" t="s">
-        <v>2403</v>
+        <v>2501</v>
       </c>
       <c r="I436" s="135" t="s">
         <v>2618</v>
@@ -81678,13 +81706,13 @@
         <v>2857</v>
       </c>
       <c r="E437" s="135" t="s">
-        <v>2866</v>
+        <v>2859</v>
       </c>
       <c r="F437" s="135" t="s">
-        <v>2867</v>
+        <v>2860</v>
       </c>
       <c r="G437" s="135" t="s">
-        <v>2865</v>
+        <v>2858</v>
       </c>
       <c r="H437" s="135" t="s">
         <v>2403</v>
@@ -81707,13 +81735,13 @@
         <v>2857</v>
       </c>
       <c r="E438" s="135" t="s">
-        <v>2868</v>
+        <v>2859</v>
       </c>
       <c r="F438" s="135" t="s">
-        <v>2869</v>
+        <v>2860</v>
       </c>
       <c r="G438" s="135" t="s">
-        <v>2858</v>
+        <v>2865</v>
       </c>
       <c r="H438" s="135" t="s">
         <v>2403</v>
@@ -81724,25 +81752,25 @@
     </row>
     <row r="439" spans="1:9" hidden="1">
       <c r="A439" s="135" t="s">
-        <v>2870</v>
+        <v>2854</v>
       </c>
       <c r="B439" s="135" t="s">
-        <v>2871</v>
+        <v>2855</v>
       </c>
       <c r="C439" s="135" t="s">
-        <v>2872</v>
+        <v>2856</v>
       </c>
       <c r="D439" s="135" t="s">
-        <v>2873</v>
+        <v>2857</v>
       </c>
       <c r="E439" s="135" t="s">
-        <v>2875</v>
+        <v>2861</v>
       </c>
       <c r="F439" s="135" t="s">
-        <v>2867</v>
+        <v>2862</v>
       </c>
       <c r="G439" s="135" t="s">
-        <v>2874</v>
+        <v>2863</v>
       </c>
       <c r="H439" s="135" t="s">
         <v>2403</v>
@@ -81753,25 +81781,25 @@
     </row>
     <row r="440" spans="1:9" hidden="1">
       <c r="A440" s="135" t="s">
-        <v>2870</v>
+        <v>2854</v>
       </c>
       <c r="B440" s="135" t="s">
-        <v>2871</v>
+        <v>2855</v>
       </c>
       <c r="C440" s="135" t="s">
-        <v>2872</v>
+        <v>2856</v>
       </c>
       <c r="D440" s="135" t="s">
-        <v>2873</v>
+        <v>2857</v>
       </c>
       <c r="E440" s="135" t="s">
-        <v>2875</v>
+        <v>2861</v>
       </c>
       <c r="F440" s="135" t="s">
-        <v>2867</v>
+        <v>2862</v>
       </c>
       <c r="G440" s="135" t="s">
-        <v>2878</v>
+        <v>2864</v>
       </c>
       <c r="H440" s="135" t="s">
         <v>2652</v>
@@ -81782,25 +81810,25 @@
     </row>
     <row r="441" spans="1:9" hidden="1">
       <c r="A441" s="135" t="s">
-        <v>2870</v>
+        <v>2854</v>
       </c>
       <c r="B441" s="135" t="s">
-        <v>2871</v>
+        <v>2855</v>
       </c>
       <c r="C441" s="135" t="s">
-        <v>2872</v>
+        <v>2856</v>
       </c>
       <c r="D441" s="135" t="s">
-        <v>2873</v>
+        <v>2857</v>
       </c>
       <c r="E441" s="135" t="s">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="F441" s="135" t="s">
-        <v>2877</v>
+        <v>2867</v>
       </c>
       <c r="G441" s="135" t="s">
-        <v>2879</v>
+        <v>2858</v>
       </c>
       <c r="H441" s="135" t="s">
         <v>2403</v>
@@ -81811,28 +81839,28 @@
     </row>
     <row r="442" spans="1:9" hidden="1">
       <c r="A442" s="135" t="s">
-        <v>2870</v>
+        <v>2854</v>
       </c>
       <c r="B442" s="135" t="s">
-        <v>2871</v>
+        <v>2855</v>
       </c>
       <c r="C442" s="135" t="s">
-        <v>2872</v>
+        <v>2856</v>
       </c>
       <c r="D442" s="135" t="s">
-        <v>2873</v>
+        <v>2857</v>
       </c>
       <c r="E442" s="135" t="s">
-        <v>2876</v>
+        <v>2866</v>
       </c>
       <c r="F442" s="135" t="s">
-        <v>2877</v>
+        <v>2867</v>
       </c>
       <c r="G442" s="135" t="s">
-        <v>2880</v>
+        <v>2865</v>
       </c>
       <c r="H442" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I442" s="135" t="s">
         <v>2618</v>
@@ -81840,28 +81868,28 @@
     </row>
     <row r="443" spans="1:9" hidden="1">
       <c r="A443" s="135" t="s">
-        <v>2881</v>
+        <v>2854</v>
       </c>
       <c r="B443" s="135" t="s">
-        <v>2882</v>
+        <v>2855</v>
       </c>
       <c r="C443" s="135" t="s">
-        <v>2883</v>
+        <v>2856</v>
       </c>
       <c r="D443" s="135" t="s">
-        <v>2884</v>
+        <v>2857</v>
       </c>
       <c r="E443" s="135" t="s">
-        <v>2885</v>
+        <v>2868</v>
       </c>
       <c r="F443" s="135" t="s">
-        <v>2609</v>
+        <v>2869</v>
       </c>
       <c r="G443" s="135" t="s">
-        <v>2633</v>
+        <v>2858</v>
       </c>
       <c r="H443" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I443" s="135" t="s">
         <v>2618</v>
@@ -81869,28 +81897,28 @@
     </row>
     <row r="444" spans="1:9" hidden="1">
       <c r="A444" s="135" t="s">
-        <v>2881</v>
+        <v>2870</v>
       </c>
       <c r="B444" s="135" t="s">
-        <v>2882</v>
+        <v>2871</v>
       </c>
       <c r="C444" s="135" t="s">
-        <v>2883</v>
+        <v>2872</v>
       </c>
       <c r="D444" s="135" t="s">
-        <v>2884</v>
+        <v>2873</v>
       </c>
       <c r="E444" s="135" t="s">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="F444" s="135" t="s">
-        <v>2609</v>
+        <v>2867</v>
       </c>
       <c r="G444" s="135" t="s">
-        <v>2886</v>
+        <v>2874</v>
       </c>
       <c r="H444" s="135" t="s">
-        <v>2501</v>
+        <v>2403</v>
       </c>
       <c r="I444" s="135" t="s">
         <v>2618</v>
@@ -81898,28 +81926,28 @@
     </row>
     <row r="445" spans="1:9" hidden="1">
       <c r="A445" s="135" t="s">
-        <v>2881</v>
+        <v>2870</v>
       </c>
       <c r="B445" s="135" t="s">
-        <v>2882</v>
+        <v>2871</v>
       </c>
       <c r="C445" s="135" t="s">
-        <v>2883</v>
+        <v>2872</v>
       </c>
       <c r="D445" s="135" t="s">
-        <v>2884</v>
+        <v>2873</v>
       </c>
       <c r="E445" s="135" t="s">
-        <v>2885</v>
+        <v>2875</v>
       </c>
       <c r="F445" s="135" t="s">
-        <v>2609</v>
+        <v>2867</v>
       </c>
       <c r="G445" s="135" t="s">
-        <v>2887</v>
+        <v>2878</v>
       </c>
       <c r="H445" s="135" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="I445" s="135" t="s">
         <v>2618</v>
@@ -81927,28 +81955,28 @@
     </row>
     <row r="446" spans="1:9" hidden="1">
       <c r="A446" s="135" t="s">
-        <v>2881</v>
+        <v>2870</v>
       </c>
       <c r="B446" s="135" t="s">
-        <v>2882</v>
+        <v>2871</v>
       </c>
       <c r="C446" s="135" t="s">
-        <v>2883</v>
+        <v>2872</v>
       </c>
       <c r="D446" s="135" t="s">
-        <v>2884</v>
+        <v>2873</v>
       </c>
       <c r="E446" s="135" t="s">
-        <v>2885</v>
+        <v>2876</v>
       </c>
       <c r="F446" s="135" t="s">
-        <v>2612</v>
+        <v>2877</v>
       </c>
       <c r="G446" s="135" t="s">
-        <v>2888</v>
+        <v>2879</v>
       </c>
       <c r="H446" s="135" t="s">
-        <v>2656</v>
+        <v>2403</v>
       </c>
       <c r="I446" s="135" t="s">
         <v>2618</v>
@@ -81956,28 +81984,28 @@
     </row>
     <row r="447" spans="1:9" hidden="1">
       <c r="A447" s="135" t="s">
-        <v>2881</v>
+        <v>2870</v>
       </c>
       <c r="B447" s="135" t="s">
-        <v>2889</v>
+        <v>2871</v>
       </c>
       <c r="C447" s="135" t="s">
-        <v>2890</v>
+        <v>2872</v>
       </c>
       <c r="D447" s="135" t="s">
-        <v>2891</v>
+        <v>2873</v>
       </c>
       <c r="E447" s="135" t="s">
-        <v>2892</v>
+        <v>2876</v>
       </c>
       <c r="F447" s="135" t="s">
-        <v>2609</v>
+        <v>2877</v>
       </c>
       <c r="G447" s="135" t="s">
-        <v>2893</v>
+        <v>2880</v>
       </c>
       <c r="H447" s="135" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="I447" s="135" t="s">
         <v>2618</v>
@@ -81988,25 +82016,25 @@
         <v>2881</v>
       </c>
       <c r="B448" s="135" t="s">
-        <v>2889</v>
+        <v>2882</v>
       </c>
       <c r="C448" s="135" t="s">
-        <v>2890</v>
+        <v>2883</v>
       </c>
       <c r="D448" s="135" t="s">
-        <v>2891</v>
+        <v>2884</v>
       </c>
       <c r="E448" s="135" t="s">
-        <v>2892</v>
+        <v>2885</v>
       </c>
       <c r="F448" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G448" s="135" t="s">
-        <v>2894</v>
+        <v>2633</v>
       </c>
       <c r="H448" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I448" s="135" t="s">
         <v>2618</v>
@@ -82017,128 +82045,173 @@
         <v>2881</v>
       </c>
       <c r="B449" s="135" t="s">
-        <v>2889</v>
+        <v>2882</v>
       </c>
       <c r="C449" s="135" t="s">
-        <v>2890</v>
+        <v>2883</v>
       </c>
       <c r="D449" s="135" t="s">
-        <v>2891</v>
+        <v>2884</v>
       </c>
       <c r="E449" s="135" t="s">
-        <v>2892</v>
+        <v>2885</v>
       </c>
       <c r="F449" s="135" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="G449" s="135" t="s">
-        <v>2895</v>
+        <v>2886</v>
       </c>
       <c r="H449" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I449" s="135" t="s">
         <v>2618</v>
       </c>
     </row>
     <row r="450" spans="1:9" hidden="1">
+      <c r="A450" s="135" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B450" s="135" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C450" s="135" t="s">
+        <v>2883</v>
+      </c>
       <c r="D450" s="135" t="s">
-        <v>2897</v>
+        <v>2884</v>
       </c>
       <c r="E450" s="135" t="s">
-        <v>2898</v>
+        <v>2885</v>
       </c>
       <c r="F450" s="135" t="s">
-        <v>2899</v>
+        <v>2609</v>
       </c>
       <c r="G450" s="135" t="s">
-        <v>2900</v>
+        <v>2887</v>
       </c>
       <c r="H450" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I450" s="135" t="s">
-        <v>2901</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="451" spans="1:9" hidden="1">
+      <c r="A451" s="135" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B451" s="135" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C451" s="135" t="s">
+        <v>2883</v>
+      </c>
       <c r="D451" s="135" t="s">
-        <v>2897</v>
+        <v>2884</v>
       </c>
       <c r="E451" s="135" t="s">
-        <v>2898</v>
+        <v>2885</v>
       </c>
       <c r="F451" s="135" t="s">
-        <v>2902</v>
+        <v>2612</v>
       </c>
       <c r="G451" s="135" t="s">
-        <v>2903</v>
+        <v>2888</v>
       </c>
       <c r="H451" s="135" t="s">
-        <v>2403</v>
+        <v>2656</v>
       </c>
       <c r="I451" s="135" t="s">
-        <v>2901</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="452" spans="1:9" hidden="1">
+      <c r="A452" s="135" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B452" s="135" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C452" s="135" t="s">
+        <v>2890</v>
+      </c>
       <c r="D452" s="135" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="E452" s="135" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="F452" s="135" t="s">
-        <v>2904</v>
+        <v>2609</v>
       </c>
       <c r="G452" s="135" t="s">
-        <v>2905</v>
+        <v>2893</v>
       </c>
       <c r="H452" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I452" s="135" t="s">
-        <v>2901</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="453" spans="1:9" hidden="1">
+      <c r="A453" s="135" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B453" s="135" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C453" s="135" t="s">
+        <v>2890</v>
+      </c>
       <c r="D453" s="135" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="E453" s="135" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="F453" s="135" t="s">
-        <v>2904</v>
+        <v>2612</v>
       </c>
       <c r="G453" s="135" t="s">
-        <v>2906</v>
+        <v>2894</v>
       </c>
       <c r="H453" s="135" t="s">
-        <v>2403</v>
+        <v>2656</v>
       </c>
       <c r="I453" s="135" t="s">
-        <v>2901</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="454" spans="1:9" hidden="1">
+      <c r="A454" s="135" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B454" s="135" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C454" s="135" t="s">
+        <v>2890</v>
+      </c>
       <c r="D454" s="135" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="E454" s="135" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="F454" s="135" t="s">
-        <v>2904</v>
+        <v>2612</v>
       </c>
       <c r="G454" s="135" t="s">
-        <v>2907</v>
+        <v>2895</v>
       </c>
       <c r="H454" s="135" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="I454" s="135" t="s">
-        <v>2901</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="455" spans="1:9" hidden="1">
@@ -82149,10 +82222,10 @@
         <v>2898</v>
       </c>
       <c r="F455" s="135" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="G455" s="135" t="s">
-        <v>2908</v>
+        <v>2900</v>
       </c>
       <c r="H455" s="135" t="s">
         <v>2652</v>
@@ -82169,13 +82242,13 @@
         <v>2898</v>
       </c>
       <c r="F456" s="135" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="G456" s="135" t="s">
-        <v>2909</v>
+        <v>2903</v>
       </c>
       <c r="H456" s="135" t="s">
-        <v>2652</v>
+        <v>2403</v>
       </c>
       <c r="I456" s="135" t="s">
         <v>2901</v>
@@ -82192,7 +82265,7 @@
         <v>2904</v>
       </c>
       <c r="G457" s="135" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="H457" s="135" t="s">
         <v>2652</v>
@@ -82209,10 +82282,10 @@
         <v>2898</v>
       </c>
       <c r="F458" s="135" t="s">
-        <v>2911</v>
+        <v>2904</v>
       </c>
       <c r="G458" s="135" t="s">
-        <v>2912</v>
+        <v>2906</v>
       </c>
       <c r="H458" s="135" t="s">
         <v>2403</v>
@@ -82222,115 +82295,100 @@
       </c>
     </row>
     <row r="459" spans="1:9" hidden="1">
-      <c r="A459" s="141"/>
-      <c r="B459" s="141"/>
-      <c r="C459" s="141"/>
-      <c r="D459" s="141" t="s">
-        <v>3048</v>
-      </c>
-      <c r="E459" s="141" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F459" s="141" t="s">
-        <v>3050</v>
-      </c>
-      <c r="G459" s="141" t="s">
-        <v>3051</v>
-      </c>
-      <c r="H459" s="141" t="s">
-        <v>2501</v>
+      <c r="D459" s="135" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E459" s="135" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F459" s="135" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G459" s="135" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H459" s="135" t="s">
+        <v>2652</v>
       </c>
       <c r="I459" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="460" spans="1:9" hidden="1">
-      <c r="A460" s="141"/>
-      <c r="B460" s="141"/>
-      <c r="C460" s="141"/>
-      <c r="D460" s="141" t="s">
-        <v>3048</v>
-      </c>
-      <c r="E460" s="141" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F460" s="141" t="s">
-        <v>3052</v>
-      </c>
-      <c r="G460" s="141" t="s">
-        <v>3053</v>
-      </c>
-      <c r="H460" s="141" t="s">
-        <v>2501</v>
+      <c r="D460" s="135" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E460" s="135" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F460" s="135" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G460" s="135" t="s">
+        <v>2908</v>
+      </c>
+      <c r="H460" s="135" t="s">
+        <v>2652</v>
       </c>
       <c r="I460" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="461" spans="1:9" hidden="1">
-      <c r="A461" s="141"/>
-      <c r="B461" s="141"/>
-      <c r="C461" s="141"/>
-      <c r="D461" s="141" t="s">
-        <v>3048</v>
-      </c>
-      <c r="E461" s="141" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F461" s="141" t="s">
-        <v>3052</v>
-      </c>
-      <c r="G461" s="141" t="s">
-        <v>3056</v>
-      </c>
-      <c r="H461" s="141" t="s">
-        <v>2501</v>
+      <c r="D461" s="135" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E461" s="135" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F461" s="135" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G461" s="135" t="s">
+        <v>2909</v>
+      </c>
+      <c r="H461" s="135" t="s">
+        <v>2652</v>
       </c>
       <c r="I461" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="462" spans="1:9" hidden="1">
-      <c r="A462" s="141"/>
-      <c r="B462" s="141"/>
-      <c r="C462" s="141"/>
-      <c r="D462" s="141" t="s">
-        <v>3048</v>
-      </c>
-      <c r="E462" s="141" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F462" s="141" t="s">
-        <v>3054</v>
-      </c>
-      <c r="G462" s="141" t="s">
-        <v>3055</v>
-      </c>
-      <c r="H462" s="141" t="s">
-        <v>2501</v>
+      <c r="D462" s="135" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E462" s="135" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F462" s="135" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G462" s="135" t="s">
+        <v>2910</v>
+      </c>
+      <c r="H462" s="135" t="s">
+        <v>2652</v>
       </c>
       <c r="I462" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="463" spans="1:9" hidden="1">
-      <c r="A463" s="141"/>
-      <c r="B463" s="141"/>
-      <c r="C463" s="141"/>
-      <c r="D463" s="141" t="s">
-        <v>3048</v>
-      </c>
-      <c r="E463" s="141" t="s">
-        <v>3049</v>
-      </c>
-      <c r="F463" s="141" t="s">
-        <v>3054</v>
-      </c>
-      <c r="G463" s="141" t="s">
-        <v>3057</v>
-      </c>
-      <c r="H463" s="141" t="s">
-        <v>2501</v>
+      <c r="D463" s="135" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E463" s="135" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F463" s="135" t="s">
+        <v>2911</v>
+      </c>
+      <c r="G463" s="135" t="s">
+        <v>2912</v>
+      </c>
+      <c r="H463" s="135" t="s">
+        <v>2403</v>
       </c>
       <c r="I463" s="135" t="s">
         <v>2901</v>
@@ -82347,10 +82405,10 @@
         <v>3049</v>
       </c>
       <c r="F464" s="141" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="G464" s="141" t="s">
-        <v>3058</v>
+        <v>3051</v>
       </c>
       <c r="H464" s="141" t="s">
         <v>2501</v>
@@ -82370,10 +82428,10 @@
         <v>3049</v>
       </c>
       <c r="F465" s="141" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="G465" s="141" t="s">
-        <v>3059</v>
+        <v>3053</v>
       </c>
       <c r="H465" s="141" t="s">
         <v>2501</v>
@@ -82393,10 +82451,10 @@
         <v>3049</v>
       </c>
       <c r="F466" s="141" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="G466" s="141" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="H466" s="141" t="s">
         <v>2501</v>
@@ -82416,10 +82474,10 @@
         <v>3049</v>
       </c>
       <c r="F467" s="141" t="s">
-        <v>3061</v>
+        <v>3054</v>
       </c>
       <c r="G467" s="141" t="s">
-        <v>2846</v>
+        <v>3055</v>
       </c>
       <c r="H467" s="141" t="s">
         <v>2501</v>
@@ -82439,10 +82497,10 @@
         <v>3049</v>
       </c>
       <c r="F468" s="141" t="s">
-        <v>3063</v>
+        <v>3054</v>
       </c>
       <c r="G468" s="141" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="H468" s="141" t="s">
         <v>2501</v>
@@ -82456,21 +82514,21 @@
       <c r="B469" s="141"/>
       <c r="C469" s="141"/>
       <c r="D469" s="141" t="s">
-        <v>3125</v>
+        <v>3048</v>
       </c>
       <c r="E469" s="141" t="s">
-        <v>3126</v>
+        <v>3049</v>
       </c>
       <c r="F469" s="141" t="s">
-        <v>3127</v>
+        <v>3054</v>
       </c>
       <c r="G469" s="141" t="s">
-        <v>3128</v>
+        <v>3058</v>
       </c>
       <c r="H469" s="141" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I469" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I469" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
@@ -82479,21 +82537,21 @@
       <c r="B470" s="141"/>
       <c r="C470" s="141"/>
       <c r="D470" s="141" t="s">
-        <v>3125</v>
+        <v>3048</v>
       </c>
       <c r="E470" s="141" t="s">
-        <v>3126</v>
+        <v>3049</v>
       </c>
       <c r="F470" s="141" t="s">
-        <v>3127</v>
+        <v>3054</v>
       </c>
       <c r="G470" s="141" t="s">
-        <v>3129</v>
+        <v>3059</v>
       </c>
       <c r="H470" s="141" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I470" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I470" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
@@ -82502,21 +82560,21 @@
       <c r="B471" s="141"/>
       <c r="C471" s="141"/>
       <c r="D471" s="141" t="s">
-        <v>3125</v>
+        <v>3048</v>
       </c>
       <c r="E471" s="141" t="s">
-        <v>3126</v>
+        <v>3049</v>
       </c>
       <c r="F471" s="141" t="s">
-        <v>3127</v>
+        <v>3054</v>
       </c>
       <c r="G471" s="141" t="s">
-        <v>3130</v>
+        <v>3060</v>
       </c>
       <c r="H471" s="141" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I471" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I471" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
@@ -82525,217 +82583,232 @@
       <c r="B472" s="141"/>
       <c r="C472" s="141"/>
       <c r="D472" s="141" t="s">
-        <v>3125</v>
+        <v>3048</v>
       </c>
       <c r="E472" s="141" t="s">
-        <v>3126</v>
+        <v>3049</v>
       </c>
       <c r="F472" s="141" t="s">
-        <v>2612</v>
+        <v>3061</v>
       </c>
       <c r="G472" s="141" t="s">
-        <v>3131</v>
+        <v>2846</v>
       </c>
       <c r="H472" s="141" t="s">
-        <v>2656</v>
-      </c>
-      <c r="I472" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I472" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="473" spans="1:9" hidden="1">
-      <c r="A473" s="139"/>
-      <c r="B473" s="139"/>
-      <c r="C473" s="139"/>
-      <c r="D473" s="139" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E473" s="139" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F473" s="139" t="s">
-        <v>3127</v>
-      </c>
-      <c r="G473" s="139" t="s">
-        <v>3128</v>
+      <c r="A473" s="141"/>
+      <c r="B473" s="141"/>
+      <c r="C473" s="141"/>
+      <c r="D473" s="141" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E473" s="141" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F473" s="141" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G473" s="141" t="s">
+        <v>3062</v>
       </c>
       <c r="H473" s="141" t="s">
-        <v>2652</v>
+        <v>2501</v>
       </c>
       <c r="I473" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="474" spans="1:9" hidden="1">
-      <c r="A474" s="139"/>
-      <c r="B474" s="139"/>
-      <c r="C474" s="139"/>
-      <c r="D474" s="139" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E474" s="139" t="s">
+      <c r="A474" s="141"/>
+      <c r="B474" s="141"/>
+      <c r="C474" s="141"/>
+      <c r="D474" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E474" s="141" t="s">
         <v>3126</v>
       </c>
-      <c r="F474" s="139" t="s">
+      <c r="F474" s="141" t="s">
         <v>3127</v>
       </c>
-      <c r="G474" s="139" t="s">
-        <v>3129</v>
+      <c r="G474" s="141" t="s">
+        <v>3128</v>
       </c>
       <c r="H474" s="141" t="s">
         <v>2652</v>
       </c>
-      <c r="I474" s="135" t="s">
+      <c r="I474" s="141" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="475" spans="1:9" hidden="1">
-      <c r="A475" s="139"/>
-      <c r="B475" s="139"/>
-      <c r="C475" s="139"/>
-      <c r="D475" s="139" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E475" s="139" t="s">
+      <c r="A475" s="141"/>
+      <c r="B475" s="141"/>
+      <c r="C475" s="141"/>
+      <c r="D475" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E475" s="141" t="s">
         <v>3126</v>
       </c>
-      <c r="F475" s="139" t="s">
+      <c r="F475" s="141" t="s">
         <v>3127</v>
       </c>
-      <c r="G475" s="139" t="s">
-        <v>3130</v>
+      <c r="G475" s="141" t="s">
+        <v>3129</v>
       </c>
       <c r="H475" s="141" t="s">
         <v>2652</v>
       </c>
-      <c r="I475" s="135" t="s">
+      <c r="I475" s="141" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="476" spans="1:9" hidden="1">
-      <c r="A476" s="139"/>
-      <c r="B476" s="139"/>
-      <c r="C476" s="139"/>
-      <c r="D476" s="139" t="s">
+      <c r="A476" s="141"/>
+      <c r="B476" s="141"/>
+      <c r="C476" s="141"/>
+      <c r="D476" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E476" s="141" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F476" s="141" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G476" s="141" t="s">
+        <v>3130</v>
+      </c>
+      <c r="H476" s="141" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I476" s="141" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" hidden="1">
+      <c r="A477" s="141"/>
+      <c r="B477" s="141"/>
+      <c r="C477" s="141"/>
+      <c r="D477" s="141" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E477" s="141" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F477" s="141" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G477" s="141" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H477" s="141" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I477" s="141" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" hidden="1">
+      <c r="A478" s="139"/>
+      <c r="B478" s="139"/>
+      <c r="C478" s="139"/>
+      <c r="D478" s="139" t="s">
         <v>3132</v>
       </c>
-      <c r="E476" s="139" t="s">
+      <c r="E478" s="139" t="s">
         <v>3126</v>
       </c>
-      <c r="F476" s="139" t="s">
-        <v>2612</v>
-      </c>
-      <c r="G476" s="139" t="s">
-        <v>3131</v>
-      </c>
-      <c r="H476" s="141" t="s">
-        <v>2656</v>
-      </c>
-      <c r="I476" s="135" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="477" spans="1:9" hidden="1">
-      <c r="D477" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E477" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F477" s="135" t="s">
-        <v>3135</v>
-      </c>
-      <c r="G477" s="135" t="s">
-        <v>3136</v>
-      </c>
-      <c r="H477" s="135" t="s">
-        <v>2501</v>
-      </c>
-      <c r="I477" s="135" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="478" spans="1:9" hidden="1">
-      <c r="D478" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E478" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F478" s="135" t="s">
-        <v>3135</v>
-      </c>
-      <c r="G478" s="135" t="s">
-        <v>3137</v>
-      </c>
-      <c r="H478" s="135" t="s">
-        <v>2501</v>
+      <c r="F478" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G478" s="139" t="s">
+        <v>3128</v>
+      </c>
+      <c r="H478" s="141" t="s">
+        <v>2652</v>
       </c>
       <c r="I478" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="479" spans="1:9" hidden="1">
-      <c r="D479" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E479" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F479" s="135" t="s">
-        <v>3135</v>
-      </c>
-      <c r="G479" s="135" t="s">
-        <v>3138</v>
-      </c>
-      <c r="H479" s="135" t="s">
-        <v>2501</v>
+      <c r="A479" s="139"/>
+      <c r="B479" s="139"/>
+      <c r="C479" s="139"/>
+      <c r="D479" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E479" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F479" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G479" s="139" t="s">
+        <v>3129</v>
+      </c>
+      <c r="H479" s="141" t="s">
+        <v>2652</v>
       </c>
       <c r="I479" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="480" spans="1:9" hidden="1">
-      <c r="D480" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E480" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F480" s="135" t="s">
-        <v>3139</v>
-      </c>
-      <c r="G480" s="135" t="s">
-        <v>3140</v>
-      </c>
-      <c r="H480" s="135" t="s">
-        <v>2656</v>
+      <c r="A480" s="139"/>
+      <c r="B480" s="139"/>
+      <c r="C480" s="139"/>
+      <c r="D480" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E480" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F480" s="139" t="s">
+        <v>3127</v>
+      </c>
+      <c r="G480" s="139" t="s">
+        <v>3130</v>
+      </c>
+      <c r="H480" s="141" t="s">
+        <v>2652</v>
       </c>
       <c r="I480" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="481" spans="4:9" hidden="1">
-      <c r="D481" s="135" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E481" s="135" t="s">
-        <v>3134</v>
-      </c>
-      <c r="F481" s="135" t="s">
-        <v>3139</v>
-      </c>
-      <c r="G481" s="135" t="s">
-        <v>3141</v>
-      </c>
-      <c r="H481" s="135" t="s">
+    <row r="481" spans="1:9" hidden="1">
+      <c r="A481" s="139"/>
+      <c r="B481" s="139"/>
+      <c r="C481" s="139"/>
+      <c r="D481" s="139" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E481" s="139" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F481" s="139" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G481" s="139" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H481" s="141" t="s">
         <v>2656</v>
       </c>
       <c r="I481" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="482" spans="4:9" hidden="1">
+    <row r="482" spans="1:9" hidden="1">
       <c r="D482" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82743,10 +82816,10 @@
         <v>3134</v>
       </c>
       <c r="F482" s="135" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
       <c r="G482" s="135" t="s">
-        <v>3142</v>
+        <v>3136</v>
       </c>
       <c r="H482" s="135" t="s">
         <v>2501</v>
@@ -82755,7 +82828,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="483" spans="4:9" hidden="1">
+    <row r="483" spans="1:9" hidden="1">
       <c r="D483" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82763,10 +82836,10 @@
         <v>3134</v>
       </c>
       <c r="F483" s="135" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
       <c r="G483" s="135" t="s">
-        <v>3144</v>
+        <v>3137</v>
       </c>
       <c r="H483" s="135" t="s">
         <v>2501</v>
@@ -82775,7 +82848,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="484" spans="4:9" hidden="1">
+    <row r="484" spans="1:9" hidden="1">
       <c r="D484" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82783,10 +82856,10 @@
         <v>3134</v>
       </c>
       <c r="F484" s="135" t="s">
-        <v>3143</v>
+        <v>3135</v>
       </c>
       <c r="G484" s="135" t="s">
-        <v>3145</v>
+        <v>3138</v>
       </c>
       <c r="H484" s="135" t="s">
         <v>2501</v>
@@ -82795,7 +82868,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="485" spans="4:9" hidden="1">
+    <row r="485" spans="1:9" hidden="1">
       <c r="D485" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82803,19 +82876,19 @@
         <v>3134</v>
       </c>
       <c r="F485" s="135" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="G485" s="135" t="s">
-        <v>3146</v>
+        <v>3140</v>
       </c>
       <c r="H485" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I485" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="486" spans="4:9" hidden="1">
+    <row r="486" spans="1:9" hidden="1">
       <c r="D486" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82823,19 +82896,19 @@
         <v>3134</v>
       </c>
       <c r="F486" s="135" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="G486" s="135" t="s">
-        <v>3147</v>
+        <v>3141</v>
       </c>
       <c r="H486" s="135" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I486" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="487" spans="4:9" hidden="1">
+    <row r="487" spans="1:9" hidden="1">
       <c r="D487" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82846,7 +82919,7 @@
         <v>3143</v>
       </c>
       <c r="G487" s="135" t="s">
-        <v>3148</v>
+        <v>3142</v>
       </c>
       <c r="H487" s="135" t="s">
         <v>2501</v>
@@ -82855,7 +82928,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="488" spans="4:9" hidden="1">
+    <row r="488" spans="1:9" hidden="1">
       <c r="D488" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82866,7 +82939,7 @@
         <v>3143</v>
       </c>
       <c r="G488" s="135" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="H488" s="135" t="s">
         <v>2501</v>
@@ -82875,7 +82948,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="489" spans="4:9" hidden="1">
+    <row r="489" spans="1:9" hidden="1">
       <c r="D489" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82886,7 +82959,7 @@
         <v>3143</v>
       </c>
       <c r="G489" s="135" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="H489" s="135" t="s">
         <v>2501</v>
@@ -82895,7 +82968,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="490" spans="4:9" hidden="1">
+    <row r="490" spans="1:9" hidden="1">
       <c r="D490" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82906,7 +82979,7 @@
         <v>3143</v>
       </c>
       <c r="G490" s="135" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="H490" s="135" t="s">
         <v>2501</v>
@@ -82915,7 +82988,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="491" spans="4:9" hidden="1">
+    <row r="491" spans="1:9" hidden="1">
       <c r="D491" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82926,7 +82999,7 @@
         <v>3143</v>
       </c>
       <c r="G491" s="135" t="s">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="H491" s="135" t="s">
         <v>2501</v>
@@ -82935,7 +83008,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="492" spans="4:9" hidden="1">
+    <row r="492" spans="1:9" hidden="1">
       <c r="D492" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82946,7 +83019,7 @@
         <v>3143</v>
       </c>
       <c r="G492" s="135" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="H492" s="135" t="s">
         <v>2501</v>
@@ -82955,7 +83028,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="493" spans="4:9" hidden="1">
+    <row r="493" spans="1:9" hidden="1">
       <c r="D493" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82966,7 +83039,7 @@
         <v>3143</v>
       </c>
       <c r="G493" s="135" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="H493" s="135" t="s">
         <v>2501</v>
@@ -82975,7 +83048,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="494" spans="4:9" hidden="1">
+    <row r="494" spans="1:9" hidden="1">
       <c r="D494" s="135" t="s">
         <v>3133</v>
       </c>
@@ -82983,10 +83056,10 @@
         <v>3134</v>
       </c>
       <c r="F494" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G494" s="135" t="s">
-        <v>3156</v>
+        <v>3150</v>
       </c>
       <c r="H494" s="135" t="s">
         <v>2501</v>
@@ -82995,7 +83068,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="495" spans="4:9" hidden="1">
+    <row r="495" spans="1:9" hidden="1">
       <c r="D495" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83003,10 +83076,10 @@
         <v>3134</v>
       </c>
       <c r="F495" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G495" s="135" t="s">
-        <v>3157</v>
+        <v>3151</v>
       </c>
       <c r="H495" s="135" t="s">
         <v>2501</v>
@@ -83015,7 +83088,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="496" spans="4:9" hidden="1">
+    <row r="496" spans="1:9" hidden="1">
       <c r="D496" s="135" t="s">
         <v>3133</v>
       </c>
@@ -83023,10 +83096,10 @@
         <v>3134</v>
       </c>
       <c r="F496" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G496" s="135" t="s">
-        <v>3158</v>
+        <v>3152</v>
       </c>
       <c r="H496" s="135" t="s">
         <v>2501</v>
@@ -83043,10 +83116,10 @@
         <v>3134</v>
       </c>
       <c r="F497" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G497" s="135" t="s">
-        <v>3159</v>
+        <v>3153</v>
       </c>
       <c r="H497" s="135" t="s">
         <v>2501</v>
@@ -83063,10 +83136,10 @@
         <v>3134</v>
       </c>
       <c r="F498" s="135" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
       <c r="G498" s="135" t="s">
-        <v>3160</v>
+        <v>3154</v>
       </c>
       <c r="H498" s="135" t="s">
         <v>2501</v>
@@ -83086,10 +83159,10 @@
         <v>3155</v>
       </c>
       <c r="G499" s="135" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="H499" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I499" s="135" t="s">
         <v>2901</v>
@@ -83106,32 +83179,29 @@
         <v>3155</v>
       </c>
       <c r="G500" s="135" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="H500" s="135" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I500" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="501" spans="1:9" hidden="1">
-      <c r="A501" s="141"/>
-      <c r="B501" s="141"/>
-      <c r="C501" s="141"/>
-      <c r="D501" s="141" t="s">
-        <v>3184</v>
-      </c>
-      <c r="E501" s="141" t="s">
-        <v>3163</v>
-      </c>
-      <c r="F501" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G501" s="157" t="s">
-        <v>3164</v>
-      </c>
-      <c r="H501" s="141" t="s">
+      <c r="D501" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E501" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F501" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G501" s="135" t="s">
+        <v>3158</v>
+      </c>
+      <c r="H501" s="135" t="s">
         <v>2501</v>
       </c>
       <c r="I501" s="135" t="s">
@@ -83139,22 +83209,19 @@
       </c>
     </row>
     <row r="502" spans="1:9" hidden="1">
-      <c r="A502" s="141"/>
-      <c r="B502" s="141"/>
-      <c r="C502" s="141"/>
-      <c r="D502" s="141" t="s">
-        <v>3184</v>
-      </c>
-      <c r="E502" s="141" t="s">
-        <v>3163</v>
-      </c>
-      <c r="F502" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G502" s="157" t="s">
-        <v>3165</v>
-      </c>
-      <c r="H502" s="141" t="s">
+      <c r="D502" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E502" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F502" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G502" s="135" t="s">
+        <v>3159</v>
+      </c>
+      <c r="H502" s="135" t="s">
         <v>2501</v>
       </c>
       <c r="I502" s="135" t="s">
@@ -83162,22 +83229,19 @@
       </c>
     </row>
     <row r="503" spans="1:9" hidden="1">
-      <c r="A503" s="141"/>
-      <c r="B503" s="141"/>
-      <c r="C503" s="141"/>
-      <c r="D503" s="141" t="s">
-        <v>3184</v>
-      </c>
-      <c r="E503" s="141" t="s">
-        <v>3163</v>
-      </c>
-      <c r="F503" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G503" s="157" t="s">
-        <v>3166</v>
-      </c>
-      <c r="H503" s="141" t="s">
+      <c r="D503" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E503" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F503" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G503" s="135" t="s">
+        <v>3160</v>
+      </c>
+      <c r="H503" s="135" t="s">
         <v>2501</v>
       </c>
       <c r="I503" s="135" t="s">
@@ -83185,46 +83249,40 @@
       </c>
     </row>
     <row r="504" spans="1:9" hidden="1">
-      <c r="A504" s="141"/>
-      <c r="B504" s="141"/>
-      <c r="C504" s="141"/>
-      <c r="D504" s="141" t="s">
-        <v>3184</v>
-      </c>
-      <c r="E504" s="141" t="s">
-        <v>3163</v>
-      </c>
-      <c r="F504" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G504" s="157" t="s">
-        <v>3167</v>
-      </c>
-      <c r="H504" s="141" t="s">
-        <v>2501</v>
+      <c r="D504" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E504" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F504" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G504" s="135" t="s">
+        <v>3161</v>
+      </c>
+      <c r="H504" s="135" t="s">
+        <v>2656</v>
       </c>
       <c r="I504" s="135" t="s">
         <v>2901</v>
       </c>
     </row>
     <row r="505" spans="1:9" hidden="1">
-      <c r="A505" s="141"/>
-      <c r="B505" s="141"/>
-      <c r="C505" s="141"/>
-      <c r="D505" s="141" t="s">
-        <v>3184</v>
-      </c>
-      <c r="E505" s="141" t="s">
-        <v>3163</v>
-      </c>
-      <c r="F505" s="141" t="s">
-        <v>3172</v>
-      </c>
-      <c r="G505" s="157" t="s">
-        <v>3168</v>
-      </c>
-      <c r="H505" s="141" t="s">
-        <v>2501</v>
+      <c r="D505" s="135" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E505" s="135" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F505" s="135" t="s">
+        <v>3155</v>
+      </c>
+      <c r="G505" s="135" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H505" s="135" t="s">
+        <v>2656</v>
       </c>
       <c r="I505" s="135" t="s">
         <v>2901</v>
@@ -83243,8 +83301,8 @@
       <c r="F506" s="141" t="s">
         <v>3172</v>
       </c>
-      <c r="G506" s="157" t="s">
-        <v>3169</v>
+      <c r="G506" s="142" t="s">
+        <v>3164</v>
       </c>
       <c r="H506" s="141" t="s">
         <v>2501</v>
@@ -83266,8 +83324,8 @@
       <c r="F507" s="141" t="s">
         <v>3172</v>
       </c>
-      <c r="G507" s="157" t="s">
-        <v>3170</v>
+      <c r="G507" s="142" t="s">
+        <v>3165</v>
       </c>
       <c r="H507" s="141" t="s">
         <v>2501</v>
@@ -83287,10 +83345,10 @@
         <v>3163</v>
       </c>
       <c r="F508" s="141" t="s">
-        <v>3171</v>
-      </c>
-      <c r="G508" s="157" t="s">
-        <v>3173</v>
+        <v>3172</v>
+      </c>
+      <c r="G508" s="142" t="s">
+        <v>3166</v>
       </c>
       <c r="H508" s="141" t="s">
         <v>2501</v>
@@ -83310,10 +83368,10 @@
         <v>3163</v>
       </c>
       <c r="F509" s="141" t="s">
-        <v>3171</v>
-      </c>
-      <c r="G509" s="157" t="s">
-        <v>3174</v>
+        <v>3172</v>
+      </c>
+      <c r="G509" s="142" t="s">
+        <v>3167</v>
       </c>
       <c r="H509" s="141" t="s">
         <v>2501</v>
@@ -83333,13 +83391,13 @@
         <v>3163</v>
       </c>
       <c r="F510" s="141" t="s">
-        <v>3171</v>
-      </c>
-      <c r="G510" s="157" t="s">
-        <v>3175</v>
-      </c>
-      <c r="H510" s="135" t="s">
-        <v>2656</v>
+        <v>3172</v>
+      </c>
+      <c r="G510" s="142" t="s">
+        <v>3168</v>
+      </c>
+      <c r="H510" s="141" t="s">
+        <v>2501</v>
       </c>
       <c r="I510" s="135" t="s">
         <v>2901</v>
@@ -83356,10 +83414,10 @@
         <v>3163</v>
       </c>
       <c r="F511" s="141" t="s">
-        <v>3176</v>
-      </c>
-      <c r="G511" s="157" t="s">
-        <v>3177</v>
+        <v>3172</v>
+      </c>
+      <c r="G511" s="142" t="s">
+        <v>3169</v>
       </c>
       <c r="H511" s="141" t="s">
         <v>2501</v>
@@ -83379,10 +83437,10 @@
         <v>3163</v>
       </c>
       <c r="F512" s="141" t="s">
-        <v>3176</v>
-      </c>
-      <c r="G512" s="157" t="s">
-        <v>3178</v>
+        <v>3172</v>
+      </c>
+      <c r="G512" s="142" t="s">
+        <v>3170</v>
       </c>
       <c r="H512" s="141" t="s">
         <v>2501</v>
@@ -83402,10 +83460,10 @@
         <v>3163</v>
       </c>
       <c r="F513" s="141" t="s">
-        <v>3176</v>
-      </c>
-      <c r="G513" s="157" t="s">
-        <v>3179</v>
+        <v>3171</v>
+      </c>
+      <c r="G513" s="142" t="s">
+        <v>3173</v>
       </c>
       <c r="H513" s="141" t="s">
         <v>2501</v>
@@ -83415,6 +83473,9 @@
       </c>
     </row>
     <row r="514" spans="1:9" hidden="1">
+      <c r="A514" s="141"/>
+      <c r="B514" s="141"/>
+      <c r="C514" s="141"/>
       <c r="D514" s="141" t="s">
         <v>3184</v>
       </c>
@@ -83422,10 +83483,10 @@
         <v>3163</v>
       </c>
       <c r="F514" s="141" t="s">
-        <v>3176</v>
-      </c>
-      <c r="G514" s="158" t="s">
-        <v>3180</v>
+        <v>3171</v>
+      </c>
+      <c r="G514" s="142" t="s">
+        <v>3174</v>
       </c>
       <c r="H514" s="141" t="s">
         <v>2501</v>
@@ -83435,20 +83496,23 @@
       </c>
     </row>
     <row r="515" spans="1:9" hidden="1">
+      <c r="A515" s="141"/>
+      <c r="B515" s="141"/>
+      <c r="C515" s="141"/>
       <c r="D515" s="141" t="s">
         <v>3184</v>
       </c>
       <c r="E515" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="F515" s="135" t="s">
-        <v>3181</v>
-      </c>
-      <c r="G515" s="157" t="s">
-        <v>3182</v>
-      </c>
-      <c r="H515" s="141" t="s">
-        <v>2501</v>
+      <c r="F515" s="141" t="s">
+        <v>3171</v>
+      </c>
+      <c r="G515" s="142" t="s">
+        <v>3175</v>
+      </c>
+      <c r="H515" s="135" t="s">
+        <v>2656</v>
       </c>
       <c r="I515" s="135" t="s">
         <v>2901</v>
@@ -83464,11 +83528,11 @@
       <c r="E516" s="141" t="s">
         <v>3163</v>
       </c>
-      <c r="F516" s="135" t="s">
-        <v>3181</v>
-      </c>
-      <c r="G516" s="157" t="s">
-        <v>3183</v>
+      <c r="F516" s="141" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G516" s="142" t="s">
+        <v>3177</v>
       </c>
       <c r="H516" s="141" t="s">
         <v>2501</v>
@@ -83481,141 +83545,155 @@
       <c r="A517" s="141"/>
       <c r="B517" s="141"/>
       <c r="C517" s="141"/>
-      <c r="D517" s="141"/>
-      <c r="E517" s="141"/>
-      <c r="F517" s="141"/>
-      <c r="G517" s="141"/>
-      <c r="H517" s="141"/>
-      <c r="I517" s="141"/>
+      <c r="D517" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E517" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F517" s="141" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G517" s="142" t="s">
+        <v>3178</v>
+      </c>
+      <c r="H517" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I517" s="135" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="518" spans="1:9" hidden="1">
       <c r="A518" s="141"/>
       <c r="B518" s="141"/>
       <c r="C518" s="141"/>
-      <c r="D518" s="141"/>
-      <c r="E518" s="141"/>
-      <c r="F518" s="141"/>
-      <c r="G518" s="141"/>
-      <c r="H518" s="141"/>
-      <c r="I518" s="141"/>
-    </row>
-    <row r="519" spans="1:9" hidden="1"/>
+      <c r="D518" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E518" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F518" s="141" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G518" s="142" t="s">
+        <v>3179</v>
+      </c>
+      <c r="H518" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I518" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" hidden="1">
+      <c r="D519" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E519" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F519" s="141" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G519" s="143" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H519" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I519" s="135" t="s">
+        <v>2901</v>
+      </c>
+    </row>
     <row r="520" spans="1:9" hidden="1">
-      <c r="A520" s="141"/>
-      <c r="B520" s="141"/>
-      <c r="C520" s="141"/>
-      <c r="D520" s="141"/>
-      <c r="E520" s="141"/>
-      <c r="F520" s="141"/>
-      <c r="G520" s="141"/>
-      <c r="H520" s="141"/>
-      <c r="I520" s="141"/>
+      <c r="D520" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E520" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F520" s="135" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G520" s="142" t="s">
+        <v>3182</v>
+      </c>
+      <c r="H520" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I520" s="135" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="521" spans="1:9" hidden="1">
       <c r="A521" s="141"/>
       <c r="B521" s="141"/>
       <c r="C521" s="141"/>
-      <c r="D521" s="141"/>
-      <c r="E521" s="141"/>
-      <c r="F521" s="141"/>
-      <c r="G521" s="141"/>
-      <c r="H521" s="141"/>
-      <c r="I521" s="141"/>
+      <c r="D521" s="141" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E521" s="141" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F521" s="135" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G521" s="142" t="s">
+        <v>3183</v>
+      </c>
+      <c r="H521" s="141" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I521" s="135" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="522" spans="1:9" hidden="1">
-      <c r="A522" s="139"/>
-      <c r="B522" s="139"/>
-      <c r="C522" s="139"/>
-      <c r="D522" s="139"/>
-      <c r="E522" s="139"/>
-      <c r="F522" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G522" s="139" t="s">
-        <v>3032</v>
-      </c>
-      <c r="H522" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I522" s="139" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A522" s="141"/>
+      <c r="B522" s="141"/>
+      <c r="C522" s="141"/>
+      <c r="D522" s="141"/>
+      <c r="E522" s="141"/>
+      <c r="F522" s="141"/>
+      <c r="G522" s="141"/>
+      <c r="H522" s="141"/>
+      <c r="I522" s="141"/>
     </row>
     <row r="523" spans="1:9" hidden="1">
-      <c r="A523" s="139"/>
-      <c r="B523" s="139"/>
-      <c r="C523" s="139"/>
-      <c r="D523" s="139"/>
-      <c r="E523" s="139"/>
-      <c r="F523" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G523" s="139" t="s">
-        <v>3033</v>
-      </c>
-      <c r="H523" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I523" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" hidden="1">
-      <c r="A524" s="139"/>
-      <c r="B524" s="139"/>
-      <c r="C524" s="139"/>
-      <c r="D524" s="139"/>
-      <c r="E524" s="139"/>
-      <c r="F524" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G524" s="139" t="s">
-        <v>3034</v>
-      </c>
-      <c r="H524" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I524" s="139" t="s">
-        <v>3036</v>
-      </c>
-    </row>
+      <c r="A523" s="141"/>
+      <c r="B523" s="141"/>
+      <c r="C523" s="141"/>
+      <c r="D523" s="141"/>
+      <c r="E523" s="141"/>
+      <c r="F523" s="141"/>
+      <c r="G523" s="141"/>
+      <c r="H523" s="141"/>
+      <c r="I523" s="141"/>
+    </row>
+    <row r="524" spans="1:9" hidden="1"/>
     <row r="525" spans="1:9" hidden="1">
-      <c r="A525" s="139"/>
-      <c r="B525" s="139"/>
-      <c r="C525" s="139"/>
-      <c r="D525" s="139"/>
-      <c r="E525" s="139"/>
-      <c r="F525" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G525" s="139" t="s">
-        <v>3035</v>
-      </c>
-      <c r="H525" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I525" s="139" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A525" s="141"/>
+      <c r="B525" s="141"/>
+      <c r="C525" s="141"/>
+      <c r="D525" s="141"/>
+      <c r="E525" s="141"/>
+      <c r="F525" s="141"/>
+      <c r="G525" s="141"/>
+      <c r="H525" s="141"/>
+      <c r="I525" s="141"/>
     </row>
     <row r="526" spans="1:9" hidden="1">
-      <c r="A526" s="139"/>
-      <c r="B526" s="139"/>
-      <c r="C526" s="139"/>
-      <c r="D526" s="139"/>
-      <c r="E526" s="139"/>
-      <c r="F526" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G526" s="139" t="s">
-        <v>3037</v>
-      </c>
-      <c r="H526" s="139" t="s">
-        <v>2652</v>
-      </c>
-      <c r="I526" s="139" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A526" s="141"/>
+      <c r="B526" s="141"/>
+      <c r="C526" s="141"/>
+      <c r="D526" s="141"/>
+      <c r="E526" s="141"/>
+      <c r="F526" s="141"/>
+      <c r="G526" s="141"/>
+      <c r="H526" s="141"/>
+      <c r="I526" s="141"/>
     </row>
     <row r="527" spans="1:9" hidden="1">
       <c r="A527" s="139"/>
@@ -83627,10 +83705,10 @@
         <v>1692</v>
       </c>
       <c r="G527" s="139" t="s">
-        <v>3038</v>
-      </c>
-      <c r="H527" s="139" t="s">
-        <v>2656</v>
+        <v>3032</v>
+      </c>
+      <c r="H527" s="135" t="s">
+        <v>2403</v>
       </c>
       <c r="I527" s="139" t="s">
         <v>3036</v>
@@ -83646,10 +83724,10 @@
         <v>1692</v>
       </c>
       <c r="G528" s="139" t="s">
-        <v>3039</v>
+        <v>3033</v>
       </c>
       <c r="H528" s="135" t="s">
-        <v>2718</v>
+        <v>2403</v>
       </c>
       <c r="I528" s="139" t="s">
         <v>3036</v>
@@ -83665,10 +83743,10 @@
         <v>1692</v>
       </c>
       <c r="G529" s="139" t="s">
-        <v>3040</v>
-      </c>
-      <c r="H529" s="139" t="s">
-        <v>2501</v>
+        <v>3034</v>
+      </c>
+      <c r="H529" s="135" t="s">
+        <v>2403</v>
       </c>
       <c r="I529" s="139" t="s">
         <v>3036</v>
@@ -83684,10 +83762,10 @@
         <v>1692</v>
       </c>
       <c r="G530" s="139" t="s">
-        <v>2792</v>
-      </c>
-      <c r="H530" s="139" t="s">
-        <v>2501</v>
+        <v>3035</v>
+      </c>
+      <c r="H530" s="135" t="s">
+        <v>2403</v>
       </c>
       <c r="I530" s="139" t="s">
         <v>3036</v>
@@ -83703,10 +83781,10 @@
         <v>1692</v>
       </c>
       <c r="G531" s="139" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="H531" s="139" t="s">
-        <v>2501</v>
+        <v>2652</v>
       </c>
       <c r="I531" s="139" t="s">
         <v>3036</v>
@@ -83722,10 +83800,10 @@
         <v>1692</v>
       </c>
       <c r="G532" s="139" t="s">
-        <v>2790</v>
+        <v>3038</v>
       </c>
       <c r="H532" s="139" t="s">
-        <v>2501</v>
+        <v>2656</v>
       </c>
       <c r="I532" s="139" t="s">
         <v>3036</v>
@@ -83741,10 +83819,10 @@
         <v>1692</v>
       </c>
       <c r="G533" s="139" t="s">
-        <v>3042</v>
-      </c>
-      <c r="H533" s="139" t="s">
-        <v>2501</v>
+        <v>3039</v>
+      </c>
+      <c r="H533" s="135" t="s">
+        <v>2718</v>
       </c>
       <c r="I533" s="139" t="s">
         <v>3036</v>
@@ -83760,7 +83838,7 @@
         <v>1692</v>
       </c>
       <c r="G534" s="139" t="s">
-        <v>2791</v>
+        <v>3040</v>
       </c>
       <c r="H534" s="139" t="s">
         <v>2501</v>
@@ -83779,7 +83857,7 @@
         <v>1692</v>
       </c>
       <c r="G535" s="139" t="s">
-        <v>3043</v>
+        <v>2792</v>
       </c>
       <c r="H535" s="139" t="s">
         <v>2501</v>
@@ -83798,10 +83876,10 @@
         <v>1692</v>
       </c>
       <c r="G536" s="139" t="s">
-        <v>3044</v>
-      </c>
-      <c r="H536" s="135" t="s">
-        <v>2403</v>
+        <v>3041</v>
+      </c>
+      <c r="H536" s="139" t="s">
+        <v>2501</v>
       </c>
       <c r="I536" s="139" t="s">
         <v>3036</v>
@@ -83817,10 +83895,10 @@
         <v>1692</v>
       </c>
       <c r="G537" s="139" t="s">
-        <v>3045</v>
-      </c>
-      <c r="H537" s="135" t="s">
-        <v>2403</v>
+        <v>2790</v>
+      </c>
+      <c r="H537" s="139" t="s">
+        <v>2501</v>
       </c>
       <c r="I537" s="139" t="s">
         <v>3036</v>
@@ -83836,10 +83914,10 @@
         <v>1692</v>
       </c>
       <c r="G538" s="139" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="H538" s="139" t="s">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="I538" s="139" t="s">
         <v>3036</v>
@@ -83855,7 +83933,7 @@
         <v>1692</v>
       </c>
       <c r="G539" s="139" t="s">
-        <v>3047</v>
+        <v>2791</v>
       </c>
       <c r="H539" s="139" t="s">
         <v>2501</v>
@@ -83874,12 +83952,175 @@
         <v>1692</v>
       </c>
       <c r="G540" s="139" t="s">
+        <v>3043</v>
+      </c>
+      <c r="H540" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I540" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" hidden="1">
+      <c r="A541" s="139"/>
+      <c r="B541" s="139"/>
+      <c r="C541" s="139"/>
+      <c r="D541" s="139"/>
+      <c r="E541" s="139"/>
+      <c r="F541" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G541" s="139" t="s">
+        <v>3044</v>
+      </c>
+      <c r="H541" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I541" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" hidden="1">
+      <c r="A542" s="139"/>
+      <c r="B542" s="139"/>
+      <c r="C542" s="139"/>
+      <c r="D542" s="139"/>
+      <c r="E542" s="139"/>
+      <c r="F542" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G542" s="139" t="s">
+        <v>3045</v>
+      </c>
+      <c r="H542" s="135" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I542" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" hidden="1">
+      <c r="A543" s="139"/>
+      <c r="B543" s="139"/>
+      <c r="C543" s="139"/>
+      <c r="D543" s="139"/>
+      <c r="E543" s="139"/>
+      <c r="F543" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G543" s="139" t="s">
+        <v>3046</v>
+      </c>
+      <c r="H543" s="139" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I543" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" hidden="1">
+      <c r="A544" s="139"/>
+      <c r="B544" s="139"/>
+      <c r="C544" s="139"/>
+      <c r="D544" s="139"/>
+      <c r="E544" s="139"/>
+      <c r="F544" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G544" s="139" t="s">
+        <v>3047</v>
+      </c>
+      <c r="H544" s="139" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I544" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" hidden="1">
+      <c r="A545" s="139"/>
+      <c r="B545" s="139"/>
+      <c r="C545" s="139"/>
+      <c r="D545" s="139"/>
+      <c r="E545" s="139"/>
+      <c r="F545" s="139" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G545" s="139" t="s">
         <v>3080</v>
       </c>
-      <c r="H540" s="135" t="s">
+      <c r="H545" s="135" t="s">
         <v>2493</v>
       </c>
-      <c r="I540" s="139" t="s">
+      <c r="I545" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" hidden="1">
+      <c r="A546" s="159"/>
+      <c r="B546" s="159"/>
+      <c r="C546" s="159"/>
+      <c r="D546" s="159"/>
+      <c r="E546" s="159"/>
+      <c r="F546" s="160" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G546" s="159" t="s">
+        <v>3185</v>
+      </c>
+      <c r="H546" s="159" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I546" s="139" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" hidden="1">
+      <c r="A547" s="159"/>
+      <c r="B547" s="159"/>
+      <c r="C547" s="159"/>
+      <c r="D547" s="159"/>
+      <c r="E547" s="159"/>
+      <c r="F547" s="160" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G547" s="159" t="s">
+        <v>3186</v>
+      </c>
+      <c r="H547" s="159" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I547" s="160" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" hidden="1">
+      <c r="A548" s="159"/>
+      <c r="B548" s="159"/>
+      <c r="C548" s="159"/>
+      <c r="D548" s="159"/>
+      <c r="E548" s="159"/>
+      <c r="F548" s="160"/>
+      <c r="G548" s="159"/>
+      <c r="H548" s="159"/>
+      <c r="I548" s="160"/>
+    </row>
+    <row r="549" spans="1:9" hidden="1">
+      <c r="A549" s="159"/>
+      <c r="B549" s="159"/>
+      <c r="C549" s="159"/>
+      <c r="D549" s="159"/>
+      <c r="E549" s="159"/>
+      <c r="F549" s="160" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G549" s="160" t="s">
+        <v>3187</v>
+      </c>
+      <c r="H549" s="160" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I549" s="160" t="s">
         <v>3036</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento Stage LN.xlsx
+++ b/Documentação/Planilhas/Mapeamento Stage LN.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DE - PARA Atributos'!$A$1:$M$1554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DE_PARA_VIEWS!$A$2:$F$157</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$562</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Processo de Carga'!$A$2:$I$614</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19050" uniqueCount="3209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19271" uniqueCount="3267">
   <si>
     <t>dbo.Balancete</t>
   </si>
@@ -9661,6 +9661,180 @@
   </si>
   <si>
     <t>aux_ods_sige_cmv_hist</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Margin Approved Prod\stg_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>Extração de dados do SIGE</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Clientes Pedidos</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Detalhe Pedido</t>
+  </si>
+  <si>
+    <t>BU Canal Vendedor</t>
+  </si>
+  <si>
+    <t>Detalhe Pedido Kit</t>
+  </si>
+  <si>
+    <t>Detalhe Ped Mkt</t>
+  </si>
+  <si>
+    <t>Estrutura Não Produto</t>
+  </si>
+  <si>
+    <t>Extrai Impostos B2B</t>
+  </si>
+  <si>
+    <t>Família</t>
+  </si>
+  <si>
+    <t>Faturamento Serviço</t>
+  </si>
+  <si>
+    <t>Item CMV</t>
+  </si>
+  <si>
+    <t>Item Desativado</t>
+  </si>
+  <si>
+    <t>Meio de Pagamento</t>
+  </si>
+  <si>
+    <t>Orders Header</t>
+  </si>
+  <si>
+    <t>Pagamento Pedido</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Terceiro Corporativo Novo</t>
+  </si>
+  <si>
+    <t>Tipo de Cliente</t>
+  </si>
+  <si>
+    <t>Unidade de Negócio</t>
+  </si>
+  <si>
+    <t>Vendedor Afiliado</t>
+  </si>
+  <si>
+    <t>stg_sige_category</t>
+  </si>
+  <si>
+    <t>stg_sige_cp</t>
+  </si>
+  <si>
+    <t>stg_sige_dept</t>
+  </si>
+  <si>
+    <t>tmp_sige_detalhe_truncation</t>
+  </si>
+  <si>
+    <t>stg_sige_bu_canal_vendedor</t>
+  </si>
+  <si>
+    <t>stg_sige_detalhe_pedido_kit</t>
+  </si>
+  <si>
+    <t>stg_sige_pedido_mktplace</t>
+  </si>
+  <si>
+    <t>stg_sige_devolution_dump</t>
+  </si>
+  <si>
+    <t>z_temp_stg_sige_devolution</t>
+  </si>
+  <si>
+    <t>stg_sige_naoproduto</t>
+  </si>
+  <si>
+    <t>stg_sige_family</t>
+  </si>
+  <si>
+    <t>stg_sige_faturamento_servicos</t>
+  </si>
+  <si>
+    <t>stg_sige_item_cmv</t>
+  </si>
+  <si>
+    <t>stg_sige_item</t>
+  </si>
+  <si>
+    <t>stg_sige_pedido_venda_cabecalho</t>
+  </si>
+  <si>
+    <t>stg_sige_product</t>
+  </si>
+  <si>
+    <t>stg_sige_sector</t>
+  </si>
+  <si>
+    <t>stg_sige_terceiro_corporativo</t>
+  </si>
+  <si>
+    <t>stg_sige_tipo_cliente</t>
+  </si>
+  <si>
+    <t>stg_sige_vendedor_afiliado</t>
+  </si>
+  <si>
+    <t>W:\Operacional\Margin Approved Prod\ods_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>Ods SIGE Permanente</t>
+  </si>
+  <si>
+    <t>ods_sige_faturamento_impostosB2B</t>
+  </si>
+  <si>
+    <t>dump_ods_sige_detalhe_pedido</t>
+  </si>
+  <si>
+    <t>ods_sige_pedido_venda_cabecalho</t>
+  </si>
+  <si>
+    <t>Novas Cidades</t>
+  </si>
+  <si>
+    <t>ODS Endereco</t>
+  </si>
+  <si>
+    <t>aux_ods_clientes_pedidos</t>
+  </si>
+  <si>
+    <t>dump_ods_sige_clientes_pedidos</t>
+  </si>
+  <si>
+    <t>dump_ods_sige_pagamento_pedido</t>
+  </si>
+  <si>
+    <t>Rateio do faturamento e devolução</t>
+  </si>
+  <si>
+    <t>Rateio pagamento faturamento</t>
+  </si>
+  <si>
+    <t>dump_ods_sige_faturamento</t>
   </si>
 </sst>
 </file>
@@ -10275,7 +10449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -10685,6 +10859,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -10730,7 +10905,8 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11303,13 +11479,9 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I562" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A2:I562">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="W:\Operacional\Purchase\Purchase\ssis_controlador_purchase_full.dtsx"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="A2:I614" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A2:I614">
+    <filterColumn colId="3"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
   </autoFilter>
@@ -12706,7 +12878,7 @@
       <c r="A3" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="148" t="s">
         <v>1757</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -12726,7 +12898,7 @@
       <c r="A4" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="31" t="s">
         <v>1763</v>
       </c>
@@ -12745,7 +12917,7 @@
       <c r="A5" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B5" s="148"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="31" t="s">
         <v>1765</v>
       </c>
@@ -12764,7 +12936,7 @@
       <c r="A6" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B6" s="148"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="31" t="s">
         <v>1767</v>
       </c>
@@ -12783,7 +12955,7 @@
       <c r="A7" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B7" s="148"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="31" t="s">
         <v>1769</v>
       </c>
@@ -12802,7 +12974,7 @@
       <c r="A8" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B8" s="148"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="31" t="s">
         <v>2294</v>
       </c>
@@ -12821,7 +12993,7 @@
       <c r="A9" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B9" s="148"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="31" t="s">
         <v>1771</v>
       </c>
@@ -12840,7 +13012,7 @@
       <c r="A10" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B10" s="148"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="31" t="s">
         <v>1773</v>
       </c>
@@ -12859,7 +13031,7 @@
       <c r="A11" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B11" s="148"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="31" t="s">
         <v>1775</v>
       </c>
@@ -12878,7 +13050,7 @@
       <c r="A12" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B12" s="148"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="31" t="s">
         <v>1777</v>
       </c>
@@ -12897,7 +13069,7 @@
       <c r="A13" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B13" s="148"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="31" t="s">
         <v>1779</v>
       </c>
@@ -12916,7 +13088,7 @@
       <c r="A14" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B14" s="148"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="31" t="s">
         <v>1781</v>
       </c>
@@ -12935,7 +13107,7 @@
       <c r="A15" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B15" s="148"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="31" t="s">
         <v>1783</v>
       </c>
@@ -12954,7 +13126,7 @@
       <c r="A16" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B16" s="148"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="31" t="s">
         <v>1785</v>
       </c>
@@ -12973,7 +13145,7 @@
       <c r="A17" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B17" s="148"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="31" t="s">
         <v>1787</v>
       </c>
@@ -12992,7 +13164,7 @@
       <c r="A18" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B18" s="148"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="31" t="s">
         <v>1796</v>
       </c>
@@ -13010,7 +13182,7 @@
       <c r="A19" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B19" s="148"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="31" t="s">
         <v>1800</v>
       </c>
@@ -13029,7 +13201,7 @@
       <c r="A20" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B20" s="148"/>
+      <c r="B20" s="149"/>
       <c r="C20" s="31" t="s">
         <v>1802</v>
       </c>
@@ -13048,7 +13220,7 @@
       <c r="A21" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B21" s="148"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="31" t="s">
         <v>1804</v>
       </c>
@@ -13067,7 +13239,7 @@
       <c r="A22" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B22" s="148"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="31" t="s">
         <v>2271</v>
       </c>
@@ -13086,7 +13258,7 @@
       <c r="A23" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B23" s="148"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="31" t="s">
         <v>1807</v>
       </c>
@@ -13105,7 +13277,7 @@
       <c r="A24" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B24" s="148"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="31" t="s">
         <v>1813</v>
       </c>
@@ -13124,7 +13296,7 @@
       <c r="A25" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B25" s="148"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="31" t="s">
         <v>1823</v>
       </c>
@@ -13143,7 +13315,7 @@
       <c r="A26" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B26" s="148"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="31" t="s">
         <v>1825</v>
       </c>
@@ -13162,7 +13334,7 @@
       <c r="A27" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B27" s="148"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="31" t="s">
         <v>1827</v>
       </c>
@@ -13181,7 +13353,7 @@
       <c r="A28" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B28" s="148"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="31" t="s">
         <v>1829</v>
       </c>
@@ -13200,7 +13372,7 @@
       <c r="A29" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B29" s="148"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="31" t="s">
         <v>1831</v>
       </c>
@@ -13219,7 +13391,7 @@
       <c r="A30" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B30" s="148"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="31" t="s">
         <v>1833</v>
       </c>
@@ -13238,7 +13410,7 @@
       <c r="A31" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B31" s="148"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="31" t="s">
         <v>1835</v>
       </c>
@@ -13257,7 +13429,7 @@
       <c r="A32" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B32" s="148"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="31" t="s">
         <v>1874</v>
       </c>
@@ -13276,7 +13448,7 @@
       <c r="A33" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B33" s="148"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="31" t="s">
         <v>1875</v>
       </c>
@@ -13295,7 +13467,7 @@
       <c r="A34" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B34" s="148"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="31" t="s">
         <v>2357</v>
       </c>
@@ -13314,7 +13486,7 @@
       <c r="A35" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B35" s="148"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="31" t="s">
         <v>2340</v>
       </c>
@@ -13333,7 +13505,7 @@
       <c r="A36" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B36" s="148"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="31" t="s">
         <v>1882</v>
       </c>
@@ -13352,7 +13524,7 @@
       <c r="A37" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B37" s="148"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="31" t="s">
         <v>1884</v>
       </c>
@@ -13371,7 +13543,7 @@
       <c r="A38" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B38" s="148"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="31" t="s">
         <v>1886</v>
       </c>
@@ -13390,7 +13562,7 @@
       <c r="A39" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B39" s="148"/>
+      <c r="B39" s="149"/>
       <c r="C39" s="31" t="s">
         <v>1888</v>
       </c>
@@ -13409,7 +13581,7 @@
       <c r="A40" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B40" s="148"/>
+      <c r="B40" s="149"/>
       <c r="C40" s="31" t="s">
         <v>1895</v>
       </c>
@@ -13428,7 +13600,7 @@
       <c r="A41" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B41" s="148"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="31" t="s">
         <v>1897</v>
       </c>
@@ -13447,7 +13619,7 @@
       <c r="A42" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B42" s="149"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="31" t="s">
         <v>2048</v>
       </c>
@@ -13474,7 +13646,7 @@
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="B44" s="147" t="s">
+      <c r="B44" s="148" t="s">
         <v>2345</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -13495,7 +13667,7 @@
       <c r="A45" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B45" s="148"/>
+      <c r="B45" s="149"/>
       <c r="C45" s="31" t="s">
         <v>1761</v>
       </c>
@@ -13514,7 +13686,7 @@
       <c r="A46" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B46" s="148"/>
+      <c r="B46" s="149"/>
       <c r="C46" s="31" t="s">
         <v>1789</v>
       </c>
@@ -13533,7 +13705,7 @@
       <c r="A47" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B47" s="148"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="31" t="s">
         <v>1791</v>
       </c>
@@ -13552,7 +13724,7 @@
       <c r="A48" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B48" s="148"/>
+      <c r="B48" s="149"/>
       <c r="C48" s="31" t="s">
         <v>1792</v>
       </c>
@@ -13571,7 +13743,7 @@
       <c r="A49" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B49" s="148"/>
+      <c r="B49" s="149"/>
       <c r="C49" s="31" t="s">
         <v>2019</v>
       </c>
@@ -13590,7 +13762,7 @@
       <c r="A50" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B50" s="148"/>
+      <c r="B50" s="149"/>
       <c r="C50" s="31" t="s">
         <v>1794</v>
       </c>
@@ -13609,7 +13781,7 @@
       <c r="A51" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B51" s="148"/>
+      <c r="B51" s="149"/>
       <c r="C51" s="31" t="s">
         <v>1799</v>
       </c>
@@ -13628,7 +13800,7 @@
       <c r="A52" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B52" s="148"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="31" t="s">
         <v>1809</v>
       </c>
@@ -13647,7 +13819,7 @@
       <c r="A53" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B53" s="148"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="31" t="s">
         <v>1811</v>
       </c>
@@ -13666,7 +13838,7 @@
       <c r="A54" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B54" s="148"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="31" t="s">
         <v>1815</v>
       </c>
@@ -13685,7 +13857,7 @@
       <c r="A55" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B55" s="148"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="31" t="s">
         <v>1817</v>
       </c>
@@ -13704,7 +13876,7 @@
       <c r="A56" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B56" s="148"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="31" t="s">
         <v>1819</v>
       </c>
@@ -13723,7 +13895,7 @@
       <c r="A57" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B57" s="148"/>
+      <c r="B57" s="149"/>
       <c r="C57" s="31" t="s">
         <v>1821</v>
       </c>
@@ -13742,7 +13914,7 @@
       <c r="A58" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B58" s="148"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="31" t="s">
         <v>1837</v>
       </c>
@@ -13761,7 +13933,7 @@
       <c r="A59" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B59" s="148"/>
+      <c r="B59" s="149"/>
       <c r="C59" s="31" t="s">
         <v>1839</v>
       </c>
@@ -13780,7 +13952,7 @@
       <c r="A60" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B60" s="148"/>
+      <c r="B60" s="149"/>
       <c r="C60" s="31" t="s">
         <v>1841</v>
       </c>
@@ -13799,7 +13971,7 @@
       <c r="A61" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B61" s="148"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="31" t="s">
         <v>1843</v>
       </c>
@@ -13818,7 +13990,7 @@
       <c r="A62" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B62" s="148"/>
+      <c r="B62" s="149"/>
       <c r="C62" s="31" t="s">
         <v>1845</v>
       </c>
@@ -13837,7 +14009,7 @@
       <c r="A63" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B63" s="148"/>
+      <c r="B63" s="149"/>
       <c r="C63" s="31" t="s">
         <v>1847</v>
       </c>
@@ -13856,7 +14028,7 @@
       <c r="A64" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B64" s="148"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="31" t="s">
         <v>1849</v>
       </c>
@@ -13875,7 +14047,7 @@
       <c r="A65" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B65" s="148"/>
+      <c r="B65" s="149"/>
       <c r="C65" s="31" t="s">
         <v>2341</v>
       </c>
@@ -13894,7 +14066,7 @@
       <c r="A66" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B66" s="148"/>
+      <c r="B66" s="149"/>
       <c r="C66" s="31" t="s">
         <v>1852</v>
       </c>
@@ -13913,7 +14085,7 @@
       <c r="A67" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B67" s="148"/>
+      <c r="B67" s="149"/>
       <c r="C67" s="31" t="s">
         <v>1854</v>
       </c>
@@ -13932,7 +14104,7 @@
       <c r="A68" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B68" s="148"/>
+      <c r="B68" s="149"/>
       <c r="C68" s="31" t="s">
         <v>1856</v>
       </c>
@@ -13951,7 +14123,7 @@
       <c r="A69" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B69" s="148"/>
+      <c r="B69" s="149"/>
       <c r="C69" s="31" t="s">
         <v>1858</v>
       </c>
@@ -13970,7 +14142,7 @@
       <c r="A70" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B70" s="148"/>
+      <c r="B70" s="149"/>
       <c r="C70" s="31" t="s">
         <v>1860</v>
       </c>
@@ -13989,7 +14161,7 @@
       <c r="A71" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B71" s="148"/>
+      <c r="B71" s="149"/>
       <c r="C71" s="31" t="s">
         <v>1862</v>
       </c>
@@ -14008,7 +14180,7 @@
       <c r="A72" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B72" s="148"/>
+      <c r="B72" s="149"/>
       <c r="C72" s="31" t="s">
         <v>1864</v>
       </c>
@@ -14027,7 +14199,7 @@
       <c r="A73" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B73" s="148"/>
+      <c r="B73" s="149"/>
       <c r="C73" s="31" t="s">
         <v>1866</v>
       </c>
@@ -14046,7 +14218,7 @@
       <c r="A74" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B74" s="148"/>
+      <c r="B74" s="149"/>
       <c r="C74" s="31" t="s">
         <v>1868</v>
       </c>
@@ -14065,7 +14237,7 @@
       <c r="A75" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B75" s="148"/>
+      <c r="B75" s="149"/>
       <c r="C75" s="31" t="s">
         <v>1870</v>
       </c>
@@ -14084,7 +14256,7 @@
       <c r="A76" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B76" s="148"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="31" t="s">
         <v>1877</v>
       </c>
@@ -14105,7 +14277,7 @@
       <c r="A77" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B77" s="148"/>
+      <c r="B77" s="149"/>
       <c r="C77" s="31" t="s">
         <v>1880</v>
       </c>
@@ -14124,7 +14296,7 @@
       <c r="A78" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B78" s="148"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="31" t="s">
         <v>2314</v>
       </c>
@@ -14145,7 +14317,7 @@
       <c r="A79" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B79" s="149"/>
+      <c r="B79" s="150"/>
       <c r="C79" s="31" t="s">
         <v>1890</v>
       </c>
@@ -14175,7 +14347,7 @@
       <c r="A81" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B81" s="156" t="s">
+      <c r="B81" s="157" t="s">
         <v>911</v>
       </c>
       <c r="C81" s="31" t="s">
@@ -14196,7 +14368,7 @@
       <c r="A82" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B82" s="157"/>
+      <c r="B82" s="158"/>
       <c r="C82" s="31" t="s">
         <v>1908</v>
       </c>
@@ -14226,7 +14398,7 @@
       <c r="A84" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B84" s="152" t="s">
+      <c r="B84" s="153" t="s">
         <v>1910</v>
       </c>
       <c r="C84" s="31" t="s">
@@ -14247,7 +14419,7 @@
       <c r="A85" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B85" s="153"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="31" t="s">
         <v>1914</v>
       </c>
@@ -14266,7 +14438,7 @@
       <c r="A86" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B86" s="153"/>
+      <c r="B86" s="154"/>
       <c r="C86" s="31" t="s">
         <v>2346</v>
       </c>
@@ -14285,7 +14457,7 @@
       <c r="A87" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B87" s="153"/>
+      <c r="B87" s="154"/>
       <c r="C87" s="31" t="s">
         <v>1911</v>
       </c>
@@ -14304,7 +14476,7 @@
       <c r="A88" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B88" s="153"/>
+      <c r="B88" s="154"/>
       <c r="C88" s="31" t="s">
         <v>1913</v>
       </c>
@@ -14323,7 +14495,7 @@
       <c r="A89" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B89" s="153"/>
+      <c r="B89" s="154"/>
       <c r="C89" s="31" t="s">
         <v>2213</v>
       </c>
@@ -14342,7 +14514,7 @@
       <c r="A90" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B90" s="153"/>
+      <c r="B90" s="154"/>
       <c r="C90" s="31" t="s">
         <v>2147</v>
       </c>
@@ -14361,7 +14533,7 @@
       <c r="A91" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B91" s="154"/>
+      <c r="B91" s="155"/>
       <c r="C91" s="31" t="s">
         <v>2215</v>
       </c>
@@ -14391,7 +14563,7 @@
       <c r="A93" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B93" s="156" t="s">
+      <c r="B93" s="157" t="s">
         <v>1919</v>
       </c>
       <c r="C93" s="31" t="s">
@@ -14412,7 +14584,7 @@
       <c r="A94" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B94" s="158"/>
+      <c r="B94" s="159"/>
       <c r="C94" s="31" t="s">
         <v>1920</v>
       </c>
@@ -14431,7 +14603,7 @@
       <c r="A95" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B95" s="158"/>
+      <c r="B95" s="159"/>
       <c r="C95" s="31" t="s">
         <v>1923</v>
       </c>
@@ -14450,7 +14622,7 @@
       <c r="A96" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B96" s="158"/>
+      <c r="B96" s="159"/>
       <c r="C96" s="31" t="s">
         <v>1925</v>
       </c>
@@ -14469,7 +14641,7 @@
       <c r="A97" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B97" s="158"/>
+      <c r="B97" s="159"/>
       <c r="C97" s="31" t="s">
         <v>1929</v>
       </c>
@@ -14488,7 +14660,7 @@
       <c r="A98" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B98" s="158"/>
+      <c r="B98" s="159"/>
       <c r="C98" s="31" t="s">
         <v>1927</v>
       </c>
@@ -14507,7 +14679,7 @@
       <c r="A99" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B99" s="158"/>
+      <c r="B99" s="159"/>
       <c r="C99" s="31" t="s">
         <v>2259</v>
       </c>
@@ -14526,7 +14698,7 @@
       <c r="A100" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B100" s="158"/>
+      <c r="B100" s="159"/>
       <c r="C100" s="31" t="s">
         <v>2260</v>
       </c>
@@ -14545,7 +14717,7 @@
       <c r="A101" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B101" s="157"/>
+      <c r="B101" s="158"/>
       <c r="C101" s="31" t="s">
         <v>2287</v>
       </c>
@@ -14575,7 +14747,7 @@
       <c r="A103" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B103" s="147" t="s">
+      <c r="B103" s="148" t="s">
         <v>964</v>
       </c>
       <c r="C103" s="31" t="s">
@@ -14596,7 +14768,7 @@
       <c r="A104" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B104" s="148"/>
+      <c r="B104" s="149"/>
       <c r="C104" s="31" t="s">
         <v>2333</v>
       </c>
@@ -14615,7 +14787,7 @@
       <c r="A105" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B105" s="149"/>
+      <c r="B105" s="150"/>
       <c r="C105" s="31" t="s">
         <v>2335</v>
       </c>
@@ -14677,7 +14849,7 @@
       <c r="A109" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B109" s="156" t="s">
+      <c r="B109" s="157" t="s">
         <v>945</v>
       </c>
       <c r="C109" s="31" t="s">
@@ -14698,7 +14870,7 @@
       <c r="A110" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B110" s="158"/>
+      <c r="B110" s="159"/>
       <c r="C110" s="31" t="s">
         <v>1937</v>
       </c>
@@ -14717,7 +14889,7 @@
       <c r="A111" s="30" t="s">
         <v>2301</v>
       </c>
-      <c r="B111" s="158"/>
+      <c r="B111" s="159"/>
       <c r="C111" s="31" t="s">
         <v>2289</v>
       </c>
@@ -14736,7 +14908,7 @@
       <c r="A112" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B112" s="157"/>
+      <c r="B112" s="158"/>
       <c r="C112" s="31" t="s">
         <v>1939</v>
       </c>
@@ -14766,7 +14938,7 @@
       <c r="A114" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B114" s="156" t="s">
+      <c r="B114" s="157" t="s">
         <v>951</v>
       </c>
       <c r="C114" s="31" t="s">
@@ -14787,7 +14959,7 @@
       <c r="A115" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B115" s="157"/>
+      <c r="B115" s="158"/>
       <c r="C115" s="31" t="s">
         <v>1944</v>
       </c>
@@ -14881,7 +15053,7 @@
       <c r="A121" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B121" s="152" t="s">
+      <c r="B121" s="153" t="s">
         <v>1950</v>
       </c>
       <c r="C121" s="31" t="s">
@@ -14902,7 +15074,7 @@
       <c r="A122" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B122" s="153"/>
+      <c r="B122" s="154"/>
       <c r="C122" s="31" t="s">
         <v>1954</v>
       </c>
@@ -14921,7 +15093,7 @@
       <c r="A123" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B123" s="153"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="31" t="s">
         <v>1956</v>
       </c>
@@ -14940,7 +15112,7 @@
       <c r="A124" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B124" s="153"/>
+      <c r="B124" s="154"/>
       <c r="C124" s="31" t="s">
         <v>1958</v>
       </c>
@@ -14959,7 +15131,7 @@
       <c r="A125" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B125" s="154"/>
+      <c r="B125" s="155"/>
       <c r="C125" s="31" t="s">
         <v>2268</v>
       </c>
@@ -14989,7 +15161,7 @@
       <c r="A127" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B127" s="156" t="s">
+      <c r="B127" s="157" t="s">
         <v>1960</v>
       </c>
       <c r="C127" s="31" t="s">
@@ -15010,7 +15182,7 @@
       <c r="A128" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B128" s="158"/>
+      <c r="B128" s="159"/>
       <c r="C128" s="31" t="s">
         <v>1964</v>
       </c>
@@ -15029,7 +15201,7 @@
       <c r="A129" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B129" s="157"/>
+      <c r="B129" s="158"/>
       <c r="C129" s="31" t="s">
         <v>1966</v>
       </c>
@@ -15091,7 +15263,7 @@
       <c r="A133" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B133" s="156" t="s">
+      <c r="B133" s="157" t="s">
         <v>1976</v>
       </c>
       <c r="C133" s="31" t="s">
@@ -15112,7 +15284,7 @@
       <c r="A134" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B134" s="157"/>
+      <c r="B134" s="158"/>
       <c r="C134" s="31" t="s">
         <v>1980</v>
       </c>
@@ -15142,7 +15314,7 @@
       <c r="A136" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B136" s="156" t="s">
+      <c r="B136" s="157" t="s">
         <v>1982</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -15163,7 +15335,7 @@
       <c r="A137" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B137" s="158"/>
+      <c r="B137" s="159"/>
       <c r="C137" s="31" t="s">
         <v>1986</v>
       </c>
@@ -15182,7 +15354,7 @@
       <c r="A138" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B138" s="158"/>
+      <c r="B138" s="159"/>
       <c r="C138" s="31" t="s">
         <v>1988</v>
       </c>
@@ -15201,7 +15373,7 @@
       <c r="A139" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B139" s="157"/>
+      <c r="B139" s="158"/>
       <c r="C139" s="31" t="s">
         <v>1990</v>
       </c>
@@ -15231,7 +15403,7 @@
       <c r="A141" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B141" s="152" t="s">
+      <c r="B141" s="153" t="s">
         <v>1994</v>
       </c>
       <c r="C141" s="31" t="s">
@@ -15252,7 +15424,7 @@
       <c r="A142" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B142" s="153"/>
+      <c r="B142" s="154"/>
       <c r="C142" s="31" t="s">
         <v>1998</v>
       </c>
@@ -15271,7 +15443,7 @@
       <c r="A143" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B143" s="154"/>
+      <c r="B143" s="155"/>
       <c r="C143" s="31" t="s">
         <v>2000</v>
       </c>
@@ -15333,7 +15505,7 @@
       <c r="A147" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B147" s="156" t="s">
+      <c r="B147" s="157" t="s">
         <v>2005</v>
       </c>
       <c r="C147" s="31" t="s">
@@ -15354,7 +15526,7 @@
       <c r="A148" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B148" s="158"/>
+      <c r="B148" s="159"/>
       <c r="C148" s="31" t="s">
         <v>2320</v>
       </c>
@@ -15373,7 +15545,7 @@
       <c r="A149" s="30" t="s">
         <v>1642</v>
       </c>
-      <c r="B149" s="157"/>
+      <c r="B149" s="158"/>
       <c r="C149" s="31" t="s">
         <v>2010</v>
       </c>
@@ -15534,22 +15706,22 @@
       <c r="G158" s="34"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="C160" s="150"/>
-      <c r="D160" s="150"/>
-      <c r="E160" s="150"/>
-      <c r="F160" s="150"/>
+      <c r="C160" s="151"/>
+      <c r="D160" s="151"/>
+      <c r="E160" s="151"/>
+      <c r="F160" s="151"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="C161" s="150"/>
-      <c r="D161" s="150"/>
-      <c r="E161" s="150"/>
-      <c r="F161" s="150"/>
+      <c r="C161" s="151"/>
+      <c r="D161" s="151"/>
+      <c r="E161" s="151"/>
+      <c r="F161" s="151"/>
     </row>
     <row r="162" spans="1:7">
-      <c r="C162" s="151"/>
-      <c r="D162" s="151"/>
-      <c r="E162" s="151"/>
-      <c r="F162" s="151"/>
+      <c r="C162" s="152"/>
+      <c r="D162" s="152"/>
+      <c r="E162" s="152"/>
+      <c r="F162" s="152"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="116" t="s">
@@ -15725,7 +15897,7 @@
       <c r="A173" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B173" s="155" t="s">
+      <c r="B173" s="156" t="s">
         <v>1972</v>
       </c>
       <c r="C173" s="113" t="s">
@@ -15744,7 +15916,7 @@
       <c r="A174" s="30" t="s">
         <v>1641</v>
       </c>
-      <c r="B174" s="155"/>
+      <c r="B174" s="156"/>
       <c r="C174" s="113" t="s">
         <v>1975</v>
       </c>
@@ -69562,19 +69734,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="161" t="s">
         <v>1061</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="H1" s="160" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="H1" s="161" t="s">
         <v>1100</v>
       </c>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -69759,11 +69931,11 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="159"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -69781,11 +69953,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E577" sqref="E577"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A567" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D584" sqref="D584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -69803,11 +69975,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="162" t="s">
         <v>2888</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="136" t="s">
@@ -69838,7 +70010,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69864,7 +70036,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69890,7 +70062,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69916,7 +70088,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69942,7 +70114,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69968,7 +70140,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="135" t="s">
         <v>2364</v>
       </c>
@@ -69994,7 +70166,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70020,7 +70192,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70046,7 +70218,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70072,7 +70244,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70098,7 +70270,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70124,7 +70296,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70150,7 +70322,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70176,7 +70348,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70202,7 +70374,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70228,7 +70400,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70254,7 +70426,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70280,7 +70452,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70306,7 +70478,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70332,7 +70504,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70358,7 +70530,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70384,7 +70556,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70410,7 +70582,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70436,7 +70608,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1">
+    <row r="26" spans="1:8">
       <c r="A26" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70462,7 +70634,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70488,7 +70660,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70514,7 +70686,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70540,7 +70712,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70566,7 +70738,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8">
       <c r="A31" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70592,7 +70764,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70618,7 +70790,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70644,7 +70816,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70670,7 +70842,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70696,7 +70868,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70722,7 +70894,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70748,7 +70920,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70774,7 +70946,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70800,7 +70972,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70826,7 +70998,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70852,7 +71024,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70878,7 +71050,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70904,7 +71076,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70930,7 +71102,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70956,7 +71128,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="135" t="s">
         <v>2364</v>
       </c>
@@ -70982,7 +71154,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1">
+    <row r="47" spans="1:8">
       <c r="A47" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71008,7 +71180,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1">
+    <row r="48" spans="1:8">
       <c r="A48" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71034,7 +71206,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8">
       <c r="A49" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71060,7 +71232,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8">
       <c r="A50" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71086,7 +71258,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8">
       <c r="A51" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71112,7 +71284,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8">
       <c r="A52" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71138,7 +71310,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8">
       <c r="A53" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71164,7 +71336,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8">
       <c r="A54" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71190,7 +71362,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8">
       <c r="A55" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71216,7 +71388,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8">
       <c r="A56" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71242,7 +71414,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8">
       <c r="A57" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71268,7 +71440,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71294,7 +71466,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8">
       <c r="A59" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71320,7 +71492,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8">
       <c r="A60" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71346,7 +71518,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1">
+    <row r="61" spans="1:8">
       <c r="A61" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71372,7 +71544,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8">
       <c r="A62" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71398,7 +71570,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8">
       <c r="A63" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71424,7 +71596,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71450,7 +71622,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1">
+    <row r="65" spans="1:8">
       <c r="A65" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71476,7 +71648,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71502,7 +71674,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71528,7 +71700,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71554,7 +71726,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1">
+    <row r="69" spans="1:8">
       <c r="A69" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71580,7 +71752,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1">
+    <row r="70" spans="1:8">
       <c r="A70" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71606,7 +71778,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1">
+    <row r="71" spans="1:8">
       <c r="A71" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71632,7 +71804,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1">
+    <row r="72" spans="1:8">
       <c r="A72" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71658,7 +71830,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1">
+    <row r="73" spans="1:8">
       <c r="A73" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71684,7 +71856,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1">
+    <row r="74" spans="1:8">
       <c r="A74" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71710,7 +71882,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1">
+    <row r="75" spans="1:8">
       <c r="A75" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71736,7 +71908,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71762,7 +71934,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71788,7 +71960,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1">
+    <row r="78" spans="1:8">
       <c r="A78" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71814,7 +71986,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1">
+    <row r="79" spans="1:8">
       <c r="A79" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71840,7 +72012,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1">
+    <row r="80" spans="1:8">
       <c r="A80" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71866,7 +72038,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71892,7 +72064,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71918,7 +72090,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1">
+    <row r="83" spans="1:8">
       <c r="A83" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71944,7 +72116,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1">
+    <row r="84" spans="1:8">
       <c r="A84" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71970,7 +72142,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1">
+    <row r="85" spans="1:8">
       <c r="A85" s="135" t="s">
         <v>2364</v>
       </c>
@@ -71996,7 +72168,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1">
+    <row r="86" spans="1:8">
       <c r="A86" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72022,7 +72194,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1">
+    <row r="87" spans="1:8">
       <c r="A87" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72048,7 +72220,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1">
+    <row r="88" spans="1:8">
       <c r="A88" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72074,7 +72246,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1">
+    <row r="89" spans="1:8">
       <c r="A89" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72100,7 +72272,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1">
+    <row r="90" spans="1:8">
       <c r="A90" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72126,7 +72298,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1">
+    <row r="91" spans="1:8">
       <c r="A91" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72152,7 +72324,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72178,7 +72350,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72204,7 +72376,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1">
+    <row r="94" spans="1:8">
       <c r="A94" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72230,7 +72402,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1">
+    <row r="95" spans="1:8">
       <c r="A95" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72256,7 +72428,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72282,7 +72454,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72308,7 +72480,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72334,7 +72506,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72360,7 +72532,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72386,7 +72558,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72412,7 +72584,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72438,7 +72610,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72464,7 +72636,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72490,7 +72662,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1">
+    <row r="105" spans="1:8">
       <c r="A105" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72516,7 +72688,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72542,7 +72714,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72568,7 +72740,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72594,7 +72766,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72620,7 +72792,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72646,7 +72818,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72672,7 +72844,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72698,7 +72870,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72724,7 +72896,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72750,7 +72922,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72776,7 +72948,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72802,7 +72974,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72828,7 +73000,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72854,7 +73026,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72880,7 +73052,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="135" t="s">
         <v>2364</v>
       </c>
@@ -72906,7 +73078,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72932,7 +73104,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72958,7 +73130,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="135" t="s">
         <v>2480</v>
       </c>
@@ -72984,7 +73156,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73010,7 +73182,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73036,7 +73208,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73062,7 +73234,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1">
+    <row r="127" spans="1:8">
       <c r="A127" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73088,7 +73260,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1">
+    <row r="128" spans="1:8">
       <c r="A128" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73114,7 +73286,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1">
+    <row r="129" spans="1:8">
       <c r="A129" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73140,7 +73312,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1">
+    <row r="130" spans="1:8">
       <c r="A130" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73166,7 +73338,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73192,7 +73364,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73218,7 +73390,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73244,7 +73416,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73270,7 +73442,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1">
+    <row r="135" spans="1:8">
       <c r="A135" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73296,7 +73468,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73322,7 +73494,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73348,7 +73520,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73374,7 +73546,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1">
+    <row r="139" spans="1:8">
       <c r="A139" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73400,7 +73572,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1">
+    <row r="140" spans="1:8">
       <c r="A140" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73426,7 +73598,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1">
+    <row r="141" spans="1:8">
       <c r="A141" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73452,7 +73624,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1">
+    <row r="142" spans="1:8">
       <c r="A142" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73478,7 +73650,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1">
+    <row r="143" spans="1:8">
       <c r="A143" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73504,7 +73676,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1">
+    <row r="144" spans="1:8">
       <c r="A144" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73530,7 +73702,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73556,7 +73728,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73582,7 +73754,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73608,7 +73780,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73634,7 +73806,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73660,7 +73832,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73686,7 +73858,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73715,7 +73887,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73744,7 +73916,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73773,7 +73945,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73802,7 +73974,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73831,7 +74003,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73860,7 +74032,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73889,7 +74061,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73918,7 +74090,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73947,7 +74119,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" s="135" t="s">
         <v>2480</v>
       </c>
@@ -73976,7 +74148,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74005,7 +74177,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74034,7 +74206,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74063,7 +74235,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74092,7 +74264,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74121,7 +74293,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74150,7 +74322,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74179,7 +74351,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9">
       <c r="A168" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74208,7 +74380,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9">
       <c r="A169" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74237,7 +74409,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74266,7 +74438,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9">
       <c r="A171" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74295,7 +74467,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9">
       <c r="A172" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74324,7 +74496,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9">
       <c r="A173" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74353,7 +74525,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9">
       <c r="A174" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74382,7 +74554,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9">
       <c r="A175" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74411,7 +74583,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9">
       <c r="A176" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74440,7 +74612,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9">
       <c r="A177" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74469,7 +74641,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74498,7 +74670,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74527,7 +74699,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74556,7 +74728,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74585,7 +74757,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74614,7 +74786,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74643,7 +74815,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74672,7 +74844,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9">
       <c r="A185" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74701,7 +74873,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74727,7 +74899,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9">
       <c r="A187" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74753,7 +74925,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74779,7 +74951,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74805,7 +74977,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9">
       <c r="A190" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74831,7 +75003,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74857,7 +75029,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74883,7 +75055,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1">
+    <row r="193" spans="1:8">
       <c r="A193" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74909,7 +75081,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1">
+    <row r="194" spans="1:8">
       <c r="A194" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74935,7 +75107,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1">
+    <row r="195" spans="1:8">
       <c r="A195" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74961,7 +75133,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1">
+    <row r="196" spans="1:8">
       <c r="A196" s="135" t="s">
         <v>2480</v>
       </c>
@@ -74987,7 +75159,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1">
+    <row r="197" spans="1:8">
       <c r="A197" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75013,7 +75185,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1">
+    <row r="198" spans="1:8">
       <c r="A198" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75039,7 +75211,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1">
+    <row r="199" spans="1:8">
       <c r="A199" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75065,7 +75237,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1">
+    <row r="200" spans="1:8">
       <c r="A200" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75091,7 +75263,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1">
+    <row r="201" spans="1:8">
       <c r="A201" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75117,7 +75289,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1">
+    <row r="202" spans="1:8">
       <c r="A202" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75143,7 +75315,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1">
+    <row r="203" spans="1:8">
       <c r="A203" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75169,7 +75341,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1">
+    <row r="204" spans="1:8">
       <c r="A204" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75195,7 +75367,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1">
+    <row r="205" spans="1:8">
       <c r="A205" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75221,7 +75393,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1">
+    <row r="206" spans="1:8">
       <c r="A206" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75247,7 +75419,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1">
+    <row r="207" spans="1:8">
       <c r="A207" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75273,7 +75445,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1">
+    <row r="208" spans="1:8">
       <c r="A208" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75299,7 +75471,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1">
+    <row r="209" spans="1:8">
       <c r="A209" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75325,7 +75497,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1">
+    <row r="210" spans="1:8">
       <c r="A210" s="135" t="s">
         <v>2480</v>
       </c>
@@ -75351,7 +75523,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1">
+    <row r="211" spans="1:8">
       <c r="A211" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75377,7 +75549,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1">
+    <row r="212" spans="1:8">
       <c r="A212" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75403,7 +75575,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1">
+    <row r="213" spans="1:8">
       <c r="A213" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75429,7 +75601,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1">
+    <row r="214" spans="1:8">
       <c r="A214" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75455,7 +75627,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1">
+    <row r="215" spans="1:8">
       <c r="A215" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75481,7 +75653,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1">
+    <row r="216" spans="1:8">
       <c r="A216" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75507,7 +75679,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1">
+    <row r="217" spans="1:8">
       <c r="A217" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75533,7 +75705,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1">
+    <row r="218" spans="1:8">
       <c r="A218" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75559,7 +75731,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1">
+    <row r="219" spans="1:8">
       <c r="A219" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75585,7 +75757,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1">
+    <row r="220" spans="1:8">
       <c r="A220" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75611,7 +75783,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1">
+    <row r="221" spans="1:8">
       <c r="A221" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75637,7 +75809,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1">
+    <row r="222" spans="1:8">
       <c r="A222" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75663,7 +75835,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1">
+    <row r="223" spans="1:8">
       <c r="A223" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75689,7 +75861,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1">
+    <row r="224" spans="1:8">
       <c r="A224" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75715,7 +75887,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75741,7 +75913,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75767,7 +75939,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="A227" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75793,7 +75965,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="A228" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75819,7 +75991,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="A229" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75845,7 +76017,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="A230" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75871,7 +76043,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75897,7 +76069,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="135" t="s">
         <v>2554</v>
       </c>
@@ -75923,7 +76095,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75952,7 +76124,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" s="135" t="s">
         <v>2605</v>
       </c>
@@ -75981,7 +76153,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" s="135" t="s">
         <v>2605</v>
       </c>
@@ -76010,7 +76182,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" s="135" t="s">
         <v>2605</v>
       </c>
@@ -76039,7 +76211,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="237" spans="1:9" s="143" customFormat="1">
       <c r="A237" s="143" t="s">
         <v>2617</v>
       </c>
@@ -76065,7 +76237,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="238" spans="1:9" s="143" customFormat="1">
       <c r="A238" s="143" t="s">
         <v>2617</v>
       </c>
@@ -76091,7 +76263,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="239" spans="1:9" s="143" customFormat="1">
       <c r="A239" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76117,7 +76289,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="240" spans="1:9" s="143" customFormat="1">
       <c r="A240" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76146,7 +76318,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="241" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="241" spans="1:9" s="143" customFormat="1">
       <c r="A241" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76172,7 +76344,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="242" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="242" spans="1:9" s="143" customFormat="1">
       <c r="A242" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76198,7 +76370,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="243" spans="1:9" s="143" customFormat="1">
       <c r="A243" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76227,7 +76399,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="244" spans="1:9" s="143" customFormat="1">
       <c r="A244" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76253,7 +76425,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="245" spans="1:9" s="143" customFormat="1">
       <c r="A245" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76282,7 +76454,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="246" spans="1:9" s="143" customFormat="1">
       <c r="A246" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76308,7 +76480,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="247" spans="1:9" s="143" customFormat="1">
       <c r="A247" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76334,7 +76506,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="248" spans="1:9" s="143" customFormat="1">
       <c r="A248" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76360,7 +76532,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="249" spans="1:9" s="143" customFormat="1">
       <c r="A249" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76386,7 +76558,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="250" spans="1:9" s="143" customFormat="1">
       <c r="A250" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76412,7 +76584,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="251" spans="1:9" s="143" customFormat="1">
       <c r="A251" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76438,7 +76610,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="252" spans="1:9" s="143" customFormat="1">
       <c r="A252" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76464,7 +76636,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="253" spans="1:9" s="143" customFormat="1">
       <c r="A253" s="143" t="s">
         <v>2626</v>
       </c>
@@ -76490,7 +76662,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="254" spans="1:9" s="143" customFormat="1">
       <c r="A254" s="143" t="s">
         <v>2645</v>
       </c>
@@ -76519,7 +76691,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="255" spans="1:9" s="143" customFormat="1">
       <c r="A255" s="143" t="s">
         <v>2645</v>
       </c>
@@ -76548,7 +76720,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="256" spans="1:9" s="143" customFormat="1">
       <c r="A256" s="143" t="s">
         <v>2645</v>
       </c>
@@ -76577,7 +76749,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="257" spans="1:9" s="143" customFormat="1">
       <c r="A257" s="143" t="s">
         <v>2645</v>
       </c>
@@ -76606,7 +76778,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="258" spans="1:9" s="143" customFormat="1">
       <c r="A258" s="143" t="s">
         <v>2645</v>
       </c>
@@ -76635,7 +76807,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="259" spans="1:9" s="143" customFormat="1">
       <c r="A259" s="143" t="s">
         <v>2645</v>
       </c>
@@ -76649,204 +76821,204 @@
       <c r="E259" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F259" s="162" t="s">
+      <c r="F259" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G259" s="162" t="s">
+      <c r="G259" s="147" t="s">
         <v>3194</v>
       </c>
-      <c r="H259" s="162" t="s">
+      <c r="H259" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I259" s="162" t="s">
+      <c r="I259" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1">
-      <c r="A260" s="162"/>
-      <c r="B260" s="162"/>
-      <c r="C260" s="162"/>
+    <row r="260" spans="1:9">
+      <c r="A260" s="147"/>
+      <c r="B260" s="147"/>
+      <c r="C260" s="147"/>
       <c r="D260" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E260" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F260" s="162" t="s">
+      <c r="F260" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G260" s="162" t="s">
+      <c r="G260" s="147" t="s">
         <v>3195</v>
       </c>
-      <c r="H260" s="162" t="s">
+      <c r="H260" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I260" s="162" t="s">
+      <c r="I260" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1">
-      <c r="A261" s="162"/>
-      <c r="B261" s="162"/>
-      <c r="C261" s="162"/>
+    <row r="261" spans="1:9">
+      <c r="A261" s="147"/>
+      <c r="B261" s="147"/>
+      <c r="C261" s="147"/>
       <c r="D261" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E261" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F261" s="162" t="s">
+      <c r="F261" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G261" s="162" t="s">
+      <c r="G261" s="147" t="s">
         <v>3201</v>
       </c>
-      <c r="H261" s="162" t="s">
+      <c r="H261" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I261" s="162" t="s">
+      <c r="I261" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1">
-      <c r="A262" s="162"/>
-      <c r="B262" s="162"/>
-      <c r="C262" s="162"/>
+    <row r="262" spans="1:9">
+      <c r="A262" s="147"/>
+      <c r="B262" s="147"/>
+      <c r="C262" s="147"/>
       <c r="D262" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E262" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F262" s="162" t="s">
+      <c r="F262" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G262" s="162" t="s">
+      <c r="G262" s="147" t="s">
         <v>3196</v>
       </c>
-      <c r="H262" s="162" t="s">
+      <c r="H262" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I262" s="162" t="s">
+      <c r="I262" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1">
-      <c r="A263" s="162"/>
-      <c r="B263" s="162"/>
-      <c r="C263" s="162"/>
+    <row r="263" spans="1:9">
+      <c r="A263" s="147"/>
+      <c r="B263" s="147"/>
+      <c r="C263" s="147"/>
       <c r="D263" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E263" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F263" s="162" t="s">
+      <c r="F263" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G263" s="162" t="s">
+      <c r="G263" s="147" t="s">
         <v>3197</v>
       </c>
-      <c r="H263" s="162" t="s">
+      <c r="H263" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I263" s="162" t="s">
+      <c r="I263" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1">
-      <c r="A264" s="162"/>
-      <c r="B264" s="162"/>
-      <c r="C264" s="162"/>
+    <row r="264" spans="1:9">
+      <c r="A264" s="147"/>
+      <c r="B264" s="147"/>
+      <c r="C264" s="147"/>
       <c r="D264" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E264" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F264" s="162" t="s">
+      <c r="F264" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G264" s="162" t="s">
+      <c r="G264" s="147" t="s">
         <v>3198</v>
       </c>
-      <c r="H264" s="162" t="s">
+      <c r="H264" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I264" s="162" t="s">
+      <c r="I264" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1">
-      <c r="A265" s="162"/>
-      <c r="B265" s="162"/>
-      <c r="C265" s="162"/>
+    <row r="265" spans="1:9">
+      <c r="A265" s="147"/>
+      <c r="B265" s="147"/>
+      <c r="C265" s="147"/>
       <c r="D265" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E265" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F265" s="162" t="s">
+      <c r="F265" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G265" s="162" t="s">
+      <c r="G265" s="147" t="s">
         <v>3199</v>
       </c>
-      <c r="H265" s="162" t="s">
+      <c r="H265" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I265" s="162" t="s">
+      <c r="I265" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1">
-      <c r="A266" s="162"/>
-      <c r="B266" s="162"/>
-      <c r="C266" s="162"/>
+    <row r="266" spans="1:9">
+      <c r="A266" s="147"/>
+      <c r="B266" s="147"/>
+      <c r="C266" s="147"/>
       <c r="D266" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E266" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F266" s="162" t="s">
+      <c r="F266" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G266" s="162" t="s">
+      <c r="G266" s="147" t="s">
         <v>3200</v>
       </c>
-      <c r="H266" s="162" t="s">
+      <c r="H266" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I266" s="162" t="s">
+      <c r="I266" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1">
-      <c r="A267" s="162"/>
-      <c r="B267" s="162"/>
-      <c r="C267" s="162"/>
+    <row r="267" spans="1:9">
+      <c r="A267" s="147"/>
+      <c r="B267" s="147"/>
+      <c r="C267" s="147"/>
       <c r="D267" s="146" t="s">
         <v>3190</v>
       </c>
       <c r="E267" s="146" t="s">
         <v>3191</v>
       </c>
-      <c r="F267" s="162" t="s">
+      <c r="F267" s="147" t="s">
         <v>3193</v>
       </c>
-      <c r="G267" s="162" t="s">
+      <c r="G267" s="147" t="s">
         <v>2649</v>
       </c>
-      <c r="H267" s="162" t="s">
+      <c r="H267" s="147" t="s">
         <v>2648</v>
       </c>
-      <c r="I267" s="162" t="s">
+      <c r="I267" s="147" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="268" spans="1:9" s="143" customFormat="1">
       <c r="A268" s="143" t="s">
         <v>2873</v>
       </c>
@@ -76875,7 +77047,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="269" spans="1:9" s="143" customFormat="1">
       <c r="A269" s="143" t="s">
         <v>2873</v>
       </c>
@@ -76904,7 +77076,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="270" spans="1:9" s="143" customFormat="1">
       <c r="A270" s="143" t="s">
         <v>2873</v>
       </c>
@@ -76933,7 +77105,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="271" spans="1:9" s="143" customFormat="1">
       <c r="A271" s="143" t="s">
         <v>2873</v>
       </c>
@@ -76962,7 +77134,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="272" spans="1:9" s="143" customFormat="1">
       <c r="A272" s="143" t="s">
         <v>2873</v>
       </c>
@@ -76991,7 +77163,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="143" customFormat="1" hidden="1">
+    <row r="273" spans="1:9" s="143" customFormat="1">
       <c r="A273" s="143" t="s">
         <v>2873</v>
       </c>
@@ -77020,7 +77192,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1">
+    <row r="274" spans="1:9">
       <c r="A274" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77049,7 +77221,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1">
+    <row r="275" spans="1:9">
       <c r="A275" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77078,7 +77250,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1">
+    <row r="276" spans="1:9">
       <c r="A276" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77107,7 +77279,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1">
+    <row r="277" spans="1:9">
       <c r="A277" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77136,7 +77308,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1">
+    <row r="278" spans="1:9">
       <c r="A278" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77165,7 +77337,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1">
+    <row r="279" spans="1:9">
       <c r="A279" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77194,7 +77366,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1">
+    <row r="280" spans="1:9">
       <c r="A280" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77223,7 +77395,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77252,7 +77424,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1">
+    <row r="282" spans="1:9">
       <c r="A282" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77281,7 +77453,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9">
       <c r="A283" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77310,7 +77482,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1">
+    <row r="284" spans="1:9">
       <c r="A284" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77339,7 +77511,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9">
       <c r="A285" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77368,7 +77540,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1">
+    <row r="286" spans="1:9">
       <c r="A286" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77397,7 +77569,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1">
+    <row r="287" spans="1:9">
       <c r="A287" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77426,7 +77598,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1">
+    <row r="288" spans="1:9">
       <c r="A288" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77455,7 +77627,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1">
+    <row r="289" spans="1:9">
       <c r="A289" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77484,7 +77656,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1">
+    <row r="290" spans="1:9">
       <c r="A290" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77513,7 +77685,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1">
+    <row r="291" spans="1:9">
       <c r="A291" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77542,7 +77714,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1">
+    <row r="292" spans="1:9">
       <c r="A292" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77571,7 +77743,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1">
+    <row r="293" spans="1:9">
       <c r="A293" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77600,7 +77772,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9">
       <c r="A294" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77629,7 +77801,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1">
+    <row r="295" spans="1:9">
       <c r="A295" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77658,7 +77830,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1">
+    <row r="296" spans="1:9">
       <c r="A296" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77687,7 +77859,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1">
+    <row r="297" spans="1:9">
       <c r="A297" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77716,7 +77888,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1">
+    <row r="298" spans="1:9">
       <c r="A298" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77745,7 +77917,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1">
+    <row r="299" spans="1:9">
       <c r="A299" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77774,7 +77946,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1">
+    <row r="300" spans="1:9">
       <c r="A300" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77803,7 +77975,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1">
+    <row r="301" spans="1:9">
       <c r="A301" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77832,7 +78004,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1">
+    <row r="302" spans="1:9">
       <c r="A302" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77861,7 +78033,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1">
+    <row r="303" spans="1:9">
       <c r="A303" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77890,7 +78062,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1">
+    <row r="304" spans="1:9">
       <c r="A304" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77919,7 +78091,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1">
+    <row r="305" spans="1:9">
       <c r="A305" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77948,7 +78120,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:9">
       <c r="A306" s="135" t="s">
         <v>2651</v>
       </c>
@@ -77977,7 +78149,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1">
+    <row r="307" spans="1:9">
       <c r="A307" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78006,7 +78178,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1">
+    <row r="308" spans="1:9">
       <c r="A308" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78035,7 +78207,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1">
+    <row r="309" spans="1:9">
       <c r="A309" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78064,7 +78236,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1">
+    <row r="310" spans="1:9">
       <c r="A310" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78093,7 +78265,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1">
+    <row r="311" spans="1:9">
       <c r="A311" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78122,7 +78294,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1">
+    <row r="312" spans="1:9">
       <c r="A312" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78151,7 +78323,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1">
+    <row r="313" spans="1:9">
       <c r="A313" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78180,7 +78352,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1">
+    <row r="314" spans="1:9">
       <c r="A314" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78209,7 +78381,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1">
+    <row r="315" spans="1:9">
       <c r="A315" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78238,7 +78410,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1">
+    <row r="316" spans="1:9">
       <c r="A316" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78267,7 +78439,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1">
+    <row r="317" spans="1:9">
       <c r="A317" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78296,7 +78468,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1">
+    <row r="318" spans="1:9">
       <c r="A318" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78325,7 +78497,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1">
+    <row r="319" spans="1:9">
       <c r="A319" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78354,7 +78526,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1">
+    <row r="320" spans="1:9">
       <c r="A320" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78383,7 +78555,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1">
+    <row r="321" spans="1:9">
       <c r="A321" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78412,7 +78584,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1">
+    <row r="322" spans="1:9">
       <c r="A322" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78441,7 +78613,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1">
+    <row r="323" spans="1:9">
       <c r="A323" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78470,7 +78642,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1">
+    <row r="324" spans="1:9">
       <c r="A324" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78499,7 +78671,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1">
+    <row r="325" spans="1:9">
       <c r="A325" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78528,7 +78700,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1">
+    <row r="326" spans="1:9">
       <c r="A326" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78557,7 +78729,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:9">
       <c r="A327" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78586,7 +78758,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1">
+    <row r="328" spans="1:9">
       <c r="A328" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78615,7 +78787,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1">
+    <row r="329" spans="1:9">
       <c r="A329" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78644,7 +78816,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1">
+    <row r="330" spans="1:9">
       <c r="A330" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78673,7 +78845,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1">
+    <row r="331" spans="1:9">
       <c r="A331" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78702,7 +78874,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1">
+    <row r="332" spans="1:9">
       <c r="A332" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78731,7 +78903,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1">
+    <row r="333" spans="1:9">
       <c r="A333" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78760,7 +78932,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1">
+    <row r="334" spans="1:9">
       <c r="A334" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78789,7 +78961,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1">
+    <row r="335" spans="1:9">
       <c r="A335" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78818,7 +78990,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1">
+    <row r="336" spans="1:9">
       <c r="A336" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78847,7 +79019,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1">
+    <row r="337" spans="1:9">
       <c r="A337" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78876,7 +79048,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1">
+    <row r="338" spans="1:9">
       <c r="A338" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78905,7 +79077,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1">
+    <row r="339" spans="1:9">
       <c r="A339" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78934,7 +79106,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1">
+    <row r="340" spans="1:9">
       <c r="A340" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78963,7 +79135,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1">
+    <row r="341" spans="1:9">
       <c r="A341" s="135" t="s">
         <v>2651</v>
       </c>
@@ -78992,7 +79164,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1">
+    <row r="342" spans="1:9">
       <c r="A342" s="135" t="s">
         <v>2651</v>
       </c>
@@ -79021,7 +79193,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1">
+    <row r="343" spans="1:9">
       <c r="A343" s="135" t="s">
         <v>2651</v>
       </c>
@@ -79050,7 +79222,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1">
+    <row r="344" spans="1:9">
       <c r="A344" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79079,7 +79251,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1">
+    <row r="345" spans="1:9">
       <c r="A345" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79108,7 +79280,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1">
+    <row r="346" spans="1:9">
       <c r="A346" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79137,7 +79309,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1">
+    <row r="347" spans="1:9">
       <c r="A347" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79166,7 +79338,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1">
+    <row r="348" spans="1:9">
       <c r="A348" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79195,7 +79367,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1">
+    <row r="349" spans="1:9">
       <c r="A349" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79224,7 +79396,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1">
+    <row r="350" spans="1:9">
       <c r="A350" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79253,7 +79425,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1">
+    <row r="351" spans="1:9">
       <c r="A351" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79282,7 +79454,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1">
+    <row r="352" spans="1:9">
       <c r="A352" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79311,7 +79483,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1">
+    <row r="353" spans="1:9">
       <c r="A353" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79340,7 +79512,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1">
+    <row r="354" spans="1:9">
       <c r="A354" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79369,7 +79541,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1">
+    <row r="355" spans="1:9">
       <c r="A355" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79398,7 +79570,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1">
+    <row r="356" spans="1:9">
       <c r="A356" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79427,7 +79599,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1">
+    <row r="357" spans="1:9">
       <c r="A357" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79456,7 +79628,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1">
+    <row r="358" spans="1:9">
       <c r="A358" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79485,7 +79657,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1">
+    <row r="359" spans="1:9">
       <c r="A359" s="135" t="s">
         <v>2720</v>
       </c>
@@ -79566,7 +79738,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1">
+    <row r="362" spans="1:9">
       <c r="A362" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79592,7 +79764,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1">
+    <row r="363" spans="1:9">
       <c r="A363" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79618,7 +79790,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1">
+    <row r="364" spans="1:9">
       <c r="A364" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79644,7 +79816,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1">
+    <row r="365" spans="1:9">
       <c r="A365" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79670,7 +79842,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1">
+    <row r="366" spans="1:9">
       <c r="A366" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79696,7 +79868,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1">
+    <row r="367" spans="1:9">
       <c r="A367" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79722,7 +79894,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1">
+    <row r="368" spans="1:9">
       <c r="A368" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79748,7 +79920,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1">
+    <row r="369" spans="1:9">
       <c r="A369" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79774,7 +79946,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1">
+    <row r="370" spans="1:9">
       <c r="A370" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79800,7 +79972,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1">
+    <row r="371" spans="1:9">
       <c r="A371" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79826,7 +79998,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1">
+    <row r="372" spans="1:9">
       <c r="A372" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79852,7 +80024,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1">
+    <row r="373" spans="1:9">
       <c r="A373" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79878,7 +80050,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1">
+    <row r="374" spans="1:9">
       <c r="A374" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79904,7 +80076,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1">
+    <row r="375" spans="1:9">
       <c r="A375" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79930,7 +80102,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1">
+    <row r="376" spans="1:9">
       <c r="A376" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79956,7 +80128,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1">
+    <row r="377" spans="1:9">
       <c r="A377" s="135" t="s">
         <v>2728</v>
       </c>
@@ -79982,7 +80154,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1">
+    <row r="378" spans="1:9">
       <c r="A378" s="135" t="s">
         <v>2728</v>
       </c>
@@ -80008,7 +80180,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1">
+    <row r="379" spans="1:9">
       <c r="A379" s="135" t="s">
         <v>2728</v>
       </c>
@@ -80034,1341 +80206,1341 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1">
-      <c r="A380" s="135" t="s">
+    <row r="380" spans="1:9">
+      <c r="A380" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B380" s="135" t="s">
+      <c r="B380" s="163" t="s">
         <v>2754</v>
       </c>
-      <c r="C380" s="135" t="s">
+      <c r="C380" s="163" t="s">
         <v>2755</v>
       </c>
-      <c r="D380" s="135" t="s">
+      <c r="D380" s="163" t="s">
         <v>2756</v>
       </c>
-      <c r="E380" s="135" t="s">
+      <c r="E380" s="163" t="s">
         <v>2757</v>
       </c>
-      <c r="F380" s="135" t="s">
+      <c r="F380" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G380" s="135" t="s">
+      <c r="G380" s="163" t="s">
         <v>2758</v>
       </c>
-      <c r="H380" s="135" t="s">
+      <c r="H380" s="163" t="s">
         <v>2403</v>
       </c>
-      <c r="I380" s="135" t="s">
+      <c r="I380" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1">
-      <c r="A381" s="135" t="s">
+    <row r="381" spans="1:9">
+      <c r="A381" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B381" s="135" t="s">
+      <c r="B381" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C381" s="135" t="s">
+      <c r="C381" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D381" s="135" t="s">
+      <c r="D381" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E381" s="135" t="s">
+      <c r="E381" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F381" s="135" t="s">
+      <c r="F381" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G381" s="135" t="s">
+      <c r="G381" s="163" t="s">
         <v>2500</v>
       </c>
-      <c r="H381" s="135" t="s">
+      <c r="H381" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I381" s="135" t="s">
+      <c r="I381" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1">
-      <c r="A382" s="135" t="s">
+    <row r="382" spans="1:9">
+      <c r="A382" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B382" s="135" t="s">
+      <c r="B382" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C382" s="135" t="s">
+      <c r="C382" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D382" s="135" t="s">
+      <c r="D382" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E382" s="135" t="s">
+      <c r="E382" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F382" s="135" t="s">
+      <c r="F382" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G382" s="135" t="s">
+      <c r="G382" s="163" t="s">
         <v>2763</v>
       </c>
-      <c r="H382" s="135" t="s">
+      <c r="H382" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I382" s="135" t="s">
+      <c r="I382" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1">
-      <c r="A383" s="135" t="s">
+    <row r="383" spans="1:9">
+      <c r="A383" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B383" s="135" t="s">
+      <c r="B383" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C383" s="135" t="s">
+      <c r="C383" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D383" s="135" t="s">
+      <c r="D383" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E383" s="135" t="s">
+      <c r="E383" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F383" s="135" t="s">
+      <c r="F383" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G383" s="135" t="s">
+      <c r="G383" s="163" t="s">
         <v>2764</v>
       </c>
-      <c r="H383" s="135" t="s">
+      <c r="H383" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I383" s="135" t="s">
+      <c r="I383" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1">
-      <c r="A384" s="135" t="s">
+    <row r="384" spans="1:9">
+      <c r="A384" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B384" s="135" t="s">
+      <c r="B384" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C384" s="135" t="s">
+      <c r="C384" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D384" s="135" t="s">
+      <c r="D384" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E384" s="135" t="s">
+      <c r="E384" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F384" s="135" t="s">
+      <c r="F384" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G384" s="135" t="s">
+      <c r="G384" s="163" t="s">
         <v>2765</v>
       </c>
-      <c r="H384" s="135" t="s">
+      <c r="H384" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I384" s="135" t="s">
+      <c r="I384" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1">
-      <c r="A385" s="135" t="s">
+    <row r="385" spans="1:9">
+      <c r="A385" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B385" s="135" t="s">
+      <c r="B385" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C385" s="135" t="s">
+      <c r="C385" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D385" s="135" t="s">
+      <c r="D385" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E385" s="135" t="s">
+      <c r="E385" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F385" s="135" t="s">
+      <c r="F385" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G385" s="135" t="s">
+      <c r="G385" s="163" t="s">
         <v>2766</v>
       </c>
-      <c r="H385" s="135" t="s">
+      <c r="H385" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I385" s="135" t="s">
+      <c r="I385" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1">
-      <c r="A386" s="135" t="s">
+    <row r="386" spans="1:9">
+      <c r="A386" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B386" s="135" t="s">
+      <c r="B386" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C386" s="135" t="s">
+      <c r="C386" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D386" s="135" t="s">
+      <c r="D386" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E386" s="135" t="s">
+      <c r="E386" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F386" s="135" t="s">
+      <c r="F386" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G386" s="135" t="s">
+      <c r="G386" s="163" t="s">
         <v>2767</v>
       </c>
-      <c r="H386" s="135" t="s">
+      <c r="H386" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I386" s="135" t="s">
+      <c r="I386" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1">
-      <c r="A387" s="135" t="s">
+    <row r="387" spans="1:9">
+      <c r="A387" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B387" s="135" t="s">
+      <c r="B387" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C387" s="135" t="s">
+      <c r="C387" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D387" s="135" t="s">
+      <c r="D387" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E387" s="135" t="s">
+      <c r="E387" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F387" s="135" t="s">
+      <c r="F387" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G387" s="135" t="s">
+      <c r="G387" s="163" t="s">
         <v>2768</v>
       </c>
-      <c r="H387" s="135" t="s">
+      <c r="H387" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I387" s="135" t="s">
+      <c r="I387" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1">
-      <c r="A388" s="135" t="s">
+    <row r="388" spans="1:9">
+      <c r="A388" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B388" s="135" t="s">
+      <c r="B388" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C388" s="135" t="s">
+      <c r="C388" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D388" s="135" t="s">
+      <c r="D388" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E388" s="135" t="s">
+      <c r="E388" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F388" s="135" t="s">
+      <c r="F388" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G388" s="135" t="s">
+      <c r="G388" s="163" t="s">
         <v>2769</v>
       </c>
-      <c r="H388" s="135" t="s">
+      <c r="H388" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I388" s="135" t="s">
+      <c r="I388" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1">
-      <c r="A389" s="135" t="s">
+    <row r="389" spans="1:9">
+      <c r="A389" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B389" s="135" t="s">
+      <c r="B389" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C389" s="135" t="s">
+      <c r="C389" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D389" s="135" t="s">
+      <c r="D389" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E389" s="135" t="s">
+      <c r="E389" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F389" s="135" t="s">
+      <c r="F389" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G389" s="135" t="s">
+      <c r="G389" s="163" t="s">
         <v>2770</v>
       </c>
-      <c r="H389" s="135" t="s">
+      <c r="H389" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I389" s="135" t="s">
+      <c r="I389" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1">
-      <c r="A390" s="135" t="s">
+    <row r="390" spans="1:9">
+      <c r="A390" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B390" s="135" t="s">
+      <c r="B390" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C390" s="135" t="s">
+      <c r="C390" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D390" s="135" t="s">
+      <c r="D390" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E390" s="135" t="s">
+      <c r="E390" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F390" s="135" t="s">
+      <c r="F390" s="163" t="s">
         <v>2609</v>
       </c>
-      <c r="G390" s="135" t="s">
+      <c r="G390" s="163" t="s">
         <v>2771</v>
       </c>
-      <c r="H390" s="135" t="s">
+      <c r="H390" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I390" s="135" t="s">
+      <c r="I390" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1">
-      <c r="A391" s="135" t="s">
+    <row r="391" spans="1:9">
+      <c r="A391" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B391" s="135" t="s">
+      <c r="B391" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C391" s="135" t="s">
+      <c r="C391" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D391" s="135" t="s">
+      <c r="D391" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E391" s="135" t="s">
+      <c r="E391" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F391" s="135" t="s">
+      <c r="F391" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G391" s="135" t="s">
+      <c r="G391" s="163" t="s">
         <v>2772</v>
       </c>
-      <c r="H391" s="135" t="s">
+      <c r="H391" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I391" s="135" t="s">
+      <c r="I391" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1">
-      <c r="A392" s="135" t="s">
+    <row r="392" spans="1:9">
+      <c r="A392" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B392" s="135" t="s">
+      <c r="B392" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C392" s="135" t="s">
+      <c r="C392" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D392" s="135" t="s">
+      <c r="D392" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E392" s="135" t="s">
+      <c r="E392" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F392" s="135" t="s">
+      <c r="F392" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G392" s="135" t="s">
+      <c r="G392" s="163" t="s">
         <v>2773</v>
       </c>
-      <c r="H392" s="135" t="s">
+      <c r="H392" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I392" s="135" t="s">
+      <c r="I392" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1">
-      <c r="A393" s="135" t="s">
+    <row r="393" spans="1:9">
+      <c r="A393" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B393" s="135" t="s">
+      <c r="B393" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C393" s="135" t="s">
+      <c r="C393" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D393" s="135" t="s">
+      <c r="D393" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E393" s="135" t="s">
+      <c r="E393" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F393" s="135" t="s">
+      <c r="F393" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G393" s="135" t="s">
+      <c r="G393" s="163" t="s">
         <v>2774</v>
       </c>
-      <c r="H393" s="135" t="s">
+      <c r="H393" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I393" s="135" t="s">
+      <c r="I393" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1">
-      <c r="A394" s="135" t="s">
+    <row r="394" spans="1:9">
+      <c r="A394" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B394" s="135" t="s">
+      <c r="B394" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C394" s="135" t="s">
+      <c r="C394" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D394" s="135" t="s">
+      <c r="D394" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E394" s="135" t="s">
+      <c r="E394" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F394" s="135" t="s">
+      <c r="F394" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G394" s="135" t="s">
+      <c r="G394" s="163" t="s">
         <v>2775</v>
       </c>
-      <c r="H394" s="135" t="s">
+      <c r="H394" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I394" s="135" t="s">
+      <c r="I394" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1">
-      <c r="A395" s="135" t="s">
+    <row r="395" spans="1:9">
+      <c r="A395" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B395" s="135" t="s">
+      <c r="B395" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C395" s="135" t="s">
+      <c r="C395" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D395" s="135" t="s">
+      <c r="D395" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E395" s="135" t="s">
+      <c r="E395" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F395" s="135" t="s">
+      <c r="F395" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G395" s="135" t="s">
+      <c r="G395" s="163" t="s">
         <v>2776</v>
       </c>
-      <c r="H395" s="135" t="s">
+      <c r="H395" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I395" s="135" t="s">
+      <c r="I395" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1">
-      <c r="A396" s="135" t="s">
+    <row r="396" spans="1:9">
+      <c r="A396" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B396" s="135" t="s">
+      <c r="B396" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C396" s="135" t="s">
+      <c r="C396" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D396" s="135" t="s">
+      <c r="D396" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E396" s="135" t="s">
+      <c r="E396" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F396" s="135" t="s">
+      <c r="F396" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G396" s="135" t="s">
+      <c r="G396" s="163" t="s">
         <v>2777</v>
       </c>
-      <c r="H396" s="135" t="s">
+      <c r="H396" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I396" s="135" t="s">
+      <c r="I396" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1">
-      <c r="A397" s="135" t="s">
+    <row r="397" spans="1:9">
+      <c r="A397" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B397" s="135" t="s">
+      <c r="B397" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C397" s="135" t="s">
+      <c r="C397" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D397" s="135" t="s">
+      <c r="D397" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E397" s="135" t="s">
+      <c r="E397" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F397" s="135" t="s">
+      <c r="F397" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G397" s="135" t="s">
+      <c r="G397" s="163" t="s">
         <v>2778</v>
       </c>
-      <c r="H397" s="135" t="s">
+      <c r="H397" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I397" s="135" t="s">
+      <c r="I397" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1">
-      <c r="A398" s="135" t="s">
+    <row r="398" spans="1:9">
+      <c r="A398" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B398" s="135" t="s">
+      <c r="B398" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C398" s="135" t="s">
+      <c r="C398" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D398" s="135" t="s">
+      <c r="D398" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E398" s="135" t="s">
+      <c r="E398" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F398" s="135" t="s">
+      <c r="F398" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G398" s="135" t="s">
+      <c r="G398" s="163" t="s">
         <v>2779</v>
       </c>
-      <c r="H398" s="135" t="s">
+      <c r="H398" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I398" s="135" t="s">
+      <c r="I398" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1">
-      <c r="A399" s="135" t="s">
+    <row r="399" spans="1:9">
+      <c r="A399" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B399" s="135" t="s">
+      <c r="B399" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C399" s="135" t="s">
+      <c r="C399" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D399" s="135" t="s">
+      <c r="D399" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E399" s="135" t="s">
+      <c r="E399" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F399" s="135" t="s">
+      <c r="F399" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G399" s="135" t="s">
+      <c r="G399" s="163" t="s">
         <v>2780</v>
       </c>
-      <c r="H399" s="135" t="s">
+      <c r="H399" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I399" s="135" t="s">
+      <c r="I399" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1">
-      <c r="A400" s="135" t="s">
+    <row r="400" spans="1:9">
+      <c r="A400" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B400" s="135" t="s">
+      <c r="B400" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C400" s="135" t="s">
+      <c r="C400" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D400" s="135" t="s">
+      <c r="D400" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E400" s="135" t="s">
+      <c r="E400" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F400" s="135" t="s">
+      <c r="F400" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G400" s="135" t="s">
+      <c r="G400" s="163" t="s">
         <v>2781</v>
       </c>
-      <c r="H400" s="135" t="s">
+      <c r="H400" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I400" s="135" t="s">
+      <c r="I400" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1">
-      <c r="A401" s="135" t="s">
+    <row r="401" spans="1:9">
+      <c r="A401" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B401" s="135" t="s">
+      <c r="B401" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C401" s="135" t="s">
+      <c r="C401" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D401" s="135" t="s">
+      <c r="D401" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E401" s="135" t="s">
+      <c r="E401" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F401" s="135" t="s">
+      <c r="F401" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G401" s="135" t="s">
+      <c r="G401" s="163" t="s">
         <v>2782</v>
       </c>
-      <c r="H401" s="135" t="s">
+      <c r="H401" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I401" s="135" t="s">
+      <c r="I401" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1">
-      <c r="A402" s="135" t="s">
+    <row r="402" spans="1:9">
+      <c r="A402" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B402" s="135" t="s">
+      <c r="B402" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C402" s="135" t="s">
+      <c r="C402" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D402" s="135" t="s">
+      <c r="D402" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E402" s="135" t="s">
+      <c r="E402" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F402" s="135" t="s">
+      <c r="F402" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G402" s="135" t="s">
+      <c r="G402" s="163" t="s">
         <v>2783</v>
       </c>
-      <c r="H402" s="135" t="s">
+      <c r="H402" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I402" s="135" t="s">
+      <c r="I402" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1">
-      <c r="A403" s="135" t="s">
+    <row r="403" spans="1:9">
+      <c r="A403" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B403" s="135" t="s">
+      <c r="B403" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C403" s="135" t="s">
+      <c r="C403" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D403" s="135" t="s">
+      <c r="D403" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E403" s="135" t="s">
+      <c r="E403" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F403" s="135" t="s">
+      <c r="F403" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G403" s="135" t="s">
+      <c r="G403" s="163" t="s">
         <v>2784</v>
       </c>
-      <c r="H403" s="135" t="s">
+      <c r="H403" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I403" s="135" t="s">
+      <c r="I403" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1">
-      <c r="A404" s="135" t="s">
+    <row r="404" spans="1:9">
+      <c r="A404" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B404" s="135" t="s">
+      <c r="B404" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C404" s="135" t="s">
+      <c r="C404" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D404" s="135" t="s">
+      <c r="D404" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E404" s="135" t="s">
+      <c r="E404" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F404" s="135" t="s">
+      <c r="F404" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G404" s="135" t="s">
+      <c r="G404" s="163" t="s">
         <v>2785</v>
       </c>
-      <c r="H404" s="135" t="s">
+      <c r="H404" s="163" t="s">
         <v>2403</v>
       </c>
-      <c r="I404" s="135" t="s">
+      <c r="I404" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1">
-      <c r="A405" s="135" t="s">
+    <row r="405" spans="1:9">
+      <c r="A405" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B405" s="135" t="s">
+      <c r="B405" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C405" s="135" t="s">
+      <c r="C405" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D405" s="135" t="s">
+      <c r="D405" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E405" s="135" t="s">
+      <c r="E405" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F405" s="135" t="s">
+      <c r="F405" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G405" s="135" t="s">
+      <c r="G405" s="163" t="s">
         <v>2786</v>
       </c>
-      <c r="H405" s="135" t="s">
+      <c r="H405" s="163" t="s">
         <v>2403</v>
       </c>
-      <c r="I405" s="135" t="s">
+      <c r="I405" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1">
-      <c r="A406" s="135" t="s">
+    <row r="406" spans="1:9">
+      <c r="A406" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B406" s="135" t="s">
+      <c r="B406" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C406" s="135" t="s">
+      <c r="C406" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D406" s="135" t="s">
+      <c r="D406" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E406" s="135" t="s">
+      <c r="E406" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F406" s="135" t="s">
+      <c r="F406" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G406" s="135" t="s">
+      <c r="G406" s="163" t="s">
         <v>2787</v>
       </c>
-      <c r="H406" s="135" t="s">
+      <c r="H406" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I406" s="135" t="s">
+      <c r="I406" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1">
-      <c r="A407" s="135" t="s">
+    <row r="407" spans="1:9">
+      <c r="A407" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B407" s="135" t="s">
+      <c r="B407" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C407" s="135" t="s">
+      <c r="C407" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D407" s="135" t="s">
+      <c r="D407" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E407" s="135" t="s">
+      <c r="E407" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F407" s="135" t="s">
+      <c r="F407" s="163" t="s">
         <v>2612</v>
       </c>
-      <c r="G407" s="135" t="s">
+      <c r="G407" s="163" t="s">
         <v>2788</v>
       </c>
-      <c r="H407" s="135" t="s">
+      <c r="H407" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I407" s="135" t="s">
+      <c r="I407" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1">
-      <c r="A408" s="135" t="s">
+    <row r="408" spans="1:9">
+      <c r="A408" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B408" s="135" t="s">
+      <c r="B408" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C408" s="135" t="s">
+      <c r="C408" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D408" s="135" t="s">
+      <c r="D408" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E408" s="135" t="s">
+      <c r="E408" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F408" s="135" t="s">
+      <c r="F408" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G408" s="135" t="s">
+      <c r="G408" s="163" t="s">
         <v>2789</v>
       </c>
-      <c r="H408" s="135" t="s">
+      <c r="H408" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I408" s="135" t="s">
+      <c r="I408" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1">
-      <c r="A409" s="135" t="s">
+    <row r="409" spans="1:9">
+      <c r="A409" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B409" s="135" t="s">
+      <c r="B409" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C409" s="135" t="s">
+      <c r="C409" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D409" s="135" t="s">
+      <c r="D409" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E409" s="135" t="s">
+      <c r="E409" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F409" s="135" t="s">
+      <c r="F409" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G409" s="135" t="s">
+      <c r="G409" s="163" t="s">
         <v>2790</v>
       </c>
-      <c r="H409" s="135" t="s">
+      <c r="H409" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I409" s="135" t="s">
+      <c r="I409" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1">
-      <c r="A410" s="135" t="s">
+    <row r="410" spans="1:9">
+      <c r="A410" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B410" s="135" t="s">
+      <c r="B410" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C410" s="135" t="s">
+      <c r="C410" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D410" s="135" t="s">
+      <c r="D410" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E410" s="135" t="s">
+      <c r="E410" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F410" s="135" t="s">
+      <c r="F410" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G410" s="135" t="s">
+      <c r="G410" s="163" t="s">
         <v>2791</v>
       </c>
-      <c r="H410" s="135" t="s">
+      <c r="H410" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I410" s="135" t="s">
+      <c r="I410" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1">
-      <c r="A411" s="135" t="s">
+    <row r="411" spans="1:9">
+      <c r="A411" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B411" s="135" t="s">
+      <c r="B411" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C411" s="135" t="s">
+      <c r="C411" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D411" s="135" t="s">
+      <c r="D411" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E411" s="135" t="s">
+      <c r="E411" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F411" s="135" t="s">
+      <c r="F411" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G411" s="135" t="s">
+      <c r="G411" s="163" t="s">
         <v>2792</v>
       </c>
-      <c r="H411" s="135" t="s">
+      <c r="H411" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I411" s="135" t="s">
+      <c r="I411" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1">
-      <c r="A412" s="135" t="s">
+    <row r="412" spans="1:9">
+      <c r="A412" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B412" s="135" t="s">
+      <c r="B412" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C412" s="135" t="s">
+      <c r="C412" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D412" s="135" t="s">
+      <c r="D412" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E412" s="135" t="s">
+      <c r="E412" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F412" s="135" t="s">
+      <c r="F412" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G412" s="135" t="s">
+      <c r="G412" s="163" t="s">
         <v>2793</v>
       </c>
-      <c r="H412" s="135" t="s">
+      <c r="H412" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I412" s="135" t="s">
+      <c r="I412" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1">
-      <c r="A413" s="135" t="s">
+    <row r="413" spans="1:9">
+      <c r="A413" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B413" s="135" t="s">
+      <c r="B413" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C413" s="135" t="s">
+      <c r="C413" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D413" s="135" t="s">
+      <c r="D413" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E413" s="135" t="s">
+      <c r="E413" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F413" s="135" t="s">
+      <c r="F413" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G413" s="135" t="s">
+      <c r="G413" s="163" t="s">
         <v>2794</v>
       </c>
-      <c r="H413" s="135" t="s">
+      <c r="H413" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I413" s="135" t="s">
+      <c r="I413" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1">
-      <c r="A414" s="135" t="s">
+    <row r="414" spans="1:9">
+      <c r="A414" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B414" s="135" t="s">
+      <c r="B414" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C414" s="135" t="s">
+      <c r="C414" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D414" s="135" t="s">
+      <c r="D414" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E414" s="135" t="s">
+      <c r="E414" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F414" s="135" t="s">
+      <c r="F414" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G414" s="135" t="s">
+      <c r="G414" s="163" t="s">
         <v>2795</v>
       </c>
-      <c r="H414" s="135" t="s">
+      <c r="H414" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I414" s="135" t="s">
+      <c r="I414" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1">
-      <c r="A415" s="135" t="s">
+    <row r="415" spans="1:9">
+      <c r="A415" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B415" s="135" t="s">
+      <c r="B415" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C415" s="135" t="s">
+      <c r="C415" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D415" s="135" t="s">
+      <c r="D415" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E415" s="135" t="s">
+      <c r="E415" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F415" s="135" t="s">
+      <c r="F415" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G415" s="135" t="s">
+      <c r="G415" s="163" t="s">
         <v>2796</v>
       </c>
-      <c r="H415" s="135" t="s">
+      <c r="H415" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I415" s="135" t="s">
+      <c r="I415" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1">
-      <c r="A416" s="135" t="s">
+    <row r="416" spans="1:9">
+      <c r="A416" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B416" s="135" t="s">
+      <c r="B416" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C416" s="135" t="s">
+      <c r="C416" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D416" s="135" t="s">
+      <c r="D416" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E416" s="135" t="s">
+      <c r="E416" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F416" s="135" t="s">
+      <c r="F416" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G416" s="135" t="s">
+      <c r="G416" s="163" t="s">
         <v>2797</v>
       </c>
-      <c r="H416" s="135" t="s">
+      <c r="H416" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I416" s="135" t="s">
+      <c r="I416" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1">
-      <c r="A417" s="135" t="s">
+    <row r="417" spans="1:9">
+      <c r="A417" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B417" s="135" t="s">
+      <c r="B417" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C417" s="135" t="s">
+      <c r="C417" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D417" s="135" t="s">
+      <c r="D417" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E417" s="135" t="s">
+      <c r="E417" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F417" s="135" t="s">
+      <c r="F417" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G417" s="135" t="s">
+      <c r="G417" s="163" t="s">
         <v>2798</v>
       </c>
-      <c r="H417" s="135" t="s">
+      <c r="H417" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I417" s="135" t="s">
+      <c r="I417" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1">
-      <c r="A418" s="135" t="s">
+    <row r="418" spans="1:9">
+      <c r="A418" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B418" s="135" t="s">
+      <c r="B418" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C418" s="135" t="s">
+      <c r="C418" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D418" s="135" t="s">
+      <c r="D418" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E418" s="135" t="s">
+      <c r="E418" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F418" s="135" t="s">
+      <c r="F418" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G418" s="135" t="s">
+      <c r="G418" s="163" t="s">
         <v>2799</v>
       </c>
-      <c r="H418" s="135" t="s">
+      <c r="H418" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I418" s="135" t="s">
+      <c r="I418" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1">
-      <c r="A419" s="135" t="s">
+    <row r="419" spans="1:9">
+      <c r="A419" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B419" s="135" t="s">
+      <c r="B419" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C419" s="135" t="s">
+      <c r="C419" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D419" s="135" t="s">
+      <c r="D419" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E419" s="135" t="s">
+      <c r="E419" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F419" s="135" t="s">
+      <c r="F419" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G419" s="135" t="s">
+      <c r="G419" s="163" t="s">
         <v>2800</v>
       </c>
-      <c r="H419" s="135" t="s">
+      <c r="H419" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I419" s="135" t="s">
+      <c r="I419" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1">
-      <c r="A420" s="135" t="s">
+    <row r="420" spans="1:9">
+      <c r="A420" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B420" s="135" t="s">
+      <c r="B420" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C420" s="135" t="s">
+      <c r="C420" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D420" s="135" t="s">
+      <c r="D420" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E420" s="135" t="s">
+      <c r="E420" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F420" s="135" t="s">
+      <c r="F420" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G420" s="135" t="s">
+      <c r="G420" s="163" t="s">
         <v>2801</v>
       </c>
-      <c r="H420" s="135" t="s">
+      <c r="H420" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I420" s="135" t="s">
+      <c r="I420" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1">
-      <c r="A421" s="135" t="s">
+    <row r="421" spans="1:9">
+      <c r="A421" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B421" s="135" t="s">
+      <c r="B421" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C421" s="135" t="s">
+      <c r="C421" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D421" s="135" t="s">
+      <c r="D421" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E421" s="135" t="s">
+      <c r="E421" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F421" s="135" t="s">
+      <c r="F421" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G421" s="135" t="s">
+      <c r="G421" s="163" t="s">
         <v>2802</v>
       </c>
-      <c r="H421" s="135" t="s">
+      <c r="H421" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I421" s="135" t="s">
+      <c r="I421" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1">
-      <c r="A422" s="135" t="s">
+    <row r="422" spans="1:9">
+      <c r="A422" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B422" s="135" t="s">
+      <c r="B422" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C422" s="135" t="s">
+      <c r="C422" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D422" s="135" t="s">
+      <c r="D422" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E422" s="135" t="s">
+      <c r="E422" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F422" s="135" t="s">
+      <c r="F422" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G422" s="135" t="s">
+      <c r="G422" s="163" t="s">
         <v>2803</v>
       </c>
-      <c r="H422" s="135" t="s">
+      <c r="H422" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I422" s="135" t="s">
+      <c r="I422" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1">
-      <c r="A423" s="135" t="s">
+    <row r="423" spans="1:9">
+      <c r="A423" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B423" s="135" t="s">
+      <c r="B423" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C423" s="135" t="s">
+      <c r="C423" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D423" s="135" t="s">
+      <c r="D423" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E423" s="135" t="s">
+      <c r="E423" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F423" s="135" t="s">
+      <c r="F423" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G423" s="135" t="s">
+      <c r="G423" s="163" t="s">
         <v>2804</v>
       </c>
-      <c r="H423" s="135" t="s">
+      <c r="H423" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I423" s="135" t="s">
+      <c r="I423" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1">
-      <c r="A424" s="135" t="s">
+    <row r="424" spans="1:9">
+      <c r="A424" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B424" s="135" t="s">
+      <c r="B424" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C424" s="135" t="s">
+      <c r="C424" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D424" s="135" t="s">
+      <c r="D424" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E424" s="135" t="s">
+      <c r="E424" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F424" s="135" t="s">
+      <c r="F424" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G424" s="135" t="s">
+      <c r="G424" s="163" t="s">
         <v>2805</v>
       </c>
-      <c r="H424" s="135" t="s">
+      <c r="H424" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I424" s="135" t="s">
+      <c r="I424" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1">
-      <c r="A425" s="135" t="s">
+    <row r="425" spans="1:9">
+      <c r="A425" s="163" t="s">
         <v>2753</v>
       </c>
-      <c r="B425" s="135" t="s">
+      <c r="B425" s="163" t="s">
         <v>2759</v>
       </c>
-      <c r="C425" s="135" t="s">
+      <c r="C425" s="163" t="s">
         <v>2760</v>
       </c>
-      <c r="D425" s="135" t="s">
+      <c r="D425" s="163" t="s">
         <v>2761</v>
       </c>
-      <c r="E425" s="135" t="s">
+      <c r="E425" s="163" t="s">
         <v>2762</v>
       </c>
-      <c r="F425" s="135" t="s">
+      <c r="F425" s="163" t="s">
         <v>2615</v>
       </c>
-      <c r="G425" s="135" t="s">
+      <c r="G425" s="163" t="s">
         <v>2806</v>
       </c>
-      <c r="H425" s="135" t="s">
+      <c r="H425" s="163" t="s">
         <v>2501</v>
       </c>
-      <c r="I425" s="135" t="s">
+      <c r="I425" s="163" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1">
+    <row r="426" spans="1:9">
       <c r="A426" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81397,7 +81569,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1">
+    <row r="427" spans="1:9">
       <c r="A427" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81426,7 +81598,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1">
+    <row r="428" spans="1:9">
       <c r="A428" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81455,7 +81627,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1">
+    <row r="429" spans="1:9">
       <c r="A429" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81484,7 +81656,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1">
+    <row r="430" spans="1:9">
       <c r="A430" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81513,7 +81685,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1">
+    <row r="431" spans="1:9">
       <c r="A431" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81542,7 +81714,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1">
+    <row r="432" spans="1:9">
       <c r="A432" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81571,7 +81743,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1">
+    <row r="433" spans="1:9">
       <c r="A433" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81600,7 +81772,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1">
+    <row r="434" spans="1:9">
       <c r="A434" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81629,7 +81801,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1">
+    <row r="435" spans="1:9">
       <c r="A435" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81658,7 +81830,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1">
+    <row r="436" spans="1:9">
       <c r="A436" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81687,7 +81859,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1">
+    <row r="437" spans="1:9">
       <c r="A437" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81716,7 +81888,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1">
+    <row r="438" spans="1:9">
       <c r="A438" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81745,7 +81917,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1">
+    <row r="439" spans="1:9">
       <c r="A439" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81774,7 +81946,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1">
+    <row r="440" spans="1:9">
       <c r="A440" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81803,7 +81975,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1">
+    <row r="441" spans="1:9">
       <c r="A441" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81832,7 +82004,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1">
+    <row r="442" spans="1:9">
       <c r="A442" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81861,7 +82033,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1">
+    <row r="443" spans="1:9">
       <c r="A443" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81890,7 +82062,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1">
+    <row r="444" spans="1:9">
       <c r="A444" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81919,7 +82091,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1">
+    <row r="445" spans="1:9">
       <c r="A445" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81948,7 +82120,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1">
+    <row r="446" spans="1:9">
       <c r="A446" s="135" t="s">
         <v>2753</v>
       </c>
@@ -81977,7 +82149,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1">
+    <row r="447" spans="1:9">
       <c r="A447" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82006,7 +82178,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1">
+    <row r="448" spans="1:9">
       <c r="A448" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82035,7 +82207,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1">
+    <row r="449" spans="1:9">
       <c r="A449" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82064,7 +82236,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1">
+    <row r="450" spans="1:9">
       <c r="A450" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82093,7 +82265,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1">
+    <row r="451" spans="1:9">
       <c r="A451" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82122,7 +82294,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1">
+    <row r="452" spans="1:9">
       <c r="A452" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82151,7 +82323,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1">
+    <row r="453" spans="1:9">
       <c r="A453" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82180,7 +82352,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1">
+    <row r="454" spans="1:9">
       <c r="A454" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82209,7 +82381,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1">
+    <row r="455" spans="1:9">
       <c r="A455" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82238,7 +82410,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1">
+    <row r="456" spans="1:9">
       <c r="A456" s="135" t="s">
         <v>2753</v>
       </c>
@@ -82267,7 +82439,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1">
+    <row r="457" spans="1:9">
       <c r="A457" s="135" t="s">
         <v>2846</v>
       </c>
@@ -82296,7 +82468,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1">
+    <row r="458" spans="1:9">
       <c r="A458" s="135" t="s">
         <v>2846</v>
       </c>
@@ -82325,7 +82497,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1">
+    <row r="459" spans="1:9">
       <c r="A459" s="135" t="s">
         <v>2846</v>
       </c>
@@ -82354,7 +82526,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1">
+    <row r="460" spans="1:9">
       <c r="A460" s="135" t="s">
         <v>2846</v>
       </c>
@@ -82383,7 +82555,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1">
+    <row r="461" spans="1:9">
       <c r="A461" s="135" t="s">
         <v>2846</v>
       </c>
@@ -82412,7 +82584,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1">
+    <row r="462" spans="1:9">
       <c r="A462" s="135" t="s">
         <v>2846</v>
       </c>
@@ -82441,7 +82613,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1">
+    <row r="463" spans="1:9">
       <c r="A463" s="135" t="s">
         <v>2846</v>
       </c>
@@ -82470,7 +82642,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1">
+    <row r="464" spans="1:9">
       <c r="A464" s="135" t="s">
         <v>2862</v>
       </c>
@@ -82499,7 +82671,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1">
+    <row r="465" spans="1:9">
       <c r="A465" s="135" t="s">
         <v>2862</v>
       </c>
@@ -82528,7 +82700,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1">
+    <row r="466" spans="1:9">
       <c r="A466" s="135" t="s">
         <v>2862</v>
       </c>
@@ -82557,7 +82729,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1">
+    <row r="467" spans="1:9">
       <c r="A467" s="135" t="s">
         <v>2862</v>
       </c>
@@ -82586,7 +82758,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1">
+    <row r="468" spans="1:9">
       <c r="D468" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82606,7 +82778,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1">
+    <row r="469" spans="1:9">
       <c r="D469" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82626,7 +82798,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1">
+    <row r="470" spans="1:9">
       <c r="D470" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82646,7 +82818,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1">
+    <row r="471" spans="1:9">
       <c r="D471" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82666,7 +82838,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1">
+    <row r="472" spans="1:9">
       <c r="D472" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82686,7 +82858,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1">
+    <row r="473" spans="1:9">
       <c r="D473" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82706,7 +82878,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1">
+    <row r="474" spans="1:9">
       <c r="D474" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82726,7 +82898,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1">
+    <row r="475" spans="1:9">
       <c r="D475" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82746,7 +82918,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1">
+    <row r="476" spans="1:9">
       <c r="D476" s="135" t="s">
         <v>2889</v>
       </c>
@@ -82766,7 +82938,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1">
+    <row r="477" spans="1:9">
       <c r="A477" s="141"/>
       <c r="B477" s="141"/>
       <c r="C477" s="141"/>
@@ -82789,7 +82961,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1">
+    <row r="478" spans="1:9">
       <c r="A478" s="141"/>
       <c r="B478" s="141"/>
       <c r="C478" s="141"/>
@@ -82812,7 +82984,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1">
+    <row r="479" spans="1:9">
       <c r="A479" s="141"/>
       <c r="B479" s="141"/>
       <c r="C479" s="141"/>
@@ -82835,7 +83007,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1">
+    <row r="480" spans="1:9">
       <c r="A480" s="141"/>
       <c r="B480" s="141"/>
       <c r="C480" s="141"/>
@@ -82858,7 +83030,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1">
+    <row r="481" spans="1:9">
       <c r="A481" s="141"/>
       <c r="B481" s="141"/>
       <c r="C481" s="141"/>
@@ -82881,7 +83053,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1">
+    <row r="482" spans="1:9">
       <c r="A482" s="141"/>
       <c r="B482" s="141"/>
       <c r="C482" s="141"/>
@@ -82904,7 +83076,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1">
+    <row r="483" spans="1:9">
       <c r="A483" s="141"/>
       <c r="B483" s="141"/>
       <c r="C483" s="141"/>
@@ -82927,7 +83099,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1">
+    <row r="484" spans="1:9">
       <c r="A484" s="141"/>
       <c r="B484" s="141"/>
       <c r="C484" s="141"/>
@@ -82950,7 +83122,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1">
+    <row r="485" spans="1:9">
       <c r="A485" s="141"/>
       <c r="B485" s="141"/>
       <c r="C485" s="141"/>
@@ -82973,7 +83145,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1">
+    <row r="486" spans="1:9">
       <c r="A486" s="141"/>
       <c r="B486" s="141"/>
       <c r="C486" s="141"/>
@@ -82996,7 +83168,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1">
+    <row r="487" spans="1:9">
       <c r="A487" s="141"/>
       <c r="B487" s="141"/>
       <c r="C487" s="141"/>
@@ -83019,7 +83191,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1">
+    <row r="488" spans="1:9">
       <c r="A488" s="141"/>
       <c r="B488" s="141"/>
       <c r="C488" s="141"/>
@@ -83042,7 +83214,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1">
+    <row r="489" spans="1:9">
       <c r="A489" s="141"/>
       <c r="B489" s="141"/>
       <c r="C489" s="141"/>
@@ -83065,7 +83237,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1">
+    <row r="490" spans="1:9">
       <c r="A490" s="141"/>
       <c r="B490" s="141"/>
       <c r="C490" s="141"/>
@@ -83088,7 +83260,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1">
+    <row r="491" spans="1:9">
       <c r="A491" s="139"/>
       <c r="B491" s="139"/>
       <c r="C491" s="139"/>
@@ -83111,7 +83283,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1">
+    <row r="492" spans="1:9">
       <c r="A492" s="139"/>
       <c r="B492" s="139"/>
       <c r="C492" s="139"/>
@@ -83134,7 +83306,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="493" spans="1:9" hidden="1">
+    <row r="493" spans="1:9">
       <c r="A493" s="139"/>
       <c r="B493" s="139"/>
       <c r="C493" s="139"/>
@@ -83157,7 +83329,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1">
+    <row r="494" spans="1:9">
       <c r="A494" s="139"/>
       <c r="B494" s="139"/>
       <c r="C494" s="139"/>
@@ -83180,7 +83352,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1">
+    <row r="495" spans="1:9">
       <c r="D495" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83200,7 +83372,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1">
+    <row r="496" spans="1:9">
       <c r="D496" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83220,7 +83392,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="497" spans="4:9" hidden="1">
+    <row r="497" spans="4:9">
       <c r="D497" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83240,7 +83412,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="498" spans="4:9" hidden="1">
+    <row r="498" spans="4:9">
       <c r="D498" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83260,7 +83432,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="499" spans="4:9" hidden="1">
+    <row r="499" spans="4:9">
       <c r="D499" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83280,7 +83452,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="500" spans="4:9" hidden="1">
+    <row r="500" spans="4:9">
       <c r="D500" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83300,7 +83472,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="501" spans="4:9" hidden="1">
+    <row r="501" spans="4:9">
       <c r="D501" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83320,7 +83492,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="502" spans="4:9" hidden="1">
+    <row r="502" spans="4:9">
       <c r="D502" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83340,7 +83512,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="503" spans="4:9" hidden="1">
+    <row r="503" spans="4:9">
       <c r="D503" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83360,7 +83532,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="504" spans="4:9" hidden="1">
+    <row r="504" spans="4:9">
       <c r="D504" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83380,7 +83552,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="505" spans="4:9" hidden="1">
+    <row r="505" spans="4:9">
       <c r="D505" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83400,7 +83572,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="506" spans="4:9" hidden="1">
+    <row r="506" spans="4:9">
       <c r="D506" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83420,7 +83592,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="507" spans="4:9" hidden="1">
+    <row r="507" spans="4:9">
       <c r="D507" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83440,7 +83612,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="508" spans="4:9" hidden="1">
+    <row r="508" spans="4:9">
       <c r="D508" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83460,7 +83632,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="509" spans="4:9" hidden="1">
+    <row r="509" spans="4:9">
       <c r="D509" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83480,7 +83652,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="510" spans="4:9" hidden="1">
+    <row r="510" spans="4:9">
       <c r="D510" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83500,7 +83672,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="511" spans="4:9" hidden="1">
+    <row r="511" spans="4:9">
       <c r="D511" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83520,7 +83692,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="512" spans="4:9" hidden="1">
+    <row r="512" spans="4:9">
       <c r="D512" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83540,7 +83712,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1">
+    <row r="513" spans="1:9">
       <c r="D513" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83560,7 +83732,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="514" spans="1:9" hidden="1">
+    <row r="514" spans="1:9">
       <c r="D514" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83580,7 +83752,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1">
+    <row r="515" spans="1:9">
       <c r="D515" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83600,7 +83772,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1">
+    <row r="516" spans="1:9">
       <c r="D516" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83620,7 +83792,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1">
+    <row r="517" spans="1:9">
       <c r="D517" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83640,7 +83812,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1">
+    <row r="518" spans="1:9">
       <c r="D518" s="135" t="s">
         <v>3125</v>
       </c>
@@ -83660,7 +83832,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="519" spans="1:9" hidden="1">
+    <row r="519" spans="1:9">
       <c r="A519" s="141"/>
       <c r="B519" s="141"/>
       <c r="C519" s="141"/>
@@ -83683,7 +83855,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1">
+    <row r="520" spans="1:9">
       <c r="A520" s="141"/>
       <c r="B520" s="141"/>
       <c r="C520" s="141"/>
@@ -83706,7 +83878,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="521" spans="1:9" hidden="1">
+    <row r="521" spans="1:9">
       <c r="A521" s="141"/>
       <c r="B521" s="141"/>
       <c r="C521" s="141"/>
@@ -83729,7 +83901,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="522" spans="1:9" hidden="1">
+    <row r="522" spans="1:9">
       <c r="A522" s="141"/>
       <c r="B522" s="141"/>
       <c r="C522" s="141"/>
@@ -83752,7 +83924,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1">
+    <row r="523" spans="1:9">
       <c r="A523" s="141"/>
       <c r="B523" s="141"/>
       <c r="C523" s="141"/>
@@ -83775,7 +83947,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1">
+    <row r="524" spans="1:9">
       <c r="A524" s="141"/>
       <c r="B524" s="141"/>
       <c r="C524" s="141"/>
@@ -83798,7 +83970,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="525" spans="1:9" hidden="1">
+    <row r="525" spans="1:9">
       <c r="A525" s="141"/>
       <c r="B525" s="141"/>
       <c r="C525" s="141"/>
@@ -83821,7 +83993,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="526" spans="1:9" hidden="1">
+    <row r="526" spans="1:9">
       <c r="D526" s="141" t="s">
         <v>3176</v>
       </c>
@@ -83841,7 +84013,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1">
+    <row r="527" spans="1:9">
       <c r="D527" s="141" t="s">
         <v>3176</v>
       </c>
@@ -83861,7 +84033,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1">
+    <row r="528" spans="1:9">
       <c r="D528" s="141" t="s">
         <v>3176</v>
       </c>
@@ -83881,7 +84053,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1">
+    <row r="529" spans="1:9">
       <c r="A529" s="141"/>
       <c r="B529" s="141"/>
       <c r="C529" s="141"/>
@@ -83904,7 +84076,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1">
+    <row r="530" spans="1:9">
       <c r="A530" s="141"/>
       <c r="B530" s="141"/>
       <c r="C530" s="141"/>
@@ -83927,7 +84099,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="531" spans="1:9" hidden="1">
+    <row r="531" spans="1:9">
       <c r="A531" s="141"/>
       <c r="B531" s="141"/>
       <c r="C531" s="141"/>
@@ -83950,7 +84122,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1">
+    <row r="532" spans="1:9">
       <c r="A532" s="141"/>
       <c r="B532" s="141"/>
       <c r="C532" s="141"/>
@@ -83973,7 +84145,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1">
+    <row r="533" spans="1:9">
       <c r="A533" s="141"/>
       <c r="B533" s="141"/>
       <c r="C533" s="141"/>
@@ -83996,7 +84168,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1">
+    <row r="534" spans="1:9">
       <c r="A534" s="141"/>
       <c r="B534" s="141"/>
       <c r="C534" s="141"/>
@@ -84019,7 +84191,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="535" spans="1:9" hidden="1">
+    <row r="535" spans="1:9">
       <c r="D535" s="141" t="s">
         <v>3176</v>
       </c>
@@ -84039,7 +84211,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1">
+    <row r="536" spans="1:9">
       <c r="D536" s="141" t="s">
         <v>3176</v>
       </c>
@@ -84059,7 +84231,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1">
+    <row r="537" spans="1:9">
       <c r="A537" s="141"/>
       <c r="B537" s="141"/>
       <c r="C537" s="141"/>
@@ -84082,454 +84254,1460 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1">
-      <c r="A538" s="141"/>
-      <c r="B538" s="141"/>
-      <c r="C538" s="141"/>
-      <c r="D538" s="141"/>
-      <c r="E538" s="141"/>
-      <c r="F538" s="141"/>
-      <c r="G538" s="141"/>
-      <c r="H538" s="141"/>
-      <c r="I538" s="141"/>
-    </row>
-    <row r="539" spans="1:9" hidden="1">
-      <c r="A539" s="141"/>
-      <c r="B539" s="141"/>
-      <c r="C539" s="141"/>
-      <c r="D539" s="141"/>
-      <c r="E539" s="141"/>
-      <c r="F539" s="141"/>
-      <c r="G539" s="141"/>
-      <c r="H539" s="141"/>
-      <c r="I539" s="141"/>
-    </row>
-    <row r="540" spans="1:9" hidden="1">
-      <c r="A540" s="139"/>
-      <c r="B540" s="139"/>
-      <c r="C540" s="139"/>
-      <c r="D540" s="139"/>
-      <c r="E540" s="139"/>
-      <c r="F540" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G540" s="139" t="s">
-        <v>3024</v>
-      </c>
-      <c r="H540" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I540" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9" hidden="1">
-      <c r="A541" s="139"/>
-      <c r="B541" s="139"/>
-      <c r="C541" s="139"/>
-      <c r="D541" s="139"/>
-      <c r="E541" s="139"/>
-      <c r="F541" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G541" s="139" t="s">
-        <v>3025</v>
-      </c>
-      <c r="H541" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I541" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9" hidden="1">
-      <c r="A542" s="139"/>
-      <c r="B542" s="139"/>
-      <c r="C542" s="139"/>
-      <c r="D542" s="139"/>
-      <c r="E542" s="139"/>
-      <c r="F542" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G542" s="139" t="s">
-        <v>3026</v>
-      </c>
-      <c r="H542" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I542" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9" hidden="1">
-      <c r="A543" s="139"/>
-      <c r="B543" s="139"/>
-      <c r="C543" s="139"/>
-      <c r="D543" s="139"/>
-      <c r="E543" s="139"/>
-      <c r="F543" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G543" s="139" t="s">
-        <v>3027</v>
-      </c>
-      <c r="H543" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I543" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9" hidden="1">
-      <c r="A544" s="139"/>
-      <c r="B544" s="139"/>
-      <c r="C544" s="139"/>
-      <c r="D544" s="139"/>
-      <c r="E544" s="139"/>
-      <c r="F544" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G544" s="139" t="s">
-        <v>3029</v>
-      </c>
-      <c r="H544" s="139" t="s">
-        <v>2648</v>
-      </c>
-      <c r="I544" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="545" spans="1:9" hidden="1">
-      <c r="A545" s="139"/>
-      <c r="B545" s="139"/>
-      <c r="C545" s="139"/>
-      <c r="D545" s="139"/>
-      <c r="E545" s="139"/>
-      <c r="F545" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G545" s="139" t="s">
-        <v>3030</v>
-      </c>
-      <c r="H545" s="139" t="s">
-        <v>2650</v>
-      </c>
-      <c r="I545" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="546" spans="1:9" hidden="1">
-      <c r="A546" s="139"/>
-      <c r="B546" s="139"/>
-      <c r="C546" s="139"/>
-      <c r="D546" s="139"/>
-      <c r="E546" s="139"/>
-      <c r="F546" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G546" s="139" t="s">
-        <v>3031</v>
-      </c>
-      <c r="H546" s="135" t="s">
-        <v>2710</v>
-      </c>
-      <c r="I546" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="547" spans="1:9" hidden="1">
-      <c r="A547" s="139"/>
-      <c r="B547" s="139"/>
-      <c r="C547" s="139"/>
-      <c r="D547" s="139"/>
-      <c r="E547" s="139"/>
-      <c r="F547" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G547" s="139" t="s">
-        <v>3032</v>
-      </c>
-      <c r="H547" s="139" t="s">
+    <row r="538" spans="1:9">
+      <c r="A538" s="144"/>
+      <c r="B538" s="144"/>
+      <c r="C538" s="144"/>
+      <c r="D538" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E538" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F538" s="144" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G538" s="143" t="s">
+        <v>2770</v>
+      </c>
+      <c r="H538" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I547" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="548" spans="1:9" hidden="1">
-      <c r="A548" s="139"/>
-      <c r="B548" s="139"/>
-      <c r="C548" s="139"/>
-      <c r="D548" s="139"/>
-      <c r="E548" s="139"/>
-      <c r="F548" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G548" s="139" t="s">
-        <v>2784</v>
-      </c>
-      <c r="H548" s="139" t="s">
+      <c r="I538" s="144"/>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" s="144"/>
+      <c r="B539" s="144"/>
+      <c r="C539" s="144"/>
+      <c r="D539" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E539" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F539" s="144" t="s">
+        <v>921</v>
+      </c>
+      <c r="G539" s="164" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H539" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I548" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="549" spans="1:9" hidden="1">
-      <c r="A549" s="139"/>
-      <c r="B549" s="139"/>
-      <c r="C549" s="139"/>
-      <c r="D549" s="139"/>
-      <c r="E549" s="139"/>
-      <c r="F549" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G549" s="139" t="s">
-        <v>3033</v>
-      </c>
-      <c r="H549" s="139" t="s">
+      <c r="I539" s="144"/>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" s="144"/>
+      <c r="B540" s="144"/>
+      <c r="C540" s="144"/>
+      <c r="D540" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E540" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F540" s="144" t="s">
+        <v>3211</v>
+      </c>
+      <c r="G540" s="164" t="s">
+        <v>3234</v>
+      </c>
+      <c r="H540" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I549" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="550" spans="1:9" hidden="1">
-      <c r="A550" s="139"/>
-      <c r="B550" s="139"/>
-      <c r="C550" s="139"/>
-      <c r="D550" s="139"/>
-      <c r="E550" s="139"/>
-      <c r="F550" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G550" s="139" t="s">
-        <v>2782</v>
-      </c>
-      <c r="H550" s="139" t="s">
+      <c r="I540" s="144"/>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" s="144"/>
+      <c r="B541" s="144"/>
+      <c r="C541" s="144"/>
+      <c r="D541" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E541" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F541" s="144" t="s">
+        <v>3212</v>
+      </c>
+      <c r="G541" s="164" t="s">
+        <v>2764</v>
+      </c>
+      <c r="H541" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I550" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="551" spans="1:9" hidden="1">
-      <c r="A551" s="139"/>
-      <c r="B551" s="139"/>
-      <c r="C551" s="139"/>
-      <c r="D551" s="139"/>
-      <c r="E551" s="139"/>
-      <c r="F551" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G551" s="139" t="s">
-        <v>3034</v>
-      </c>
-      <c r="H551" s="139" t="s">
+      <c r="I541" s="144"/>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" s="144"/>
+      <c r="B542" s="144"/>
+      <c r="C542" s="144"/>
+      <c r="D542" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E542" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F542" s="144" t="s">
+        <v>3213</v>
+      </c>
+      <c r="G542" s="164" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H542" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I551" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" hidden="1">
-      <c r="A552" s="139"/>
-      <c r="B552" s="139"/>
-      <c r="C552" s="139"/>
-      <c r="D552" s="139"/>
-      <c r="E552" s="139"/>
-      <c r="F552" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G552" s="139" t="s">
-        <v>2783</v>
-      </c>
-      <c r="H552" s="139" t="s">
+      <c r="I542" s="144"/>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" s="144"/>
+      <c r="B543" s="144"/>
+      <c r="C543" s="144"/>
+      <c r="D543" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E543" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F543" s="144" t="s">
+        <v>3214</v>
+      </c>
+      <c r="G543" s="164" t="s">
+        <v>3236</v>
+      </c>
+      <c r="H543" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I552" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" hidden="1">
-      <c r="A553" s="139"/>
-      <c r="B553" s="139"/>
-      <c r="C553" s="139"/>
-      <c r="D553" s="139"/>
-      <c r="E553" s="139"/>
-      <c r="F553" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G553" s="139" t="s">
-        <v>3035</v>
-      </c>
-      <c r="H553" s="139" t="s">
+      <c r="I543" s="144"/>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" s="144"/>
+      <c r="B544" s="144"/>
+      <c r="C544" s="144"/>
+      <c r="D544" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E544" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F544" s="144" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G544" s="164" t="s">
+        <v>2768</v>
+      </c>
+      <c r="H544" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I553" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" hidden="1">
-      <c r="A554" s="139"/>
-      <c r="B554" s="139"/>
-      <c r="C554" s="139"/>
-      <c r="D554" s="139"/>
-      <c r="E554" s="139"/>
-      <c r="F554" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G554" s="139" t="s">
-        <v>3036</v>
-      </c>
-      <c r="H554" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I554" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" hidden="1">
-      <c r="A555" s="139"/>
-      <c r="B555" s="139"/>
-      <c r="C555" s="139"/>
-      <c r="D555" s="139"/>
-      <c r="E555" s="139"/>
-      <c r="F555" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G555" s="139" t="s">
-        <v>3037</v>
-      </c>
-      <c r="H555" s="135" t="s">
-        <v>2403</v>
-      </c>
-      <c r="I555" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" hidden="1">
-      <c r="A556" s="139"/>
-      <c r="B556" s="139"/>
-      <c r="C556" s="139"/>
-      <c r="D556" s="139"/>
-      <c r="E556" s="139"/>
-      <c r="F556" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G556" s="139" t="s">
-        <v>3038</v>
-      </c>
-      <c r="H556" s="139" t="s">
-        <v>2650</v>
-      </c>
-      <c r="I556" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" hidden="1">
-      <c r="A557" s="139"/>
-      <c r="B557" s="139"/>
-      <c r="C557" s="139"/>
-      <c r="D557" s="139"/>
-      <c r="E557" s="139"/>
-      <c r="F557" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G557" s="139" t="s">
-        <v>3039</v>
-      </c>
-      <c r="H557" s="139" t="s">
+      <c r="I544" s="144"/>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="D545" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E545" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F545" s="144" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G545" s="143" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H545" s="142" t="s">
         <v>2501</v>
       </c>
-      <c r="I557" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" hidden="1">
-      <c r="A558" s="139"/>
-      <c r="B558" s="139"/>
-      <c r="C558" s="139"/>
-      <c r="D558" s="139"/>
-      <c r="E558" s="139"/>
-      <c r="F558" s="139" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G558" s="139" t="s">
-        <v>3072</v>
-      </c>
-      <c r="H558" s="135" t="s">
-        <v>2493</v>
-      </c>
-      <c r="I558" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" hidden="1">
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" s="144"/>
+      <c r="B546" s="144"/>
+      <c r="C546" s="144"/>
+      <c r="D546" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E546" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F546" s="144" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G546" s="164" t="s">
+        <v>3238</v>
+      </c>
+      <c r="H546" s="142" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I546" s="144"/>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" s="144"/>
+      <c r="B547" s="144"/>
+      <c r="C547" s="144"/>
+      <c r="D547" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E547" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F547" s="144" t="s">
+        <v>3217</v>
+      </c>
+      <c r="G547" s="164" t="s">
+        <v>3239</v>
+      </c>
+      <c r="H547" s="142" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I547" s="144"/>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" s="144"/>
+      <c r="B548" s="144"/>
+      <c r="C548" s="144"/>
+      <c r="D548" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E548" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F548" s="144" t="s">
+        <v>3218</v>
+      </c>
+      <c r="G548" s="164" t="s">
+        <v>3240</v>
+      </c>
+      <c r="H548" s="142" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I548" s="144"/>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" s="144"/>
+      <c r="B549" s="144"/>
+      <c r="C549" s="144"/>
+      <c r="D549" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E549" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F549" s="144" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G549" s="164" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H549" s="142" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I549" s="144"/>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="D550" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E550" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F550" s="144" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G550" s="143" t="s">
+        <v>3242</v>
+      </c>
+      <c r="H550" s="142" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" s="144"/>
+      <c r="B551" s="144"/>
+      <c r="C551" s="144"/>
+      <c r="D551" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E551" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F551" s="144" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G551" s="164" t="s">
+        <v>3243</v>
+      </c>
+      <c r="H551" s="142" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I551" s="144"/>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" s="144"/>
+      <c r="B552" s="144"/>
+      <c r="C552" s="144"/>
+      <c r="D552" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E552" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F552" s="144" t="s">
+        <v>3220</v>
+      </c>
+      <c r="G552" s="164" t="s">
+        <v>2769</v>
+      </c>
+      <c r="H552" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I552" s="144"/>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" s="144"/>
+      <c r="B553" s="144"/>
+      <c r="C553" s="144"/>
+      <c r="D553" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E553" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F553" s="144" t="s">
+        <v>3221</v>
+      </c>
+      <c r="G553" s="164" t="s">
+        <v>3244</v>
+      </c>
+      <c r="H553" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I553" s="144"/>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" s="144"/>
+      <c r="B554" s="144"/>
+      <c r="C554" s="144"/>
+      <c r="D554" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E554" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F554" s="144" t="s">
+        <v>951</v>
+      </c>
+      <c r="G554" s="164" t="s">
+        <v>2766</v>
+      </c>
+      <c r="H554" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I554" s="144"/>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" s="144"/>
+      <c r="B555" s="144"/>
+      <c r="C555" s="144"/>
+      <c r="D555" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E555" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F555" s="144" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G555" s="164" t="s">
+        <v>3245</v>
+      </c>
+      <c r="H555" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I555" s="144"/>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" s="144"/>
+      <c r="B556" s="144"/>
+      <c r="C556" s="144"/>
+      <c r="D556" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E556" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F556" s="144" t="s">
+        <v>3223</v>
+      </c>
+      <c r="G556" s="164" t="s">
+        <v>3246</v>
+      </c>
+      <c r="H556" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I556" s="144"/>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" s="144"/>
+      <c r="B557" s="144"/>
+      <c r="C557" s="144"/>
+      <c r="D557" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E557" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F557" s="144" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G557" s="164" t="s">
+        <v>3247</v>
+      </c>
+      <c r="H557" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I557" s="135" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" s="144"/>
+      <c r="B558" s="144"/>
+      <c r="C558" s="144"/>
+      <c r="D558" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E558" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F558" s="144" t="s">
+        <v>3225</v>
+      </c>
+      <c r="G558" s="144" t="s">
+        <v>2500</v>
+      </c>
+      <c r="H558" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I558" s="144"/>
+    </row>
+    <row r="559" spans="1:9">
       <c r="A559" s="144"/>
       <c r="B559" s="144"/>
       <c r="C559" s="144"/>
-      <c r="D559" s="144"/>
-      <c r="E559" s="144"/>
-      <c r="F559" s="145" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G559" s="144" t="s">
-        <v>3177</v>
-      </c>
-      <c r="H559" s="144" t="s">
+      <c r="D559" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E559" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F559" s="144" t="s">
+        <v>3226</v>
+      </c>
+      <c r="G559" s="164" t="s">
+        <v>3248</v>
+      </c>
+      <c r="H559" s="143" t="s">
         <v>2501</v>
       </c>
-      <c r="I559" s="139" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" hidden="1">
+      <c r="I559" s="144"/>
+    </row>
+    <row r="560" spans="1:9">
       <c r="A560" s="144"/>
       <c r="B560" s="144"/>
       <c r="C560" s="144"/>
-      <c r="D560" s="144"/>
-      <c r="E560" s="144"/>
-      <c r="F560" s="145" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G560" s="144" t="s">
-        <v>3178</v>
-      </c>
-      <c r="H560" s="144" t="s">
+      <c r="D560" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E560" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F560" s="144" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G560" s="164" t="s">
+        <v>2767</v>
+      </c>
+      <c r="H560" s="143" t="s">
         <v>2501</v>
       </c>
-      <c r="I560" s="145" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" hidden="1">
+      <c r="I560" s="144"/>
+    </row>
+    <row r="561" spans="1:9">
       <c r="A561" s="144"/>
       <c r="B561" s="144"/>
       <c r="C561" s="144"/>
-      <c r="D561" s="144"/>
-      <c r="E561" s="144"/>
-      <c r="F561" s="145"/>
-      <c r="G561" s="144"/>
-      <c r="H561" s="144"/>
-      <c r="I561" s="145"/>
-    </row>
-    <row r="562" spans="1:9" hidden="1">
+      <c r="D561" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E561" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F561" s="144" t="s">
+        <v>3228</v>
+      </c>
+      <c r="G561" s="164" t="s">
+        <v>3249</v>
+      </c>
+      <c r="H561" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I561" s="144"/>
+    </row>
+    <row r="562" spans="1:9">
       <c r="A562" s="144"/>
       <c r="B562" s="144"/>
       <c r="C562" s="144"/>
-      <c r="D562" s="144"/>
-      <c r="E562" s="144"/>
-      <c r="F562" s="145" t="s">
+      <c r="D562" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E562" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F562" s="144" t="s">
+        <v>3229</v>
+      </c>
+      <c r="G562" s="164" t="s">
+        <v>3250</v>
+      </c>
+      <c r="H562" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I562" s="144"/>
+    </row>
+    <row r="563" spans="1:9">
+      <c r="A563" s="144"/>
+      <c r="B563" s="144"/>
+      <c r="C563" s="144"/>
+      <c r="D563" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E563" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F563" s="144" t="s">
+        <v>3230</v>
+      </c>
+      <c r="G563" s="164" t="s">
+        <v>3251</v>
+      </c>
+      <c r="H563" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I563" s="144"/>
+    </row>
+    <row r="564" spans="1:9">
+      <c r="A564" s="144"/>
+      <c r="B564" s="144"/>
+      <c r="C564" s="144"/>
+      <c r="D564" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E564" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F564" s="144" t="s">
+        <v>3231</v>
+      </c>
+      <c r="G564" s="164" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H564" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I564" s="144"/>
+    </row>
+    <row r="565" spans="1:9">
+      <c r="A565" s="144"/>
+      <c r="B565" s="144"/>
+      <c r="C565" s="144"/>
+      <c r="D565" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E565" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F565" s="144" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G565" s="164" t="s">
+        <v>2765</v>
+      </c>
+      <c r="H565" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I565" s="144"/>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" s="144"/>
+      <c r="B566" s="144"/>
+      <c r="C566" s="144"/>
+      <c r="D566" s="144" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E566" s="135" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F566" s="144" t="s">
+        <v>3233</v>
+      </c>
+      <c r="G566" s="143" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H566" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I566" s="144"/>
+    </row>
+    <row r="567" spans="1:9">
+      <c r="A567" s="144"/>
+      <c r="B567" s="144"/>
+      <c r="C567" s="144"/>
+      <c r="D567" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E567" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F567" s="144" t="s">
+        <v>3256</v>
+      </c>
+      <c r="G567" s="135" t="s">
+        <v>3256</v>
+      </c>
+      <c r="H567" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I567" s="144"/>
+    </row>
+    <row r="568" spans="1:9">
+      <c r="A568" s="144"/>
+      <c r="B568" s="144"/>
+      <c r="C568" s="144"/>
+      <c r="D568" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E568" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F568" s="144" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G568" s="164" t="s">
+        <v>2772</v>
+      </c>
+      <c r="H568" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I568" s="144"/>
+    </row>
+    <row r="569" spans="1:9">
+      <c r="A569" s="144"/>
+      <c r="B569" s="144"/>
+      <c r="C569" s="144"/>
+      <c r="D569" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E569" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F569" s="144" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G569" s="164" t="s">
+        <v>2773</v>
+      </c>
+      <c r="H569" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I569" s="144"/>
+    </row>
+    <row r="570" spans="1:9">
+      <c r="A570" s="144"/>
+      <c r="B570" s="144"/>
+      <c r="C570" s="144"/>
+      <c r="D570" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E570" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F570" s="144" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G570" s="164" t="s">
+        <v>3257</v>
+      </c>
+      <c r="H570" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I570" s="144"/>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" s="144"/>
+      <c r="B571" s="144"/>
+      <c r="C571" s="144"/>
+      <c r="D571" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E571" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F571" s="144" t="s">
+        <v>3258</v>
+      </c>
+      <c r="G571" s="164" t="s">
+        <v>3258</v>
+      </c>
+      <c r="H571" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I571" s="144"/>
+    </row>
+    <row r="572" spans="1:9">
+      <c r="A572" s="144"/>
+      <c r="B572" s="144"/>
+      <c r="C572" s="144"/>
+      <c r="D572" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E572" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F572" s="144" t="s">
+        <v>3259</v>
+      </c>
+      <c r="G572" s="164" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H572" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I572" s="144"/>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" s="144"/>
+      <c r="B573" s="144"/>
+      <c r="C573" s="144"/>
+      <c r="D573" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E573" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F573" s="144" t="s">
+        <v>3260</v>
+      </c>
+      <c r="G573" s="164" t="s">
+        <v>2775</v>
+      </c>
+      <c r="H573" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I573" s="144"/>
+    </row>
+    <row r="574" spans="1:9">
+      <c r="A574" s="144"/>
+      <c r="B574" s="144"/>
+      <c r="C574" s="144"/>
+      <c r="D574" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E574" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F574" s="144" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G574" s="164" t="s">
+        <v>3261</v>
+      </c>
+      <c r="H574" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I574" s="144"/>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" s="144"/>
+      <c r="B575" s="144"/>
+      <c r="C575" s="144"/>
+      <c r="D575" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E575" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F575" s="144" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G575" s="164" t="s">
+        <v>2776</v>
+      </c>
+      <c r="H575" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I575" s="144"/>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" s="144"/>
+      <c r="B576" s="144"/>
+      <c r="C576" s="144"/>
+      <c r="D576" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E576" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F576" s="144" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G576" s="164" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H576" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I576" s="144"/>
+    </row>
+    <row r="577" spans="1:9">
+      <c r="A577" s="144"/>
+      <c r="B577" s="144"/>
+      <c r="C577" s="144"/>
+      <c r="D577" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E577" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F577" s="144" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G577" s="164" t="s">
+        <v>2779</v>
+      </c>
+      <c r="H577" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I577" s="144"/>
+    </row>
+    <row r="578" spans="1:9">
+      <c r="A578" s="144"/>
+      <c r="B578" s="144"/>
+      <c r="C578" s="144"/>
+      <c r="D578" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E578" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F578" s="144" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G578" s="164" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H578" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I578" s="144"/>
+    </row>
+    <row r="579" spans="1:9">
+      <c r="A579" s="144"/>
+      <c r="B579" s="144"/>
+      <c r="C579" s="144"/>
+      <c r="D579" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E579" s="144" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F579" s="144" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G579" s="164" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H579" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I579" s="144"/>
+    </row>
+    <row r="580" spans="1:9">
+      <c r="A580" s="144"/>
+      <c r="B580" s="144"/>
+      <c r="C580" s="144"/>
+      <c r="D580" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E580" s="144" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F580" s="144" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G580" s="164" t="s">
+        <v>3266</v>
+      </c>
+      <c r="H580" s="143" t="s">
+        <v>2501</v>
+      </c>
+      <c r="I580" s="144"/>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" s="144"/>
+      <c r="B581" s="144"/>
+      <c r="C581" s="144"/>
+      <c r="D581" s="144" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E581" s="144" t="s">
+        <v>32